--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="1513">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -6576,89 +6576,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Lv5开启，在3D捕鱼中开炮可提升等级！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Lv1开启，在3D捕鱼中开炮可提升等级！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Lv13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开启，在3D捕鱼中开炮可提升等级！</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Lv14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开启，在3D捕鱼中开炮可提升等级！</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv15开启，在3D捕鱼中开炮可提升等级！</t>
-  </si>
-  <si>
-    <t>Lv16开启，在3D捕鱼中开炮可提升等级！</t>
-  </si>
-  <si>
-    <t>Lv17开启，在3D捕鱼中开炮可提升等级！</t>
-  </si>
-  <si>
-    <t>Lv18开启，在3D捕鱼中开炮可提升等级！</t>
-  </si>
-  <si>
-    <t>Lv19开启，在3D捕鱼中开炮可提升等级！</t>
-  </si>
-  <si>
-    <t>Lv20开启，在3D捕鱼中开炮可提升等级！</t>
-  </si>
-  <si>
-    <t>Lv21开启，在3D捕鱼中开炮可提升等级！</t>
-  </si>
-  <si>
-    <t>Lv2开启，在3D捕鱼中开炮可提升等级！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv3开启，在3D捕鱼中开炮可提升等级！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv4开启，在3D捕鱼中开炮可提升等级！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv6开启，在3D捕鱼中开炮可提升等级！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv12开启，在3D捕鱼中开炮可提升等级！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_buy_gift_bag_10294</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6823,6 +6744,86 @@
   </si>
   <si>
     <t>Lv14开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注有礼-福利中心 （新人才展示）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gzyl_newplayer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv2开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv3开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv3开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv4开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv4开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv5开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv6开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv13开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv15开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv16开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv17开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv18开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv18开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv19开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv19开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv20开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv21开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv12开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7547,11 +7548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q347"/>
+  <dimension ref="A1:Q349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C343" sqref="C343"/>
+      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C345" sqref="A345:C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11438,6 +11439,17 @@
         <v>231</v>
       </c>
     </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" s="27" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B349" s="27" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C349" s="3">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11450,7 +11462,7 @@
   <dimension ref="A1:O259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E231" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E216" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G250" sqref="G250"/>
@@ -18186,7 +18198,7 @@
         <v>0</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>1460</v>
+        <v>1445</v>
       </c>
       <c r="D196" s="30" t="s">
         <v>841</v>
@@ -18575,7 +18587,7 @@
         <v>0</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>1461</v>
+        <v>1446</v>
       </c>
       <c r="D208" s="30" t="s">
         <v>856</v>
@@ -19653,7 +19665,7 @@
         <v>1</v>
       </c>
       <c r="C240" s="86" t="s">
-        <v>1459</v>
+        <v>1444</v>
       </c>
       <c r="D240" s="86" t="s">
         <v>1259</v>
@@ -19676,7 +19688,7 @@
         <v>1592263800</v>
       </c>
       <c r="L240" s="86" t="s">
-        <v>1482</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="241" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
@@ -19993,10 +20005,10 @@
         <v>1</v>
       </c>
       <c r="C250" s="30" t="s">
-        <v>1462</v>
+        <v>1447</v>
       </c>
       <c r="D250" s="92" t="s">
-        <v>1472</v>
+        <v>1457</v>
       </c>
       <c r="G250" s="26">
         <v>232</v>
@@ -20008,13 +20020,13 @@
         <v>1</v>
       </c>
       <c r="J250" s="30" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="K250" s="26">
         <v>1588028400</v>
       </c>
       <c r="L250" s="30" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -20025,10 +20037,10 @@
         <v>1</v>
       </c>
       <c r="C251" s="30" t="s">
-        <v>1463</v>
+        <v>1448</v>
       </c>
       <c r="D251" s="92" t="s">
-        <v>1473</v>
+        <v>1458</v>
       </c>
       <c r="G251" s="26">
         <v>233</v>
@@ -20040,13 +20052,13 @@
         <v>1</v>
       </c>
       <c r="J251" s="30" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="K251" s="26">
         <v>1588028400</v>
       </c>
       <c r="L251" s="30" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -20057,10 +20069,10 @@
         <v>1</v>
       </c>
       <c r="C252" s="30" t="s">
-        <v>1464</v>
+        <v>1449</v>
       </c>
       <c r="D252" s="92" t="s">
-        <v>1474</v>
+        <v>1459</v>
       </c>
       <c r="G252" s="26">
         <v>234</v>
@@ -20072,13 +20084,13 @@
         <v>1</v>
       </c>
       <c r="J252" s="30" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="K252" s="26">
         <v>1588028400</v>
       </c>
       <c r="L252" s="30" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -20089,10 +20101,10 @@
         <v>1</v>
       </c>
       <c r="C253" s="30" t="s">
-        <v>1465</v>
+        <v>1450</v>
       </c>
       <c r="D253" s="92" t="s">
-        <v>1475</v>
+        <v>1460</v>
       </c>
       <c r="G253" s="26">
         <v>235</v>
@@ -20104,13 +20116,13 @@
         <v>1</v>
       </c>
       <c r="J253" s="30" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="K253" s="26">
         <v>1588028400</v>
       </c>
       <c r="L253" s="30" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -20121,10 +20133,10 @@
         <v>1</v>
       </c>
       <c r="C254" s="30" t="s">
-        <v>1466</v>
+        <v>1451</v>
       </c>
       <c r="D254" s="92" t="s">
-        <v>1476</v>
+        <v>1461</v>
       </c>
       <c r="G254" s="26">
         <v>236</v>
@@ -20136,13 +20148,13 @@
         <v>1</v>
       </c>
       <c r="J254" s="30" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="K254" s="26">
         <v>1588028400</v>
       </c>
       <c r="L254" s="30" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -20153,10 +20165,10 @@
         <v>1</v>
       </c>
       <c r="C255" s="30" t="s">
-        <v>1467</v>
+        <v>1452</v>
       </c>
       <c r="D255" s="92" t="s">
-        <v>1477</v>
+        <v>1462</v>
       </c>
       <c r="G255" s="26">
         <v>237</v>
@@ -20168,13 +20180,13 @@
         <v>1</v>
       </c>
       <c r="J255" s="30" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="K255" s="26">
         <v>1588028400</v>
       </c>
       <c r="L255" s="30" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -20185,10 +20197,10 @@
         <v>1</v>
       </c>
       <c r="C256" s="30" t="s">
-        <v>1468</v>
+        <v>1453</v>
       </c>
       <c r="D256" s="92" t="s">
-        <v>1478</v>
+        <v>1463</v>
       </c>
       <c r="G256" s="26">
         <v>238</v>
@@ -20200,13 +20212,13 @@
         <v>1</v>
       </c>
       <c r="J256" s="30" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="K256" s="26">
         <v>1588028400</v>
       </c>
       <c r="L256" s="30" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -20217,10 +20229,10 @@
         <v>1</v>
       </c>
       <c r="C257" s="30" t="s">
-        <v>1469</v>
+        <v>1454</v>
       </c>
       <c r="D257" s="92" t="s">
-        <v>1479</v>
+        <v>1464</v>
       </c>
       <c r="G257" s="26">
         <v>239</v>
@@ -20232,13 +20244,13 @@
         <v>1</v>
       </c>
       <c r="J257" s="30" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="K257" s="26">
         <v>1588028400</v>
       </c>
       <c r="L257" s="30" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -20249,10 +20261,10 @@
         <v>1</v>
       </c>
       <c r="C258" s="30" t="s">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="D258" s="92" t="s">
-        <v>1480</v>
+        <v>1465</v>
       </c>
       <c r="G258" s="26">
         <v>240</v>
@@ -20264,13 +20276,13 @@
         <v>1</v>
       </c>
       <c r="J258" s="30" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="K258" s="26">
         <v>1588028400</v>
       </c>
       <c r="L258" s="30" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -20281,10 +20293,10 @@
         <v>1</v>
       </c>
       <c r="C259" s="30" t="s">
-        <v>1471</v>
+        <v>1456</v>
       </c>
       <c r="D259" s="92" t="s">
-        <v>1481</v>
+        <v>1466</v>
       </c>
       <c r="G259" s="26">
         <v>241</v>
@@ -20296,13 +20308,13 @@
         <v>1</v>
       </c>
       <c r="J259" s="30" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="K259" s="26">
         <v>1588028400</v>
       </c>
       <c r="L259" s="30" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
     </row>
   </sheetData>
@@ -20315,13 +20327,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I601"/>
+  <dimension ref="A1:I616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C570" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C584" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G587" sqref="G587"/>
+      <selection pane="bottomRight" activeCell="B602" sqref="B602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20474,7 +20486,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>1487</v>
+        <v>1472</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>910</v>
@@ -33191,7 +33203,7 @@
         <v>1</v>
       </c>
       <c r="G557" s="10" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="558" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -33214,7 +33226,7 @@
         <v>1</v>
       </c>
       <c r="G558" s="10" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.2">
@@ -33237,7 +33249,7 @@
         <v>1</v>
       </c>
       <c r="G559" s="10" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.2">
@@ -33260,7 +33272,7 @@
         <v>1</v>
       </c>
       <c r="G560" s="10" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
@@ -33283,7 +33295,7 @@
         <v>1</v>
       </c>
       <c r="G561" s="10" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
@@ -33306,7 +33318,7 @@
         <v>1</v>
       </c>
       <c r="G562" s="10" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.2">
@@ -33329,7 +33341,7 @@
         <v>1</v>
       </c>
       <c r="G563" s="10" t="s">
-        <v>1454</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.2">
@@ -33337,22 +33349,22 @@
         <v>563</v>
       </c>
       <c r="B564" s="8">
-        <v>211</v>
-      </c>
-      <c r="C564" s="10" t="s">
-        <v>1424</v>
+        <v>210</v>
+      </c>
+      <c r="C564" s="53" t="s">
+        <v>1175</v>
       </c>
       <c r="D564" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E564" s="8">
         <v>3</v>
       </c>
       <c r="F564" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G564" s="10" t="s">
-        <v>1455</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.2">
@@ -33360,13 +33372,13 @@
         <v>564</v>
       </c>
       <c r="B565" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C565" s="10" t="s">
         <v>1424</v>
       </c>
       <c r="D565" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E565" s="8">
         <v>3</v>
@@ -33375,7 +33387,7 @@
         <v>1</v>
       </c>
       <c r="G565" s="10" t="s">
-        <v>1456</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.2">
@@ -33383,22 +33395,22 @@
         <v>565</v>
       </c>
       <c r="B566" s="8">
-        <v>213</v>
-      </c>
-      <c r="C566" s="10" t="s">
-        <v>1424</v>
+        <v>211</v>
+      </c>
+      <c r="C566" s="53" t="s">
+        <v>1175</v>
       </c>
       <c r="D566" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E566" s="8">
         <v>3</v>
       </c>
       <c r="F566" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G566" s="10" t="s">
-        <v>1443</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.2">
@@ -33406,13 +33418,13 @@
         <v>566</v>
       </c>
       <c r="B567" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C567" s="10" t="s">
         <v>1424</v>
       </c>
       <c r="D567" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E567" s="8">
         <v>3</v>
@@ -33421,7 +33433,7 @@
         <v>1</v>
       </c>
       <c r="G567" s="10" t="s">
-        <v>1457</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.2">
@@ -33429,22 +33441,22 @@
         <v>567</v>
       </c>
       <c r="B568" s="8">
-        <v>215</v>
-      </c>
-      <c r="C568" s="10" t="s">
-        <v>1424</v>
+        <v>212</v>
+      </c>
+      <c r="C568" s="53" t="s">
+        <v>1175</v>
       </c>
       <c r="D568" s="8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E568" s="8">
         <v>3</v>
       </c>
       <c r="F568" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G568" s="10" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.2">
@@ -33452,22 +33464,22 @@
         <v>568</v>
       </c>
       <c r="B569" s="8">
-        <v>215</v>
-      </c>
-      <c r="C569" s="53" t="s">
-        <v>1440</v>
+        <v>213</v>
+      </c>
+      <c r="C569" s="10" t="s">
+        <v>1424</v>
       </c>
       <c r="D569" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E569" s="8">
         <v>3</v>
       </c>
       <c r="F569" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G569" s="10" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.2">
@@ -33475,22 +33487,22 @@
         <v>569</v>
       </c>
       <c r="B570" s="8">
-        <v>216</v>
-      </c>
-      <c r="C570" s="10" t="s">
-        <v>1424</v>
+        <v>213</v>
+      </c>
+      <c r="C570" s="53" t="s">
+        <v>1175</v>
       </c>
       <c r="D570" s="8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E570" s="8">
         <v>3</v>
       </c>
       <c r="F570" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G570" s="10" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.2">
@@ -33498,22 +33510,22 @@
         <v>570</v>
       </c>
       <c r="B571" s="8">
-        <v>216</v>
-      </c>
-      <c r="C571" s="53" t="s">
-        <v>1440</v>
+        <v>214</v>
+      </c>
+      <c r="C571" s="10" t="s">
+        <v>1424</v>
       </c>
       <c r="D571" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E571" s="8">
         <v>3</v>
       </c>
       <c r="F571" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G571" s="10" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.2">
@@ -33521,22 +33533,22 @@
         <v>571</v>
       </c>
       <c r="B572" s="8">
-        <v>217</v>
-      </c>
-      <c r="C572" s="10" t="s">
-        <v>1424</v>
+        <v>214</v>
+      </c>
+      <c r="C572" s="53" t="s">
+        <v>1175</v>
       </c>
       <c r="D572" s="8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E572" s="8">
         <v>3</v>
       </c>
       <c r="F572" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G572" s="10" t="s">
-        <v>1445</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.2">
@@ -33544,13 +33556,13 @@
         <v>572</v>
       </c>
       <c r="B573" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C573" s="10" t="s">
         <v>1424</v>
       </c>
       <c r="D573" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E573" s="8">
         <v>3</v>
@@ -33559,7 +33571,7 @@
         <v>1</v>
       </c>
       <c r="G573" s="10" t="s">
-        <v>1446</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.2">
@@ -33567,22 +33579,22 @@
         <v>573</v>
       </c>
       <c r="B574" s="8">
-        <v>219</v>
-      </c>
-      <c r="C574" s="10" t="s">
-        <v>1424</v>
+        <v>215</v>
+      </c>
+      <c r="C574" s="53" t="s">
+        <v>1440</v>
       </c>
       <c r="D574" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E574" s="8">
         <v>3</v>
       </c>
       <c r="F574" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G574" s="10" t="s">
-        <v>1447</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.2">
@@ -33590,13 +33602,13 @@
         <v>574</v>
       </c>
       <c r="B575" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C575" s="10" t="s">
         <v>1424</v>
       </c>
       <c r="D575" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E575" s="8">
         <v>3</v>
@@ -33605,7 +33617,7 @@
         <v>1</v>
       </c>
       <c r="G575" s="10" t="s">
-        <v>1448</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.2">
@@ -33613,36 +33625,36 @@
         <v>575</v>
       </c>
       <c r="B576" s="8">
-        <v>221</v>
-      </c>
-      <c r="C576" s="10" t="s">
-        <v>1424</v>
+        <v>216</v>
+      </c>
+      <c r="C576" s="53" t="s">
+        <v>1440</v>
       </c>
       <c r="D576" s="8">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E576" s="8">
         <v>3</v>
       </c>
       <c r="F576" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G576" s="10" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" s="8">
         <v>576</v>
       </c>
       <c r="B577" s="8">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C577" s="10" t="s">
         <v>1424</v>
       </c>
       <c r="D577" s="8">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E577" s="8">
         <v>3</v>
@@ -33651,44 +33663,44 @@
         <v>1</v>
       </c>
       <c r="G577" s="10" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" s="8">
         <v>577</v>
       </c>
       <c r="B578" s="8">
-        <v>223</v>
-      </c>
-      <c r="C578" s="10" t="s">
-        <v>1424</v>
+        <v>217</v>
+      </c>
+      <c r="C578" s="53" t="s">
+        <v>1175</v>
       </c>
       <c r="D578" s="8">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E578" s="8">
         <v>3</v>
       </c>
       <c r="F578" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G578" s="10" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" s="8">
         <v>578</v>
       </c>
       <c r="B579" s="8">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C579" s="10" t="s">
         <v>1424</v>
       </c>
       <c r="D579" s="8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E579" s="8">
         <v>3</v>
@@ -33697,353 +33709,352 @@
         <v>1</v>
       </c>
       <c r="G579" s="10" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" s="8">
         <v>579</v>
       </c>
       <c r="B580" s="8">
-        <v>225</v>
-      </c>
-      <c r="C580" s="10" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D580" s="9">
-        <v>21</v>
+        <v>218</v>
+      </c>
+      <c r="C580" s="53" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D580" s="8">
+        <v>1</v>
       </c>
       <c r="E580" s="8">
         <v>3</v>
       </c>
       <c r="F580" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G580" s="10" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" s="8">
         <v>580</v>
       </c>
-      <c r="B581" s="9">
-        <v>226</v>
-      </c>
-      <c r="C581" s="53" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D581" s="9">
-        <v>1</v>
-      </c>
-      <c r="E581" s="9">
+      <c r="B581" s="8">
+        <v>219</v>
+      </c>
+      <c r="C581" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D581" s="8">
+        <v>15</v>
+      </c>
+      <c r="E581" s="8">
         <v>3</v>
       </c>
-      <c r="F581" s="9">
+      <c r="F581" s="8">
         <v>1</v>
       </c>
       <c r="G581" s="10" t="s">
-        <v>1499</v>
-      </c>
-      <c r="H581" s="10"/>
-    </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" s="8">
         <v>581</v>
       </c>
-      <c r="B582" s="9">
-        <v>226</v>
+      <c r="B582" s="8">
+        <v>219</v>
       </c>
       <c r="C582" s="53" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D582" s="9">
-        <v>5</v>
-      </c>
-      <c r="E582" s="9">
+        <v>1175</v>
+      </c>
+      <c r="D582" s="8">
+        <v>1</v>
+      </c>
+      <c r="E582" s="8">
         <v>3</v>
       </c>
-      <c r="F582" s="9">
+      <c r="F582" s="8">
         <v>2</v>
       </c>
       <c r="G582" s="10" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" s="8">
         <v>582</v>
       </c>
-      <c r="B583" s="9">
-        <v>227</v>
-      </c>
-      <c r="C583" s="53" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D583" s="9">
-        <v>1</v>
-      </c>
-      <c r="E583" s="9">
+      <c r="B583" s="8">
+        <v>220</v>
+      </c>
+      <c r="C583" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D583" s="8">
+        <v>16</v>
+      </c>
+      <c r="E583" s="8">
         <v>3</v>
       </c>
-      <c r="F583" s="9">
+      <c r="F583" s="8">
         <v>1</v>
       </c>
       <c r="G583" s="10" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" s="8">
         <v>583</v>
       </c>
-      <c r="B584" s="9">
-        <v>227</v>
+      <c r="B584" s="8">
+        <v>220</v>
       </c>
       <c r="C584" s="53" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D584" s="9">
-        <v>7</v>
-      </c>
-      <c r="E584" s="9">
+        <v>1175</v>
+      </c>
+      <c r="D584" s="8">
+        <v>1</v>
+      </c>
+      <c r="E584" s="8">
         <v>3</v>
       </c>
-      <c r="F584" s="9">
+      <c r="F584" s="8">
         <v>2</v>
       </c>
       <c r="G584" s="10" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" s="8">
         <v>584</v>
       </c>
-      <c r="B585" s="9">
-        <v>228</v>
-      </c>
-      <c r="C585" s="53" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D585" s="9">
-        <v>1</v>
-      </c>
-      <c r="E585" s="9">
+      <c r="B585" s="8">
+        <v>221</v>
+      </c>
+      <c r="C585" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D585" s="8">
+        <v>17</v>
+      </c>
+      <c r="E585" s="8">
         <v>3</v>
       </c>
-      <c r="F585" s="9">
+      <c r="F585" s="8">
         <v>1</v>
       </c>
       <c r="G585" s="10" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" s="8">
         <v>585</v>
       </c>
-      <c r="B586" s="9">
-        <v>228</v>
+      <c r="B586" s="8">
+        <v>221</v>
       </c>
       <c r="C586" s="53" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D586" s="9">
-        <v>9</v>
-      </c>
-      <c r="E586" s="9">
+        <v>1175</v>
+      </c>
+      <c r="D586" s="8">
+        <v>1</v>
+      </c>
+      <c r="E586" s="8">
         <v>3</v>
       </c>
-      <c r="F586" s="9">
+      <c r="F586" s="8">
         <v>2</v>
       </c>
       <c r="G586" s="10" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" s="8">
         <v>586</v>
       </c>
-      <c r="B587" s="9">
-        <v>229</v>
-      </c>
-      <c r="C587" s="53" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D587" s="9">
-        <v>12</v>
-      </c>
-      <c r="E587" s="9">
+      <c r="B587" s="8">
+        <v>222</v>
+      </c>
+      <c r="C587" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D587" s="8">
+        <v>18</v>
+      </c>
+      <c r="E587" s="8">
         <v>3</v>
       </c>
-      <c r="F587" s="9">
-        <v>2</v>
+      <c r="F587" s="8">
+        <v>1</v>
       </c>
       <c r="G587" s="10" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" s="8">
         <v>587</v>
       </c>
-      <c r="B588" s="9">
-        <v>230</v>
+      <c r="B588" s="8">
+        <v>222</v>
       </c>
       <c r="C588" s="53" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D588" s="9">
-        <v>1</v>
-      </c>
-      <c r="E588" s="9">
+        <v>1175</v>
+      </c>
+      <c r="D588" s="8">
+        <v>1</v>
+      </c>
+      <c r="E588" s="8">
         <v>3</v>
       </c>
-      <c r="F588" s="9">
-        <v>1</v>
+      <c r="F588" s="8">
+        <v>2</v>
       </c>
       <c r="G588" s="10" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" s="8">
         <v>588</v>
       </c>
-      <c r="B589" s="9">
-        <v>230</v>
-      </c>
-      <c r="C589" s="53" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D589" s="9">
-        <v>11</v>
-      </c>
-      <c r="E589" s="9">
+      <c r="B589" s="8">
+        <v>223</v>
+      </c>
+      <c r="C589" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D589" s="8">
+        <v>19</v>
+      </c>
+      <c r="E589" s="8">
         <v>3</v>
       </c>
-      <c r="F589" s="9">
-        <v>2</v>
+      <c r="F589" s="8">
+        <v>1</v>
       </c>
       <c r="G589" s="10" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" s="8">
         <v>589</v>
       </c>
-      <c r="B590" s="9">
-        <v>231</v>
+      <c r="B590" s="8">
+        <v>223</v>
       </c>
       <c r="C590" s="53" t="s">
-        <v>1485</v>
-      </c>
-      <c r="D590" s="9">
-        <v>1</v>
-      </c>
-      <c r="E590" s="9">
+        <v>1175</v>
+      </c>
+      <c r="D590" s="8">
+        <v>1</v>
+      </c>
+      <c r="E590" s="8">
         <v>3</v>
       </c>
-      <c r="F590" s="9">
-        <v>1</v>
+      <c r="F590" s="8">
+        <v>2</v>
       </c>
       <c r="G590" s="10" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" s="8">
         <v>590</v>
       </c>
-      <c r="B591" s="9">
-        <v>231</v>
-      </c>
-      <c r="C591" s="53" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D591" s="9">
-        <v>14</v>
-      </c>
-      <c r="E591" s="9">
+      <c r="B591" s="8">
+        <v>224</v>
+      </c>
+      <c r="C591" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D591" s="8">
+        <v>20</v>
+      </c>
+      <c r="E591" s="8">
         <v>3</v>
       </c>
-      <c r="F591" s="9">
-        <v>2</v>
+      <c r="F591" s="8">
+        <v>1</v>
       </c>
       <c r="G591" s="10" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" s="8">
         <v>591</v>
       </c>
-      <c r="B592" s="9">
-        <v>232</v>
+      <c r="B592" s="8">
+        <v>224</v>
       </c>
       <c r="C592" s="53" t="s">
-        <v>1486</v>
-      </c>
-      <c r="D592" s="9">
-        <v>1</v>
-      </c>
-      <c r="E592" s="9">
+        <v>1175</v>
+      </c>
+      <c r="D592" s="8">
+        <v>1</v>
+      </c>
+      <c r="E592" s="8">
         <v>3</v>
       </c>
-      <c r="F592" s="9">
-        <v>1</v>
-      </c>
-      <c r="G592" s="53" t="s">
-        <v>1488</v>
+      <c r="F592" s="8">
+        <v>2</v>
+      </c>
+      <c r="G592" s="10" t="s">
+        <v>1510</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" s="8">
         <v>592</v>
       </c>
-      <c r="B593" s="9">
-        <v>233</v>
-      </c>
-      <c r="C593" s="53" t="s">
-        <v>1486</v>
+      <c r="B593" s="8">
+        <v>225</v>
+      </c>
+      <c r="C593" s="10" t="s">
+        <v>1441</v>
       </c>
       <c r="D593" s="9">
-        <v>2</v>
-      </c>
-      <c r="E593" s="9">
+        <v>21</v>
+      </c>
+      <c r="E593" s="8">
         <v>3</v>
       </c>
-      <c r="F593" s="9">
-        <v>1</v>
-      </c>
-      <c r="G593" s="53" t="s">
-        <v>1489</v>
+      <c r="F593" s="8">
+        <v>1</v>
+      </c>
+      <c r="G593" s="10" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" s="8">
         <v>593</v>
       </c>
-      <c r="B594" s="9">
-        <v>234</v>
+      <c r="B594" s="8">
+        <v>225</v>
       </c>
       <c r="C594" s="53" t="s">
-        <v>1486</v>
-      </c>
-      <c r="D594" s="9">
+        <v>1175</v>
+      </c>
+      <c r="D594" s="8">
+        <v>1</v>
+      </c>
+      <c r="E594" s="8">
         <v>3</v>
       </c>
-      <c r="E594" s="9">
-        <v>3</v>
-      </c>
-      <c r="F594" s="9">
-        <v>1</v>
-      </c>
-      <c r="G594" s="53" t="s">
-        <v>1490</v>
+      <c r="F594" s="8">
+        <v>2</v>
+      </c>
+      <c r="G594" s="10" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.2">
@@ -34051,13 +34062,13 @@
         <v>594</v>
       </c>
       <c r="B595" s="9">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C595" s="53" t="s">
-        <v>1486</v>
+        <v>1440</v>
       </c>
       <c r="D595" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E595" s="9">
         <v>3</v>
@@ -34065,19 +34076,20 @@
       <c r="F595" s="9">
         <v>1</v>
       </c>
-      <c r="G595" s="53" t="s">
-        <v>1491</v>
-      </c>
+      <c r="G595" s="10" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H595" s="10"/>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" s="8">
         <v>595</v>
       </c>
       <c r="B596" s="9">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C596" s="53" t="s">
-        <v>1486</v>
+        <v>1442</v>
       </c>
       <c r="D596" s="9">
         <v>5</v>
@@ -34086,25 +34098,24 @@
         <v>3</v>
       </c>
       <c r="F596" s="9">
-        <v>1</v>
-      </c>
-      <c r="G596" s="53" t="s">
-        <v>1492</v>
-      </c>
-      <c r="H596" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G596" s="10" t="s">
+        <v>1485</v>
+      </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" s="8">
         <v>596</v>
       </c>
       <c r="B597" s="9">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C597" s="53" t="s">
-        <v>1486</v>
+        <v>1440</v>
       </c>
       <c r="D597" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E597" s="9">
         <v>3</v>
@@ -34112,20 +34123,19 @@
       <c r="F597" s="9">
         <v>1</v>
       </c>
-      <c r="G597" s="53" t="s">
-        <v>1493</v>
-      </c>
-      <c r="H597" s="3"/>
+      <c r="G597" s="10" t="s">
+        <v>1486</v>
+      </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" s="8">
         <v>597</v>
       </c>
       <c r="B598" s="9">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C598" s="53" t="s">
-        <v>1486</v>
+        <v>1442</v>
       </c>
       <c r="D598" s="9">
         <v>7</v>
@@ -34134,25 +34144,24 @@
         <v>3</v>
       </c>
       <c r="F598" s="9">
-        <v>1</v>
-      </c>
-      <c r="G598" s="53" t="s">
-        <v>1494</v>
-      </c>
-      <c r="H598" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G598" s="10" t="s">
+        <v>1487</v>
+      </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" s="8">
         <v>598</v>
       </c>
       <c r="B599" s="9">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C599" s="53" t="s">
-        <v>1486</v>
+        <v>1440</v>
       </c>
       <c r="D599" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E599" s="9">
         <v>3</v>
@@ -34160,20 +34169,19 @@
       <c r="F599" s="9">
         <v>1</v>
       </c>
-      <c r="G599" s="53" t="s">
-        <v>1495</v>
-      </c>
-      <c r="H599" s="3"/>
+      <c r="G599" s="10" t="s">
+        <v>1488</v>
+      </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" s="8">
         <v>599</v>
       </c>
       <c r="B600" s="9">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C600" s="53" t="s">
-        <v>1486</v>
+        <v>1442</v>
       </c>
       <c r="D600" s="9">
         <v>9</v>
@@ -34182,25 +34190,24 @@
         <v>3</v>
       </c>
       <c r="F600" s="9">
-        <v>1</v>
-      </c>
-      <c r="G600" s="53" t="s">
-        <v>1496</v>
-      </c>
-      <c r="H600" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G600" s="10" t="s">
+        <v>1489</v>
+      </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" s="8">
         <v>600</v>
       </c>
       <c r="B601" s="9">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C601" s="53" t="s">
-        <v>1486</v>
+        <v>1442</v>
       </c>
       <c r="D601" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E601" s="9">
         <v>3</v>
@@ -34208,10 +34215,360 @@
       <c r="F601" s="9">
         <v>1</v>
       </c>
-      <c r="G601" s="53" t="s">
-        <v>1497</v>
-      </c>
-      <c r="H601" s="3"/>
+      <c r="G601" s="10" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A602" s="8">
+        <v>601</v>
+      </c>
+      <c r="B602" s="9">
+        <v>229</v>
+      </c>
+      <c r="C602" s="53" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D602" s="9">
+        <v>1</v>
+      </c>
+      <c r="E602" s="9">
+        <v>3</v>
+      </c>
+      <c r="F602" s="9">
+        <v>2</v>
+      </c>
+      <c r="G602" s="10" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A603" s="8">
+        <v>602</v>
+      </c>
+      <c r="B603" s="9">
+        <v>230</v>
+      </c>
+      <c r="C603" s="53" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D603" s="9">
+        <v>1</v>
+      </c>
+      <c r="E603" s="9">
+        <v>3</v>
+      </c>
+      <c r="F603" s="9">
+        <v>1</v>
+      </c>
+      <c r="G603" s="10" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A604" s="8">
+        <v>603</v>
+      </c>
+      <c r="B604" s="9">
+        <v>230</v>
+      </c>
+      <c r="C604" s="53" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D604" s="9">
+        <v>11</v>
+      </c>
+      <c r="E604" s="9">
+        <v>3</v>
+      </c>
+      <c r="F604" s="9">
+        <v>2</v>
+      </c>
+      <c r="G604" s="10" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A605" s="8">
+        <v>604</v>
+      </c>
+      <c r="B605" s="9">
+        <v>231</v>
+      </c>
+      <c r="C605" s="53" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D605" s="9">
+        <v>1</v>
+      </c>
+      <c r="E605" s="9">
+        <v>3</v>
+      </c>
+      <c r="F605" s="9">
+        <v>1</v>
+      </c>
+      <c r="G605" s="10" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A606" s="8">
+        <v>605</v>
+      </c>
+      <c r="B606" s="9">
+        <v>231</v>
+      </c>
+      <c r="C606" s="53" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D606" s="9">
+        <v>14</v>
+      </c>
+      <c r="E606" s="9">
+        <v>3</v>
+      </c>
+      <c r="F606" s="9">
+        <v>2</v>
+      </c>
+      <c r="G606" s="10" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A607" s="8">
+        <v>606</v>
+      </c>
+      <c r="B607" s="9">
+        <v>232</v>
+      </c>
+      <c r="C607" s="53" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D607" s="9">
+        <v>1</v>
+      </c>
+      <c r="E607" s="9">
+        <v>3</v>
+      </c>
+      <c r="F607" s="9">
+        <v>1</v>
+      </c>
+      <c r="G607" s="53" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A608" s="8">
+        <v>607</v>
+      </c>
+      <c r="B608" s="9">
+        <v>233</v>
+      </c>
+      <c r="C608" s="53" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D608" s="9">
+        <v>2</v>
+      </c>
+      <c r="E608" s="9">
+        <v>3</v>
+      </c>
+      <c r="F608" s="9">
+        <v>1</v>
+      </c>
+      <c r="G608" s="53" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A609" s="8">
+        <v>608</v>
+      </c>
+      <c r="B609" s="9">
+        <v>234</v>
+      </c>
+      <c r="C609" s="53" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D609" s="9">
+        <v>3</v>
+      </c>
+      <c r="E609" s="9">
+        <v>3</v>
+      </c>
+      <c r="F609" s="9">
+        <v>1</v>
+      </c>
+      <c r="G609" s="53" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A610" s="8">
+        <v>609</v>
+      </c>
+      <c r="B610" s="9">
+        <v>235</v>
+      </c>
+      <c r="C610" s="53" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D610" s="9">
+        <v>4</v>
+      </c>
+      <c r="E610" s="9">
+        <v>3</v>
+      </c>
+      <c r="F610" s="9">
+        <v>1</v>
+      </c>
+      <c r="G610" s="53" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A611" s="8">
+        <v>610</v>
+      </c>
+      <c r="B611" s="9">
+        <v>236</v>
+      </c>
+      <c r="C611" s="53" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D611" s="9">
+        <v>5</v>
+      </c>
+      <c r="E611" s="9">
+        <v>3</v>
+      </c>
+      <c r="F611" s="9">
+        <v>1</v>
+      </c>
+      <c r="G611" s="53" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H611" s="3"/>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A612" s="8">
+        <v>611</v>
+      </c>
+      <c r="B612" s="9">
+        <v>237</v>
+      </c>
+      <c r="C612" s="53" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D612" s="9">
+        <v>6</v>
+      </c>
+      <c r="E612" s="9">
+        <v>3</v>
+      </c>
+      <c r="F612" s="9">
+        <v>1</v>
+      </c>
+      <c r="G612" s="53" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H612" s="3"/>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A613" s="8">
+        <v>612</v>
+      </c>
+      <c r="B613" s="9">
+        <v>238</v>
+      </c>
+      <c r="C613" s="53" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D613" s="9">
+        <v>7</v>
+      </c>
+      <c r="E613" s="9">
+        <v>3</v>
+      </c>
+      <c r="F613" s="9">
+        <v>1</v>
+      </c>
+      <c r="G613" s="53" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H613" s="3"/>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A614" s="8">
+        <v>613</v>
+      </c>
+      <c r="B614" s="9">
+        <v>239</v>
+      </c>
+      <c r="C614" s="53" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D614" s="9">
+        <v>8</v>
+      </c>
+      <c r="E614" s="9">
+        <v>3</v>
+      </c>
+      <c r="F614" s="9">
+        <v>1</v>
+      </c>
+      <c r="G614" s="53" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H614" s="3"/>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A615" s="8">
+        <v>614</v>
+      </c>
+      <c r="B615" s="9">
+        <v>240</v>
+      </c>
+      <c r="C615" s="53" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D615" s="9">
+        <v>9</v>
+      </c>
+      <c r="E615" s="9">
+        <v>3</v>
+      </c>
+      <c r="F615" s="9">
+        <v>1</v>
+      </c>
+      <c r="G615" s="53" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H615" s="3"/>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A616" s="8">
+        <v>615</v>
+      </c>
+      <c r="B616" s="9">
+        <v>241</v>
+      </c>
+      <c r="C616" s="53" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D616" s="9">
+        <v>10</v>
+      </c>
+      <c r="E616" s="9">
+        <v>3</v>
+      </c>
+      <c r="F616" s="9">
+        <v>1</v>
+      </c>
+      <c r="G616" s="53" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H616" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3615" uniqueCount="1627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="1630">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -7130,10 +7130,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>浪漫七夕-浪漫礼盒充值加赠（非新玩家）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_026_lmqx_lmlh_yj</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7289,6 +7285,22 @@
   </si>
   <si>
     <t>drt_cpl_start_jing_bi</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫七夕-浪漫礼盒充值加赠（非新玩家）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是新用户</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是新用户</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9973,7 +9985,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="53" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B142" s="53" t="s">
         <v>262</v>
@@ -10094,10 +10106,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="61" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C154" s="14">
         <v>267</v>
@@ -10105,10 +10117,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="61" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C155" s="14">
         <v>268</v>
@@ -10116,10 +10128,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="61" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C156" s="14">
         <v>269</v>
@@ -10127,10 +10139,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="61" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C157" s="14">
         <v>270</v>
@@ -10138,10 +10150,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="61" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C158" s="14">
         <v>271</v>
@@ -10149,10 +10161,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="61" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C159" s="14">
         <v>272</v>
@@ -10160,10 +10172,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="61" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C160" s="14">
         <v>273</v>
@@ -10171,10 +10183,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="61" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C161" s="14">
         <v>274</v>
@@ -10182,10 +10194,10 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="61" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C162" s="14">
         <v>275</v>
@@ -10193,10 +10205,10 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="61" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C163" s="14">
         <v>276</v>
@@ -10204,10 +10216,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="61" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C164" s="14">
         <v>277</v>
@@ -10215,10 +10227,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="61" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C165" s="14">
         <v>278</v>
@@ -10226,10 +10238,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="61" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C166" s="14">
         <v>279</v>
@@ -10560,7 +10572,7 @@
     </row>
     <row r="200" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="60" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B200" s="60" t="s">
         <v>341</v>
@@ -10590,7 +10602,7 @@
     </row>
     <row r="202" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="34" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B202" s="34" t="s">
         <v>346</v>
@@ -12095,10 +12107,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B374" s="3" t="s">
         <v>1587</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>1588</v>
       </c>
       <c r="C374" s="3">
         <v>266</v>
@@ -12115,11 +12127,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O276"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E254" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B80" sqref="B80:D80"/>
+      <selection pane="bottomRight" activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21435,10 +21447,10 @@
         <v>1</v>
       </c>
       <c r="C274" s="79" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D274" s="79" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E274" s="78"/>
       <c r="F274" s="78"/>
@@ -21472,7 +21484,7 @@
         <v>1583</v>
       </c>
       <c r="D275" s="79" t="s">
-        <v>1584</v>
+        <v>1626</v>
       </c>
       <c r="E275" s="78"/>
       <c r="F275" s="78"/>
@@ -21486,7 +21498,7 @@
         <v>1</v>
       </c>
       <c r="J275" s="79" t="s">
-        <v>1160</v>
+        <v>1627</v>
       </c>
       <c r="K275" s="78">
         <v>1598284800</v>
@@ -21503,10 +21515,10 @@
         <v>1</v>
       </c>
       <c r="C276" s="79" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D276" s="79" t="s">
         <v>1585</v>
-      </c>
-      <c r="D276" s="79" t="s">
-        <v>1586</v>
       </c>
       <c r="E276" s="78"/>
       <c r="F276" s="78"/>
@@ -21520,7 +21532,7 @@
         <v>1</v>
       </c>
       <c r="J276" s="79" t="s">
-        <v>1160</v>
+        <v>1627</v>
       </c>
       <c r="K276" s="78">
         <v>1598284800</v>
@@ -21539,13 +21551,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I675"/>
+  <dimension ref="A1:I677"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C636" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C645" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E655" sqref="E655"/>
+      <selection pane="bottomRight" activeCell="C678" sqref="C678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22060,7 +22072,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D21" s="8">
         <v>1583769600</v>
@@ -25683,7 +25695,7 @@
         <v>4</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26074,7 +26086,7 @@
         <v>4</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26085,7 +26097,7 @@
         <v>80</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>947</v>
@@ -36549,7 +36561,7 @@
         <v>258</v>
       </c>
       <c r="C650" s="19" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D650" s="19">
         <v>1598317200</v>
@@ -36561,7 +36573,7 @@
         <v>1</v>
       </c>
       <c r="G650" s="19" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.2">
@@ -36664,7 +36676,7 @@
         <v>263</v>
       </c>
       <c r="C655" s="19" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="D655" s="19" t="s">
         <v>937</v>
@@ -36676,7 +36688,7 @@
         <v>1</v>
       </c>
       <c r="G655" s="19" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.2">
@@ -36693,13 +36705,13 @@
         <v>937</v>
       </c>
       <c r="E656" s="77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F656" s="77">
         <v>1</v>
       </c>
       <c r="G656" s="19" t="s">
-        <v>941</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.2">
@@ -36707,7 +36719,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="77">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C657" s="19" t="s">
         <v>882</v>
@@ -36719,102 +36731,102 @@
         <v>5</v>
       </c>
       <c r="F657" s="77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G657" s="19" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="658" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" s="8">
         <v>657</v>
       </c>
-      <c r="B658" s="8">
-        <v>266</v>
-      </c>
-      <c r="C658" s="10" t="s">
+      <c r="B658" s="77">
+        <v>265</v>
+      </c>
+      <c r="C658" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D658" s="10" t="s">
-        <v>947</v>
-      </c>
-      <c r="E658" s="8">
-        <v>2</v>
-      </c>
-      <c r="F658" s="8">
-        <v>1</v>
-      </c>
-      <c r="G658" s="10" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="659" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D658" s="19" t="s">
+        <v>937</v>
+      </c>
+      <c r="E658" s="77">
+        <v>5</v>
+      </c>
+      <c r="F658" s="77">
+        <v>1</v>
+      </c>
+      <c r="G658" s="19" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" s="8">
         <v>658</v>
       </c>
-      <c r="B659" s="8">
-        <v>266</v>
-      </c>
-      <c r="C659" s="10" t="s">
+      <c r="B659" s="77">
+        <v>265</v>
+      </c>
+      <c r="C659" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D659" s="10" t="s">
-        <v>954</v>
-      </c>
-      <c r="E659" s="8">
-        <v>2</v>
-      </c>
-      <c r="F659" s="8">
-        <v>1</v>
-      </c>
-      <c r="G659" s="10" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D659" s="19" t="s">
+        <v>937</v>
+      </c>
+      <c r="E659" s="77">
+        <v>2</v>
+      </c>
+      <c r="F659" s="77">
+        <v>2</v>
+      </c>
+      <c r="G659" s="19" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A660" s="8">
         <v>659</v>
       </c>
-      <c r="B660" s="14">
-        <v>267</v>
-      </c>
-      <c r="C660" s="15" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D660" s="14">
-        <v>0</v>
-      </c>
-      <c r="E660" s="14">
-        <v>2</v>
-      </c>
-      <c r="F660" s="14">
-        <v>1</v>
-      </c>
-      <c r="G660" s="15" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B660" s="8">
+        <v>266</v>
+      </c>
+      <c r="C660" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="D660" s="10" t="s">
+        <v>947</v>
+      </c>
+      <c r="E660" s="8">
+        <v>2</v>
+      </c>
+      <c r="F660" s="8">
+        <v>1</v>
+      </c>
+      <c r="G660" s="10" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A661" s="8">
         <v>660</v>
       </c>
-      <c r="B661" s="14">
-        <v>268</v>
-      </c>
-      <c r="C661" s="15" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D661" s="14">
-        <v>1</v>
-      </c>
-      <c r="E661" s="14">
-        <v>2</v>
-      </c>
-      <c r="F661" s="14">
-        <v>1</v>
-      </c>
-      <c r="G661" s="15" t="s">
-        <v>1597</v>
+      <c r="B661" s="8">
+        <v>266</v>
+      </c>
+      <c r="C661" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="D661" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="E661" s="8">
+        <v>2</v>
+      </c>
+      <c r="F661" s="8">
+        <v>1</v>
+      </c>
+      <c r="G661" s="10" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.2">
@@ -36822,13 +36834,13 @@
         <v>661</v>
       </c>
       <c r="B662" s="14">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C662" s="15" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D662" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E662" s="14">
         <v>2</v>
@@ -36837,7 +36849,7 @@
         <v>1</v>
       </c>
       <c r="G662" s="15" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.2">
@@ -36845,13 +36857,13 @@
         <v>662</v>
       </c>
       <c r="B663" s="14">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C663" s="15" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D663" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E663" s="14">
         <v>2</v>
@@ -36860,7 +36872,7 @@
         <v>1</v>
       </c>
       <c r="G663" s="15" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.2">
@@ -36868,13 +36880,13 @@
         <v>663</v>
       </c>
       <c r="B664" s="14">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C664" s="15" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D664" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E664" s="14">
         <v>2</v>
@@ -36883,7 +36895,7 @@
         <v>1</v>
       </c>
       <c r="G664" s="15" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.2">
@@ -36891,13 +36903,13 @@
         <v>664</v>
       </c>
       <c r="B665" s="14">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C665" s="15" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D665" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E665" s="14">
         <v>2</v>
@@ -36906,7 +36918,7 @@
         <v>1</v>
       </c>
       <c r="G665" s="15" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.2">
@@ -36914,13 +36926,13 @@
         <v>665</v>
       </c>
       <c r="B666" s="14">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C666" s="15" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D666" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E666" s="14">
         <v>2</v>
@@ -36929,7 +36941,7 @@
         <v>1</v>
       </c>
       <c r="G666" s="15" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.2">
@@ -36937,13 +36949,13 @@
         <v>666</v>
       </c>
       <c r="B667" s="14">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C667" s="15" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D667" s="14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E667" s="14">
         <v>2</v>
@@ -36952,7 +36964,7 @@
         <v>1</v>
       </c>
       <c r="G667" s="15" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.2">
@@ -36960,13 +36972,13 @@
         <v>667</v>
       </c>
       <c r="B668" s="14">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C668" s="15" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D668" s="14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E668" s="14">
         <v>2</v>
@@ -36975,7 +36987,7 @@
         <v>1</v>
       </c>
       <c r="G668" s="15" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.2">
@@ -36983,13 +36995,13 @@
         <v>668</v>
       </c>
       <c r="B669" s="14">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C669" s="15" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D669" s="14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E669" s="14">
         <v>2</v>
@@ -36998,7 +37010,7 @@
         <v>1</v>
       </c>
       <c r="G669" s="15" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.2">
@@ -37006,13 +37018,13 @@
         <v>669</v>
       </c>
       <c r="B670" s="14">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C670" s="15" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D670" s="14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E670" s="14">
         <v>2</v>
@@ -37021,7 +37033,7 @@
         <v>1</v>
       </c>
       <c r="G670" s="15" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.2">
@@ -37029,13 +37041,13 @@
         <v>670</v>
       </c>
       <c r="B671" s="14">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C671" s="15" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D671" s="14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E671" s="14">
         <v>2</v>
@@ -37044,7 +37056,7 @@
         <v>1</v>
       </c>
       <c r="G671" s="15" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.2">
@@ -37052,29 +37064,75 @@
         <v>671</v>
       </c>
       <c r="B672" s="14">
+        <v>277</v>
+      </c>
+      <c r="C672" s="15" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D672" s="14">
+        <v>10</v>
+      </c>
+      <c r="E672" s="14">
+        <v>2</v>
+      </c>
+      <c r="F672" s="14">
+        <v>1</v>
+      </c>
+      <c r="G672" s="15" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A673" s="8">
+        <v>672</v>
+      </c>
+      <c r="B673" s="14">
+        <v>278</v>
+      </c>
+      <c r="C673" s="15" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D673" s="14">
+        <v>11</v>
+      </c>
+      <c r="E673" s="14">
+        <v>2</v>
+      </c>
+      <c r="F673" s="14">
+        <v>1</v>
+      </c>
+      <c r="G673" s="15" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A674" s="8">
+        <v>673</v>
+      </c>
+      <c r="B674" s="14">
         <v>279</v>
       </c>
-      <c r="C672" s="15" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D672" s="14">
+      <c r="C674" s="15" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D674" s="14">
         <v>12</v>
       </c>
-      <c r="E672" s="14">
-        <v>2</v>
-      </c>
-      <c r="F672" s="14">
-        <v>1</v>
-      </c>
-      <c r="G672" s="15" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="673" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B673" s="8"/>
-    </row>
-    <row r="675" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="E674" s="14">
+        <v>2</v>
+      </c>
+      <c r="F674" s="14">
+        <v>1</v>
+      </c>
+      <c r="G674" s="15" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B675" s="8"/>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B677" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="1630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3691" uniqueCount="1664">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -5013,10 +5013,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>jjddz_official</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>tag_type</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7126,7 +7122,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_026_lmqx_lmlh</t>
+    <t>浪漫七夕-浪漫礼盒充值加赠（非新玩家）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7288,11 +7284,81 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>浪漫七夕-浪漫礼盒充值加赠（非新玩家）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>now</t>
+    <r>
+      <t>actp_buy_gift_bag_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10290</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费福利券（免费，小额玩家，非新玩家）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>020年9月7日23:59:59结束</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_026_lmqx_lmlh</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金秋送豪礼（非新玩家）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年9月7日23:59:59结束</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼每日任务（新玩家）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼每日任务（免费，小额）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼每日任务（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼每日任务（V4-V6）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼每日任务（V7-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_class_new_player</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7300,7 +7366,103 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1及以上的用户可进行游戏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP6及以下的用户可进行游戏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP7及以上的用户可进行游戏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_027_mfflq</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_fish_daily_task_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_fish_daily_task_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_fish_daily_task_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_fish_daily_task_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_fish_daily_task_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>是新用户</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gfpt_tgxt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_normal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_normal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"normal",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼官方渠道</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjddz_official</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广系统（官方渠道才显示）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是官方渠道</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8031,11 +8193,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q374"/>
+  <dimension ref="A1:Q376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D200" sqref="A200:D200"/>
+      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B376" sqref="B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9562,7 +9724,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="27" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B98" s="27" t="s">
         <v>185</v>
@@ -9985,7 +10147,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="53" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B142" s="53" t="s">
         <v>262</v>
@@ -10106,10 +10268,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="61" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C154" s="14">
         <v>267</v>
@@ -10117,10 +10279,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="61" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C155" s="14">
         <v>268</v>
@@ -10128,10 +10290,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="61" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C156" s="14">
         <v>269</v>
@@ -10139,10 +10301,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="61" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C157" s="14">
         <v>270</v>
@@ -10150,10 +10312,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="61" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C158" s="14">
         <v>271</v>
@@ -10161,10 +10323,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="61" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C159" s="14">
         <v>272</v>
@@ -10172,10 +10334,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="61" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C160" s="14">
         <v>273</v>
@@ -10183,10 +10345,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="61" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C161" s="14">
         <v>274</v>
@@ -10194,10 +10356,10 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="61" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C162" s="14">
         <v>275</v>
@@ -10205,10 +10367,10 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="61" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C163" s="14">
         <v>276</v>
@@ -10216,10 +10378,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="61" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C164" s="14">
         <v>277</v>
@@ -10227,10 +10389,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="61" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C165" s="14">
         <v>278</v>
@@ -10238,10 +10400,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="61" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C166" s="14">
         <v>279</v>
@@ -10572,7 +10734,7 @@
     </row>
     <row r="200" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="60" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B200" s="60" t="s">
         <v>341</v>
@@ -10602,7 +10764,7 @@
     </row>
     <row r="202" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="34" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B202" s="34" t="s">
         <v>346</v>
@@ -10617,7 +10779,7 @@
     </row>
     <row r="203" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="34" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B203" s="34" t="s">
         <v>348</v>
@@ -10632,10 +10794,10 @@
     </row>
     <row r="204" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="60" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B204" s="60" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C204" s="61">
         <v>81</v>
@@ -10886,7 +11048,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>388</v>
@@ -11213,7 +11375,7 @@
         <v>443</v>
       </c>
       <c r="B263" s="34" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C263" s="18">
         <v>149</v>
@@ -11384,58 +11546,58 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B288" s="27" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="27" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B289" s="27" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="27" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B290" s="27" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="27" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B291" s="27" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="27" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B292" s="27" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="27" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B293" s="27" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="27" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B294" s="27" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C294" s="3">
         <v>22</v>
@@ -11443,10 +11605,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="27" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B295" s="27" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C295" s="3">
         <v>23</v>
@@ -11454,10 +11616,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="27" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B296" s="27" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C296" s="3">
         <v>24</v>
@@ -11465,10 +11627,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="27" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B297" s="27" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C297" s="3">
         <v>25</v>
@@ -11476,10 +11638,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="27" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B298" s="27" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C298" s="3">
         <v>26</v>
@@ -11487,10 +11649,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="27" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B300" s="27" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C300" s="9">
         <v>177</v>
@@ -11498,10 +11660,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B302" s="3" t="s">
         <v>1292</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>1293</v>
       </c>
       <c r="C302" s="3">
         <v>192</v>
@@ -11509,10 +11671,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B303" s="3" t="s">
         <v>1294</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>1295</v>
       </c>
       <c r="C303" s="3">
         <v>197</v>
@@ -11520,10 +11682,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="27" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B305" s="27" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C305" s="3">
         <v>204</v>
@@ -11531,10 +11693,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="27" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B306" s="27" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C306" s="3">
         <v>205</v>
@@ -11542,10 +11704,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="27" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B307" s="27" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C307" s="3">
         <v>206</v>
@@ -11553,10 +11715,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="27" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B308" s="27" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C308" s="3">
         <v>207</v>
@@ -11564,10 +11726,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="27" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B309" s="27" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C309" s="3">
         <v>208</v>
@@ -11575,10 +11737,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="27" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B310" s="27" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C310" s="3">
         <v>209</v>
@@ -11586,10 +11748,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="27" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B311" s="27" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C311" s="3">
         <v>210</v>
@@ -11597,10 +11759,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="27" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B312" s="27" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C312" s="3">
         <v>211</v>
@@ -11608,10 +11770,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="27" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B313" s="27" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C313" s="3">
         <v>212</v>
@@ -11619,10 +11781,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="27" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B314" s="27" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C314" s="3">
         <v>213</v>
@@ -11630,10 +11792,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="27" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B315" s="27" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C315" s="3">
         <v>214</v>
@@ -11645,10 +11807,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="27" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B317" s="27" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C317" s="3">
         <v>215</v>
@@ -11656,10 +11818,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="27" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B318" s="27" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C318" s="3">
         <v>216</v>
@@ -11667,10 +11829,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="27" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B319" s="27" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C319" s="3">
         <v>217</v>
@@ -11678,10 +11840,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="27" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B320" s="27" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C320" s="3">
         <v>218</v>
@@ -11689,10 +11851,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="27" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B321" s="27" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C321" s="3">
         <v>219</v>
@@ -11700,10 +11862,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="27" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B322" s="27" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C322" s="3">
         <v>220</v>
@@ -11711,10 +11873,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="27" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B323" s="27" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C323" s="3">
         <v>221</v>
@@ -11722,10 +11884,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="27" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B324" s="27" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C324" s="3">
         <v>222</v>
@@ -11733,10 +11895,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="27" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B325" s="27" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C325" s="3">
         <v>223</v>
@@ -11744,10 +11906,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="27" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B326" s="27" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C326" s="3">
         <v>224</v>
@@ -11755,10 +11917,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="27" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B327" s="27" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C327" s="3">
         <v>225</v>
@@ -11769,10 +11931,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="27" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B329" s="27" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C329" s="54">
         <v>249</v>
@@ -11780,91 +11942,91 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="27" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B330" s="27" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C330" s="54"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="27" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B331" s="27" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="27" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B332" s="27" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="27" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B333" s="27" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="27" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B334" s="27" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="27" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B335" s="27" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="27" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B336" s="27" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="27" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B337" s="27" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="27" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B338" s="27" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="27" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B339" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="27" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B341" s="27" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C341" s="54">
         <v>24</v>
@@ -11872,91 +12034,91 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="27" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B342" s="27" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C342" s="54"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="27" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B343" s="27" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="27" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B344" s="27" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="27" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B345" s="27" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="27" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B346" s="27" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="27" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B347" s="27" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="27" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B348" s="27" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="27" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B349" s="27" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="27" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B350" s="27" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="27" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B351" s="27" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C353" s="3">
         <v>226</v>
@@ -11964,10 +12126,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="27" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B354" s="27" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C354" s="3">
         <v>227</v>
@@ -11975,10 +12137,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="27" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B355" s="27" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C355" s="3">
         <v>228</v>
@@ -11986,10 +12148,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C356" s="3">
         <v>229</v>
@@ -11997,10 +12159,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="27" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B357" s="27" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C357" s="3">
         <v>230</v>
@@ -12008,10 +12170,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="27" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B358" s="27" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C358" s="3">
         <v>231</v>
@@ -12019,10 +12181,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="27" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B360" s="27" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C360" s="3">
         <v>91</v>
@@ -12030,10 +12192,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="27" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B362" s="34" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C362" s="3">
         <v>242</v>
@@ -12041,10 +12203,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="27" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B363" s="27" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C363" s="3">
         <v>243</v>
@@ -12052,10 +12214,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="27" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B364" s="27" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C364" s="3">
         <v>244</v>
@@ -12063,10 +12225,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B367" s="3" t="s">
         <v>1530</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>1531</v>
       </c>
       <c r="C367" s="3">
         <v>248</v>
@@ -12074,10 +12236,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="27" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B369" s="27" t="s">
         <v>1557</v>
-      </c>
-      <c r="B369" s="27" t="s">
-        <v>1558</v>
       </c>
       <c r="C369" s="3">
         <v>256</v>
@@ -12085,10 +12247,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B370" s="3" t="s">
         <v>1559</v>
-      </c>
-      <c r="B370" s="3" t="s">
-        <v>1560</v>
       </c>
       <c r="C370" s="3">
         <v>257</v>
@@ -12096,10 +12258,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="27" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B372" s="27" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C372" s="3">
         <v>258</v>
@@ -12107,13 +12269,24 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B374" s="3" t="s">
         <v>1586</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>1587</v>
       </c>
       <c r="C374" s="3">
         <v>266</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" s="27" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B376" s="27" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C376" s="3">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -12125,13 +12298,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O276"/>
+  <dimension ref="A1:O283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E254" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E257" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C284" sqref="C284"/>
+      <selection pane="bottomRight" activeCell="E278" sqref="E278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12182,7 +12355,7 @@
         <v>478</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>479</v>
@@ -12246,7 +12419,7 @@
         <v>486</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -12272,7 +12445,7 @@
         <v>488</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="O3" s="17"/>
     </row>
@@ -12310,10 +12483,10 @@
         <v>1066</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -12406,7 +12579,7 @@
         <v>498</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -12446,7 +12619,7 @@
         <v>502</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
@@ -12472,7 +12645,7 @@
         <v>504</v>
       </c>
       <c r="N8" s="38" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -12486,7 +12659,7 @@
         <v>505</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -12526,7 +12699,7 @@
         <v>508</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
@@ -12562,7 +12735,7 @@
         <v>509</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
@@ -12598,7 +12771,7 @@
         <v>511</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -12634,7 +12807,7 @@
         <v>512</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
@@ -12670,7 +12843,7 @@
         <v>513</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
@@ -12706,7 +12879,7 @@
         <v>515</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
@@ -12742,7 +12915,7 @@
         <v>516</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -12778,7 +12951,7 @@
         <v>517</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -12814,7 +12987,7 @@
         <v>519</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
@@ -12850,7 +13023,7 @@
         <v>520</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -12955,7 +13128,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>522</v>
@@ -12991,10 +13164,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
@@ -13027,10 +13200,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
@@ -13063,10 +13236,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
@@ -16279,7 +16452,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>522</v>
@@ -17027,10 +17200,10 @@
         <v>0</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E142" s="17"/>
       <c r="F142" s="17"/>
@@ -17231,7 +17404,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>728</v>
@@ -17773,7 +17946,7 @@
         <v>0</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>764</v>
@@ -18011,7 +18184,7 @@
         <v>1</v>
       </c>
       <c r="C171" s="29" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D171" s="29" t="s">
         <v>779</v>
@@ -18377,7 +18550,7 @@
         <v>1590449400</v>
       </c>
       <c r="L181" s="29" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="182" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -18425,7 +18598,7 @@
         <v>806</v>
       </c>
       <c r="D183" s="70" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E183" s="69"/>
       <c r="F183" s="69"/>
@@ -18445,7 +18618,7 @@
         <v>1591054200</v>
       </c>
       <c r="L183" s="70" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="184" spans="1:13" s="71" customFormat="1" x14ac:dyDescent="0.2">
@@ -18459,7 +18632,7 @@
         <v>807</v>
       </c>
       <c r="D184" s="70" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E184" s="69"/>
       <c r="F184" s="69"/>
@@ -18479,7 +18652,7 @@
         <v>1591054200</v>
       </c>
       <c r="L184" s="70" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="185" spans="1:13" s="71" customFormat="1" x14ac:dyDescent="0.2">
@@ -18493,7 +18666,7 @@
         <v>808</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E185" s="69"/>
       <c r="F185" s="69"/>
@@ -18513,7 +18686,7 @@
         <v>1591054200</v>
       </c>
       <c r="L185" s="70" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="186" spans="1:13" s="71" customFormat="1" x14ac:dyDescent="0.2">
@@ -18527,7 +18700,7 @@
         <v>809</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E186" s="69"/>
       <c r="F186" s="69"/>
@@ -18547,7 +18720,7 @@
         <v>1591054200</v>
       </c>
       <c r="L186" s="70" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="187" spans="1:13" s="71" customFormat="1" x14ac:dyDescent="0.2">
@@ -18561,7 +18734,7 @@
         <v>810</v>
       </c>
       <c r="D187" s="70" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E187" s="69"/>
       <c r="F187" s="69"/>
@@ -18581,7 +18754,7 @@
         <v>1591054200</v>
       </c>
       <c r="L187" s="70" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="188" spans="1:13" s="71" customFormat="1" x14ac:dyDescent="0.2">
@@ -18595,7 +18768,7 @@
         <v>811</v>
       </c>
       <c r="D188" s="62" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E188" s="69"/>
       <c r="F188" s="69"/>
@@ -18615,7 +18788,7 @@
         <v>1591054200</v>
       </c>
       <c r="L188" s="70" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
@@ -18864,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D196" s="30" t="s">
         <v>828</v>
@@ -19253,7 +19426,7 @@
         <v>0</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D208" s="30" t="s">
         <v>843</v>
@@ -19760,7 +19933,7 @@
         <v>871</v>
       </c>
       <c r="D223" s="30" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G223" s="26">
         <v>171</v>
@@ -19789,10 +19962,10 @@
         <v>0</v>
       </c>
       <c r="C224" s="30" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D224" s="30" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G224" s="26">
         <v>170</v>
@@ -19821,10 +19994,10 @@
         <v>0</v>
       </c>
       <c r="C225" s="29" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D225" s="29" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E225" s="28"/>
       <c r="F225" s="28"/>
@@ -19838,13 +20011,13 @@
         <v>1</v>
       </c>
       <c r="J225" s="29" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K225" s="28">
         <v>1591054200</v>
       </c>
       <c r="L225" s="29" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="226" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -19855,10 +20028,10 @@
         <v>1</v>
       </c>
       <c r="C226" s="79" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D226" s="78" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E226" s="78"/>
       <c r="F226" s="78"/>
@@ -19872,13 +20045,13 @@
         <v>1</v>
       </c>
       <c r="J226" s="78" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="K226" s="78">
         <v>1592263800</v>
       </c>
       <c r="L226" s="79" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="227" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
@@ -19889,10 +20062,10 @@
         <v>0</v>
       </c>
       <c r="C227" s="86" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D227" s="86" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E227" s="85"/>
       <c r="F227" s="85"/>
@@ -19912,7 +20085,7 @@
         <v>1591632000</v>
       </c>
       <c r="L227" s="86" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="228" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
@@ -19923,10 +20096,10 @@
         <v>0</v>
       </c>
       <c r="C228" s="73" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D228" s="73" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E228" s="72"/>
       <c r="F228" s="72"/>
@@ -19940,13 +20113,13 @@
         <v>1</v>
       </c>
       <c r="J228" s="73" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K228" s="72">
         <v>1591632000</v>
       </c>
       <c r="L228" s="73" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="229" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -19957,10 +20130,10 @@
         <v>0</v>
       </c>
       <c r="C229" s="29" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D229" s="29" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E229" s="28"/>
       <c r="F229" s="28"/>
@@ -19980,7 +20153,7 @@
         <v>1591632000</v>
       </c>
       <c r="L229" s="28" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="230" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
@@ -19991,10 +20164,10 @@
         <v>0</v>
       </c>
       <c r="C230" s="82" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D230" s="82" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E230" s="81"/>
       <c r="F230" s="81"/>
@@ -20008,13 +20181,13 @@
         <v>1</v>
       </c>
       <c r="J230" s="82" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="K230" s="81">
         <v>1591632000</v>
       </c>
       <c r="L230" s="82" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="231" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20025,10 +20198,10 @@
         <v>0</v>
       </c>
       <c r="C231" s="79" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D231" s="79" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E231" s="78"/>
       <c r="F231" s="78"/>
@@ -20042,13 +20215,13 @@
         <v>1</v>
       </c>
       <c r="J231" s="79" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="K231" s="78">
         <v>1591632000</v>
       </c>
       <c r="L231" s="79" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="232" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -20059,10 +20232,10 @@
         <v>0</v>
       </c>
       <c r="C232" s="29" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D232" s="29" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E232" s="28"/>
       <c r="F232" s="28"/>
@@ -20076,13 +20249,13 @@
         <v>1</v>
       </c>
       <c r="J232" s="29" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K232" s="28">
         <v>1591659000</v>
       </c>
       <c r="L232" s="29" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="233" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
@@ -20093,10 +20266,10 @@
         <v>1</v>
       </c>
       <c r="C233" s="73" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D233" s="72" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E233" s="72"/>
       <c r="F233" s="72"/>
@@ -20110,13 +20283,13 @@
         <v>1</v>
       </c>
       <c r="J233" s="72" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="K233" s="72">
         <v>1592263800</v>
       </c>
       <c r="L233" s="72" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="234" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -20127,10 +20300,10 @@
         <v>1</v>
       </c>
       <c r="C234" s="29" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D234" s="29" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E234" s="28"/>
       <c r="F234" s="28"/>
@@ -20144,13 +20317,13 @@
         <v>1</v>
       </c>
       <c r="J234" s="29" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K234" s="28">
         <v>1592263800</v>
       </c>
       <c r="L234" s="29" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="235" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -20161,10 +20334,10 @@
         <v>1</v>
       </c>
       <c r="C235" s="29" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D235" s="29" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E235" s="28"/>
       <c r="F235" s="28"/>
@@ -20178,13 +20351,13 @@
         <v>1</v>
       </c>
       <c r="J235" s="29" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K235" s="28">
         <v>1592263800</v>
       </c>
       <c r="L235" s="29" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="236" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20195,10 +20368,10 @@
         <v>1</v>
       </c>
       <c r="C236" s="79" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D236" s="79" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E236" s="78"/>
       <c r="F236" s="78"/>
@@ -20212,13 +20385,13 @@
         <v>1</v>
       </c>
       <c r="J236" s="79" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="K236" s="78">
         <v>1592263800</v>
       </c>
       <c r="L236" s="79" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="237" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20229,10 +20402,10 @@
         <v>1</v>
       </c>
       <c r="C237" s="79" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D237" s="79" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E237" s="78"/>
       <c r="F237" s="78"/>
@@ -20246,13 +20419,13 @@
         <v>1</v>
       </c>
       <c r="J237" s="79" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="K237" s="78">
         <v>1592263800</v>
       </c>
       <c r="L237" s="79" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="238" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20263,10 +20436,10 @@
         <v>1</v>
       </c>
       <c r="C238" s="79" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D238" s="79" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E238" s="78"/>
       <c r="F238" s="78"/>
@@ -20280,13 +20453,13 @@
         <v>1</v>
       </c>
       <c r="J238" s="79" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="K238" s="78">
         <v>1592263800</v>
       </c>
       <c r="L238" s="79" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="239" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
@@ -20297,10 +20470,10 @@
         <v>1</v>
       </c>
       <c r="C239" s="82" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D239" s="82" t="s">
         <v>1238</v>
-      </c>
-      <c r="D239" s="82" t="s">
-        <v>1239</v>
       </c>
       <c r="E239" s="81"/>
       <c r="F239" s="81"/>
@@ -20314,13 +20487,13 @@
         <v>1</v>
       </c>
       <c r="J239" s="82" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="K239" s="81">
         <v>1592263800</v>
       </c>
       <c r="L239" s="82" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="240" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
@@ -20331,10 +20504,10 @@
         <v>1</v>
       </c>
       <c r="C240" s="86" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D240" s="86" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E240" s="85"/>
       <c r="F240" s="85"/>
@@ -20348,13 +20521,13 @@
         <v>1</v>
       </c>
       <c r="J240" s="86" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="K240" s="85">
         <v>1592263800</v>
       </c>
       <c r="L240" s="86" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="241" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
@@ -20365,10 +20538,10 @@
         <v>1</v>
       </c>
       <c r="C241" s="86" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D241" s="86" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E241" s="85"/>
       <c r="F241" s="85"/>
@@ -20382,13 +20555,13 @@
         <v>1</v>
       </c>
       <c r="J241" s="86" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="K241" s="85">
         <v>1592263800</v>
       </c>
       <c r="L241" s="86" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="242" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20399,10 +20572,10 @@
         <v>1</v>
       </c>
       <c r="C242" s="79" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D242" s="79" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E242" s="78"/>
       <c r="F242" s="78"/>
@@ -20416,13 +20589,13 @@
         <v>1</v>
       </c>
       <c r="J242" s="79" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="K242" s="78">
         <v>1592236800</v>
       </c>
       <c r="L242" s="79" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="243" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20433,10 +20606,10 @@
         <v>1</v>
       </c>
       <c r="C243" s="79" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D243" s="79" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E243" s="78"/>
       <c r="F243" s="78"/>
@@ -20450,13 +20623,13 @@
         <v>1</v>
       </c>
       <c r="J243" s="79" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="K243" s="78">
         <v>1592263800</v>
       </c>
       <c r="L243" s="79" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="244" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -20467,10 +20640,10 @@
         <v>1</v>
       </c>
       <c r="C244" s="29" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D244" s="28" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E244" s="28"/>
       <c r="F244" s="28"/>
@@ -20484,13 +20657,13 @@
         <v>1</v>
       </c>
       <c r="J244" s="28" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="K244" s="28">
         <v>1592841600</v>
       </c>
       <c r="L244" s="28" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="245" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20501,10 +20674,10 @@
         <v>1</v>
       </c>
       <c r="C245" s="79" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D245" s="79" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E245" s="78"/>
       <c r="F245" s="78"/>
@@ -20518,13 +20691,13 @@
         <v>1</v>
       </c>
       <c r="J245" s="79" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K245" s="78">
         <v>1592868600</v>
       </c>
       <c r="L245" s="79" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="246" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20535,10 +20708,10 @@
         <v>1</v>
       </c>
       <c r="C246" s="79" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D246" s="79" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E246" s="78"/>
       <c r="F246" s="78"/>
@@ -20552,13 +20725,13 @@
         <v>1</v>
       </c>
       <c r="J246" s="79" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="K246" s="78">
         <v>1592868600</v>
       </c>
       <c r="L246" s="79" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="247" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -20569,10 +20742,10 @@
         <v>1</v>
       </c>
       <c r="C247" s="79" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D247" s="79" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E247" s="78"/>
       <c r="F247" s="78"/>
@@ -20586,13 +20759,13 @@
         <v>1</v>
       </c>
       <c r="J247" s="79" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="K247" s="78">
         <v>1592868600</v>
       </c>
       <c r="L247" s="79" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -20603,10 +20776,10 @@
         <v>1</v>
       </c>
       <c r="C248" s="28" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D248" s="28" t="s">
         <v>1288</v>
-      </c>
-      <c r="D248" s="28" t="s">
-        <v>1289</v>
       </c>
       <c r="E248" s="28"/>
       <c r="F248" s="28"/>
@@ -20620,13 +20793,13 @@
         <v>1</v>
       </c>
       <c r="J248" s="28" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="K248" s="28">
         <v>1592868600</v>
       </c>
       <c r="L248" s="28" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="249" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -20637,10 +20810,10 @@
         <v>1</v>
       </c>
       <c r="C249" s="29" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D249" s="29" t="s">
         <v>1298</v>
-      </c>
-      <c r="D249" s="29" t="s">
-        <v>1299</v>
       </c>
       <c r="E249" s="28"/>
       <c r="F249" s="28"/>
@@ -20654,13 +20827,13 @@
         <v>1</v>
       </c>
       <c r="J249" s="29" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K249" s="28">
         <v>1592868600</v>
       </c>
       <c r="L249" s="28" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -20671,10 +20844,10 @@
         <v>1</v>
       </c>
       <c r="C250" s="30" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D250" s="92" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G250" s="26">
         <v>232</v>
@@ -20686,13 +20859,13 @@
         <v>1</v>
       </c>
       <c r="J250" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K250" s="26">
         <v>1588028400</v>
       </c>
       <c r="L250" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -20703,10 +20876,10 @@
         <v>1</v>
       </c>
       <c r="C251" s="30" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D251" s="92" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G251" s="26">
         <v>233</v>
@@ -20718,13 +20891,13 @@
         <v>1</v>
       </c>
       <c r="J251" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K251" s="26">
         <v>1588028400</v>
       </c>
       <c r="L251" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -20735,10 +20908,10 @@
         <v>1</v>
       </c>
       <c r="C252" s="30" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D252" s="92" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G252" s="26">
         <v>234</v>
@@ -20750,13 +20923,13 @@
         <v>1</v>
       </c>
       <c r="J252" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K252" s="26">
         <v>1588028400</v>
       </c>
       <c r="L252" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -20767,10 +20940,10 @@
         <v>1</v>
       </c>
       <c r="C253" s="30" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D253" s="92" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="G253" s="26">
         <v>235</v>
@@ -20782,13 +20955,13 @@
         <v>1</v>
       </c>
       <c r="J253" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K253" s="26">
         <v>1588028400</v>
       </c>
       <c r="L253" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -20799,10 +20972,10 @@
         <v>1</v>
       </c>
       <c r="C254" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D254" s="92" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G254" s="26">
         <v>236</v>
@@ -20814,13 +20987,13 @@
         <v>1</v>
       </c>
       <c r="J254" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K254" s="26">
         <v>1588028400</v>
       </c>
       <c r="L254" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -20831,10 +21004,10 @@
         <v>1</v>
       </c>
       <c r="C255" s="30" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D255" s="92" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G255" s="26">
         <v>237</v>
@@ -20846,13 +21019,13 @@
         <v>1</v>
       </c>
       <c r="J255" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K255" s="26">
         <v>1588028400</v>
       </c>
       <c r="L255" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -20863,10 +21036,10 @@
         <v>1</v>
       </c>
       <c r="C256" s="30" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D256" s="92" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G256" s="26">
         <v>238</v>
@@ -20878,13 +21051,13 @@
         <v>1</v>
       </c>
       <c r="J256" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K256" s="26">
         <v>1588028400</v>
       </c>
       <c r="L256" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -20895,10 +21068,10 @@
         <v>1</v>
       </c>
       <c r="C257" s="30" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D257" s="92" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G257" s="26">
         <v>239</v>
@@ -20910,13 +21083,13 @@
         <v>1</v>
       </c>
       <c r="J257" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K257" s="26">
         <v>1588028400</v>
       </c>
       <c r="L257" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -20927,10 +21100,10 @@
         <v>1</v>
       </c>
       <c r="C258" s="30" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D258" s="92" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G258" s="26">
         <v>240</v>
@@ -20942,13 +21115,13 @@
         <v>1</v>
       </c>
       <c r="J258" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K258" s="26">
         <v>1588028400</v>
       </c>
       <c r="L258" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -20959,10 +21132,10 @@
         <v>1</v>
       </c>
       <c r="C259" s="30" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D259" s="92" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G259" s="26">
         <v>241</v>
@@ -20974,13 +21147,13 @@
         <v>1</v>
       </c>
       <c r="J259" s="30" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K259" s="26">
         <v>1588028400</v>
       </c>
       <c r="L259" s="30" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -20991,10 +21164,10 @@
         <v>1</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="G260" s="26">
         <v>246</v>
@@ -21006,13 +21179,13 @@
         <v>1</v>
       </c>
       <c r="J260" s="16" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K260" s="17">
         <v>1597075200</v>
       </c>
       <c r="L260" s="16" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -21023,10 +21196,10 @@
         <v>1</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D261" s="16" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G261" s="26">
         <v>247</v>
@@ -21038,13 +21211,13 @@
         <v>1</v>
       </c>
       <c r="J261" s="16" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="K261" s="17">
         <v>1597075200</v>
       </c>
       <c r="L261" s="16" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -21055,10 +21228,10 @@
         <v>1</v>
       </c>
       <c r="C262" s="30" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D262" s="16" t="s">
         <v>1520</v>
-      </c>
-      <c r="D262" s="16" t="s">
-        <v>1521</v>
       </c>
       <c r="G262" s="26">
         <v>245</v>
@@ -21070,13 +21243,13 @@
         <v>1</v>
       </c>
       <c r="J262" s="16" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="K262" s="17">
         <v>1597075200</v>
       </c>
       <c r="L262" s="16" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -21087,10 +21260,10 @@
         <v>1</v>
       </c>
       <c r="C263" s="53" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D263" s="16" t="s">
         <v>1522</v>
-      </c>
-      <c r="D263" s="16" t="s">
-        <v>1523</v>
       </c>
       <c r="G263" s="26">
         <v>245</v>
@@ -21102,13 +21275,13 @@
         <v>1</v>
       </c>
       <c r="J263" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K263" s="17">
         <v>1597075200</v>
       </c>
       <c r="L263" s="16" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -21119,10 +21292,10 @@
         <v>1</v>
       </c>
       <c r="C264" s="30" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D264" s="53" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G264" s="26">
         <v>250</v>
@@ -21134,13 +21307,13 @@
         <v>1</v>
       </c>
       <c r="J264" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K264" s="26">
         <v>1597707000</v>
       </c>
       <c r="L264" s="26" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -21151,10 +21324,10 @@
         <v>1</v>
       </c>
       <c r="C265" s="26" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D265" s="53" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G265" s="26">
         <v>251</v>
@@ -21166,13 +21339,13 @@
         <v>1</v>
       </c>
       <c r="J265" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K265" s="26">
         <v>1597707000</v>
       </c>
       <c r="L265" s="26" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -21183,10 +21356,10 @@
         <v>1</v>
       </c>
       <c r="C266" s="30" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="G266" s="26">
         <v>252</v>
@@ -21198,13 +21371,13 @@
         <v>1</v>
       </c>
       <c r="J266" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K266" s="26">
         <v>1597680000</v>
       </c>
       <c r="L266" s="26" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -21215,10 +21388,10 @@
         <v>1</v>
       </c>
       <c r="C267" s="30" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D267" s="30" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="G267" s="26">
         <v>253</v>
@@ -21230,13 +21403,13 @@
         <v>1</v>
       </c>
       <c r="J267" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K267" s="26">
         <v>1597707000</v>
       </c>
       <c r="L267" s="26" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -21247,10 +21420,10 @@
         <v>1</v>
       </c>
       <c r="C268" s="30" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D268" s="30" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="G268" s="26">
         <v>254</v>
@@ -21262,13 +21435,13 @@
         <v>1</v>
       </c>
       <c r="J268" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K268" s="26">
         <v>1597707000</v>
       </c>
       <c r="L268" s="26" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -21279,10 +21452,10 @@
         <v>1</v>
       </c>
       <c r="C269" s="30" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D269" s="30" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G269" s="26">
         <v>255</v>
@@ -21294,251 +21467,481 @@
         <v>1</v>
       </c>
       <c r="J269" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K269" s="26">
         <v>1597707000</v>
       </c>
       <c r="L269" s="26" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="78">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="17">
         <v>269</v>
       </c>
-      <c r="B270" s="78">
-        <v>1</v>
-      </c>
-      <c r="C270" s="79" t="s">
+      <c r="B270" s="17">
+        <v>1</v>
+      </c>
+      <c r="C270" s="16" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D270" s="16" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E270" s="17"/>
+      <c r="F270" s="17"/>
+      <c r="G270" s="17">
+        <v>259</v>
+      </c>
+      <c r="H270" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I270" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" s="16" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K270" s="17">
+        <v>1598311800</v>
+      </c>
+      <c r="L270" s="16" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="17">
+        <v>270</v>
+      </c>
+      <c r="B271" s="17">
+        <v>1</v>
+      </c>
+      <c r="C271" s="16" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D271" s="16" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E271" s="17"/>
+      <c r="F271" s="17"/>
+      <c r="G271" s="17">
+        <v>260</v>
+      </c>
+      <c r="H271" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I271" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" s="16" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K271" s="17">
+        <v>1598311800</v>
+      </c>
+      <c r="L271" s="16" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="17">
+        <v>271</v>
+      </c>
+      <c r="B272" s="17">
+        <v>1</v>
+      </c>
+      <c r="C272" s="16" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D272" s="16" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E272" s="17"/>
+      <c r="F272" s="17"/>
+      <c r="G272" s="17">
+        <v>261</v>
+      </c>
+      <c r="H272" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I272" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J272" s="16" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K272" s="17">
+        <v>1598311800</v>
+      </c>
+      <c r="L272" s="16" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="17">
+        <v>272</v>
+      </c>
+      <c r="B273" s="17">
+        <v>1</v>
+      </c>
+      <c r="C273" s="17" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D273" s="17" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E273" s="17"/>
+      <c r="F273" s="17"/>
+      <c r="G273" s="17">
+        <v>262</v>
+      </c>
+      <c r="H273" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I273" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" s="16" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K273" s="17">
+        <v>1598311800</v>
+      </c>
+      <c r="L273" s="16" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="17">
+        <v>273</v>
+      </c>
+      <c r="B274" s="17">
+        <v>1</v>
+      </c>
+      <c r="C274" s="16" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D274" s="16" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E274" s="17"/>
+      <c r="F274" s="17"/>
+      <c r="G274" s="17">
+        <v>263</v>
+      </c>
+      <c r="H274" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I274" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" s="16" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K274" s="17">
+        <v>1598311800</v>
+      </c>
+      <c r="L274" s="16" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="17">
+        <v>274</v>
+      </c>
+      <c r="B275" s="17">
+        <v>1</v>
+      </c>
+      <c r="C275" s="16" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D275" s="16" t="s">
         <v>1582</v>
       </c>
-      <c r="D270" s="79" t="s">
-        <v>1569</v>
-      </c>
-      <c r="E270" s="78"/>
-      <c r="F270" s="78"/>
-      <c r="G270" s="78">
-        <v>259</v>
-      </c>
-      <c r="H270" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I270" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" s="79" t="s">
+      <c r="E275" s="17"/>
+      <c r="F275" s="17"/>
+      <c r="G275" s="17">
+        <v>264</v>
+      </c>
+      <c r="H275" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I275" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" s="16" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K275" s="17">
+        <v>1598284800</v>
+      </c>
+      <c r="L275" s="16" t="s">
         <v>1570</v>
       </c>
-      <c r="K270" s="78">
-        <v>1598311800</v>
-      </c>
-      <c r="L270" s="79" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="78">
-        <v>270</v>
-      </c>
-      <c r="B271" s="78">
-        <v>1</v>
-      </c>
-      <c r="C271" s="79" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D271" s="79" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E271" s="78"/>
-      <c r="F271" s="78"/>
-      <c r="G271" s="78">
-        <v>260</v>
-      </c>
-      <c r="H271" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I271" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" s="79" t="s">
+    </row>
+    <row r="276" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="17">
+        <v>275</v>
+      </c>
+      <c r="B276" s="17">
+        <v>1</v>
+      </c>
+      <c r="C276" s="16" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D276" s="16" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E276" s="17"/>
+      <c r="F276" s="17"/>
+      <c r="G276" s="17">
+        <v>265</v>
+      </c>
+      <c r="H276" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I276" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" s="16" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K276" s="17">
+        <v>1598284800</v>
+      </c>
+      <c r="L276" s="16" t="s">
         <v>1570</v>
       </c>
-      <c r="K271" s="78">
-        <v>1598311800</v>
-      </c>
-      <c r="L271" s="79" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="78">
-        <v>271</v>
-      </c>
-      <c r="B272" s="78">
-        <v>1</v>
-      </c>
-      <c r="C272" s="79" t="s">
-        <v>1581</v>
-      </c>
-      <c r="D272" s="79" t="s">
-        <v>1577</v>
-      </c>
-      <c r="E272" s="78"/>
-      <c r="F272" s="78"/>
-      <c r="G272" s="78">
-        <v>261</v>
-      </c>
-      <c r="H272" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I272" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J272" s="79" t="s">
-        <v>1160</v>
-      </c>
-      <c r="K272" s="78">
-        <v>1598311800</v>
-      </c>
-      <c r="L272" s="79" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="78">
-        <v>272</v>
-      </c>
-      <c r="B273" s="78">
-        <v>1</v>
-      </c>
-      <c r="C273" s="78" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D273" s="78" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E273" s="78"/>
-      <c r="F273" s="78"/>
-      <c r="G273" s="78">
-        <v>262</v>
-      </c>
-      <c r="H273" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I273" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" s="79" t="s">
-        <v>1160</v>
-      </c>
-      <c r="K273" s="78">
-        <v>1598311800</v>
-      </c>
-      <c r="L273" s="79" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="78">
-        <v>273</v>
-      </c>
-      <c r="B274" s="78">
-        <v>1</v>
-      </c>
-      <c r="C274" s="79" t="s">
-        <v>1591</v>
-      </c>
-      <c r="D274" s="79" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E274" s="78"/>
-      <c r="F274" s="78"/>
-      <c r="G274" s="78">
-        <v>263</v>
-      </c>
-      <c r="H274" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I274" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J274" s="79" t="s">
-        <v>1160</v>
-      </c>
-      <c r="K274" s="78">
-        <v>1598311800</v>
-      </c>
-      <c r="L274" s="79" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="78">
-        <v>274</v>
-      </c>
-      <c r="B275" s="78">
-        <v>1</v>
-      </c>
-      <c r="C275" s="79" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D275" s="79" t="s">
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A277" s="17">
+        <v>276</v>
+      </c>
+      <c r="B277" s="78">
+        <v>1</v>
+      </c>
+      <c r="C277" s="79" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D277" s="79" t="s">
         <v>1626</v>
       </c>
-      <c r="E275" s="78"/>
-      <c r="F275" s="78"/>
-      <c r="G275" s="78">
-        <v>264</v>
-      </c>
-      <c r="H275" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I275" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" s="79" t="s">
+      <c r="E277" s="78"/>
+      <c r="F277" s="78"/>
+      <c r="G277" s="78">
+        <v>280</v>
+      </c>
+      <c r="H277" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I277" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J277" s="79" t="s">
         <v>1627</v>
       </c>
-      <c r="K275" s="78">
-        <v>1598284800</v>
-      </c>
-      <c r="L275" s="79" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A276" s="78">
-        <v>275</v>
-      </c>
-      <c r="B276" s="78">
-        <v>1</v>
-      </c>
-      <c r="C276" s="79" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D276" s="79" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E276" s="78"/>
-      <c r="F276" s="78"/>
-      <c r="G276" s="78">
-        <v>265</v>
-      </c>
-      <c r="H276" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I276" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" s="79" t="s">
-        <v>1627</v>
-      </c>
-      <c r="K276" s="78">
-        <v>1598284800</v>
-      </c>
-      <c r="L276" s="79" t="s">
-        <v>1571</v>
+      <c r="K277" s="78">
+        <v>1598916600</v>
+      </c>
+      <c r="L277" s="79" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A278" s="17">
+        <v>277</v>
+      </c>
+      <c r="B278" s="78">
+        <v>1</v>
+      </c>
+      <c r="C278" s="79" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D278" s="79" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E278" s="78"/>
+      <c r="F278" s="78"/>
+      <c r="G278" s="78">
+        <v>281</v>
+      </c>
+      <c r="H278" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I278" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J278" s="79" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K278" s="78">
+        <v>1598889600</v>
+      </c>
+      <c r="L278" s="79" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A279" s="17">
+        <v>278</v>
+      </c>
+      <c r="B279" s="78">
+        <v>1</v>
+      </c>
+      <c r="C279" s="79" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D279" s="79" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E279" s="78"/>
+      <c r="F279" s="78"/>
+      <c r="G279" s="78">
+        <v>282</v>
+      </c>
+      <c r="H279" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I279" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J279" s="79" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K279" s="78">
+        <v>1598916600</v>
+      </c>
+      <c r="L279" s="30" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A280" s="17">
+        <v>279</v>
+      </c>
+      <c r="B280" s="78">
+        <v>1</v>
+      </c>
+      <c r="C280" s="79" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D280" s="79" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G280" s="78">
+        <v>283</v>
+      </c>
+      <c r="H280" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I280" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J280" s="79" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K280" s="78">
+        <v>1598916600</v>
+      </c>
+      <c r="L280" s="30" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A281" s="17">
+        <v>280</v>
+      </c>
+      <c r="B281" s="78">
+        <v>1</v>
+      </c>
+      <c r="C281" s="79" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D281" s="79" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G281" s="78">
+        <v>284</v>
+      </c>
+      <c r="H281" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I281" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J281" s="79" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K281" s="78">
+        <v>1598916600</v>
+      </c>
+      <c r="L281" s="30" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A282" s="17">
+        <v>281</v>
+      </c>
+      <c r="B282" s="78">
+        <v>1</v>
+      </c>
+      <c r="C282" s="79" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D282" s="79" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G282" s="78">
+        <v>285</v>
+      </c>
+      <c r="H282" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I282" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J282" s="79" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K282" s="78">
+        <v>1598916600</v>
+      </c>
+      <c r="L282" s="30" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A283" s="17">
+        <v>282</v>
+      </c>
+      <c r="B283" s="78">
+        <v>1</v>
+      </c>
+      <c r="C283" s="79" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D283" s="79" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G283" s="78">
+        <v>286</v>
+      </c>
+      <c r="H283" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I283" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J283" s="79" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K283" s="78">
+        <v>1598916600</v>
+      </c>
+      <c r="L283" s="30" t="s">
+        <v>1211</v>
       </c>
     </row>
   </sheetData>
@@ -21551,13 +21954,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I677"/>
+  <dimension ref="A1:I688"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C645" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C665" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C678" sqref="C678"/>
+      <selection pane="bottomRight" activeCell="G688" sqref="G688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21710,7 +22113,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>897</v>
@@ -21759,7 +22162,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>899</v>
@@ -21785,7 +22188,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -21808,7 +22211,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -22072,7 +22475,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D21" s="8">
         <v>1583769600</v>
@@ -22153,7 +22556,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -22521,7 +22924,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -22923,7 +23326,7 @@
         <v>40</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>1074</v>
@@ -22935,7 +23338,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -23050,7 +23453,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -23165,7 +23568,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -23268,7 +23671,7 @@
         <v>48</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1062</v>
+        <v>1659</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>1067</v>
@@ -23280,7 +23683,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -23616,7 +24019,7 @@
         <v>882</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>947</v>
+        <v>1654</v>
       </c>
       <c r="E88" s="8">
         <v>2</v>
@@ -23648,7 +24051,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -23694,7 +24097,7 @@
         <v>2</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -23708,7 +24111,7 @@
         <v>882</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>947</v>
+        <v>1655</v>
       </c>
       <c r="E92" s="8">
         <v>2</v>
@@ -23740,7 +24143,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -23777,7 +24180,7 @@
         <v>1062</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E95" s="8">
         <v>2</v>
@@ -23786,7 +24189,7 @@
         <v>2</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -23809,7 +24212,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24016,7 +24419,7 @@
         <v>2</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24053,7 +24456,7 @@
         <v>1062</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E107" s="8">
         <v>2</v>
@@ -24062,7 +24465,7 @@
         <v>3</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24119,10 +24522,10 @@
         <v>60</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E110" s="8">
         <v>2</v>
@@ -24145,7 +24548,7 @@
         <v>1062</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E111" s="8">
         <v>5</v>
@@ -24154,7 +24557,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24476,7 +24879,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24614,7 +25017,7 @@
         <v>2</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24775,7 +25178,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24881,7 +25284,7 @@
         <v>1062</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E143" s="8">
         <v>5</v>
@@ -24890,7 +25293,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -24959,7 +25362,7 @@
         <v>1</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25019,7 +25422,7 @@
         <v>1062</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E149" s="8">
         <v>2</v>
@@ -25028,7 +25431,7 @@
         <v>3</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25074,7 +25477,7 @@
         <v>1</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="152" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25134,7 +25537,7 @@
         <v>1062</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E154" s="8">
         <v>2</v>
@@ -25143,7 +25546,7 @@
         <v>3</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="155" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25189,7 +25592,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25249,7 +25652,7 @@
         <v>1062</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E159" s="8">
         <v>2</v>
@@ -25258,7 +25661,7 @@
         <v>3</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="160" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25304,7 +25707,7 @@
         <v>1</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="162" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25364,7 +25767,7 @@
         <v>1062</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E164" s="8">
         <v>2</v>
@@ -25373,7 +25776,7 @@
         <v>3</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25419,7 +25822,7 @@
         <v>1</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="167" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25479,7 +25882,7 @@
         <v>1062</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E169" s="8">
         <v>2</v>
@@ -25488,7 +25891,7 @@
         <v>3</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="170" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25525,7 +25928,7 @@
         <v>1062</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E171" s="8">
         <v>2</v>
@@ -25534,7 +25937,7 @@
         <v>1</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="172" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25640,7 +26043,7 @@
         <v>1062</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E176" s="8">
         <v>2</v>
@@ -25649,7 +26052,7 @@
         <v>3</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="177" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25686,7 +26089,7 @@
         <v>1062</v>
       </c>
       <c r="D178" s="94" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E178" s="14">
         <v>2</v>
@@ -25695,7 +26098,7 @@
         <v>4</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25732,7 +26135,7 @@
         <v>1062</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E180" s="8">
         <v>2</v>
@@ -25741,7 +26144,7 @@
         <v>1</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25847,7 +26250,7 @@
         <v>1062</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E185" s="8">
         <v>2</v>
@@ -25856,7 +26259,7 @@
         <v>3</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="186" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25916,7 +26319,7 @@
         <v>1062</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E188" s="8">
         <v>2</v>
@@ -25925,7 +26328,7 @@
         <v>1</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="189" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26031,7 +26434,7 @@
         <v>1062</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E193" s="8">
         <v>2</v>
@@ -26040,7 +26443,7 @@
         <v>3</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="194" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26077,7 +26480,7 @@
         <v>1062</v>
       </c>
       <c r="D195" s="94" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E195" s="14">
         <v>2</v>
@@ -26086,7 +26489,7 @@
         <v>4</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26097,7 +26500,7 @@
         <v>80</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>947</v>
@@ -26132,7 +26535,7 @@
         <v>1</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26238,7 +26641,7 @@
         <v>1062</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E202" s="8">
         <v>2</v>
@@ -26247,7 +26650,7 @@
         <v>3</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="203" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26339,7 +26742,7 @@
         <v>1</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="207" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26445,7 +26848,7 @@
         <v>1062</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E211" s="8">
         <v>2</v>
@@ -26454,7 +26857,7 @@
         <v>3</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="212" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26523,7 +26926,7 @@
         <v>1</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="215" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26675,7 +27078,7 @@
         <v>1062</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E221" s="8">
         <v>2</v>
@@ -26684,7 +27087,7 @@
         <v>3</v>
       </c>
       <c r="G221" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="222" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26790,7 +27193,7 @@
         <v>1062</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E226" s="8">
         <v>2</v>
@@ -26799,7 +27202,7 @@
         <v>2</v>
       </c>
       <c r="G226" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26845,7 +27248,7 @@
         <v>1</v>
       </c>
       <c r="G228" s="10" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -26951,7 +27354,7 @@
         <v>1062</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E233" s="8">
         <v>2</v>
@@ -26960,7 +27363,7 @@
         <v>3</v>
       </c>
       <c r="G233" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="234" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -27296,7 +27699,7 @@
         <v>1062</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E248" s="8">
         <v>2</v>
@@ -27305,7 +27708,7 @@
         <v>1</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -27443,7 +27846,7 @@
         <v>4</v>
       </c>
       <c r="G254" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -27684,7 +28087,7 @@
         <v>94</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D265" s="10" t="s">
         <v>947</v>
@@ -27719,7 +28122,7 @@
         <v>1</v>
       </c>
       <c r="G266" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="267" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -27765,7 +28168,7 @@
         <v>2</v>
       </c>
       <c r="G268" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="269" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -27903,7 +28306,7 @@
         <v>1</v>
       </c>
       <c r="G274" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="275" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28018,7 +28421,7 @@
         <v>1</v>
       </c>
       <c r="G279" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="280" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28317,7 +28720,7 @@
         <v>1</v>
       </c>
       <c r="G292" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="293" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28354,7 +28757,7 @@
         <v>1062</v>
       </c>
       <c r="D294" s="10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E294" s="8">
         <v>2</v>
@@ -28363,7 +28766,7 @@
         <v>2</v>
       </c>
       <c r="G294" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="295" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28478,7 +28881,7 @@
         <v>1</v>
       </c>
       <c r="G299" s="10" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="300" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28584,7 +28987,7 @@
         <v>1062</v>
       </c>
       <c r="D304" s="10" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E304" s="8">
         <v>2</v>
@@ -28593,7 +28996,7 @@
         <v>1</v>
       </c>
       <c r="G304" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="305" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28708,7 +29111,7 @@
         <v>1</v>
       </c>
       <c r="G309" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="310" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28823,7 +29226,7 @@
         <v>1</v>
       </c>
       <c r="G314" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="315" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28938,7 +29341,7 @@
         <v>1</v>
       </c>
       <c r="G319" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="320" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29044,7 +29447,7 @@
         <v>1062</v>
       </c>
       <c r="D324" s="10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E324" s="8">
         <v>2</v>
@@ -29053,7 +29456,7 @@
         <v>1</v>
       </c>
       <c r="G324" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="325" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29289,7 +29692,7 @@
         <v>1062</v>
       </c>
       <c r="D334" s="10" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E334" s="8">
         <v>2</v>
@@ -29298,7 +29701,7 @@
         <v>1</v>
       </c>
       <c r="G334" s="10" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="335" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29404,7 +29807,7 @@
         <v>1062</v>
       </c>
       <c r="D339" s="10" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E339" s="8">
         <v>2</v>
@@ -29413,7 +29816,7 @@
         <v>1</v>
       </c>
       <c r="G339" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="340" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29574,7 +29977,7 @@
         <v>1</v>
       </c>
       <c r="G346" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="347" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29850,7 +30253,7 @@
         <v>1</v>
       </c>
       <c r="G358" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="359" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29873,7 +30276,7 @@
         <v>1</v>
       </c>
       <c r="G359" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="360" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29896,7 +30299,7 @@
         <v>1</v>
       </c>
       <c r="G360" s="10" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="361" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -29907,7 +30310,7 @@
         <v>138</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D361" s="15" t="s">
         <v>1067</v>
@@ -29919,7 +30322,7 @@
         <v>1</v>
       </c>
       <c r="G361" s="15" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="362" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -29942,7 +30345,7 @@
         <v>1</v>
       </c>
       <c r="G362" s="15" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="363" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -29976,10 +30379,10 @@
         <v>138</v>
       </c>
       <c r="C364" s="15" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E364" s="14">
         <v>2</v>
@@ -29988,7 +30391,7 @@
         <v>2</v>
       </c>
       <c r="G364" s="15" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="365" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30011,7 +30414,7 @@
         <v>2</v>
       </c>
       <c r="G365" s="15" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="366" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30045,10 +30448,10 @@
         <v>139</v>
       </c>
       <c r="C367" s="15" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D367" s="15" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E367" s="14">
         <v>2</v>
@@ -30057,7 +30460,7 @@
         <v>1</v>
       </c>
       <c r="G367" s="15" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="368" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30080,7 +30483,7 @@
         <v>1</v>
       </c>
       <c r="G368" s="15" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="369" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30114,10 +30517,10 @@
         <v>139</v>
       </c>
       <c r="C370" s="15" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D370" s="15" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E370" s="14">
         <v>2</v>
@@ -30126,7 +30529,7 @@
         <v>2</v>
       </c>
       <c r="G370" s="15" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="371" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30149,7 +30552,7 @@
         <v>2</v>
       </c>
       <c r="G371" s="15" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="372" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30252,10 +30655,10 @@
         <v>142</v>
       </c>
       <c r="C376" s="10" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D376" s="10" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E376" s="8">
         <v>2</v>
@@ -30264,7 +30667,7 @@
         <v>1</v>
       </c>
       <c r="G376" s="10" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="377" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30298,10 +30701,10 @@
         <v>142</v>
       </c>
       <c r="C378" s="10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E378" s="8">
         <v>2</v>
@@ -30310,7 +30713,7 @@
         <v>2</v>
       </c>
       <c r="G378" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="379" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30333,7 +30736,7 @@
         <v>1</v>
       </c>
       <c r="G379" s="15" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="380" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30402,7 +30805,7 @@
         <v>2</v>
       </c>
       <c r="G382" s="15" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="383" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -30485,7 +30888,7 @@
         <v>1062</v>
       </c>
       <c r="D386" s="10" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E386" s="8">
         <v>2</v>
@@ -30494,7 +30897,7 @@
         <v>1</v>
       </c>
       <c r="G386" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="387" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30540,7 +30943,7 @@
         <v>2</v>
       </c>
       <c r="G388" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="389" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30632,7 +31035,7 @@
         <v>1</v>
       </c>
       <c r="G392" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="393" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30692,7 +31095,7 @@
         <v>1062</v>
       </c>
       <c r="D395" s="10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E395" s="8">
         <v>2</v>
@@ -30701,7 +31104,7 @@
         <v>2</v>
       </c>
       <c r="G395" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="396" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -31023,7 +31426,7 @@
         <v>1</v>
       </c>
       <c r="G409" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="410" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -31106,7 +31509,7 @@
         <v>1062</v>
       </c>
       <c r="D413" s="10" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E413" s="8">
         <v>2</v>
@@ -31115,7 +31518,7 @@
         <v>2</v>
       </c>
       <c r="G413" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="414" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -31207,7 +31610,7 @@
         <v>1</v>
       </c>
       <c r="G417" s="10" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="418" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -31290,7 +31693,7 @@
         <v>1062</v>
       </c>
       <c r="D421" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E421" s="8">
         <v>2</v>
@@ -31299,7 +31702,7 @@
         <v>2</v>
       </c>
       <c r="G421" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="422" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -31782,7 +32185,7 @@
         <v>1</v>
       </c>
       <c r="G442" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="443" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -31865,7 +32268,7 @@
         <v>1062</v>
       </c>
       <c r="D446" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E446" s="8">
         <v>2</v>
@@ -31874,7 +32277,7 @@
         <v>1</v>
       </c>
       <c r="G446" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="447" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -32242,7 +32645,7 @@
         <v>1</v>
       </c>
       <c r="G462" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="463" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -32334,7 +32737,7 @@
         <v>2</v>
       </c>
       <c r="G466" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="467" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -32426,7 +32829,7 @@
         <v>1</v>
       </c>
       <c r="G470" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="471" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -32509,7 +32912,7 @@
         <v>1062</v>
       </c>
       <c r="D474" s="10" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E474" s="8">
         <v>2</v>
@@ -32518,7 +32921,7 @@
         <v>2</v>
       </c>
       <c r="G474" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="475" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -32851,7 +33254,7 @@
         <v>170</v>
       </c>
       <c r="C489" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D489" s="10" t="s">
         <v>883</v>
@@ -32920,7 +33323,7 @@
         <v>171</v>
       </c>
       <c r="C492" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D492" s="10" t="s">
         <v>883</v>
@@ -33012,7 +33415,7 @@
         <v>173</v>
       </c>
       <c r="C496" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D496" s="8">
         <v>1</v>
@@ -33024,7 +33427,7 @@
         <v>2</v>
       </c>
       <c r="G496" s="10" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="497" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -33081,7 +33484,7 @@
         <v>176</v>
       </c>
       <c r="C499" s="10" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D499" s="8">
         <v>1</v>
@@ -33104,7 +33507,7 @@
         <v>177</v>
       </c>
       <c r="C500" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D500" s="9">
         <v>0</v>
@@ -33127,7 +33530,7 @@
         <v>178</v>
       </c>
       <c r="C501" s="53" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D501" s="9">
         <v>1</v>
@@ -33139,7 +33542,7 @@
         <v>1</v>
       </c>
       <c r="G501" s="53" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.2">
@@ -33150,7 +33553,7 @@
         <v>178</v>
       </c>
       <c r="C502" s="53" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D502" s="9">
         <v>2</v>
@@ -33162,7 +33565,7 @@
         <v>1</v>
       </c>
       <c r="G502" s="53" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.2">
@@ -33219,7 +33622,7 @@
         <v>180</v>
       </c>
       <c r="C505" s="43" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D505" s="43" t="s">
         <v>883</v>
@@ -33242,7 +33645,7 @@
         <v>180</v>
       </c>
       <c r="C506" s="43" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D506" s="84">
         <v>1</v>
@@ -33254,7 +33657,7 @@
         <v>1</v>
       </c>
       <c r="G506" s="43" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.2">
@@ -33265,7 +33668,7 @@
         <v>180</v>
       </c>
       <c r="C507" s="43" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D507" s="84">
         <v>3</v>
@@ -33277,7 +33680,7 @@
         <v>1</v>
       </c>
       <c r="G507" s="43" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.2">
@@ -33288,7 +33691,7 @@
         <v>181</v>
       </c>
       <c r="C508" s="76" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D508" s="76" t="s">
         <v>883</v>
@@ -33311,7 +33714,7 @@
         <v>181</v>
       </c>
       <c r="C509" s="76" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D509" s="75">
         <v>4</v>
@@ -33323,7 +33726,7 @@
         <v>1</v>
       </c>
       <c r="G509" s="76" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.2">
@@ -33334,7 +33737,7 @@
         <v>182</v>
       </c>
       <c r="C510" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D510" s="15" t="s">
         <v>883</v>
@@ -33357,7 +33760,7 @@
         <v>183</v>
       </c>
       <c r="C511" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D511" s="15" t="s">
         <v>883</v>
@@ -33380,7 +33783,7 @@
         <v>184</v>
       </c>
       <c r="C512" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D512" s="15" t="s">
         <v>883</v>
@@ -33403,7 +33806,7 @@
         <v>185</v>
       </c>
       <c r="C513" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D513" s="15" t="s">
         <v>883</v>
@@ -33426,7 +33829,7 @@
         <v>185</v>
       </c>
       <c r="C514" s="15" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D514" s="14">
         <v>1</v>
@@ -33438,7 +33841,7 @@
         <v>1</v>
       </c>
       <c r="G514" s="15" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.2">
@@ -33449,7 +33852,7 @@
         <v>186</v>
       </c>
       <c r="C515" s="76" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D515" s="76" t="s">
         <v>883</v>
@@ -33461,7 +33864,7 @@
         <v>1</v>
       </c>
       <c r="G515" s="76" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.2">
@@ -33472,7 +33875,7 @@
         <v>187</v>
       </c>
       <c r="C516" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D516" s="15" t="s">
         <v>883</v>
@@ -33495,7 +33898,7 @@
         <v>187</v>
       </c>
       <c r="C517" s="15" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D517" s="14">
         <v>1</v>
@@ -33507,7 +33910,7 @@
         <v>1</v>
       </c>
       <c r="G517" s="15" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.2">
@@ -33518,7 +33921,7 @@
         <v>188</v>
       </c>
       <c r="C518" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D518" s="15" t="s">
         <v>883</v>
@@ -33541,7 +33944,7 @@
         <v>188</v>
       </c>
       <c r="C519" s="15" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D519" s="14">
         <v>1</v>
@@ -33553,7 +33956,7 @@
         <v>1</v>
       </c>
       <c r="G519" s="15" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.2">
@@ -33564,7 +33967,7 @@
         <v>189</v>
       </c>
       <c r="C520" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D520" s="19" t="s">
         <v>883</v>
@@ -33587,7 +33990,7 @@
         <v>189</v>
       </c>
       <c r="C521" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D521" s="77">
         <v>1</v>
@@ -33599,7 +34002,7 @@
         <v>1</v>
       </c>
       <c r="G521" s="19" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.2">
@@ -33610,7 +34013,7 @@
         <v>189</v>
       </c>
       <c r="C522" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D522" s="77">
         <v>2</v>
@@ -33622,7 +34025,7 @@
         <v>1</v>
       </c>
       <c r="G522" s="19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.2">
@@ -33633,10 +34036,10 @@
         <v>190</v>
       </c>
       <c r="C523" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D523" s="19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E523" s="77">
         <v>5</v>
@@ -33656,7 +34059,7 @@
         <v>190</v>
       </c>
       <c r="C524" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D524" s="77">
         <v>3</v>
@@ -33668,7 +34071,7 @@
         <v>1</v>
       </c>
       <c r="G524" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.2">
@@ -33679,7 +34082,7 @@
         <v>190</v>
       </c>
       <c r="C525" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D525" s="77">
         <v>6</v>
@@ -33691,7 +34094,7 @@
         <v>1</v>
       </c>
       <c r="G525" s="19" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.2">
@@ -33702,7 +34105,7 @@
         <v>191</v>
       </c>
       <c r="C526" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D526" s="19" t="s">
         <v>883</v>
@@ -33725,7 +34128,7 @@
         <v>191</v>
       </c>
       <c r="C527" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D527" s="77">
         <v>7</v>
@@ -33737,7 +34140,7 @@
         <v>1</v>
       </c>
       <c r="G527" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.2">
@@ -33748,7 +34151,7 @@
         <v>192</v>
       </c>
       <c r="C528" s="89" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D528" s="89" t="s">
         <v>883</v>
@@ -33771,7 +34174,7 @@
         <v>192</v>
       </c>
       <c r="C529" s="89" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D529" s="88">
         <v>1</v>
@@ -33783,7 +34186,7 @@
         <v>1</v>
       </c>
       <c r="G529" s="89" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.2">
@@ -33829,7 +34232,7 @@
         <v>1</v>
       </c>
       <c r="G531" s="43" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.2">
@@ -33852,7 +34255,7 @@
         <v>1</v>
       </c>
       <c r="G532" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.2">
@@ -33875,7 +34278,7 @@
         <v>1</v>
       </c>
       <c r="G533" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.2">
@@ -33898,7 +34301,7 @@
         <v>2</v>
       </c>
       <c r="G534" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.2">
@@ -33912,7 +34315,7 @@
         <v>1062</v>
       </c>
       <c r="D535" s="19" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E535" s="77">
         <v>2</v>
@@ -33921,7 +34324,7 @@
         <v>2</v>
       </c>
       <c r="G535" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.2">
@@ -33944,7 +34347,7 @@
         <v>1</v>
       </c>
       <c r="G536" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.2">
@@ -33967,7 +34370,7 @@
         <v>1</v>
       </c>
       <c r="G537" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.2">
@@ -33990,7 +34393,7 @@
         <v>2</v>
       </c>
       <c r="G538" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.2">
@@ -34004,7 +34407,7 @@
         <v>1062</v>
       </c>
       <c r="D539" s="19" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E539" s="77">
         <v>2</v>
@@ -34013,7 +34416,7 @@
         <v>2</v>
       </c>
       <c r="G539" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.2">
@@ -34073,7 +34476,7 @@
         <v>882</v>
       </c>
       <c r="D542" s="19" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E542" s="77">
         <v>2</v>
@@ -34082,7 +34485,7 @@
         <v>3</v>
       </c>
       <c r="G542" s="19" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.2">
@@ -34093,7 +34496,7 @@
         <v>198</v>
       </c>
       <c r="C543" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D543" s="15" t="s">
         <v>883</v>
@@ -34116,7 +34519,7 @@
         <v>199</v>
       </c>
       <c r="C544" s="19" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D544" s="19" t="s">
         <v>1067</v>
@@ -34128,7 +34531,7 @@
         <v>1</v>
       </c>
       <c r="G544" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.2">
@@ -34139,7 +34542,7 @@
         <v>199</v>
       </c>
       <c r="C545" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D545" s="19" t="s">
         <v>883</v>
@@ -34162,7 +34565,7 @@
         <v>199</v>
       </c>
       <c r="C546" s="19" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D546" s="19" t="s">
         <v>1068</v>
@@ -34174,7 +34577,7 @@
         <v>2</v>
       </c>
       <c r="G546" s="19" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.2">
@@ -34185,7 +34588,7 @@
         <v>199</v>
       </c>
       <c r="C547" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D547" s="19" t="s">
         <v>883</v>
@@ -34208,7 +34611,7 @@
         <v>200</v>
       </c>
       <c r="C548" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D548" s="19" t="s">
         <v>883</v>
@@ -34243,7 +34646,7 @@
         <v>1</v>
       </c>
       <c r="G549" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.2">
@@ -34254,7 +34657,7 @@
         <v>200</v>
       </c>
       <c r="C550" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D550" s="19" t="s">
         <v>883</v>
@@ -34277,10 +34680,10 @@
         <v>200</v>
       </c>
       <c r="C551" s="19" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D551" s="19" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E551" s="77">
         <v>2</v>
@@ -34289,7 +34692,7 @@
         <v>2</v>
       </c>
       <c r="G551" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.2">
@@ -34300,7 +34703,7 @@
         <v>201</v>
       </c>
       <c r="C552" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D552" s="19" t="s">
         <v>883</v>
@@ -34392,7 +34795,7 @@
         <v>203</v>
       </c>
       <c r="C556" s="19" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D556" s="77">
         <v>1</v>
@@ -34404,7 +34807,7 @@
         <v>3</v>
       </c>
       <c r="G556" s="19" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="557" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -34415,7 +34818,7 @@
         <v>204</v>
       </c>
       <c r="C557" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D557" s="8">
         <v>1</v>
@@ -34427,7 +34830,7 @@
         <v>1</v>
       </c>
       <c r="G557" s="10" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="558" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -34438,7 +34841,7 @@
         <v>205</v>
       </c>
       <c r="C558" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D558" s="8">
         <v>1</v>
@@ -34450,7 +34853,7 @@
         <v>1</v>
       </c>
       <c r="G558" s="10" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.2">
@@ -34461,7 +34864,7 @@
         <v>206</v>
       </c>
       <c r="C559" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D559" s="8">
         <v>1</v>
@@ -34473,7 +34876,7 @@
         <v>1</v>
       </c>
       <c r="G559" s="10" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.2">
@@ -34484,7 +34887,7 @@
         <v>207</v>
       </c>
       <c r="C560" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D560" s="8">
         <v>1</v>
@@ -34496,7 +34899,7 @@
         <v>1</v>
       </c>
       <c r="G560" s="10" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
@@ -34507,7 +34910,7 @@
         <v>208</v>
       </c>
       <c r="C561" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D561" s="8">
         <v>1</v>
@@ -34519,7 +34922,7 @@
         <v>1</v>
       </c>
       <c r="G561" s="10" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
@@ -34530,7 +34933,7 @@
         <v>209</v>
       </c>
       <c r="C562" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D562" s="8">
         <v>1</v>
@@ -34542,7 +34945,7 @@
         <v>1</v>
       </c>
       <c r="G562" s="10" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.2">
@@ -34553,7 +34956,7 @@
         <v>210</v>
       </c>
       <c r="C563" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D563" s="8">
         <v>2</v>
@@ -34565,7 +34968,7 @@
         <v>1</v>
       </c>
       <c r="G563" s="10" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.2">
@@ -34576,7 +34979,7 @@
         <v>210</v>
       </c>
       <c r="C564" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D564" s="8">
         <v>1</v>
@@ -34588,7 +34991,7 @@
         <v>2</v>
       </c>
       <c r="G564" s="10" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.2">
@@ -34599,7 +35002,7 @@
         <v>211</v>
       </c>
       <c r="C565" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D565" s="8">
         <v>3</v>
@@ -34611,7 +35014,7 @@
         <v>1</v>
       </c>
       <c r="G565" s="10" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.2">
@@ -34622,7 +35025,7 @@
         <v>211</v>
       </c>
       <c r="C566" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D566" s="8">
         <v>1</v>
@@ -34634,7 +35037,7 @@
         <v>2</v>
       </c>
       <c r="G566" s="10" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.2">
@@ -34645,7 +35048,7 @@
         <v>212</v>
       </c>
       <c r="C567" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D567" s="8">
         <v>4</v>
@@ -34657,7 +35060,7 @@
         <v>1</v>
       </c>
       <c r="G567" s="10" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.2">
@@ -34668,7 +35071,7 @@
         <v>212</v>
       </c>
       <c r="C568" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D568" s="8">
         <v>1</v>
@@ -34680,7 +35083,7 @@
         <v>2</v>
       </c>
       <c r="G568" s="10" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.2">
@@ -34691,7 +35094,7 @@
         <v>213</v>
       </c>
       <c r="C569" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D569" s="8">
         <v>5</v>
@@ -34703,7 +35106,7 @@
         <v>1</v>
       </c>
       <c r="G569" s="10" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.2">
@@ -34714,7 +35117,7 @@
         <v>213</v>
       </c>
       <c r="C570" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D570" s="8">
         <v>1</v>
@@ -34726,7 +35129,7 @@
         <v>2</v>
       </c>
       <c r="G570" s="10" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.2">
@@ -34737,7 +35140,7 @@
         <v>214</v>
       </c>
       <c r="C571" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D571" s="8">
         <v>6</v>
@@ -34749,7 +35152,7 @@
         <v>1</v>
       </c>
       <c r="G571" s="10" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.2">
@@ -34760,7 +35163,7 @@
         <v>214</v>
       </c>
       <c r="C572" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D572" s="8">
         <v>1</v>
@@ -34772,7 +35175,7 @@
         <v>2</v>
       </c>
       <c r="G572" s="10" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.2">
@@ -34783,7 +35186,7 @@
         <v>215</v>
       </c>
       <c r="C573" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D573" s="8">
         <v>7</v>
@@ -34795,7 +35198,7 @@
         <v>1</v>
       </c>
       <c r="G573" s="10" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.2">
@@ -34806,7 +35209,7 @@
         <v>215</v>
       </c>
       <c r="C574" s="53" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D574" s="8">
         <v>1</v>
@@ -34818,7 +35221,7 @@
         <v>2</v>
       </c>
       <c r="G574" s="10" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.2">
@@ -34829,7 +35232,7 @@
         <v>216</v>
       </c>
       <c r="C575" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D575" s="8">
         <v>7</v>
@@ -34841,7 +35244,7 @@
         <v>1</v>
       </c>
       <c r="G575" s="10" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.2">
@@ -34852,7 +35255,7 @@
         <v>216</v>
       </c>
       <c r="C576" s="53" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D576" s="8">
         <v>1</v>
@@ -34864,7 +35267,7 @@
         <v>2</v>
       </c>
       <c r="G576" s="10" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.2">
@@ -34875,7 +35278,7 @@
         <v>217</v>
       </c>
       <c r="C577" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D577" s="8">
         <v>8</v>
@@ -34887,7 +35290,7 @@
         <v>1</v>
       </c>
       <c r="G577" s="10" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.2">
@@ -34898,7 +35301,7 @@
         <v>217</v>
       </c>
       <c r="C578" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D578" s="8">
         <v>1</v>
@@ -34910,7 +35313,7 @@
         <v>2</v>
       </c>
       <c r="G578" s="10" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.2">
@@ -34921,7 +35324,7 @@
         <v>218</v>
       </c>
       <c r="C579" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D579" s="8">
         <v>9</v>
@@ -34933,7 +35336,7 @@
         <v>1</v>
       </c>
       <c r="G579" s="10" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.2">
@@ -34944,7 +35347,7 @@
         <v>218</v>
       </c>
       <c r="C580" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D580" s="8">
         <v>1</v>
@@ -34956,7 +35359,7 @@
         <v>2</v>
       </c>
       <c r="G580" s="10" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.2">
@@ -34967,7 +35370,7 @@
         <v>219</v>
       </c>
       <c r="C581" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D581" s="8">
         <v>10</v>
@@ -34979,7 +35382,7 @@
         <v>1</v>
       </c>
       <c r="G581" s="10" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.2">
@@ -34990,7 +35393,7 @@
         <v>219</v>
       </c>
       <c r="C582" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D582" s="8">
         <v>1</v>
@@ -35002,7 +35405,7 @@
         <v>2</v>
       </c>
       <c r="G582" s="10" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.2">
@@ -35013,7 +35416,7 @@
         <v>220</v>
       </c>
       <c r="C583" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D583" s="8">
         <v>11</v>
@@ -35025,7 +35428,7 @@
         <v>1</v>
       </c>
       <c r="G583" s="10" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.2">
@@ -35036,7 +35439,7 @@
         <v>220</v>
       </c>
       <c r="C584" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D584" s="8">
         <v>1</v>
@@ -35048,7 +35451,7 @@
         <v>2</v>
       </c>
       <c r="G584" s="10" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.2">
@@ -35059,7 +35462,7 @@
         <v>221</v>
       </c>
       <c r="C585" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D585" s="8">
         <v>12</v>
@@ -35071,7 +35474,7 @@
         <v>1</v>
       </c>
       <c r="G585" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.2">
@@ -35082,7 +35485,7 @@
         <v>221</v>
       </c>
       <c r="C586" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D586" s="8">
         <v>1</v>
@@ -35094,7 +35497,7 @@
         <v>2</v>
       </c>
       <c r="G586" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.2">
@@ -35105,7 +35508,7 @@
         <v>222</v>
       </c>
       <c r="C587" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D587" s="8">
         <v>13</v>
@@ -35117,7 +35520,7 @@
         <v>1</v>
       </c>
       <c r="G587" s="10" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.2">
@@ -35128,7 +35531,7 @@
         <v>222</v>
       </c>
       <c r="C588" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D588" s="8">
         <v>1</v>
@@ -35140,7 +35543,7 @@
         <v>2</v>
       </c>
       <c r="G588" s="10" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.2">
@@ -35151,7 +35554,7 @@
         <v>223</v>
       </c>
       <c r="C589" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D589" s="8">
         <v>14</v>
@@ -35163,7 +35566,7 @@
         <v>1</v>
       </c>
       <c r="G589" s="10" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.2">
@@ -35174,7 +35577,7 @@
         <v>223</v>
       </c>
       <c r="C590" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D590" s="8">
         <v>1</v>
@@ -35186,7 +35589,7 @@
         <v>2</v>
       </c>
       <c r="G590" s="10" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.2">
@@ -35197,7 +35600,7 @@
         <v>224</v>
       </c>
       <c r="C591" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D591" s="8">
         <v>15</v>
@@ -35209,7 +35612,7 @@
         <v>1</v>
       </c>
       <c r="G591" s="10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.2">
@@ -35220,7 +35623,7 @@
         <v>224</v>
       </c>
       <c r="C592" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D592" s="8">
         <v>1</v>
@@ -35232,7 +35635,7 @@
         <v>2</v>
       </c>
       <c r="G592" s="10" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.2">
@@ -35243,7 +35646,7 @@
         <v>225</v>
       </c>
       <c r="C593" s="10" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D593" s="9">
         <v>16</v>
@@ -35255,7 +35658,7 @@
         <v>1</v>
       </c>
       <c r="G593" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.2">
@@ -35266,7 +35669,7 @@
         <v>225</v>
       </c>
       <c r="C594" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D594" s="8">
         <v>1</v>
@@ -35278,7 +35681,7 @@
         <v>2</v>
       </c>
       <c r="G594" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.2">
@@ -35289,7 +35692,7 @@
         <v>226</v>
       </c>
       <c r="C595" s="53" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D595" s="9">
         <v>1</v>
@@ -35301,7 +35704,7 @@
         <v>1</v>
       </c>
       <c r="G595" s="10" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H595" s="10"/>
     </row>
@@ -35313,7 +35716,7 @@
         <v>226</v>
       </c>
       <c r="C596" s="53" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D596" s="9">
         <v>5</v>
@@ -35325,7 +35728,7 @@
         <v>2</v>
       </c>
       <c r="G596" s="10" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.2">
@@ -35336,7 +35739,7 @@
         <v>227</v>
       </c>
       <c r="C597" s="53" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D597" s="9">
         <v>1</v>
@@ -35348,7 +35751,7 @@
         <v>1</v>
       </c>
       <c r="G597" s="10" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.2">
@@ -35359,7 +35762,7 @@
         <v>227</v>
       </c>
       <c r="C598" s="53" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D598" s="9">
         <v>7</v>
@@ -35371,7 +35774,7 @@
         <v>2</v>
       </c>
       <c r="G598" s="10" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.2">
@@ -35382,7 +35785,7 @@
         <v>228</v>
       </c>
       <c r="C599" s="53" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D599" s="9">
         <v>1</v>
@@ -35394,7 +35797,7 @@
         <v>1</v>
       </c>
       <c r="G599" s="10" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.2">
@@ -35405,7 +35808,7 @@
         <v>228</v>
       </c>
       <c r="C600" s="53" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D600" s="9">
         <v>9</v>
@@ -35417,7 +35820,7 @@
         <v>2</v>
       </c>
       <c r="G600" s="10" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.2">
@@ -35428,7 +35831,7 @@
         <v>229</v>
       </c>
       <c r="C601" s="53" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D601" s="9">
         <v>12</v>
@@ -35440,7 +35843,7 @@
         <v>1</v>
       </c>
       <c r="G601" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.2">
@@ -35451,7 +35854,7 @@
         <v>229</v>
       </c>
       <c r="C602" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D602" s="9">
         <v>1</v>
@@ -35463,7 +35866,7 @@
         <v>2</v>
       </c>
       <c r="G602" s="10" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.2">
@@ -35474,7 +35877,7 @@
         <v>230</v>
       </c>
       <c r="C603" s="53" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D603" s="9">
         <v>1</v>
@@ -35486,7 +35889,7 @@
         <v>1</v>
       </c>
       <c r="G603" s="10" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.2">
@@ -35497,7 +35900,7 @@
         <v>230</v>
       </c>
       <c r="C604" s="53" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D604" s="9">
         <v>11</v>
@@ -35509,7 +35912,7 @@
         <v>2</v>
       </c>
       <c r="G604" s="10" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.2">
@@ -35520,7 +35923,7 @@
         <v>231</v>
       </c>
       <c r="C605" s="53" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D605" s="9">
         <v>1</v>
@@ -35532,7 +35935,7 @@
         <v>1</v>
       </c>
       <c r="G605" s="10" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.2">
@@ -35543,7 +35946,7 @@
         <v>231</v>
       </c>
       <c r="C606" s="53" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D606" s="9">
         <v>14</v>
@@ -35555,7 +35958,7 @@
         <v>2</v>
       </c>
       <c r="G606" s="10" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.2">
@@ -35566,7 +35969,7 @@
         <v>232</v>
       </c>
       <c r="C607" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D607" s="9">
         <v>1</v>
@@ -35578,7 +35981,7 @@
         <v>1</v>
       </c>
       <c r="G607" s="53" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.2">
@@ -35589,7 +35992,7 @@
         <v>233</v>
       </c>
       <c r="C608" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D608" s="9">
         <v>2</v>
@@ -35601,7 +36004,7 @@
         <v>1</v>
       </c>
       <c r="G608" s="53" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.2">
@@ -35612,7 +36015,7 @@
         <v>234</v>
       </c>
       <c r="C609" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D609" s="9">
         <v>3</v>
@@ -35624,7 +36027,7 @@
         <v>1</v>
       </c>
       <c r="G609" s="53" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.2">
@@ -35635,7 +36038,7 @@
         <v>235</v>
       </c>
       <c r="C610" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D610" s="9">
         <v>4</v>
@@ -35647,7 +36050,7 @@
         <v>1</v>
       </c>
       <c r="G610" s="53" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.2">
@@ -35658,7 +36061,7 @@
         <v>236</v>
       </c>
       <c r="C611" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D611" s="9">
         <v>5</v>
@@ -35670,7 +36073,7 @@
         <v>1</v>
       </c>
       <c r="G611" s="53" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H611" s="3"/>
     </row>
@@ -35682,7 +36085,7 @@
         <v>237</v>
       </c>
       <c r="C612" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D612" s="9">
         <v>6</v>
@@ -35694,7 +36097,7 @@
         <v>1</v>
       </c>
       <c r="G612" s="53" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H612" s="3"/>
     </row>
@@ -35706,7 +36109,7 @@
         <v>238</v>
       </c>
       <c r="C613" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D613" s="9">
         <v>7</v>
@@ -35718,7 +36121,7 @@
         <v>1</v>
       </c>
       <c r="G613" s="53" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H613" s="3"/>
     </row>
@@ -35730,7 +36133,7 @@
         <v>239</v>
       </c>
       <c r="C614" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D614" s="9">
         <v>8</v>
@@ -35742,7 +36145,7 @@
         <v>1</v>
       </c>
       <c r="G614" s="53" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H614" s="3"/>
     </row>
@@ -35754,7 +36157,7 @@
         <v>240</v>
       </c>
       <c r="C615" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D615" s="9">
         <v>9</v>
@@ -35766,7 +36169,7 @@
         <v>1</v>
       </c>
       <c r="G615" s="53" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H615" s="3"/>
     </row>
@@ -35778,7 +36181,7 @@
         <v>241</v>
       </c>
       <c r="C616" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D616" s="9">
         <v>10</v>
@@ -35790,7 +36193,7 @@
         <v>1</v>
       </c>
       <c r="G616" s="53" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H616" s="3"/>
     </row>
@@ -35814,7 +36217,7 @@
         <v>1</v>
       </c>
       <c r="G617" s="10" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.2">
@@ -35837,7 +36240,7 @@
         <v>1</v>
       </c>
       <c r="G618" s="10" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.2">
@@ -35860,7 +36263,7 @@
         <v>1</v>
       </c>
       <c r="G619" s="10" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.2">
@@ -35894,7 +36297,7 @@
         <v>246</v>
       </c>
       <c r="C621" s="10" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D621" s="8">
         <v>1</v>
@@ -35906,7 +36309,7 @@
         <v>1</v>
       </c>
       <c r="G621" s="10" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="622" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -35917,7 +36320,7 @@
         <v>246</v>
       </c>
       <c r="C622" s="10" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D622" s="8">
         <v>3</v>
@@ -35929,7 +36332,7 @@
         <v>1</v>
       </c>
       <c r="G622" s="10" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="623" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -36009,7 +36412,7 @@
         <v>247</v>
       </c>
       <c r="C626" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D626" s="8">
         <v>4</v>
@@ -36021,7 +36424,7 @@
         <v>1</v>
       </c>
       <c r="G626" s="10" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="627" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -36032,7 +36435,7 @@
         <v>247</v>
       </c>
       <c r="C627" s="10" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D627" s="8">
         <v>10</v>
@@ -36044,7 +36447,7 @@
         <v>1</v>
       </c>
       <c r="G627" s="10" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="628" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -36078,19 +36481,19 @@
         <v>248</v>
       </c>
       <c r="C629" s="9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D629" s="9" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E629" s="9">
+        <v>2</v>
+      </c>
+      <c r="F629" s="9">
+        <v>1</v>
+      </c>
+      <c r="G629" s="9" t="s">
         <v>1535</v>
-      </c>
-      <c r="D629" s="9" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E629" s="9">
-        <v>2</v>
-      </c>
-      <c r="F629" s="9">
-        <v>1</v>
-      </c>
-      <c r="G629" s="9" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.2">
@@ -36101,7 +36504,7 @@
         <v>249</v>
       </c>
       <c r="C630" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D630" s="8">
         <v>20</v>
@@ -36113,7 +36516,7 @@
         <v>1</v>
       </c>
       <c r="G630" s="10" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.2">
@@ -36124,7 +36527,7 @@
         <v>249</v>
       </c>
       <c r="C631" s="53" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D631" s="8">
         <v>1</v>
@@ -36136,7 +36539,7 @@
         <v>2</v>
       </c>
       <c r="G631" s="10" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.2">
@@ -36216,7 +36619,7 @@
         <v>253</v>
       </c>
       <c r="C635" s="10" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D635" s="8">
         <v>1</v>
@@ -36228,7 +36631,7 @@
         <v>1</v>
       </c>
       <c r="G635" s="10" t="s">
-        <v>1527</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.2">
@@ -36239,7 +36642,7 @@
         <v>253</v>
       </c>
       <c r="C636" s="10" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D636" s="8">
         <v>3</v>
@@ -36251,7 +36654,7 @@
         <v>1</v>
       </c>
       <c r="G636" s="10" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.2">
@@ -36331,7 +36734,7 @@
         <v>254</v>
       </c>
       <c r="C640" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D640" s="8">
         <v>4</v>
@@ -36343,7 +36746,7 @@
         <v>1</v>
       </c>
       <c r="G640" s="10" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.2">
@@ -36354,7 +36757,7 @@
         <v>254</v>
       </c>
       <c r="C641" s="10" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D641" s="8">
         <v>7</v>
@@ -36366,7 +36769,7 @@
         <v>1</v>
       </c>
       <c r="G641" s="10" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.2">
@@ -36400,7 +36803,7 @@
         <v>255</v>
       </c>
       <c r="C643" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D643" s="8">
         <v>8</v>
@@ -36412,7 +36815,7 @@
         <v>1</v>
       </c>
       <c r="G643" s="10" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.2">
@@ -36423,7 +36826,7 @@
         <v>255</v>
       </c>
       <c r="C644" s="10" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D644" s="8">
         <v>10</v>
@@ -36435,7 +36838,7 @@
         <v>1</v>
       </c>
       <c r="G644" s="10" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.2">
@@ -36504,7 +36907,7 @@
         <v>1</v>
       </c>
       <c r="G647" s="9" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.2">
@@ -36515,7 +36918,7 @@
         <v>258</v>
       </c>
       <c r="C648" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D648" s="19" t="s">
         <v>883</v>
@@ -36527,7 +36930,7 @@
         <v>1</v>
       </c>
       <c r="G648" s="19" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.2">
@@ -36538,19 +36941,19 @@
         <v>258</v>
       </c>
       <c r="C649" s="19" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D649" s="19" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E649" s="77">
+        <v>2</v>
+      </c>
+      <c r="F649" s="77">
+        <v>1</v>
+      </c>
+      <c r="G649" s="19" t="s">
         <v>1567</v>
-      </c>
-      <c r="E649" s="77">
-        <v>2</v>
-      </c>
-      <c r="F649" s="77">
-        <v>1</v>
-      </c>
-      <c r="G649" s="19" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.2">
@@ -36561,7 +36964,7 @@
         <v>258</v>
       </c>
       <c r="C650" s="19" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D650" s="19">
         <v>1598317200</v>
@@ -36573,7 +36976,7 @@
         <v>1</v>
       </c>
       <c r="G650" s="19" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.2">
@@ -36642,7 +37045,7 @@
         <v>1</v>
       </c>
       <c r="G653" s="19" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.2">
@@ -36676,7 +37079,7 @@
         <v>263</v>
       </c>
       <c r="C655" s="19" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D655" s="19" t="s">
         <v>937</v>
@@ -36688,7 +37091,7 @@
         <v>1</v>
       </c>
       <c r="G655" s="19" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.2">
@@ -36699,7 +37102,7 @@
         <v>264</v>
       </c>
       <c r="C656" s="19" t="s">
-        <v>882</v>
+        <v>1082</v>
       </c>
       <c r="D656" s="19" t="s">
         <v>937</v>
@@ -36711,7 +37114,7 @@
         <v>1</v>
       </c>
       <c r="G656" s="19" t="s">
-        <v>1628</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.2">
@@ -36780,7 +37183,7 @@
         <v>2</v>
       </c>
       <c r="G659" s="19" t="s">
-        <v>1629</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="660" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -36837,7 +37240,7 @@
         <v>267</v>
       </c>
       <c r="C662" s="15" t="s">
-        <v>1608</v>
+        <v>1639</v>
       </c>
       <c r="D662" s="14">
         <v>0</v>
@@ -36849,7 +37252,7 @@
         <v>1</v>
       </c>
       <c r="G662" s="15" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.2">
@@ -36860,7 +37263,7 @@
         <v>268</v>
       </c>
       <c r="C663" s="15" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D663" s="14">
         <v>1</v>
@@ -36872,7 +37275,7 @@
         <v>1</v>
       </c>
       <c r="G663" s="15" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.2">
@@ -36883,7 +37286,7 @@
         <v>269</v>
       </c>
       <c r="C664" s="15" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D664" s="14">
         <v>2</v>
@@ -36895,7 +37298,7 @@
         <v>1</v>
       </c>
       <c r="G664" s="15" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.2">
@@ -36906,7 +37309,7 @@
         <v>270</v>
       </c>
       <c r="C665" s="15" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D665" s="14">
         <v>3</v>
@@ -36918,7 +37321,7 @@
         <v>1</v>
       </c>
       <c r="G665" s="15" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.2">
@@ -36929,7 +37332,7 @@
         <v>271</v>
       </c>
       <c r="C666" s="15" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D666" s="14">
         <v>4</v>
@@ -36941,7 +37344,7 @@
         <v>1</v>
       </c>
       <c r="G666" s="15" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.2">
@@ -36952,7 +37355,7 @@
         <v>272</v>
       </c>
       <c r="C667" s="15" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D667" s="14">
         <v>5</v>
@@ -36964,7 +37367,7 @@
         <v>1</v>
       </c>
       <c r="G667" s="15" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.2">
@@ -36975,7 +37378,7 @@
         <v>273</v>
       </c>
       <c r="C668" s="15" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D668" s="14">
         <v>6</v>
@@ -36987,7 +37390,7 @@
         <v>1</v>
       </c>
       <c r="G668" s="15" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.2">
@@ -36998,7 +37401,7 @@
         <v>274</v>
       </c>
       <c r="C669" s="15" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D669" s="14">
         <v>7</v>
@@ -37010,7 +37413,7 @@
         <v>1</v>
       </c>
       <c r="G669" s="15" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.2">
@@ -37021,7 +37424,7 @@
         <v>275</v>
       </c>
       <c r="C670" s="15" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D670" s="14">
         <v>8</v>
@@ -37033,7 +37436,7 @@
         <v>1</v>
       </c>
       <c r="G670" s="15" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.2">
@@ -37044,7 +37447,7 @@
         <v>276</v>
       </c>
       <c r="C671" s="15" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D671" s="14">
         <v>9</v>
@@ -37056,7 +37459,7 @@
         <v>1</v>
       </c>
       <c r="G671" s="15" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.2">
@@ -37067,7 +37470,7 @@
         <v>277</v>
       </c>
       <c r="C672" s="15" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D672" s="14">
         <v>10</v>
@@ -37079,7 +37482,7 @@
         <v>1</v>
       </c>
       <c r="G672" s="15" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.2">
@@ -37090,7 +37493,7 @@
         <v>278</v>
       </c>
       <c r="C673" s="15" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D673" s="14">
         <v>11</v>
@@ -37102,7 +37505,7 @@
         <v>1</v>
       </c>
       <c r="G673" s="15" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.2">
@@ -37113,7 +37516,7 @@
         <v>279</v>
       </c>
       <c r="C674" s="15" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D674" s="14">
         <v>12</v>
@@ -37125,14 +37528,330 @@
         <v>1</v>
       </c>
       <c r="G674" s="15" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B675" s="8"/>
+      <c r="A675" s="8">
+        <v>674</v>
+      </c>
+      <c r="B675" s="77">
+        <v>280</v>
+      </c>
+      <c r="C675" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="D675" s="19" t="s">
+        <v>887</v>
+      </c>
+      <c r="E675" s="77">
+        <v>2</v>
+      </c>
+      <c r="F675" s="77">
+        <v>2</v>
+      </c>
+      <c r="G675" s="19" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A676" s="8">
+        <v>675</v>
+      </c>
+      <c r="B676" s="77">
+        <v>280</v>
+      </c>
+      <c r="C676" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="D676" s="19" t="s">
+        <v>891</v>
+      </c>
+      <c r="E676" s="77">
+        <v>2</v>
+      </c>
+      <c r="F676" s="77">
+        <v>3</v>
+      </c>
+      <c r="G676" s="19" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B677" s="8"/>
+      <c r="A677" s="8">
+        <v>676</v>
+      </c>
+      <c r="B677" s="77">
+        <v>281</v>
+      </c>
+      <c r="C677" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="D677" s="19" t="s">
+        <v>937</v>
+      </c>
+      <c r="E677" s="77">
+        <v>5</v>
+      </c>
+      <c r="F677" s="77">
+        <v>1</v>
+      </c>
+      <c r="G677" s="19" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A678" s="8">
+        <v>677</v>
+      </c>
+      <c r="B678" s="77">
+        <v>282</v>
+      </c>
+      <c r="C678" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="D678" s="53" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E678" s="9">
+        <v>2</v>
+      </c>
+      <c r="F678" s="9">
+        <v>1</v>
+      </c>
+      <c r="G678" s="53" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A679" s="8">
+        <v>678</v>
+      </c>
+      <c r="B679" s="77">
+        <v>283</v>
+      </c>
+      <c r="C679" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="D679" s="19" t="s">
+        <v>887</v>
+      </c>
+      <c r="E679" s="77">
+        <v>2</v>
+      </c>
+      <c r="F679" s="77">
+        <v>1</v>
+      </c>
+      <c r="G679" s="19" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A680" s="8">
+        <v>679</v>
+      </c>
+      <c r="B680" s="77">
+        <v>283</v>
+      </c>
+      <c r="C680" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="D680" s="19" t="s">
+        <v>891</v>
+      </c>
+      <c r="E680" s="77">
+        <v>2</v>
+      </c>
+      <c r="F680" s="77">
+        <v>2</v>
+      </c>
+      <c r="G680" s="19" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A681" s="8">
+        <v>680</v>
+      </c>
+      <c r="B681" s="77">
+        <v>284</v>
+      </c>
+      <c r="C681" s="19" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D681" s="9">
+        <v>1</v>
+      </c>
+      <c r="E681" s="9">
+        <v>3</v>
+      </c>
+      <c r="F681" s="9">
+        <v>1</v>
+      </c>
+      <c r="G681" s="10" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A682" s="8">
+        <v>681</v>
+      </c>
+      <c r="B682" s="77">
+        <v>284</v>
+      </c>
+      <c r="C682" s="19" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D682" s="9">
+        <v>3</v>
+      </c>
+      <c r="E682" s="9">
+        <v>4</v>
+      </c>
+      <c r="F682" s="9">
+        <v>1</v>
+      </c>
+      <c r="G682" s="10" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A683" s="8">
+        <v>682</v>
+      </c>
+      <c r="B683" s="9">
+        <v>285</v>
+      </c>
+      <c r="C683" s="19" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D683" s="9">
+        <v>4</v>
+      </c>
+      <c r="E683" s="9">
+        <v>3</v>
+      </c>
+      <c r="F683" s="9">
+        <v>1</v>
+      </c>
+      <c r="G683" s="10" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A684" s="8">
+        <v>683</v>
+      </c>
+      <c r="B684" s="9">
+        <v>285</v>
+      </c>
+      <c r="C684" s="19" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D684" s="9">
+        <v>6</v>
+      </c>
+      <c r="E684" s="9">
+        <v>4</v>
+      </c>
+      <c r="F684" s="9">
+        <v>1</v>
+      </c>
+      <c r="G684" s="10" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A685" s="8">
+        <v>684</v>
+      </c>
+      <c r="B685" s="9">
+        <v>286</v>
+      </c>
+      <c r="C685" s="19" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D685" s="9">
+        <v>7</v>
+      </c>
+      <c r="E685" s="9">
+        <v>3</v>
+      </c>
+      <c r="F685" s="9">
+        <v>1</v>
+      </c>
+      <c r="G685" s="10" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A686" s="8">
+        <v>685</v>
+      </c>
+      <c r="B686" s="9">
+        <v>286</v>
+      </c>
+      <c r="C686" s="53" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D686" s="9">
+        <v>10</v>
+      </c>
+      <c r="E686" s="9">
+        <v>4</v>
+      </c>
+      <c r="F686" s="9">
+        <v>1</v>
+      </c>
+      <c r="G686" s="10" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A687" s="8">
+        <v>686</v>
+      </c>
+      <c r="B687" s="8">
+        <v>287</v>
+      </c>
+      <c r="C687" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D687" s="10" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E687" s="8">
+        <v>2</v>
+      </c>
+      <c r="F687" s="8">
+        <v>1</v>
+      </c>
+      <c r="G687" s="10" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A688" s="8">
+        <v>687</v>
+      </c>
+      <c r="B688" s="8">
+        <v>287</v>
+      </c>
+      <c r="C688" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="D688" s="10" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E688" s="8">
+        <v>2</v>
+      </c>
+      <c r="F688" s="8">
+        <v>1</v>
+      </c>
+      <c r="G688" s="10" t="s">
+        <v>948</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -37143,10 +37862,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37187,13 +37906,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1079</v>
+        <v>1658</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>914</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -37210,13 +37929,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>914</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -37233,13 +37952,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>914</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -37256,13 +37975,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>914</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -37279,13 +37998,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>914</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -37294,7 +38013,30 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1566</v>
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="93">
+        <v>6</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>1657</v>
       </c>
     </row>
   </sheetData>
@@ -37385,12 +38127,12 @@
         <v>882</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B8" t="s">
         <v>1052</v>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3691" uniqueCount="1664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="1696">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -7450,6 +7450,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>3dby_official</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7463,6 +7467,166 @@
   </si>
   <si>
     <t>是官方渠道</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10291</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费（免费、小额玩家）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年9月14日23:59:59结束</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是新用户</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是新用户</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_xycd_028_xycd_v1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋（V1-V3，非新玩家）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋（V4-V10，非新玩家）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_xycd_028_xycd_v4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1及以上的用户可进行游戏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3及以下的用户可进行游戏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cps</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vivo",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼特殊CPS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是CPS渠道</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告系统（CPS渠道不显示）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cps_ggxt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_028_xycd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_028_xycd_ljyj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋首次商城充值获得阳光（V1-V10，非新玩家）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>幸运彩蛋累计赢金获得阳光（V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-V10，非新玩家）</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及以下的用户可进行游戏</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1及以上的用户可进行游戏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cps</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cps</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是CPS渠道</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是CPS渠道</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8193,7 +8357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q376"/>
+  <dimension ref="A1:Q378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
@@ -12283,10 +12447,21 @@
         <v>1653</v>
       </c>
       <c r="B376" s="27" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C376" s="3">
         <v>287</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" s="27" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B378" s="27" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C378" s="3">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -12298,13 +12473,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O283"/>
+  <dimension ref="A1:O288"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E257" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E278" sqref="E278"/>
+      <selection pane="bottomRight" activeCell="I294" sqref="I294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21714,234 +21889,412 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="17">
         <v>276</v>
       </c>
-      <c r="B277" s="78">
-        <v>1</v>
-      </c>
-      <c r="C277" s="79" t="s">
+      <c r="B277" s="17">
+        <v>1</v>
+      </c>
+      <c r="C277" s="16" t="s">
         <v>1625</v>
       </c>
-      <c r="D277" s="79" t="s">
+      <c r="D277" s="16" t="s">
         <v>1626</v>
       </c>
-      <c r="E277" s="78"/>
-      <c r="F277" s="78"/>
-      <c r="G277" s="78">
+      <c r="E277" s="17"/>
+      <c r="F277" s="17"/>
+      <c r="G277" s="17">
         <v>280</v>
       </c>
-      <c r="H277" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I277" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J277" s="79" t="s">
+      <c r="H277" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I277" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J277" s="16" t="s">
         <v>1627</v>
       </c>
-      <c r="K277" s="78">
+      <c r="K277" s="17">
         <v>1598916600</v>
       </c>
-      <c r="L277" s="79" t="s">
+      <c r="L277" s="16" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="17">
         <v>277</v>
       </c>
-      <c r="B278" s="78">
-        <v>1</v>
-      </c>
-      <c r="C278" s="79" t="s">
+      <c r="B278" s="17">
+        <v>1</v>
+      </c>
+      <c r="C278" s="16" t="s">
         <v>1646</v>
       </c>
-      <c r="D278" s="79" t="s">
+      <c r="D278" s="16" t="s">
         <v>1630</v>
       </c>
-      <c r="E278" s="78"/>
-      <c r="F278" s="78"/>
-      <c r="G278" s="78">
+      <c r="E278" s="17"/>
+      <c r="F278" s="17"/>
+      <c r="G278" s="17">
         <v>281</v>
       </c>
-      <c r="H278" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I278" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J278" s="79" t="s">
+      <c r="H278" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I278" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J278" s="16" t="s">
         <v>1282</v>
       </c>
-      <c r="K278" s="78">
+      <c r="K278" s="17">
         <v>1598889600</v>
       </c>
-      <c r="L278" s="79" t="s">
+      <c r="L278" s="16" t="s">
         <v>1631</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="17">
         <v>278</v>
       </c>
-      <c r="B279" s="78">
-        <v>1</v>
-      </c>
-      <c r="C279" s="79" t="s">
+      <c r="B279" s="17">
+        <v>1</v>
+      </c>
+      <c r="C279" s="16" t="s">
         <v>1647</v>
       </c>
-      <c r="D279" s="79" t="s">
+      <c r="D279" s="16" t="s">
         <v>1632</v>
       </c>
-      <c r="E279" s="78"/>
-      <c r="F279" s="78"/>
-      <c r="G279" s="78">
+      <c r="E279" s="17"/>
+      <c r="F279" s="17"/>
+      <c r="G279" s="17">
         <v>282</v>
       </c>
-      <c r="H279" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I279" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J279" s="79" t="s">
+      <c r="H279" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I279" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J279" s="16" t="s">
         <v>1159</v>
       </c>
-      <c r="K279" s="78">
+      <c r="K279" s="17">
         <v>1598916600</v>
       </c>
-      <c r="L279" s="30" t="s">
+      <c r="L279" s="16" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="17">
         <v>279</v>
       </c>
-      <c r="B280" s="78">
-        <v>1</v>
-      </c>
-      <c r="C280" s="79" t="s">
+      <c r="B280" s="17">
+        <v>1</v>
+      </c>
+      <c r="C280" s="16" t="s">
         <v>1648</v>
       </c>
-      <c r="D280" s="79" t="s">
+      <c r="D280" s="16" t="s">
         <v>1633</v>
       </c>
-      <c r="G280" s="78">
+      <c r="E280" s="17"/>
+      <c r="F280" s="17"/>
+      <c r="G280" s="17">
         <v>283</v>
       </c>
-      <c r="H280" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I280" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J280" s="79" t="s">
+      <c r="H280" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I280" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J280" s="16" t="s">
         <v>1159</v>
       </c>
-      <c r="K280" s="78">
+      <c r="K280" s="17">
         <v>1598916600</v>
       </c>
-      <c r="L280" s="30" t="s">
+      <c r="L280" s="16" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="17">
         <v>280</v>
       </c>
-      <c r="B281" s="78">
-        <v>1</v>
-      </c>
-      <c r="C281" s="79" t="s">
+      <c r="B281" s="17">
+        <v>1</v>
+      </c>
+      <c r="C281" s="16" t="s">
         <v>1649</v>
       </c>
-      <c r="D281" s="79" t="s">
+      <c r="D281" s="16" t="s">
         <v>1634</v>
       </c>
-      <c r="G281" s="78">
+      <c r="E281" s="17"/>
+      <c r="F281" s="17"/>
+      <c r="G281" s="17">
         <v>284</v>
       </c>
-      <c r="H281" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I281" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J281" s="79" t="s">
+      <c r="H281" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I281" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J281" s="16" t="s">
         <v>1159</v>
       </c>
-      <c r="K281" s="78">
+      <c r="K281" s="17">
         <v>1598916600</v>
       </c>
-      <c r="L281" s="30" t="s">
+      <c r="L281" s="16" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="17">
         <v>281</v>
       </c>
-      <c r="B282" s="78">
-        <v>1</v>
-      </c>
-      <c r="C282" s="79" t="s">
+      <c r="B282" s="17">
+        <v>1</v>
+      </c>
+      <c r="C282" s="16" t="s">
         <v>1650</v>
       </c>
-      <c r="D282" s="79" t="s">
+      <c r="D282" s="16" t="s">
         <v>1635</v>
       </c>
-      <c r="G282" s="78">
+      <c r="E282" s="17"/>
+      <c r="F282" s="17"/>
+      <c r="G282" s="17">
         <v>285</v>
       </c>
-      <c r="H282" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I282" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J282" s="79" t="s">
+      <c r="H282" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I282" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J282" s="16" t="s">
         <v>1159</v>
       </c>
-      <c r="K282" s="78">
+      <c r="K282" s="17">
         <v>1598916600</v>
       </c>
-      <c r="L282" s="30" t="s">
+      <c r="L282" s="16" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="17">
         <v>282</v>
       </c>
-      <c r="B283" s="78">
-        <v>1</v>
-      </c>
-      <c r="C283" s="79" t="s">
+      <c r="B283" s="17">
+        <v>1</v>
+      </c>
+      <c r="C283" s="16" t="s">
         <v>1651</v>
       </c>
-      <c r="D283" s="79" t="s">
+      <c r="D283" s="16" t="s">
         <v>1636</v>
       </c>
-      <c r="G283" s="78">
+      <c r="E283" s="17"/>
+      <c r="F283" s="17"/>
+      <c r="G283" s="17">
         <v>286</v>
       </c>
-      <c r="H283" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I283" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J283" s="79" t="s">
+      <c r="H283" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I283" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J283" s="16" t="s">
         <v>1159</v>
       </c>
-      <c r="K283" s="78">
+      <c r="K283" s="17">
         <v>1598916600</v>
       </c>
-      <c r="L283" s="30" t="s">
+      <c r="L283" s="16" t="s">
         <v>1211</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="78">
+        <v>283</v>
+      </c>
+      <c r="B284" s="78">
+        <v>1</v>
+      </c>
+      <c r="C284" s="78" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D284" s="78" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E284" s="78"/>
+      <c r="F284" s="78"/>
+      <c r="G284" s="78">
+        <v>288</v>
+      </c>
+      <c r="H284" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I284" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J284" s="79" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K284" s="78">
+        <v>1599521400</v>
+      </c>
+      <c r="L284" s="78" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="78">
+        <v>284</v>
+      </c>
+      <c r="B285" s="78">
+        <v>1</v>
+      </c>
+      <c r="C285" s="79" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D285" s="79" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E285" s="78"/>
+      <c r="F285" s="78"/>
+      <c r="G285" s="78">
+        <v>289</v>
+      </c>
+      <c r="H285" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I285" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J285" s="79" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K285" s="78">
+        <v>1599494400</v>
+      </c>
+      <c r="L285" s="78" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="78">
+        <v>285</v>
+      </c>
+      <c r="B286" s="78">
+        <v>1</v>
+      </c>
+      <c r="C286" s="78" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D286" s="78" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E286" s="78"/>
+      <c r="F286" s="78"/>
+      <c r="G286" s="78">
+        <v>290</v>
+      </c>
+      <c r="H286" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I286" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J286" s="79" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K286" s="78">
+        <v>1599523200</v>
+      </c>
+      <c r="L286" s="78" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="78">
+        <v>286</v>
+      </c>
+      <c r="B287" s="78">
+        <v>1</v>
+      </c>
+      <c r="C287" s="78" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D287" s="78" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E287" s="78"/>
+      <c r="F287" s="78"/>
+      <c r="G287" s="78">
+        <v>291</v>
+      </c>
+      <c r="H287" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I287" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J287" s="79" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K287" s="78">
+        <v>1599523200</v>
+      </c>
+      <c r="L287" s="78" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="78">
+        <v>287</v>
+      </c>
+      <c r="B288" s="78">
+        <v>1</v>
+      </c>
+      <c r="C288" s="79" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D288" s="79" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E288" s="78"/>
+      <c r="F288" s="78"/>
+      <c r="G288" s="78">
+        <v>293</v>
+      </c>
+      <c r="H288" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I288" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J288" s="79" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K288" s="78">
+        <v>1599494400</v>
+      </c>
+      <c r="L288" s="78" t="s">
+        <v>1668</v>
       </c>
     </row>
   </sheetData>
@@ -21954,13 +22307,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I688"/>
+  <dimension ref="A1:I709"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C665" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C677" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G688" sqref="G688"/>
+      <selection pane="bottomRight" activeCell="G709" sqref="G709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36914,22 +37267,22 @@
       <c r="A648" s="8">
         <v>647</v>
       </c>
-      <c r="B648" s="77">
+      <c r="B648" s="8">
         <v>258</v>
       </c>
-      <c r="C648" s="19" t="s">
+      <c r="C648" s="10" t="s">
         <v>1082</v>
       </c>
-      <c r="D648" s="19" t="s">
+      <c r="D648" s="10" t="s">
         <v>883</v>
       </c>
-      <c r="E648" s="77">
-        <v>2</v>
-      </c>
-      <c r="F648" s="77">
-        <v>1</v>
-      </c>
-      <c r="G648" s="19" t="s">
+      <c r="E648" s="8">
+        <v>2</v>
+      </c>
+      <c r="F648" s="8">
+        <v>1</v>
+      </c>
+      <c r="G648" s="10" t="s">
         <v>1564</v>
       </c>
     </row>
@@ -36937,22 +37290,22 @@
       <c r="A649" s="8">
         <v>648</v>
       </c>
-      <c r="B649" s="77">
+      <c r="B649" s="8">
         <v>258</v>
       </c>
-      <c r="C649" s="19" t="s">
+      <c r="C649" s="10" t="s">
         <v>1185</v>
       </c>
-      <c r="D649" s="19" t="s">
+      <c r="D649" s="10" t="s">
         <v>1566</v>
       </c>
-      <c r="E649" s="77">
-        <v>2</v>
-      </c>
-      <c r="F649" s="77">
-        <v>1</v>
-      </c>
-      <c r="G649" s="19" t="s">
+      <c r="E649" s="8">
+        <v>2</v>
+      </c>
+      <c r="F649" s="8">
+        <v>1</v>
+      </c>
+      <c r="G649" s="10" t="s">
         <v>1567</v>
       </c>
     </row>
@@ -36960,22 +37313,22 @@
       <c r="A650" s="8">
         <v>649</v>
       </c>
-      <c r="B650" s="77">
+      <c r="B650" s="8">
         <v>258</v>
       </c>
-      <c r="C650" s="19" t="s">
+      <c r="C650" s="10" t="s">
         <v>1591</v>
       </c>
-      <c r="D650" s="19">
+      <c r="D650" s="10">
         <v>1598317200</v>
       </c>
-      <c r="E650" s="77">
+      <c r="E650" s="8">
         <v>3</v>
       </c>
-      <c r="F650" s="77">
-        <v>1</v>
-      </c>
-      <c r="G650" s="19" t="s">
+      <c r="F650" s="8">
+        <v>1</v>
+      </c>
+      <c r="G650" s="10" t="s">
         <v>1592</v>
       </c>
     </row>
@@ -36983,22 +37336,22 @@
       <c r="A651" s="8">
         <v>650</v>
       </c>
-      <c r="B651" s="77">
+      <c r="B651" s="8">
         <v>259</v>
       </c>
-      <c r="C651" s="19" t="s">
+      <c r="C651" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="D651" s="19" t="s">
+      <c r="D651" s="10" t="s">
         <v>937</v>
       </c>
-      <c r="E651" s="77">
+      <c r="E651" s="8">
         <v>5</v>
       </c>
-      <c r="F651" s="77">
-        <v>1</v>
-      </c>
-      <c r="G651" s="19" t="s">
+      <c r="F651" s="8">
+        <v>1</v>
+      </c>
+      <c r="G651" s="10" t="s">
         <v>941</v>
       </c>
     </row>
@@ -37006,22 +37359,22 @@
       <c r="A652" s="8">
         <v>651</v>
       </c>
-      <c r="B652" s="77">
+      <c r="B652" s="8">
         <v>260</v>
       </c>
-      <c r="C652" s="19" t="s">
+      <c r="C652" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="D652" s="19" t="s">
+      <c r="D652" s="10" t="s">
         <v>937</v>
       </c>
-      <c r="E652" s="77">
+      <c r="E652" s="8">
         <v>5</v>
       </c>
-      <c r="F652" s="77">
-        <v>1</v>
-      </c>
-      <c r="G652" s="19" t="s">
+      <c r="F652" s="8">
+        <v>1</v>
+      </c>
+      <c r="G652" s="10" t="s">
         <v>941</v>
       </c>
     </row>
@@ -37029,22 +37382,22 @@
       <c r="A653" s="8">
         <v>652</v>
       </c>
-      <c r="B653" s="77">
+      <c r="B653" s="8">
         <v>261</v>
       </c>
-      <c r="C653" s="19" t="s">
+      <c r="C653" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="D653" s="19" t="s">
+      <c r="D653" s="10" t="s">
         <v>937</v>
       </c>
-      <c r="E653" s="77">
-        <v>2</v>
-      </c>
-      <c r="F653" s="77">
-        <v>1</v>
-      </c>
-      <c r="G653" s="19" t="s">
+      <c r="E653" s="8">
+        <v>2</v>
+      </c>
+      <c r="F653" s="8">
+        <v>1</v>
+      </c>
+      <c r="G653" s="10" t="s">
         <v>1577</v>
       </c>
     </row>
@@ -37052,22 +37405,22 @@
       <c r="A654" s="8">
         <v>653</v>
       </c>
-      <c r="B654" s="77">
+      <c r="B654" s="8">
         <v>262</v>
       </c>
-      <c r="C654" s="19" t="s">
+      <c r="C654" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="D654" s="19" t="s">
+      <c r="D654" s="10" t="s">
         <v>937</v>
       </c>
-      <c r="E654" s="77">
+      <c r="E654" s="8">
         <v>5</v>
       </c>
-      <c r="F654" s="77">
-        <v>1</v>
-      </c>
-      <c r="G654" s="19" t="s">
+      <c r="F654" s="8">
+        <v>1</v>
+      </c>
+      <c r="G654" s="10" t="s">
         <v>941</v>
       </c>
     </row>
@@ -37075,22 +37428,22 @@
       <c r="A655" s="8">
         <v>654</v>
       </c>
-      <c r="B655" s="77">
+      <c r="B655" s="8">
         <v>263</v>
       </c>
-      <c r="C655" s="19" t="s">
+      <c r="C655" s="10" t="s">
         <v>1588</v>
       </c>
-      <c r="D655" s="19" t="s">
+      <c r="D655" s="10" t="s">
         <v>937</v>
       </c>
-      <c r="E655" s="77">
-        <v>2</v>
-      </c>
-      <c r="F655" s="77">
-        <v>1</v>
-      </c>
-      <c r="G655" s="19" t="s">
+      <c r="E655" s="8">
+        <v>2</v>
+      </c>
+      <c r="F655" s="8">
+        <v>1</v>
+      </c>
+      <c r="G655" s="10" t="s">
         <v>1589</v>
       </c>
     </row>
@@ -37098,22 +37451,22 @@
       <c r="A656" s="8">
         <v>655</v>
       </c>
-      <c r="B656" s="77">
+      <c r="B656" s="8">
         <v>264</v>
       </c>
-      <c r="C656" s="19" t="s">
+      <c r="C656" s="10" t="s">
         <v>1082</v>
       </c>
-      <c r="D656" s="19" t="s">
+      <c r="D656" s="10" t="s">
         <v>937</v>
       </c>
-      <c r="E656" s="77">
-        <v>2</v>
-      </c>
-      <c r="F656" s="77">
-        <v>1</v>
-      </c>
-      <c r="G656" s="19" t="s">
+      <c r="E656" s="8">
+        <v>2</v>
+      </c>
+      <c r="F656" s="8">
+        <v>1</v>
+      </c>
+      <c r="G656" s="10" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -37121,22 +37474,22 @@
       <c r="A657" s="8">
         <v>656</v>
       </c>
-      <c r="B657" s="77">
+      <c r="B657" s="8">
         <v>264</v>
       </c>
-      <c r="C657" s="19" t="s">
+      <c r="C657" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="D657" s="19" t="s">
+      <c r="D657" s="10" t="s">
         <v>937</v>
       </c>
-      <c r="E657" s="77">
+      <c r="E657" s="8">
         <v>5</v>
       </c>
-      <c r="F657" s="77">
-        <v>2</v>
-      </c>
-      <c r="G657" s="19" t="s">
+      <c r="F657" s="8">
+        <v>2</v>
+      </c>
+      <c r="G657" s="10" t="s">
         <v>941</v>
       </c>
     </row>
@@ -37144,22 +37497,22 @@
       <c r="A658" s="8">
         <v>657</v>
       </c>
-      <c r="B658" s="77">
+      <c r="B658" s="8">
         <v>265</v>
       </c>
-      <c r="C658" s="19" t="s">
+      <c r="C658" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="D658" s="19" t="s">
+      <c r="D658" s="10" t="s">
         <v>937</v>
       </c>
-      <c r="E658" s="77">
+      <c r="E658" s="8">
         <v>5</v>
       </c>
-      <c r="F658" s="77">
-        <v>1</v>
-      </c>
-      <c r="G658" s="19" t="s">
+      <c r="F658" s="8">
+        <v>1</v>
+      </c>
+      <c r="G658" s="10" t="s">
         <v>941</v>
       </c>
     </row>
@@ -37167,22 +37520,22 @@
       <c r="A659" s="8">
         <v>658</v>
       </c>
-      <c r="B659" s="77">
+      <c r="B659" s="8">
         <v>265</v>
       </c>
-      <c r="C659" s="19" t="s">
+      <c r="C659" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="D659" s="19" t="s">
+      <c r="D659" s="10" t="s">
         <v>937</v>
       </c>
-      <c r="E659" s="77">
-        <v>2</v>
-      </c>
-      <c r="F659" s="77">
-        <v>2</v>
-      </c>
-      <c r="G659" s="19" t="s">
+      <c r="E659" s="8">
+        <v>2</v>
+      </c>
+      <c r="F659" s="8">
+        <v>2</v>
+      </c>
+      <c r="G659" s="10" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -37236,22 +37589,22 @@
       <c r="A662" s="8">
         <v>661</v>
       </c>
-      <c r="B662" s="14">
+      <c r="B662" s="8">
         <v>267</v>
       </c>
-      <c r="C662" s="15" t="s">
+      <c r="C662" s="10" t="s">
         <v>1639</v>
       </c>
-      <c r="D662" s="14">
+      <c r="D662" s="8">
         <v>0</v>
       </c>
-      <c r="E662" s="14">
-        <v>2</v>
-      </c>
-      <c r="F662" s="14">
-        <v>1</v>
-      </c>
-      <c r="G662" s="15" t="s">
+      <c r="E662" s="8">
+        <v>2</v>
+      </c>
+      <c r="F662" s="8">
+        <v>1</v>
+      </c>
+      <c r="G662" s="10" t="s">
         <v>1594</v>
       </c>
     </row>
@@ -37259,22 +37612,22 @@
       <c r="A663" s="8">
         <v>662</v>
       </c>
-      <c r="B663" s="14">
+      <c r="B663" s="8">
         <v>268</v>
       </c>
-      <c r="C663" s="15" t="s">
+      <c r="C663" s="10" t="s">
         <v>1607</v>
       </c>
-      <c r="D663" s="14">
-        <v>1</v>
-      </c>
-      <c r="E663" s="14">
-        <v>2</v>
-      </c>
-      <c r="F663" s="14">
-        <v>1</v>
-      </c>
-      <c r="G663" s="15" t="s">
+      <c r="D663" s="8">
+        <v>1</v>
+      </c>
+      <c r="E663" s="8">
+        <v>2</v>
+      </c>
+      <c r="F663" s="8">
+        <v>1</v>
+      </c>
+      <c r="G663" s="10" t="s">
         <v>1595</v>
       </c>
     </row>
@@ -37282,22 +37635,22 @@
       <c r="A664" s="8">
         <v>663</v>
       </c>
-      <c r="B664" s="14">
+      <c r="B664" s="8">
         <v>269</v>
       </c>
-      <c r="C664" s="15" t="s">
+      <c r="C664" s="10" t="s">
         <v>1607</v>
       </c>
-      <c r="D664" s="14">
-        <v>2</v>
-      </c>
-      <c r="E664" s="14">
-        <v>2</v>
-      </c>
-      <c r="F664" s="14">
-        <v>1</v>
-      </c>
-      <c r="G664" s="15" t="s">
+      <c r="D664" s="8">
+        <v>2</v>
+      </c>
+      <c r="E664" s="8">
+        <v>2</v>
+      </c>
+      <c r="F664" s="8">
+        <v>1</v>
+      </c>
+      <c r="G664" s="10" t="s">
         <v>1596</v>
       </c>
     </row>
@@ -37305,22 +37658,22 @@
       <c r="A665" s="8">
         <v>664</v>
       </c>
-      <c r="B665" s="14">
+      <c r="B665" s="8">
         <v>270</v>
       </c>
-      <c r="C665" s="15" t="s">
+      <c r="C665" s="10" t="s">
         <v>1607</v>
       </c>
-      <c r="D665" s="14">
+      <c r="D665" s="8">
         <v>3</v>
       </c>
-      <c r="E665" s="14">
-        <v>2</v>
-      </c>
-      <c r="F665" s="14">
-        <v>1</v>
-      </c>
-      <c r="G665" s="15" t="s">
+      <c r="E665" s="8">
+        <v>2</v>
+      </c>
+      <c r="F665" s="8">
+        <v>1</v>
+      </c>
+      <c r="G665" s="10" t="s">
         <v>1597</v>
       </c>
     </row>
@@ -37328,22 +37681,22 @@
       <c r="A666" s="8">
         <v>665</v>
       </c>
-      <c r="B666" s="14">
+      <c r="B666" s="8">
         <v>271</v>
       </c>
-      <c r="C666" s="15" t="s">
+      <c r="C666" s="10" t="s">
         <v>1607</v>
       </c>
-      <c r="D666" s="14">
+      <c r="D666" s="8">
         <v>4</v>
       </c>
-      <c r="E666" s="14">
-        <v>2</v>
-      </c>
-      <c r="F666" s="14">
-        <v>1</v>
-      </c>
-      <c r="G666" s="15" t="s">
+      <c r="E666" s="8">
+        <v>2</v>
+      </c>
+      <c r="F666" s="8">
+        <v>1</v>
+      </c>
+      <c r="G666" s="10" t="s">
         <v>1598</v>
       </c>
     </row>
@@ -37351,22 +37704,22 @@
       <c r="A667" s="8">
         <v>666</v>
       </c>
-      <c r="B667" s="14">
+      <c r="B667" s="8">
         <v>272</v>
       </c>
-      <c r="C667" s="15" t="s">
+      <c r="C667" s="10" t="s">
         <v>1607</v>
       </c>
-      <c r="D667" s="14">
+      <c r="D667" s="8">
         <v>5</v>
       </c>
-      <c r="E667" s="14">
-        <v>2</v>
-      </c>
-      <c r="F667" s="14">
-        <v>1</v>
-      </c>
-      <c r="G667" s="15" t="s">
+      <c r="E667" s="8">
+        <v>2</v>
+      </c>
+      <c r="F667" s="8">
+        <v>1</v>
+      </c>
+      <c r="G667" s="10" t="s">
         <v>1599</v>
       </c>
     </row>
@@ -37374,22 +37727,22 @@
       <c r="A668" s="8">
         <v>667</v>
       </c>
-      <c r="B668" s="14">
+      <c r="B668" s="8">
         <v>273</v>
       </c>
-      <c r="C668" s="15" t="s">
+      <c r="C668" s="10" t="s">
         <v>1607</v>
       </c>
-      <c r="D668" s="14">
+      <c r="D668" s="8">
         <v>6</v>
       </c>
-      <c r="E668" s="14">
-        <v>2</v>
-      </c>
-      <c r="F668" s="14">
-        <v>1</v>
-      </c>
-      <c r="G668" s="15" t="s">
+      <c r="E668" s="8">
+        <v>2</v>
+      </c>
+      <c r="F668" s="8">
+        <v>1</v>
+      </c>
+      <c r="G668" s="10" t="s">
         <v>1600</v>
       </c>
     </row>
@@ -37397,22 +37750,22 @@
       <c r="A669" s="8">
         <v>668</v>
       </c>
-      <c r="B669" s="14">
+      <c r="B669" s="8">
         <v>274</v>
       </c>
-      <c r="C669" s="15" t="s">
+      <c r="C669" s="10" t="s">
         <v>1607</v>
       </c>
-      <c r="D669" s="14">
+      <c r="D669" s="8">
         <v>7</v>
       </c>
-      <c r="E669" s="14">
-        <v>2</v>
-      </c>
-      <c r="F669" s="14">
-        <v>1</v>
-      </c>
-      <c r="G669" s="15" t="s">
+      <c r="E669" s="8">
+        <v>2</v>
+      </c>
+      <c r="F669" s="8">
+        <v>1</v>
+      </c>
+      <c r="G669" s="10" t="s">
         <v>1601</v>
       </c>
     </row>
@@ -37420,22 +37773,22 @@
       <c r="A670" s="8">
         <v>669</v>
       </c>
-      <c r="B670" s="14">
+      <c r="B670" s="8">
         <v>275</v>
       </c>
-      <c r="C670" s="15" t="s">
+      <c r="C670" s="10" t="s">
         <v>1607</v>
       </c>
-      <c r="D670" s="14">
+      <c r="D670" s="8">
         <v>8</v>
       </c>
-      <c r="E670" s="14">
-        <v>2</v>
-      </c>
-      <c r="F670" s="14">
-        <v>1</v>
-      </c>
-      <c r="G670" s="15" t="s">
+      <c r="E670" s="8">
+        <v>2</v>
+      </c>
+      <c r="F670" s="8">
+        <v>1</v>
+      </c>
+      <c r="G670" s="10" t="s">
         <v>1602</v>
       </c>
     </row>
@@ -37443,22 +37796,22 @@
       <c r="A671" s="8">
         <v>670</v>
       </c>
-      <c r="B671" s="14">
+      <c r="B671" s="8">
         <v>276</v>
       </c>
-      <c r="C671" s="15" t="s">
+      <c r="C671" s="10" t="s">
         <v>1607</v>
       </c>
-      <c r="D671" s="14">
+      <c r="D671" s="8">
         <v>9</v>
       </c>
-      <c r="E671" s="14">
-        <v>2</v>
-      </c>
-      <c r="F671" s="14">
-        <v>1</v>
-      </c>
-      <c r="G671" s="15" t="s">
+      <c r="E671" s="8">
+        <v>2</v>
+      </c>
+      <c r="F671" s="8">
+        <v>1</v>
+      </c>
+      <c r="G671" s="10" t="s">
         <v>1603</v>
       </c>
     </row>
@@ -37466,22 +37819,22 @@
       <c r="A672" s="8">
         <v>671</v>
       </c>
-      <c r="B672" s="14">
+      <c r="B672" s="8">
         <v>277</v>
       </c>
-      <c r="C672" s="15" t="s">
+      <c r="C672" s="10" t="s">
         <v>1607</v>
       </c>
-      <c r="D672" s="14">
+      <c r="D672" s="8">
         <v>10</v>
       </c>
-      <c r="E672" s="14">
-        <v>2</v>
-      </c>
-      <c r="F672" s="14">
-        <v>1</v>
-      </c>
-      <c r="G672" s="15" t="s">
+      <c r="E672" s="8">
+        <v>2</v>
+      </c>
+      <c r="F672" s="8">
+        <v>1</v>
+      </c>
+      <c r="G672" s="10" t="s">
         <v>1604</v>
       </c>
     </row>
@@ -37489,22 +37842,22 @@
       <c r="A673" s="8">
         <v>672</v>
       </c>
-      <c r="B673" s="14">
+      <c r="B673" s="8">
         <v>278</v>
       </c>
-      <c r="C673" s="15" t="s">
+      <c r="C673" s="10" t="s">
         <v>1607</v>
       </c>
-      <c r="D673" s="14">
+      <c r="D673" s="8">
         <v>11</v>
       </c>
-      <c r="E673" s="14">
-        <v>2</v>
-      </c>
-      <c r="F673" s="14">
-        <v>1</v>
-      </c>
-      <c r="G673" s="15" t="s">
+      <c r="E673" s="8">
+        <v>2</v>
+      </c>
+      <c r="F673" s="8">
+        <v>1</v>
+      </c>
+      <c r="G673" s="10" t="s">
         <v>1605</v>
       </c>
     </row>
@@ -37512,22 +37865,22 @@
       <c r="A674" s="8">
         <v>673</v>
       </c>
-      <c r="B674" s="14">
+      <c r="B674" s="8">
         <v>279</v>
       </c>
-      <c r="C674" s="15" t="s">
+      <c r="C674" s="10" t="s">
         <v>1607</v>
       </c>
-      <c r="D674" s="14">
+      <c r="D674" s="8">
         <v>12</v>
       </c>
-      <c r="E674" s="14">
-        <v>2</v>
-      </c>
-      <c r="F674" s="14">
-        <v>1</v>
-      </c>
-      <c r="G674" s="15" t="s">
+      <c r="E674" s="8">
+        <v>2</v>
+      </c>
+      <c r="F674" s="8">
+        <v>1</v>
+      </c>
+      <c r="G674" s="10" t="s">
         <v>1606</v>
       </c>
     </row>
@@ -37535,22 +37888,22 @@
       <c r="A675" s="8">
         <v>674</v>
       </c>
-      <c r="B675" s="77">
+      <c r="B675" s="8">
         <v>280</v>
       </c>
-      <c r="C675" s="19" t="s">
+      <c r="C675" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="D675" s="19" t="s">
+      <c r="D675" s="10" t="s">
         <v>887</v>
       </c>
-      <c r="E675" s="77">
-        <v>2</v>
-      </c>
-      <c r="F675" s="77">
-        <v>2</v>
-      </c>
-      <c r="G675" s="19" t="s">
+      <c r="E675" s="8">
+        <v>2</v>
+      </c>
+      <c r="F675" s="8">
+        <v>2</v>
+      </c>
+      <c r="G675" s="10" t="s">
         <v>940</v>
       </c>
     </row>
@@ -37558,22 +37911,22 @@
       <c r="A676" s="8">
         <v>675</v>
       </c>
-      <c r="B676" s="77">
+      <c r="B676" s="8">
         <v>280</v>
       </c>
-      <c r="C676" s="19" t="s">
+      <c r="C676" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="D676" s="19" t="s">
+      <c r="D676" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="E676" s="77">
-        <v>2</v>
-      </c>
-      <c r="F676" s="77">
+      <c r="E676" s="8">
+        <v>2</v>
+      </c>
+      <c r="F676" s="8">
         <v>3</v>
       </c>
-      <c r="G676" s="19" t="s">
+      <c r="G676" s="10" t="s">
         <v>936</v>
       </c>
     </row>
@@ -37581,45 +37934,45 @@
       <c r="A677" s="8">
         <v>676</v>
       </c>
-      <c r="B677" s="77">
+      <c r="B677" s="8">
         <v>281</v>
       </c>
-      <c r="C677" s="19" t="s">
+      <c r="C677" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="D677" s="19" t="s">
+      <c r="D677" s="10" t="s">
         <v>937</v>
       </c>
-      <c r="E677" s="77">
+      <c r="E677" s="8">
         <v>5</v>
       </c>
-      <c r="F677" s="77">
-        <v>1</v>
-      </c>
-      <c r="G677" s="19" t="s">
-        <v>941</v>
+      <c r="F677" s="8">
+        <v>1</v>
+      </c>
+      <c r="G677" s="10" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" s="8">
         <v>677</v>
       </c>
-      <c r="B678" s="77">
+      <c r="B678" s="8">
         <v>282</v>
       </c>
-      <c r="C678" s="19" t="s">
-        <v>882</v>
-      </c>
-      <c r="D678" s="53" t="s">
+      <c r="C678" s="10" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D678" s="10" t="s">
         <v>1637</v>
       </c>
-      <c r="E678" s="9">
-        <v>2</v>
-      </c>
-      <c r="F678" s="9">
-        <v>1</v>
-      </c>
-      <c r="G678" s="53" t="s">
+      <c r="E678" s="8">
+        <v>2</v>
+      </c>
+      <c r="F678" s="8">
+        <v>1</v>
+      </c>
+      <c r="G678" s="10" t="s">
         <v>1638</v>
       </c>
     </row>
@@ -37627,22 +37980,22 @@
       <c r="A679" s="8">
         <v>678</v>
       </c>
-      <c r="B679" s="77">
+      <c r="B679" s="8">
         <v>283</v>
       </c>
-      <c r="C679" s="19" t="s">
+      <c r="C679" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="D679" s="19" t="s">
+      <c r="D679" s="10" t="s">
         <v>887</v>
       </c>
-      <c r="E679" s="77">
-        <v>2</v>
-      </c>
-      <c r="F679" s="77">
-        <v>1</v>
-      </c>
-      <c r="G679" s="19" t="s">
+      <c r="E679" s="8">
+        <v>2</v>
+      </c>
+      <c r="F679" s="8">
+        <v>1</v>
+      </c>
+      <c r="G679" s="10" t="s">
         <v>940</v>
       </c>
     </row>
@@ -37650,22 +38003,22 @@
       <c r="A680" s="8">
         <v>679</v>
       </c>
-      <c r="B680" s="77">
+      <c r="B680" s="8">
         <v>283</v>
       </c>
-      <c r="C680" s="19" t="s">
+      <c r="C680" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="D680" s="19" t="s">
+      <c r="D680" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="E680" s="77">
-        <v>2</v>
-      </c>
-      <c r="F680" s="77">
-        <v>2</v>
-      </c>
-      <c r="G680" s="19" t="s">
+      <c r="E680" s="8">
+        <v>2</v>
+      </c>
+      <c r="F680" s="8">
+        <v>2</v>
+      </c>
+      <c r="G680" s="10" t="s">
         <v>936</v>
       </c>
     </row>
@@ -37673,19 +38026,19 @@
       <c r="A681" s="8">
         <v>680</v>
       </c>
-      <c r="B681" s="77">
+      <c r="B681" s="8">
         <v>284</v>
       </c>
-      <c r="C681" s="19" t="s">
+      <c r="C681" s="10" t="s">
         <v>1641</v>
       </c>
-      <c r="D681" s="9">
-        <v>1</v>
-      </c>
-      <c r="E681" s="9">
+      <c r="D681" s="8">
+        <v>1</v>
+      </c>
+      <c r="E681" s="8">
         <v>3</v>
       </c>
-      <c r="F681" s="9">
+      <c r="F681" s="8">
         <v>1</v>
       </c>
       <c r="G681" s="10" t="s">
@@ -37696,19 +38049,19 @@
       <c r="A682" s="8">
         <v>681</v>
       </c>
-      <c r="B682" s="77">
+      <c r="B682" s="8">
         <v>284</v>
       </c>
-      <c r="C682" s="19" t="s">
+      <c r="C682" s="10" t="s">
         <v>1642</v>
       </c>
-      <c r="D682" s="9">
+      <c r="D682" s="8">
         <v>3</v>
       </c>
-      <c r="E682" s="9">
+      <c r="E682" s="8">
         <v>4</v>
       </c>
-      <c r="F682" s="9">
+      <c r="F682" s="8">
         <v>1</v>
       </c>
       <c r="G682" s="10" t="s">
@@ -37719,19 +38072,19 @@
       <c r="A683" s="8">
         <v>682</v>
       </c>
-      <c r="B683" s="9">
+      <c r="B683" s="8">
         <v>285</v>
       </c>
-      <c r="C683" s="19" t="s">
+      <c r="C683" s="10" t="s">
         <v>1640</v>
       </c>
-      <c r="D683" s="9">
+      <c r="D683" s="8">
         <v>4</v>
       </c>
-      <c r="E683" s="9">
+      <c r="E683" s="8">
         <v>3</v>
       </c>
-      <c r="F683" s="9">
+      <c r="F683" s="8">
         <v>1</v>
       </c>
       <c r="G683" s="10" t="s">
@@ -37742,19 +38095,19 @@
       <c r="A684" s="8">
         <v>683</v>
       </c>
-      <c r="B684" s="9">
+      <c r="B684" s="8">
         <v>285</v>
       </c>
-      <c r="C684" s="19" t="s">
+      <c r="C684" s="10" t="s">
         <v>1640</v>
       </c>
-      <c r="D684" s="9">
+      <c r="D684" s="8">
         <v>6</v>
       </c>
-      <c r="E684" s="9">
+      <c r="E684" s="8">
         <v>4</v>
       </c>
-      <c r="F684" s="9">
+      <c r="F684" s="8">
         <v>1</v>
       </c>
       <c r="G684" s="10" t="s">
@@ -37765,19 +38118,19 @@
       <c r="A685" s="8">
         <v>684</v>
       </c>
-      <c r="B685" s="9">
+      <c r="B685" s="8">
         <v>286</v>
       </c>
-      <c r="C685" s="19" t="s">
+      <c r="C685" s="10" t="s">
         <v>1641</v>
       </c>
-      <c r="D685" s="9">
+      <c r="D685" s="8">
         <v>7</v>
       </c>
-      <c r="E685" s="9">
+      <c r="E685" s="8">
         <v>3</v>
       </c>
-      <c r="F685" s="9">
+      <c r="F685" s="8">
         <v>1</v>
       </c>
       <c r="G685" s="10" t="s">
@@ -37815,10 +38168,10 @@
         <v>287</v>
       </c>
       <c r="C687" s="10" t="s">
-        <v>1185</v>
+        <v>1660</v>
       </c>
       <c r="D687" s="10" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="E687" s="8">
         <v>2</v>
@@ -37827,7 +38180,7 @@
         <v>1</v>
       </c>
       <c r="G687" s="10" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="688" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -37837,20 +38190,503 @@
       <c r="B688" s="8">
         <v>287</v>
       </c>
-      <c r="C688" s="8" t="s">
+      <c r="C688" s="10" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D688" s="10" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E688" s="8">
+        <v>2</v>
+      </c>
+      <c r="F688" s="8">
+        <v>2</v>
+      </c>
+      <c r="G688" s="10" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A689" s="8">
+        <v>688</v>
+      </c>
+      <c r="B689" s="77">
+        <v>288</v>
+      </c>
+      <c r="C689" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D688" s="10" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E688" s="8">
-        <v>2</v>
-      </c>
-      <c r="F688" s="8">
-        <v>1</v>
-      </c>
-      <c r="G688" s="10" t="s">
-        <v>948</v>
+      <c r="D689" s="19" t="s">
+        <v>887</v>
+      </c>
+      <c r="E689" s="77">
+        <v>2</v>
+      </c>
+      <c r="F689" s="77">
+        <v>1</v>
+      </c>
+      <c r="G689" s="19" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A690" s="8">
+        <v>689</v>
+      </c>
+      <c r="B690" s="77">
+        <v>288</v>
+      </c>
+      <c r="C690" s="19" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D690" s="19" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E690" s="77">
+        <v>5</v>
+      </c>
+      <c r="F690" s="77">
+        <v>1</v>
+      </c>
+      <c r="G690" s="19" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A691" s="8">
+        <v>690</v>
+      </c>
+      <c r="B691" s="77">
+        <v>288</v>
+      </c>
+      <c r="C691" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="D691" s="19" t="s">
+        <v>891</v>
+      </c>
+      <c r="E691" s="77">
+        <v>2</v>
+      </c>
+      <c r="F691" s="77">
+        <v>2</v>
+      </c>
+      <c r="G691" s="19" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A692" s="8">
+        <v>691</v>
+      </c>
+      <c r="B692" s="77">
+        <v>288</v>
+      </c>
+      <c r="C692" s="19" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D692" s="19" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E692" s="77">
+        <v>5</v>
+      </c>
+      <c r="F692" s="77">
+        <v>2</v>
+      </c>
+      <c r="G692" s="19" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A693" s="8">
+        <v>692</v>
+      </c>
+      <c r="B693" s="77">
+        <v>289</v>
+      </c>
+      <c r="C693" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D693" s="77">
+        <v>1</v>
+      </c>
+      <c r="E693" s="77">
+        <v>3</v>
+      </c>
+      <c r="F693" s="77">
+        <v>1</v>
+      </c>
+      <c r="G693" s="19" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A694" s="8">
+        <v>693</v>
+      </c>
+      <c r="B694" s="77">
+        <v>289</v>
+      </c>
+      <c r="C694" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D694" s="77">
+        <v>10</v>
+      </c>
+      <c r="E694" s="77">
+        <v>4</v>
+      </c>
+      <c r="F694" s="77">
+        <v>1</v>
+      </c>
+      <c r="G694" s="19" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A695" s="8">
+        <v>694</v>
+      </c>
+      <c r="B695" s="77">
+        <v>289</v>
+      </c>
+      <c r="C695" s="77" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D695" s="19" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E695" s="77">
+        <v>5</v>
+      </c>
+      <c r="F695" s="77">
+        <v>1</v>
+      </c>
+      <c r="G695" s="19" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A696" s="8">
+        <v>695</v>
+      </c>
+      <c r="B696" s="77">
+        <v>289</v>
+      </c>
+      <c r="C696" s="19" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D696" s="19" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E696" s="77">
+        <v>5</v>
+      </c>
+      <c r="F696" s="77">
+        <v>1</v>
+      </c>
+      <c r="G696" s="19" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A697" s="8">
+        <v>696</v>
+      </c>
+      <c r="B697" s="77">
+        <v>290</v>
+      </c>
+      <c r="C697" s="77" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D697" s="19" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E697" s="77">
+        <v>5</v>
+      </c>
+      <c r="F697" s="77">
+        <v>1</v>
+      </c>
+      <c r="G697" s="19" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A698" s="8">
+        <v>697</v>
+      </c>
+      <c r="B698" s="77">
+        <v>290</v>
+      </c>
+      <c r="C698" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D698" s="77">
+        <v>1</v>
+      </c>
+      <c r="E698" s="77">
+        <v>3</v>
+      </c>
+      <c r="F698" s="77">
+        <v>1</v>
+      </c>
+      <c r="G698" s="77" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A699" s="8">
+        <v>698</v>
+      </c>
+      <c r="B699" s="77">
+        <v>290</v>
+      </c>
+      <c r="C699" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D699" s="77">
+        <v>3</v>
+      </c>
+      <c r="E699" s="77">
+        <v>4</v>
+      </c>
+      <c r="F699" s="77">
+        <v>1</v>
+      </c>
+      <c r="G699" s="77" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A700" s="8">
+        <v>699</v>
+      </c>
+      <c r="B700" s="77">
+        <v>290</v>
+      </c>
+      <c r="C700" s="19" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D700" s="19" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E700" s="77">
+        <v>5</v>
+      </c>
+      <c r="F700" s="77">
+        <v>1</v>
+      </c>
+      <c r="G700" s="19" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A701" s="8">
+        <v>700</v>
+      </c>
+      <c r="B701" s="77">
+        <v>291</v>
+      </c>
+      <c r="C701" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D701" s="77">
+        <v>4</v>
+      </c>
+      <c r="E701" s="77">
+        <v>3</v>
+      </c>
+      <c r="F701" s="77">
+        <v>1</v>
+      </c>
+      <c r="G701" s="19" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A702" s="8">
+        <v>701</v>
+      </c>
+      <c r="B702" s="77">
+        <v>291</v>
+      </c>
+      <c r="C702" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D702" s="77">
+        <v>10</v>
+      </c>
+      <c r="E702" s="77">
+        <v>4</v>
+      </c>
+      <c r="F702" s="77">
+        <v>1</v>
+      </c>
+      <c r="G702" s="19" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A703" s="8">
+        <v>702</v>
+      </c>
+      <c r="B703" s="77">
+        <v>291</v>
+      </c>
+      <c r="C703" s="77" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D703" s="19" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E703" s="77">
+        <v>5</v>
+      </c>
+      <c r="F703" s="77">
+        <v>1</v>
+      </c>
+      <c r="G703" s="19" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A704" s="8">
+        <v>703</v>
+      </c>
+      <c r="B704" s="77">
+        <v>291</v>
+      </c>
+      <c r="C704" s="19" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D704" s="19" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E704" s="77">
+        <v>5</v>
+      </c>
+      <c r="F704" s="77">
+        <v>1</v>
+      </c>
+      <c r="G704" s="19" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A705" s="8">
+        <v>704</v>
+      </c>
+      <c r="B705" s="8">
+        <v>292</v>
+      </c>
+      <c r="C705" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D705" s="10" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E705" s="8">
+        <v>2</v>
+      </c>
+      <c r="F705" s="8">
+        <v>1</v>
+      </c>
+      <c r="G705" s="10" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A706" s="8">
+        <v>705</v>
+      </c>
+      <c r="B706" s="77">
+        <v>293</v>
+      </c>
+      <c r="C706" s="77" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D706" s="19" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E706" s="77">
+        <v>5</v>
+      </c>
+      <c r="F706" s="77">
+        <v>1</v>
+      </c>
+      <c r="G706" s="19" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A707" s="8">
+        <v>706</v>
+      </c>
+      <c r="B707" s="77">
+        <v>293</v>
+      </c>
+      <c r="C707" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D707" s="77">
+        <v>1</v>
+      </c>
+      <c r="E707" s="77">
+        <v>3</v>
+      </c>
+      <c r="F707" s="77">
+        <v>1</v>
+      </c>
+      <c r="G707" s="77" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A708" s="8">
+        <v>707</v>
+      </c>
+      <c r="B708" s="77">
+        <v>293</v>
+      </c>
+      <c r="C708" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D708" s="77">
+        <v>10</v>
+      </c>
+      <c r="E708" s="77">
+        <v>4</v>
+      </c>
+      <c r="F708" s="77">
+        <v>1</v>
+      </c>
+      <c r="G708" s="19" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A709" s="8">
+        <v>708</v>
+      </c>
+      <c r="B709" s="77">
+        <v>293</v>
+      </c>
+      <c r="C709" s="19" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D709" s="19" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E709" s="77">
+        <v>5</v>
+      </c>
+      <c r="F709" s="77">
+        <v>1</v>
+      </c>
+      <c r="G709" s="19" t="s">
+        <v>1694</v>
       </c>
     </row>
   </sheetData>
@@ -37862,10 +38698,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38021,7 +38857,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>914</v>
@@ -38037,6 +38873,29 @@
       </c>
       <c r="G7" s="5" t="s">
         <v>1657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="93">
+        <v>7</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>1681</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="1759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="1764">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -7905,10 +7905,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼开炮送红包（非CPS渠道）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼开炮送红包（CPS渠道）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8074,6 +8070,30 @@
   </si>
   <si>
     <t>tag_new_player</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_030_xyxfl</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏福利（非CPS渠道）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年9月28日23:59:59结束</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_2_no_cps</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包（非CPS渠道）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼每日任务（新玩家，免费，小额）（非CPS渠道）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8821,7 +8841,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C388" sqref="C388"/>
+      <selection pane="bottomLeft" activeCell="A369" sqref="A369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10006,7 +10026,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -10024,7 +10044,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -10042,7 +10062,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -10060,7 +10080,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -10078,7 +10098,7 @@
         <v>137</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C74" s="57"/>
       <c r="D74" s="9"/>
@@ -10090,7 +10110,7 @@
         <v>138</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C75" s="57"/>
       <c r="D75" s="9"/>
@@ -10103,7 +10123,7 @@
         <v>139</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C76" s="57"/>
       <c r="D76" s="9"/>
@@ -10116,7 +10136,7 @@
         <v>140</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C77" s="57">
         <v>22</v>
@@ -10131,7 +10151,7 @@
         <v>141</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C78" s="9">
         <v>23</v>
@@ -10146,7 +10166,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C79" s="9">
         <v>24</v>
@@ -10161,7 +10181,7 @@
         <v>143</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C80" s="9">
         <v>25</v>
@@ -10176,7 +10196,7 @@
         <v>144</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C81" s="9">
         <v>26</v>
@@ -10191,7 +10211,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -12936,13 +12956,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O315"/>
+  <dimension ref="A1:O317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E285" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F291" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G310" sqref="G310"/>
+      <selection pane="bottomRight" activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23451,7 +23471,7 @@
         <v>1728</v>
       </c>
       <c r="D310" s="30" t="s">
-        <v>1729</v>
+        <v>1762</v>
       </c>
       <c r="G310" s="26">
         <v>315</v>
@@ -23480,10 +23500,10 @@
         <v>1</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G311" s="26">
         <v>316</v>
@@ -23512,10 +23532,10 @@
         <v>1</v>
       </c>
       <c r="C312" s="30" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D312" s="30" t="s">
         <v>1732</v>
-      </c>
-      <c r="D312" s="30" t="s">
-        <v>1733</v>
       </c>
       <c r="G312" s="26">
         <v>317</v>
@@ -23544,10 +23564,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="G313" s="26">
         <v>318</v>
@@ -23576,10 +23596,10 @@
         <v>1</v>
       </c>
       <c r="C314" s="30" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D314" s="30" t="s">
         <v>1738</v>
-      </c>
-      <c r="D314" s="30" t="s">
-        <v>1739</v>
       </c>
       <c r="G314" s="26">
         <v>319</v>
@@ -23608,10 +23628,10 @@
         <v>1</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G315" s="26">
         <v>320</v>
@@ -23629,6 +23649,72 @@
         <v>1598916600</v>
       </c>
       <c r="L315" s="16" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="17">
+        <v>315</v>
+      </c>
+      <c r="B316" s="17">
+        <v>1</v>
+      </c>
+      <c r="C316" s="16" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D316" s="16" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E316" s="17"/>
+      <c r="F316" s="17"/>
+      <c r="G316" s="17">
+        <v>319</v>
+      </c>
+      <c r="H316" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I316" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J316" s="16" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K316" s="17">
+        <v>1600731000</v>
+      </c>
+      <c r="L316" s="16" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A317" s="26">
+        <v>316</v>
+      </c>
+      <c r="B317" s="26">
+        <v>1</v>
+      </c>
+      <c r="C317" s="30" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D317" s="16" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G317" s="26">
+        <v>322</v>
+      </c>
+      <c r="H317" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I317" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J317" s="16" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K317" s="26">
+        <v>1598916600</v>
+      </c>
+      <c r="L317" s="16" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -23642,13 +23728,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I806"/>
+  <dimension ref="A1:I813"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C728" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C791" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C748" sqref="C748"/>
+      <selection pane="bottomRight" activeCell="D808" sqref="D808"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24232,7 +24318,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1056</v>
@@ -40918,7 +41004,7 @@
         <v>1</v>
       </c>
       <c r="G748" s="15" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.2">
@@ -40987,7 +41073,7 @@
         <v>1</v>
       </c>
       <c r="G751" s="15" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="752" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -41056,7 +41142,7 @@
         <v>1</v>
       </c>
       <c r="G754" s="15" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.2">
@@ -41070,7 +41156,7 @@
         <v>1069</v>
       </c>
       <c r="D755" s="10" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E755" s="8">
         <v>2</v>
@@ -41194,7 +41280,7 @@
         <v>1</v>
       </c>
       <c r="G760" s="15" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.2">
@@ -41424,7 +41510,7 @@
         <v>1</v>
       </c>
       <c r="G770" s="15" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
@@ -41516,7 +41602,7 @@
         <v>1</v>
       </c>
       <c r="G774" s="15" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.2">
@@ -41585,7 +41671,7 @@
         <v>1</v>
       </c>
       <c r="G777" s="15" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.2">
@@ -41668,7 +41754,7 @@
         <v>1069</v>
       </c>
       <c r="D781" s="10" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E781" s="8">
         <v>2</v>
@@ -41884,7 +41970,7 @@
         <v>1</v>
       </c>
       <c r="G790" s="15" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
@@ -41976,7 +42062,7 @@
         <v>1</v>
       </c>
       <c r="G794" s="15" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.2">
@@ -42045,7 +42131,7 @@
         <v>1</v>
       </c>
       <c r="G797" s="15" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.2">
@@ -42091,7 +42177,7 @@
         <v>1</v>
       </c>
       <c r="G799" s="10" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.2">
@@ -42114,7 +42200,7 @@
         <v>1</v>
       </c>
       <c r="G800" s="53" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.2">
@@ -42137,7 +42223,7 @@
         <v>1</v>
       </c>
       <c r="G801" s="10" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.2">
@@ -42160,7 +42246,7 @@
         <v>1</v>
       </c>
       <c r="G802" s="53" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.2">
@@ -42183,7 +42269,7 @@
         <v>1</v>
       </c>
       <c r="G803" s="10" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.2">
@@ -42206,7 +42292,7 @@
         <v>1</v>
       </c>
       <c r="G804" s="53" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.2">
@@ -42254,6 +42340,147 @@
       <c r="G806" s="10" t="s">
         <v>887</v>
       </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A807" s="14">
+        <v>806</v>
+      </c>
+      <c r="B807" s="8">
+        <v>322</v>
+      </c>
+      <c r="C807" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D807" s="10" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E807" s="8">
+        <v>2</v>
+      </c>
+      <c r="F807" s="8">
+        <v>1</v>
+      </c>
+      <c r="G807" s="10" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A808" s="14">
+        <v>807</v>
+      </c>
+      <c r="B808" s="8">
+        <v>322</v>
+      </c>
+      <c r="C808" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D808" s="10" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E808" s="8">
+        <v>5</v>
+      </c>
+      <c r="F808" s="8">
+        <v>1</v>
+      </c>
+      <c r="G808" s="10" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A809" s="14">
+        <v>808</v>
+      </c>
+      <c r="B809" s="8">
+        <v>322</v>
+      </c>
+      <c r="C809" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="D809" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="E809" s="8">
+        <v>2</v>
+      </c>
+      <c r="F809" s="8">
+        <v>2</v>
+      </c>
+      <c r="G809" s="10" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A810" s="14">
+        <v>809</v>
+      </c>
+      <c r="B810" s="8">
+        <v>322</v>
+      </c>
+      <c r="C810" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D810" s="10" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E810" s="8">
+        <v>5</v>
+      </c>
+      <c r="F810" s="8">
+        <v>2</v>
+      </c>
+      <c r="G810" s="10" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A811" s="14">
+        <v>810</v>
+      </c>
+      <c r="B811" s="8">
+        <v>322</v>
+      </c>
+      <c r="C811" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="D811" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="E811" s="8">
+        <v>2</v>
+      </c>
+      <c r="F811" s="8">
+        <v>3</v>
+      </c>
+      <c r="G811" s="10" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A812" s="14">
+        <v>811</v>
+      </c>
+      <c r="B812" s="8">
+        <v>322</v>
+      </c>
+      <c r="C812" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D812" s="10" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E812" s="8">
+        <v>5</v>
+      </c>
+      <c r="F812" s="8">
+        <v>3</v>
+      </c>
+      <c r="G812" s="10" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A813" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4217" uniqueCount="1788">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -6940,10 +6940,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>lxdh_025_notnew</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>龙虾兑换（非新人显示）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6961,10 +6957,6 @@
   </si>
   <si>
     <t>cpl_xrcdj</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"wqp_pceggs","wqp_xianwan","wqp_dandanzhuan"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7047,10 +7039,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"pceggs","xianwan","pdd","duoliang"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_cpl</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7476,10 +7464,6 @@
   </si>
   <si>
     <t>3dby_cps</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"vivo",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7905,6 +7889,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>3D捕鱼开炮送红包（非CPS渠道）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>3D捕鱼开炮送红包（CPS渠道）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8085,15 +8073,136 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>2020年10月5日23:59:59结束</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>国庆福袋（非C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PS渠道）</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_gqkl_031_aster_exchange</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_031_gqfd_cumulative</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星送好礼（非CPS渠道，V4-V10玩家，非新用户）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_task_fish_daily_2_no_cps</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼开炮送红包（非CPS渠道）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>捕鱼每日任务（新玩家，免费，小额）（非CPS渠道）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_new_player</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是新用户</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是CPS渠道</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福袋累计购买五星掉落（非CPS渠道）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_031_xxy_show</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星鱼刷新（非CPS渠道）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是CPS渠道</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼冲金鸡类CPL</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cjj_cpl</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cjj_cpl</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是冲金鸡渠道</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"wqp_pceggs","wqp_xianwan","wqp_dandanzhuan"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vivo","xiaomi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxdh_025_notnew</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>非冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是冲金鸡渠道</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8837,11 +8946,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q380"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A369" sqref="A369"/>
+      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C385" sqref="C385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10026,7 +10136,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -10044,7 +10154,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -10062,7 +10172,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -10080,7 +10190,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -10098,7 +10208,7 @@
         <v>137</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="C74" s="57"/>
       <c r="D74" s="9"/>
@@ -10110,7 +10220,7 @@
         <v>138</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="C75" s="57"/>
       <c r="D75" s="9"/>
@@ -10123,7 +10233,7 @@
         <v>139</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="C76" s="57"/>
       <c r="D76" s="9"/>
@@ -10136,7 +10246,7 @@
         <v>140</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="C77" s="57">
         <v>22</v>
@@ -10151,7 +10261,7 @@
         <v>141</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="C78" s="9">
         <v>23</v>
@@ -10166,7 +10276,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="C79" s="9">
         <v>24</v>
@@ -10181,7 +10291,7 @@
         <v>143</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="C80" s="9">
         <v>25</v>
@@ -10196,7 +10306,7 @@
         <v>144</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="C81" s="9">
         <v>26</v>
@@ -10211,7 +10321,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -10783,7 +10893,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="53" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="B142" s="53" t="s">
         <v>249</v>
@@ -10904,10 +11014,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="61" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="C154" s="14">
         <v>267</v>
@@ -10915,10 +11025,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="61" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C155" s="14">
         <v>268</v>
@@ -10926,10 +11036,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="61" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="C156" s="14">
         <v>269</v>
@@ -10937,10 +11047,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="61" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="C157" s="14">
         <v>270</v>
@@ -10948,10 +11058,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="61" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="C158" s="14">
         <v>271</v>
@@ -10959,10 +11069,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="61" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="C159" s="14">
         <v>272</v>
@@ -10970,10 +11080,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="61" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="C160" s="14">
         <v>273</v>
@@ -10981,10 +11091,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="61" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="C161" s="14">
         <v>274</v>
@@ -10992,10 +11102,10 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="61" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="C162" s="14">
         <v>275</v>
@@ -11003,10 +11113,10 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="61" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="C163" s="14">
         <v>276</v>
@@ -11014,10 +11124,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="61" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="C164" s="14">
         <v>277</v>
@@ -11025,10 +11135,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="61" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="C165" s="14">
         <v>278</v>
@@ -11036,10 +11146,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="61" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="C166" s="14">
         <v>279</v>
@@ -11370,7 +11480,7 @@
     </row>
     <row r="200" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="60" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="B200" s="60" t="s">
         <v>328</v>
@@ -11400,7 +11510,7 @@
     </row>
     <row r="202" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="34" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="B202" s="34" t="s">
         <v>333</v>
@@ -12872,10 +12982,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="27" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B369" s="27" t="s">
         <v>1543</v>
-      </c>
-      <c r="B369" s="27" t="s">
-        <v>1544</v>
       </c>
       <c r="C369" s="3">
         <v>256</v>
@@ -12883,10 +12993,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B370" s="3" t="s">
         <v>1545</v>
-      </c>
-      <c r="B370" s="3" t="s">
-        <v>1546</v>
       </c>
       <c r="C370" s="3">
         <v>257</v>
@@ -12894,10 +13004,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="27" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B372" s="27" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="C372" s="3">
         <v>258</v>
@@ -12905,10 +13015,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="C374" s="3">
         <v>266</v>
@@ -12916,10 +13026,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="27" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="B376" s="27" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="C376" s="3">
         <v>287</v>
@@ -12927,10 +13037,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="27" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="B378" s="27" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="C378" s="3">
         <v>292</v>
@@ -12938,13 +13048,35 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="27" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="B380" s="27" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="C380" s="3">
         <v>319</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B382" s="27" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C382" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" s="27" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B384" s="27" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C384" s="3">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -12956,13 +13088,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O317"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:O321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F291" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D297" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C317" sqref="C317"/>
+      <selection pane="bottomRight" activeCell="C321" sqref="C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22142,10 +22275,10 @@
         <v>1</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="D270" s="16" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="E270" s="17"/>
       <c r="F270" s="17"/>
@@ -22159,13 +22292,13 @@
         <v>1</v>
       </c>
       <c r="J270" s="16" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="K270" s="17">
         <v>1598311800</v>
       </c>
       <c r="L270" s="16" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="271" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22176,10 +22309,10 @@
         <v>1</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D271" s="16" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="E271" s="17"/>
       <c r="F271" s="17"/>
@@ -22193,13 +22326,13 @@
         <v>1</v>
       </c>
       <c r="J271" s="16" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="K271" s="17">
         <v>1598311800</v>
       </c>
       <c r="L271" s="16" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="272" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22210,10 +22343,10 @@
         <v>1</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="D272" s="16" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="E272" s="17"/>
       <c r="F272" s="17"/>
@@ -22233,7 +22366,7 @@
         <v>1598311800</v>
       </c>
       <c r="L272" s="16" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="273" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22244,10 +22377,10 @@
         <v>1</v>
       </c>
       <c r="C273" s="17" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="E273" s="17"/>
       <c r="F273" s="17"/>
@@ -22267,7 +22400,7 @@
         <v>1598311800</v>
       </c>
       <c r="L273" s="16" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="274" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22278,10 +22411,10 @@
         <v>1</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D274" s="16" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="E274" s="17"/>
       <c r="F274" s="17"/>
@@ -22301,7 +22434,7 @@
         <v>1598311800</v>
       </c>
       <c r="L274" s="16" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="275" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22312,10 +22445,10 @@
         <v>1</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="D275" s="16" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="E275" s="17"/>
       <c r="F275" s="17"/>
@@ -22335,7 +22468,7 @@
         <v>1598284800</v>
       </c>
       <c r="L275" s="16" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="276" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22346,10 +22479,10 @@
         <v>1</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="D276" s="16" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="E276" s="17"/>
       <c r="F276" s="17"/>
@@ -22369,7 +22502,7 @@
         <v>1598284800</v>
       </c>
       <c r="L276" s="16" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="277" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22380,10 +22513,10 @@
         <v>1</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="D277" s="16" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="E277" s="17"/>
       <c r="F277" s="17"/>
@@ -22397,13 +22530,13 @@
         <v>1</v>
       </c>
       <c r="J277" s="16" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="K277" s="17">
         <v>1598916600</v>
       </c>
       <c r="L277" s="16" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="278" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22414,10 +22547,10 @@
         <v>1</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="D278" s="16" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="E278" s="17"/>
       <c r="F278" s="17"/>
@@ -22437,7 +22570,7 @@
         <v>1598889600</v>
       </c>
       <c r="L278" s="16" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="279" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
@@ -22448,10 +22581,10 @@
         <v>0</v>
       </c>
       <c r="C279" s="96" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="D279" s="96" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="E279" s="95"/>
       <c r="F279" s="95"/>
@@ -22482,10 +22615,10 @@
         <v>0</v>
       </c>
       <c r="C280" s="96" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="D280" s="96" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="E280" s="95"/>
       <c r="F280" s="95"/>
@@ -22516,10 +22649,10 @@
         <v>0</v>
       </c>
       <c r="C281" s="96" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="D281" s="96" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="E281" s="95"/>
       <c r="F281" s="95"/>
@@ -22550,10 +22683,10 @@
         <v>0</v>
       </c>
       <c r="C282" s="96" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="D282" s="96" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="E282" s="95"/>
       <c r="F282" s="95"/>
@@ -22584,10 +22717,10 @@
         <v>0</v>
       </c>
       <c r="C283" s="96" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="D283" s="96" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="E283" s="95"/>
       <c r="F283" s="95"/>
@@ -22618,10 +22751,10 @@
         <v>1</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="E284" s="17"/>
       <c r="F284" s="17"/>
@@ -22635,13 +22768,13 @@
         <v>1</v>
       </c>
       <c r="J284" s="16" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="K284" s="17">
         <v>1599521400</v>
       </c>
       <c r="L284" s="17" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="285" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22652,10 +22785,10 @@
         <v>1</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="E285" s="17"/>
       <c r="F285" s="17"/>
@@ -22675,7 +22808,7 @@
         <v>1599494400</v>
       </c>
       <c r="L285" s="17" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="286" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22686,10 +22819,10 @@
         <v>1</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="E286" s="17"/>
       <c r="F286" s="17"/>
@@ -22709,7 +22842,7 @@
         <v>1599523200</v>
       </c>
       <c r="L286" s="17" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="287" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22720,10 +22853,10 @@
         <v>1</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="E287" s="17"/>
       <c r="F287" s="17"/>
@@ -22743,7 +22876,7 @@
         <v>1599523200</v>
       </c>
       <c r="L287" s="17" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="288" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22754,10 +22887,10 @@
         <v>1</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="D288" s="16" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="E288" s="17"/>
       <c r="F288" s="17"/>
@@ -22777,7 +22910,7 @@
         <v>1599494400</v>
       </c>
       <c r="L288" s="17" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="289" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22788,10 +22921,10 @@
         <v>1</v>
       </c>
       <c r="C289" s="78" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="D289" s="78" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="E289" s="78"/>
       <c r="F289" s="78"/>
@@ -22805,13 +22938,13 @@
         <v>1</v>
       </c>
       <c r="J289" s="78" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="K289" s="78">
         <v>1600128000</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22822,10 +22955,10 @@
         <v>1</v>
       </c>
       <c r="C290" s="78" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="D290" s="78" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="E290" s="78"/>
       <c r="F290" s="78"/>
@@ -22839,13 +22972,13 @@
         <v>1</v>
       </c>
       <c r="J290" s="78" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="K290" s="78">
         <v>1600128000</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22855,11 +22988,11 @@
       <c r="B291" s="78">
         <v>1</v>
       </c>
-      <c r="C291" s="78" t="s">
-        <v>1684</v>
+      <c r="C291" s="79" t="s">
+        <v>1680</v>
       </c>
       <c r="D291" s="78" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="E291" s="78"/>
       <c r="F291" s="78"/>
@@ -22873,13 +23006,13 @@
         <v>1</v>
       </c>
       <c r="J291" s="78" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="K291" s="78">
         <v>1600128000</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22890,10 +23023,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -22907,13 +23040,13 @@
         <v>1</v>
       </c>
       <c r="J292" s="78" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="K292" s="78">
         <v>1600099200</v>
       </c>
       <c r="L292" s="78" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -22924,10 +23057,10 @@
         <v>1</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="G293" s="17">
         <v>298</v>
@@ -22956,10 +23089,10 @@
         <v>1</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="D294" s="16" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="G294" s="17">
         <v>299</v>
@@ -22988,10 +23121,10 @@
         <v>1</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="G295" s="17">
         <v>300</v>
@@ -23020,10 +23153,10 @@
         <v>1</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="D296" s="16" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="G296" s="17">
         <v>301</v>
@@ -23052,10 +23185,10 @@
         <v>1</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="D297" s="16" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="G297" s="17">
         <v>302</v>
@@ -23084,10 +23217,10 @@
         <v>1</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="G298" s="17">
         <v>303</v>
@@ -23116,10 +23249,10 @@
         <v>1</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="G299" s="17">
         <v>304</v>
@@ -23148,10 +23281,10 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="G300" s="17">
         <v>305</v>
@@ -23180,10 +23313,10 @@
         <v>1</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="G301" s="17">
         <v>306</v>
@@ -23212,10 +23345,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="G302" s="17">
         <v>307</v>
@@ -23244,10 +23377,10 @@
         <v>1</v>
       </c>
       <c r="C303" s="30" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="D303" s="16" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="G303" s="17">
         <v>308</v>
@@ -23276,10 +23409,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="D304" s="30" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="G304" s="26">
         <v>309</v>
@@ -23308,10 +23441,10 @@
         <v>1</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="G305" s="26">
         <v>310</v>
@@ -23340,10 +23473,10 @@
         <v>1</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="G306" s="26">
         <v>311</v>
@@ -23372,10 +23505,10 @@
         <v>1</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="G307" s="26">
         <v>312</v>
@@ -23404,10 +23537,10 @@
         <v>1</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="D308" s="16" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="G308" s="26">
         <v>313</v>
@@ -23436,10 +23569,10 @@
         <v>1</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="D309" s="16" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="G309" s="26">
         <v>314</v>
@@ -23468,10 +23601,10 @@
         <v>1</v>
       </c>
       <c r="C310" s="30" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="D310" s="30" t="s">
-        <v>1762</v>
+        <v>1725</v>
       </c>
       <c r="G310" s="26">
         <v>315</v>
@@ -23500,10 +23633,10 @@
         <v>1</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="G311" s="26">
         <v>316</v>
@@ -23532,10 +23665,10 @@
         <v>1</v>
       </c>
       <c r="C312" s="30" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D312" s="30" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="G312" s="26">
         <v>317</v>
@@ -23564,10 +23697,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="G313" s="26">
         <v>318</v>
@@ -23596,10 +23729,10 @@
         <v>1</v>
       </c>
       <c r="C314" s="30" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="D314" s="30" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="G314" s="26">
         <v>319</v>
@@ -23628,10 +23761,10 @@
         <v>1</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="G315" s="26">
         <v>320</v>
@@ -23660,10 +23793,10 @@
         <v>1</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="D316" s="16" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="E316" s="17"/>
       <c r="F316" s="17"/>
@@ -23683,7 +23816,7 @@
         <v>1600731000</v>
       </c>
       <c r="L316" s="16" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -23696,7 +23829,7 @@
       <c r="C317" s="30" t="s">
         <v>1761</v>
       </c>
-      <c r="D317" s="16" t="s">
+      <c r="D317" s="30" t="s">
         <v>1763</v>
       </c>
       <c r="G317" s="26">
@@ -23712,10 +23845,138 @@
         <v>1146</v>
       </c>
       <c r="K317" s="26">
+        <v>1601335800</v>
+      </c>
+      <c r="L317" s="30" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A318" s="26">
+        <v>317</v>
+      </c>
+      <c r="B318" s="26">
+        <v>1</v>
+      </c>
+      <c r="C318" s="30" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D318" s="30" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G318" s="26">
+        <v>323</v>
+      </c>
+      <c r="H318" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I318" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J318" s="16" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K318" s="26">
+        <v>1601335800</v>
+      </c>
+      <c r="L318" s="30" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A319" s="26">
+        <v>318</v>
+      </c>
+      <c r="B319" s="26">
+        <v>1</v>
+      </c>
+      <c r="C319" s="26" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D319" s="26" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G319" s="26">
+        <v>323</v>
+      </c>
+      <c r="H319" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I319" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J319" s="16" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K319" s="26">
+        <v>1601335800</v>
+      </c>
+      <c r="L319" s="30" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A320" s="26">
+        <v>319</v>
+      </c>
+      <c r="B320" s="26">
+        <v>1</v>
+      </c>
+      <c r="C320" s="30" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D320" s="16" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G320" s="26">
+        <v>324</v>
+      </c>
+      <c r="H320" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I320" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J320" s="16" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K320" s="26">
         <v>1598916600</v>
       </c>
-      <c r="L317" s="16" t="s">
+      <c r="L320" s="16" t="s">
         <v>1198</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A321" s="26">
+        <v>320</v>
+      </c>
+      <c r="B321" s="26">
+        <v>1</v>
+      </c>
+      <c r="C321" s="30" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D321" s="26" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G321" s="26">
+        <v>325</v>
+      </c>
+      <c r="H321" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I321" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J321" s="16" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K321" s="26">
+        <v>1601335800</v>
+      </c>
+      <c r="L321" s="30" t="s">
+        <v>1758</v>
       </c>
     </row>
   </sheetData>
@@ -23728,13 +23989,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I813"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:I820"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C791" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C795" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D808" sqref="D808"/>
+      <selection pane="bottomRight" activeCell="G820" sqref="G820"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24249,7 +24511,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="D21" s="8">
         <v>1583769600</v>
@@ -24318,7 +24580,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1056</v>
@@ -25445,7 +25707,7 @@
         <v>48</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>1054</v>
@@ -25793,7 +26055,7 @@
         <v>869</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="E88" s="8">
         <v>2</v>
@@ -25885,7 +26147,7 @@
         <v>869</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="E92" s="8">
         <v>2</v>
@@ -27863,7 +28125,7 @@
         <v>1049</v>
       </c>
       <c r="D178" s="94" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E178" s="14">
         <v>2</v>
@@ -27872,7 +28134,7 @@
         <v>4</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28254,7 +28516,7 @@
         <v>1049</v>
       </c>
       <c r="D195" s="94" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E195" s="14">
         <v>2</v>
@@ -28263,7 +28525,7 @@
         <v>4</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28274,7 +28536,7 @@
         <v>80</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>934</v>
@@ -37493,7 +37755,7 @@
         <v>1172</v>
       </c>
       <c r="D596" s="10" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E596" s="8">
         <v>5</v>
@@ -37502,7 +37764,7 @@
         <v>1</v>
       </c>
       <c r="G596" s="10" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.2">
@@ -37539,7 +37801,7 @@
         <v>1172</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -37548,7 +37810,7 @@
         <v>2</v>
       </c>
       <c r="G598" s="10" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="599" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -37562,7 +37824,7 @@
         <v>1172</v>
       </c>
       <c r="D599" s="15" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E599" s="14">
         <v>2</v>
@@ -37571,7 +37833,7 @@
         <v>3</v>
       </c>
       <c r="G599" s="15" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="600" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -37608,7 +37870,7 @@
         <v>1172</v>
       </c>
       <c r="D601" s="15" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E601" s="14">
         <v>5</v>
@@ -37617,7 +37879,7 @@
         <v>1</v>
       </c>
       <c r="G601" s="15" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="602" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -37654,7 +37916,7 @@
         <v>1172</v>
       </c>
       <c r="D603" s="15" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E603" s="14">
         <v>5</v>
@@ -37663,7 +37925,7 @@
         <v>2</v>
       </c>
       <c r="G603" s="15" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="604" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -37677,7 +37939,7 @@
         <v>1172</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E604" s="14">
         <v>2</v>
@@ -37686,7 +37948,7 @@
         <v>3</v>
       </c>
       <c r="G604" s="15" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.2">
@@ -37723,7 +37985,7 @@
         <v>1172</v>
       </c>
       <c r="D606" s="10" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E606" s="8">
         <v>5</v>
@@ -37732,7 +37994,7 @@
         <v>1</v>
       </c>
       <c r="G606" s="10" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.2">
@@ -37769,7 +38031,7 @@
         <v>1172</v>
       </c>
       <c r="D608" s="10" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E608" s="8">
         <v>5</v>
@@ -37778,7 +38040,7 @@
         <v>2</v>
       </c>
       <c r="G608" s="10" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="609" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -37792,7 +38054,7 @@
         <v>1172</v>
       </c>
       <c r="D609" s="15" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E609" s="14">
         <v>2</v>
@@ -37801,7 +38063,7 @@
         <v>3</v>
       </c>
       <c r="G609" s="15" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.2">
@@ -37838,7 +38100,7 @@
         <v>1172</v>
       </c>
       <c r="D611" s="10" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E611" s="8">
         <v>5</v>
@@ -37847,7 +38109,7 @@
         <v>1</v>
       </c>
       <c r="G611" s="10" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.2">
@@ -37884,7 +38146,7 @@
         <v>1172</v>
       </c>
       <c r="D613" s="10" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E613" s="8">
         <v>5</v>
@@ -37893,7 +38155,7 @@
         <v>2</v>
       </c>
       <c r="G613" s="10" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="614" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -37907,7 +38169,7 @@
         <v>1172</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E614" s="14">
         <v>2</v>
@@ -37916,7 +38178,7 @@
         <v>3</v>
       </c>
       <c r="G614" s="15" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.2">
@@ -37953,7 +38215,7 @@
         <v>1172</v>
       </c>
       <c r="D616" s="10" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -37962,7 +38224,7 @@
         <v>1</v>
       </c>
       <c r="G616" s="10" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.2">
@@ -37999,7 +38261,7 @@
         <v>1172</v>
       </c>
       <c r="D618" s="10" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E618" s="8">
         <v>5</v>
@@ -38008,7 +38270,7 @@
         <v>2</v>
       </c>
       <c r="G618" s="10" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="619" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -38022,7 +38284,7 @@
         <v>1172</v>
       </c>
       <c r="D619" s="15" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E619" s="14">
         <v>2</v>
@@ -38031,7 +38293,7 @@
         <v>3</v>
       </c>
       <c r="G619" s="15" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.2">
@@ -38068,7 +38330,7 @@
         <v>1172</v>
       </c>
       <c r="D621" s="10" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E621" s="8">
         <v>5</v>
@@ -38077,7 +38339,7 @@
         <v>1</v>
       </c>
       <c r="G621" s="10" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.2">
@@ -38114,7 +38376,7 @@
         <v>1172</v>
       </c>
       <c r="D623" s="10" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E623" s="8">
         <v>5</v>
@@ -38123,7 +38385,7 @@
         <v>2</v>
       </c>
       <c r="G623" s="10" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="624" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -38137,7 +38399,7 @@
         <v>1172</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E624" s="14">
         <v>2</v>
@@ -38146,7 +38408,7 @@
         <v>3</v>
       </c>
       <c r="G624" s="15" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.2">
@@ -38819,7 +39081,7 @@
         <v>1</v>
       </c>
       <c r="G653" s="10" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.2">
@@ -39095,7 +39357,7 @@
         <v>1</v>
       </c>
       <c r="G665" s="9" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.2">
@@ -39118,7 +39380,7 @@
         <v>1</v>
       </c>
       <c r="G666" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.2">
@@ -39132,7 +39394,7 @@
         <v>1172</v>
       </c>
       <c r="D667" s="10" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E667" s="8">
         <v>2</v>
@@ -39141,7 +39403,7 @@
         <v>1</v>
       </c>
       <c r="G667" s="10" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.2">
@@ -39152,7 +39414,7 @@
         <v>258</v>
       </c>
       <c r="C668" s="10" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="D668" s="10">
         <v>1598317200</v>
@@ -39164,7 +39426,7 @@
         <v>1</v>
       </c>
       <c r="G668" s="10" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.2">
@@ -39233,7 +39495,7 @@
         <v>1</v>
       </c>
       <c r="G671" s="10" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.2">
@@ -39267,7 +39529,7 @@
         <v>263</v>
       </c>
       <c r="C673" s="10" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="D673" s="10" t="s">
         <v>924</v>
@@ -39279,7 +39541,7 @@
         <v>1</v>
       </c>
       <c r="G673" s="10" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.2">
@@ -39371,7 +39633,7 @@
         <v>2</v>
       </c>
       <c r="G677" s="10" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="678" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -39428,7 +39690,7 @@
         <v>267</v>
       </c>
       <c r="C680" s="10" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="D680" s="8">
         <v>0</v>
@@ -39440,7 +39702,7 @@
         <v>1</v>
       </c>
       <c r="G680" s="10" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.2">
@@ -39451,7 +39713,7 @@
         <v>268</v>
       </c>
       <c r="C681" s="10" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D681" s="8">
         <v>1</v>
@@ -39463,7 +39725,7 @@
         <v>1</v>
       </c>
       <c r="G681" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.2">
@@ -39474,7 +39736,7 @@
         <v>269</v>
       </c>
       <c r="C682" s="10" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D682" s="8">
         <v>2</v>
@@ -39486,7 +39748,7 @@
         <v>1</v>
       </c>
       <c r="G682" s="10" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.2">
@@ -39497,7 +39759,7 @@
         <v>270</v>
       </c>
       <c r="C683" s="10" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D683" s="8">
         <v>3</v>
@@ -39509,7 +39771,7 @@
         <v>1</v>
       </c>
       <c r="G683" s="10" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.2">
@@ -39520,7 +39782,7 @@
         <v>271</v>
       </c>
       <c r="C684" s="10" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D684" s="8">
         <v>4</v>
@@ -39532,7 +39794,7 @@
         <v>1</v>
       </c>
       <c r="G684" s="10" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.2">
@@ -39543,7 +39805,7 @@
         <v>272</v>
       </c>
       <c r="C685" s="10" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D685" s="8">
         <v>5</v>
@@ -39555,7 +39817,7 @@
         <v>1</v>
       </c>
       <c r="G685" s="10" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.2">
@@ -39566,7 +39828,7 @@
         <v>273</v>
       </c>
       <c r="C686" s="10" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D686" s="8">
         <v>6</v>
@@ -39578,7 +39840,7 @@
         <v>1</v>
       </c>
       <c r="G686" s="10" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.2">
@@ -39589,7 +39851,7 @@
         <v>274</v>
       </c>
       <c r="C687" s="10" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D687" s="8">
         <v>7</v>
@@ -39601,7 +39863,7 @@
         <v>1</v>
       </c>
       <c r="G687" s="10" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.2">
@@ -39612,7 +39874,7 @@
         <v>275</v>
       </c>
       <c r="C688" s="10" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D688" s="8">
         <v>8</v>
@@ -39624,7 +39886,7 @@
         <v>1</v>
       </c>
       <c r="G688" s="10" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.2">
@@ -39635,7 +39897,7 @@
         <v>276</v>
       </c>
       <c r="C689" s="10" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D689" s="8">
         <v>9</v>
@@ -39647,7 +39909,7 @@
         <v>1</v>
       </c>
       <c r="G689" s="10" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.2">
@@ -39658,7 +39920,7 @@
         <v>277</v>
       </c>
       <c r="C690" s="10" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D690" s="8">
         <v>10</v>
@@ -39670,7 +39932,7 @@
         <v>1</v>
       </c>
       <c r="G690" s="10" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.2">
@@ -39681,7 +39943,7 @@
         <v>278</v>
       </c>
       <c r="C691" s="10" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D691" s="8">
         <v>11</v>
@@ -39693,7 +39955,7 @@
         <v>1</v>
       </c>
       <c r="G691" s="10" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.2">
@@ -39704,7 +39966,7 @@
         <v>279</v>
       </c>
       <c r="C692" s="10" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D692" s="8">
         <v>12</v>
@@ -39716,7 +39978,7 @@
         <v>1</v>
       </c>
       <c r="G692" s="10" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.2">
@@ -39785,7 +40047,7 @@
         <v>1</v>
       </c>
       <c r="G695" s="10" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.2">
@@ -39796,10 +40058,10 @@
         <v>282</v>
       </c>
       <c r="C696" s="10" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="D696" s="10" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E696" s="8">
         <v>2</v>
@@ -39808,7 +40070,7 @@
         <v>1</v>
       </c>
       <c r="G696" s="10" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.2">
@@ -39865,7 +40127,7 @@
         <v>284</v>
       </c>
       <c r="C699" s="10" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="D699" s="8">
         <v>1</v>
@@ -39877,7 +40139,7 @@
         <v>1</v>
       </c>
       <c r="G699" s="10" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.2">
@@ -39888,7 +40150,7 @@
         <v>284</v>
       </c>
       <c r="C700" s="10" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D700" s="8">
         <v>3</v>
@@ -39911,7 +40173,7 @@
         <v>285</v>
       </c>
       <c r="C701" s="10" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="D701" s="8">
         <v>4</v>
@@ -39934,7 +40196,7 @@
         <v>285</v>
       </c>
       <c r="C702" s="10" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="D702" s="8">
         <v>6</v>
@@ -39946,7 +40208,7 @@
         <v>1</v>
       </c>
       <c r="G702" s="10" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.2">
@@ -39957,7 +40219,7 @@
         <v>286</v>
       </c>
       <c r="C703" s="10" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="D703" s="8">
         <v>7</v>
@@ -39969,7 +40231,7 @@
         <v>1</v>
       </c>
       <c r="G703" s="10" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.2">
@@ -39980,7 +40242,7 @@
         <v>286</v>
       </c>
       <c r="C704" s="53" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D704" s="9">
         <v>10</v>
@@ -40003,10 +40265,10 @@
         <v>287</v>
       </c>
       <c r="C705" s="10" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="D705" s="10" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="E705" s="8">
         <v>2</v>
@@ -40015,7 +40277,7 @@
         <v>1</v>
       </c>
       <c r="G705" s="10" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="706" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40029,7 +40291,7 @@
         <v>1173</v>
       </c>
       <c r="D706" s="10" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E706" s="8">
         <v>2</v>
@@ -40038,7 +40300,7 @@
         <v>2</v>
       </c>
       <c r="G706" s="10" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.2">
@@ -40072,10 +40334,10 @@
         <v>288</v>
       </c>
       <c r="C708" s="10" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="D708" s="10" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="E708" s="8">
         <v>5</v>
@@ -40084,7 +40346,7 @@
         <v>1</v>
       </c>
       <c r="G708" s="10" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.2">
@@ -40118,10 +40380,10 @@
         <v>288</v>
       </c>
       <c r="C710" s="10" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="D710" s="10" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="E710" s="8">
         <v>5</v>
@@ -40130,7 +40392,7 @@
         <v>2</v>
       </c>
       <c r="G710" s="10" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.2">
@@ -40153,7 +40415,7 @@
         <v>1</v>
       </c>
       <c r="G711" s="10" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.2">
@@ -40187,10 +40449,10 @@
         <v>289</v>
       </c>
       <c r="C713" s="8" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="D713" s="10" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E713" s="8">
         <v>5</v>
@@ -40199,7 +40461,7 @@
         <v>1</v>
       </c>
       <c r="G713" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.2">
@@ -40210,10 +40472,10 @@
         <v>289</v>
       </c>
       <c r="C714" s="10" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="D714" s="10" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="E714" s="8">
         <v>5</v>
@@ -40222,7 +40484,7 @@
         <v>1</v>
       </c>
       <c r="G714" s="10" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.2">
@@ -40233,10 +40495,10 @@
         <v>290</v>
       </c>
       <c r="C715" s="8" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="D715" s="10" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E715" s="8">
         <v>5</v>
@@ -40245,7 +40507,7 @@
         <v>1</v>
       </c>
       <c r="G715" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.2">
@@ -40268,7 +40530,7 @@
         <v>1</v>
       </c>
       <c r="G716" s="8" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.2">
@@ -40291,7 +40553,7 @@
         <v>1</v>
       </c>
       <c r="G717" s="8" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.2">
@@ -40302,10 +40564,10 @@
         <v>290</v>
       </c>
       <c r="C718" s="10" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="D718" s="10" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="E718" s="8">
         <v>5</v>
@@ -40314,7 +40576,7 @@
         <v>1</v>
       </c>
       <c r="G718" s="10" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.2">
@@ -40371,10 +40633,10 @@
         <v>291</v>
       </c>
       <c r="C721" s="8" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="D721" s="10" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E721" s="8">
         <v>5</v>
@@ -40383,7 +40645,7 @@
         <v>1</v>
       </c>
       <c r="G721" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.2">
@@ -40394,10 +40656,10 @@
         <v>291</v>
       </c>
       <c r="C722" s="10" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="D722" s="10" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="E722" s="8">
         <v>5</v>
@@ -40406,7 +40668,7 @@
         <v>1</v>
       </c>
       <c r="G722" s="10" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="723" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40420,7 +40682,7 @@
         <v>1172</v>
       </c>
       <c r="D723" s="10" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E723" s="8">
         <v>2</v>
@@ -40429,7 +40691,7 @@
         <v>1</v>
       </c>
       <c r="G723" s="10" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.2">
@@ -40443,7 +40705,7 @@
         <v>1069</v>
       </c>
       <c r="D724" s="10" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E724" s="8">
         <v>5</v>
@@ -40452,7 +40714,7 @@
         <v>1</v>
       </c>
       <c r="G724" s="10" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.2">
@@ -40498,7 +40760,7 @@
         <v>1</v>
       </c>
       <c r="G726" s="10" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.2">
@@ -40509,10 +40771,10 @@
         <v>293</v>
       </c>
       <c r="C727" s="10" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="D727" s="10" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="E727" s="8">
         <v>5</v>
@@ -40521,7 +40783,7 @@
         <v>1</v>
       </c>
       <c r="G727" s="10" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.2">
@@ -40535,7 +40797,7 @@
         <v>1069</v>
       </c>
       <c r="D728" s="19" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E728" s="77">
         <v>5</v>
@@ -40544,7 +40806,7 @@
         <v>1</v>
       </c>
       <c r="G728" s="19" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.2">
@@ -40604,7 +40866,7 @@
         <v>1172</v>
       </c>
       <c r="D731" s="19" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E731" s="77">
         <v>5</v>
@@ -40613,7 +40875,7 @@
         <v>1</v>
       </c>
       <c r="G731" s="19" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.2">
@@ -40627,7 +40889,7 @@
         <v>1069</v>
       </c>
       <c r="D732" s="19" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E732" s="77">
         <v>5</v>
@@ -40636,7 +40898,7 @@
         <v>1</v>
       </c>
       <c r="G732" s="19" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.2">
@@ -40659,7 +40921,7 @@
         <v>1</v>
       </c>
       <c r="G733" s="19" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.2">
@@ -40682,7 +40944,7 @@
         <v>1</v>
       </c>
       <c r="G734" s="19" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.2">
@@ -40696,7 +40958,7 @@
         <v>1172</v>
       </c>
       <c r="D735" s="19" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E735" s="77">
         <v>5</v>
@@ -40705,7 +40967,7 @@
         <v>1</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.2">
@@ -40719,7 +40981,7 @@
         <v>1069</v>
       </c>
       <c r="D736" s="19" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E736" s="77">
         <v>5</v>
@@ -40728,7 +40990,7 @@
         <v>1</v>
       </c>
       <c r="G736" s="19" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.2">
@@ -40751,7 +41013,7 @@
         <v>1</v>
       </c>
       <c r="G737" s="19" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.2">
@@ -40774,7 +41036,7 @@
         <v>1</v>
       </c>
       <c r="G738" s="19" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.2">
@@ -40788,7 +41050,7 @@
         <v>1172</v>
       </c>
       <c r="D739" s="19" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E739" s="77">
         <v>5</v>
@@ -40797,7 +41059,7 @@
         <v>1</v>
       </c>
       <c r="G739" s="19" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.2">
@@ -40811,7 +41073,7 @@
         <v>1069</v>
       </c>
       <c r="D740" s="19" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E740" s="77">
         <v>5</v>
@@ -40820,7 +41082,7 @@
         <v>1</v>
       </c>
       <c r="G740" s="19" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.2">
@@ -40857,7 +41119,7 @@
         <v>1172</v>
       </c>
       <c r="D742" s="19" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E742" s="77">
         <v>5</v>
@@ -40866,7 +41128,7 @@
         <v>1</v>
       </c>
       <c r="G742" s="19" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="743" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -40958,7 +41220,7 @@
         <v>1</v>
       </c>
       <c r="G746" s="10" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.2">
@@ -41004,7 +41266,7 @@
         <v>1</v>
       </c>
       <c r="G748" s="15" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.2">
@@ -41015,7 +41277,7 @@
         <v>301</v>
       </c>
       <c r="C749" s="10" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="D749" s="8">
         <v>4</v>
@@ -41038,7 +41300,7 @@
         <v>301</v>
       </c>
       <c r="C750" s="10" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="D750" s="8">
         <v>6</v>
@@ -41050,7 +41312,7 @@
         <v>1</v>
       </c>
       <c r="G750" s="10" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="751" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -41073,7 +41335,7 @@
         <v>1</v>
       </c>
       <c r="G751" s="15" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="752" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -41096,7 +41358,7 @@
         <v>1</v>
       </c>
       <c r="G752" s="15" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="753" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -41142,7 +41404,7 @@
         <v>1</v>
       </c>
       <c r="G754" s="15" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.2">
@@ -41156,7 +41418,7 @@
         <v>1069</v>
       </c>
       <c r="D755" s="10" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="E755" s="8">
         <v>2</v>
@@ -41222,7 +41484,7 @@
         <v>304</v>
       </c>
       <c r="C758" s="10" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="D758" s="8">
         <v>4</v>
@@ -41245,7 +41507,7 @@
         <v>304</v>
       </c>
       <c r="C759" s="10" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="D759" s="8">
         <v>10</v>
@@ -41280,7 +41542,7 @@
         <v>1</v>
       </c>
       <c r="G760" s="15" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.2">
@@ -41317,7 +41579,7 @@
         <v>1049</v>
       </c>
       <c r="D762" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E762" s="8">
         <v>2</v>
@@ -41326,7 +41588,7 @@
         <v>1</v>
       </c>
       <c r="G762" s="10" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.2">
@@ -41363,7 +41625,7 @@
         <v>1049</v>
       </c>
       <c r="D764" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E764" s="8">
         <v>2</v>
@@ -41372,7 +41634,7 @@
         <v>2</v>
       </c>
       <c r="G764" s="10" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.2">
@@ -41409,7 +41671,7 @@
         <v>1049</v>
       </c>
       <c r="D766" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E766" s="8">
         <v>2</v>
@@ -41418,7 +41680,7 @@
         <v>3</v>
       </c>
       <c r="G766" s="10" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.2">
@@ -41441,7 +41703,7 @@
         <v>1</v>
       </c>
       <c r="G767" s="10" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.2">
@@ -41478,7 +41740,7 @@
         <v>1049</v>
       </c>
       <c r="D769" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E769" s="8">
         <v>2</v>
@@ -41487,7 +41749,7 @@
         <v>1</v>
       </c>
       <c r="G769" s="10" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="770" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -41510,7 +41772,7 @@
         <v>1</v>
       </c>
       <c r="G770" s="15" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
@@ -41521,7 +41783,7 @@
         <v>307</v>
       </c>
       <c r="C771" s="10" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="D771" s="8">
         <v>4</v>
@@ -41544,7 +41806,7 @@
         <v>307</v>
       </c>
       <c r="C772" s="10" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="D772" s="8">
         <v>6</v>
@@ -41556,7 +41818,7 @@
         <v>1</v>
       </c>
       <c r="G772" s="10" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.2">
@@ -41570,7 +41832,7 @@
         <v>1049</v>
       </c>
       <c r="D773" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E773" s="8">
         <v>2</v>
@@ -41579,7 +41841,7 @@
         <v>1</v>
       </c>
       <c r="G773" s="10" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="774" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -41602,7 +41864,7 @@
         <v>1</v>
       </c>
       <c r="G774" s="15" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.2">
@@ -41625,7 +41887,7 @@
         <v>1</v>
       </c>
       <c r="G775" s="10" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.2">
@@ -41671,7 +41933,7 @@
         <v>1</v>
       </c>
       <c r="G777" s="15" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.2">
@@ -41685,7 +41947,7 @@
         <v>1049</v>
       </c>
       <c r="D778" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E778" s="8">
         <v>2</v>
@@ -41694,7 +41956,7 @@
         <v>1</v>
       </c>
       <c r="G778" s="10" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.2">
@@ -41708,7 +41970,7 @@
         <v>1049</v>
       </c>
       <c r="D779" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E779" s="8">
         <v>2</v>
@@ -41717,7 +41979,7 @@
         <v>1</v>
       </c>
       <c r="G779" s="10" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.2">
@@ -41731,7 +41993,7 @@
         <v>1049</v>
       </c>
       <c r="D780" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E780" s="8">
         <v>5</v>
@@ -41740,7 +42002,7 @@
         <v>1</v>
       </c>
       <c r="G780" s="10" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.2">
@@ -41754,7 +42016,7 @@
         <v>1069</v>
       </c>
       <c r="D781" s="10" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="E781" s="8">
         <v>2</v>
@@ -41777,7 +42039,7 @@
         <v>1049</v>
       </c>
       <c r="D782" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E782" s="8">
         <v>5</v>
@@ -41786,7 +42048,7 @@
         <v>1</v>
       </c>
       <c r="G782" s="10" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.2">
@@ -41823,7 +42085,7 @@
         <v>1049</v>
       </c>
       <c r="D784" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E784" s="8">
         <v>5</v>
@@ -41832,7 +42094,7 @@
         <v>2</v>
       </c>
       <c r="G784" s="10" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.2">
@@ -41869,7 +42131,7 @@
         <v>1049</v>
       </c>
       <c r="D786" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E786" s="8">
         <v>5</v>
@@ -41878,7 +42140,7 @@
         <v>3</v>
       </c>
       <c r="G786" s="10" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.2">
@@ -41938,7 +42200,7 @@
         <v>1049</v>
       </c>
       <c r="D789" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E789" s="8">
         <v>5</v>
@@ -41947,7 +42209,7 @@
         <v>1</v>
       </c>
       <c r="G789" s="10" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="790" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -41970,7 +42232,7 @@
         <v>1</v>
       </c>
       <c r="G790" s="15" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
@@ -42016,7 +42278,7 @@
         <v>1</v>
       </c>
       <c r="G792" s="10" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.2">
@@ -42030,7 +42292,7 @@
         <v>1049</v>
       </c>
       <c r="D793" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E793" s="8">
         <v>5</v>
@@ -42039,7 +42301,7 @@
         <v>1</v>
       </c>
       <c r="G793" s="10" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="794" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42062,7 +42324,7 @@
         <v>1</v>
       </c>
       <c r="G794" s="15" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.2">
@@ -42085,7 +42347,7 @@
         <v>1</v>
       </c>
       <c r="G795" s="10" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.2">
@@ -42131,7 +42393,7 @@
         <v>1</v>
       </c>
       <c r="G797" s="15" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.2">
@@ -42145,7 +42407,7 @@
         <v>1049</v>
       </c>
       <c r="D798" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E798" s="8">
         <v>5</v>
@@ -42154,7 +42416,7 @@
         <v>1</v>
       </c>
       <c r="G798" s="10" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.2">
@@ -42168,7 +42430,7 @@
         <v>1049</v>
       </c>
       <c r="D799" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E799" s="8">
         <v>5</v>
@@ -42177,7 +42439,7 @@
         <v>1</v>
       </c>
       <c r="G799" s="10" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.2">
@@ -42191,7 +42453,7 @@
         <v>1049</v>
       </c>
       <c r="D800" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E800" s="9">
         <v>2</v>
@@ -42200,7 +42462,7 @@
         <v>1</v>
       </c>
       <c r="G800" s="53" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.2">
@@ -42214,7 +42476,7 @@
         <v>1049</v>
       </c>
       <c r="D801" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E801" s="8">
         <v>5</v>
@@ -42223,7 +42485,7 @@
         <v>1</v>
       </c>
       <c r="G801" s="10" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.2">
@@ -42237,7 +42499,7 @@
         <v>1049</v>
       </c>
       <c r="D802" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E802" s="9">
         <v>2</v>
@@ -42246,7 +42508,7 @@
         <v>1</v>
       </c>
       <c r="G802" s="53" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.2">
@@ -42260,7 +42522,7 @@
         <v>1049</v>
       </c>
       <c r="D803" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E803" s="8">
         <v>5</v>
@@ -42269,7 +42531,7 @@
         <v>1</v>
       </c>
       <c r="G803" s="10" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.2">
@@ -42283,7 +42545,7 @@
         <v>1049</v>
       </c>
       <c r="D804" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E804" s="9">
         <v>2</v>
@@ -42292,7 +42554,7 @@
         <v>1</v>
       </c>
       <c r="G804" s="53" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.2">
@@ -42306,7 +42568,7 @@
         <v>1049</v>
       </c>
       <c r="D805" s="10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E805" s="9">
         <v>5</v>
@@ -42315,7 +42577,7 @@
         <v>1</v>
       </c>
       <c r="G805" s="9" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.2">
@@ -42342,40 +42604,40 @@
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A807" s="14">
+      <c r="A807" s="9">
         <v>806</v>
       </c>
-      <c r="B807" s="8">
+      <c r="B807" s="9">
         <v>322</v>
       </c>
       <c r="C807" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D807" s="10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E807" s="9">
+        <v>5</v>
+      </c>
+      <c r="F807" s="8">
+        <v>1</v>
+      </c>
+      <c r="G807" s="9" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A808" s="9">
+        <v>807</v>
+      </c>
+      <c r="B808" s="9">
+        <v>322</v>
+      </c>
+      <c r="C808" s="10" t="s">
         <v>1069</v>
       </c>
-      <c r="D807" s="10" t="s">
+      <c r="D808" s="10" t="s">
         <v>1245</v>
-      </c>
-      <c r="E807" s="8">
-        <v>2</v>
-      </c>
-      <c r="F807" s="8">
-        <v>1</v>
-      </c>
-      <c r="G807" s="10" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A808" s="14">
-        <v>807</v>
-      </c>
-      <c r="B808" s="8">
-        <v>322</v>
-      </c>
-      <c r="C808" s="10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D808" s="10" t="s">
-        <v>1711</v>
       </c>
       <c r="E808" s="8">
         <v>5</v>
@@ -42384,103 +42646,284 @@
         <v>1</v>
       </c>
       <c r="G808" s="10" t="s">
-        <v>1666</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A809" s="14">
+      <c r="A809" s="9">
         <v>808</v>
       </c>
-      <c r="B809" s="8">
+      <c r="B809" s="9">
         <v>322</v>
       </c>
       <c r="C809" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D809" s="8">
+        <v>4</v>
+      </c>
+      <c r="E809" s="8">
+        <v>3</v>
+      </c>
+      <c r="F809" s="8">
+        <v>1</v>
+      </c>
+      <c r="G809" s="10" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A810" s="9">
+        <v>809</v>
+      </c>
+      <c r="B810" s="9">
+        <v>322</v>
+      </c>
+      <c r="C810" s="53" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D810" s="9">
+        <v>10</v>
+      </c>
+      <c r="E810" s="9">
+        <v>4</v>
+      </c>
+      <c r="F810" s="9">
+        <v>1</v>
+      </c>
+      <c r="G810" s="10" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A811" s="9">
+        <v>810</v>
+      </c>
+      <c r="B811" s="9">
+        <v>323</v>
+      </c>
+      <c r="C811" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D811" s="10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E811" s="9">
+        <v>5</v>
+      </c>
+      <c r="F811" s="8">
+        <v>1</v>
+      </c>
+      <c r="G811" s="9" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A812" s="9">
+        <v>811</v>
+      </c>
+      <c r="B812" s="8">
+        <v>324</v>
+      </c>
+      <c r="C812" s="10" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D812" s="10" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E812" s="8">
+        <v>2</v>
+      </c>
+      <c r="F812" s="8">
+        <v>1</v>
+      </c>
+      <c r="G812" s="10" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A813" s="9">
+        <v>812</v>
+      </c>
+      <c r="B813" s="8">
+        <v>324</v>
+      </c>
+      <c r="C813" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D813" s="10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E813" s="8">
+        <v>5</v>
+      </c>
+      <c r="F813" s="8">
+        <v>1</v>
+      </c>
+      <c r="G813" s="10" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A814" s="9">
+        <v>813</v>
+      </c>
+      <c r="B814" s="8">
+        <v>324</v>
+      </c>
+      <c r="C814" s="10" t="s">
         <v>869</v>
       </c>
-      <c r="D809" s="10" t="s">
+      <c r="D814" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="E809" s="8">
-        <v>2</v>
-      </c>
-      <c r="F809" s="8">
-        <v>2</v>
-      </c>
-      <c r="G809" s="10" t="s">
+      <c r="E814" s="8">
+        <v>2</v>
+      </c>
+      <c r="F814" s="8">
+        <v>2</v>
+      </c>
+      <c r="G814" s="10" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A810" s="14">
-        <v>809</v>
-      </c>
-      <c r="B810" s="8">
-        <v>322</v>
-      </c>
-      <c r="C810" s="10" t="s">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A815" s="9">
+        <v>814</v>
+      </c>
+      <c r="B815" s="8">
+        <v>324</v>
+      </c>
+      <c r="C815" s="10" t="s">
         <v>1049</v>
       </c>
-      <c r="D810" s="10" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E810" s="8">
+      <c r="D815" s="10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E815" s="8">
         <v>5</v>
       </c>
-      <c r="F810" s="8">
-        <v>2</v>
-      </c>
-      <c r="G810" s="10" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A811" s="14">
-        <v>810</v>
-      </c>
-      <c r="B811" s="8">
-        <v>322</v>
-      </c>
-      <c r="C811" s="10" t="s">
+      <c r="F815" s="8">
+        <v>2</v>
+      </c>
+      <c r="G815" s="10" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A816" s="9">
+        <v>815</v>
+      </c>
+      <c r="B816" s="8">
+        <v>324</v>
+      </c>
+      <c r="C816" s="10" t="s">
         <v>869</v>
       </c>
-      <c r="D811" s="10" t="s">
+      <c r="D816" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="E811" s="8">
-        <v>2</v>
-      </c>
-      <c r="F811" s="8">
+      <c r="E816" s="8">
+        <v>2</v>
+      </c>
+      <c r="F816" s="8">
         <v>3</v>
       </c>
-      <c r="G811" s="10" t="s">
+      <c r="G816" s="10" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A812" s="14">
-        <v>811</v>
-      </c>
-      <c r="B812" s="8">
-        <v>322</v>
-      </c>
-      <c r="C812" s="10" t="s">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A817" s="9">
+        <v>816</v>
+      </c>
+      <c r="B817" s="8">
+        <v>324</v>
+      </c>
+      <c r="C817" s="10" t="s">
         <v>1049</v>
       </c>
-      <c r="D812" s="10" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E812" s="8">
+      <c r="D817" s="10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E817" s="8">
         <v>5</v>
       </c>
-      <c r="F812" s="8">
+      <c r="F817" s="8">
         <v>3</v>
       </c>
-      <c r="G812" s="10" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A813" s="14"/>
+      <c r="G817" s="10" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A818" s="9">
+        <v>817</v>
+      </c>
+      <c r="B818" s="9">
+        <v>325</v>
+      </c>
+      <c r="C818" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D818" s="10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E818" s="9">
+        <v>5</v>
+      </c>
+      <c r="F818" s="8">
+        <v>1</v>
+      </c>
+      <c r="G818" s="9" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A819" s="9">
+        <v>818</v>
+      </c>
+      <c r="B819" s="9">
+        <v>326</v>
+      </c>
+      <c r="C819" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D819" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E819" s="9">
+        <v>2</v>
+      </c>
+      <c r="F819" s="8">
+        <v>1</v>
+      </c>
+      <c r="G819" s="9" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A820" s="9">
+        <v>819</v>
+      </c>
+      <c r="B820" s="9">
+        <v>327</v>
+      </c>
+      <c r="C820" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D820" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E820" s="9">
+        <v>5</v>
+      </c>
+      <c r="F820" s="8">
+        <v>1</v>
+      </c>
+      <c r="G820" s="53" t="s">
+        <v>1787</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -42491,10 +42934,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42535,7 +42979,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>901</v>
@@ -42604,13 +43048,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>901</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1549</v>
+        <v>1780</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -42627,13 +43071,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>901</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1560</v>
+        <v>1781</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -42642,7 +43086,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -42650,13 +43094,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>901</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -42665,7 +43109,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -42673,13 +43117,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>901</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>1664</v>
+        <v>1782</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -42688,17 +43132,42 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1665</v>
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="93">
+        <v>8</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>1775</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4217" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4205" uniqueCount="1789">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -6840,10 +6840,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>vivo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>share_condition</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6853,10 +6849,6 @@
   </si>
   <si>
     <t>market_channel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>是VIVO渠道的用户</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -8203,6 +8195,18 @@
   </si>
   <si>
     <t>不是冲金鸡渠道</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cps</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是CPS用户</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8951,7 +8955,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C385" sqref="C385"/>
+      <selection pane="bottomLeft" activeCell="B376" sqref="B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10136,7 +10140,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -10154,7 +10158,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -10172,7 +10176,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -10190,7 +10194,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -10208,7 +10212,7 @@
         <v>137</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C74" s="57"/>
       <c r="D74" s="9"/>
@@ -10220,7 +10224,7 @@
         <v>138</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="C75" s="57"/>
       <c r="D75" s="9"/>
@@ -10233,7 +10237,7 @@
         <v>139</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C76" s="57"/>
       <c r="D76" s="9"/>
@@ -10246,7 +10250,7 @@
         <v>140</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C77" s="57">
         <v>22</v>
@@ -10261,7 +10265,7 @@
         <v>141</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="C78" s="9">
         <v>23</v>
@@ -10276,7 +10280,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="C79" s="9">
         <v>24</v>
@@ -10291,7 +10295,7 @@
         <v>143</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="C80" s="9">
         <v>25</v>
@@ -10306,7 +10310,7 @@
         <v>144</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C81" s="9">
         <v>26</v>
@@ -10321,7 +10325,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -10893,7 +10897,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="53" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B142" s="53" t="s">
         <v>249</v>
@@ -11014,10 +11018,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="61" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C154" s="14">
         <v>267</v>
@@ -11025,10 +11029,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="61" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C155" s="14">
         <v>268</v>
@@ -11036,10 +11040,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="61" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C156" s="14">
         <v>269</v>
@@ -11047,10 +11051,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="61" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C157" s="14">
         <v>270</v>
@@ -11058,10 +11062,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="61" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C158" s="14">
         <v>271</v>
@@ -11069,10 +11073,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="61" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C159" s="14">
         <v>272</v>
@@ -11080,10 +11084,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="61" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C160" s="14">
         <v>273</v>
@@ -11091,10 +11095,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="61" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C161" s="14">
         <v>274</v>
@@ -11102,10 +11106,10 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="61" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C162" s="14">
         <v>275</v>
@@ -11113,10 +11117,10 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="61" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C163" s="14">
         <v>276</v>
@@ -11124,10 +11128,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="61" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C164" s="14">
         <v>277</v>
@@ -11135,10 +11139,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="61" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C165" s="14">
         <v>278</v>
@@ -11146,10 +11150,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="61" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C166" s="14">
         <v>279</v>
@@ -11480,7 +11484,7 @@
     </row>
     <row r="200" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="60" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B200" s="60" t="s">
         <v>328</v>
@@ -11510,7 +11514,7 @@
     </row>
     <row r="202" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="34" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B202" s="34" t="s">
         <v>333</v>
@@ -12982,10 +12986,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="27" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B369" s="27" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="C369" s="3">
         <v>256</v>
@@ -12993,10 +12997,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="C370" s="3">
         <v>257</v>
@@ -13004,10 +13008,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="27" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B372" s="27" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C372" s="3">
         <v>258</v>
@@ -13015,10 +13019,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="C374" s="3">
         <v>266</v>
@@ -13026,10 +13030,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="27" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B376" s="27" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="C376" s="3">
         <v>287</v>
@@ -13037,10 +13041,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="27" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="B378" s="27" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C378" s="3">
         <v>292</v>
@@ -13048,10 +13052,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="27" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B380" s="27" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="C380" s="3">
         <v>319</v>
@@ -13059,10 +13063,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B382" s="27" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="C382" s="3">
         <v>326</v>
@@ -13070,10 +13074,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="27" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B384" s="27" t="s">
         <v>1784</v>
-      </c>
-      <c r="B384" s="27" t="s">
-        <v>1786</v>
       </c>
       <c r="C384" s="3">
         <v>327</v>
@@ -13092,10 +13096,10 @@
   <dimension ref="A1:O321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D297" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E270" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C321" sqref="C321"/>
+      <selection pane="bottomRight" activeCell="G290" sqref="G290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13274,7 +13278,7 @@
         <v>1053</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="N4" s="34" t="s">
         <v>1185</v>
@@ -21193,7 +21197,7 @@
         <v>1</v>
       </c>
       <c r="C237" s="79" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="D237" s="79" t="s">
         <v>1210</v>
@@ -22083,10 +22087,10 @@
         <v>1</v>
       </c>
       <c r="C264" s="30" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D264" s="53" t="s">
         <v>1526</v>
-      </c>
-      <c r="D264" s="53" t="s">
-        <v>1528</v>
       </c>
       <c r="G264" s="26">
         <v>250</v>
@@ -22104,7 +22108,7 @@
         <v>1597707000</v>
       </c>
       <c r="L264" s="26" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -22115,10 +22119,10 @@
         <v>1</v>
       </c>
       <c r="C265" s="26" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D265" s="53" t="s">
         <v>1527</v>
-      </c>
-      <c r="D265" s="53" t="s">
-        <v>1529</v>
       </c>
       <c r="G265" s="26">
         <v>251</v>
@@ -22136,7 +22140,7 @@
         <v>1597707000</v>
       </c>
       <c r="L265" s="26" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -22147,10 +22151,10 @@
         <v>1</v>
       </c>
       <c r="C266" s="30" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="G266" s="26">
         <v>252</v>
@@ -22168,7 +22172,7 @@
         <v>1597680000</v>
       </c>
       <c r="L266" s="26" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -22179,10 +22183,10 @@
         <v>1</v>
       </c>
       <c r="C267" s="30" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="D267" s="30" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="G267" s="26">
         <v>253</v>
@@ -22200,7 +22204,7 @@
         <v>1597707000</v>
       </c>
       <c r="L267" s="26" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -22211,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="C268" s="30" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="D268" s="30" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="G268" s="26">
         <v>254</v>
@@ -22232,7 +22236,7 @@
         <v>1597707000</v>
       </c>
       <c r="L268" s="26" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -22243,10 +22247,10 @@
         <v>1</v>
       </c>
       <c r="C269" s="30" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D269" s="30" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="G269" s="26">
         <v>255</v>
@@ -22264,7 +22268,7 @@
         <v>1597707000</v>
       </c>
       <c r="L269" s="26" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="270" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22275,10 +22279,10 @@
         <v>1</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D270" s="16" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E270" s="17"/>
       <c r="F270" s="17"/>
@@ -22292,13 +22296,13 @@
         <v>1</v>
       </c>
       <c r="J270" s="16" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="K270" s="17">
         <v>1598311800</v>
       </c>
       <c r="L270" s="16" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="271" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22309,10 +22313,10 @@
         <v>1</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D271" s="16" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="E271" s="17"/>
       <c r="F271" s="17"/>
@@ -22326,13 +22330,13 @@
         <v>1</v>
       </c>
       <c r="J271" s="16" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="K271" s="17">
         <v>1598311800</v>
       </c>
       <c r="L271" s="16" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="272" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22343,10 +22347,10 @@
         <v>1</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D272" s="16" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="E272" s="17"/>
       <c r="F272" s="17"/>
@@ -22366,7 +22370,7 @@
         <v>1598311800</v>
       </c>
       <c r="L272" s="16" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="273" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22377,10 +22381,10 @@
         <v>1</v>
       </c>
       <c r="C273" s="17" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="E273" s="17"/>
       <c r="F273" s="17"/>
@@ -22400,7 +22404,7 @@
         <v>1598311800</v>
       </c>
       <c r="L273" s="16" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="274" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22411,10 +22415,10 @@
         <v>1</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="D274" s="16" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="E274" s="17"/>
       <c r="F274" s="17"/>
@@ -22434,7 +22438,7 @@
         <v>1598311800</v>
       </c>
       <c r="L274" s="16" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="275" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22445,10 +22449,10 @@
         <v>1</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D275" s="16" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="E275" s="17"/>
       <c r="F275" s="17"/>
@@ -22468,7 +22472,7 @@
         <v>1598284800</v>
       </c>
       <c r="L275" s="16" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="276" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22479,10 +22483,10 @@
         <v>1</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="D276" s="16" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E276" s="17"/>
       <c r="F276" s="17"/>
@@ -22502,7 +22506,7 @@
         <v>1598284800</v>
       </c>
       <c r="L276" s="16" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="277" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22513,10 +22517,10 @@
         <v>1</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D277" s="16" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E277" s="17"/>
       <c r="F277" s="17"/>
@@ -22530,13 +22534,13 @@
         <v>1</v>
       </c>
       <c r="J277" s="16" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="K277" s="17">
         <v>1598916600</v>
       </c>
       <c r="L277" s="16" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="278" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22547,10 +22551,10 @@
         <v>1</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D278" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="E278" s="17"/>
       <c r="F278" s="17"/>
@@ -22570,7 +22574,7 @@
         <v>1598889600</v>
       </c>
       <c r="L278" s="16" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="279" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
@@ -22581,10 +22585,10 @@
         <v>0</v>
       </c>
       <c r="C279" s="96" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D279" s="96" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="E279" s="95"/>
       <c r="F279" s="95"/>
@@ -22615,10 +22619,10 @@
         <v>0</v>
       </c>
       <c r="C280" s="96" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="D280" s="96" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="E280" s="95"/>
       <c r="F280" s="95"/>
@@ -22649,10 +22653,10 @@
         <v>0</v>
       </c>
       <c r="C281" s="96" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D281" s="96" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="E281" s="95"/>
       <c r="F281" s="95"/>
@@ -22683,10 +22687,10 @@
         <v>0</v>
       </c>
       <c r="C282" s="96" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="D282" s="96" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="E282" s="95"/>
       <c r="F282" s="95"/>
@@ -22717,10 +22721,10 @@
         <v>0</v>
       </c>
       <c r="C283" s="96" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="D283" s="96" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="E283" s="95"/>
       <c r="F283" s="95"/>
@@ -22751,10 +22755,10 @@
         <v>1</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="E284" s="17"/>
       <c r="F284" s="17"/>
@@ -22768,13 +22772,13 @@
         <v>1</v>
       </c>
       <c r="J284" s="16" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="K284" s="17">
         <v>1599521400</v>
       </c>
       <c r="L284" s="17" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="285" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22785,10 +22789,10 @@
         <v>1</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="E285" s="17"/>
       <c r="F285" s="17"/>
@@ -22808,7 +22812,7 @@
         <v>1599494400</v>
       </c>
       <c r="L285" s="17" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="286" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22819,10 +22823,10 @@
         <v>1</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="E286" s="17"/>
       <c r="F286" s="17"/>
@@ -22842,7 +22846,7 @@
         <v>1599523200</v>
       </c>
       <c r="L286" s="17" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="287" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22853,10 +22857,10 @@
         <v>1</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="E287" s="17"/>
       <c r="F287" s="17"/>
@@ -22876,7 +22880,7 @@
         <v>1599523200</v>
       </c>
       <c r="L287" s="17" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="288" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22887,10 +22891,10 @@
         <v>1</v>
       </c>
       <c r="C288" s="16" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D288" s="16" t="s">
         <v>1665</v>
-      </c>
-      <c r="D288" s="16" t="s">
-        <v>1667</v>
       </c>
       <c r="E288" s="17"/>
       <c r="F288" s="17"/>
@@ -22910,7 +22914,7 @@
         <v>1599494400</v>
       </c>
       <c r="L288" s="17" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="289" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22921,10 +22925,10 @@
         <v>1</v>
       </c>
       <c r="C289" s="78" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="D289" s="78" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="E289" s="78"/>
       <c r="F289" s="78"/>
@@ -22938,13 +22942,13 @@
         <v>1</v>
       </c>
       <c r="J289" s="78" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="K289" s="78">
         <v>1600128000</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22955,10 +22959,10 @@
         <v>1</v>
       </c>
       <c r="C290" s="78" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D290" s="78" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="E290" s="78"/>
       <c r="F290" s="78"/>
@@ -22972,13 +22976,13 @@
         <v>1</v>
       </c>
       <c r="J290" s="78" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="K290" s="78">
         <v>1600128000</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22989,10 +22993,10 @@
         <v>1</v>
       </c>
       <c r="C291" s="79" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="D291" s="78" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="E291" s="78"/>
       <c r="F291" s="78"/>
@@ -23006,13 +23010,13 @@
         <v>1</v>
       </c>
       <c r="J291" s="78" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="K291" s="78">
         <v>1600128000</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23023,10 +23027,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -23040,13 +23044,13 @@
         <v>1</v>
       </c>
       <c r="J292" s="78" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="K292" s="78">
         <v>1600099200</v>
       </c>
       <c r="L292" s="78" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -23057,10 +23061,10 @@
         <v>1</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="G293" s="17">
         <v>298</v>
@@ -23089,10 +23093,10 @@
         <v>1</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="D294" s="16" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="G294" s="17">
         <v>299</v>
@@ -23121,10 +23125,10 @@
         <v>1</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="G295" s="17">
         <v>300</v>
@@ -23153,10 +23157,10 @@
         <v>1</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D296" s="16" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="G296" s="17">
         <v>301</v>
@@ -23185,10 +23189,10 @@
         <v>1</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D297" s="16" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="G297" s="17">
         <v>302</v>
@@ -23217,10 +23221,10 @@
         <v>1</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="G298" s="17">
         <v>303</v>
@@ -23249,10 +23253,10 @@
         <v>1</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="G299" s="17">
         <v>304</v>
@@ -23281,10 +23285,10 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="G300" s="17">
         <v>305</v>
@@ -23313,10 +23317,10 @@
         <v>1</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="G301" s="17">
         <v>306</v>
@@ -23345,10 +23349,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="G302" s="17">
         <v>307</v>
@@ -23377,10 +23381,10 @@
         <v>1</v>
       </c>
       <c r="C303" s="30" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D303" s="16" t="s">
         <v>1709</v>
-      </c>
-      <c r="D303" s="16" t="s">
-        <v>1711</v>
       </c>
       <c r="G303" s="17">
         <v>308</v>
@@ -23409,10 +23413,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D304" s="30" t="s">
         <v>1710</v>
-      </c>
-      <c r="D304" s="30" t="s">
-        <v>1712</v>
       </c>
       <c r="G304" s="26">
         <v>309</v>
@@ -23441,10 +23445,10 @@
         <v>1</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="G305" s="26">
         <v>310</v>
@@ -23473,10 +23477,10 @@
         <v>1</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="G306" s="26">
         <v>311</v>
@@ -23505,10 +23509,10 @@
         <v>1</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="G307" s="26">
         <v>312</v>
@@ -23537,10 +23541,10 @@
         <v>1</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D308" s="16" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="G308" s="26">
         <v>313</v>
@@ -23569,10 +23573,10 @@
         <v>1</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D309" s="16" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="G309" s="26">
         <v>314</v>
@@ -23601,10 +23605,10 @@
         <v>1</v>
       </c>
       <c r="C310" s="30" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D310" s="30" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="G310" s="26">
         <v>315</v>
@@ -23633,10 +23637,10 @@
         <v>1</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="G311" s="26">
         <v>316</v>
@@ -23665,10 +23669,10 @@
         <v>1</v>
       </c>
       <c r="C312" s="30" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="D312" s="30" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="G312" s="26">
         <v>317</v>
@@ -23697,10 +23701,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="G313" s="26">
         <v>318</v>
@@ -23729,10 +23733,10 @@
         <v>1</v>
       </c>
       <c r="C314" s="30" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="D314" s="30" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="G314" s="26">
         <v>319</v>
@@ -23761,10 +23765,10 @@
         <v>1</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="G315" s="26">
         <v>320</v>
@@ -23793,10 +23797,10 @@
         <v>1</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="D316" s="16" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="E316" s="17"/>
       <c r="F316" s="17"/>
@@ -23816,7 +23820,7 @@
         <v>1600731000</v>
       </c>
       <c r="L316" s="16" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -23827,10 +23831,10 @@
         <v>1</v>
       </c>
       <c r="C317" s="30" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D317" s="30" t="s">
         <v>1761</v>
-      </c>
-      <c r="D317" s="30" t="s">
-        <v>1763</v>
       </c>
       <c r="G317" s="26">
         <v>322</v>
@@ -23848,7 +23852,7 @@
         <v>1601335800</v>
       </c>
       <c r="L317" s="30" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -23859,10 +23863,10 @@
         <v>1</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="G318" s="26">
         <v>323</v>
@@ -23880,7 +23884,7 @@
         <v>1601335800</v>
       </c>
       <c r="L318" s="30" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -23891,10 +23895,10 @@
         <v>1</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="G319" s="26">
         <v>323</v>
@@ -23912,7 +23916,7 @@
         <v>1601335800</v>
       </c>
       <c r="L319" s="30" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -23923,10 +23927,10 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="G320" s="26">
         <v>324</v>
@@ -23955,10 +23959,10 @@
         <v>1</v>
       </c>
       <c r="C321" s="30" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="D321" s="26" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="G321" s="26">
         <v>325</v>
@@ -23976,7 +23980,7 @@
         <v>1601335800</v>
       </c>
       <c r="L321" s="30" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
   </sheetData>
@@ -23990,13 +23994,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I820"/>
+  <dimension ref="A1:I816"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C795" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C675" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G820" sqref="G820"/>
+      <selection pane="bottomRight" activeCell="E706" sqref="E706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24511,7 +24515,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D21" s="8">
         <v>1583769600</v>
@@ -24580,7 +24584,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1056</v>
@@ -25362,7 +25366,7 @@
         <v>40</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>1061</v>
@@ -25707,7 +25711,7 @@
         <v>48</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>1054</v>
@@ -26055,7 +26059,7 @@
         <v>869</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="E88" s="8">
         <v>2</v>
@@ -26147,7 +26151,7 @@
         <v>869</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="E92" s="8">
         <v>2</v>
@@ -28125,7 +28129,7 @@
         <v>1049</v>
       </c>
       <c r="D178" s="94" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E178" s="14">
         <v>2</v>
@@ -28134,7 +28138,7 @@
         <v>4</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28516,7 +28520,7 @@
         <v>1049</v>
       </c>
       <c r="D195" s="94" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E195" s="14">
         <v>2</v>
@@ -28525,7 +28529,7 @@
         <v>4</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28536,7 +28540,7 @@
         <v>80</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>934</v>
@@ -36716,7 +36720,7 @@
         <v>200</v>
       </c>
       <c r="C551" s="19" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D551" s="19" t="s">
         <v>1074</v>
@@ -37755,7 +37759,7 @@
         <v>1172</v>
       </c>
       <c r="D596" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E596" s="8">
         <v>5</v>
@@ -37764,7 +37768,7 @@
         <v>1</v>
       </c>
       <c r="G596" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.2">
@@ -37801,7 +37805,7 @@
         <v>1172</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -37810,7 +37814,7 @@
         <v>2</v>
       </c>
       <c r="G598" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="599" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -37824,7 +37828,7 @@
         <v>1172</v>
       </c>
       <c r="D599" s="15" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E599" s="14">
         <v>2</v>
@@ -37833,7 +37837,7 @@
         <v>3</v>
       </c>
       <c r="G599" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="600" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -37870,7 +37874,7 @@
         <v>1172</v>
       </c>
       <c r="D601" s="15" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E601" s="14">
         <v>5</v>
@@ -37879,7 +37883,7 @@
         <v>1</v>
       </c>
       <c r="G601" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="602" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -37916,7 +37920,7 @@
         <v>1172</v>
       </c>
       <c r="D603" s="15" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E603" s="14">
         <v>5</v>
@@ -37925,7 +37929,7 @@
         <v>2</v>
       </c>
       <c r="G603" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="604" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -37939,7 +37943,7 @@
         <v>1172</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E604" s="14">
         <v>2</v>
@@ -37948,7 +37952,7 @@
         <v>3</v>
       </c>
       <c r="G604" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.2">
@@ -37985,7 +37989,7 @@
         <v>1172</v>
       </c>
       <c r="D606" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E606" s="8">
         <v>5</v>
@@ -37994,7 +37998,7 @@
         <v>1</v>
       </c>
       <c r="G606" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.2">
@@ -38031,7 +38035,7 @@
         <v>1172</v>
       </c>
       <c r="D608" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E608" s="8">
         <v>5</v>
@@ -38040,7 +38044,7 @@
         <v>2</v>
       </c>
       <c r="G608" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="609" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -38054,7 +38058,7 @@
         <v>1172</v>
       </c>
       <c r="D609" s="15" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E609" s="14">
         <v>2</v>
@@ -38063,7 +38067,7 @@
         <v>3</v>
       </c>
       <c r="G609" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.2">
@@ -38100,7 +38104,7 @@
         <v>1172</v>
       </c>
       <c r="D611" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E611" s="8">
         <v>5</v>
@@ -38109,7 +38113,7 @@
         <v>1</v>
       </c>
       <c r="G611" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.2">
@@ -38146,7 +38150,7 @@
         <v>1172</v>
       </c>
       <c r="D613" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E613" s="8">
         <v>5</v>
@@ -38155,7 +38159,7 @@
         <v>2</v>
       </c>
       <c r="G613" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="614" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -38169,7 +38173,7 @@
         <v>1172</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E614" s="14">
         <v>2</v>
@@ -38178,7 +38182,7 @@
         <v>3</v>
       </c>
       <c r="G614" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.2">
@@ -38215,7 +38219,7 @@
         <v>1172</v>
       </c>
       <c r="D616" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -38224,7 +38228,7 @@
         <v>1</v>
       </c>
       <c r="G616" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.2">
@@ -38261,7 +38265,7 @@
         <v>1172</v>
       </c>
       <c r="D618" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E618" s="8">
         <v>5</v>
@@ -38270,7 +38274,7 @@
         <v>2</v>
       </c>
       <c r="G618" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="619" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -38284,7 +38288,7 @@
         <v>1172</v>
       </c>
       <c r="D619" s="15" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E619" s="14">
         <v>2</v>
@@ -38293,7 +38297,7 @@
         <v>3</v>
       </c>
       <c r="G619" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.2">
@@ -38330,7 +38334,7 @@
         <v>1172</v>
       </c>
       <c r="D621" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E621" s="8">
         <v>5</v>
@@ -38339,7 +38343,7 @@
         <v>1</v>
       </c>
       <c r="G621" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.2">
@@ -38376,7 +38380,7 @@
         <v>1172</v>
       </c>
       <c r="D623" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E623" s="8">
         <v>5</v>
@@ -38385,7 +38389,7 @@
         <v>2</v>
       </c>
       <c r="G623" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="624" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -38399,7 +38403,7 @@
         <v>1172</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E624" s="14">
         <v>2</v>
@@ -38408,7 +38412,7 @@
         <v>3</v>
       </c>
       <c r="G624" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.2">
@@ -38930,11 +38934,11 @@
       <c r="B647" s="9">
         <v>248</v>
       </c>
-      <c r="C647" s="9" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D647" s="9" t="s">
-        <v>1518</v>
+      <c r="C647" s="53" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D647" s="53" t="s">
+        <v>1787</v>
       </c>
       <c r="E647" s="9">
         <v>2</v>
@@ -38942,8 +38946,8 @@
       <c r="F647" s="9">
         <v>1</v>
       </c>
-      <c r="G647" s="9" t="s">
-        <v>1522</v>
+      <c r="G647" s="53" t="s">
+        <v>1788</v>
       </c>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.2">
@@ -38966,7 +38970,7 @@
         <v>1</v>
       </c>
       <c r="G648" s="10" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.2">
@@ -38989,7 +38993,7 @@
         <v>2</v>
       </c>
       <c r="G649" s="10" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.2">
@@ -39081,7 +39085,7 @@
         <v>1</v>
       </c>
       <c r="G653" s="10" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.2">
@@ -39219,7 +39223,7 @@
         <v>1</v>
       </c>
       <c r="G659" s="10" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.2">
@@ -39265,7 +39269,7 @@
         <v>1</v>
       </c>
       <c r="G661" s="10" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.2">
@@ -39288,7 +39292,7 @@
         <v>1</v>
       </c>
       <c r="G662" s="10" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.2">
@@ -39357,7 +39361,7 @@
         <v>1</v>
       </c>
       <c r="G665" s="9" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.2">
@@ -39380,7 +39384,7 @@
         <v>1</v>
       </c>
       <c r="G666" s="10" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.2">
@@ -39394,7 +39398,7 @@
         <v>1172</v>
       </c>
       <c r="D667" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E667" s="8">
         <v>2</v>
@@ -39403,7 +39407,7 @@
         <v>1</v>
       </c>
       <c r="G667" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.2">
@@ -39414,7 +39418,7 @@
         <v>258</v>
       </c>
       <c r="C668" s="10" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D668" s="10">
         <v>1598317200</v>
@@ -39426,7 +39430,7 @@
         <v>1</v>
       </c>
       <c r="G668" s="10" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.2">
@@ -39495,7 +39499,7 @@
         <v>1</v>
       </c>
       <c r="G671" s="10" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.2">
@@ -39529,7 +39533,7 @@
         <v>263</v>
       </c>
       <c r="C673" s="10" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="D673" s="10" t="s">
         <v>924</v>
@@ -39541,7 +39545,7 @@
         <v>1</v>
       </c>
       <c r="G673" s="10" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.2">
@@ -39633,7 +39637,7 @@
         <v>2</v>
       </c>
       <c r="G677" s="10" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="678" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -39690,7 +39694,7 @@
         <v>267</v>
       </c>
       <c r="C680" s="10" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="D680" s="8">
         <v>0</v>
@@ -39702,7 +39706,7 @@
         <v>1</v>
       </c>
       <c r="G680" s="10" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.2">
@@ -39713,7 +39717,7 @@
         <v>268</v>
       </c>
       <c r="C681" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D681" s="8">
         <v>1</v>
@@ -39725,7 +39729,7 @@
         <v>1</v>
       </c>
       <c r="G681" s="10" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.2">
@@ -39736,7 +39740,7 @@
         <v>269</v>
       </c>
       <c r="C682" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D682" s="8">
         <v>2</v>
@@ -39748,7 +39752,7 @@
         <v>1</v>
       </c>
       <c r="G682" s="10" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.2">
@@ -39759,7 +39763,7 @@
         <v>270</v>
       </c>
       <c r="C683" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D683" s="8">
         <v>3</v>
@@ -39771,7 +39775,7 @@
         <v>1</v>
       </c>
       <c r="G683" s="10" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.2">
@@ -39782,7 +39786,7 @@
         <v>271</v>
       </c>
       <c r="C684" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D684" s="8">
         <v>4</v>
@@ -39794,7 +39798,7 @@
         <v>1</v>
       </c>
       <c r="G684" s="10" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.2">
@@ -39805,7 +39809,7 @@
         <v>272</v>
       </c>
       <c r="C685" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D685" s="8">
         <v>5</v>
@@ -39817,7 +39821,7 @@
         <v>1</v>
       </c>
       <c r="G685" s="10" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.2">
@@ -39828,7 +39832,7 @@
         <v>273</v>
       </c>
       <c r="C686" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D686" s="8">
         <v>6</v>
@@ -39840,7 +39844,7 @@
         <v>1</v>
       </c>
       <c r="G686" s="10" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.2">
@@ -39851,7 +39855,7 @@
         <v>274</v>
       </c>
       <c r="C687" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D687" s="8">
         <v>7</v>
@@ -39863,7 +39867,7 @@
         <v>1</v>
       </c>
       <c r="G687" s="10" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.2">
@@ -39874,7 +39878,7 @@
         <v>275</v>
       </c>
       <c r="C688" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D688" s="8">
         <v>8</v>
@@ -39886,7 +39890,7 @@
         <v>1</v>
       </c>
       <c r="G688" s="10" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.2">
@@ -39897,7 +39901,7 @@
         <v>276</v>
       </c>
       <c r="C689" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D689" s="8">
         <v>9</v>
@@ -39909,7 +39913,7 @@
         <v>1</v>
       </c>
       <c r="G689" s="10" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.2">
@@ -39920,7 +39924,7 @@
         <v>277</v>
       </c>
       <c r="C690" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D690" s="8">
         <v>10</v>
@@ -39932,7 +39936,7 @@
         <v>1</v>
       </c>
       <c r="G690" s="10" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.2">
@@ -39943,7 +39947,7 @@
         <v>278</v>
       </c>
       <c r="C691" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D691" s="8">
         <v>11</v>
@@ -39955,7 +39959,7 @@
         <v>1</v>
       </c>
       <c r="G691" s="10" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.2">
@@ -39966,7 +39970,7 @@
         <v>279</v>
       </c>
       <c r="C692" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D692" s="8">
         <v>12</v>
@@ -39978,7 +39982,7 @@
         <v>1</v>
       </c>
       <c r="G692" s="10" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.2">
@@ -40047,7 +40051,7 @@
         <v>1</v>
       </c>
       <c r="G695" s="10" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.2">
@@ -40058,10 +40062,10 @@
         <v>282</v>
       </c>
       <c r="C696" s="10" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="D696" s="10" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E696" s="8">
         <v>2</v>
@@ -40070,7 +40074,7 @@
         <v>1</v>
       </c>
       <c r="G696" s="10" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.2">
@@ -40127,7 +40131,7 @@
         <v>284</v>
       </c>
       <c r="C699" s="10" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="D699" s="8">
         <v>1</v>
@@ -40139,7 +40143,7 @@
         <v>1</v>
       </c>
       <c r="G699" s="10" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.2">
@@ -40150,7 +40154,7 @@
         <v>284</v>
       </c>
       <c r="C700" s="10" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="D700" s="8">
         <v>3</v>
@@ -40173,7 +40177,7 @@
         <v>285</v>
       </c>
       <c r="C701" s="10" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D701" s="8">
         <v>4</v>
@@ -40196,7 +40200,7 @@
         <v>285</v>
       </c>
       <c r="C702" s="10" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D702" s="8">
         <v>6</v>
@@ -40208,7 +40212,7 @@
         <v>1</v>
       </c>
       <c r="G702" s="10" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.2">
@@ -40219,7 +40223,7 @@
         <v>286</v>
       </c>
       <c r="C703" s="10" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="D703" s="8">
         <v>7</v>
@@ -40231,7 +40235,7 @@
         <v>1</v>
       </c>
       <c r="G703" s="10" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.2">
@@ -40242,7 +40246,7 @@
         <v>286</v>
       </c>
       <c r="C704" s="53" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="D704" s="9">
         <v>10</v>
@@ -40265,19 +40269,19 @@
         <v>287</v>
       </c>
       <c r="C705" s="10" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D705" s="10" t="s">
         <v>1642</v>
       </c>
-      <c r="D705" s="10" t="s">
+      <c r="E705" s="8">
+        <v>2</v>
+      </c>
+      <c r="F705" s="8">
+        <v>1</v>
+      </c>
+      <c r="G705" s="10" t="s">
         <v>1644</v>
-      </c>
-      <c r="E705" s="8">
-        <v>2</v>
-      </c>
-      <c r="F705" s="8">
-        <v>1</v>
-      </c>
-      <c r="G705" s="10" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="706" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40291,16 +40295,16 @@
         <v>1173</v>
       </c>
       <c r="D706" s="10" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E706" s="8">
+        <v>5</v>
+      </c>
+      <c r="F706" s="8">
+        <v>2</v>
+      </c>
+      <c r="G706" s="10" t="s">
         <v>1660</v>
-      </c>
-      <c r="E706" s="8">
-        <v>2</v>
-      </c>
-      <c r="F706" s="8">
-        <v>2</v>
-      </c>
-      <c r="G706" s="10" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.2">
@@ -40334,10 +40338,10 @@
         <v>288</v>
       </c>
       <c r="C708" s="10" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D708" s="10" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E708" s="8">
         <v>5</v>
@@ -40346,7 +40350,7 @@
         <v>1</v>
       </c>
       <c r="G708" s="10" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.2">
@@ -40380,10 +40384,10 @@
         <v>288</v>
       </c>
       <c r="C710" s="10" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D710" s="10" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E710" s="8">
         <v>5</v>
@@ -40392,7 +40396,7 @@
         <v>2</v>
       </c>
       <c r="G710" s="10" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.2">
@@ -40415,7 +40419,7 @@
         <v>1</v>
       </c>
       <c r="G711" s="10" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.2">
@@ -40449,10 +40453,10 @@
         <v>289</v>
       </c>
       <c r="C713" s="8" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="D713" s="10" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E713" s="8">
         <v>5</v>
@@ -40461,7 +40465,7 @@
         <v>1</v>
       </c>
       <c r="G713" s="10" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.2">
@@ -40472,10 +40476,10 @@
         <v>289</v>
       </c>
       <c r="C714" s="10" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D714" s="10" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E714" s="8">
         <v>5</v>
@@ -40484,7 +40488,7 @@
         <v>1</v>
       </c>
       <c r="G714" s="10" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.2">
@@ -40495,10 +40499,10 @@
         <v>290</v>
       </c>
       <c r="C715" s="8" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="D715" s="10" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E715" s="8">
         <v>5</v>
@@ -40507,7 +40511,7 @@
         <v>1</v>
       </c>
       <c r="G715" s="10" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.2">
@@ -40530,7 +40534,7 @@
         <v>1</v>
       </c>
       <c r="G716" s="8" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.2">
@@ -40553,7 +40557,7 @@
         <v>1</v>
       </c>
       <c r="G717" s="8" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.2">
@@ -40564,10 +40568,10 @@
         <v>290</v>
       </c>
       <c r="C718" s="10" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D718" s="10" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E718" s="8">
         <v>5</v>
@@ -40576,7 +40580,7 @@
         <v>1</v>
       </c>
       <c r="G718" s="10" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.2">
@@ -40633,10 +40637,10 @@
         <v>291</v>
       </c>
       <c r="C721" s="8" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="D721" s="10" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E721" s="8">
         <v>5</v>
@@ -40645,7 +40649,7 @@
         <v>1</v>
       </c>
       <c r="G721" s="10" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.2">
@@ -40656,10 +40660,10 @@
         <v>291</v>
       </c>
       <c r="C722" s="10" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D722" s="10" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E722" s="8">
         <v>5</v>
@@ -40668,7 +40672,7 @@
         <v>1</v>
       </c>
       <c r="G722" s="10" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="723" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40682,16 +40686,16 @@
         <v>1172</v>
       </c>
       <c r="D723" s="10" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E723" s="8">
+        <v>2</v>
+      </c>
+      <c r="F723" s="8">
+        <v>1</v>
+      </c>
+      <c r="G723" s="10" t="s">
         <v>1660</v>
-      </c>
-      <c r="E723" s="8">
-        <v>2</v>
-      </c>
-      <c r="F723" s="8">
-        <v>1</v>
-      </c>
-      <c r="G723" s="10" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.2">
@@ -40705,7 +40709,7 @@
         <v>1069</v>
       </c>
       <c r="D724" s="10" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E724" s="8">
         <v>5</v>
@@ -40714,7 +40718,7 @@
         <v>1</v>
       </c>
       <c r="G724" s="10" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.2">
@@ -40760,7 +40764,7 @@
         <v>1</v>
       </c>
       <c r="G726" s="10" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.2">
@@ -40771,10 +40775,10 @@
         <v>293</v>
       </c>
       <c r="C727" s="10" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D727" s="10" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E727" s="8">
         <v>5</v>
@@ -40783,7 +40787,7 @@
         <v>1</v>
       </c>
       <c r="G727" s="10" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.2">
@@ -40797,7 +40801,7 @@
         <v>1069</v>
       </c>
       <c r="D728" s="19" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E728" s="77">
         <v>5</v>
@@ -40806,7 +40810,7 @@
         <v>1</v>
       </c>
       <c r="G728" s="19" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.2">
@@ -40860,13 +40864,13 @@
         <v>730</v>
       </c>
       <c r="B731" s="77">
-        <v>294</v>
-      </c>
-      <c r="C731" s="19" t="s">
-        <v>1172</v>
+        <v>295</v>
+      </c>
+      <c r="C731" s="77" t="s">
+        <v>1069</v>
       </c>
       <c r="D731" s="19" t="s">
-        <v>1660</v>
+        <v>1618</v>
       </c>
       <c r="E731" s="77">
         <v>5</v>
@@ -40875,7 +40879,7 @@
         <v>1</v>
       </c>
       <c r="G731" s="19" t="s">
-        <v>1672</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.2">
@@ -40885,20 +40889,20 @@
       <c r="B732" s="77">
         <v>295</v>
       </c>
-      <c r="C732" s="77" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D732" s="19" t="s">
-        <v>1620</v>
+      <c r="C732" s="19" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D732" s="77">
+        <v>4</v>
       </c>
       <c r="E732" s="77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F732" s="77">
         <v>1</v>
       </c>
       <c r="G732" s="19" t="s">
-        <v>1651</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.2">
@@ -40912,16 +40916,16 @@
         <v>1147</v>
       </c>
       <c r="D733" s="77">
+        <v>7</v>
+      </c>
+      <c r="E733" s="77">
         <v>4</v>
       </c>
-      <c r="E733" s="77">
-        <v>3</v>
-      </c>
       <c r="F733" s="77">
         <v>1</v>
       </c>
       <c r="G733" s="19" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.2">
@@ -40929,22 +40933,22 @@
         <v>733</v>
       </c>
       <c r="B734" s="77">
-        <v>295</v>
-      </c>
-      <c r="C734" s="19" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D734" s="77">
-        <v>7</v>
+        <v>296</v>
+      </c>
+      <c r="C734" s="77" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D734" s="19" t="s">
+        <v>1618</v>
       </c>
       <c r="E734" s="77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F734" s="77">
         <v>1</v>
       </c>
       <c r="G734" s="19" t="s">
-        <v>1684</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.2">
@@ -40952,22 +40956,22 @@
         <v>734</v>
       </c>
       <c r="B735" s="77">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C735" s="19" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D735" s="19" t="s">
-        <v>1660</v>
+        <v>1147</v>
+      </c>
+      <c r="D735" s="77">
+        <v>8</v>
       </c>
       <c r="E735" s="77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F735" s="77">
         <v>1</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1672</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.2">
@@ -40977,20 +40981,20 @@
       <c r="B736" s="77">
         <v>296</v>
       </c>
-      <c r="C736" s="77" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D736" s="19" t="s">
-        <v>1620</v>
+      <c r="C736" s="19" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D736" s="77">
+        <v>10</v>
       </c>
       <c r="E736" s="77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F736" s="77">
         <v>1</v>
       </c>
       <c r="G736" s="19" t="s">
-        <v>1651</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.2">
@@ -40998,22 +41002,22 @@
         <v>736</v>
       </c>
       <c r="B737" s="77">
-        <v>296</v>
-      </c>
-      <c r="C737" s="19" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D737" s="77">
-        <v>8</v>
+        <v>297</v>
+      </c>
+      <c r="C737" s="77" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D737" s="19" t="s">
+        <v>1618</v>
       </c>
       <c r="E737" s="77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F737" s="77">
         <v>1</v>
       </c>
       <c r="G737" s="19" t="s">
-        <v>1685</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.2">
@@ -41021,555 +41025,555 @@
         <v>737</v>
       </c>
       <c r="B738" s="77">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C738" s="19" t="s">
         <v>1147</v>
       </c>
       <c r="D738" s="77">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E738" s="77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F738" s="77">
         <v>1</v>
       </c>
-      <c r="G738" s="19" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G738" s="77" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A739" s="8">
         <v>738</v>
       </c>
-      <c r="B739" s="77">
-        <v>296</v>
-      </c>
-      <c r="C739" s="19" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D739" s="19" t="s">
-        <v>1660</v>
-      </c>
-      <c r="E739" s="77">
-        <v>5</v>
-      </c>
-      <c r="F739" s="77">
-        <v>1</v>
-      </c>
-      <c r="G739" s="19" t="s">
-        <v>1672</v>
+      <c r="B739" s="14">
+        <v>298</v>
+      </c>
+      <c r="C739" s="15" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D739" s="15" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E739" s="14">
+        <v>2</v>
+      </c>
+      <c r="F739" s="14">
+        <v>1</v>
+      </c>
+      <c r="G739" s="15" t="s">
+        <v>1209</v>
       </c>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A740" s="8">
         <v>739</v>
       </c>
-      <c r="B740" s="77">
-        <v>297</v>
-      </c>
-      <c r="C740" s="77" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D740" s="19" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E740" s="77">
-        <v>5</v>
-      </c>
-      <c r="F740" s="77">
-        <v>1</v>
-      </c>
-      <c r="G740" s="19" t="s">
-        <v>1651</v>
+      <c r="B740" s="8">
+        <v>299</v>
+      </c>
+      <c r="C740" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="D740" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="E740" s="8">
+        <v>2</v>
+      </c>
+      <c r="F740" s="8">
+        <v>1</v>
+      </c>
+      <c r="G740" s="10" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A741" s="8">
         <v>740</v>
       </c>
-      <c r="B741" s="77">
-        <v>297</v>
-      </c>
-      <c r="C741" s="19" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D741" s="77">
-        <v>1</v>
-      </c>
-      <c r="E741" s="77">
-        <v>3</v>
-      </c>
-      <c r="F741" s="77">
-        <v>1</v>
-      </c>
-      <c r="G741" s="77" t="s">
-        <v>1513</v>
+      <c r="B741" s="8">
+        <v>299</v>
+      </c>
+      <c r="C741" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="D741" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="E741" s="8">
+        <v>2</v>
+      </c>
+      <c r="F741" s="8">
+        <v>2</v>
+      </c>
+      <c r="G741" s="10" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A742" s="8">
         <v>741</v>
       </c>
-      <c r="B742" s="77">
-        <v>297</v>
-      </c>
-      <c r="C742" s="19" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D742" s="19" t="s">
-        <v>1660</v>
-      </c>
-      <c r="E742" s="77">
+      <c r="B742" s="8">
+        <v>300</v>
+      </c>
+      <c r="C742" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D742" s="8">
+        <v>1</v>
+      </c>
+      <c r="E742" s="8">
+        <v>3</v>
+      </c>
+      <c r="F742" s="8">
+        <v>1</v>
+      </c>
+      <c r="G742" s="10" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A743" s="8">
+        <v>742</v>
+      </c>
+      <c r="B743" s="8">
+        <v>300</v>
+      </c>
+      <c r="C743" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D743" s="8">
+        <v>3</v>
+      </c>
+      <c r="E743" s="8">
+        <v>4</v>
+      </c>
+      <c r="F743" s="8">
+        <v>1</v>
+      </c>
+      <c r="G743" s="10" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A744" s="8">
+        <v>743</v>
+      </c>
+      <c r="B744" s="14">
+        <v>300</v>
+      </c>
+      <c r="C744" s="15" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D744" s="15" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E744" s="14">
         <v>5</v>
       </c>
-      <c r="F742" s="77">
-        <v>1</v>
-      </c>
-      <c r="G742" s="19" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="743" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A743" s="14">
-        <v>742</v>
-      </c>
-      <c r="B743" s="14">
-        <v>298</v>
-      </c>
-      <c r="C743" s="15" t="s">
+      <c r="F744" s="14">
+        <v>1</v>
+      </c>
+      <c r="G744" s="15" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A745" s="8">
+        <v>744</v>
+      </c>
+      <c r="B745" s="8">
+        <v>301</v>
+      </c>
+      <c r="C745" s="10" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D745" s="8">
+        <v>4</v>
+      </c>
+      <c r="E745" s="8">
+        <v>3</v>
+      </c>
+      <c r="F745" s="8">
+        <v>1</v>
+      </c>
+      <c r="G745" s="10" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A746" s="8">
+        <v>745</v>
+      </c>
+      <c r="B746" s="8">
+        <v>301</v>
+      </c>
+      <c r="C746" s="10" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D746" s="8">
+        <v>6</v>
+      </c>
+      <c r="E746" s="8">
+        <v>4</v>
+      </c>
+      <c r="F746" s="8">
+        <v>1</v>
+      </c>
+      <c r="G746" s="10" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A747" s="8">
+        <v>746</v>
+      </c>
+      <c r="B747" s="14">
+        <v>301</v>
+      </c>
+      <c r="C747" s="15" t="s">
         <v>1069</v>
       </c>
-      <c r="D743" s="15" t="s">
+      <c r="D747" s="15" t="s">
         <v>1245</v>
       </c>
-      <c r="E743" s="14">
-        <v>2</v>
-      </c>
-      <c r="F743" s="14">
-        <v>1</v>
-      </c>
-      <c r="G743" s="15" t="s">
+      <c r="E747" s="14">
+        <v>5</v>
+      </c>
+      <c r="F747" s="14">
+        <v>1</v>
+      </c>
+      <c r="G747" s="15" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A748" s="8">
+        <v>747</v>
+      </c>
+      <c r="B748" s="14">
+        <v>302</v>
+      </c>
+      <c r="C748" s="15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D748" s="14">
+        <v>7</v>
+      </c>
+      <c r="E748" s="14">
+        <v>3</v>
+      </c>
+      <c r="F748" s="14">
+        <v>1</v>
+      </c>
+      <c r="G748" s="15" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A749" s="8">
+        <v>748</v>
+      </c>
+      <c r="B749" s="14">
+        <v>302</v>
+      </c>
+      <c r="C749" s="15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D749" s="14">
+        <v>10</v>
+      </c>
+      <c r="E749" s="14">
+        <v>4</v>
+      </c>
+      <c r="F749" s="14">
+        <v>1</v>
+      </c>
+      <c r="G749" s="15" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A750" s="8">
+        <v>749</v>
+      </c>
+      <c r="B750" s="14">
+        <v>302</v>
+      </c>
+      <c r="C750" s="15" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D750" s="15" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E750" s="14">
+        <v>5</v>
+      </c>
+      <c r="F750" s="14">
+        <v>1</v>
+      </c>
+      <c r="G750" s="15" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A751" s="8">
+        <v>750</v>
+      </c>
+      <c r="B751" s="8">
+        <v>303</v>
+      </c>
+      <c r="C751" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D751" s="10" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E751" s="8">
+        <v>2</v>
+      </c>
+      <c r="F751" s="8">
+        <v>1</v>
+      </c>
+      <c r="G751" s="10" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A744" s="14">
-        <v>743</v>
-      </c>
-      <c r="B744" s="8">
-        <v>299</v>
-      </c>
-      <c r="C744" s="10" t="s">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A752" s="8">
+        <v>751</v>
+      </c>
+      <c r="B752" s="8">
+        <v>303</v>
+      </c>
+      <c r="C752" s="10" t="s">
         <v>869</v>
       </c>
-      <c r="D744" s="10" t="s">
+      <c r="D752" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="E744" s="8">
-        <v>2</v>
-      </c>
-      <c r="F744" s="8">
-        <v>1</v>
-      </c>
-      <c r="G744" s="10" t="s">
+      <c r="E752" s="8">
+        <v>2</v>
+      </c>
+      <c r="F752" s="8">
+        <v>2</v>
+      </c>
+      <c r="G752" s="10" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A745" s="14">
-        <v>744</v>
-      </c>
-      <c r="B745" s="8">
-        <v>299</v>
-      </c>
-      <c r="C745" s="10" t="s">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A753" s="8">
+        <v>752</v>
+      </c>
+      <c r="B753" s="8">
+        <v>303</v>
+      </c>
+      <c r="C753" s="10" t="s">
         <v>869</v>
       </c>
-      <c r="D745" s="10" t="s">
+      <c r="D753" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="E745" s="8">
-        <v>2</v>
-      </c>
-      <c r="F745" s="8">
-        <v>2</v>
-      </c>
-      <c r="G745" s="10" t="s">
+      <c r="E753" s="8">
+        <v>2</v>
+      </c>
+      <c r="F753" s="8">
+        <v>3</v>
+      </c>
+      <c r="G753" s="10" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A746" s="14">
-        <v>745</v>
-      </c>
-      <c r="B746" s="8">
-        <v>300</v>
-      </c>
-      <c r="C746" s="10" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D746" s="8">
-        <v>1</v>
-      </c>
-      <c r="E746" s="8">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A754" s="8">
+        <v>753</v>
+      </c>
+      <c r="B754" s="8">
+        <v>304</v>
+      </c>
+      <c r="C754" s="10" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D754" s="8">
+        <v>4</v>
+      </c>
+      <c r="E754" s="8">
         <v>3</v>
       </c>
-      <c r="F746" s="8">
-        <v>1</v>
-      </c>
-      <c r="G746" s="10" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A747" s="14">
-        <v>746</v>
-      </c>
-      <c r="B747" s="8">
-        <v>300</v>
-      </c>
-      <c r="C747" s="10" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D747" s="8">
-        <v>3</v>
-      </c>
-      <c r="E747" s="8">
+      <c r="F754" s="8">
+        <v>1</v>
+      </c>
+      <c r="G754" s="10" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A755" s="8">
+        <v>754</v>
+      </c>
+      <c r="B755" s="8">
+        <v>304</v>
+      </c>
+      <c r="C755" s="10" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D755" s="8">
+        <v>10</v>
+      </c>
+      <c r="E755" s="8">
         <v>4</v>
       </c>
-      <c r="F747" s="8">
-        <v>1</v>
-      </c>
-      <c r="G747" s="10" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="748" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A748" s="14">
-        <v>747</v>
-      </c>
-      <c r="B748" s="14">
-        <v>300</v>
-      </c>
-      <c r="C748" s="15" t="s">
+      <c r="F755" s="8">
+        <v>1</v>
+      </c>
+      <c r="G755" s="10" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A756" s="8">
+        <v>755</v>
+      </c>
+      <c r="B756" s="14">
+        <v>304</v>
+      </c>
+      <c r="C756" s="15" t="s">
         <v>1069</v>
       </c>
-      <c r="D748" s="15" t="s">
+      <c r="D756" s="15" t="s">
         <v>1245</v>
       </c>
-      <c r="E748" s="14">
+      <c r="E756" s="14">
         <v>5</v>
       </c>
-      <c r="F748" s="14">
-        <v>1</v>
-      </c>
-      <c r="G748" s="15" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A749" s="14">
-        <v>748</v>
-      </c>
-      <c r="B749" s="8">
-        <v>301</v>
-      </c>
-      <c r="C749" s="10" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D749" s="8">
-        <v>4</v>
-      </c>
-      <c r="E749" s="8">
-        <v>3</v>
-      </c>
-      <c r="F749" s="8">
-        <v>1</v>
-      </c>
-      <c r="G749" s="10" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A750" s="14">
-        <v>749</v>
-      </c>
-      <c r="B750" s="8">
-        <v>301</v>
-      </c>
-      <c r="C750" s="10" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D750" s="8">
-        <v>6</v>
-      </c>
-      <c r="E750" s="8">
-        <v>4</v>
-      </c>
-      <c r="F750" s="8">
-        <v>1</v>
-      </c>
-      <c r="G750" s="10" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="751" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A751" s="14">
-        <v>750</v>
-      </c>
-      <c r="B751" s="14">
-        <v>301</v>
-      </c>
-      <c r="C751" s="15" t="s">
+      <c r="F756" s="14">
+        <v>1</v>
+      </c>
+      <c r="G756" s="15" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A757" s="8">
+        <v>756</v>
+      </c>
+      <c r="B757" s="8">
+        <v>305</v>
+      </c>
+      <c r="C757" s="10" t="s">
         <v>1069</v>
       </c>
-      <c r="D751" s="15" t="s">
+      <c r="D757" s="10" t="s">
         <v>1245</v>
       </c>
-      <c r="E751" s="14">
-        <v>5</v>
-      </c>
-      <c r="F751" s="14">
-        <v>1</v>
-      </c>
-      <c r="G751" s="15" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="752" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A752" s="14">
-        <v>751</v>
-      </c>
-      <c r="B752" s="14">
-        <v>302</v>
-      </c>
-      <c r="C752" s="15" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D752" s="14">
-        <v>7</v>
-      </c>
-      <c r="E752" s="14">
-        <v>3</v>
-      </c>
-      <c r="F752" s="14">
-        <v>1</v>
-      </c>
-      <c r="G752" s="15" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="753" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A753" s="14">
-        <v>752</v>
-      </c>
-      <c r="B753" s="14">
-        <v>302</v>
-      </c>
-      <c r="C753" s="15" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D753" s="14">
-        <v>10</v>
-      </c>
-      <c r="E753" s="14">
-        <v>4</v>
-      </c>
-      <c r="F753" s="14">
-        <v>1</v>
-      </c>
-      <c r="G753" s="15" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="754" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A754" s="14">
-        <v>753</v>
-      </c>
-      <c r="B754" s="14">
-        <v>302</v>
-      </c>
-      <c r="C754" s="15" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D754" s="15" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E754" s="14">
-        <v>5</v>
-      </c>
-      <c r="F754" s="14">
-        <v>1</v>
-      </c>
-      <c r="G754" s="15" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A755" s="14">
-        <v>754</v>
-      </c>
-      <c r="B755" s="8">
-        <v>303</v>
-      </c>
-      <c r="C755" s="10" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D755" s="10" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E755" s="8">
-        <v>2</v>
-      </c>
-      <c r="F755" s="8">
-        <v>1</v>
-      </c>
-      <c r="G755" s="10" t="s">
+      <c r="E757" s="8">
+        <v>2</v>
+      </c>
+      <c r="F757" s="8">
+        <v>1</v>
+      </c>
+      <c r="G757" s="10" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A756" s="14">
-        <v>755</v>
-      </c>
-      <c r="B756" s="8">
-        <v>303</v>
-      </c>
-      <c r="C756" s="10" t="s">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A758" s="8">
+        <v>757</v>
+      </c>
+      <c r="B758" s="8">
+        <v>305</v>
+      </c>
+      <c r="C758" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D758" s="10" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E758" s="8">
+        <v>2</v>
+      </c>
+      <c r="F758" s="8">
+        <v>1</v>
+      </c>
+      <c r="G758" s="10" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A759" s="8">
+        <v>758</v>
+      </c>
+      <c r="B759" s="8">
+        <v>305</v>
+      </c>
+      <c r="C759" s="10" t="s">
         <v>869</v>
       </c>
-      <c r="D756" s="10" t="s">
+      <c r="D759" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="E756" s="8">
-        <v>2</v>
-      </c>
-      <c r="F756" s="8">
-        <v>2</v>
-      </c>
-      <c r="G756" s="10" t="s">
+      <c r="E759" s="8">
+        <v>2</v>
+      </c>
+      <c r="F759" s="8">
+        <v>2</v>
+      </c>
+      <c r="G759" s="10" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A757" s="14">
-        <v>756</v>
-      </c>
-      <c r="B757" s="8">
-        <v>303</v>
-      </c>
-      <c r="C757" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="D757" s="10" t="s">
-        <v>878</v>
-      </c>
-      <c r="E757" s="8">
-        <v>2</v>
-      </c>
-      <c r="F757" s="8">
-        <v>3</v>
-      </c>
-      <c r="G757" s="10" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A758" s="14">
-        <v>757</v>
-      </c>
-      <c r="B758" s="8">
-        <v>304</v>
-      </c>
-      <c r="C758" s="10" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D758" s="8">
-        <v>4</v>
-      </c>
-      <c r="E758" s="8">
-        <v>3</v>
-      </c>
-      <c r="F758" s="8">
-        <v>1</v>
-      </c>
-      <c r="G758" s="10" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A759" s="14">
-        <v>758</v>
-      </c>
-      <c r="B759" s="8">
-        <v>304</v>
-      </c>
-      <c r="C759" s="10" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D759" s="8">
-        <v>10</v>
-      </c>
-      <c r="E759" s="8">
-        <v>4</v>
-      </c>
-      <c r="F759" s="8">
-        <v>1</v>
-      </c>
-      <c r="G759" s="10" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="760" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A760" s="14">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A760" s="8">
         <v>759</v>
       </c>
-      <c r="B760" s="14">
-        <v>304</v>
-      </c>
-      <c r="C760" s="15" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D760" s="15" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E760" s="14">
-        <v>5</v>
-      </c>
-      <c r="F760" s="14">
-        <v>1</v>
-      </c>
-      <c r="G760" s="15" t="s">
-        <v>1752</v>
+      <c r="B760" s="8">
+        <v>305</v>
+      </c>
+      <c r="C760" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D760" s="10" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E760" s="8">
+        <v>2</v>
+      </c>
+      <c r="F760" s="8">
+        <v>2</v>
+      </c>
+      <c r="G760" s="10" t="s">
+        <v>1713</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A761" s="14">
+      <c r="A761" s="8">
         <v>760</v>
       </c>
       <c r="B761" s="8">
         <v>305</v>
       </c>
       <c r="C761" s="10" t="s">
-        <v>1069</v>
+        <v>869</v>
       </c>
       <c r="D761" s="10" t="s">
-        <v>1245</v>
+        <v>878</v>
       </c>
       <c r="E761" s="8">
         <v>2</v>
       </c>
       <c r="F761" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G761" s="10" t="s">
-        <v>1209</v>
+        <v>923</v>
       </c>
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A762" s="14">
+      <c r="A762" s="8">
         <v>761</v>
       </c>
       <c r="B762" s="8">
@@ -41579,122 +41583,122 @@
         <v>1049</v>
       </c>
       <c r="D762" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E762" s="8">
         <v>2</v>
       </c>
       <c r="F762" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G762" s="10" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A763" s="8">
+        <v>762</v>
+      </c>
+      <c r="B763" s="8">
+        <v>306</v>
+      </c>
+      <c r="C763" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D763" s="8">
+        <v>1</v>
+      </c>
+      <c r="E763" s="8">
+        <v>3</v>
+      </c>
+      <c r="F763" s="8">
+        <v>1</v>
+      </c>
+      <c r="G763" s="10" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A764" s="8">
+        <v>763</v>
+      </c>
+      <c r="B764" s="8">
+        <v>306</v>
+      </c>
+      <c r="C764" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D764" s="8">
+        <v>3</v>
+      </c>
+      <c r="E764" s="8">
+        <v>4</v>
+      </c>
+      <c r="F764" s="8">
+        <v>1</v>
+      </c>
+      <c r="G764" s="10" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A765" s="8">
+        <v>764</v>
+      </c>
+      <c r="B765" s="8">
+        <v>306</v>
+      </c>
+      <c r="C765" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D765" s="10" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E765" s="8">
+        <v>2</v>
+      </c>
+      <c r="F765" s="8">
+        <v>1</v>
+      </c>
+      <c r="G765" s="10" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A763" s="14">
-        <v>762</v>
-      </c>
-      <c r="B763" s="8">
-        <v>305</v>
-      </c>
-      <c r="C763" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="D763" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="E763" s="8">
-        <v>2</v>
-      </c>
-      <c r="F763" s="8">
-        <v>2</v>
-      </c>
-      <c r="G763" s="10" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A764" s="14">
-        <v>763</v>
-      </c>
-      <c r="B764" s="8">
-        <v>305</v>
-      </c>
-      <c r="C764" s="10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D764" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E764" s="8">
-        <v>2</v>
-      </c>
-      <c r="F764" s="8">
-        <v>2</v>
-      </c>
-      <c r="G764" s="10" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A765" s="14">
-        <v>764</v>
-      </c>
-      <c r="B765" s="8">
-        <v>305</v>
-      </c>
-      <c r="C765" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="D765" s="10" t="s">
-        <v>878</v>
-      </c>
-      <c r="E765" s="8">
-        <v>2</v>
-      </c>
-      <c r="F765" s="8">
-        <v>3</v>
-      </c>
-      <c r="G765" s="10" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A766" s="14">
+    <row r="766" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A766" s="8">
         <v>765</v>
       </c>
-      <c r="B766" s="8">
-        <v>305</v>
-      </c>
-      <c r="C766" s="10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D766" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E766" s="8">
-        <v>2</v>
-      </c>
-      <c r="F766" s="8">
-        <v>3</v>
-      </c>
-      <c r="G766" s="10" t="s">
-        <v>1714</v>
+      <c r="B766" s="14">
+        <v>306</v>
+      </c>
+      <c r="C766" s="15" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D766" s="15" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E766" s="14">
+        <v>5</v>
+      </c>
+      <c r="F766" s="14">
+        <v>1</v>
+      </c>
+      <c r="G766" s="15" t="s">
+        <v>1750</v>
       </c>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A767" s="14">
+      <c r="A767" s="8">
         <v>766</v>
       </c>
       <c r="B767" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C767" s="10" t="s">
-        <v>1147</v>
+        <v>1621</v>
       </c>
       <c r="D767" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E767" s="8">
         <v>3</v>
@@ -41703,21 +41707,21 @@
         <v>1</v>
       </c>
       <c r="G767" s="10" t="s">
-        <v>1626</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A768" s="14">
+      <c r="A768" s="8">
         <v>767</v>
       </c>
       <c r="B768" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C768" s="10" t="s">
-        <v>1147</v>
+        <v>1621</v>
       </c>
       <c r="D768" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E768" s="8">
         <v>4</v>
@@ -41726,21 +41730,21 @@
         <v>1</v>
       </c>
       <c r="G768" s="10" t="s">
-        <v>1500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A769" s="14">
+      <c r="A769" s="8">
         <v>768</v>
       </c>
       <c r="B769" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C769" s="10" t="s">
         <v>1049</v>
       </c>
       <c r="D769" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E769" s="8">
         <v>2</v>
@@ -41749,15 +41753,15 @@
         <v>1</v>
       </c>
       <c r="G769" s="10" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="770" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A770" s="14">
+      <c r="A770" s="8">
         <v>769</v>
       </c>
       <c r="B770" s="14">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C770" s="15" t="s">
         <v>1069</v>
@@ -41772,21 +41776,21 @@
         <v>1</v>
       </c>
       <c r="G770" s="15" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A771" s="14">
+      <c r="A771" s="8">
         <v>770</v>
       </c>
       <c r="B771" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C771" s="10" t="s">
-        <v>1623</v>
+        <v>1147</v>
       </c>
       <c r="D771" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E771" s="8">
         <v>3</v>
@@ -41795,241 +41799,241 @@
         <v>1</v>
       </c>
       <c r="G771" s="10" t="s">
-        <v>1501</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A772" s="14">
+      <c r="A772" s="8">
         <v>771</v>
       </c>
-      <c r="B772" s="8">
-        <v>307</v>
-      </c>
-      <c r="C772" s="10" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D772" s="8">
-        <v>6</v>
-      </c>
-      <c r="E772" s="8">
+      <c r="B772" s="9">
+        <v>308</v>
+      </c>
+      <c r="C772" s="53" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D772" s="9">
+        <v>10</v>
+      </c>
+      <c r="E772" s="9">
         <v>4</v>
       </c>
-      <c r="F772" s="8">
+      <c r="F772" s="9">
         <v>1</v>
       </c>
       <c r="G772" s="10" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A773" s="14">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A773" s="8">
         <v>772</v>
       </c>
-      <c r="B773" s="8">
-        <v>307</v>
-      </c>
-      <c r="C773" s="10" t="s">
+      <c r="B773" s="14">
+        <v>308</v>
+      </c>
+      <c r="C773" s="15" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D773" s="15" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E773" s="14">
+        <v>5</v>
+      </c>
+      <c r="F773" s="14">
+        <v>1</v>
+      </c>
+      <c r="G773" s="15" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A774" s="8">
+        <v>773</v>
+      </c>
+      <c r="B774" s="8">
+        <v>308</v>
+      </c>
+      <c r="C774" s="10" t="s">
         <v>1049</v>
       </c>
-      <c r="D773" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E773" s="8">
-        <v>2</v>
-      </c>
-      <c r="F773" s="8">
-        <v>1</v>
-      </c>
-      <c r="G773" s="10" t="s">
+      <c r="D774" s="10" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E774" s="8">
+        <v>2</v>
+      </c>
+      <c r="F774" s="8">
+        <v>1</v>
+      </c>
+      <c r="G774" s="10" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="774" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A774" s="14">
-        <v>773</v>
-      </c>
-      <c r="B774" s="14">
-        <v>307</v>
-      </c>
-      <c r="C774" s="15" t="s">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A775" s="8">
+        <v>774</v>
+      </c>
+      <c r="B775" s="8">
+        <v>309</v>
+      </c>
+      <c r="C775" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D775" s="10" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E775" s="8">
+        <v>2</v>
+      </c>
+      <c r="F775" s="8">
+        <v>1</v>
+      </c>
+      <c r="G775" s="10" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A776" s="8">
+        <v>775</v>
+      </c>
+      <c r="B776" s="8">
+        <v>310</v>
+      </c>
+      <c r="C776" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D776" s="10" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E776" s="8">
+        <v>5</v>
+      </c>
+      <c r="F776" s="8">
+        <v>1</v>
+      </c>
+      <c r="G776" s="10" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A777" s="8">
+        <v>776</v>
+      </c>
+      <c r="B777" s="8">
+        <v>311</v>
+      </c>
+      <c r="C777" s="10" t="s">
         <v>1069</v>
       </c>
-      <c r="D774" s="15" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E774" s="14">
-        <v>5</v>
-      </c>
-      <c r="F774" s="14">
-        <v>1</v>
-      </c>
-      <c r="G774" s="15" t="s">
+      <c r="D777" s="10" t="s">
         <v>1752</v>
       </c>
-    </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A775" s="14">
-        <v>774</v>
-      </c>
-      <c r="B775" s="8">
-        <v>308</v>
-      </c>
-      <c r="C775" s="10" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D775" s="8">
-        <v>7</v>
-      </c>
-      <c r="E775" s="8">
-        <v>3</v>
-      </c>
-      <c r="F775" s="8">
-        <v>1</v>
-      </c>
-      <c r="G775" s="10" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A776" s="14">
-        <v>775</v>
-      </c>
-      <c r="B776" s="9">
-        <v>308</v>
-      </c>
-      <c r="C776" s="53" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D776" s="9">
-        <v>10</v>
-      </c>
-      <c r="E776" s="9">
-        <v>4</v>
-      </c>
-      <c r="F776" s="9">
-        <v>1</v>
-      </c>
-      <c r="G776" s="10" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="777" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A777" s="14">
-        <v>776</v>
-      </c>
-      <c r="B777" s="14">
-        <v>308</v>
-      </c>
-      <c r="C777" s="15" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D777" s="15" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E777" s="14">
-        <v>5</v>
-      </c>
-      <c r="F777" s="14">
-        <v>1</v>
-      </c>
-      <c r="G777" s="15" t="s">
-        <v>1752</v>
+      <c r="E777" s="8">
+        <v>2</v>
+      </c>
+      <c r="F777" s="8">
+        <v>1</v>
+      </c>
+      <c r="G777" s="10" t="s">
+        <v>1209</v>
       </c>
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A778" s="14">
+      <c r="A778" s="8">
         <v>777</v>
       </c>
       <c r="B778" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C778" s="10" t="s">
         <v>1049</v>
       </c>
       <c r="D778" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E778" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F778" s="8">
         <v>1</v>
       </c>
       <c r="G778" s="10" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A779" s="14">
+      <c r="A779" s="8">
         <v>778</v>
       </c>
       <c r="B779" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C779" s="10" t="s">
-        <v>1049</v>
+        <v>869</v>
       </c>
       <c r="D779" s="10" t="s">
-        <v>1707</v>
+        <v>874</v>
       </c>
       <c r="E779" s="8">
         <v>2</v>
       </c>
       <c r="F779" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G779" s="10" t="s">
-        <v>1714</v>
+        <v>927</v>
       </c>
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A780" s="14">
+      <c r="A780" s="8">
         <v>779</v>
       </c>
       <c r="B780" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C780" s="10" t="s">
         <v>1049</v>
       </c>
       <c r="D780" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E780" s="8">
         <v>5</v>
       </c>
       <c r="F780" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G780" s="10" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A781" s="14">
+      <c r="A781" s="8">
         <v>780</v>
       </c>
       <c r="B781" s="8">
         <v>311</v>
       </c>
       <c r="C781" s="10" t="s">
-        <v>1069</v>
+        <v>869</v>
       </c>
       <c r="D781" s="10" t="s">
-        <v>1754</v>
+        <v>878</v>
       </c>
       <c r="E781" s="8">
         <v>2</v>
       </c>
       <c r="F781" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G781" s="10" t="s">
-        <v>1209</v>
+        <v>923</v>
       </c>
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A782" s="14">
+      <c r="A782" s="8">
         <v>781</v>
       </c>
       <c r="B782" s="8">
@@ -42039,122 +42043,122 @@
         <v>1049</v>
       </c>
       <c r="D782" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E782" s="8">
         <v>5</v>
       </c>
       <c r="F782" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G782" s="10" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A783" s="14">
+      <c r="A783" s="8">
         <v>782</v>
       </c>
       <c r="B783" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C783" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="D783" s="10" t="s">
-        <v>874</v>
+        <v>1147</v>
+      </c>
+      <c r="D783" s="8">
+        <v>1</v>
       </c>
       <c r="E783" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F783" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G783" s="10" t="s">
-        <v>927</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A784" s="14">
+      <c r="A784" s="8">
         <v>783</v>
       </c>
       <c r="B784" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C784" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D784" s="8">
+        <v>3</v>
+      </c>
+      <c r="E784" s="8">
+        <v>4</v>
+      </c>
+      <c r="F784" s="8">
+        <v>1</v>
+      </c>
+      <c r="G784" s="10" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A785" s="8">
+        <v>784</v>
+      </c>
+      <c r="B785" s="8">
+        <v>312</v>
+      </c>
+      <c r="C785" s="10" t="s">
         <v>1049</v>
       </c>
-      <c r="D784" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E784" s="8">
+      <c r="D785" s="10" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E785" s="8">
         <v>5</v>
       </c>
-      <c r="F784" s="8">
-        <v>2</v>
-      </c>
-      <c r="G784" s="10" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A785" s="14">
-        <v>784</v>
-      </c>
-      <c r="B785" s="8">
-        <v>311</v>
-      </c>
-      <c r="C785" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="D785" s="10" t="s">
-        <v>878</v>
-      </c>
-      <c r="E785" s="8">
-        <v>2</v>
-      </c>
       <c r="F785" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G785" s="10" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A786" s="14">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A786" s="8">
         <v>785</v>
       </c>
-      <c r="B786" s="8">
-        <v>311</v>
-      </c>
-      <c r="C786" s="10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D786" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E786" s="8">
+      <c r="B786" s="14">
+        <v>312</v>
+      </c>
+      <c r="C786" s="15" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D786" s="15" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E786" s="14">
         <v>5</v>
       </c>
-      <c r="F786" s="8">
-        <v>3</v>
-      </c>
-      <c r="G786" s="10" t="s">
-        <v>1708</v>
+      <c r="F786" s="14">
+        <v>1</v>
+      </c>
+      <c r="G786" s="15" t="s">
+        <v>1750</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A787" s="14">
+      <c r="A787" s="8">
         <v>786</v>
       </c>
       <c r="B787" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C787" s="10" t="s">
-        <v>1147</v>
+        <v>1159</v>
       </c>
       <c r="D787" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E787" s="8">
         <v>3</v>
@@ -42163,21 +42167,21 @@
         <v>1</v>
       </c>
       <c r="G787" s="10" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A788" s="14">
+      <c r="A788" s="8">
         <v>787</v>
       </c>
       <c r="B788" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C788" s="10" t="s">
-        <v>1147</v>
+        <v>1159</v>
       </c>
       <c r="D788" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E788" s="8">
         <v>4</v>
@@ -42186,21 +42190,21 @@
         <v>1</v>
       </c>
       <c r="G788" s="10" t="s">
-        <v>1500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A789" s="14">
+      <c r="A789" s="8">
         <v>788</v>
       </c>
       <c r="B789" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C789" s="10" t="s">
         <v>1049</v>
       </c>
       <c r="D789" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E789" s="8">
         <v>5</v>
@@ -42209,15 +42213,15 @@
         <v>1</v>
       </c>
       <c r="G789" s="10" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="790" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A790" s="14">
+      <c r="A790" s="8">
         <v>789</v>
       </c>
       <c r="B790" s="14">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C790" s="15" t="s">
         <v>1069</v>
@@ -42232,21 +42236,21 @@
         <v>1</v>
       </c>
       <c r="G790" s="15" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A791" s="14">
+      <c r="A791" s="8">
         <v>790</v>
       </c>
       <c r="B791" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C791" s="10" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="D791" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E791" s="8">
         <v>3</v>
@@ -42255,182 +42259,182 @@
         <v>1</v>
       </c>
       <c r="G791" s="10" t="s">
-        <v>1501</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A792" s="14">
+      <c r="A792" s="8">
         <v>791</v>
       </c>
-      <c r="B792" s="8">
-        <v>313</v>
-      </c>
-      <c r="C792" s="10" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D792" s="8">
-        <v>6</v>
-      </c>
-      <c r="E792" s="8">
+      <c r="B792" s="9">
+        <v>314</v>
+      </c>
+      <c r="C792" s="53" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D792" s="9">
+        <v>10</v>
+      </c>
+      <c r="E792" s="9">
         <v>4</v>
       </c>
-      <c r="F792" s="8">
+      <c r="F792" s="9">
         <v>1</v>
       </c>
       <c r="G792" s="10" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A793" s="14">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A793" s="8">
         <v>792</v>
       </c>
-      <c r="B793" s="8">
-        <v>313</v>
-      </c>
-      <c r="C793" s="10" t="s">
+      <c r="B793" s="14">
+        <v>314</v>
+      </c>
+      <c r="C793" s="15" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D793" s="15" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E793" s="14">
+        <v>5</v>
+      </c>
+      <c r="F793" s="14">
+        <v>1</v>
+      </c>
+      <c r="G793" s="15" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A794" s="8">
+        <v>793</v>
+      </c>
+      <c r="B794" s="8">
+        <v>314</v>
+      </c>
+      <c r="C794" s="10" t="s">
         <v>1049</v>
       </c>
-      <c r="D793" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E793" s="8">
+      <c r="D794" s="10" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E794" s="8">
         <v>5</v>
       </c>
-      <c r="F793" s="8">
-        <v>1</v>
-      </c>
-      <c r="G793" s="10" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="794" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A794" s="14">
-        <v>793</v>
-      </c>
-      <c r="B794" s="14">
-        <v>313</v>
-      </c>
-      <c r="C794" s="15" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D794" s="15" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E794" s="14">
+      <c r="F794" s="8">
+        <v>1</v>
+      </c>
+      <c r="G794" s="10" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A795" s="8">
+        <v>794</v>
+      </c>
+      <c r="B795" s="9">
+        <v>315</v>
+      </c>
+      <c r="C795" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D795" s="10" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E795" s="8">
         <v>5</v>
       </c>
-      <c r="F794" s="14">
-        <v>1</v>
-      </c>
-      <c r="G794" s="15" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A795" s="14">
-        <v>794</v>
-      </c>
-      <c r="B795" s="8">
-        <v>314</v>
-      </c>
-      <c r="C795" s="10" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D795" s="8">
-        <v>7</v>
-      </c>
-      <c r="E795" s="8">
-        <v>3</v>
-      </c>
       <c r="F795" s="8">
         <v>1</v>
       </c>
       <c r="G795" s="10" t="s">
-        <v>1628</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A796" s="14">
+      <c r="A796" s="8">
         <v>795</v>
       </c>
       <c r="B796" s="9">
-        <v>314</v>
-      </c>
-      <c r="C796" s="53" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D796" s="9">
-        <v>10</v>
+        <v>316</v>
+      </c>
+      <c r="C796" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D796" s="10" t="s">
+        <v>1705</v>
       </c>
       <c r="E796" s="9">
-        <v>4</v>
-      </c>
-      <c r="F796" s="9">
-        <v>1</v>
-      </c>
-      <c r="G796" s="10" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="797" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A797" s="14">
+        <v>2</v>
+      </c>
+      <c r="F796" s="8">
+        <v>1</v>
+      </c>
+      <c r="G796" s="53" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A797" s="8">
         <v>796</v>
       </c>
-      <c r="B797" s="14">
-        <v>314</v>
-      </c>
-      <c r="C797" s="15" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D797" s="15" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E797" s="14">
+      <c r="B797" s="9">
+        <v>317</v>
+      </c>
+      <c r="C797" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D797" s="10" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E797" s="8">
         <v>5</v>
       </c>
-      <c r="F797" s="14">
-        <v>1</v>
-      </c>
-      <c r="G797" s="15" t="s">
-        <v>1752</v>
+      <c r="F797" s="8">
+        <v>1</v>
+      </c>
+      <c r="G797" s="10" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A798" s="14">
+      <c r="A798" s="8">
         <v>797</v>
       </c>
-      <c r="B798" s="8">
-        <v>314</v>
+      <c r="B798" s="9">
+        <v>318</v>
       </c>
       <c r="C798" s="10" t="s">
         <v>1049</v>
       </c>
       <c r="D798" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E798" s="8">
-        <v>5</v>
+        <v>1705</v>
+      </c>
+      <c r="E798" s="9">
+        <v>2</v>
       </c>
       <c r="F798" s="8">
         <v>1</v>
       </c>
-      <c r="G798" s="10" t="s">
-        <v>1708</v>
+      <c r="G798" s="53" t="s">
+        <v>1731</v>
       </c>
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A799" s="14">
+      <c r="A799" s="8">
         <v>798</v>
       </c>
       <c r="B799" s="9">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C799" s="10" t="s">
         <v>1049</v>
       </c>
       <c r="D799" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E799" s="8">
         <v>5</v>
@@ -42439,21 +42443,21 @@
         <v>1</v>
       </c>
       <c r="G799" s="10" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A800" s="14">
+      <c r="A800" s="8">
         <v>799</v>
       </c>
       <c r="B800" s="9">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C800" s="10" t="s">
         <v>1049</v>
       </c>
       <c r="D800" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E800" s="9">
         <v>2</v>
@@ -42462,159 +42466,159 @@
         <v>1</v>
       </c>
       <c r="G800" s="53" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A801" s="14">
+      <c r="A801" s="8">
         <v>800</v>
       </c>
       <c r="B801" s="9">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C801" s="10" t="s">
         <v>1049</v>
       </c>
       <c r="D801" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E801" s="8">
+        <v>1705</v>
+      </c>
+      <c r="E801" s="9">
         <v>5</v>
       </c>
       <c r="F801" s="8">
         <v>1</v>
       </c>
-      <c r="G801" s="10" t="s">
-        <v>1732</v>
+      <c r="G801" s="9" t="s">
+        <v>1670</v>
       </c>
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A802" s="14">
+      <c r="A802" s="8">
         <v>801</v>
       </c>
       <c r="B802" s="9">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C802" s="10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D802" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E802" s="9">
+        <v>882</v>
+      </c>
+      <c r="D802" s="8">
+        <v>0</v>
+      </c>
+      <c r="E802" s="8">
         <v>2</v>
       </c>
       <c r="F802" s="8">
         <v>1</v>
       </c>
-      <c r="G802" s="53" t="s">
-        <v>1733</v>
+      <c r="G802" s="10" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A803" s="14">
+      <c r="A803" s="8">
         <v>802</v>
       </c>
       <c r="B803" s="9">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C803" s="10" t="s">
         <v>1049</v>
       </c>
       <c r="D803" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E803" s="8">
+        <v>1705</v>
+      </c>
+      <c r="E803" s="9">
         <v>5</v>
       </c>
       <c r="F803" s="8">
         <v>1</v>
       </c>
-      <c r="G803" s="10" t="s">
-        <v>1732</v>
+      <c r="G803" s="9" t="s">
+        <v>1670</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A804" s="14">
+      <c r="A804" s="8">
         <v>803</v>
       </c>
       <c r="B804" s="9">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C804" s="10" t="s">
-        <v>1049</v>
+        <v>1069</v>
       </c>
       <c r="D804" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E804" s="9">
-        <v>2</v>
+        <v>1245</v>
+      </c>
+      <c r="E804" s="8">
+        <v>5</v>
       </c>
       <c r="F804" s="8">
         <v>1</v>
       </c>
-      <c r="G804" s="53" t="s">
-        <v>1733</v>
+      <c r="G804" s="10" t="s">
+        <v>1649</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A805" s="14">
+      <c r="A805" s="8">
         <v>804</v>
       </c>
       <c r="B805" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C805" s="10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D805" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E805" s="9">
-        <v>5</v>
+        <v>1147</v>
+      </c>
+      <c r="D805" s="8">
+        <v>4</v>
+      </c>
+      <c r="E805" s="8">
+        <v>3</v>
       </c>
       <c r="F805" s="8">
         <v>1</v>
       </c>
-      <c r="G805" s="9" t="s">
-        <v>1672</v>
+      <c r="G805" s="10" t="s">
+        <v>1501</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A806" s="14">
+      <c r="A806" s="8">
         <v>805</v>
       </c>
       <c r="B806" s="9">
-        <v>321</v>
-      </c>
-      <c r="C806" s="10" t="s">
-        <v>882</v>
-      </c>
-      <c r="D806" s="8">
-        <v>0</v>
-      </c>
-      <c r="E806" s="8">
-        <v>2</v>
-      </c>
-      <c r="F806" s="8">
+        <v>322</v>
+      </c>
+      <c r="C806" s="53" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D806" s="9">
+        <v>10</v>
+      </c>
+      <c r="E806" s="9">
+        <v>4</v>
+      </c>
+      <c r="F806" s="9">
         <v>1</v>
       </c>
       <c r="G806" s="10" t="s">
-        <v>887</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A807" s="9">
+      <c r="A807" s="8">
         <v>806</v>
       </c>
       <c r="B807" s="9">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C807" s="10" t="s">
         <v>1049</v>
       </c>
       <c r="D807" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E807" s="9">
         <v>5</v>
@@ -42623,126 +42627,126 @@
         <v>1</v>
       </c>
       <c r="G807" s="9" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A808" s="9">
+      <c r="A808" s="8">
         <v>807</v>
       </c>
-      <c r="B808" s="9">
-        <v>322</v>
+      <c r="B808" s="8">
+        <v>324</v>
       </c>
       <c r="C808" s="10" t="s">
-        <v>1069</v>
+        <v>1764</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1245</v>
+        <v>1765</v>
       </c>
       <c r="E808" s="8">
+        <v>2</v>
+      </c>
+      <c r="F808" s="8">
+        <v>1</v>
+      </c>
+      <c r="G808" s="10" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A809" s="8">
+        <v>808</v>
+      </c>
+      <c r="B809" s="8">
+        <v>324</v>
+      </c>
+      <c r="C809" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D809" s="10" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E809" s="8">
         <v>5</v>
       </c>
-      <c r="F808" s="8">
-        <v>1</v>
-      </c>
-      <c r="G808" s="10" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A809" s="9">
-        <v>808</v>
-      </c>
-      <c r="B809" s="9">
-        <v>322</v>
-      </c>
-      <c r="C809" s="10" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D809" s="8">
-        <v>4</v>
-      </c>
-      <c r="E809" s="8">
-        <v>3</v>
-      </c>
       <c r="F809" s="8">
         <v>1</v>
       </c>
       <c r="G809" s="10" t="s">
-        <v>1501</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A810" s="9">
+      <c r="A810" s="8">
         <v>809</v>
       </c>
-      <c r="B810" s="9">
-        <v>322</v>
-      </c>
-      <c r="C810" s="53" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D810" s="9">
-        <v>10</v>
-      </c>
-      <c r="E810" s="9">
-        <v>4</v>
-      </c>
-      <c r="F810" s="9">
-        <v>1</v>
+      <c r="B810" s="8">
+        <v>324</v>
+      </c>
+      <c r="C810" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="D810" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="E810" s="8">
+        <v>2</v>
+      </c>
+      <c r="F810" s="8">
+        <v>2</v>
       </c>
       <c r="G810" s="10" t="s">
-        <v>1503</v>
+        <v>927</v>
       </c>
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A811" s="9">
+      <c r="A811" s="8">
         <v>810</v>
       </c>
-      <c r="B811" s="9">
-        <v>323</v>
+      <c r="B811" s="8">
+        <v>324</v>
       </c>
       <c r="C811" s="10" t="s">
         <v>1049</v>
       </c>
       <c r="D811" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E811" s="9">
+        <v>1705</v>
+      </c>
+      <c r="E811" s="8">
         <v>5</v>
       </c>
       <c r="F811" s="8">
-        <v>1</v>
-      </c>
-      <c r="G811" s="9" t="s">
-        <v>1672</v>
+        <v>2</v>
+      </c>
+      <c r="G811" s="10" t="s">
+        <v>1771</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A812" s="9">
+      <c r="A812" s="8">
         <v>811</v>
       </c>
       <c r="B812" s="8">
         <v>324</v>
       </c>
       <c r="C812" s="10" t="s">
-        <v>1766</v>
+        <v>869</v>
       </c>
       <c r="D812" s="10" t="s">
-        <v>1767</v>
+        <v>878</v>
       </c>
       <c r="E812" s="8">
         <v>2</v>
       </c>
       <c r="F812" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G812" s="10" t="s">
-        <v>1768</v>
+        <v>923</v>
       </c>
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A813" s="9">
+      <c r="A813" s="8">
         <v>812</v>
       </c>
       <c r="B813" s="8">
@@ -42752,177 +42756,85 @@
         <v>1049</v>
       </c>
       <c r="D813" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E813" s="8">
         <v>5</v>
       </c>
       <c r="F813" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G813" s="10" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A814" s="9">
+      <c r="A814" s="8">
         <v>813</v>
       </c>
-      <c r="B814" s="8">
-        <v>324</v>
+      <c r="B814" s="9">
+        <v>325</v>
       </c>
       <c r="C814" s="10" t="s">
-        <v>869</v>
+        <v>1049</v>
       </c>
       <c r="D814" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="E814" s="8">
-        <v>2</v>
+        <v>1705</v>
+      </c>
+      <c r="E814" s="9">
+        <v>5</v>
       </c>
       <c r="F814" s="8">
-        <v>2</v>
-      </c>
-      <c r="G814" s="10" t="s">
-        <v>927</v>
+        <v>1</v>
+      </c>
+      <c r="G814" s="9" t="s">
+        <v>1670</v>
       </c>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A815" s="9">
+      <c r="A815" s="8">
         <v>814</v>
       </c>
-      <c r="B815" s="8">
-        <v>324</v>
+      <c r="B815" s="9">
+        <v>326</v>
       </c>
       <c r="C815" s="10" t="s">
         <v>1049</v>
       </c>
       <c r="D815" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E815" s="8">
+        <v>1775</v>
+      </c>
+      <c r="E815" s="9">
+        <v>2</v>
+      </c>
+      <c r="F815" s="8">
+        <v>1</v>
+      </c>
+      <c r="G815" s="9" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A816" s="8">
+        <v>815</v>
+      </c>
+      <c r="B816" s="9">
+        <v>327</v>
+      </c>
+      <c r="C816" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D816" s="10" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E816" s="9">
         <v>5</v>
       </c>
-      <c r="F815" s="8">
-        <v>2</v>
-      </c>
-      <c r="G815" s="10" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A816" s="9">
-        <v>815</v>
-      </c>
-      <c r="B816" s="8">
-        <v>324</v>
-      </c>
-      <c r="C816" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="D816" s="10" t="s">
-        <v>878</v>
-      </c>
-      <c r="E816" s="8">
-        <v>2</v>
-      </c>
       <c r="F816" s="8">
-        <v>3</v>
-      </c>
-      <c r="G816" s="10" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A817" s="9">
-        <v>816</v>
-      </c>
-      <c r="B817" s="8">
-        <v>324</v>
-      </c>
-      <c r="C817" s="10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D817" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E817" s="8">
-        <v>5</v>
-      </c>
-      <c r="F817" s="8">
-        <v>3</v>
-      </c>
-      <c r="G817" s="10" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A818" s="9">
-        <v>817</v>
-      </c>
-      <c r="B818" s="9">
-        <v>325</v>
-      </c>
-      <c r="C818" s="10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D818" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E818" s="9">
-        <v>5</v>
-      </c>
-      <c r="F818" s="8">
-        <v>1</v>
-      </c>
-      <c r="G818" s="9" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A819" s="9">
-        <v>818</v>
-      </c>
-      <c r="B819" s="9">
-        <v>326</v>
-      </c>
-      <c r="C819" s="10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D819" s="10" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E819" s="9">
-        <v>2</v>
-      </c>
-      <c r="F819" s="8">
-        <v>1</v>
-      </c>
-      <c r="G819" s="9" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A820" s="9">
-        <v>819</v>
-      </c>
-      <c r="B820" s="9">
-        <v>327</v>
-      </c>
-      <c r="C820" s="10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D820" s="10" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E820" s="9">
-        <v>5</v>
-      </c>
-      <c r="F820" s="8">
-        <v>1</v>
-      </c>
-      <c r="G820" s="53" t="s">
-        <v>1787</v>
+        <v>1</v>
+      </c>
+      <c r="G816" s="53" t="s">
+        <v>1785</v>
       </c>
     </row>
   </sheetData>
@@ -42979,7 +42891,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>901</v>
@@ -43048,13 +42960,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>901</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -43071,13 +42983,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>901</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -43086,7 +42998,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -43094,13 +43006,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>901</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -43109,7 +43021,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -43117,13 +43029,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>901</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -43132,7 +43044,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -43140,13 +43052,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>901</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -43155,7 +43067,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
     </row>
   </sheetData>
@@ -43253,7 +43165,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B8" t="s">
         <v>1039</v>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4388" uniqueCount="1883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="1888">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8642,14 +8642,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>xrzx_newplayer</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人专享（新人才展示）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_buy_gift_bag_10346</t>
   </si>
   <si>
@@ -8810,6 +8802,33 @@
   </si>
   <si>
     <t>是3D捕鱼冲金鸡平台</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xrqtl_new</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐（新版）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+  </si>
+  <si>
+    <t>是cpl渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须在2020年11月10日8:30后第一次登录</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -8896,7 +8915,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8999,6 +9018,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -9028,7 +9053,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9304,6 +9329,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9584,8 +9615,8 @@
   <dimension ref="A1:Q408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C271" sqref="C271"/>
+      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A408" sqref="A408:XFD408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13563,10 +13594,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="27" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="B359" s="27" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="C359" s="3">
         <v>8</v>
@@ -13914,15 +13945,8 @@
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408" s="27" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B408" s="27" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C408" s="3">
-        <v>91</v>
-      </c>
+      <c r="A408" s="27"/>
+      <c r="B408" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -13937,10 +13961,10 @@
   <dimension ref="A1:O342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E301" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E313" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B336" sqref="B336"/>
+      <selection pane="bottomRight" activeCell="C342" sqref="C342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25013,7 +25037,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -25024,10 +25048,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -25056,10 +25080,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="D329" s="26" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -25088,10 +25112,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -25120,10 +25144,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -25152,10 +25176,10 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="D332" s="101" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="E332" s="100"/>
       <c r="F332" s="100"/>
@@ -25175,7 +25199,39 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="101" t="s">
-        <v>1865</v>
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A333" s="26">
+        <v>332</v>
+      </c>
+      <c r="B333" s="26">
+        <v>1</v>
+      </c>
+      <c r="C333" s="30" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D333" s="26" t="s">
+        <v>1882</v>
+      </c>
+      <c r="G333" s="26">
+        <v>337</v>
+      </c>
+      <c r="H333" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I333" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" s="26" t="s">
+        <v>1883</v>
+      </c>
+      <c r="K333" s="26">
+        <v>0</v>
+      </c>
+      <c r="L333" s="26" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="342" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -25205,10 +25261,10 @@
   <dimension ref="A1:I864"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C418" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C827" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A437" sqref="A437"/>
+      <selection pane="bottomRight" activeCell="C853" sqref="C853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29337,7 +29393,7 @@
         <v>1046</v>
       </c>
       <c r="D178" s="94" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E178" s="14">
         <v>2</v>
@@ -29360,7 +29416,7 @@
         <v>1046</v>
       </c>
       <c r="D179" s="94" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -29369,7 +29425,7 @@
         <v>5</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29751,7 +29807,7 @@
         <v>1046</v>
       </c>
       <c r="D196" s="94" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E196" s="14">
         <v>2</v>
@@ -29774,7 +29830,7 @@
         <v>1046</v>
       </c>
       <c r="D197" s="94" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="E197" s="14">
         <v>2</v>
@@ -29783,7 +29839,7 @@
         <v>5</v>
       </c>
       <c r="G197" s="15" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -39013,7 +39069,7 @@
         <v>1169</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -39059,7 +39115,7 @@
         <v>1169</v>
       </c>
       <c r="D600" s="10" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="E600" s="8">
         <v>5</v>
@@ -39082,7 +39138,7 @@
         <v>1169</v>
       </c>
       <c r="D601" s="10" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="E601" s="14">
         <v>2</v>
@@ -39105,7 +39161,7 @@
         <v>1169</v>
       </c>
       <c r="D602" s="15" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="E602" s="14">
         <v>2</v>
@@ -39151,7 +39207,7 @@
         <v>1169</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E604" s="14">
         <v>5</v>
@@ -39197,7 +39253,7 @@
         <v>1169</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E606" s="14">
         <v>5</v>
@@ -39220,7 +39276,7 @@
         <v>1169</v>
       </c>
       <c r="D607" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E607" s="14">
         <v>2</v>
@@ -39243,7 +39299,7 @@
         <v>1169</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="E608" s="14">
         <v>2</v>
@@ -39289,7 +39345,7 @@
         <v>1169</v>
       </c>
       <c r="D610" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E610" s="8">
         <v>5</v>
@@ -39335,7 +39391,7 @@
         <v>1169</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E612" s="8">
         <v>5</v>
@@ -39358,7 +39414,7 @@
         <v>1169</v>
       </c>
       <c r="D613" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E613" s="14">
         <v>2</v>
@@ -39381,7 +39437,7 @@
         <v>1169</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="E614" s="14">
         <v>2</v>
@@ -39427,7 +39483,7 @@
         <v>1169</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -39473,7 +39529,7 @@
         <v>1169</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E618" s="8">
         <v>5</v>
@@ -39496,7 +39552,7 @@
         <v>1169</v>
       </c>
       <c r="D619" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E619" s="14">
         <v>2</v>
@@ -39519,7 +39575,7 @@
         <v>1169</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="E620" s="14">
         <v>2</v>
@@ -39565,7 +39621,7 @@
         <v>1169</v>
       </c>
       <c r="D622" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E622" s="8">
         <v>5</v>
@@ -39611,7 +39667,7 @@
         <v>1169</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E624" s="8">
         <v>5</v>
@@ -39634,7 +39690,7 @@
         <v>1169</v>
       </c>
       <c r="D625" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E625" s="14">
         <v>2</v>
@@ -39657,7 +39713,7 @@
         <v>1169</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="E626" s="14">
         <v>2</v>
@@ -39703,7 +39759,7 @@
         <v>1169</v>
       </c>
       <c r="D628" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E628" s="8">
         <v>5</v>
@@ -39749,7 +39805,7 @@
         <v>1169</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E630" s="8">
         <v>5</v>
@@ -39772,7 +39828,7 @@
         <v>1169</v>
       </c>
       <c r="D631" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E631" s="14">
         <v>2</v>
@@ -39795,7 +39851,7 @@
         <v>1169</v>
       </c>
       <c r="D632" s="15" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="E632" s="14">
         <v>2</v>
@@ -40790,7 +40846,7 @@
         <v>1169</v>
       </c>
       <c r="D675" s="10" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="E675" s="8">
         <v>2</v>
@@ -43849,7 +43905,7 @@
         <v>1046</v>
       </c>
       <c r="D808" s="9" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -43918,7 +43974,7 @@
         <v>1046</v>
       </c>
       <c r="D811" s="10" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E811" s="9">
         <v>5</v>
@@ -44240,7 +44296,7 @@
         <v>1046</v>
       </c>
       <c r="D825" s="9" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E825" s="9">
         <v>2</v>
@@ -44263,7 +44319,7 @@
         <v>1046</v>
       </c>
       <c r="D826" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E826" s="14">
         <v>2</v>
@@ -44355,7 +44411,7 @@
         <v>1046</v>
       </c>
       <c r="D830" s="9" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E830" s="9">
         <v>5</v>
@@ -44401,7 +44457,7 @@
         <v>1046</v>
       </c>
       <c r="D832" s="9" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E832" s="9">
         <v>5</v>
@@ -44677,7 +44733,7 @@
         <v>1046</v>
       </c>
       <c r="D844" s="9" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E844" s="9">
         <v>5</v>
@@ -44729,7 +44785,7 @@
         <v>1046</v>
       </c>
       <c r="D846" s="9" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E846" s="9">
         <v>2</v>
@@ -44738,7 +44794,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="9" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.2">
@@ -44781,7 +44837,7 @@
         <v>1046</v>
       </c>
       <c r="D848" s="9" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E848" s="9">
         <v>2</v>
@@ -44790,7 +44846,7 @@
         <v>1</v>
       </c>
       <c r="G848" s="9" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="849" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -44801,10 +44857,10 @@
         <v>336</v>
       </c>
       <c r="C849" s="98" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="D849" s="99" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E849" s="98">
         <v>5</v>
@@ -44813,7 +44869,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="99" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.2">
@@ -44827,7 +44883,7 @@
         <v>1046</v>
       </c>
       <c r="D850" s="9" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E850" s="9">
         <v>5</v>
@@ -44836,12 +44892,77 @@
         <v>1</v>
       </c>
       <c r="G850" s="9" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="851" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D851" s="10"/>
-      <c r="G851" s="10"/>
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A851" s="8">
+        <v>850</v>
+      </c>
+      <c r="B851" s="103">
+        <v>337</v>
+      </c>
+      <c r="C851" s="104" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D851" s="104" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E851" s="103">
+        <v>2</v>
+      </c>
+      <c r="F851" s="103">
+        <v>1</v>
+      </c>
+      <c r="G851" s="104" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A852" s="8">
+        <v>851</v>
+      </c>
+      <c r="B852" s="103">
+        <v>337</v>
+      </c>
+      <c r="C852" s="103" t="s">
+        <v>894</v>
+      </c>
+      <c r="D852" s="103">
+        <v>1604968200</v>
+      </c>
+      <c r="E852" s="103">
+        <v>3</v>
+      </c>
+      <c r="F852" s="103">
+        <v>1</v>
+      </c>
+      <c r="G852" s="104" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A853" s="8">
+        <v>852</v>
+      </c>
+      <c r="B853" s="103">
+        <v>337</v>
+      </c>
+      <c r="C853" s="103" t="s">
+        <v>866</v>
+      </c>
+      <c r="D853" s="103" t="s">
+        <v>867</v>
+      </c>
+      <c r="E853" s="103">
+        <v>2</v>
+      </c>
+      <c r="F853" s="103">
+        <v>1</v>
+      </c>
+      <c r="G853" s="103" t="s">
+        <v>1887</v>
+      </c>
     </row>
     <row r="860" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D860" s="10"/>
@@ -45006,7 +45127,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>898</v>
@@ -45075,13 +45196,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -45090,7 +45211,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="1888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="1890">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8830,6 +8830,12 @@
   <si>
     <t>新用户</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrzx_newplayer</t>
+  </si>
+  <si>
+    <t>新人专享（新人才展示）</t>
   </si>
 </sst>
 </file>
@@ -9614,9 +9620,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q408"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A408" sqref="A408:XFD408"/>
+      <selection pane="bottomLeft" activeCell="B416" sqref="B416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13945,8 +13951,15 @@
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408" s="27"/>
-      <c r="B408" s="27"/>
+      <c r="A408" s="27" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B408" s="27" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C408" s="3">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -13961,10 +13974,10 @@
   <dimension ref="A1:O342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E313" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F310" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C342" sqref="C342"/>
+      <selection pane="bottomRight" activeCell="G333" sqref="G333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25260,11 +25273,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I864"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C827" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C853" sqref="C853"/>
+      <selection pane="bottomRight" activeCell="A852" sqref="A852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -8769,10 +8769,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_cjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8859,6 +8855,10 @@
   </si>
   <si>
     <t>不展示给cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9644,7 +9644,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C410" sqref="C410"/>
     </sheetView>
@@ -13976,10 +13976,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="27" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B408" s="27" t="s">
         <v>1888</v>
-      </c>
-      <c r="B408" s="27" t="s">
-        <v>1889</v>
       </c>
       <c r="C408" s="3">
         <v>91</v>
@@ -13987,10 +13987,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B410" s="3" t="s">
         <v>1890</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>1891</v>
       </c>
       <c r="C410" s="3">
         <v>338</v>
@@ -25258,10 +25258,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D333" s="26" t="s">
         <v>1881</v>
-      </c>
-      <c r="D333" s="26" t="s">
-        <v>1882</v>
       </c>
       <c r="G333" s="26">
         <v>337</v>
@@ -25273,7 +25273,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -29441,7 +29441,7 @@
         <v>1046</v>
       </c>
       <c r="D178" s="94" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E178" s="14">
         <v>2</v>
@@ -29464,7 +29464,7 @@
         <v>1046</v>
       </c>
       <c r="D179" s="94" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -29473,7 +29473,7 @@
         <v>5</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29855,7 +29855,7 @@
         <v>1046</v>
       </c>
       <c r="D196" s="94" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E196" s="14">
         <v>2</v>
@@ -29878,7 +29878,7 @@
         <v>1046</v>
       </c>
       <c r="D197" s="94" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E197" s="14">
         <v>2</v>
@@ -29887,7 +29887,7 @@
         <v>5</v>
       </c>
       <c r="G197" s="15" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -39117,7 +39117,7 @@
         <v>1169</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -39163,7 +39163,7 @@
         <v>1169</v>
       </c>
       <c r="D600" s="10" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E600" s="8">
         <v>5</v>
@@ -39186,7 +39186,7 @@
         <v>1169</v>
       </c>
       <c r="D601" s="10" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E601" s="14">
         <v>2</v>
@@ -39209,7 +39209,7 @@
         <v>1169</v>
       </c>
       <c r="D602" s="15" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E602" s="14">
         <v>2</v>
@@ -39255,7 +39255,7 @@
         <v>1169</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E604" s="14">
         <v>5</v>
@@ -39301,7 +39301,7 @@
         <v>1169</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E606" s="14">
         <v>5</v>
@@ -39324,7 +39324,7 @@
         <v>1169</v>
       </c>
       <c r="D607" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E607" s="14">
         <v>2</v>
@@ -39347,7 +39347,7 @@
         <v>1169</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E608" s="14">
         <v>2</v>
@@ -39393,7 +39393,7 @@
         <v>1169</v>
       </c>
       <c r="D610" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E610" s="8">
         <v>5</v>
@@ -39439,7 +39439,7 @@
         <v>1169</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E612" s="8">
         <v>5</v>
@@ -39462,7 +39462,7 @@
         <v>1169</v>
       </c>
       <c r="D613" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E613" s="14">
         <v>2</v>
@@ -39485,7 +39485,7 @@
         <v>1169</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E614" s="14">
         <v>2</v>
@@ -39531,7 +39531,7 @@
         <v>1169</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -39577,7 +39577,7 @@
         <v>1169</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E618" s="8">
         <v>5</v>
@@ -39600,7 +39600,7 @@
         <v>1169</v>
       </c>
       <c r="D619" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E619" s="14">
         <v>2</v>
@@ -39623,7 +39623,7 @@
         <v>1169</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E620" s="14">
         <v>2</v>
@@ -39669,7 +39669,7 @@
         <v>1169</v>
       </c>
       <c r="D622" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E622" s="8">
         <v>5</v>
@@ -39715,7 +39715,7 @@
         <v>1169</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E624" s="8">
         <v>5</v>
@@ -39738,7 +39738,7 @@
         <v>1169</v>
       </c>
       <c r="D625" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E625" s="14">
         <v>2</v>
@@ -39761,7 +39761,7 @@
         <v>1169</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E626" s="14">
         <v>2</v>
@@ -39807,7 +39807,7 @@
         <v>1169</v>
       </c>
       <c r="D628" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E628" s="8">
         <v>5</v>
@@ -39853,7 +39853,7 @@
         <v>1169</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E630" s="8">
         <v>5</v>
@@ -39876,7 +39876,7 @@
         <v>1169</v>
       </c>
       <c r="D631" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E631" s="14">
         <v>2</v>
@@ -39899,7 +39899,7 @@
         <v>1169</v>
       </c>
       <c r="D632" s="15" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E632" s="14">
         <v>2</v>
@@ -40894,7 +40894,7 @@
         <v>1169</v>
       </c>
       <c r="D675" s="10" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E675" s="8">
         <v>2</v>
@@ -44367,7 +44367,7 @@
         <v>1046</v>
       </c>
       <c r="D826" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E826" s="14">
         <v>2</v>
@@ -44928,10 +44928,10 @@
         <v>336</v>
       </c>
       <c r="C850" s="10" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D850" s="9" t="s">
         <v>1892</v>
-      </c>
-      <c r="D850" s="9" t="s">
-        <v>1893</v>
       </c>
       <c r="E850" s="9">
         <v>5</v>
@@ -44954,16 +44954,16 @@
         <v>1046</v>
       </c>
       <c r="D851" s="104" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E851" s="103">
+        <v>2</v>
+      </c>
+      <c r="F851" s="103">
+        <v>1</v>
+      </c>
+      <c r="G851" s="104" t="s">
         <v>1884</v>
-      </c>
-      <c r="E851" s="103">
-        <v>2</v>
-      </c>
-      <c r="F851" s="103">
-        <v>1</v>
-      </c>
-      <c r="G851" s="104" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="852" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44986,7 +44986,7 @@
         <v>1</v>
       </c>
       <c r="G852" s="104" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="853" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -45009,7 +45009,7 @@
         <v>1</v>
       </c>
       <c r="G853" s="103" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="854" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -45023,7 +45023,7 @@
         <v>1046</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="E854" s="14">
         <v>5</v>
@@ -45032,7 +45032,7 @@
         <v>1</v>
       </c>
       <c r="G854" s="14" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="860" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45063,8 +45063,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -45198,7 +45198,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>898</v>
@@ -45273,7 +45273,7 @@
         <v>898</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1872</v>
+        <v>1895</v>
       </c>
       <c r="E9">
         <v>2</v>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="1896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="1897">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8834,14 +8834,6 @@
     <t>新人专享（新人才展示）</t>
   </si>
   <si>
-    <t>rank_leijiyingjin_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不展示给冲金鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>share_condition</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8859,6 +8851,31 @@
   </si>
   <si>
     <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>actp_rank_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leijiyingjin_rank</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj关闭累计赢金</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9642,7 +9659,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q410"/>
+  <dimension ref="A1:Q408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
@@ -13985,17 +14002,6 @@
         <v>91</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A410" s="3" t="s">
-        <v>1889</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C410" s="3">
-        <v>338</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14008,11 +14014,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F310" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G333" sqref="G333"/>
+      <selection pane="bottomRight" activeCell="L334" sqref="L334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25110,8 +25116,8 @@
       <c r="I328" t="b">
         <v>1</v>
       </c>
-      <c r="J328" s="26" t="s">
-        <v>468</v>
+      <c r="J328" s="30" t="s">
+        <v>1896</v>
       </c>
       <c r="K328" s="26">
         <v>0</v>
@@ -25279,6 +25285,38 @@
         <v>0</v>
       </c>
       <c r="L333" s="26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A334" s="26">
+        <v>333</v>
+      </c>
+      <c r="B334" s="26">
+        <v>1</v>
+      </c>
+      <c r="C334" s="30" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D334" s="30" t="s">
+        <v>1895</v>
+      </c>
+      <c r="G334" s="26">
+        <v>338</v>
+      </c>
+      <c r="H334" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I334" t="b">
+        <v>1</v>
+      </c>
+      <c r="J334" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="K334" s="26">
+        <v>0</v>
+      </c>
+      <c r="L334" s="26" t="s">
         <v>469</v>
       </c>
     </row>
@@ -44928,10 +44966,10 @@
         <v>336</v>
       </c>
       <c r="C850" s="10" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="D850" s="9" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="E850" s="9">
         <v>5</v>
@@ -45023,7 +45061,7 @@
         <v>1046</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="E854" s="14">
         <v>5</v>
@@ -45032,7 +45070,7 @@
         <v>1</v>
       </c>
       <c r="G854" s="14" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="860" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45063,7 +45101,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -45273,7 +45311,7 @@
         <v>898</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="E9">
         <v>2</v>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="1897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="1899">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -5452,10 +5452,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_rank_type = xxx 的活动排行榜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>2020年6月15日23:59:59结束</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -7178,10 +7174,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>drt_block_new_player_happy_seven_day</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>drt_cpl_start_jing_bi</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -7537,10 +7529,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>2020年9月21日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>VIP</t>
     </r>
@@ -7653,19 +7641,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>欢乐敲金蛋活动使用锤子（V1以上，非新玩家）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_028_xycd</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>actp_own_task_p_027_mfflq</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_029_hlqjd_hammer</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -8322,14 +8302,6 @@
   </si>
   <si>
     <t>龙王争霸V8以上培育上限</t>
-  </si>
-  <si>
-    <t>vip_level</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag_type</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8642,7 +8614,12 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_buy_gift_bag_10346</t>
+    <t>xrzx_newplayer</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享（新人才展示）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每日特惠礼包_免费用户   （冲金鸡）</t>
@@ -8801,51 +8778,80 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>新人七天乐（新版）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+  </si>
+  <si>
+    <t>是cpl渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须在2020年11月10日8:30后第一次登录</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt_block_new_player_happy_seven_day</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_new_player</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10346</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_new_player</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_029_hlqjd_hammer</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋活动使用锤子（V1以上，非新玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年11月23日23:59:59结束</t>
+  </si>
+  <si>
+    <t>2020年11月23日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_xrqtl_new</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>新人七天乐（新版）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>now</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_cpl</t>
-  </si>
-  <si>
-    <t>是cpl渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须在2020年11月10日8:30后第一次登录</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新用户</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>xrzx_newplayer</t>
-  </si>
-  <si>
-    <t>新人专享（新人才展示）</t>
-  </si>
-  <si>
-    <t>share_condition</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_cjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>不展示给cjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8854,28 +8860,19 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>actp_rank_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>leijiyingjin_rank</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj关闭累计赢金</t>
+    <t>actp_rank_type = xxx 的活动排行榜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj关闭累计赢金榜</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>day_delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_leijiyingjin_rank</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -8962,7 +8959,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9071,6 +9068,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -9100,7 +9103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9376,11 +9379,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9662,7 +9680,7 @@
   <dimension ref="A1:Q408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C410" sqref="C410"/>
     </sheetView>
   </sheetViews>
@@ -10628,7 +10646,7 @@
       <c r="B55" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="54">
+      <c r="C55" s="9">
         <v>22</v>
       </c>
       <c r="H55" s="9"/>
@@ -10661,7 +10679,7 @@
         <v>110</v>
       </c>
       <c r="C57" s="54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="K57" s="9"/>
@@ -10850,7 +10868,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -10868,7 +10886,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -10886,7 +10904,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -10904,7 +10922,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -10922,9 +10940,11 @@
         <v>137</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C74" s="57"/>
+        <v>1725</v>
+      </c>
+      <c r="C74" s="57">
+        <v>22</v>
+      </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="I74" s="9"/>
@@ -10934,9 +10954,11 @@
         <v>138</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C75" s="57"/>
+        <v>1726</v>
+      </c>
+      <c r="C75" s="57">
+        <v>22</v>
+      </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="G75" s="9"/>
@@ -10947,9 +10969,11 @@
         <v>139</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>1732</v>
-      </c>
-      <c r="C76" s="57"/>
+        <v>1727</v>
+      </c>
+      <c r="C76" s="57">
+        <v>22</v>
+      </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="I76" s="9"/>
@@ -10960,10 +10984,10 @@
         <v>140</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="C77" s="57">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -10975,7 +10999,7 @@
         <v>141</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="C78" s="9">
         <v>23</v>
@@ -10990,7 +11014,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="C79" s="9">
         <v>24</v>
@@ -11005,7 +11029,7 @@
         <v>143</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="C80" s="9">
         <v>25</v>
@@ -11020,7 +11044,7 @@
         <v>144</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="C81" s="9">
         <v>26</v>
@@ -11035,7 +11059,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -11096,7 +11120,9 @@
       <c r="B88" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="57"/>
+      <c r="C88" s="57">
+        <v>22</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
@@ -11105,7 +11131,9 @@
       <c r="B89" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="57"/>
+      <c r="C89" s="57">
+        <v>22</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
@@ -11114,7 +11142,9 @@
       <c r="B90" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="57"/>
+      <c r="C90" s="57">
+        <v>22</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
@@ -11124,7 +11154,7 @@
         <v>161</v>
       </c>
       <c r="C91" s="57">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -11184,7 +11214,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="27" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B98" s="27" t="s">
         <v>172</v>
@@ -11607,7 +11637,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="53" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B142" s="53" t="s">
         <v>249</v>
@@ -11728,10 +11758,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="61" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C154" s="14">
         <v>267</v>
@@ -11739,10 +11769,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="61" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C155" s="14">
         <v>268</v>
@@ -11750,10 +11780,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="61" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C156" s="14">
         <v>269</v>
@@ -11761,10 +11791,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="61" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C157" s="14">
         <v>270</v>
@@ -11772,10 +11802,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="61" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C158" s="14">
         <v>271</v>
@@ -11783,10 +11813,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="61" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C159" s="14">
         <v>272</v>
@@ -11794,10 +11824,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="61" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C160" s="14">
         <v>273</v>
@@ -11805,10 +11835,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="61" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C161" s="14">
         <v>274</v>
@@ -11816,10 +11846,10 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="61" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C162" s="14">
         <v>275</v>
@@ -11827,10 +11857,10 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="61" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C163" s="14">
         <v>276</v>
@@ -11838,10 +11868,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="61" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C164" s="14">
         <v>277</v>
@@ -11849,10 +11879,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="61" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C165" s="14">
         <v>278</v>
@@ -11860,10 +11890,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="61" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C166" s="14">
         <v>279</v>
@@ -12009,7 +12039,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="34" t="s">
-        <v>1783</v>
+        <v>1778</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>293</v>
@@ -12194,7 +12224,7 @@
     </row>
     <row r="200" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="60" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B200" s="60" t="s">
         <v>327</v>
@@ -12222,24 +12252,24 @@
       </c>
       <c r="J201" s="8"/>
     </row>
-    <row r="202" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="34" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B202" s="34" t="s">
+    <row r="202" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="64" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B202" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="C202" s="18">
+      <c r="C202" s="65">
         <v>79</v>
       </c>
-      <c r="D202" s="34" t="s">
+      <c r="D202" s="64" t="s">
         <v>333</v>
       </c>
-      <c r="J202" s="8"/>
+      <c r="J202" s="103"/>
     </row>
     <row r="203" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="34" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B203" s="34" t="s">
         <v>334</v>
@@ -12254,10 +12284,10 @@
     </row>
     <row r="204" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="60" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B204" s="60" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C204" s="61">
         <v>81</v>
@@ -12508,7 +12538,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>374</v>
@@ -12835,7 +12865,7 @@
         <v>429</v>
       </c>
       <c r="B263" s="34" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C263" s="18">
         <v>149</v>
@@ -13006,7 +13036,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="27" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B288" s="27" t="s">
         <v>1110</v>
@@ -13109,10 +13139,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="27" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B300" s="27" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C300" s="9">
         <v>177</v>
@@ -13120,10 +13150,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B302" s="3" t="s">
         <v>1275</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>1276</v>
       </c>
       <c r="C302" s="3">
         <v>192</v>
@@ -13131,10 +13161,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B303" s="3" t="s">
         <v>1277</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>1278</v>
       </c>
       <c r="C303" s="3">
         <v>197</v>
@@ -13142,10 +13172,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="27" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B305" s="27" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C305" s="3">
         <v>204</v>
@@ -13153,10 +13183,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="27" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B306" s="27" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C306" s="3">
         <v>205</v>
@@ -13164,10 +13194,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="27" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B307" s="27" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C307" s="3">
         <v>206</v>
@@ -13175,10 +13205,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="27" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B308" s="27" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C308" s="3">
         <v>207</v>
@@ -13186,10 +13216,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="27" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B309" s="27" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C309" s="3">
         <v>208</v>
@@ -13197,10 +13227,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B310" s="27" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C310" s="3">
         <v>209</v>
@@ -13208,10 +13238,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="27" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B311" s="27" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C311" s="3">
         <v>210</v>
@@ -13219,10 +13249,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="27" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B312" s="27" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C312" s="3">
         <v>211</v>
@@ -13230,10 +13260,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="27" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B313" s="27" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C313" s="3">
         <v>212</v>
@@ -13241,10 +13271,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="27" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B314" s="27" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C314" s="3">
         <v>213</v>
@@ -13252,10 +13282,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="27" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B315" s="27" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C315" s="3">
         <v>214</v>
@@ -13267,10 +13297,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="27" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B317" s="27" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C317" s="3">
         <v>215</v>
@@ -13278,10 +13308,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="27" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B318" s="27" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C318" s="3">
         <v>216</v>
@@ -13289,10 +13319,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="27" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B319" s="27" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C319" s="3">
         <v>217</v>
@@ -13300,10 +13330,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="27" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B320" s="27" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C320" s="3">
         <v>218</v>
@@ -13311,10 +13341,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="27" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B321" s="27" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C321" s="3">
         <v>219</v>
@@ -13322,10 +13352,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="27" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B322" s="27" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C322" s="3">
         <v>220</v>
@@ -13333,10 +13363,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="27" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B323" s="27" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C323" s="3">
         <v>221</v>
@@ -13344,10 +13374,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="27" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B324" s="27" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C324" s="3">
         <v>222</v>
@@ -13355,10 +13385,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="27" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B325" s="27" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C325" s="3">
         <v>223</v>
@@ -13366,10 +13396,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="27" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B326" s="27" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C326" s="3">
         <v>224</v>
@@ -13377,10 +13407,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="27" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B327" s="27" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C327" s="3">
         <v>225</v>
@@ -13391,10 +13421,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="27" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B329" s="27" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C329" s="54">
         <v>249</v>
@@ -13402,91 +13432,91 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="27" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B330" s="27" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C330" s="54"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="27" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B331" s="27" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="27" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B332" s="27" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="27" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B333" s="27" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="27" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B334" s="27" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="27" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B335" s="27" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="27" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B336" s="27" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="27" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B337" s="27" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="27" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B338" s="27" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="27" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B339" s="27" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="27" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B341" s="27" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C341" s="54">
         <v>24</v>
@@ -13494,91 +13524,91 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="27" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B342" s="27" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C342" s="54"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="27" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B343" s="27" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="27" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B344" s="27" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="27" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B345" s="27" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="27" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B346" s="27" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="27" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B347" s="27" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="27" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B348" s="27" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="27" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B349" s="27" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="27" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B350" s="27" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="27" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B351" s="27" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="27" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C353" s="3">
         <v>226</v>
@@ -13586,10 +13616,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="27" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B354" s="27" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C354" s="3">
         <v>227</v>
@@ -13597,10 +13627,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="27" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B355" s="27" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C355" s="3">
         <v>228</v>
@@ -13608,10 +13638,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C356" s="3">
         <v>229</v>
@@ -13619,10 +13649,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="27" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B357" s="27" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C357" s="3">
         <v>230</v>
@@ -13630,10 +13660,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="27" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B358" s="27" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C358" s="3">
         <v>231</v>
@@ -13641,10 +13671,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="27" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="B359" s="27" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="C359" s="3">
         <v>8</v>
@@ -13652,10 +13682,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="27" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B361" s="27" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C361" s="3">
         <v>91</v>
@@ -13663,10 +13693,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="27" t="s">
-        <v>1829</v>
+        <v>1822</v>
       </c>
       <c r="B363" s="34" t="s">
-        <v>1830</v>
+        <v>1823</v>
       </c>
       <c r="C363" s="3">
         <v>332</v>
@@ -13674,10 +13704,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="27" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B364" s="34" t="s">
-        <v>1827</v>
+        <v>1820</v>
       </c>
       <c r="C364" s="3">
         <v>242</v>
@@ -13685,10 +13715,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="27" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B365" s="27" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C365" s="3">
         <v>243</v>
@@ -13696,10 +13726,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="27" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B366" s="27" t="s">
-        <v>1828</v>
+        <v>1821</v>
       </c>
       <c r="C366" s="3">
         <v>244</v>
@@ -13707,10 +13737,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B369" s="27" t="s">
-        <v>1766</v>
+        <v>1761</v>
       </c>
       <c r="C369" s="3">
         <v>248</v>
@@ -13718,10 +13748,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="27" t="s">
-        <v>1762</v>
+        <v>1757</v>
       </c>
       <c r="B371" s="27" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C371" s="3">
         <v>256</v>
@@ -13729,10 +13759,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B372" s="3" t="s">
         <v>1535</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>1536</v>
       </c>
       <c r="C372" s="3">
         <v>257</v>
@@ -13740,10 +13770,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="27" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B374" s="27" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C374" s="3">
         <v>258</v>
@@ -13751,10 +13781,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B376" s="3" t="s">
         <v>1558</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>1559</v>
       </c>
       <c r="C376" s="3">
         <v>266</v>
@@ -13762,10 +13792,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="27" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B378" s="27" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="C378" s="3">
         <v>287</v>
@@ -13773,10 +13803,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="27" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="B380" s="27" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="C380" s="3">
         <v>292</v>
@@ -13784,10 +13814,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="27" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="B382" s="27" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="C382" s="3">
         <v>319</v>
@@ -13795,10 +13825,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="27" t="s">
-        <v>1777</v>
+        <v>1772</v>
       </c>
       <c r="B384" s="27" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
       <c r="C384" s="3">
         <v>326</v>
@@ -13806,10 +13836,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="27" t="s">
-        <v>1778</v>
+        <v>1773</v>
       </c>
       <c r="B386" s="27" t="s">
-        <v>1764</v>
+        <v>1759</v>
       </c>
       <c r="C386" s="3">
         <v>327</v>
@@ -13817,10 +13847,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="27" t="s">
-        <v>1770</v>
+        <v>1765</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="C388" s="3">
         <v>328</v>
@@ -13828,10 +13858,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="27" t="s">
-        <v>1780</v>
+        <v>1775</v>
       </c>
       <c r="B390" s="27" t="s">
-        <v>1779</v>
+        <v>1774</v>
       </c>
       <c r="C390" s="3">
         <v>319</v>
@@ -13839,10 +13869,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="34" t="s">
-        <v>1789</v>
+        <v>1784</v>
       </c>
       <c r="B392" s="34" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
       <c r="C392" s="8">
         <v>127</v>
@@ -13850,10 +13880,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="34" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="C393" s="8">
         <v>128</v>
@@ -13861,10 +13891,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="34" t="s">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="C394" s="8">
         <v>129</v>
@@ -13872,10 +13902,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="34" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="C395" s="8">
         <v>130</v>
@@ -13883,10 +13913,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="34" t="s">
-        <v>1793</v>
+        <v>1788</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="C396" s="8">
         <v>131</v>
@@ -13894,10 +13924,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="34" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
       <c r="C397" s="8">
         <v>132</v>
@@ -13905,10 +13935,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="34" t="s">
-        <v>1795</v>
+        <v>1790</v>
       </c>
       <c r="B398" s="34" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="C398" s="8">
         <v>133</v>
@@ -13916,10 +13946,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="34" t="s">
-        <v>1796</v>
+        <v>1791</v>
       </c>
       <c r="B399" s="34" t="s">
-        <v>1805</v>
+        <v>1800</v>
       </c>
       <c r="C399" s="8">
         <v>134</v>
@@ -13927,10 +13957,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="34" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="B400" s="34" t="s">
-        <v>1806</v>
+        <v>1801</v>
       </c>
       <c r="C400" s="8">
         <v>135</v>
@@ -13938,10 +13968,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="27" t="s">
-        <v>1837</v>
+        <v>1830</v>
       </c>
       <c r="B402" s="27" t="s">
-        <v>1838</v>
+        <v>1831</v>
       </c>
       <c r="C402" s="3">
         <v>333</v>
@@ -13949,10 +13979,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="27" t="s">
-        <v>1839</v>
+        <v>1832</v>
       </c>
       <c r="B403" s="27" t="s">
-        <v>1840</v>
+        <v>1833</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -13960,10 +13990,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="27" t="s">
-        <v>1841</v>
+        <v>1834</v>
       </c>
       <c r="B404" s="27" t="s">
-        <v>1842</v>
+        <v>1835</v>
       </c>
       <c r="C404" s="3">
         <v>333</v>
@@ -13971,10 +14001,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="27" t="s">
-        <v>1843</v>
+        <v>1836</v>
       </c>
       <c r="B405" s="27" t="s">
-        <v>1844</v>
+        <v>1837</v>
       </c>
       <c r="C405" s="3">
         <v>333</v>
@@ -13982,10 +14012,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="27" t="s">
-        <v>1845</v>
+        <v>1838</v>
       </c>
       <c r="B406" s="27" t="s">
-        <v>1846</v>
+        <v>1839</v>
       </c>
       <c r="C406" s="3">
         <v>333</v>
@@ -13993,10 +14023,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="27" t="s">
-        <v>1887</v>
+        <v>1845</v>
       </c>
       <c r="B408" s="27" t="s">
-        <v>1888</v>
+        <v>1846</v>
       </c>
       <c r="C408" s="3">
         <v>91</v>
@@ -14014,8 +14044,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G305" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G308" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="L334" sqref="L334"/>
@@ -14133,7 +14163,7 @@
         <v>472</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -14197,10 +14227,10 @@
         <v>1050</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1182</v>
+        <v>1895</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -14293,7 +14323,7 @@
         <v>484</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -14333,7 +14363,7 @@
         <v>488</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
@@ -14356,7 +14386,7 @@
         <v>469</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1782</v>
+        <v>1777</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>1181</v>
@@ -14373,7 +14403,7 @@
         <v>490</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -14413,7 +14443,7 @@
         <v>493</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
@@ -14449,7 +14479,7 @@
         <v>494</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
@@ -14485,7 +14515,7 @@
         <v>496</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -14521,7 +14551,7 @@
         <v>497</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
@@ -14557,7 +14587,7 @@
         <v>498</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
@@ -14593,7 +14623,7 @@
         <v>500</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
@@ -14629,7 +14659,7 @@
         <v>501</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -14665,7 +14695,7 @@
         <v>502</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -14701,7 +14731,7 @@
         <v>504</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
@@ -14737,7 +14767,7 @@
         <v>505</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -14842,7 +14872,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>507</v>
@@ -14878,10 +14908,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
@@ -14914,10 +14944,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
@@ -14950,10 +14980,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
@@ -18166,7 +18196,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>507</v>
@@ -19660,7 +19690,7 @@
         <v>0</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>749</v>
@@ -20068,7 +20098,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>774</v>
@@ -20751,7 +20781,7 @@
         <v>0</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D196" s="30" t="s">
         <v>812</v>
@@ -21140,7 +21170,7 @@
         <v>0</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D208" s="30" t="s">
         <v>827</v>
@@ -21708,7 +21738,7 @@
         <v>0</v>
       </c>
       <c r="C225" s="29" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D225" s="29" t="s">
         <v>1142</v>
@@ -21742,10 +21772,10 @@
         <v>1</v>
       </c>
       <c r="C226" s="79" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D226" s="78" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E226" s="78"/>
       <c r="F226" s="78"/>
@@ -21759,13 +21789,13 @@
         <v>1</v>
       </c>
       <c r="J226" s="78" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="K226" s="78">
         <v>1592263800</v>
       </c>
       <c r="L226" s="79" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="227" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
@@ -21776,7 +21806,7 @@
         <v>0</v>
       </c>
       <c r="C227" s="86" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D227" s="86" t="s">
         <v>1153</v>
@@ -21810,10 +21840,10 @@
         <v>0</v>
       </c>
       <c r="C228" s="73" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D228" s="73" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E228" s="72"/>
       <c r="F228" s="72"/>
@@ -21844,10 +21874,10 @@
         <v>0</v>
       </c>
       <c r="C229" s="29" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D229" s="29" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E229" s="28"/>
       <c r="F229" s="28"/>
@@ -21878,10 +21908,10 @@
         <v>0</v>
       </c>
       <c r="C230" s="82" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D230" s="82" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E230" s="81"/>
       <c r="F230" s="81"/>
@@ -21912,10 +21942,10 @@
         <v>0</v>
       </c>
       <c r="C231" s="79" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D231" s="79" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E231" s="78"/>
       <c r="F231" s="78"/>
@@ -21929,13 +21959,13 @@
         <v>1</v>
       </c>
       <c r="J231" s="79" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="K231" s="78">
         <v>1591632000</v>
       </c>
       <c r="L231" s="79" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="232" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -21946,10 +21976,10 @@
         <v>0</v>
       </c>
       <c r="C232" s="29" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D232" s="29" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E232" s="28"/>
       <c r="F232" s="28"/>
@@ -21969,7 +21999,7 @@
         <v>1591659000</v>
       </c>
       <c r="L232" s="29" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="233" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
@@ -21980,10 +22010,10 @@
         <v>1</v>
       </c>
       <c r="C233" s="73" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D233" s="72" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E233" s="72"/>
       <c r="F233" s="72"/>
@@ -21997,13 +22027,13 @@
         <v>1</v>
       </c>
       <c r="J233" s="72" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="K233" s="72">
         <v>1592263800</v>
       </c>
       <c r="L233" s="72" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="234" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -22014,10 +22044,10 @@
         <v>1</v>
       </c>
       <c r="C234" s="29" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D234" s="29" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E234" s="28"/>
       <c r="F234" s="28"/>
@@ -22031,13 +22061,13 @@
         <v>1</v>
       </c>
       <c r="J234" s="29" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="K234" s="28">
         <v>1592263800</v>
       </c>
       <c r="L234" s="29" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="235" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -22048,10 +22078,10 @@
         <v>1</v>
       </c>
       <c r="C235" s="29" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D235" s="29" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E235" s="28"/>
       <c r="F235" s="28"/>
@@ -22071,7 +22101,7 @@
         <v>1592263800</v>
       </c>
       <c r="L235" s="29" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="236" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22082,10 +22112,10 @@
         <v>1</v>
       </c>
       <c r="C236" s="79" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D236" s="79" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E236" s="78"/>
       <c r="F236" s="78"/>
@@ -22099,13 +22129,13 @@
         <v>1</v>
       </c>
       <c r="J236" s="79" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K236" s="78">
         <v>1592263800</v>
       </c>
       <c r="L236" s="79" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="237" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22116,10 +22146,10 @@
         <v>1</v>
       </c>
       <c r="C237" s="79" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D237" s="79" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E237" s="78"/>
       <c r="F237" s="78"/>
@@ -22133,13 +22163,13 @@
         <v>1</v>
       </c>
       <c r="J237" s="79" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K237" s="78">
         <v>1592263800</v>
       </c>
       <c r="L237" s="79" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="238" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22150,10 +22180,10 @@
         <v>1</v>
       </c>
       <c r="C238" s="79" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D238" s="79" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E238" s="78"/>
       <c r="F238" s="78"/>
@@ -22167,13 +22197,13 @@
         <v>1</v>
       </c>
       <c r="J238" s="79" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K238" s="78">
         <v>1592263800</v>
       </c>
       <c r="L238" s="79" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="239" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
@@ -22184,10 +22214,10 @@
         <v>1</v>
       </c>
       <c r="C239" s="82" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D239" s="82" t="s">
         <v>1221</v>
-      </c>
-      <c r="D239" s="82" t="s">
-        <v>1222</v>
       </c>
       <c r="E239" s="81"/>
       <c r="F239" s="81"/>
@@ -22201,13 +22231,13 @@
         <v>1</v>
       </c>
       <c r="J239" s="82" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="K239" s="81">
         <v>1592263800</v>
       </c>
       <c r="L239" s="82" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="240" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
@@ -22218,10 +22248,10 @@
         <v>1</v>
       </c>
       <c r="C240" s="86" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D240" s="86" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E240" s="85"/>
       <c r="F240" s="85"/>
@@ -22235,13 +22265,13 @@
         <v>1</v>
       </c>
       <c r="J240" s="86" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="K240" s="85">
         <v>1592263800</v>
       </c>
       <c r="L240" s="86" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="241" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.2">
@@ -22252,10 +22282,10 @@
         <v>1</v>
       </c>
       <c r="C241" s="86" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D241" s="86" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E241" s="85"/>
       <c r="F241" s="85"/>
@@ -22269,13 +22299,13 @@
         <v>1</v>
       </c>
       <c r="J241" s="86" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="K241" s="85">
         <v>1592263800</v>
       </c>
       <c r="L241" s="86" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="242" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22286,10 +22316,10 @@
         <v>1</v>
       </c>
       <c r="C242" s="79" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D242" s="79" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E242" s="78"/>
       <c r="F242" s="78"/>
@@ -22303,13 +22333,13 @@
         <v>1</v>
       </c>
       <c r="J242" s="79" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K242" s="78">
         <v>1592236800</v>
       </c>
       <c r="L242" s="79" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="243" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22320,10 +22350,10 @@
         <v>1</v>
       </c>
       <c r="C243" s="79" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D243" s="79" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E243" s="78"/>
       <c r="F243" s="78"/>
@@ -22337,13 +22367,13 @@
         <v>1</v>
       </c>
       <c r="J243" s="79" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="K243" s="78">
         <v>1592263800</v>
       </c>
       <c r="L243" s="79" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="244" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -22354,10 +22384,10 @@
         <v>1</v>
       </c>
       <c r="C244" s="29" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D244" s="28" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E244" s="28"/>
       <c r="F244" s="28"/>
@@ -22371,13 +22401,13 @@
         <v>1</v>
       </c>
       <c r="J244" s="28" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="K244" s="28">
         <v>1592841600</v>
       </c>
       <c r="L244" s="28" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="245" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22388,10 +22418,10 @@
         <v>1</v>
       </c>
       <c r="C245" s="79" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D245" s="79" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E245" s="78"/>
       <c r="F245" s="78"/>
@@ -22405,13 +22435,13 @@
         <v>1</v>
       </c>
       <c r="J245" s="79" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="K245" s="78">
         <v>1592868600</v>
       </c>
       <c r="L245" s="79" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="246" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22422,10 +22452,10 @@
         <v>1</v>
       </c>
       <c r="C246" s="79" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D246" s="79" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E246" s="78"/>
       <c r="F246" s="78"/>
@@ -22439,13 +22469,13 @@
         <v>1</v>
       </c>
       <c r="J246" s="79" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K246" s="78">
         <v>1592868600</v>
       </c>
       <c r="L246" s="79" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="247" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22456,10 +22486,10 @@
         <v>1</v>
       </c>
       <c r="C247" s="79" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D247" s="79" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E247" s="78"/>
       <c r="F247" s="78"/>
@@ -22473,13 +22503,13 @@
         <v>1</v>
       </c>
       <c r="J247" s="79" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="K247" s="78">
         <v>1592868600</v>
       </c>
       <c r="L247" s="79" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -22490,10 +22520,10 @@
         <v>1</v>
       </c>
       <c r="C248" s="28" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D248" s="28" t="s">
         <v>1271</v>
-      </c>
-      <c r="D248" s="28" t="s">
-        <v>1272</v>
       </c>
       <c r="E248" s="28"/>
       <c r="F248" s="28"/>
@@ -22507,13 +22537,13 @@
         <v>1</v>
       </c>
       <c r="J248" s="28" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K248" s="28">
         <v>1592868600</v>
       </c>
       <c r="L248" s="28" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="249" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -22524,10 +22554,10 @@
         <v>1</v>
       </c>
       <c r="C249" s="29" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D249" s="29" t="s">
         <v>1281</v>
-      </c>
-      <c r="D249" s="29" t="s">
-        <v>1282</v>
       </c>
       <c r="E249" s="28"/>
       <c r="F249" s="28"/>
@@ -22547,7 +22577,7 @@
         <v>1592868600</v>
       </c>
       <c r="L249" s="28" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -22558,10 +22588,10 @@
         <v>1</v>
       </c>
       <c r="C250" s="30" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D250" s="92" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G250" s="26">
         <v>232</v>
@@ -22573,13 +22603,13 @@
         <v>1</v>
       </c>
       <c r="J250" s="30" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="K250" s="26">
         <v>1588028400</v>
       </c>
       <c r="L250" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -22590,10 +22620,10 @@
         <v>1</v>
       </c>
       <c r="C251" s="30" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D251" s="92" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G251" s="26">
         <v>233</v>
@@ -22605,13 +22635,13 @@
         <v>1</v>
       </c>
       <c r="J251" s="30" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="K251" s="26">
         <v>1588028400</v>
       </c>
       <c r="L251" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -22622,10 +22652,10 @@
         <v>1</v>
       </c>
       <c r="C252" s="30" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D252" s="92" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G252" s="26">
         <v>234</v>
@@ -22637,13 +22667,13 @@
         <v>1</v>
       </c>
       <c r="J252" s="30" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="K252" s="26">
         <v>1588028400</v>
       </c>
       <c r="L252" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -22654,10 +22684,10 @@
         <v>1</v>
       </c>
       <c r="C253" s="30" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D253" s="92" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G253" s="26">
         <v>235</v>
@@ -22669,13 +22699,13 @@
         <v>1</v>
       </c>
       <c r="J253" s="30" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="K253" s="26">
         <v>1588028400</v>
       </c>
       <c r="L253" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -22686,10 +22716,10 @@
         <v>1</v>
       </c>
       <c r="C254" s="30" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D254" s="92" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G254" s="26">
         <v>236</v>
@@ -22701,13 +22731,13 @@
         <v>1</v>
       </c>
       <c r="J254" s="30" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="K254" s="26">
         <v>1588028400</v>
       </c>
       <c r="L254" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -22718,10 +22748,10 @@
         <v>1</v>
       </c>
       <c r="C255" s="30" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D255" s="92" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G255" s="26">
         <v>237</v>
@@ -22733,13 +22763,13 @@
         <v>1</v>
       </c>
       <c r="J255" s="30" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="K255" s="26">
         <v>1588028400</v>
       </c>
       <c r="L255" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -22750,10 +22780,10 @@
         <v>1</v>
       </c>
       <c r="C256" s="30" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D256" s="92" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G256" s="26">
         <v>238</v>
@@ -22765,13 +22795,13 @@
         <v>1</v>
       </c>
       <c r="J256" s="30" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="K256" s="26">
         <v>1588028400</v>
       </c>
       <c r="L256" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -22782,10 +22812,10 @@
         <v>1</v>
       </c>
       <c r="C257" s="30" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D257" s="92" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G257" s="26">
         <v>239</v>
@@ -22797,13 +22827,13 @@
         <v>1</v>
       </c>
       <c r="J257" s="30" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="K257" s="26">
         <v>1588028400</v>
       </c>
       <c r="L257" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -22814,10 +22844,10 @@
         <v>1</v>
       </c>
       <c r="C258" s="30" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D258" s="92" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="G258" s="26">
         <v>240</v>
@@ -22829,13 +22859,13 @@
         <v>1</v>
       </c>
       <c r="J258" s="30" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="K258" s="26">
         <v>1588028400</v>
       </c>
       <c r="L258" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -22846,10 +22876,10 @@
         <v>1</v>
       </c>
       <c r="C259" s="30" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D259" s="92" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="G259" s="26">
         <v>241</v>
@@ -22861,13 +22891,13 @@
         <v>1</v>
       </c>
       <c r="J259" s="30" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="K259" s="26">
         <v>1588028400</v>
       </c>
       <c r="L259" s="30" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -22878,10 +22908,10 @@
         <v>1</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G260" s="26">
         <v>246</v>
@@ -22899,7 +22929,7 @@
         <v>1597075200</v>
       </c>
       <c r="L260" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -22910,10 +22940,10 @@
         <v>1</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D261" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G261" s="26">
         <v>247</v>
@@ -22925,13 +22955,13 @@
         <v>1</v>
       </c>
       <c r="J261" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="K261" s="17">
         <v>1597075200</v>
       </c>
       <c r="L261" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -22942,10 +22972,10 @@
         <v>1</v>
       </c>
       <c r="C262" s="30" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D262" s="16" t="s">
         <v>1501</v>
-      </c>
-      <c r="D262" s="16" t="s">
-        <v>1502</v>
       </c>
       <c r="G262" s="26">
         <v>245</v>
@@ -22957,13 +22987,13 @@
         <v>1</v>
       </c>
       <c r="J262" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="K262" s="17">
         <v>1597075200</v>
       </c>
       <c r="L262" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -22974,10 +23004,10 @@
         <v>1</v>
       </c>
       <c r="C263" s="53" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D263" s="16" t="s">
         <v>1503</v>
-      </c>
-      <c r="D263" s="16" t="s">
-        <v>1504</v>
       </c>
       <c r="G263" s="26">
         <v>245</v>
@@ -22995,7 +23025,7 @@
         <v>1597075200</v>
       </c>
       <c r="L263" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -23006,10 +23036,10 @@
         <v>1</v>
       </c>
       <c r="C264" s="30" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D264" s="53" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G264" s="26">
         <v>250</v>
@@ -23027,7 +23057,7 @@
         <v>1597707000</v>
       </c>
       <c r="L264" s="26" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -23038,10 +23068,10 @@
         <v>1</v>
       </c>
       <c r="C265" s="26" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D265" s="53" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="G265" s="26">
         <v>251</v>
@@ -23059,7 +23089,7 @@
         <v>1597707000</v>
       </c>
       <c r="L265" s="26" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -23070,10 +23100,10 @@
         <v>1</v>
       </c>
       <c r="C266" s="30" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="G266" s="26">
         <v>252</v>
@@ -23091,7 +23121,7 @@
         <v>1597680000</v>
       </c>
       <c r="L266" s="26" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -23102,10 +23132,10 @@
         <v>1</v>
       </c>
       <c r="C267" s="30" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D267" s="30" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="G267" s="26">
         <v>253</v>
@@ -23123,7 +23153,7 @@
         <v>1597707000</v>
       </c>
       <c r="L267" s="26" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -23134,10 +23164,10 @@
         <v>1</v>
       </c>
       <c r="C268" s="30" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D268" s="30" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="G268" s="26">
         <v>254</v>
@@ -23155,7 +23185,7 @@
         <v>1597707000</v>
       </c>
       <c r="L268" s="26" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -23166,10 +23196,10 @@
         <v>1</v>
       </c>
       <c r="C269" s="30" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D269" s="30" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="G269" s="26">
         <v>255</v>
@@ -23187,7 +23217,7 @@
         <v>1597707000</v>
       </c>
       <c r="L269" s="26" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="270" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23198,10 +23228,10 @@
         <v>1</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D270" s="16" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E270" s="17"/>
       <c r="F270" s="17"/>
@@ -23215,13 +23245,13 @@
         <v>1</v>
       </c>
       <c r="J270" s="16" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="K270" s="17">
         <v>1598311800</v>
       </c>
       <c r="L270" s="16" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="271" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23232,10 +23262,10 @@
         <v>1</v>
       </c>
       <c r="C271" s="16" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D271" s="16" t="s">
         <v>1546</v>
-      </c>
-      <c r="D271" s="16" t="s">
-        <v>1547</v>
       </c>
       <c r="E271" s="17"/>
       <c r="F271" s="17"/>
@@ -23249,13 +23279,13 @@
         <v>1</v>
       </c>
       <c r="J271" s="16" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="K271" s="17">
         <v>1598311800</v>
       </c>
       <c r="L271" s="16" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="272" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23266,10 +23296,10 @@
         <v>1</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D272" s="16" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E272" s="17"/>
       <c r="F272" s="17"/>
@@ -23289,7 +23319,7 @@
         <v>1598311800</v>
       </c>
       <c r="L272" s="16" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="273" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23300,10 +23330,10 @@
         <v>1</v>
       </c>
       <c r="C273" s="17" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D273" s="17" t="s">
         <v>1551</v>
-      </c>
-      <c r="D273" s="17" t="s">
-        <v>1552</v>
       </c>
       <c r="E273" s="17"/>
       <c r="F273" s="17"/>
@@ -23323,7 +23353,7 @@
         <v>1598311800</v>
       </c>
       <c r="L273" s="16" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="274" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23334,10 +23364,10 @@
         <v>1</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D274" s="16" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E274" s="17"/>
       <c r="F274" s="17"/>
@@ -23357,7 +23387,7 @@
         <v>1598311800</v>
       </c>
       <c r="L274" s="16" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="275" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23368,10 +23398,10 @@
         <v>1</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D275" s="16" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E275" s="17"/>
       <c r="F275" s="17"/>
@@ -23385,13 +23415,13 @@
         <v>1</v>
       </c>
       <c r="J275" s="16" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="K275" s="17">
         <v>1598284800</v>
       </c>
       <c r="L275" s="16" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="276" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23402,10 +23432,10 @@
         <v>1</v>
       </c>
       <c r="C276" s="16" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D276" s="16" t="s">
         <v>1556</v>
-      </c>
-      <c r="D276" s="16" t="s">
-        <v>1557</v>
       </c>
       <c r="E276" s="17"/>
       <c r="F276" s="17"/>
@@ -23419,13 +23449,13 @@
         <v>1</v>
       </c>
       <c r="J276" s="16" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="K276" s="17">
         <v>1598284800</v>
       </c>
       <c r="L276" s="16" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="277" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23436,10 +23466,10 @@
         <v>1</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D277" s="16" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="E277" s="17"/>
       <c r="F277" s="17"/>
@@ -23453,13 +23483,13 @@
         <v>1</v>
       </c>
       <c r="J277" s="16" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="K277" s="17">
         <v>1598916600</v>
       </c>
       <c r="L277" s="16" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="278" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23470,10 +23500,10 @@
         <v>1</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="D278" s="16" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E278" s="17"/>
       <c r="F278" s="17"/>
@@ -23487,13 +23517,13 @@
         <v>1</v>
       </c>
       <c r="J278" s="16" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="K278" s="17">
         <v>1598889600</v>
       </c>
       <c r="L278" s="16" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="279" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
@@ -23504,10 +23534,10 @@
         <v>0</v>
       </c>
       <c r="C279" s="96" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D279" s="96" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="E279" s="95"/>
       <c r="F279" s="95"/>
@@ -23527,7 +23557,7 @@
         <v>1598916600</v>
       </c>
       <c r="L279" s="96" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="280" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
@@ -23538,10 +23568,10 @@
         <v>0</v>
       </c>
       <c r="C280" s="96" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D280" s="96" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E280" s="95"/>
       <c r="F280" s="95"/>
@@ -23561,7 +23591,7 @@
         <v>1598916600</v>
       </c>
       <c r="L280" s="96" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="281" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
@@ -23572,10 +23602,10 @@
         <v>0</v>
       </c>
       <c r="C281" s="96" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D281" s="96" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="E281" s="95"/>
       <c r="F281" s="95"/>
@@ -23595,7 +23625,7 @@
         <v>1598916600</v>
       </c>
       <c r="L281" s="96" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="282" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
@@ -23606,10 +23636,10 @@
         <v>0</v>
       </c>
       <c r="C282" s="96" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D282" s="96" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="E282" s="95"/>
       <c r="F282" s="95"/>
@@ -23629,7 +23659,7 @@
         <v>1598916600</v>
       </c>
       <c r="L282" s="96" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="283" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
@@ -23640,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="C283" s="96" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="D283" s="96" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="E283" s="95"/>
       <c r="F283" s="95"/>
@@ -23663,7 +23693,7 @@
         <v>1598916600</v>
       </c>
       <c r="L283" s="96" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="284" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23674,10 +23704,10 @@
         <v>1</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1772</v>
+        <v>1767</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="E284" s="17"/>
       <c r="F284" s="17"/>
@@ -23691,13 +23721,13 @@
         <v>1</v>
       </c>
       <c r="J284" s="16" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="K284" s="17">
         <v>1599521400</v>
       </c>
       <c r="L284" s="17" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="285" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23708,10 +23738,10 @@
         <v>1</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="E285" s="17"/>
       <c r="F285" s="17"/>
@@ -23731,7 +23761,7 @@
         <v>1599494400</v>
       </c>
       <c r="L285" s="17" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="286" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23742,10 +23772,10 @@
         <v>1</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E286" s="17"/>
       <c r="F286" s="17"/>
@@ -23765,7 +23795,7 @@
         <v>1599523200</v>
       </c>
       <c r="L286" s="17" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="287" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23776,10 +23806,10 @@
         <v>1</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="E287" s="17"/>
       <c r="F287" s="17"/>
@@ -23799,7 +23829,7 @@
         <v>1599523200</v>
       </c>
       <c r="L287" s="17" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="288" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23810,10 +23840,10 @@
         <v>1</v>
       </c>
       <c r="C288" s="16" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D288" s="16" t="s">
         <v>1653</v>
-      </c>
-      <c r="D288" s="16" t="s">
-        <v>1655</v>
       </c>
       <c r="E288" s="17"/>
       <c r="F288" s="17"/>
@@ -23833,7 +23863,7 @@
         <v>1599494400</v>
       </c>
       <c r="L288" s="17" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="289" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23844,10 +23874,10 @@
         <v>1</v>
       </c>
       <c r="C289" s="78" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="D289" s="78" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="E289" s="78"/>
       <c r="F289" s="78"/>
@@ -23861,13 +23891,13 @@
         <v>1</v>
       </c>
       <c r="J289" s="78" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="K289" s="78">
-        <v>1600128000</v>
+        <v>1605542400</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1670</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23878,10 +23908,10 @@
         <v>1</v>
       </c>
       <c r="C290" s="78" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="D290" s="78" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="E290" s="78"/>
       <c r="F290" s="78"/>
@@ -23895,13 +23925,13 @@
         <v>1</v>
       </c>
       <c r="J290" s="78" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="K290" s="78">
-        <v>1600128000</v>
+        <v>1605542400</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1670</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23912,10 +23942,10 @@
         <v>1</v>
       </c>
       <c r="C291" s="79" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D291" s="78" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="E291" s="78"/>
       <c r="F291" s="78"/>
@@ -23929,13 +23959,13 @@
         <v>1</v>
       </c>
       <c r="J291" s="78" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="K291" s="78">
-        <v>1600128000</v>
+        <v>1605542400</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1670</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23946,10 +23976,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
-        <v>1678</v>
+        <v>1886</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1675</v>
+        <v>1887</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -23963,13 +23993,13 @@
         <v>1</v>
       </c>
       <c r="J292" s="78" t="s">
-        <v>1669</v>
-      </c>
-      <c r="K292" s="78">
-        <v>1600099200</v>
-      </c>
-      <c r="L292" s="78" t="s">
-        <v>1670</v>
+        <v>1667</v>
+      </c>
+      <c r="K292" s="108">
+        <v>1605542400</v>
+      </c>
+      <c r="L292" s="109" t="s">
+        <v>1889</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -23980,10 +24010,10 @@
         <v>1</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="G293" s="17">
         <v>298</v>
@@ -24001,7 +24031,7 @@
         <v>1598889600</v>
       </c>
       <c r="L293" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
@@ -24012,10 +24042,10 @@
         <v>1</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="D294" s="16" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="G294" s="17">
         <v>299</v>
@@ -24033,7 +24063,7 @@
         <v>1598889600</v>
       </c>
       <c r="L294" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
@@ -24044,10 +24074,10 @@
         <v>1</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="G295" s="17">
         <v>300</v>
@@ -24065,7 +24095,7 @@
         <v>1598889600</v>
       </c>
       <c r="L295" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
@@ -24076,10 +24106,10 @@
         <v>1</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="D296" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="G296" s="17">
         <v>301</v>
@@ -24097,7 +24127,7 @@
         <v>1598889600</v>
       </c>
       <c r="L296" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
@@ -24108,10 +24138,10 @@
         <v>1</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="D297" s="16" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="G297" s="17">
         <v>302</v>
@@ -24129,7 +24159,7 @@
         <v>1598889600</v>
       </c>
       <c r="L297" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
@@ -24140,10 +24170,10 @@
         <v>1</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="G298" s="17">
         <v>303</v>
@@ -24161,7 +24191,7 @@
         <v>1598889600</v>
       </c>
       <c r="L298" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
@@ -24172,10 +24202,10 @@
         <v>1</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>1690</v>
+        <v>1685</v>
       </c>
       <c r="G299" s="17">
         <v>304</v>
@@ -24193,7 +24223,7 @@
         <v>1598889600</v>
       </c>
       <c r="L299" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
@@ -24204,10 +24234,10 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>1691</v>
+        <v>1686</v>
       </c>
       <c r="G300" s="17">
         <v>305</v>
@@ -24225,7 +24255,7 @@
         <v>1598889600</v>
       </c>
       <c r="L300" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
@@ -24236,10 +24266,10 @@
         <v>1</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="G301" s="17">
         <v>306</v>
@@ -24257,7 +24287,7 @@
         <v>1598889600</v>
       </c>
       <c r="L301" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
@@ -24268,10 +24298,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="G302" s="17">
         <v>307</v>
@@ -24289,7 +24319,7 @@
         <v>1598889600</v>
       </c>
       <c r="L302" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
@@ -24300,10 +24330,10 @@
         <v>1</v>
       </c>
       <c r="C303" s="30" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="D303" s="16" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="G303" s="17">
         <v>308</v>
@@ -24321,7 +24351,7 @@
         <v>1598889600</v>
       </c>
       <c r="L303" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -24332,10 +24362,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="D304" s="30" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="G304" s="26">
         <v>309</v>
@@ -24353,7 +24383,7 @@
         <v>1598889600</v>
       </c>
       <c r="L304" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
@@ -24364,10 +24394,10 @@
         <v>1</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="G305" s="26">
         <v>310</v>
@@ -24385,7 +24415,7 @@
         <v>1598889600</v>
       </c>
       <c r="L305" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
@@ -24396,10 +24426,10 @@
         <v>1</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="G306" s="26">
         <v>311</v>
@@ -24417,7 +24447,7 @@
         <v>1598889600</v>
       </c>
       <c r="L306" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
@@ -24428,10 +24458,10 @@
         <v>1</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="G307" s="26">
         <v>312</v>
@@ -24449,7 +24479,7 @@
         <v>1598889600</v>
       </c>
       <c r="L307" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
@@ -24460,10 +24490,10 @@
         <v>1</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="D308" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="G308" s="26">
         <v>313</v>
@@ -24481,7 +24511,7 @@
         <v>1598889600</v>
       </c>
       <c r="L308" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
@@ -24492,10 +24522,10 @@
         <v>1</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="D309" s="16" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="G309" s="26">
         <v>314</v>
@@ -24513,7 +24543,7 @@
         <v>1598889600</v>
       </c>
       <c r="L309" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
@@ -24524,10 +24554,10 @@
         <v>1</v>
       </c>
       <c r="C310" s="30" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="D310" s="30" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="G310" s="26">
         <v>315</v>
@@ -24545,7 +24575,7 @@
         <v>1598916600</v>
       </c>
       <c r="L310" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
@@ -24556,10 +24586,10 @@
         <v>1</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="G311" s="26">
         <v>316</v>
@@ -24577,7 +24607,7 @@
         <v>1598916600</v>
       </c>
       <c r="L311" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
@@ -24588,10 +24618,10 @@
         <v>1</v>
       </c>
       <c r="C312" s="30" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="D312" s="30" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
       <c r="G312" s="26">
         <v>317</v>
@@ -24609,7 +24639,7 @@
         <v>1598916600</v>
       </c>
       <c r="L312" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
@@ -24620,10 +24650,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="G313" s="26">
         <v>318</v>
@@ -24641,7 +24671,7 @@
         <v>1598916600</v>
       </c>
       <c r="L313" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
@@ -24652,10 +24682,10 @@
         <v>1</v>
       </c>
       <c r="C314" s="30" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="D314" s="30" t="s">
-        <v>1722</v>
+        <v>1717</v>
       </c>
       <c r="G314" s="26">
         <v>319</v>
@@ -24673,7 +24703,7 @@
         <v>1598916600</v>
       </c>
       <c r="L314" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
@@ -24684,10 +24714,10 @@
         <v>1</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="G315" s="26">
         <v>320</v>
@@ -24705,7 +24735,7 @@
         <v>1598916600</v>
       </c>
       <c r="L315" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="316" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -24716,10 +24746,10 @@
         <v>1</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="D316" s="16" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="E316" s="17"/>
       <c r="F316" s="17"/>
@@ -24739,7 +24769,7 @@
         <v>1600731000</v>
       </c>
       <c r="L316" s="16" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -24750,10 +24780,10 @@
         <v>1</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="G317" s="26">
         <v>322</v>
@@ -24771,7 +24801,7 @@
         <v>1601335800</v>
       </c>
       <c r="L317" s="30" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -24782,10 +24812,10 @@
         <v>1</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1771</v>
+        <v>1766</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="G318" s="26">
         <v>323</v>
@@ -24803,7 +24833,7 @@
         <v>1601335800</v>
       </c>
       <c r="L318" s="30" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -24814,10 +24844,10 @@
         <v>1</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="G319" s="26">
         <v>323</v>
@@ -24835,7 +24865,7 @@
         <v>1601335800</v>
       </c>
       <c r="L319" s="30" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -24846,10 +24876,10 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1776</v>
+        <v>1771</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="G320" s="26">
         <v>324</v>
@@ -24867,7 +24897,7 @@
         <v>1598916600</v>
       </c>
       <c r="L320" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
@@ -24878,10 +24908,10 @@
         <v>1</v>
       </c>
       <c r="C321" s="30" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="D321" s="26" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="G321" s="26">
         <v>325</v>
@@ -24899,7 +24929,7 @@
         <v>1601335800</v>
       </c>
       <c r="L321" s="30" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -24910,10 +24940,10 @@
         <v>1</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -24931,7 +24961,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -24942,10 +24972,10 @@
         <v>1</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -24963,7 +24993,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1816</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -24974,10 +25004,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -24995,7 +25025,7 @@
         <v>1598916600</v>
       </c>
       <c r="L324" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
@@ -25006,10 +25036,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1788</v>
+        <v>1783</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -25027,7 +25057,7 @@
         <v>1598916600</v>
       </c>
       <c r="L325" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -25038,10 +25068,10 @@
         <v>1</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>1825</v>
+        <v>1818</v>
       </c>
       <c r="D326" s="30" t="s">
-        <v>1824</v>
+        <v>1817</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -25059,7 +25089,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1817</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -25070,10 +25100,10 @@
         <v>1</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>1826</v>
+        <v>1819</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>1815</v>
+        <v>1808</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -25091,7 +25121,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -25102,10 +25132,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1852</v>
+        <v>1881</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -25116,8 +25146,8 @@
       <c r="I328" t="b">
         <v>1</v>
       </c>
-      <c r="J328" s="30" t="s">
-        <v>1896</v>
+      <c r="J328" s="26" t="s">
+        <v>468</v>
       </c>
       <c r="K328" s="26">
         <v>0</v>
@@ -25134,10 +25164,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="D329" s="26" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -25166,10 +25196,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -25180,8 +25210,8 @@
       <c r="I330" t="b">
         <v>1</v>
       </c>
-      <c r="J330" s="26" t="s">
-        <v>468</v>
+      <c r="J330" s="30" t="s">
+        <v>1897</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -25198,10 +25228,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -25230,10 +25260,10 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="D332" s="101" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="E332" s="100"/>
       <c r="F332" s="100"/>
@@ -25253,7 +25283,7 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="101" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -25264,10 +25294,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1880</v>
+        <v>1890</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1881</v>
+        <v>1874</v>
       </c>
       <c r="G333" s="26">
         <v>337</v>
@@ -25279,7 +25309,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1882</v>
+        <v>1891</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -25288,20 +25318,22 @@
         <v>469</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A334" s="26">
+    <row r="334" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="17">
         <v>333</v>
       </c>
-      <c r="B334" s="26">
-        <v>1</v>
-      </c>
-      <c r="C334" s="30" t="s">
-        <v>1894</v>
-      </c>
-      <c r="D334" s="30" t="s">
-        <v>1895</v>
-      </c>
-      <c r="G334" s="26">
+      <c r="B334" s="17">
+        <v>1</v>
+      </c>
+      <c r="C334" s="16" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D334" s="16" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E334" s="17"/>
+      <c r="F334" s="17"/>
+      <c r="G334" s="17">
         <v>338</v>
       </c>
       <c r="H334" s="26" t="b">
@@ -25310,15 +25342,41 @@
       <c r="I334" t="b">
         <v>1</v>
       </c>
-      <c r="J334" s="26" t="s">
+      <c r="J334" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="K334" s="26">
+      <c r="K334" s="17">
         <v>0</v>
       </c>
       <c r="L334" s="26" t="s">
         <v>469</v>
       </c>
+    </row>
+    <row r="335" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="17"/>
+      <c r="B335" s="17"/>
+      <c r="C335" s="16"/>
+      <c r="D335" s="16"/>
+      <c r="E335" s="17"/>
+      <c r="F335" s="17"/>
+      <c r="G335" s="17"/>
+      <c r="H335" s="17"/>
+      <c r="J335" s="17"/>
+      <c r="K335" s="17"/>
+      <c r="L335" s="16"/>
+    </row>
+    <row r="336" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="17"/>
+      <c r="B336" s="17"/>
+      <c r="C336" s="16"/>
+      <c r="D336" s="16"/>
+      <c r="E336" s="17"/>
+      <c r="F336" s="17"/>
+      <c r="G336" s="17"/>
+      <c r="H336" s="17"/>
+      <c r="J336" s="17"/>
+      <c r="K336" s="17"/>
+      <c r="L336" s="16"/>
     </row>
     <row r="342" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="17"/>
@@ -25346,11 +25404,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I864"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C827" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C835" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G854" sqref="G854"/>
+      <selection pane="bottomRight" activeCell="C873" sqref="C873"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25503,7 +25561,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>881</v>
@@ -25552,7 +25610,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>883</v>
@@ -25578,7 +25636,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25601,7 +25659,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -25865,7 +25923,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D21" s="8">
         <v>1583769600</v>
@@ -25934,7 +25992,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1053</v>
@@ -26716,7 +26774,7 @@
         <v>40</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>1058</v>
@@ -27061,7 +27119,7 @@
         <v>48</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>1051</v>
@@ -27409,7 +27467,7 @@
         <v>866</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="E88" s="8">
         <v>2</v>
@@ -27501,7 +27559,7 @@
         <v>866</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="E92" s="8">
         <v>2</v>
@@ -29479,7 +29537,7 @@
         <v>1046</v>
       </c>
       <c r="D178" s="94" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E178" s="14">
         <v>2</v>
@@ -29488,7 +29546,7 @@
         <v>4</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29502,7 +29560,7 @@
         <v>1046</v>
       </c>
       <c r="D179" s="94" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -29511,7 +29569,7 @@
         <v>5</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29698,234 +29756,234 @@
         <v>933</v>
       </c>
     </row>
-    <row r="188" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="8">
+    <row r="188" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="103">
         <v>187</v>
       </c>
-      <c r="B188" s="8">
+      <c r="B188" s="103">
         <v>79</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="C188" s="104" t="s">
         <v>866</v>
       </c>
-      <c r="D188" s="10" t="s">
+      <c r="D188" s="104" t="s">
         <v>931</v>
       </c>
-      <c r="E188" s="8">
-        <v>2</v>
-      </c>
-      <c r="F188" s="8">
-        <v>1</v>
-      </c>
-      <c r="G188" s="10" t="s">
+      <c r="E188" s="103">
+        <v>2</v>
+      </c>
+      <c r="F188" s="103">
+        <v>1</v>
+      </c>
+      <c r="G188" s="104" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="189" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="8">
+    <row r="189" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="103">
         <v>188</v>
       </c>
-      <c r="B189" s="8">
+      <c r="B189" s="103">
         <v>79</v>
       </c>
-      <c r="C189" s="10" t="s">
+      <c r="C189" s="104" t="s">
         <v>1046</v>
       </c>
-      <c r="D189" s="10" t="s">
+      <c r="D189" s="104" t="s">
         <v>1079</v>
       </c>
-      <c r="E189" s="8">
-        <v>2</v>
-      </c>
-      <c r="F189" s="8">
-        <v>1</v>
-      </c>
-      <c r="G189" s="10" t="s">
+      <c r="E189" s="103">
+        <v>2</v>
+      </c>
+      <c r="F189" s="103">
+        <v>1</v>
+      </c>
+      <c r="G189" s="104" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="190" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="8">
+    <row r="190" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="103">
         <v>189</v>
       </c>
-      <c r="B190" s="8">
+      <c r="B190" s="103">
         <v>79</v>
       </c>
-      <c r="C190" s="10" t="s">
+      <c r="C190" s="104" t="s">
         <v>866</v>
       </c>
-      <c r="D190" s="10" t="s">
+      <c r="D190" s="104" t="s">
         <v>921</v>
       </c>
-      <c r="E190" s="8">
-        <v>2</v>
-      </c>
-      <c r="F190" s="8">
-        <v>1</v>
-      </c>
-      <c r="G190" s="10" t="s">
+      <c r="E190" s="103">
+        <v>2</v>
+      </c>
+      <c r="F190" s="103">
+        <v>1</v>
+      </c>
+      <c r="G190" s="104" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="191" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="8">
+    <row r="191" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="103">
         <v>190</v>
       </c>
-      <c r="B191" s="8">
+      <c r="B191" s="103">
         <v>79</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="C191" s="104" t="s">
         <v>866</v>
       </c>
-      <c r="D191" s="10" t="s">
+      <c r="D191" s="104" t="s">
         <v>948</v>
       </c>
-      <c r="E191" s="8">
-        <v>2</v>
-      </c>
-      <c r="F191" s="8">
-        <v>2</v>
-      </c>
-      <c r="G191" s="10" t="s">
+      <c r="E191" s="103">
+        <v>2</v>
+      </c>
+      <c r="F191" s="103">
+        <v>2</v>
+      </c>
+      <c r="G191" s="104" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="8">
+    <row r="192" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="103">
         <v>191</v>
       </c>
-      <c r="B192" s="8">
+      <c r="B192" s="103">
         <v>79</v>
       </c>
-      <c r="C192" s="10" t="s">
+      <c r="C192" s="104" t="s">
         <v>866</v>
       </c>
-      <c r="D192" s="10" t="s">
+      <c r="D192" s="104" t="s">
         <v>921</v>
       </c>
-      <c r="E192" s="8">
-        <v>2</v>
-      </c>
-      <c r="F192" s="8">
-        <v>2</v>
-      </c>
-      <c r="G192" s="10" t="s">
+      <c r="E192" s="103">
+        <v>2</v>
+      </c>
+      <c r="F192" s="103">
+        <v>2</v>
+      </c>
+      <c r="G192" s="104" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="8">
+    <row r="193" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="103">
         <v>192</v>
       </c>
-      <c r="B193" s="8">
+      <c r="B193" s="103">
         <v>79</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="C193" s="104" t="s">
         <v>866</v>
       </c>
-      <c r="D193" s="10" t="s">
+      <c r="D193" s="104" t="s">
         <v>938</v>
       </c>
-      <c r="E193" s="8">
-        <v>2</v>
-      </c>
-      <c r="F193" s="8">
+      <c r="E193" s="103">
+        <v>2</v>
+      </c>
+      <c r="F193" s="103">
         <v>3</v>
       </c>
-      <c r="G193" s="10" t="s">
+      <c r="G193" s="104" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="194" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="8">
+    <row r="194" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="103">
         <v>193</v>
       </c>
-      <c r="B194" s="8">
+      <c r="B194" s="103">
         <v>79</v>
       </c>
-      <c r="C194" s="10" t="s">
+      <c r="C194" s="104" t="s">
         <v>1046</v>
       </c>
-      <c r="D194" s="10" t="s">
+      <c r="D194" s="104" t="s">
         <v>1075</v>
       </c>
-      <c r="E194" s="8">
-        <v>2</v>
-      </c>
-      <c r="F194" s="8">
+      <c r="E194" s="103">
+        <v>2</v>
+      </c>
+      <c r="F194" s="103">
         <v>3</v>
       </c>
-      <c r="G194" s="10" t="s">
+      <c r="G194" s="104" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="195" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="8">
+    <row r="195" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="103">
         <v>194</v>
       </c>
-      <c r="B195" s="8">
+      <c r="B195" s="103">
         <v>79</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="103" t="s">
         <v>866</v>
       </c>
-      <c r="D195" s="10" t="s">
+      <c r="D195" s="104" t="s">
         <v>921</v>
       </c>
-      <c r="E195" s="8">
-        <v>2</v>
-      </c>
-      <c r="F195" s="8">
+      <c r="E195" s="103">
+        <v>2</v>
+      </c>
+      <c r="F195" s="103">
         <v>3</v>
       </c>
-      <c r="G195" s="10" t="s">
+      <c r="G195" s="104" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="8">
+    <row r="196" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="103">
         <v>195</v>
       </c>
-      <c r="B196" s="14">
+      <c r="B196" s="103">
         <v>79</v>
       </c>
-      <c r="C196" s="15" t="s">
+      <c r="C196" s="104" t="s">
         <v>1046</v>
       </c>
-      <c r="D196" s="94" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E196" s="14">
-        <v>2</v>
-      </c>
-      <c r="F196" s="14">
+      <c r="D196" s="105" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E196" s="103">
+        <v>2</v>
+      </c>
+      <c r="F196" s="103">
         <v>4</v>
       </c>
-      <c r="G196" s="15" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="8">
+      <c r="G196" s="104" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="103">
         <v>196</v>
       </c>
-      <c r="B197" s="14">
+      <c r="B197" s="103">
         <v>79</v>
       </c>
-      <c r="C197" s="15" t="s">
+      <c r="C197" s="104" t="s">
         <v>1046</v>
       </c>
-      <c r="D197" s="94" t="s">
-        <v>1872</v>
-      </c>
-      <c r="E197" s="14">
-        <v>2</v>
-      </c>
-      <c r="F197" s="14">
+      <c r="D197" s="105" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E197" s="103">
+        <v>2</v>
+      </c>
+      <c r="F197" s="103">
         <v>5</v>
       </c>
-      <c r="G197" s="15" t="s">
-        <v>1879</v>
+      <c r="G197" s="104" t="s">
+        <v>1873</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29936,7 +29994,7 @@
         <v>80</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>931</v>
@@ -37300,7 +37358,7 @@
         <v>1</v>
       </c>
       <c r="G517" s="76" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.2">
@@ -37461,7 +37519,7 @@
         <v>1</v>
       </c>
       <c r="G524" s="19" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.2">
@@ -37475,7 +37533,7 @@
         <v>1066</v>
       </c>
       <c r="D525" s="19" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E525" s="77">
         <v>5</v>
@@ -37507,7 +37565,7 @@
         <v>1</v>
       </c>
       <c r="G526" s="19" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.2">
@@ -37530,7 +37588,7 @@
         <v>1</v>
       </c>
       <c r="G527" s="19" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.2">
@@ -37576,7 +37634,7 @@
         <v>1</v>
       </c>
       <c r="G529" s="19" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.2">
@@ -37668,7 +37726,7 @@
         <v>1</v>
       </c>
       <c r="G533" s="43" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.2">
@@ -37691,7 +37749,7 @@
         <v>1</v>
       </c>
       <c r="G534" s="19" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.2">
@@ -37714,7 +37772,7 @@
         <v>1</v>
       </c>
       <c r="G535" s="19" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.2">
@@ -37737,7 +37795,7 @@
         <v>2</v>
       </c>
       <c r="G536" s="19" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.2">
@@ -37783,7 +37841,7 @@
         <v>1</v>
       </c>
       <c r="G538" s="19" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.2">
@@ -37806,7 +37864,7 @@
         <v>1</v>
       </c>
       <c r="G539" s="19" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.2">
@@ -37829,7 +37887,7 @@
         <v>2</v>
       </c>
       <c r="G540" s="19" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.2">
@@ -37912,7 +37970,7 @@
         <v>866</v>
       </c>
       <c r="D544" s="19" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E544" s="77">
         <v>2</v>
@@ -37921,7 +37979,7 @@
         <v>3</v>
       </c>
       <c r="G544" s="19" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.2">
@@ -37967,7 +38025,7 @@
         <v>1</v>
       </c>
       <c r="G546" s="19" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.2">
@@ -38013,7 +38071,7 @@
         <v>2</v>
       </c>
       <c r="G548" s="19" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.2">
@@ -38116,7 +38174,7 @@
         <v>200</v>
       </c>
       <c r="C553" s="19" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D553" s="19" t="s">
         <v>1071</v>
@@ -38231,7 +38289,7 @@
         <v>203</v>
       </c>
       <c r="C558" s="19" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D558" s="77">
         <v>1</v>
@@ -38254,7 +38312,7 @@
         <v>204</v>
       </c>
       <c r="C559" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D559" s="8">
         <v>1</v>
@@ -38266,7 +38324,7 @@
         <v>1</v>
       </c>
       <c r="G559" s="10" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="560" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -38277,7 +38335,7 @@
         <v>205</v>
       </c>
       <c r="C560" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D560" s="8">
         <v>1</v>
@@ -38289,7 +38347,7 @@
         <v>1</v>
       </c>
       <c r="G560" s="10" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
@@ -38300,7 +38358,7 @@
         <v>206</v>
       </c>
       <c r="C561" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D561" s="8">
         <v>1</v>
@@ -38312,7 +38370,7 @@
         <v>1</v>
       </c>
       <c r="G561" s="10" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
@@ -38323,7 +38381,7 @@
         <v>207</v>
       </c>
       <c r="C562" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D562" s="8">
         <v>1</v>
@@ -38335,7 +38393,7 @@
         <v>1</v>
       </c>
       <c r="G562" s="10" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.2">
@@ -38346,7 +38404,7 @@
         <v>208</v>
       </c>
       <c r="C563" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D563" s="8">
         <v>1</v>
@@ -38358,7 +38416,7 @@
         <v>1</v>
       </c>
       <c r="G563" s="10" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.2">
@@ -38369,7 +38427,7 @@
         <v>209</v>
       </c>
       <c r="C564" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D564" s="8">
         <v>1</v>
@@ -38381,7 +38439,7 @@
         <v>1</v>
       </c>
       <c r="G564" s="10" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.2">
@@ -38392,7 +38450,7 @@
         <v>210</v>
       </c>
       <c r="C565" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D565" s="8">
         <v>2</v>
@@ -38404,7 +38462,7 @@
         <v>1</v>
       </c>
       <c r="G565" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.2">
@@ -38427,7 +38485,7 @@
         <v>2</v>
       </c>
       <c r="G566" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.2">
@@ -38438,7 +38496,7 @@
         <v>211</v>
       </c>
       <c r="C567" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D567" s="8">
         <v>3</v>
@@ -38450,7 +38508,7 @@
         <v>1</v>
       </c>
       <c r="G567" s="10" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.2">
@@ -38473,7 +38531,7 @@
         <v>2</v>
       </c>
       <c r="G568" s="10" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.2">
@@ -38484,7 +38542,7 @@
         <v>212</v>
       </c>
       <c r="C569" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D569" s="8">
         <v>4</v>
@@ -38496,7 +38554,7 @@
         <v>1</v>
       </c>
       <c r="G569" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.2">
@@ -38519,7 +38577,7 @@
         <v>2</v>
       </c>
       <c r="G570" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.2">
@@ -38530,7 +38588,7 @@
         <v>213</v>
       </c>
       <c r="C571" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D571" s="8">
         <v>5</v>
@@ -38542,7 +38600,7 @@
         <v>1</v>
       </c>
       <c r="G571" s="10" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.2">
@@ -38565,7 +38623,7 @@
         <v>2</v>
       </c>
       <c r="G572" s="10" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.2">
@@ -38576,7 +38634,7 @@
         <v>214</v>
       </c>
       <c r="C573" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D573" s="8">
         <v>6</v>
@@ -38588,7 +38646,7 @@
         <v>1</v>
       </c>
       <c r="G573" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.2">
@@ -38611,7 +38669,7 @@
         <v>2</v>
       </c>
       <c r="G574" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.2">
@@ -38622,7 +38680,7 @@
         <v>215</v>
       </c>
       <c r="C575" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D575" s="8">
         <v>7</v>
@@ -38634,7 +38692,7 @@
         <v>1</v>
       </c>
       <c r="G575" s="10" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.2">
@@ -38645,7 +38703,7 @@
         <v>215</v>
       </c>
       <c r="C576" s="53" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D576" s="8">
         <v>1</v>
@@ -38657,7 +38715,7 @@
         <v>2</v>
       </c>
       <c r="G576" s="10" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.2">
@@ -38668,7 +38726,7 @@
         <v>216</v>
       </c>
       <c r="C577" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D577" s="8">
         <v>7</v>
@@ -38680,7 +38738,7 @@
         <v>1</v>
       </c>
       <c r="G577" s="10" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.2">
@@ -38691,7 +38749,7 @@
         <v>216</v>
       </c>
       <c r="C578" s="53" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D578" s="8">
         <v>1</v>
@@ -38703,7 +38761,7 @@
         <v>2</v>
       </c>
       <c r="G578" s="10" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.2">
@@ -38714,7 +38772,7 @@
         <v>217</v>
       </c>
       <c r="C579" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D579" s="8">
         <v>8</v>
@@ -38726,7 +38784,7 @@
         <v>1</v>
       </c>
       <c r="G579" s="10" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.2">
@@ -38749,7 +38807,7 @@
         <v>2</v>
       </c>
       <c r="G580" s="10" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.2">
@@ -38760,7 +38818,7 @@
         <v>218</v>
       </c>
       <c r="C581" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D581" s="8">
         <v>9</v>
@@ -38772,7 +38830,7 @@
         <v>1</v>
       </c>
       <c r="G581" s="10" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.2">
@@ -38795,7 +38853,7 @@
         <v>2</v>
       </c>
       <c r="G582" s="10" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.2">
@@ -38806,7 +38864,7 @@
         <v>219</v>
       </c>
       <c r="C583" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D583" s="8">
         <v>10</v>
@@ -38818,7 +38876,7 @@
         <v>1</v>
       </c>
       <c r="G583" s="10" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.2">
@@ -38841,7 +38899,7 @@
         <v>2</v>
       </c>
       <c r="G584" s="10" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.2">
@@ -38852,7 +38910,7 @@
         <v>220</v>
       </c>
       <c r="C585" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D585" s="8">
         <v>11</v>
@@ -38864,7 +38922,7 @@
         <v>1</v>
       </c>
       <c r="G585" s="10" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.2">
@@ -38887,7 +38945,7 @@
         <v>2</v>
       </c>
       <c r="G586" s="10" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.2">
@@ -38898,7 +38956,7 @@
         <v>221</v>
       </c>
       <c r="C587" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D587" s="8">
         <v>12</v>
@@ -38910,7 +38968,7 @@
         <v>1</v>
       </c>
       <c r="G587" s="10" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.2">
@@ -38933,7 +38991,7 @@
         <v>2</v>
       </c>
       <c r="G588" s="10" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.2">
@@ -38944,7 +39002,7 @@
         <v>222</v>
       </c>
       <c r="C589" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D589" s="8">
         <v>13</v>
@@ -38956,7 +39014,7 @@
         <v>1</v>
       </c>
       <c r="G589" s="10" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.2">
@@ -38979,7 +39037,7 @@
         <v>2</v>
       </c>
       <c r="G590" s="10" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.2">
@@ -38990,7 +39048,7 @@
         <v>223</v>
       </c>
       <c r="C591" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D591" s="8">
         <v>14</v>
@@ -39002,7 +39060,7 @@
         <v>1</v>
       </c>
       <c r="G591" s="10" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.2">
@@ -39025,7 +39083,7 @@
         <v>2</v>
       </c>
       <c r="G592" s="10" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.2">
@@ -39036,7 +39094,7 @@
         <v>224</v>
       </c>
       <c r="C593" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D593" s="8">
         <v>15</v>
@@ -39048,7 +39106,7 @@
         <v>1</v>
       </c>
       <c r="G593" s="10" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.2">
@@ -39071,7 +39129,7 @@
         <v>2</v>
       </c>
       <c r="G594" s="10" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.2">
@@ -39082,7 +39140,7 @@
         <v>225</v>
       </c>
       <c r="C595" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D595" s="9">
         <v>16</v>
@@ -39094,7 +39152,7 @@
         <v>1</v>
       </c>
       <c r="G595" s="10" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.2">
@@ -39117,7 +39175,7 @@
         <v>2</v>
       </c>
       <c r="G596" s="10" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.2">
@@ -39128,7 +39186,7 @@
         <v>226</v>
       </c>
       <c r="C597" s="53" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D597" s="9">
         <v>1</v>
@@ -39140,7 +39198,7 @@
         <v>1</v>
       </c>
       <c r="G597" s="10" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H597" s="10"/>
     </row>
@@ -39155,7 +39213,7 @@
         <v>1169</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -39164,7 +39222,7 @@
         <v>1</v>
       </c>
       <c r="G598" s="10" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.2">
@@ -39175,7 +39233,7 @@
         <v>226</v>
       </c>
       <c r="C599" s="53" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D599" s="9">
         <v>5</v>
@@ -39187,7 +39245,7 @@
         <v>2</v>
       </c>
       <c r="G599" s="10" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.2">
@@ -39201,7 +39259,7 @@
         <v>1169</v>
       </c>
       <c r="D600" s="10" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="E600" s="8">
         <v>5</v>
@@ -39210,7 +39268,7 @@
         <v>2</v>
       </c>
       <c r="G600" s="10" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="601" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39224,7 +39282,7 @@
         <v>1169</v>
       </c>
       <c r="D601" s="10" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="E601" s="14">
         <v>2</v>
@@ -39233,7 +39291,7 @@
         <v>3</v>
       </c>
       <c r="G601" s="15" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="602" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39247,7 +39305,7 @@
         <v>1169</v>
       </c>
       <c r="D602" s="15" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="E602" s="14">
         <v>2</v>
@@ -39256,7 +39314,7 @@
         <v>4</v>
       </c>
       <c r="G602" s="15" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="603" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39267,7 +39325,7 @@
         <v>227</v>
       </c>
       <c r="C603" s="15" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D603" s="14">
         <v>1</v>
@@ -39279,7 +39337,7 @@
         <v>1</v>
       </c>
       <c r="G603" s="15" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="604" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39293,7 +39351,7 @@
         <v>1169</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E604" s="14">
         <v>5</v>
@@ -39302,7 +39360,7 @@
         <v>1</v>
       </c>
       <c r="G604" s="15" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="605" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39313,7 +39371,7 @@
         <v>227</v>
       </c>
       <c r="C605" s="15" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D605" s="14">
         <v>7</v>
@@ -39325,7 +39383,7 @@
         <v>2</v>
       </c>
       <c r="G605" s="15" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="606" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39339,7 +39397,7 @@
         <v>1169</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E606" s="14">
         <v>5</v>
@@ -39348,7 +39406,7 @@
         <v>2</v>
       </c>
       <c r="G606" s="15" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="607" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39362,7 +39420,7 @@
         <v>1169</v>
       </c>
       <c r="D607" s="15" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E607" s="14">
         <v>2</v>
@@ -39371,7 +39429,7 @@
         <v>3</v>
       </c>
       <c r="G607" s="15" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="608" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39385,7 +39443,7 @@
         <v>1169</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="E608" s="14">
         <v>2</v>
@@ -39394,7 +39452,7 @@
         <v>4</v>
       </c>
       <c r="G608" s="15" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.2">
@@ -39405,7 +39463,7 @@
         <v>228</v>
       </c>
       <c r="C609" s="53" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D609" s="9">
         <v>1</v>
@@ -39417,7 +39475,7 @@
         <v>1</v>
       </c>
       <c r="G609" s="10" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.2">
@@ -39431,7 +39489,7 @@
         <v>1169</v>
       </c>
       <c r="D610" s="15" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E610" s="8">
         <v>5</v>
@@ -39440,7 +39498,7 @@
         <v>1</v>
       </c>
       <c r="G610" s="10" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.2">
@@ -39451,7 +39509,7 @@
         <v>228</v>
       </c>
       <c r="C611" s="53" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D611" s="9">
         <v>9</v>
@@ -39463,7 +39521,7 @@
         <v>2</v>
       </c>
       <c r="G611" s="10" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.2">
@@ -39477,7 +39535,7 @@
         <v>1169</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E612" s="8">
         <v>5</v>
@@ -39486,7 +39544,7 @@
         <v>2</v>
       </c>
       <c r="G612" s="10" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="613" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39500,7 +39558,7 @@
         <v>1169</v>
       </c>
       <c r="D613" s="15" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E613" s="14">
         <v>2</v>
@@ -39509,7 +39567,7 @@
         <v>3</v>
       </c>
       <c r="G613" s="15" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="614" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39523,7 +39581,7 @@
         <v>1169</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="E614" s="14">
         <v>2</v>
@@ -39532,7 +39590,7 @@
         <v>4</v>
       </c>
       <c r="G614" s="15" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.2">
@@ -39543,7 +39601,7 @@
         <v>229</v>
       </c>
       <c r="C615" s="53" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D615" s="9">
         <v>12</v>
@@ -39555,7 +39613,7 @@
         <v>1</v>
       </c>
       <c r="G615" s="10" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.2">
@@ -39569,7 +39627,7 @@
         <v>1169</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -39578,7 +39636,7 @@
         <v>1</v>
       </c>
       <c r="G616" s="10" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.2">
@@ -39601,7 +39659,7 @@
         <v>2</v>
       </c>
       <c r="G617" s="10" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.2">
@@ -39615,7 +39673,7 @@
         <v>1169</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E618" s="8">
         <v>5</v>
@@ -39624,7 +39682,7 @@
         <v>2</v>
       </c>
       <c r="G618" s="10" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="619" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39638,7 +39696,7 @@
         <v>1169</v>
       </c>
       <c r="D619" s="15" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E619" s="14">
         <v>2</v>
@@ -39647,7 +39705,7 @@
         <v>3</v>
       </c>
       <c r="G619" s="15" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="620" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39661,7 +39719,7 @@
         <v>1169</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="E620" s="14">
         <v>2</v>
@@ -39670,7 +39728,7 @@
         <v>4</v>
       </c>
       <c r="G620" s="15" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.2">
@@ -39681,7 +39739,7 @@
         <v>230</v>
       </c>
       <c r="C621" s="53" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D621" s="9">
         <v>1</v>
@@ -39693,7 +39751,7 @@
         <v>1</v>
       </c>
       <c r="G621" s="10" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.2">
@@ -39707,7 +39765,7 @@
         <v>1169</v>
       </c>
       <c r="D622" s="15" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E622" s="8">
         <v>5</v>
@@ -39716,7 +39774,7 @@
         <v>1</v>
       </c>
       <c r="G622" s="10" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.2">
@@ -39727,7 +39785,7 @@
         <v>230</v>
       </c>
       <c r="C623" s="53" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D623" s="9">
         <v>11</v>
@@ -39739,7 +39797,7 @@
         <v>2</v>
       </c>
       <c r="G623" s="10" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.2">
@@ -39753,7 +39811,7 @@
         <v>1169</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E624" s="8">
         <v>5</v>
@@ -39762,7 +39820,7 @@
         <v>2</v>
       </c>
       <c r="G624" s="10" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="625" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39776,7 +39834,7 @@
         <v>1169</v>
       </c>
       <c r="D625" s="15" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E625" s="14">
         <v>2</v>
@@ -39785,7 +39843,7 @@
         <v>3</v>
       </c>
       <c r="G625" s="15" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="626" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39799,7 +39857,7 @@
         <v>1169</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="E626" s="14">
         <v>2</v>
@@ -39808,7 +39866,7 @@
         <v>4</v>
       </c>
       <c r="G626" s="15" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.2">
@@ -39819,7 +39877,7 @@
         <v>231</v>
       </c>
       <c r="C627" s="53" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D627" s="9">
         <v>1</v>
@@ -39831,7 +39889,7 @@
         <v>1</v>
       </c>
       <c r="G627" s="10" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.2">
@@ -39845,7 +39903,7 @@
         <v>1169</v>
       </c>
       <c r="D628" s="15" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E628" s="8">
         <v>5</v>
@@ -39854,7 +39912,7 @@
         <v>1</v>
       </c>
       <c r="G628" s="10" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.2">
@@ -39865,7 +39923,7 @@
         <v>231</v>
       </c>
       <c r="C629" s="53" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D629" s="9">
         <v>14</v>
@@ -39877,7 +39935,7 @@
         <v>2</v>
       </c>
       <c r="G629" s="10" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.2">
@@ -39891,7 +39949,7 @@
         <v>1169</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E630" s="8">
         <v>5</v>
@@ -39900,7 +39958,7 @@
         <v>2</v>
       </c>
       <c r="G630" s="10" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="631" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39914,7 +39972,7 @@
         <v>1169</v>
       </c>
       <c r="D631" s="15" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E631" s="14">
         <v>2</v>
@@ -39923,7 +39981,7 @@
         <v>3</v>
       </c>
       <c r="G631" s="15" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="632" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39937,7 +39995,7 @@
         <v>1169</v>
       </c>
       <c r="D632" s="15" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="E632" s="14">
         <v>2</v>
@@ -39946,7 +40004,7 @@
         <v>4</v>
       </c>
       <c r="G632" s="15" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.2">
@@ -39957,7 +40015,7 @@
         <v>232</v>
       </c>
       <c r="C633" s="53" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D633" s="9">
         <v>1</v>
@@ -39969,7 +40027,7 @@
         <v>1</v>
       </c>
       <c r="G633" s="53" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.2">
@@ -39980,7 +40038,7 @@
         <v>233</v>
       </c>
       <c r="C634" s="53" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D634" s="9">
         <v>2</v>
@@ -39992,7 +40050,7 @@
         <v>1</v>
       </c>
       <c r="G634" s="53" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.2">
@@ -40003,7 +40061,7 @@
         <v>234</v>
       </c>
       <c r="C635" s="53" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D635" s="9">
         <v>3</v>
@@ -40015,7 +40073,7 @@
         <v>1</v>
       </c>
       <c r="G635" s="53" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.2">
@@ -40026,7 +40084,7 @@
         <v>235</v>
       </c>
       <c r="C636" s="53" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D636" s="9">
         <v>4</v>
@@ -40038,7 +40096,7 @@
         <v>1</v>
       </c>
       <c r="G636" s="53" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.2">
@@ -40049,7 +40107,7 @@
         <v>236</v>
       </c>
       <c r="C637" s="53" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D637" s="9">
         <v>5</v>
@@ -40061,7 +40119,7 @@
         <v>1</v>
       </c>
       <c r="G637" s="53" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H637" s="3"/>
     </row>
@@ -40073,7 +40131,7 @@
         <v>237</v>
       </c>
       <c r="C638" s="53" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D638" s="9">
         <v>6</v>
@@ -40085,7 +40143,7 @@
         <v>1</v>
       </c>
       <c r="G638" s="53" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H638" s="3"/>
     </row>
@@ -40097,7 +40155,7 @@
         <v>238</v>
       </c>
       <c r="C639" s="53" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D639" s="9">
         <v>7</v>
@@ -40109,7 +40167,7 @@
         <v>1</v>
       </c>
       <c r="G639" s="53" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H639" s="3"/>
     </row>
@@ -40121,7 +40179,7 @@
         <v>239</v>
       </c>
       <c r="C640" s="53" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D640" s="9">
         <v>8</v>
@@ -40133,7 +40191,7 @@
         <v>1</v>
       </c>
       <c r="G640" s="53" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H640" s="3"/>
     </row>
@@ -40145,7 +40203,7 @@
         <v>240</v>
       </c>
       <c r="C641" s="53" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D641" s="9">
         <v>9</v>
@@ -40157,7 +40215,7 @@
         <v>1</v>
       </c>
       <c r="G641" s="53" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H641" s="3"/>
     </row>
@@ -40169,7 +40227,7 @@
         <v>241</v>
       </c>
       <c r="C642" s="53" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D642" s="9">
         <v>10</v>
@@ -40181,7 +40239,7 @@
         <v>1</v>
       </c>
       <c r="G642" s="53" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H642" s="3"/>
     </row>
@@ -40205,7 +40263,7 @@
         <v>1</v>
       </c>
       <c r="G643" s="10" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.2">
@@ -40228,7 +40286,7 @@
         <v>1</v>
       </c>
       <c r="G644" s="10" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.2">
@@ -40251,7 +40309,7 @@
         <v>1</v>
       </c>
       <c r="G645" s="10" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.2">
@@ -40285,7 +40343,7 @@
         <v>246</v>
       </c>
       <c r="C647" s="10" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D647" s="8">
         <v>1</v>
@@ -40297,7 +40355,7 @@
         <v>1</v>
       </c>
       <c r="G647" s="10" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="648" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40308,7 +40366,7 @@
         <v>246</v>
       </c>
       <c r="C648" s="10" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D648" s="8">
         <v>3</v>
@@ -40320,7 +40378,7 @@
         <v>1</v>
       </c>
       <c r="G648" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="649" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40412,7 +40470,7 @@
         <v>1</v>
       </c>
       <c r="G652" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="653" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40423,7 +40481,7 @@
         <v>247</v>
       </c>
       <c r="C653" s="10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D653" s="8">
         <v>10</v>
@@ -40435,7 +40493,7 @@
         <v>1</v>
       </c>
       <c r="G653" s="10" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="654" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40472,7 +40530,7 @@
         <v>1046</v>
       </c>
       <c r="D655" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E655" s="8">
         <v>2</v>
@@ -40481,7 +40539,7 @@
         <v>1</v>
       </c>
       <c r="G655" s="53" t="s">
-        <v>1765</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.2">
@@ -40492,7 +40550,7 @@
         <v>249</v>
       </c>
       <c r="C656" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D656" s="8">
         <v>20</v>
@@ -40504,7 +40562,7 @@
         <v>1</v>
       </c>
       <c r="G656" s="10" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.2">
@@ -40527,7 +40585,7 @@
         <v>2</v>
       </c>
       <c r="G657" s="10" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.2">
@@ -40607,7 +40665,7 @@
         <v>253</v>
       </c>
       <c r="C661" s="10" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D661" s="8">
         <v>1</v>
@@ -40619,7 +40677,7 @@
         <v>1</v>
       </c>
       <c r="G661" s="10" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.2">
@@ -40630,7 +40688,7 @@
         <v>253</v>
       </c>
       <c r="C662" s="10" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D662" s="8">
         <v>3</v>
@@ -40642,7 +40700,7 @@
         <v>1</v>
       </c>
       <c r="G662" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.2">
@@ -40734,7 +40792,7 @@
         <v>1</v>
       </c>
       <c r="G666" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.2">
@@ -40745,7 +40803,7 @@
         <v>254</v>
       </c>
       <c r="C667" s="10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D667" s="8">
         <v>7</v>
@@ -40757,7 +40815,7 @@
         <v>1</v>
       </c>
       <c r="G667" s="10" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.2">
@@ -40803,7 +40861,7 @@
         <v>1</v>
       </c>
       <c r="G669" s="10" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.2">
@@ -40814,7 +40872,7 @@
         <v>255</v>
       </c>
       <c r="C670" s="10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D670" s="8">
         <v>10</v>
@@ -40826,7 +40884,7 @@
         <v>1</v>
       </c>
       <c r="G670" s="10" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.2">
@@ -40895,7 +40953,7 @@
         <v>1</v>
       </c>
       <c r="G673" s="9" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.2">
@@ -40918,7 +40976,7 @@
         <v>1</v>
       </c>
       <c r="G674" s="10" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.2">
@@ -40932,7 +40990,7 @@
         <v>1169</v>
       </c>
       <c r="D675" s="10" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="E675" s="8">
         <v>2</v>
@@ -40941,7 +40999,7 @@
         <v>1</v>
       </c>
       <c r="G675" s="10" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.2">
@@ -40952,7 +41010,7 @@
         <v>258</v>
       </c>
       <c r="C676" s="10" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D676" s="10">
         <v>1598317200</v>
@@ -40964,7 +41022,7 @@
         <v>1</v>
       </c>
       <c r="G676" s="10" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.2">
@@ -41033,7 +41091,7 @@
         <v>1</v>
       </c>
       <c r="G679" s="10" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.2">
@@ -41067,7 +41125,7 @@
         <v>263</v>
       </c>
       <c r="C681" s="10" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D681" s="10" t="s">
         <v>921</v>
@@ -41079,7 +41137,7 @@
         <v>1</v>
       </c>
       <c r="G681" s="10" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.2">
@@ -41102,7 +41160,7 @@
         <v>1</v>
       </c>
       <c r="G682" s="10" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.2">
@@ -41171,7 +41229,7 @@
         <v>2</v>
       </c>
       <c r="G685" s="10" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="686" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -41228,7 +41286,7 @@
         <v>267</v>
       </c>
       <c r="C688" s="10" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D688" s="8">
         <v>0</v>
@@ -41240,7 +41298,7 @@
         <v>1</v>
       </c>
       <c r="G688" s="10" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.2">
@@ -41251,7 +41309,7 @@
         <v>268</v>
       </c>
       <c r="C689" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D689" s="8">
         <v>1</v>
@@ -41263,7 +41321,7 @@
         <v>1</v>
       </c>
       <c r="G689" s="10" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.2">
@@ -41274,7 +41332,7 @@
         <v>269</v>
       </c>
       <c r="C690" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D690" s="8">
         <v>2</v>
@@ -41286,7 +41344,7 @@
         <v>1</v>
       </c>
       <c r="G690" s="10" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.2">
@@ -41297,7 +41355,7 @@
         <v>270</v>
       </c>
       <c r="C691" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D691" s="8">
         <v>3</v>
@@ -41309,7 +41367,7 @@
         <v>1</v>
       </c>
       <c r="G691" s="10" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.2">
@@ -41320,7 +41378,7 @@
         <v>271</v>
       </c>
       <c r="C692" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D692" s="8">
         <v>4</v>
@@ -41332,7 +41390,7 @@
         <v>1</v>
       </c>
       <c r="G692" s="10" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.2">
@@ -41343,7 +41401,7 @@
         <v>272</v>
       </c>
       <c r="C693" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D693" s="8">
         <v>5</v>
@@ -41355,7 +41413,7 @@
         <v>1</v>
       </c>
       <c r="G693" s="10" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.2">
@@ -41366,7 +41424,7 @@
         <v>273</v>
       </c>
       <c r="C694" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D694" s="8">
         <v>6</v>
@@ -41378,7 +41436,7 @@
         <v>1</v>
       </c>
       <c r="G694" s="10" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.2">
@@ -41389,7 +41447,7 @@
         <v>274</v>
       </c>
       <c r="C695" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D695" s="8">
         <v>7</v>
@@ -41401,7 +41459,7 @@
         <v>1</v>
       </c>
       <c r="G695" s="10" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.2">
@@ -41412,7 +41470,7 @@
         <v>275</v>
       </c>
       <c r="C696" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D696" s="8">
         <v>8</v>
@@ -41424,7 +41482,7 @@
         <v>1</v>
       </c>
       <c r="G696" s="10" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.2">
@@ -41435,7 +41493,7 @@
         <v>276</v>
       </c>
       <c r="C697" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D697" s="8">
         <v>9</v>
@@ -41447,7 +41505,7 @@
         <v>1</v>
       </c>
       <c r="G697" s="10" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.2">
@@ -41458,7 +41516,7 @@
         <v>277</v>
       </c>
       <c r="C698" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D698" s="8">
         <v>10</v>
@@ -41470,7 +41528,7 @@
         <v>1</v>
       </c>
       <c r="G698" s="10" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.2">
@@ -41481,7 +41539,7 @@
         <v>278</v>
       </c>
       <c r="C699" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D699" s="8">
         <v>11</v>
@@ -41493,7 +41551,7 @@
         <v>1</v>
       </c>
       <c r="G699" s="10" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.2">
@@ -41504,7 +41562,7 @@
         <v>279</v>
       </c>
       <c r="C700" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D700" s="8">
         <v>12</v>
@@ -41516,7 +41574,7 @@
         <v>1</v>
       </c>
       <c r="G700" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.2">
@@ -41585,7 +41643,7 @@
         <v>1</v>
       </c>
       <c r="G703" s="10" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.2">
@@ -41596,10 +41654,10 @@
         <v>282</v>
       </c>
       <c r="C704" s="10" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="D704" s="10" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E704" s="8">
         <v>2</v>
@@ -41608,7 +41666,7 @@
         <v>1</v>
       </c>
       <c r="G704" s="10" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.2">
@@ -41665,7 +41723,7 @@
         <v>284</v>
       </c>
       <c r="C707" s="10" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D707" s="8">
         <v>1</v>
@@ -41677,7 +41735,7 @@
         <v>1</v>
       </c>
       <c r="G707" s="10" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.2">
@@ -41688,7 +41746,7 @@
         <v>284</v>
       </c>
       <c r="C708" s="10" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D708" s="8">
         <v>3</v>
@@ -41700,7 +41758,7 @@
         <v>1</v>
       </c>
       <c r="G708" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.2">
@@ -41711,7 +41769,7 @@
         <v>285</v>
       </c>
       <c r="C709" s="10" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D709" s="8">
         <v>4</v>
@@ -41723,7 +41781,7 @@
         <v>1</v>
       </c>
       <c r="G709" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.2">
@@ -41734,7 +41792,7 @@
         <v>285</v>
       </c>
       <c r="C710" s="10" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D710" s="8">
         <v>6</v>
@@ -41746,7 +41804,7 @@
         <v>1</v>
       </c>
       <c r="G710" s="10" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.2">
@@ -41757,7 +41815,7 @@
         <v>286</v>
       </c>
       <c r="C711" s="10" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D711" s="8">
         <v>7</v>
@@ -41769,7 +41827,7 @@
         <v>1</v>
       </c>
       <c r="G711" s="10" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.2">
@@ -41780,7 +41838,7 @@
         <v>286</v>
       </c>
       <c r="C712" s="53" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D712" s="9">
         <v>10</v>
@@ -41792,7 +41850,7 @@
         <v>1</v>
       </c>
       <c r="G712" s="10" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="713" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -41803,19 +41861,19 @@
         <v>287</v>
       </c>
       <c r="C713" s="10" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D713" s="10" t="s">
         <v>1631</v>
       </c>
-      <c r="D713" s="10" t="s">
+      <c r="E713" s="8">
+        <v>2</v>
+      </c>
+      <c r="F713" s="8">
+        <v>1</v>
+      </c>
+      <c r="G713" s="10" t="s">
         <v>1633</v>
-      </c>
-      <c r="E713" s="8">
-        <v>2</v>
-      </c>
-      <c r="F713" s="8">
-        <v>1</v>
-      </c>
-      <c r="G713" s="10" t="s">
-        <v>1635</v>
       </c>
     </row>
     <row r="714" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -41829,7 +41887,7 @@
         <v>1170</v>
       </c>
       <c r="D714" s="10" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="E714" s="8">
         <v>5</v>
@@ -41838,7 +41896,7 @@
         <v>2</v>
       </c>
       <c r="G714" s="10" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.2">
@@ -41872,10 +41930,10 @@
         <v>288</v>
       </c>
       <c r="C716" s="10" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D716" s="10" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="E716" s="8">
         <v>5</v>
@@ -41884,7 +41942,7 @@
         <v>1</v>
       </c>
       <c r="G716" s="10" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.2">
@@ -41918,10 +41976,10 @@
         <v>288</v>
       </c>
       <c r="C718" s="10" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D718" s="10" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="E718" s="8">
         <v>5</v>
@@ -41930,7 +41988,7 @@
         <v>2</v>
       </c>
       <c r="G718" s="10" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.2">
@@ -41953,7 +42011,7 @@
         <v>1</v>
       </c>
       <c r="G719" s="10" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.2">
@@ -41976,7 +42034,7 @@
         <v>1</v>
       </c>
       <c r="G720" s="10" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.2">
@@ -41987,10 +42045,10 @@
         <v>289</v>
       </c>
       <c r="C721" s="8" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D721" s="10" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E721" s="8">
         <v>5</v>
@@ -41999,7 +42057,7 @@
         <v>1</v>
       </c>
       <c r="G721" s="10" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.2">
@@ -42010,10 +42068,10 @@
         <v>289</v>
       </c>
       <c r="C722" s="10" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D722" s="10" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="E722" s="8">
         <v>5</v>
@@ -42022,7 +42080,7 @@
         <v>1</v>
       </c>
       <c r="G722" s="10" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.2">
@@ -42033,10 +42091,10 @@
         <v>290</v>
       </c>
       <c r="C723" s="8" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D723" s="10" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E723" s="8">
         <v>5</v>
@@ -42045,7 +42103,7 @@
         <v>1</v>
       </c>
       <c r="G723" s="10" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.2">
@@ -42068,7 +42126,7 @@
         <v>1</v>
       </c>
       <c r="G724" s="8" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.2">
@@ -42091,7 +42149,7 @@
         <v>1</v>
       </c>
       <c r="G725" s="8" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.2">
@@ -42102,10 +42160,10 @@
         <v>290</v>
       </c>
       <c r="C726" s="10" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D726" s="10" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="E726" s="8">
         <v>5</v>
@@ -42114,7 +42172,7 @@
         <v>1</v>
       </c>
       <c r="G726" s="10" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.2">
@@ -42137,7 +42195,7 @@
         <v>1</v>
       </c>
       <c r="G727" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.2">
@@ -42160,7 +42218,7 @@
         <v>1</v>
       </c>
       <c r="G728" s="10" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.2">
@@ -42171,10 +42229,10 @@
         <v>291</v>
       </c>
       <c r="C729" s="8" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D729" s="10" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E729" s="8">
         <v>5</v>
@@ -42183,7 +42241,7 @@
         <v>1</v>
       </c>
       <c r="G729" s="10" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.2">
@@ -42194,10 +42252,10 @@
         <v>291</v>
       </c>
       <c r="C730" s="10" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D730" s="10" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="E730" s="8">
         <v>5</v>
@@ -42206,7 +42264,7 @@
         <v>1</v>
       </c>
       <c r="G730" s="10" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="731" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -42220,16 +42278,16 @@
         <v>1169</v>
       </c>
       <c r="D731" s="10" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E731" s="8">
+        <v>2</v>
+      </c>
+      <c r="F731" s="8">
+        <v>1</v>
+      </c>
+      <c r="G731" s="10" t="s">
         <v>1648</v>
-      </c>
-      <c r="E731" s="8">
-        <v>2</v>
-      </c>
-      <c r="F731" s="8">
-        <v>1</v>
-      </c>
-      <c r="G731" s="10" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.2">
@@ -42243,7 +42301,7 @@
         <v>1066</v>
       </c>
       <c r="D732" s="10" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E732" s="8">
         <v>5</v>
@@ -42252,7 +42310,7 @@
         <v>1</v>
       </c>
       <c r="G732" s="10" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.2">
@@ -42275,7 +42333,7 @@
         <v>1</v>
       </c>
       <c r="G733" s="8" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.2">
@@ -42298,7 +42356,7 @@
         <v>1</v>
       </c>
       <c r="G734" s="10" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.2">
@@ -42309,10 +42367,10 @@
         <v>293</v>
       </c>
       <c r="C735" s="10" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D735" s="10" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="E735" s="8">
         <v>5</v>
@@ -42321,7 +42379,7 @@
         <v>1</v>
       </c>
       <c r="G735" s="10" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.2">
@@ -42335,7 +42393,7 @@
         <v>1066</v>
       </c>
       <c r="D736" s="19" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E736" s="77">
         <v>5</v>
@@ -42344,7 +42402,7 @@
         <v>1</v>
       </c>
       <c r="G736" s="19" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.2">
@@ -42367,7 +42425,7 @@
         <v>1</v>
       </c>
       <c r="G737" s="77" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.2">
@@ -42390,7 +42448,7 @@
         <v>1</v>
       </c>
       <c r="G738" s="77" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.2">
@@ -42404,7 +42462,7 @@
         <v>1066</v>
       </c>
       <c r="D739" s="19" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E739" s="77">
         <v>5</v>
@@ -42413,7 +42471,7 @@
         <v>1</v>
       </c>
       <c r="G739" s="19" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.2">
@@ -42436,7 +42494,7 @@
         <v>1</v>
       </c>
       <c r="G740" s="19" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.2">
@@ -42459,7 +42517,7 @@
         <v>1</v>
       </c>
       <c r="G741" s="19" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.2">
@@ -42473,7 +42531,7 @@
         <v>1066</v>
       </c>
       <c r="D742" s="19" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E742" s="77">
         <v>5</v>
@@ -42482,7 +42540,7 @@
         <v>1</v>
       </c>
       <c r="G742" s="19" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.2">
@@ -42505,7 +42563,7 @@
         <v>1</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.2">
@@ -42528,7 +42586,7 @@
         <v>1</v>
       </c>
       <c r="G744" s="19" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.2">
@@ -42542,7 +42600,7 @@
         <v>1066</v>
       </c>
       <c r="D745" s="19" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E745" s="77">
         <v>5</v>
@@ -42551,7 +42609,7 @@
         <v>1</v>
       </c>
       <c r="G745" s="19" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.2">
@@ -42574,7 +42632,7 @@
         <v>1</v>
       </c>
       <c r="G746" s="77" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="747" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42588,7 +42646,7 @@
         <v>1066</v>
       </c>
       <c r="D747" s="15" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E747" s="14">
         <v>2</v>
@@ -42597,7 +42655,7 @@
         <v>1</v>
       </c>
       <c r="G747" s="15" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.2">
@@ -42666,7 +42724,7 @@
         <v>1</v>
       </c>
       <c r="G750" s="10" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.2">
@@ -42689,7 +42747,7 @@
         <v>1</v>
       </c>
       <c r="G751" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="752" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42703,7 +42761,7 @@
         <v>1066</v>
       </c>
       <c r="D752" s="15" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E752" s="14">
         <v>5</v>
@@ -42712,7 +42770,7 @@
         <v>1</v>
       </c>
       <c r="G752" s="15" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.2">
@@ -42723,7 +42781,7 @@
         <v>301</v>
       </c>
       <c r="C753" s="10" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D753" s="8">
         <v>4</v>
@@ -42735,7 +42793,7 @@
         <v>1</v>
       </c>
       <c r="G753" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.2">
@@ -42746,7 +42804,7 @@
         <v>301</v>
       </c>
       <c r="C754" s="10" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D754" s="8">
         <v>6</v>
@@ -42758,7 +42816,7 @@
         <v>1</v>
       </c>
       <c r="G754" s="10" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="755" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42772,7 +42830,7 @@
         <v>1066</v>
       </c>
       <c r="D755" s="15" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E755" s="14">
         <v>5</v>
@@ -42781,7 +42839,7 @@
         <v>1</v>
       </c>
       <c r="G755" s="15" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="756" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42804,7 +42862,7 @@
         <v>1</v>
       </c>
       <c r="G756" s="15" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="757" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42827,7 +42885,7 @@
         <v>1</v>
       </c>
       <c r="G757" s="15" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="758" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42841,7 +42899,7 @@
         <v>1066</v>
       </c>
       <c r="D758" s="15" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E758" s="14">
         <v>5</v>
@@ -42850,7 +42908,7 @@
         <v>1</v>
       </c>
       <c r="G758" s="15" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.2">
@@ -42864,7 +42922,7 @@
         <v>1066</v>
       </c>
       <c r="D759" s="10" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="E759" s="8">
         <v>2</v>
@@ -42873,7 +42931,7 @@
         <v>1</v>
       </c>
       <c r="G759" s="10" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.2">
@@ -42930,7 +42988,7 @@
         <v>304</v>
       </c>
       <c r="C762" s="10" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D762" s="8">
         <v>4</v>
@@ -42942,7 +43000,7 @@
         <v>1</v>
       </c>
       <c r="G762" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.2">
@@ -42953,7 +43011,7 @@
         <v>304</v>
       </c>
       <c r="C763" s="10" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D763" s="8">
         <v>10</v>
@@ -42965,7 +43023,7 @@
         <v>1</v>
       </c>
       <c r="G763" s="10" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="764" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42979,7 +43037,7 @@
         <v>1066</v>
       </c>
       <c r="D764" s="15" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E764" s="14">
         <v>5</v>
@@ -42988,7 +43046,7 @@
         <v>1</v>
       </c>
       <c r="G764" s="15" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.2">
@@ -43002,7 +43060,7 @@
         <v>1066</v>
       </c>
       <c r="D765" s="10" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E765" s="8">
         <v>2</v>
@@ -43011,7 +43069,7 @@
         <v>1</v>
       </c>
       <c r="G765" s="10" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.2">
@@ -43025,7 +43083,7 @@
         <v>1046</v>
       </c>
       <c r="D766" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E766" s="8">
         <v>2</v>
@@ -43034,7 +43092,7 @@
         <v>1</v>
       </c>
       <c r="G766" s="10" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.2">
@@ -43071,7 +43129,7 @@
         <v>1046</v>
       </c>
       <c r="D768" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E768" s="8">
         <v>2</v>
@@ -43080,7 +43138,7 @@
         <v>2</v>
       </c>
       <c r="G768" s="10" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.2">
@@ -43117,7 +43175,7 @@
         <v>1046</v>
       </c>
       <c r="D770" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E770" s="8">
         <v>2</v>
@@ -43126,7 +43184,7 @@
         <v>3</v>
       </c>
       <c r="G770" s="10" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
@@ -43149,7 +43207,7 @@
         <v>1</v>
       </c>
       <c r="G771" s="10" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.2">
@@ -43172,7 +43230,7 @@
         <v>1</v>
       </c>
       <c r="G772" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.2">
@@ -43186,7 +43244,7 @@
         <v>1046</v>
       </c>
       <c r="D773" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E773" s="8">
         <v>2</v>
@@ -43195,7 +43253,7 @@
         <v>1</v>
       </c>
       <c r="G773" s="10" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="774" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43209,7 +43267,7 @@
         <v>1066</v>
       </c>
       <c r="D774" s="15" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E774" s="14">
         <v>5</v>
@@ -43218,7 +43276,7 @@
         <v>1</v>
       </c>
       <c r="G774" s="15" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.2">
@@ -43229,7 +43287,7 @@
         <v>307</v>
       </c>
       <c r="C775" s="10" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D775" s="8">
         <v>4</v>
@@ -43241,7 +43299,7 @@
         <v>1</v>
       </c>
       <c r="G775" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.2">
@@ -43252,7 +43310,7 @@
         <v>307</v>
       </c>
       <c r="C776" s="10" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D776" s="8">
         <v>6</v>
@@ -43264,7 +43322,7 @@
         <v>1</v>
       </c>
       <c r="G776" s="10" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.2">
@@ -43278,7 +43336,7 @@
         <v>1046</v>
       </c>
       <c r="D777" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E777" s="8">
         <v>2</v>
@@ -43287,7 +43345,7 @@
         <v>1</v>
       </c>
       <c r="G777" s="10" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="778" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43301,7 +43359,7 @@
         <v>1066</v>
       </c>
       <c r="D778" s="15" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E778" s="14">
         <v>5</v>
@@ -43310,7 +43368,7 @@
         <v>1</v>
       </c>
       <c r="G778" s="15" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.2">
@@ -43333,7 +43391,7 @@
         <v>1</v>
       </c>
       <c r="G779" s="10" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.2">
@@ -43356,7 +43414,7 @@
         <v>1</v>
       </c>
       <c r="G780" s="10" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="781" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43370,7 +43428,7 @@
         <v>1066</v>
       </c>
       <c r="D781" s="15" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E781" s="14">
         <v>5</v>
@@ -43379,7 +43437,7 @@
         <v>1</v>
       </c>
       <c r="G781" s="15" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.2">
@@ -43393,7 +43451,7 @@
         <v>1046</v>
       </c>
       <c r="D782" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E782" s="8">
         <v>2</v>
@@ -43402,7 +43460,7 @@
         <v>1</v>
       </c>
       <c r="G782" s="10" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.2">
@@ -43416,7 +43474,7 @@
         <v>1046</v>
       </c>
       <c r="D783" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E783" s="8">
         <v>2</v>
@@ -43425,7 +43483,7 @@
         <v>1</v>
       </c>
       <c r="G783" s="10" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.2">
@@ -43439,7 +43497,7 @@
         <v>1046</v>
       </c>
       <c r="D784" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E784" s="8">
         <v>5</v>
@@ -43448,7 +43506,7 @@
         <v>1</v>
       </c>
       <c r="G784" s="10" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.2">
@@ -43462,7 +43520,7 @@
         <v>1066</v>
       </c>
       <c r="D785" s="10" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="E785" s="8">
         <v>2</v>
@@ -43471,7 +43529,7 @@
         <v>1</v>
       </c>
       <c r="G785" s="10" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.2">
@@ -43485,7 +43543,7 @@
         <v>1046</v>
       </c>
       <c r="D786" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E786" s="8">
         <v>5</v>
@@ -43494,7 +43552,7 @@
         <v>1</v>
       </c>
       <c r="G786" s="10" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.2">
@@ -43531,7 +43589,7 @@
         <v>1046</v>
       </c>
       <c r="D788" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E788" s="8">
         <v>5</v>
@@ -43540,7 +43598,7 @@
         <v>2</v>
       </c>
       <c r="G788" s="10" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.2">
@@ -43577,7 +43635,7 @@
         <v>1046</v>
       </c>
       <c r="D790" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E790" s="8">
         <v>5</v>
@@ -43586,7 +43644,7 @@
         <v>3</v>
       </c>
       <c r="G790" s="10" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
@@ -43609,7 +43667,7 @@
         <v>1</v>
       </c>
       <c r="G791" s="10" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.2">
@@ -43632,7 +43690,7 @@
         <v>1</v>
       </c>
       <c r="G792" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.2">
@@ -43646,7 +43704,7 @@
         <v>1046</v>
       </c>
       <c r="D793" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E793" s="8">
         <v>5</v>
@@ -43655,7 +43713,7 @@
         <v>1</v>
       </c>
       <c r="G793" s="10" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="794" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43669,7 +43727,7 @@
         <v>1066</v>
       </c>
       <c r="D794" s="15" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E794" s="14">
         <v>5</v>
@@ -43678,7 +43736,7 @@
         <v>1</v>
       </c>
       <c r="G794" s="15" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.2">
@@ -43701,7 +43759,7 @@
         <v>1</v>
       </c>
       <c r="G795" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.2">
@@ -43724,7 +43782,7 @@
         <v>1</v>
       </c>
       <c r="G796" s="10" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.2">
@@ -43738,7 +43796,7 @@
         <v>1046</v>
       </c>
       <c r="D797" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E797" s="8">
         <v>5</v>
@@ -43747,7 +43805,7 @@
         <v>1</v>
       </c>
       <c r="G797" s="10" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="798" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43761,7 +43819,7 @@
         <v>1066</v>
       </c>
       <c r="D798" s="15" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E798" s="14">
         <v>5</v>
@@ -43770,7 +43828,7 @@
         <v>1</v>
       </c>
       <c r="G798" s="15" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.2">
@@ -43793,7 +43851,7 @@
         <v>1</v>
       </c>
       <c r="G799" s="10" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.2">
@@ -43816,7 +43874,7 @@
         <v>1</v>
       </c>
       <c r="G800" s="10" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="801" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43830,7 +43888,7 @@
         <v>1066</v>
       </c>
       <c r="D801" s="15" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E801" s="14">
         <v>5</v>
@@ -43839,7 +43897,7 @@
         <v>1</v>
       </c>
       <c r="G801" s="15" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.2">
@@ -43853,7 +43911,7 @@
         <v>1046</v>
       </c>
       <c r="D802" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E802" s="8">
         <v>5</v>
@@ -43862,7 +43920,7 @@
         <v>1</v>
       </c>
       <c r="G802" s="10" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.2">
@@ -43876,7 +43934,7 @@
         <v>1046</v>
       </c>
       <c r="D803" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E803" s="8">
         <v>5</v>
@@ -43885,7 +43943,7 @@
         <v>1</v>
       </c>
       <c r="G803" s="10" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.2">
@@ -43899,7 +43957,7 @@
         <v>1046</v>
       </c>
       <c r="D804" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E804" s="9">
         <v>2</v>
@@ -43908,7 +43966,7 @@
         <v>1</v>
       </c>
       <c r="G804" s="53" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.2">
@@ -43922,7 +43980,7 @@
         <v>1046</v>
       </c>
       <c r="D805" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E805" s="8">
         <v>5</v>
@@ -43931,7 +43989,7 @@
         <v>1</v>
       </c>
       <c r="G805" s="10" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.2">
@@ -43945,7 +44003,7 @@
         <v>1046</v>
       </c>
       <c r="D806" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E806" s="9">
         <v>2</v>
@@ -43954,7 +44012,7 @@
         <v>1</v>
       </c>
       <c r="G806" s="53" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.2">
@@ -43968,7 +44026,7 @@
         <v>1046</v>
       </c>
       <c r="D807" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E807" s="8">
         <v>5</v>
@@ -43977,7 +44035,7 @@
         <v>1</v>
       </c>
       <c r="G807" s="10" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.2">
@@ -43991,7 +44049,7 @@
         <v>1046</v>
       </c>
       <c r="D808" s="9" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -44000,7 +44058,7 @@
         <v>1</v>
       </c>
       <c r="G808" s="9" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
@@ -44014,7 +44072,7 @@
         <v>1046</v>
       </c>
       <c r="D809" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E809" s="9">
         <v>2</v>
@@ -44023,7 +44081,7 @@
         <v>1</v>
       </c>
       <c r="G809" s="53" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.2">
@@ -44037,7 +44095,7 @@
         <v>1046</v>
       </c>
       <c r="D810" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E810" s="9">
         <v>5</v>
@@ -44046,7 +44104,7 @@
         <v>1</v>
       </c>
       <c r="G810" s="9" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.2">
@@ -44060,7 +44118,7 @@
         <v>1046</v>
       </c>
       <c r="D811" s="10" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="E811" s="9">
         <v>5</v>
@@ -44069,7 +44127,7 @@
         <v>1</v>
       </c>
       <c r="G811" s="53" t="s">
-        <v>1832</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.2">
@@ -44106,7 +44164,7 @@
         <v>1046</v>
       </c>
       <c r="D813" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E813" s="9">
         <v>5</v>
@@ -44115,7 +44173,7 @@
         <v>1</v>
       </c>
       <c r="G813" s="9" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.2">
@@ -44129,7 +44187,7 @@
         <v>1066</v>
       </c>
       <c r="D814" s="10" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E814" s="8">
         <v>5</v>
@@ -44138,7 +44196,7 @@
         <v>1</v>
       </c>
       <c r="G814" s="10" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.2">
@@ -44161,7 +44219,7 @@
         <v>1</v>
       </c>
       <c r="G815" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.2">
@@ -44184,7 +44242,7 @@
         <v>1</v>
       </c>
       <c r="G816" s="10" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.2">
@@ -44198,7 +44256,7 @@
         <v>1046</v>
       </c>
       <c r="D817" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E817" s="9">
         <v>5</v>
@@ -44207,7 +44265,7 @@
         <v>1</v>
       </c>
       <c r="G817" s="9" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="818" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -44218,10 +44276,10 @@
         <v>324</v>
       </c>
       <c r="C818" s="10" t="s">
-        <v>1751</v>
+        <v>1746</v>
       </c>
       <c r="D818" s="10" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="E818" s="8">
         <v>2</v>
@@ -44230,7 +44288,7 @@
         <v>1</v>
       </c>
       <c r="G818" s="10" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.2">
@@ -44244,7 +44302,7 @@
         <v>1046</v>
       </c>
       <c r="D819" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E819" s="8">
         <v>5</v>
@@ -44253,7 +44311,7 @@
         <v>1</v>
       </c>
       <c r="G819" s="10" t="s">
-        <v>1754</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.2">
@@ -44267,7 +44325,7 @@
         <v>866</v>
       </c>
       <c r="D820" s="10" t="s">
-        <v>1818</v>
+        <v>1811</v>
       </c>
       <c r="E820" s="8">
         <v>2</v>
@@ -44290,7 +44348,7 @@
         <v>1046</v>
       </c>
       <c r="D821" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E821" s="8">
         <v>5</v>
@@ -44299,7 +44357,7 @@
         <v>2</v>
       </c>
       <c r="G821" s="10" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.2">
@@ -44336,7 +44394,7 @@
         <v>1046</v>
       </c>
       <c r="D823" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E823" s="8">
         <v>5</v>
@@ -44345,7 +44403,7 @@
         <v>3</v>
       </c>
       <c r="G823" s="10" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.2">
@@ -44359,7 +44417,7 @@
         <v>1046</v>
       </c>
       <c r="D824" s="10" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="E824" s="9">
         <v>5</v>
@@ -44368,7 +44426,7 @@
         <v>1</v>
       </c>
       <c r="G824" s="9" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.2">
@@ -44382,7 +44440,7 @@
         <v>1046</v>
       </c>
       <c r="D825" s="9" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="E825" s="9">
         <v>2</v>
@@ -44391,7 +44449,7 @@
         <v>1</v>
       </c>
       <c r="G825" s="9" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="826" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -44405,7 +44463,7 @@
         <v>1046</v>
       </c>
       <c r="D826" s="15" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="E826" s="14">
         <v>2</v>
@@ -44414,7 +44472,7 @@
         <v>1</v>
       </c>
       <c r="G826" s="15" t="s">
-        <v>1833</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.2">
@@ -44428,7 +44486,7 @@
         <v>1046</v>
       </c>
       <c r="D827" s="10" t="s">
-        <v>1834</v>
+        <v>1827</v>
       </c>
       <c r="E827" s="8">
         <v>2</v>
@@ -44437,7 +44495,7 @@
         <v>2</v>
       </c>
       <c r="G827" s="10" t="s">
-        <v>1835</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.2">
@@ -44451,7 +44509,7 @@
         <v>1046</v>
       </c>
       <c r="D828" s="10" t="s">
-        <v>1836</v>
+        <v>1829</v>
       </c>
       <c r="E828" s="8">
         <v>2</v>
@@ -44460,7 +44518,7 @@
         <v>3</v>
       </c>
       <c r="G828" s="10" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
@@ -44471,10 +44529,10 @@
         <v>328</v>
       </c>
       <c r="C829" s="53" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1775</v>
+        <v>1770</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -44483,7 +44541,7 @@
         <v>1</v>
       </c>
       <c r="G829" s="9" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.2">
@@ -44497,7 +44555,7 @@
         <v>1046</v>
       </c>
       <c r="D830" s="9" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="E830" s="9">
         <v>5</v>
@@ -44506,7 +44564,7 @@
         <v>1</v>
       </c>
       <c r="G830" s="53" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.2">
@@ -44520,7 +44578,7 @@
         <v>898</v>
       </c>
       <c r="D831" s="9" t="s">
-        <v>1775</v>
+        <v>1770</v>
       </c>
       <c r="E831" s="9">
         <v>5</v>
@@ -44529,7 +44587,7 @@
         <v>1</v>
       </c>
       <c r="G831" s="9" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
@@ -44543,7 +44601,7 @@
         <v>1046</v>
       </c>
       <c r="D832" s="9" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="E832" s="9">
         <v>5</v>
@@ -44552,7 +44610,7 @@
         <v>1</v>
       </c>
       <c r="G832" s="53" t="s">
-        <v>1847</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.2">
@@ -44562,8 +44620,8 @@
       <c r="B833" s="9">
         <v>330</v>
       </c>
-      <c r="C833" s="9" t="s">
-        <v>879</v>
+      <c r="C833" s="53" t="s">
+        <v>1882</v>
       </c>
       <c r="D833" s="9">
         <v>1</v>
@@ -44575,7 +44633,7 @@
         <v>1</v>
       </c>
       <c r="G833" s="53" t="s">
-        <v>1809</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.2">
@@ -44585,8 +44643,8 @@
       <c r="B834" s="9">
         <v>330</v>
       </c>
-      <c r="C834" s="9" t="s">
-        <v>1807</v>
+      <c r="C834" s="53" t="s">
+        <v>1883</v>
       </c>
       <c r="D834" s="9">
         <v>3</v>
@@ -44598,7 +44656,7 @@
         <v>1</v>
       </c>
       <c r="G834" s="53" t="s">
-        <v>1810</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.2">
@@ -44608,11 +44666,11 @@
       <c r="B835" s="9">
         <v>330</v>
       </c>
-      <c r="C835" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="D835" s="9" t="s">
-        <v>867</v>
+      <c r="C835" s="53" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D835" s="53" t="s">
+        <v>1885</v>
       </c>
       <c r="E835" s="9">
         <v>5</v>
@@ -44621,7 +44679,7 @@
         <v>1</v>
       </c>
       <c r="G835" s="53" t="s">
-        <v>1822</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.2">
@@ -44635,7 +44693,7 @@
         <v>866</v>
       </c>
       <c r="D836" s="10" t="s">
-        <v>1818</v>
+        <v>1811</v>
       </c>
       <c r="E836" s="9">
         <v>2</v>
@@ -44644,7 +44702,7 @@
         <v>2</v>
       </c>
       <c r="G836" s="53" t="s">
-        <v>1820</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.2">
@@ -44667,7 +44725,7 @@
         <v>2</v>
       </c>
       <c r="G837" s="9" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.2">
@@ -44690,7 +44748,7 @@
         <v>3</v>
       </c>
       <c r="G838" s="53" t="s">
-        <v>1823</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.2">
@@ -44704,7 +44762,7 @@
         <v>866</v>
       </c>
       <c r="D839" s="9" t="s">
-        <v>867</v>
+        <v>1879</v>
       </c>
       <c r="E839" s="9">
         <v>5</v>
@@ -44713,7 +44771,7 @@
         <v>3</v>
       </c>
       <c r="G839" s="9" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.2">
@@ -44736,7 +44794,7 @@
         <v>1</v>
       </c>
       <c r="G840" s="53" t="s">
-        <v>1812</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.2">
@@ -44759,7 +44817,7 @@
         <v>1</v>
       </c>
       <c r="G841" s="53" t="s">
-        <v>1811</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.2">
@@ -44770,7 +44828,7 @@
         <v>331</v>
       </c>
       <c r="C842" s="9" t="s">
-        <v>1808</v>
+        <v>1066</v>
       </c>
       <c r="D842" s="9" t="s">
         <v>867</v>
@@ -44782,7 +44840,7 @@
         <v>1</v>
       </c>
       <c r="G842" s="53" t="s">
-        <v>1813</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.2">
@@ -44805,7 +44863,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="53" t="s">
-        <v>1831</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.2">
@@ -44819,7 +44877,7 @@
         <v>1046</v>
       </c>
       <c r="D844" s="9" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="E844" s="9">
         <v>5</v>
@@ -44828,7 +44886,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="53" t="s">
-        <v>1847</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.2">
@@ -44871,7 +44929,7 @@
         <v>1046</v>
       </c>
       <c r="D846" s="9" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="E846" s="9">
         <v>2</v>
@@ -44880,7 +44938,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="9" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.2">
@@ -44923,7 +44981,7 @@
         <v>1046</v>
       </c>
       <c r="D848" s="9" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="E848" s="9">
         <v>2</v>
@@ -44932,7 +44990,7 @@
         <v>1</v>
       </c>
       <c r="G848" s="9" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="849" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -44943,10 +45001,10 @@
         <v>336</v>
       </c>
       <c r="C849" s="98" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="D849" s="99" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="E849" s="98">
         <v>5</v>
@@ -44955,7 +45013,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="99" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.2">
@@ -44966,10 +45024,10 @@
         <v>336</v>
       </c>
       <c r="C850" s="10" t="s">
-        <v>1889</v>
+        <v>1046</v>
       </c>
       <c r="D850" s="9" t="s">
-        <v>1890</v>
+        <v>1863</v>
       </c>
       <c r="E850" s="9">
         <v>5</v>
@@ -44978,76 +45036,76 @@
         <v>1</v>
       </c>
       <c r="G850" s="9" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="851" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A851" s="8">
         <v>850</v>
       </c>
-      <c r="B851" s="103">
+      <c r="B851" s="106">
         <v>337</v>
       </c>
-      <c r="C851" s="104" t="s">
+      <c r="C851" s="107" t="s">
         <v>1046</v>
       </c>
-      <c r="D851" s="104" t="s">
-        <v>1883</v>
-      </c>
-      <c r="E851" s="103">
-        <v>2</v>
-      </c>
-      <c r="F851" s="103">
-        <v>1</v>
-      </c>
-      <c r="G851" s="104" t="s">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="852" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D851" s="107" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E851" s="106">
+        <v>2</v>
+      </c>
+      <c r="F851" s="106">
+        <v>1</v>
+      </c>
+      <c r="G851" s="107" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A852" s="8">
         <v>851</v>
       </c>
-      <c r="B852" s="103">
+      <c r="B852" s="106">
         <v>337</v>
       </c>
-      <c r="C852" s="103" t="s">
+      <c r="C852" s="106" t="s">
         <v>894</v>
       </c>
-      <c r="D852" s="103">
+      <c r="D852" s="106">
         <v>1604968200</v>
       </c>
-      <c r="E852" s="103">
+      <c r="E852" s="106">
         <v>3</v>
       </c>
-      <c r="F852" s="103">
-        <v>1</v>
-      </c>
-      <c r="G852" s="104" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="853" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F852" s="106">
+        <v>1</v>
+      </c>
+      <c r="G852" s="107" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A853" s="8">
         <v>852</v>
       </c>
-      <c r="B853" s="103">
+      <c r="B853" s="106">
         <v>337</v>
       </c>
-      <c r="C853" s="103" t="s">
+      <c r="C853" s="106" t="s">
         <v>866</v>
       </c>
-      <c r="D853" s="103" t="s">
+      <c r="D853" s="106" t="s">
         <v>867</v>
       </c>
-      <c r="E853" s="103">
-        <v>2</v>
-      </c>
-      <c r="F853" s="103">
-        <v>1</v>
-      </c>
-      <c r="G853" s="103" t="s">
-        <v>1886</v>
+      <c r="E853" s="106">
+        <v>2</v>
+      </c>
+      <c r="F853" s="106">
+        <v>1</v>
+      </c>
+      <c r="G853" s="106" t="s">
+        <v>1880</v>
       </c>
     </row>
     <row r="854" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -45061,7 +45119,7 @@
         <v>1046</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="E854" s="14">
         <v>5</v>
@@ -45070,24 +45128,39 @@
         <v>1</v>
       </c>
       <c r="G854" s="14" t="s">
-        <v>1892</v>
-      </c>
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G855" s="10"/>
+    </row>
+    <row r="856" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G856" s="10"/>
+    </row>
+    <row r="857" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G857" s="10"/>
+    </row>
+    <row r="858" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G858" s="10"/>
+    </row>
+    <row r="859" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G859" s="10"/>
     </row>
     <row r="860" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D860" s="10"/>
       <c r="G860" s="10"/>
     </row>
     <row r="861" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D861" s="10"/>
       <c r="G861" s="10"/>
+    </row>
+    <row r="862" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G862" s="10"/>
     </row>
     <row r="863" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D863" s="10"/>
       <c r="G863" s="10"/>
     </row>
     <row r="864" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D864" s="10"/>
-      <c r="G864" s="10"/>
+      <c r="C864" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -45144,13 +45217,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -45173,7 +45246,7 @@
         <v>898</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -45196,7 +45269,7 @@
         <v>898</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -45213,13 +45286,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -45236,13 +45309,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -45251,7 +45324,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -45259,13 +45332,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1767</v>
+        <v>1762</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -45274,7 +45347,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -45282,13 +45355,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>1761</v>
+        <v>1756</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -45297,7 +45370,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -45305,13 +45378,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -45320,7 +45393,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
     </row>
   </sheetData>
@@ -45413,12 +45486,12 @@
         <v>866</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1819</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B8" t="s">
         <v>1036</v>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4409" uniqueCount="1901">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8084,10 +8084,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>冲金鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>非冲金鸡</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8198,10 +8194,6 @@
   </si>
   <si>
     <t>actp_own_task_p_task_fish_daily_2_no_cps</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_cjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -8873,6 +8865,22 @@
   </si>
   <si>
     <t>actp_rank_leijiyingjin_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡小游戏打折</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt_cjj_little_game_discount</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9677,11 +9685,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q408"/>
+  <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C410" sqref="C410"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A410" sqref="A410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12039,7 +12047,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="34" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>293</v>
@@ -12254,7 +12262,7 @@
     </row>
     <row r="202" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="64" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="B202" s="64" t="s">
         <v>332</v>
@@ -13671,10 +13679,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="27" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="B359" s="27" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="C359" s="3">
         <v>8</v>
@@ -13693,10 +13701,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="27" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="B363" s="34" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C363" s="3">
         <v>332</v>
@@ -13707,7 +13715,7 @@
         <v>1475</v>
       </c>
       <c r="B364" s="34" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="C364" s="3">
         <v>242</v>
@@ -13729,7 +13737,7 @@
         <v>1471</v>
       </c>
       <c r="B366" s="27" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="C366" s="3">
         <v>244</v>
@@ -13740,7 +13748,7 @@
         <v>1509</v>
       </c>
       <c r="B369" s="27" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C369" s="3">
         <v>248</v>
@@ -13825,10 +13833,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="27" t="s">
-        <v>1772</v>
+        <v>1897</v>
       </c>
       <c r="B384" s="27" t="s">
-        <v>1758</v>
+        <v>1898</v>
       </c>
       <c r="C384" s="3">
         <v>326</v>
@@ -13836,10 +13844,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="27" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="B386" s="27" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C386" s="3">
         <v>327</v>
@@ -13847,10 +13855,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="27" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C388" s="3">
         <v>328</v>
@@ -13858,10 +13866,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="27" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B390" s="27" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="C390" s="3">
         <v>319</v>
@@ -13869,10 +13877,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="34" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="B392" s="34" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="C392" s="8">
         <v>127</v>
@@ -13880,10 +13888,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="34" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="C393" s="8">
         <v>128</v>
@@ -13891,10 +13899,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="34" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="C394" s="8">
         <v>129</v>
@@ -13902,10 +13910,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="34" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="C395" s="8">
         <v>130</v>
@@ -13913,10 +13921,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="34" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="C396" s="8">
         <v>131</v>
@@ -13924,10 +13932,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="34" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="C397" s="8">
         <v>132</v>
@@ -13935,10 +13943,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="34" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="B398" s="34" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="C398" s="8">
         <v>133</v>
@@ -13946,10 +13954,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="34" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B399" s="34" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="C399" s="8">
         <v>134</v>
@@ -13957,10 +13965,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="34" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B400" s="34" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="C400" s="8">
         <v>135</v>
@@ -13968,10 +13976,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="27" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="B402" s="27" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="C402" s="3">
         <v>333</v>
@@ -13979,10 +13987,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="27" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="B403" s="27" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -13990,10 +13998,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="27" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B404" s="27" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C404" s="3">
         <v>333</v>
@@ -14001,10 +14009,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="27" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="B405" s="27" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="C405" s="3">
         <v>333</v>
@@ -14012,10 +14020,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="27" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="B406" s="27" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="C406" s="3">
         <v>333</v>
@@ -14023,13 +14031,24 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="27" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B408" s="27" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="C408" s="3">
         <v>91</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C410" s="3">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -14230,7 +14249,7 @@
         <v>1515</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -14386,7 +14405,7 @@
         <v>469</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>1181</v>
@@ -20098,7 +20117,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>774</v>
@@ -23704,7 +23723,7 @@
         <v>1</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D284" s="17" t="s">
         <v>1634</v>
@@ -23897,7 +23916,7 @@
         <v>1605542400</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23931,7 +23950,7 @@
         <v>1605542400</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23965,7 +23984,7 @@
         <v>1605542400</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23976,10 +23995,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -23999,7 +24018,7 @@
         <v>1605542400</v>
       </c>
       <c r="L292" s="109" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -24234,7 +24253,7 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="D300" s="16" t="s">
         <v>1686</v>
@@ -24812,7 +24831,7 @@
         <v>1</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D318" s="30" t="s">
         <v>1741</v>
@@ -24876,7 +24895,7 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D320" s="16" t="s">
         <v>1745</v>
@@ -24940,10 +24959,10 @@
         <v>1</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -24961,7 +24980,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -24972,10 +24991,10 @@
         <v>1</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -24993,7 +25012,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -25004,10 +25023,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -25036,10 +25055,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -25068,10 +25087,10 @@
         <v>1</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="D326" s="30" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -25089,7 +25108,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -25100,10 +25119,10 @@
         <v>1</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -25121,7 +25140,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -25132,10 +25151,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -25164,10 +25183,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="D329" s="26" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -25196,10 +25215,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -25211,7 +25230,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -25228,10 +25247,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -25260,10 +25279,10 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D332" s="101" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="E332" s="100"/>
       <c r="F332" s="100"/>
@@ -25283,7 +25302,7 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="101" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -25294,10 +25313,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="G333" s="26">
         <v>337</v>
@@ -25309,7 +25328,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -25326,10 +25345,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -25404,11 +25423,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I864"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C835" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C873" sqref="C873"/>
+      <selection pane="bottomRight" activeCell="C846" sqref="C846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29537,7 +29556,7 @@
         <v>1046</v>
       </c>
       <c r="D178" s="94" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E178" s="14">
         <v>2</v>
@@ -29560,7 +29579,7 @@
         <v>1046</v>
       </c>
       <c r="D179" s="94" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -29569,7 +29588,7 @@
         <v>5</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29951,7 +29970,7 @@
         <v>1046</v>
       </c>
       <c r="D196" s="105" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E196" s="103">
         <v>2</v>
@@ -29974,7 +29993,7 @@
         <v>1046</v>
       </c>
       <c r="D197" s="105" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="E197" s="103">
         <v>2</v>
@@ -29983,7 +30002,7 @@
         <v>5</v>
       </c>
       <c r="G197" s="104" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -39213,7 +39232,7 @@
         <v>1169</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -39259,7 +39278,7 @@
         <v>1169</v>
       </c>
       <c r="D600" s="10" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E600" s="8">
         <v>5</v>
@@ -39282,7 +39301,7 @@
         <v>1169</v>
       </c>
       <c r="D601" s="10" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E601" s="14">
         <v>2</v>
@@ -39305,7 +39324,7 @@
         <v>1169</v>
       </c>
       <c r="D602" s="15" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E602" s="14">
         <v>2</v>
@@ -39351,7 +39370,7 @@
         <v>1169</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E604" s="14">
         <v>5</v>
@@ -39397,7 +39416,7 @@
         <v>1169</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E606" s="14">
         <v>5</v>
@@ -39420,7 +39439,7 @@
         <v>1169</v>
       </c>
       <c r="D607" s="15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E607" s="14">
         <v>2</v>
@@ -39443,7 +39462,7 @@
         <v>1169</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E608" s="14">
         <v>2</v>
@@ -39489,7 +39508,7 @@
         <v>1169</v>
       </c>
       <c r="D610" s="15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E610" s="8">
         <v>5</v>
@@ -39535,7 +39554,7 @@
         <v>1169</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E612" s="8">
         <v>5</v>
@@ -39558,7 +39577,7 @@
         <v>1169</v>
       </c>
       <c r="D613" s="15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E613" s="14">
         <v>2</v>
@@ -39581,7 +39600,7 @@
         <v>1169</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E614" s="14">
         <v>2</v>
@@ -39627,7 +39646,7 @@
         <v>1169</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -39673,7 +39692,7 @@
         <v>1169</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E618" s="8">
         <v>5</v>
@@ -39696,7 +39715,7 @@
         <v>1169</v>
       </c>
       <c r="D619" s="15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E619" s="14">
         <v>2</v>
@@ -39719,7 +39738,7 @@
         <v>1169</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E620" s="14">
         <v>2</v>
@@ -39765,7 +39784,7 @@
         <v>1169</v>
       </c>
       <c r="D622" s="15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E622" s="8">
         <v>5</v>
@@ -39811,7 +39830,7 @@
         <v>1169</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E624" s="8">
         <v>5</v>
@@ -39834,7 +39853,7 @@
         <v>1169</v>
       </c>
       <c r="D625" s="15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E625" s="14">
         <v>2</v>
@@ -39857,7 +39876,7 @@
         <v>1169</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E626" s="14">
         <v>2</v>
@@ -39903,7 +39922,7 @@
         <v>1169</v>
       </c>
       <c r="D628" s="15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E628" s="8">
         <v>5</v>
@@ -39949,7 +39968,7 @@
         <v>1169</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E630" s="8">
         <v>5</v>
@@ -39972,7 +39991,7 @@
         <v>1169</v>
       </c>
       <c r="D631" s="15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E631" s="14">
         <v>2</v>
@@ -39995,7 +40014,7 @@
         <v>1169</v>
       </c>
       <c r="D632" s="15" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E632" s="14">
         <v>2</v>
@@ -40539,7 +40558,7 @@
         <v>1</v>
       </c>
       <c r="G655" s="53" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.2">
@@ -40990,7 +41009,7 @@
         <v>1169</v>
       </c>
       <c r="D675" s="10" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="E675" s="8">
         <v>2</v>
@@ -44049,7 +44068,7 @@
         <v>1046</v>
       </c>
       <c r="D808" s="9" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -44118,7 +44137,7 @@
         <v>1046</v>
       </c>
       <c r="D811" s="10" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="E811" s="9">
         <v>5</v>
@@ -44127,7 +44146,7 @@
         <v>1</v>
       </c>
       <c r="G811" s="53" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.2">
@@ -44325,7 +44344,7 @@
         <v>866</v>
       </c>
       <c r="D820" s="10" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="E820" s="8">
         <v>2</v>
@@ -44440,7 +44459,7 @@
         <v>1046</v>
       </c>
       <c r="D825" s="9" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="E825" s="9">
         <v>2</v>
@@ -44463,7 +44482,7 @@
         <v>1046</v>
       </c>
       <c r="D826" s="15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E826" s="14">
         <v>2</v>
@@ -44472,7 +44491,7 @@
         <v>1</v>
       </c>
       <c r="G826" s="15" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.2">
@@ -44486,7 +44505,7 @@
         <v>1046</v>
       </c>
       <c r="D827" s="10" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="E827" s="8">
         <v>2</v>
@@ -44495,7 +44514,7 @@
         <v>2</v>
       </c>
       <c r="G827" s="10" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.2">
@@ -44509,7 +44528,7 @@
         <v>1046</v>
       </c>
       <c r="D828" s="10" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="E828" s="8">
         <v>2</v>
@@ -44529,10 +44548,10 @@
         <v>328</v>
       </c>
       <c r="C829" s="53" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -44541,7 +44560,7 @@
         <v>1</v>
       </c>
       <c r="G829" s="9" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.2">
@@ -44555,7 +44574,7 @@
         <v>1046</v>
       </c>
       <c r="D830" s="9" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="E830" s="9">
         <v>5</v>
@@ -44564,7 +44583,7 @@
         <v>1</v>
       </c>
       <c r="G830" s="53" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.2">
@@ -44578,7 +44597,7 @@
         <v>898</v>
       </c>
       <c r="D831" s="9" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E831" s="9">
         <v>5</v>
@@ -44587,7 +44606,7 @@
         <v>1</v>
       </c>
       <c r="G831" s="9" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
@@ -44601,7 +44620,7 @@
         <v>1046</v>
       </c>
       <c r="D832" s="9" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="E832" s="9">
         <v>5</v>
@@ -44610,7 +44629,7 @@
         <v>1</v>
       </c>
       <c r="G832" s="53" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.2">
@@ -44621,7 +44640,7 @@
         <v>330</v>
       </c>
       <c r="C833" s="53" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="D833" s="9">
         <v>1</v>
@@ -44633,7 +44652,7 @@
         <v>1</v>
       </c>
       <c r="G833" s="53" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.2">
@@ -44644,7 +44663,7 @@
         <v>330</v>
       </c>
       <c r="C834" s="53" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="D834" s="9">
         <v>3</v>
@@ -44656,7 +44675,7 @@
         <v>1</v>
       </c>
       <c r="G834" s="53" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.2">
@@ -44667,10 +44686,10 @@
         <v>330</v>
       </c>
       <c r="C835" s="53" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D835" s="53" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="E835" s="9">
         <v>5</v>
@@ -44679,7 +44698,7 @@
         <v>1</v>
       </c>
       <c r="G835" s="53" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.2">
@@ -44693,16 +44712,16 @@
         <v>866</v>
       </c>
       <c r="D836" s="10" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E836" s="9">
+        <v>2</v>
+      </c>
+      <c r="F836" s="9">
+        <v>2</v>
+      </c>
+      <c r="G836" s="53" t="s">
         <v>1811</v>
-      </c>
-      <c r="E836" s="9">
-        <v>2</v>
-      </c>
-      <c r="F836" s="9">
-        <v>2</v>
-      </c>
-      <c r="G836" s="53" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.2">
@@ -44725,7 +44744,7 @@
         <v>2</v>
       </c>
       <c r="G837" s="9" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.2">
@@ -44748,7 +44767,7 @@
         <v>3</v>
       </c>
       <c r="G838" s="53" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.2">
@@ -44762,7 +44781,7 @@
         <v>866</v>
       </c>
       <c r="D839" s="9" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="E839" s="9">
         <v>5</v>
@@ -44771,7 +44790,7 @@
         <v>3</v>
       </c>
       <c r="G839" s="9" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.2">
@@ -44794,7 +44813,7 @@
         <v>1</v>
       </c>
       <c r="G840" s="53" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.2">
@@ -44817,7 +44836,7 @@
         <v>1</v>
       </c>
       <c r="G841" s="53" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.2">
@@ -44840,7 +44859,7 @@
         <v>1</v>
       </c>
       <c r="G842" s="53" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.2">
@@ -44863,7 +44882,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="53" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.2">
@@ -44877,7 +44896,7 @@
         <v>1046</v>
       </c>
       <c r="D844" s="9" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="E844" s="9">
         <v>5</v>
@@ -44886,7 +44905,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="53" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.2">
@@ -44929,7 +44948,7 @@
         <v>1046</v>
       </c>
       <c r="D846" s="9" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="E846" s="9">
         <v>2</v>
@@ -44938,7 +44957,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="9" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.2">
@@ -44981,7 +45000,7 @@
         <v>1046</v>
       </c>
       <c r="D848" s="9" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="E848" s="9">
         <v>2</v>
@@ -44990,7 +45009,7 @@
         <v>1</v>
       </c>
       <c r="G848" s="9" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="849" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -45001,10 +45020,10 @@
         <v>336</v>
       </c>
       <c r="C849" s="98" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="D849" s="99" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="E849" s="98">
         <v>5</v>
@@ -45013,7 +45032,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="99" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.2">
@@ -45027,7 +45046,7 @@
         <v>1046</v>
       </c>
       <c r="D850" s="9" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="E850" s="9">
         <v>5</v>
@@ -45036,7 +45055,7 @@
         <v>1</v>
       </c>
       <c r="G850" s="9" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="851" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45050,7 +45069,7 @@
         <v>1046</v>
       </c>
       <c r="D851" s="107" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="E851" s="106">
         <v>2</v>
@@ -45059,7 +45078,7 @@
         <v>1</v>
       </c>
       <c r="G851" s="107" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="852" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45082,7 +45101,7 @@
         <v>1</v>
       </c>
       <c r="G852" s="107" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="853" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45105,7 +45124,7 @@
         <v>1</v>
       </c>
       <c r="G853" s="106" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="854" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -45119,7 +45138,7 @@
         <v>1046</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="E854" s="14">
         <v>5</v>
@@ -45128,7 +45147,7 @@
         <v>1</v>
       </c>
       <c r="G854" s="14" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="855" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45309,13 +45328,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -45335,7 +45354,7 @@
         <v>1630</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1625</v>
@@ -45378,13 +45397,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -45393,7 +45412,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
   </sheetData>
@@ -45486,7 +45505,7 @@
         <v>866</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="1890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="1896">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8836,6 +8836,30 @@
   </si>
   <si>
     <t>新人专享（新人才展示）</t>
+  </si>
+  <si>
+    <t>rank_leijiyingjin_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不展示给冲金鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不展示给cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9618,11 +9642,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q408"/>
+  <dimension ref="A1:Q410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B416" sqref="B416"/>
+      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C410" sqref="C410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13959,6 +13983,17 @@
       </c>
       <c r="C408" s="3">
         <v>91</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C410" s="3">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -25277,7 +25312,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C827" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A852" sqref="A852"/>
+      <selection pane="bottomRight" activeCell="G854" sqref="G854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44893,10 +44928,10 @@
         <v>336</v>
       </c>
       <c r="C850" s="10" t="s">
-        <v>1046</v>
+        <v>1892</v>
       </c>
       <c r="D850" s="9" t="s">
-        <v>1869</v>
+        <v>1893</v>
       </c>
       <c r="E850" s="9">
         <v>5</v>
@@ -44975,6 +45010,29 @@
       </c>
       <c r="G853" s="103" t="s">
         <v>1887</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A854" s="14">
+        <v>853</v>
+      </c>
+      <c r="B854" s="14">
+        <v>338</v>
+      </c>
+      <c r="C854" s="14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D854" s="14" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E854" s="14">
+        <v>5</v>
+      </c>
+      <c r="F854" s="14">
+        <v>1</v>
+      </c>
+      <c r="G854" s="14" t="s">
+        <v>1895</v>
       </c>
     </row>
     <row r="860" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -8848,10 +8848,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_rank_type = xxx 的活动排行榜</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8881,6 +8877,10 @@
   </si>
   <si>
     <t>drt_cjj_little_game_discount</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9687,7 +9687,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A410" sqref="A410"/>
     </sheetView>
@@ -13833,10 +13833,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="27" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B384" s="27" t="s">
         <v>1897</v>
-      </c>
-      <c r="B384" s="27" t="s">
-        <v>1898</v>
       </c>
       <c r="C384" s="3">
         <v>326</v>
@@ -14042,10 +14042,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C410" s="3">
         <v>326</v>
@@ -14249,7 +14249,7 @@
         <v>1515</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -25230,7 +25230,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -25345,10 +25345,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -45193,8 +45193,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -45403,7 +45403,7 @@
         <v>898</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1892</v>
+        <v>1900</v>
       </c>
       <c r="E9">
         <v>2</v>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4409" uniqueCount="1901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4462" uniqueCount="1932">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8084,6 +8084,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>冲金鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>非冲金鸡</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8156,10 +8160,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>cps_xiaomi</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8194,6 +8194,10 @@
   </si>
   <si>
     <t>actp_own_task_p_task_fish_daily_2_no_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -8703,11 +8707,225 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>actp_own_task_p_034_xyxfl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸  V1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cjj</t>
+  </si>
+  <si>
+    <t>3D捕鱼冲金鸡平台</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是冲金鸡平台</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是3D捕鱼冲金鸡平台</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐（新版）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+  </si>
+  <si>
+    <t>是cpl渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须在2020年11月10日8:30后第一次登录</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt_block_new_player_happy_seven_day</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_new_player</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10346</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_029_hlqjd_hammer</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋活动使用锤子（V1以上，非新玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年11月23日23:59:59结束</t>
+  </si>
+  <si>
+    <t>2020年11月23日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xrqtl_new</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不展示给cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_type = xxx 的活动排行榜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj关闭累计赢金榜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_leijiyingjin_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chd_new</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>周常活动新人展示位置</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_new_player</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_new_player</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是新玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt_cjj_little_game_discount</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡小游戏打折</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>2020年11月9日23:59:59结束</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_034_xyxfl</t>
+    <t>2020年11月30日23:59:59结束</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -8715,22 +8933,83 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_cps</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwzb_level</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙王争霸  V1</t>
+    <t>share_condition</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3dby_cjj</t>
-  </si>
-  <si>
-    <t>3D捕鱼冲金鸡平台</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cps_xiaomi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_cqg_viplimit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱罐VIP1限制</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP4及以上的用户可进行游戏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1及以上的用户可进行领取</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyxxl_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游消消乐  V1orLV9</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是cpl玩家才可游戏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv9开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是cpl玩家才可游戏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -8738,149 +9017,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是冲金鸡平台</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是3D捕鱼冲金鸡平台</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐（新版）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cpl</t>
-  </si>
-  <si>
-    <t>是cpl渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须在2020年11月10日8:30后第一次登录</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>drt_block_new_player_happy_seven_day</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag_new_player</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新用户</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_10346</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_level</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_level</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag_type</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag_new_player</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_029_hlqjd_hammer</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋活动使用锤子（V1以上，非新玩家）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年11月23日23:59:59结束</t>
-  </si>
-  <si>
-    <t>2020年11月23日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_xrqtl_new</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>now</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不展示给cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_type = xxx 的活动排行榜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj关闭累计赢金榜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>day_delay</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_leijiyingjin_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡小游戏打折</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>drt_cjj_little_game_discount</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc",</t>
+    <t>是冲金鸡玩家才可游戏</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9685,11 +9822,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q410"/>
+  <dimension ref="A1:Q415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A410" sqref="A410"/>
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C361" sqref="C361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12047,7 +12184,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="34" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>293</v>
@@ -13688,202 +13825,202 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361" s="27" t="s">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="27" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B360" s="27" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C360" s="3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" s="27" t="s">
         <v>1459</v>
       </c>
-      <c r="B361" s="27" t="s">
+      <c r="B362" s="27" t="s">
         <v>1488</v>
       </c>
-      <c r="C361" s="3">
+      <c r="C362" s="3">
         <v>91</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363" s="27" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B363" s="34" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C363" s="3">
-        <v>332</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="27" t="s">
-        <v>1475</v>
+        <v>1821</v>
       </c>
       <c r="B364" s="34" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="C364" s="3">
-        <v>242</v>
+        <v>332</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="27" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B365" s="27" t="s">
-        <v>1469</v>
+        <v>1475</v>
+      </c>
+      <c r="B365" s="34" t="s">
+        <v>1819</v>
       </c>
       <c r="C365" s="3">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="27" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B366" s="27" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C366" s="3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" s="27" t="s">
         <v>1471</v>
       </c>
-      <c r="B366" s="27" t="s">
-        <v>1819</v>
-      </c>
-      <c r="C366" s="3">
+      <c r="B367" s="27" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C367" s="3">
         <v>244</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369" s="3" t="s">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" s="3" t="s">
         <v>1509</v>
       </c>
-      <c r="B369" s="27" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C369" s="3">
+      <c r="B370" s="27" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C370" s="3">
         <v>248</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371" s="27" t="s">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" s="27" t="s">
         <v>1757</v>
       </c>
-      <c r="B371" s="27" t="s">
+      <c r="B372" s="27" t="s">
         <v>1533</v>
       </c>
-      <c r="C371" s="3">
+      <c r="C372" s="3">
         <v>256</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372" s="3" t="s">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" s="3" t="s">
         <v>1534</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="B373" s="3" t="s">
         <v>1535</v>
       </c>
-      <c r="C372" s="3">
+      <c r="C373" s="3">
         <v>257</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374" s="27" t="s">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="27" t="s">
         <v>1537</v>
       </c>
-      <c r="B374" s="27" t="s">
+      <c r="B375" s="27" t="s">
         <v>1547</v>
       </c>
-      <c r="C374" s="3">
+      <c r="C375" s="3">
         <v>258</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376" s="3" t="s">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" s="3" t="s">
         <v>1557</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="B377" s="3" t="s">
         <v>1558</v>
       </c>
-      <c r="C376" s="3">
+      <c r="C377" s="3">
         <v>266</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378" s="27" t="s">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" s="27" t="s">
         <v>1622</v>
       </c>
-      <c r="B378" s="27" t="s">
+      <c r="B379" s="27" t="s">
         <v>1632</v>
       </c>
-      <c r="C378" s="3">
+      <c r="C379" s="3">
         <v>287</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380" s="27" t="s">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" s="27" t="s">
         <v>1650</v>
       </c>
-      <c r="B380" s="27" t="s">
+      <c r="B381" s="27" t="s">
         <v>1649</v>
       </c>
-      <c r="C380" s="3">
+      <c r="C381" s="3">
         <v>292</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382" s="27" t="s">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" s="27" t="s">
         <v>1700</v>
       </c>
-      <c r="B382" s="27" t="s">
+      <c r="B383" s="27" t="s">
         <v>1699</v>
       </c>
-      <c r="C382" s="3">
+      <c r="C383" s="3">
         <v>319</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384" s="27" t="s">
-        <v>1896</v>
-      </c>
-      <c r="B384" s="27" t="s">
-        <v>1897</v>
-      </c>
-      <c r="C384" s="3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" s="27" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B385" s="27" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C385" s="3">
         <v>326</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A386" s="27" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B386" s="27" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C386" s="3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" s="27" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B387" s="27" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C387" s="3">
         <v>327</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A388" s="27" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B388" s="3" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C388" s="3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" s="27" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C389" s="3">
         <v>328</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A390" s="27" t="s">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" s="27" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B391" s="27" t="s">
         <v>1773</v>
       </c>
-      <c r="B390" s="27" t="s">
-        <v>1772</v>
-      </c>
-      <c r="C390" s="3">
+      <c r="C391" s="3">
         <v>319</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A392" s="34" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B392" s="34" t="s">
-        <v>1791</v>
-      </c>
-      <c r="C392" s="8">
-        <v>127</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -13894,7 +14031,7 @@
         <v>1792</v>
       </c>
       <c r="C393" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -13905,7 +14042,7 @@
         <v>1793</v>
       </c>
       <c r="C394" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -13916,7 +14053,7 @@
         <v>1794</v>
       </c>
       <c r="C395" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -13927,7 +14064,7 @@
         <v>1795</v>
       </c>
       <c r="C396" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
@@ -13938,7 +14075,7 @@
         <v>1796</v>
       </c>
       <c r="C397" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -13949,7 +14086,7 @@
         <v>1797</v>
       </c>
       <c r="C398" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -13960,7 +14097,7 @@
         <v>1798</v>
       </c>
       <c r="C399" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -13971,26 +14108,26 @@
         <v>1799</v>
       </c>
       <c r="C400" s="8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" s="34" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B401" s="34" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C401" s="8">
         <v>135</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A402" s="27" t="s">
-        <v>1828</v>
-      </c>
-      <c r="B402" s="27" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C402" s="3">
-        <v>333</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="27" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B403" s="27" t="s">
         <v>1830</v>
-      </c>
-      <c r="B403" s="27" t="s">
-        <v>1831</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -13998,10 +14135,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="27" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B404" s="27" t="s">
         <v>1832</v>
-      </c>
-      <c r="B404" s="27" t="s">
-        <v>1833</v>
       </c>
       <c r="C404" s="3">
         <v>333</v>
@@ -14009,10 +14146,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="27" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B405" s="27" t="s">
         <v>1834</v>
-      </c>
-      <c r="B405" s="27" t="s">
-        <v>1835</v>
       </c>
       <c r="C405" s="3">
         <v>333</v>
@@ -14020,35 +14157,68 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="27" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B406" s="27" t="s">
         <v>1836</v>
-      </c>
-      <c r="B406" s="27" t="s">
-        <v>1837</v>
       </c>
       <c r="C406" s="3">
         <v>333</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408" s="27" t="s">
-        <v>1843</v>
-      </c>
-      <c r="B408" s="27" t="s">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" s="27" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B407" s="27" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C407" s="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" s="27" t="s">
         <v>1844</v>
       </c>
-      <c r="C408" s="3">
+      <c r="B409" s="27" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C409" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A410" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C410" s="3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" s="27" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B411" s="27" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C411" s="3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C413" s="3">
         <v>326</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" s="27" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B415" s="27" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C415" s="3">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -14064,10 +14234,10 @@
   <dimension ref="A1:O342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G308" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D296" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L334" sqref="L334"/>
+      <selection pane="bottomRight" activeCell="A335" sqref="A335:XFD336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14249,7 +14419,7 @@
         <v>1515</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -14405,7 +14575,7 @@
         <v>469</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>1181</v>
@@ -20117,7 +20287,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>774</v>
@@ -23916,7 +24086,7 @@
         <v>1605542400</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23950,7 +24120,7 @@
         <v>1605542400</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23984,7 +24154,7 @@
         <v>1605542400</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23995,10 +24165,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -24018,7 +24188,7 @@
         <v>1605542400</v>
       </c>
       <c r="L292" s="109" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -24253,7 +24423,7 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="D300" s="16" t="s">
         <v>1686</v>
@@ -24959,7 +25129,7 @@
         <v>1</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="D322" s="30" t="s">
         <v>1767</v>
@@ -24991,7 +25161,7 @@
         <v>1</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="D323" s="30" t="s">
         <v>1767</v>
@@ -25012,7 +25182,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -25023,10 +25193,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -25055,10 +25225,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D325" s="30" t="s">
         <v>1781</v>
-      </c>
-      <c r="D325" s="30" t="s">
-        <v>1780</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -25087,10 +25257,10 @@
         <v>1</v>
       </c>
       <c r="C326" s="30" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D326" s="30" t="s">
         <v>1816</v>
-      </c>
-      <c r="D326" s="30" t="s">
-        <v>1815</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -25108,7 +25278,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -25119,10 +25289,10 @@
         <v>1</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -25140,7 +25310,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -25154,7 +25324,7 @@
         <v>1879</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -25183,10 +25353,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="D329" s="26" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -25215,10 +25385,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D330" s="26" t="s">
         <v>1848</v>
-      </c>
-      <c r="D330" s="26" t="s">
-        <v>1847</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -25230,7 +25400,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -25247,10 +25417,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -25282,7 +25452,7 @@
         <v>1856</v>
       </c>
       <c r="D332" s="101" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="E332" s="100"/>
       <c r="F332" s="100"/>
@@ -25302,7 +25472,7 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="101" t="s">
-        <v>1855</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -25313,7 +25483,7 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="D333" s="26" t="s">
         <v>1872</v>
@@ -25328,7 +25498,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -25345,10 +25515,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -25372,30 +25542,72 @@
       </c>
     </row>
     <row r="335" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="17"/>
-      <c r="B335" s="17"/>
-      <c r="C335" s="16"/>
-      <c r="D335" s="16"/>
+      <c r="A335" s="26">
+        <v>334</v>
+      </c>
+      <c r="B335" s="26">
+        <v>1</v>
+      </c>
+      <c r="C335" s="16" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D335" s="16" t="s">
+        <v>1903</v>
+      </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
-      <c r="G335" s="17"/>
-      <c r="H335" s="17"/>
-      <c r="J335" s="17"/>
-      <c r="K335" s="17"/>
-      <c r="L335" s="16"/>
+      <c r="G335" s="26">
+        <v>340</v>
+      </c>
+      <c r="H335" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I335" t="b">
+        <v>1</v>
+      </c>
+      <c r="J335" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="K335" s="17">
+        <v>1606176000</v>
+      </c>
+      <c r="L335" s="16" t="s">
+        <v>1908</v>
+      </c>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="17"/>
-      <c r="B336" s="17"/>
-      <c r="C336" s="16"/>
-      <c r="D336" s="16"/>
+      <c r="A336" s="17">
+        <v>335</v>
+      </c>
+      <c r="B336" s="17">
+        <v>1</v>
+      </c>
+      <c r="C336" s="16" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D336" s="16" t="s">
+        <v>1904</v>
+      </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
-      <c r="G336" s="17"/>
-      <c r="H336" s="17"/>
-      <c r="J336" s="17"/>
-      <c r="K336" s="17"/>
-      <c r="L336" s="16"/>
+      <c r="G336" s="17">
+        <v>341</v>
+      </c>
+      <c r="H336" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I336" t="b">
+        <v>1</v>
+      </c>
+      <c r="J336" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="K336" s="17">
+        <v>1606176000</v>
+      </c>
+      <c r="L336" s="16" t="s">
+        <v>1908</v>
+      </c>
     </row>
     <row r="342" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="17"/>
@@ -25421,13 +25633,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I864"/>
+  <dimension ref="A1:I868"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C835" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D841" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C846" sqref="C846"/>
+      <selection pane="bottomRight" activeCell="A857" sqref="A857:A868"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40558,7 +40770,7 @@
         <v>1</v>
       </c>
       <c r="G655" s="53" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.2">
@@ -43778,7 +43990,7 @@
         <v>1</v>
       </c>
       <c r="G795" s="10" t="s">
-        <v>1495</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.2">
@@ -44146,7 +44358,7 @@
         <v>1</v>
       </c>
       <c r="G811" s="53" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.2">
@@ -44344,7 +44556,7 @@
         <v>866</v>
       </c>
       <c r="D820" s="10" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="E820" s="8">
         <v>2</v>
@@ -44491,7 +44703,7 @@
         <v>1</v>
       </c>
       <c r="G826" s="15" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.2">
@@ -44505,7 +44717,7 @@
         <v>1046</v>
       </c>
       <c r="D827" s="10" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="E827" s="8">
         <v>2</v>
@@ -44514,7 +44726,7 @@
         <v>2</v>
       </c>
       <c r="G827" s="10" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.2">
@@ -44528,7 +44740,7 @@
         <v>1046</v>
       </c>
       <c r="D828" s="10" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="E828" s="8">
         <v>2</v>
@@ -44548,7 +44760,7 @@
         <v>328</v>
       </c>
       <c r="C829" s="53" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="D829" s="9" t="s">
         <v>1769</v>
@@ -44560,7 +44772,7 @@
         <v>1</v>
       </c>
       <c r="G829" s="9" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.2">
@@ -44583,7 +44795,7 @@
         <v>1</v>
       </c>
       <c r="G830" s="53" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.2">
@@ -44606,7 +44818,7 @@
         <v>1</v>
       </c>
       <c r="G831" s="9" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
@@ -44629,7 +44841,7 @@
         <v>1</v>
       </c>
       <c r="G832" s="53" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.2">
@@ -44652,7 +44864,7 @@
         <v>1</v>
       </c>
       <c r="G833" s="53" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.2">
@@ -44675,7 +44887,7 @@
         <v>1</v>
       </c>
       <c r="G834" s="53" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.2">
@@ -44686,10 +44898,10 @@
         <v>330</v>
       </c>
       <c r="C835" s="53" t="s">
-        <v>1882</v>
+        <v>1066</v>
       </c>
       <c r="D835" s="53" t="s">
-        <v>1883</v>
+        <v>1896</v>
       </c>
       <c r="E835" s="9">
         <v>5</v>
@@ -44698,7 +44910,7 @@
         <v>1</v>
       </c>
       <c r="G835" s="53" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.2">
@@ -44712,7 +44924,7 @@
         <v>866</v>
       </c>
       <c r="D836" s="10" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="E836" s="9">
         <v>2</v>
@@ -44721,7 +44933,7 @@
         <v>2</v>
       </c>
       <c r="G836" s="53" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.2">
@@ -44744,7 +44956,7 @@
         <v>2</v>
       </c>
       <c r="G837" s="9" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.2">
@@ -44767,7 +44979,7 @@
         <v>3</v>
       </c>
       <c r="G838" s="53" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.2">
@@ -44790,7 +45002,7 @@
         <v>3</v>
       </c>
       <c r="G839" s="9" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.2">
@@ -44813,7 +45025,7 @@
         <v>1</v>
       </c>
       <c r="G840" s="53" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.2">
@@ -44836,7 +45048,7 @@
         <v>1</v>
       </c>
       <c r="G841" s="53" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.2">
@@ -44859,7 +45071,7 @@
         <v>1</v>
       </c>
       <c r="G842" s="53" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.2">
@@ -44882,7 +45094,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="53" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.2">
@@ -44905,7 +45117,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="53" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.2">
@@ -44957,7 +45169,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="9" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.2">
@@ -45009,7 +45221,7 @@
         <v>1</v>
       </c>
       <c r="G848" s="9" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="849" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -45032,7 +45244,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="99" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.2">
@@ -45043,10 +45255,10 @@
         <v>336</v>
       </c>
       <c r="C850" s="10" t="s">
-        <v>1046</v>
+        <v>1909</v>
       </c>
       <c r="D850" s="9" t="s">
-        <v>1861</v>
+        <v>1911</v>
       </c>
       <c r="E850" s="9">
         <v>5</v>
@@ -45055,7 +45267,7 @@
         <v>1</v>
       </c>
       <c r="G850" s="9" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="851" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45138,7 +45350,7 @@
         <v>1046</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="E854" s="14">
         <v>5</v>
@@ -45147,39 +45359,330 @@
         <v>1</v>
       </c>
       <c r="G854" s="14" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="855" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G855" s="10"/>
+      <c r="A855" s="8">
+        <v>854</v>
+      </c>
+      <c r="B855" s="8">
+        <v>339</v>
+      </c>
+      <c r="C855" s="10" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D855" s="10" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E855" s="8">
+        <v>2</v>
+      </c>
+      <c r="F855" s="8">
+        <v>1</v>
+      </c>
+      <c r="G855" s="10" t="s">
+        <v>1899</v>
+      </c>
     </row>
     <row r="856" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G856" s="10"/>
+      <c r="A856" s="8">
+        <v>855</v>
+      </c>
+      <c r="B856" s="8">
+        <v>340</v>
+      </c>
+      <c r="C856" s="10" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D856" s="10" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E856" s="8">
+        <v>5</v>
+      </c>
+      <c r="F856" s="8">
+        <v>1</v>
+      </c>
+      <c r="G856" s="10" t="s">
+        <v>1904</v>
+      </c>
     </row>
     <row r="857" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G857" s="10"/>
-    </row>
-    <row r="858" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G858" s="10"/>
-    </row>
-    <row r="859" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G859" s="10"/>
-    </row>
-    <row r="860" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G860" s="10"/>
-    </row>
-    <row r="861" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G861" s="10"/>
-    </row>
-    <row r="862" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G862" s="10"/>
-    </row>
-    <row r="863" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D863" s="10"/>
-      <c r="G863" s="10"/>
-    </row>
-    <row r="864" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C864" s="10"/>
+      <c r="A857" s="14">
+        <v>856</v>
+      </c>
+      <c r="B857" s="8">
+        <v>341</v>
+      </c>
+      <c r="C857" s="10" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D857" s="10" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E857" s="8">
+        <v>2</v>
+      </c>
+      <c r="F857" s="8">
+        <v>1</v>
+      </c>
+      <c r="G857" s="10" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A858" s="14">
+        <v>857</v>
+      </c>
+      <c r="B858" s="14">
+        <v>342</v>
+      </c>
+      <c r="C858" s="15" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D858" s="15" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E858" s="14">
+        <v>2</v>
+      </c>
+      <c r="F858" s="14">
+        <v>1</v>
+      </c>
+      <c r="G858" s="15" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A859" s="14">
+        <v>858</v>
+      </c>
+      <c r="B859" s="14">
+        <v>342</v>
+      </c>
+      <c r="C859" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D859" s="10" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E859" s="8">
+        <v>2</v>
+      </c>
+      <c r="F859" s="8">
+        <v>2</v>
+      </c>
+      <c r="G859" s="10" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A860" s="14">
+        <v>859</v>
+      </c>
+      <c r="B860" s="14">
+        <v>342</v>
+      </c>
+      <c r="C860" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D860" s="10" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E860" s="8">
+        <v>2</v>
+      </c>
+      <c r="F860" s="8">
+        <v>3</v>
+      </c>
+      <c r="G860" s="10" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A861" s="14">
+        <v>860</v>
+      </c>
+      <c r="B861" s="14">
+        <v>342</v>
+      </c>
+      <c r="C861" s="14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D861" s="14" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E861" s="14">
+        <v>2</v>
+      </c>
+      <c r="F861" s="14">
+        <v>4</v>
+      </c>
+      <c r="G861" s="15" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A862" s="14">
+        <v>861</v>
+      </c>
+      <c r="B862" s="9">
+        <v>342</v>
+      </c>
+      <c r="C862" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="D862" s="9">
+        <v>1</v>
+      </c>
+      <c r="E862" s="9">
+        <v>3</v>
+      </c>
+      <c r="F862" s="9">
+        <v>4</v>
+      </c>
+      <c r="G862" s="53" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A863" s="14">
+        <v>862</v>
+      </c>
+      <c r="B863" s="9">
+        <v>343</v>
+      </c>
+      <c r="C863" s="53" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D863" s="9">
+        <v>1</v>
+      </c>
+      <c r="E863" s="9">
+        <v>3</v>
+      </c>
+      <c r="F863" s="9">
+        <v>1</v>
+      </c>
+      <c r="G863" s="10" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A864" s="14">
+        <v>863</v>
+      </c>
+      <c r="B864" s="9">
+        <v>343</v>
+      </c>
+      <c r="C864" s="10" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D864" s="15" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E864" s="8">
+        <v>5</v>
+      </c>
+      <c r="F864" s="8">
+        <v>1</v>
+      </c>
+      <c r="G864" s="10" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A865" s="14">
+        <v>864</v>
+      </c>
+      <c r="B865" s="9">
+        <v>343</v>
+      </c>
+      <c r="C865" s="53" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D865" s="9">
+        <v>9</v>
+      </c>
+      <c r="E865" s="9">
+        <v>3</v>
+      </c>
+      <c r="F865" s="9">
+        <v>2</v>
+      </c>
+      <c r="G865" s="10" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A866" s="14">
+        <v>865</v>
+      </c>
+      <c r="B866" s="9">
+        <v>343</v>
+      </c>
+      <c r="C866" s="10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D866" s="15" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E866" s="8">
+        <v>5</v>
+      </c>
+      <c r="F866" s="8">
+        <v>2</v>
+      </c>
+      <c r="G866" s="10" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A867" s="14">
+        <v>866</v>
+      </c>
+      <c r="B867" s="14">
+        <v>343</v>
+      </c>
+      <c r="C867" s="15" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D867" s="15" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E867" s="14">
+        <v>2</v>
+      </c>
+      <c r="F867" s="14">
+        <v>3</v>
+      </c>
+      <c r="G867" s="15" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A868" s="14">
+        <v>867</v>
+      </c>
+      <c r="B868" s="14">
+        <v>343</v>
+      </c>
+      <c r="C868" s="15" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D868" s="15" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E868" s="14">
+        <v>2</v>
+      </c>
+      <c r="F868" s="14">
+        <v>4</v>
+      </c>
+      <c r="G868" s="15" t="s">
+        <v>1931</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -45193,7 +45696,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -45334,7 +45837,7 @@
         <v>898</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -45354,7 +45857,7 @@
         <v>1630</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1625</v>
@@ -45403,7 +45906,7 @@
         <v>898</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -45505,7 +46008,7 @@
         <v>866</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="1982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4574" uniqueCount="1984">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9231,6 +9231,14 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_cpl_jjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>救济金显示权限（非cpl显示30000，cpl为20000）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10059,11 +10067,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q439"/>
+  <dimension ref="A1:Q441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89:C89"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B441" sqref="B441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14663,6 +14671,17 @@
       </c>
       <c r="C439" s="3">
         <v>349</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441" s="3" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C441" s="3">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -26077,13 +26096,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I889"/>
+  <dimension ref="A1:I891"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C858" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C861" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D880" sqref="D880"/>
+      <selection pane="bottomRight" activeCell="G891" sqref="G891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46609,6 +46628,52 @@
       </c>
       <c r="G889" s="10" t="s">
         <v>1944</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A890" s="9">
+        <v>889</v>
+      </c>
+      <c r="B890" s="9">
+        <v>350</v>
+      </c>
+      <c r="C890" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D890" s="15" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E890" s="8">
+        <v>5</v>
+      </c>
+      <c r="F890" s="8">
+        <v>1</v>
+      </c>
+      <c r="G890" s="10" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A891" s="9">
+        <v>890</v>
+      </c>
+      <c r="B891" s="9">
+        <v>350</v>
+      </c>
+      <c r="C891" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D891" s="10" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E891" s="8">
+        <v>5</v>
+      </c>
+      <c r="F891" s="8">
+        <v>1</v>
+      </c>
+      <c r="G891" s="10" t="s">
+        <v>1068</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -9138,107 +9138,107 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>cjj_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlby_type_plat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡送礼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运抽奖</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>3dby_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>冲金鸡官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d捕鱼官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xycj_enter_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjsl_enter_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>cjj_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>cjj_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>hlby_type_plat</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鸡送礼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运抽奖</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>share_condition</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_official</t>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡VIP描述屏蔽</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐下注5000鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐下注10000鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐下注30000鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐下注60000鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐下注12000鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_cpl_jjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>救济金显示权限（非cpl显示30000，cpl为20000）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3dby_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡官方</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3d捕鱼官方</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>xycj_enter_limit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjsl_enter_limit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_vip_desc</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡VIP描述屏蔽</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐下注5000鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐下注10000鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐下注30000鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐下注60000鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐下注12000鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>not_cpl_jjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>救济金显示权限（非cpl显示30000，cpl为20000）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10070,8 +10070,8 @@
   <dimension ref="A1:Q441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B441" sqref="B441"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11258,7 +11258,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -11276,7 +11276,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11294,7 +11294,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -11312,7 +11312,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C73" s="57">
         <v>22</v>
@@ -11332,7 +11332,7 @@
         <v>137</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C74" s="57">
         <v>22</v>
@@ -11451,7 +11451,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -11474,7 +11474,7 @@
         <v>146</v>
       </c>
       <c r="B84" s="53" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C84" s="9"/>
     </row>
@@ -11483,7 +11483,7 @@
         <v>147</v>
       </c>
       <c r="B85" s="53" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="C85" s="9"/>
     </row>
@@ -11492,7 +11492,7 @@
         <v>148</v>
       </c>
       <c r="B86" s="53" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C86" s="9"/>
     </row>
@@ -11501,7 +11501,7 @@
         <v>149</v>
       </c>
       <c r="B87" s="53" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C87" s="57">
         <v>22</v>
@@ -11512,7 +11512,7 @@
         <v>150</v>
       </c>
       <c r="B88" s="53" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C88" s="57">
         <v>22</v>
@@ -11600,7 +11600,7 @@
         <v>158</v>
       </c>
       <c r="B96" s="53" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C96" s="9">
         <v>26</v>
@@ -14609,7 +14609,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="27" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B431" s="27" t="s">
         <v>1952</v>
@@ -14642,10 +14642,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="27" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B436" s="27" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C436" s="3">
         <v>347</v>
@@ -14653,10 +14653,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="27" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B437" s="27" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C437" s="3">
         <v>348</v>
@@ -14664,10 +14664,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="27" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B439" s="27" t="s">
         <v>1974</v>
-      </c>
-      <c r="B439" s="27" t="s">
-        <v>1975</v>
       </c>
       <c r="C439" s="3">
         <v>349</v>
@@ -14675,10 +14675,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B441" s="3" t="s">
         <v>1982</v>
-      </c>
-      <c r="B441" s="3" t="s">
-        <v>1983</v>
       </c>
       <c r="C441" s="3">
         <v>350</v>
@@ -26099,10 +26099,10 @@
   <dimension ref="A1:I891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C861" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G891" sqref="G891"/>
+      <selection pane="bottomRight" activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29514,11 +29514,11 @@
       <c r="B147" s="8">
         <v>72</v>
       </c>
-      <c r="C147" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>934</v>
+      <c r="C147" s="113" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D147" s="113" t="s">
+        <v>1983</v>
       </c>
       <c r="E147" s="8">
         <v>2</v>
@@ -44835,7 +44835,7 @@
         <v>1032</v>
       </c>
       <c r="D812" s="15" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E812" s="14">
         <v>5</v>
@@ -46296,7 +46296,7 @@
         <v>1032</v>
       </c>
       <c r="D875" s="10" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E875" s="8">
         <v>2</v>
@@ -46388,7 +46388,7 @@
         <v>1032</v>
       </c>
       <c r="D879" s="10" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E879" s="8">
         <v>2</v>
@@ -46434,7 +46434,7 @@
         <v>1155</v>
       </c>
       <c r="D881" s="15" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -46526,7 +46526,7 @@
         <v>1155</v>
       </c>
       <c r="D885" s="15" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E885" s="8">
         <v>5</v>
@@ -46546,10 +46546,10 @@
         <v>348</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D886" s="15" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E886" s="8">
         <v>2</v>
@@ -46558,7 +46558,7 @@
         <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.2">
@@ -46569,7 +46569,7 @@
         <v>348</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D887" s="15" t="s">
         <v>1807</v>
@@ -46581,7 +46581,7 @@
         <v>2</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.2">
@@ -46592,10 +46592,10 @@
         <v>348</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D888" s="15" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E888" s="8">
         <v>2</v>
@@ -46604,7 +46604,7 @@
         <v>3</v>
       </c>
       <c r="G888" s="10" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.2">
@@ -46650,7 +46650,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.2">
@@ -46689,7 +46689,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46823,7 +46823,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1957</v>
+        <v>1842</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>884</v>
@@ -46846,7 +46846,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1740</v>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4598" uniqueCount="2004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4597" uniqueCount="2005">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8775,10 +8775,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>欢乐敲金蛋活动使用锤子（V1以上，非新玩家）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>2020年11月23日23:59:59结束</t>
   </si>
   <si>
@@ -9065,19 +9061,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>签到权限-只有欢乐捕鱼和冲金鸡官方渠道展示</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cjj_all</t>
-  </si>
-  <si>
-    <t>"cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cjj_all</t>
@@ -9297,6 +9285,14 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>欢乐敲金蛋活动使用锤子（全体）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是新用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>not_cpl_jjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9305,7 +9301,15 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_cpl</t>
+    <t>是新用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao","cjj_dandanzhuan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao","cjj_dandanzhuan",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11343,7 +11347,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11379,7 +11383,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="C73" s="57">
         <v>22</v>
@@ -11518,7 +11522,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -14069,7 +14073,7 @@
         <v>1391</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C353" s="3">
         <v>226</v>
@@ -14143,10 +14147,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="27" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B360" s="27" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C360" s="3">
         <v>343</v>
@@ -14506,10 +14510,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="27" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B411" s="27" t="s">
         <v>1883</v>
-      </c>
-      <c r="B411" s="27" t="s">
-        <v>1884</v>
       </c>
       <c r="C411" s="3">
         <v>339</v>
@@ -14517,10 +14521,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B413" s="3" t="s">
         <v>1889</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>1890</v>
       </c>
       <c r="C413" s="3">
         <v>326</v>
@@ -14528,37 +14532,37 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="34" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B415" s="10" t="s">
         <v>1891</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>1892</v>
       </c>
       <c r="C415" s="9"/>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="18" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B416" s="10" t="s">
         <v>1893</v>
-      </c>
-      <c r="B416" s="10" t="s">
-        <v>1894</v>
       </c>
       <c r="C416" s="9"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="18" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B417" s="10" t="s">
         <v>1895</v>
-      </c>
-      <c r="B417" s="10" t="s">
-        <v>1896</v>
       </c>
       <c r="C417" s="9"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="18" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B418" s="10" t="s">
         <v>1897</v>
-      </c>
-      <c r="B418" s="10" t="s">
-        <v>1898</v>
       </c>
       <c r="C418" s="57">
         <v>22</v>
@@ -14566,10 +14570,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="18" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B419" s="10" t="s">
         <v>1899</v>
-      </c>
-      <c r="B419" s="10" t="s">
-        <v>1900</v>
       </c>
       <c r="C419" s="57">
         <v>22</v>
@@ -14577,10 +14581,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="18" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B420" s="10" t="s">
         <v>1901</v>
-      </c>
-      <c r="B420" s="10" t="s">
-        <v>1902</v>
       </c>
       <c r="C420" s="57">
         <v>22</v>
@@ -14588,10 +14592,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="18" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B421" s="10" t="s">
         <v>1903</v>
-      </c>
-      <c r="B421" s="10" t="s">
-        <v>1904</v>
       </c>
       <c r="C421" s="57">
         <v>23</v>
@@ -14599,10 +14603,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="18" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B422" s="10" t="s">
         <v>1905</v>
-      </c>
-      <c r="B422" s="10" t="s">
-        <v>1906</v>
       </c>
       <c r="C422" s="57">
         <v>23</v>
@@ -14610,10 +14614,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="18" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B423" s="10" t="s">
         <v>1907</v>
-      </c>
-      <c r="B423" s="10" t="s">
-        <v>1908</v>
       </c>
       <c r="C423" s="9">
         <v>24</v>
@@ -14621,10 +14625,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="18" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B424" s="10" t="s">
         <v>1909</v>
-      </c>
-      <c r="B424" s="10" t="s">
-        <v>1910</v>
       </c>
       <c r="C424" s="9">
         <v>25</v>
@@ -14632,10 +14636,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="18" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B425" s="10" t="s">
         <v>1911</v>
-      </c>
-      <c r="B425" s="10" t="s">
-        <v>1912</v>
       </c>
       <c r="C425" s="9">
         <v>26</v>
@@ -14643,10 +14647,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="18" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B426" s="10" t="s">
         <v>1913</v>
-      </c>
-      <c r="B426" s="10" t="s">
-        <v>1914</v>
       </c>
       <c r="C426" s="9">
         <v>26</v>
@@ -14654,10 +14658,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="18" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B427" s="10" t="s">
         <v>1915</v>
-      </c>
-      <c r="B427" s="10" t="s">
-        <v>1916</v>
       </c>
       <c r="C427" s="9">
         <v>26</v>
@@ -14665,10 +14669,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="27" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B429" s="27" t="s">
         <v>1920</v>
-      </c>
-      <c r="B429" s="27" t="s">
-        <v>1921</v>
       </c>
       <c r="C429" s="3">
         <v>342</v>
@@ -14676,10 +14680,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="27" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="B431" s="27" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="C431" s="3">
         <v>344</v>
@@ -14687,10 +14691,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="27" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="C432" s="3">
         <v>345</v>
@@ -14698,10 +14702,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="27" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="B434" s="27" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="C434" s="3">
         <v>346</v>
@@ -14709,10 +14713,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="27" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="B436" s="27" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="C436" s="3">
         <v>347</v>
@@ -14720,10 +14724,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="27" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="B437" s="27" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="C437" s="3">
         <v>348</v>
@@ -14731,10 +14735,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="27" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="B439" s="27" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="C439" s="3">
         <v>351</v>
@@ -14742,10 +14746,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="27" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="B440" s="27" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="C440" s="3">
         <v>352</v>
@@ -14753,10 +14757,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="27" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="B442" s="27" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="C442" s="3">
         <v>353</v>
@@ -14764,10 +14768,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B444" s="3" t="s">
         <v>2001</v>
-      </c>
-      <c r="B444" s="3" t="s">
-        <v>2002</v>
       </c>
       <c r="C444" s="3">
         <v>354</v>
@@ -14786,10 +14790,10 @@
   <dimension ref="A1:O338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G323" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J338" sqref="J338"/>
+      <selection pane="bottomRight" activeCell="D292" sqref="D292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14971,7 +14975,7 @@
         <v>1513</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -21386,7 +21390,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="44" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D192" s="44" t="s">
         <v>803</v>
@@ -24638,7 +24642,7 @@
         <v>1605542400</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24672,7 +24676,7 @@
         <v>1605542400</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24706,7 +24710,7 @@
         <v>1605542400</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24720,7 +24724,7 @@
         <v>1872</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1873</v>
+        <v>1998</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -24740,7 +24744,7 @@
         <v>1605542400</v>
       </c>
       <c r="L292" s="109" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -25103,7 +25107,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1690</v>
@@ -25952,7 +25956,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -26035,7 +26039,7 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D333" s="26" t="s">
         <v>1862</v>
@@ -26050,7 +26054,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -26067,10 +26071,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -26101,10 +26105,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="16" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D335" s="16" t="s">
         <v>1922</v>
-      </c>
-      <c r="D335" s="16" t="s">
-        <v>1923</v>
       </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
@@ -26124,7 +26128,7 @@
         <v>1606176000</v>
       </c>
       <c r="L335" s="16" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -26135,10 +26139,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="16" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D336" s="16" t="s">
         <v>1925</v>
-      </c>
-      <c r="D336" s="16" t="s">
-        <v>1926</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -26158,7 +26162,7 @@
         <v>1606176000</v>
       </c>
       <c r="L336" s="16" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
@@ -26169,10 +26173,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -26201,10 +26205,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -26238,13 +26242,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I895"/>
+  <dimension ref="A1:I894"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D149" sqref="D149"/>
+      <selection pane="bottomRight" activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28441,7 +28445,7 @@
         <v>865</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -29729,7 +29733,7 @@
         <v>1045</v>
       </c>
       <c r="D150" s="113" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="E150" s="112">
         <v>2</v>
@@ -29738,7 +29742,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="113" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30419,7 +30423,7 @@
         <v>1045</v>
       </c>
       <c r="D180" s="94" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -30833,7 +30837,7 @@
         <v>1045</v>
       </c>
       <c r="D198" s="105" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="E198" s="103">
         <v>2</v>
@@ -40164,7 +40168,7 @@
         <v>1168</v>
       </c>
       <c r="D603" s="15" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="E603" s="14">
         <v>2</v>
@@ -40302,7 +40306,7 @@
         <v>1168</v>
       </c>
       <c r="D609" s="15" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="E609" s="14">
         <v>2</v>
@@ -40440,7 +40444,7 @@
         <v>1168</v>
       </c>
       <c r="D615" s="15" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="E615" s="14">
         <v>2</v>
@@ -40578,7 +40582,7 @@
         <v>1168</v>
       </c>
       <c r="D621" s="15" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="E621" s="14">
         <v>2</v>
@@ -40716,7 +40720,7 @@
         <v>1168</v>
       </c>
       <c r="D627" s="15" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="E627" s="14">
         <v>2</v>
@@ -40854,7 +40858,7 @@
         <v>1168</v>
       </c>
       <c r="D633" s="15" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="E633" s="14">
         <v>2</v>
@@ -43248,20 +43252,20 @@
       <c r="B737" s="77">
         <v>294</v>
       </c>
-      <c r="C737" s="77" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D737" s="19" t="s">
-        <v>1605</v>
+      <c r="C737" s="19" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D737" s="77">
+        <v>3</v>
       </c>
       <c r="E737" s="77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F737" s="77">
         <v>1</v>
       </c>
-      <c r="G737" s="19" t="s">
-        <v>1634</v>
+      <c r="G737" s="77" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.2">
@@ -43271,20 +43275,20 @@
       <c r="B738" s="77">
         <v>294</v>
       </c>
-      <c r="C738" s="19" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D738" s="77">
-        <v>1</v>
+      <c r="C738" s="77" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D738" s="19" t="s">
+        <v>1605</v>
       </c>
       <c r="E738" s="77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F738" s="77">
-        <v>1</v>
-      </c>
-      <c r="G738" s="77" t="s">
-        <v>1504</v>
+        <v>2</v>
+      </c>
+      <c r="G738" s="19" t="s">
+        <v>2002</v>
       </c>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.2">
@@ -43292,22 +43296,22 @@
         <v>738</v>
       </c>
       <c r="B739" s="77">
-        <v>294</v>
-      </c>
-      <c r="C739" s="19" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D739" s="77">
-        <v>3</v>
+        <v>295</v>
+      </c>
+      <c r="C739" s="77" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D739" s="19" t="s">
+        <v>1605</v>
       </c>
       <c r="E739" s="77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F739" s="77">
         <v>1</v>
       </c>
-      <c r="G739" s="77" t="s">
-        <v>1492</v>
+      <c r="G739" s="19" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.2">
@@ -43317,20 +43321,20 @@
       <c r="B740" s="77">
         <v>295</v>
       </c>
-      <c r="C740" s="77" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D740" s="19" t="s">
-        <v>1605</v>
+      <c r="C740" s="19" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D740" s="77">
+        <v>4</v>
       </c>
       <c r="E740" s="77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F740" s="77">
         <v>1</v>
       </c>
       <c r="G740" s="19" t="s">
-        <v>1634</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.2">
@@ -43344,16 +43348,16 @@
         <v>1143</v>
       </c>
       <c r="D741" s="77">
+        <v>7</v>
+      </c>
+      <c r="E741" s="77">
         <v>4</v>
       </c>
-      <c r="E741" s="77">
-        <v>3</v>
-      </c>
       <c r="F741" s="77">
         <v>1</v>
       </c>
       <c r="G741" s="19" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.2">
@@ -43361,22 +43365,22 @@
         <v>741</v>
       </c>
       <c r="B742" s="77">
-        <v>295</v>
-      </c>
-      <c r="C742" s="19" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D742" s="77">
-        <v>7</v>
+        <v>296</v>
+      </c>
+      <c r="C742" s="77" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D742" s="19" t="s">
+        <v>1605</v>
       </c>
       <c r="E742" s="77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F742" s="77">
         <v>1</v>
       </c>
       <c r="G742" s="19" t="s">
-        <v>1666</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.2">
@@ -43386,20 +43390,20 @@
       <c r="B743" s="77">
         <v>296</v>
       </c>
-      <c r="C743" s="77" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D743" s="19" t="s">
-        <v>1605</v>
+      <c r="C743" s="19" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D743" s="77">
+        <v>8</v>
       </c>
       <c r="E743" s="77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F743" s="77">
         <v>1</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1634</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.2">
@@ -43413,16 +43417,16 @@
         <v>1143</v>
       </c>
       <c r="D744" s="77">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E744" s="77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F744" s="77">
         <v>1</v>
       </c>
       <c r="G744" s="19" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.2">
@@ -43430,22 +43434,22 @@
         <v>744</v>
       </c>
       <c r="B745" s="77">
-        <v>296</v>
-      </c>
-      <c r="C745" s="19" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D745" s="77">
-        <v>10</v>
+        <v>297</v>
+      </c>
+      <c r="C745" s="77" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D745" s="19" t="s">
+        <v>1605</v>
       </c>
       <c r="E745" s="77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F745" s="77">
         <v>1</v>
       </c>
       <c r="G745" s="19" t="s">
-        <v>1668</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.2">
@@ -43462,62 +43466,62 @@
         <v>1605</v>
       </c>
       <c r="E746" s="77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F746" s="77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G746" s="19" t="s">
-        <v>1634</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A747" s="8">
         <v>746</v>
       </c>
-      <c r="B747" s="77">
-        <v>297</v>
-      </c>
-      <c r="C747" s="19" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D747" s="77">
-        <v>1</v>
-      </c>
-      <c r="E747" s="77">
-        <v>3</v>
-      </c>
-      <c r="F747" s="77">
-        <v>1</v>
-      </c>
-      <c r="G747" s="77" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="748" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B747" s="14">
+        <v>298</v>
+      </c>
+      <c r="C747" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D747" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E747" s="14">
+        <v>2</v>
+      </c>
+      <c r="F747" s="14">
+        <v>1</v>
+      </c>
+      <c r="G747" s="15" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A748" s="8">
         <v>747</v>
       </c>
-      <c r="B748" s="14">
-        <v>298</v>
-      </c>
-      <c r="C748" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D748" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E748" s="14">
-        <v>2</v>
-      </c>
-      <c r="F748" s="14">
-        <v>1</v>
-      </c>
-      <c r="G748" s="15" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B748" s="8">
+        <v>299</v>
+      </c>
+      <c r="C748" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="D748" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="E748" s="8">
+        <v>2</v>
+      </c>
+      <c r="F748" s="8">
+        <v>1</v>
+      </c>
+      <c r="G748" s="10" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A749" s="8">
         <v>748</v>
       </c>
@@ -43528,16 +43532,16 @@
         <v>865</v>
       </c>
       <c r="D749" s="10" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E749" s="8">
         <v>2</v>
       </c>
       <c r="F749" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G749" s="10" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.2">
@@ -43545,22 +43549,22 @@
         <v>749</v>
       </c>
       <c r="B750" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C750" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D750" s="10" t="s">
-        <v>874</v>
+        <v>1143</v>
+      </c>
+      <c r="D750" s="8">
+        <v>1</v>
       </c>
       <c r="E750" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F750" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G750" s="10" t="s">
-        <v>919</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.2">
@@ -43574,65 +43578,65 @@
         <v>1143</v>
       </c>
       <c r="D751" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E751" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F751" s="8">
         <v>1</v>
       </c>
       <c r="G751" s="10" t="s">
-        <v>1611</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A752" s="8">
         <v>751</v>
       </c>
-      <c r="B752" s="8">
+      <c r="B752" s="14">
         <v>300</v>
       </c>
-      <c r="C752" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D752" s="8">
-        <v>3</v>
-      </c>
-      <c r="E752" s="8">
-        <v>4</v>
-      </c>
-      <c r="F752" s="8">
-        <v>1</v>
-      </c>
-      <c r="G752" s="10" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="753" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C752" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D752" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E752" s="14">
+        <v>5</v>
+      </c>
+      <c r="F752" s="14">
+        <v>1</v>
+      </c>
+      <c r="G752" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A753" s="8">
         <v>752</v>
       </c>
-      <c r="B753" s="14">
-        <v>300</v>
-      </c>
-      <c r="C753" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D753" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E753" s="14">
-        <v>5</v>
-      </c>
-      <c r="F753" s="14">
-        <v>1</v>
-      </c>
-      <c r="G753" s="15" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B753" s="8">
+        <v>301</v>
+      </c>
+      <c r="C753" s="10" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D753" s="8">
+        <v>4</v>
+      </c>
+      <c r="E753" s="8">
+        <v>3</v>
+      </c>
+      <c r="F753" s="8">
+        <v>1</v>
+      </c>
+      <c r="G753" s="10" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A754" s="8">
         <v>753</v>
       </c>
@@ -43643,62 +43647,62 @@
         <v>1608</v>
       </c>
       <c r="D754" s="8">
+        <v>6</v>
+      </c>
+      <c r="E754" s="8">
         <v>4</v>
       </c>
-      <c r="E754" s="8">
-        <v>3</v>
-      </c>
       <c r="F754" s="8">
         <v>1</v>
       </c>
       <c r="G754" s="10" t="s">
-        <v>1493</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A755" s="8">
         <v>754</v>
       </c>
-      <c r="B755" s="8">
+      <c r="B755" s="14">
         <v>301</v>
       </c>
-      <c r="C755" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D755" s="8">
-        <v>6</v>
-      </c>
-      <c r="E755" s="8">
-        <v>4</v>
-      </c>
-      <c r="F755" s="8">
-        <v>1</v>
-      </c>
-      <c r="G755" s="10" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="756" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C755" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D755" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E755" s="14">
+        <v>5</v>
+      </c>
+      <c r="F755" s="14">
+        <v>1</v>
+      </c>
+      <c r="G755" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A756" s="8">
         <v>755</v>
       </c>
       <c r="B756" s="14">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C756" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D756" s="15" t="s">
-        <v>1240</v>
+        <v>1143</v>
+      </c>
+      <c r="D756" s="14">
+        <v>7</v>
       </c>
       <c r="E756" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F756" s="14">
         <v>1</v>
       </c>
       <c r="G756" s="15" t="s">
-        <v>1727</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="757" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43712,16 +43716,16 @@
         <v>1143</v>
       </c>
       <c r="D757" s="14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E757" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F757" s="14">
         <v>1</v>
       </c>
       <c r="G757" s="15" t="s">
-        <v>1613</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="758" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43732,45 +43736,45 @@
         <v>302</v>
       </c>
       <c r="C758" s="15" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D758" s="14">
-        <v>10</v>
+        <v>1065</v>
+      </c>
+      <c r="D758" s="15" t="s">
+        <v>1240</v>
       </c>
       <c r="E758" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F758" s="14">
         <v>1</v>
       </c>
       <c r="G758" s="15" t="s">
-        <v>1495</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="759" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A759" s="8">
         <v>758</v>
       </c>
-      <c r="B759" s="14">
-        <v>302</v>
-      </c>
-      <c r="C759" s="15" t="s">
+      <c r="B759" s="8">
+        <v>303</v>
+      </c>
+      <c r="C759" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="D759" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E759" s="14">
-        <v>5</v>
-      </c>
-      <c r="F759" s="14">
-        <v>1</v>
-      </c>
-      <c r="G759" s="15" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D759" s="10" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E759" s="8">
+        <v>2</v>
+      </c>
+      <c r="F759" s="8">
+        <v>1</v>
+      </c>
+      <c r="G759" s="10" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A760" s="8">
         <v>759</v>
       </c>
@@ -43778,19 +43782,19 @@
         <v>303</v>
       </c>
       <c r="C760" s="10" t="s">
-        <v>1065</v>
+        <v>865</v>
       </c>
       <c r="D760" s="10" t="s">
-        <v>1728</v>
+        <v>870</v>
       </c>
       <c r="E760" s="8">
         <v>2</v>
       </c>
       <c r="F760" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G760" s="10" t="s">
-        <v>1204</v>
+        <v>923</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.2">
@@ -43804,16 +43808,16 @@
         <v>865</v>
       </c>
       <c r="D761" s="10" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E761" s="8">
         <v>2</v>
       </c>
       <c r="F761" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G761" s="10" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.2">
@@ -43821,22 +43825,22 @@
         <v>761</v>
       </c>
       <c r="B762" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C762" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D762" s="10" t="s">
-        <v>874</v>
+        <v>1608</v>
+      </c>
+      <c r="D762" s="8">
+        <v>4</v>
       </c>
       <c r="E762" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F762" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G762" s="10" t="s">
-        <v>919</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.2">
@@ -43850,65 +43854,65 @@
         <v>1608</v>
       </c>
       <c r="D763" s="8">
+        <v>10</v>
+      </c>
+      <c r="E763" s="8">
         <v>4</v>
       </c>
-      <c r="E763" s="8">
-        <v>3</v>
-      </c>
       <c r="F763" s="8">
         <v>1</v>
       </c>
       <c r="G763" s="10" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A764" s="8">
         <v>763</v>
       </c>
-      <c r="B764" s="8">
+      <c r="B764" s="14">
         <v>304</v>
       </c>
-      <c r="C764" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D764" s="8">
-        <v>10</v>
-      </c>
-      <c r="E764" s="8">
-        <v>4</v>
-      </c>
-      <c r="F764" s="8">
-        <v>1</v>
-      </c>
-      <c r="G764" s="10" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="765" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C764" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D764" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E764" s="14">
+        <v>5</v>
+      </c>
+      <c r="F764" s="14">
+        <v>1</v>
+      </c>
+      <c r="G764" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A765" s="8">
         <v>764</v>
       </c>
-      <c r="B765" s="14">
-        <v>304</v>
-      </c>
-      <c r="C765" s="15" t="s">
+      <c r="B765" s="8">
+        <v>305</v>
+      </c>
+      <c r="C765" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="D765" s="15" t="s">
+      <c r="D765" s="10" t="s">
         <v>1240</v>
       </c>
-      <c r="E765" s="14">
-        <v>5</v>
-      </c>
-      <c r="F765" s="14">
-        <v>1</v>
-      </c>
-      <c r="G765" s="15" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E765" s="8">
+        <v>2</v>
+      </c>
+      <c r="F765" s="8">
+        <v>1</v>
+      </c>
+      <c r="G765" s="10" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A766" s="8">
         <v>765</v>
       </c>
@@ -43916,10 +43920,10 @@
         <v>305</v>
       </c>
       <c r="C766" s="10" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="D766" s="10" t="s">
-        <v>1240</v>
+        <v>1686</v>
       </c>
       <c r="E766" s="8">
         <v>2</v>
@@ -43928,7 +43932,7 @@
         <v>1</v>
       </c>
       <c r="G766" s="10" t="s">
-        <v>1204</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.2">
@@ -43939,19 +43943,19 @@
         <v>305</v>
       </c>
       <c r="C767" s="10" t="s">
-        <v>1045</v>
+        <v>865</v>
       </c>
       <c r="D767" s="10" t="s">
-        <v>1686</v>
+        <v>870</v>
       </c>
       <c r="E767" s="8">
         <v>2</v>
       </c>
       <c r="F767" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G767" s="10" t="s">
-        <v>1692</v>
+        <v>923</v>
       </c>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.2">
@@ -43962,10 +43966,10 @@
         <v>305</v>
       </c>
       <c r="C768" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D768" s="10" t="s">
-        <v>870</v>
+        <v>1686</v>
       </c>
       <c r="E768" s="8">
         <v>2</v>
@@ -43974,7 +43978,7 @@
         <v>2</v>
       </c>
       <c r="G768" s="10" t="s">
-        <v>923</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.2">
@@ -43985,19 +43989,19 @@
         <v>305</v>
       </c>
       <c r="C769" s="10" t="s">
-        <v>1045</v>
+        <v>865</v>
       </c>
       <c r="D769" s="10" t="s">
-        <v>1686</v>
+        <v>874</v>
       </c>
       <c r="E769" s="8">
         <v>2</v>
       </c>
       <c r="F769" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G769" s="10" t="s">
-        <v>1693</v>
+        <v>919</v>
       </c>
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.2">
@@ -44008,10 +44012,10 @@
         <v>305</v>
       </c>
       <c r="C770" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D770" s="10" t="s">
-        <v>874</v>
+        <v>1686</v>
       </c>
       <c r="E770" s="8">
         <v>2</v>
@@ -44020,7 +44024,7 @@
         <v>3</v>
       </c>
       <c r="G770" s="10" t="s">
-        <v>919</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
@@ -44028,22 +44032,22 @@
         <v>770</v>
       </c>
       <c r="B771" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C771" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D771" s="10" t="s">
-        <v>1686</v>
+        <v>1143</v>
+      </c>
+      <c r="D771" s="8">
+        <v>1</v>
       </c>
       <c r="E771" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F771" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G771" s="10" t="s">
-        <v>1692</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.2">
@@ -44057,16 +44061,16 @@
         <v>1143</v>
       </c>
       <c r="D772" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E772" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F772" s="8">
         <v>1</v>
       </c>
       <c r="G772" s="10" t="s">
-        <v>1611</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.2">
@@ -44077,68 +44081,68 @@
         <v>306</v>
       </c>
       <c r="C773" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D773" s="8">
-        <v>3</v>
+        <v>1045</v>
+      </c>
+      <c r="D773" s="10" t="s">
+        <v>1686</v>
       </c>
       <c r="E773" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F773" s="8">
         <v>1</v>
       </c>
       <c r="G773" s="10" t="s">
-        <v>1492</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A774" s="8">
         <v>773</v>
       </c>
-      <c r="B774" s="8">
+      <c r="B774" s="14">
         <v>306</v>
       </c>
-      <c r="C774" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D774" s="10" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E774" s="8">
-        <v>2</v>
-      </c>
-      <c r="F774" s="8">
-        <v>1</v>
-      </c>
-      <c r="G774" s="10" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="775" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C774" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D774" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E774" s="14">
+        <v>5</v>
+      </c>
+      <c r="F774" s="14">
+        <v>1</v>
+      </c>
+      <c r="G774" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A775" s="8">
         <v>774</v>
       </c>
-      <c r="B775" s="14">
-        <v>306</v>
-      </c>
-      <c r="C775" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D775" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E775" s="14">
-        <v>5</v>
-      </c>
-      <c r="F775" s="14">
-        <v>1</v>
-      </c>
-      <c r="G775" s="15" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B775" s="8">
+        <v>307</v>
+      </c>
+      <c r="C775" s="10" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D775" s="8">
+        <v>4</v>
+      </c>
+      <c r="E775" s="8">
+        <v>3</v>
+      </c>
+      <c r="F775" s="8">
+        <v>1</v>
+      </c>
+      <c r="G775" s="10" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A776" s="8">
         <v>775</v>
       </c>
@@ -44149,16 +44153,16 @@
         <v>1608</v>
       </c>
       <c r="D776" s="8">
+        <v>6</v>
+      </c>
+      <c r="E776" s="8">
         <v>4</v>
       </c>
-      <c r="E776" s="8">
-        <v>3</v>
-      </c>
       <c r="F776" s="8">
         <v>1</v>
       </c>
       <c r="G776" s="10" t="s">
-        <v>1493</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.2">
@@ -44169,142 +44173,142 @@
         <v>307</v>
       </c>
       <c r="C777" s="10" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D777" s="8">
-        <v>6</v>
+        <v>1045</v>
+      </c>
+      <c r="D777" s="10" t="s">
+        <v>1686</v>
       </c>
       <c r="E777" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F777" s="8">
         <v>1</v>
       </c>
       <c r="G777" s="10" t="s">
-        <v>1612</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A778" s="8">
         <v>777</v>
       </c>
-      <c r="B778" s="8">
+      <c r="B778" s="14">
         <v>307</v>
       </c>
-      <c r="C778" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D778" s="10" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E778" s="8">
-        <v>2</v>
-      </c>
-      <c r="F778" s="8">
-        <v>1</v>
-      </c>
-      <c r="G778" s="10" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="779" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C778" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D778" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E778" s="14">
+        <v>5</v>
+      </c>
+      <c r="F778" s="14">
+        <v>1</v>
+      </c>
+      <c r="G778" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A779" s="8">
         <v>778</v>
       </c>
-      <c r="B779" s="14">
-        <v>307</v>
-      </c>
-      <c r="C779" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D779" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E779" s="14">
-        <v>5</v>
-      </c>
-      <c r="F779" s="14">
-        <v>1</v>
-      </c>
-      <c r="G779" s="15" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B779" s="8">
+        <v>308</v>
+      </c>
+      <c r="C779" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D779" s="8">
+        <v>7</v>
+      </c>
+      <c r="E779" s="8">
+        <v>3</v>
+      </c>
+      <c r="F779" s="8">
+        <v>1</v>
+      </c>
+      <c r="G779" s="10" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A780" s="8">
         <v>779</v>
       </c>
-      <c r="B780" s="8">
+      <c r="B780" s="9">
         <v>308</v>
       </c>
-      <c r="C780" s="10" t="s">
+      <c r="C780" s="53" t="s">
         <v>1143</v>
       </c>
-      <c r="D780" s="8">
-        <v>7</v>
-      </c>
-      <c r="E780" s="8">
-        <v>3</v>
-      </c>
-      <c r="F780" s="8">
+      <c r="D780" s="9">
+        <v>10</v>
+      </c>
+      <c r="E780" s="9">
+        <v>4</v>
+      </c>
+      <c r="F780" s="9">
         <v>1</v>
       </c>
       <c r="G780" s="10" t="s">
-        <v>1613</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A781" s="8">
         <v>780</v>
       </c>
-      <c r="B781" s="9">
+      <c r="B781" s="14">
         <v>308</v>
       </c>
-      <c r="C781" s="53" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D781" s="9">
-        <v>10</v>
-      </c>
-      <c r="E781" s="9">
-        <v>4</v>
-      </c>
-      <c r="F781" s="9">
-        <v>1</v>
-      </c>
-      <c r="G781" s="10" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="782" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C781" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D781" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E781" s="14">
+        <v>5</v>
+      </c>
+      <c r="F781" s="14">
+        <v>1</v>
+      </c>
+      <c r="G781" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A782" s="8">
         <v>781</v>
       </c>
-      <c r="B782" s="14">
+      <c r="B782" s="8">
         <v>308</v>
       </c>
-      <c r="C782" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D782" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E782" s="14">
-        <v>5</v>
-      </c>
-      <c r="F782" s="14">
-        <v>1</v>
-      </c>
-      <c r="G782" s="15" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C782" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D782" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E782" s="8">
+        <v>2</v>
+      </c>
+      <c r="F782" s="8">
+        <v>1</v>
+      </c>
+      <c r="G782" s="10" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A783" s="8">
         <v>782</v>
       </c>
       <c r="B783" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C783" s="10" t="s">
         <v>1045</v>
@@ -44319,7 +44323,7 @@
         <v>1</v>
       </c>
       <c r="G783" s="10" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.2">
@@ -44327,7 +44331,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C784" s="10" t="s">
         <v>1045</v>
@@ -44336,13 +44340,13 @@
         <v>1686</v>
       </c>
       <c r="E784" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F784" s="8">
         <v>1</v>
       </c>
       <c r="G784" s="10" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.2">
@@ -44350,22 +44354,22 @@
         <v>784</v>
       </c>
       <c r="B785" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C785" s="10" t="s">
-        <v>1045</v>
+        <v>1065</v>
       </c>
       <c r="D785" s="10" t="s">
-        <v>1686</v>
+        <v>1729</v>
       </c>
       <c r="E785" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F785" s="8">
         <v>1</v>
       </c>
       <c r="G785" s="10" t="s">
-        <v>1687</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.2">
@@ -44376,19 +44380,19 @@
         <v>311</v>
       </c>
       <c r="C786" s="10" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="D786" s="10" t="s">
-        <v>1729</v>
+        <v>1686</v>
       </c>
       <c r="E786" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F786" s="8">
         <v>1</v>
       </c>
       <c r="G786" s="10" t="s">
-        <v>1204</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.2">
@@ -44399,19 +44403,19 @@
         <v>311</v>
       </c>
       <c r="C787" s="10" t="s">
-        <v>1045</v>
+        <v>865</v>
       </c>
       <c r="D787" s="10" t="s">
-        <v>1686</v>
+        <v>870</v>
       </c>
       <c r="E787" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F787" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G787" s="10" t="s">
-        <v>1687</v>
+        <v>923</v>
       </c>
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.2">
@@ -44422,19 +44426,19 @@
         <v>311</v>
       </c>
       <c r="C788" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D788" s="10" t="s">
-        <v>870</v>
+        <v>1686</v>
       </c>
       <c r="E788" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F788" s="8">
         <v>2</v>
       </c>
       <c r="G788" s="10" t="s">
-        <v>923</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.2">
@@ -44445,19 +44449,19 @@
         <v>311</v>
       </c>
       <c r="C789" s="10" t="s">
-        <v>1045</v>
+        <v>865</v>
       </c>
       <c r="D789" s="10" t="s">
-        <v>1686</v>
+        <v>874</v>
       </c>
       <c r="E789" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F789" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G789" s="10" t="s">
-        <v>1687</v>
+        <v>919</v>
       </c>
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.2">
@@ -44468,19 +44472,19 @@
         <v>311</v>
       </c>
       <c r="C790" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D790" s="10" t="s">
-        <v>874</v>
+        <v>1686</v>
       </c>
       <c r="E790" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F790" s="8">
         <v>3</v>
       </c>
       <c r="G790" s="10" t="s">
-        <v>919</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
@@ -44488,22 +44492,22 @@
         <v>790</v>
       </c>
       <c r="B791" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C791" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D791" s="10" t="s">
-        <v>1686</v>
+        <v>1143</v>
+      </c>
+      <c r="D791" s="8">
+        <v>1</v>
       </c>
       <c r="E791" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F791" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G791" s="10" t="s">
-        <v>1687</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.2">
@@ -44517,16 +44521,16 @@
         <v>1143</v>
       </c>
       <c r="D792" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E792" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F792" s="8">
         <v>1</v>
       </c>
       <c r="G792" s="10" t="s">
-        <v>1504</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.2">
@@ -44537,68 +44541,68 @@
         <v>312</v>
       </c>
       <c r="C793" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D793" s="8">
-        <v>3</v>
+        <v>1045</v>
+      </c>
+      <c r="D793" s="10" t="s">
+        <v>1686</v>
       </c>
       <c r="E793" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F793" s="8">
         <v>1</v>
       </c>
       <c r="G793" s="10" t="s">
-        <v>1492</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A794" s="8">
         <v>793</v>
       </c>
-      <c r="B794" s="8">
+      <c r="B794" s="14">
         <v>312</v>
       </c>
-      <c r="C794" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D794" s="10" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E794" s="8">
+      <c r="C794" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D794" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E794" s="14">
         <v>5</v>
       </c>
-      <c r="F794" s="8">
-        <v>1</v>
-      </c>
-      <c r="G794" s="10" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="795" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F794" s="14">
+        <v>1</v>
+      </c>
+      <c r="G794" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A795" s="8">
         <v>794</v>
       </c>
-      <c r="B795" s="14">
-        <v>312</v>
-      </c>
-      <c r="C795" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D795" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E795" s="14">
-        <v>5</v>
-      </c>
-      <c r="F795" s="14">
-        <v>1</v>
-      </c>
-      <c r="G795" s="15" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B795" s="8">
+        <v>313</v>
+      </c>
+      <c r="C795" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D795" s="8">
+        <v>4</v>
+      </c>
+      <c r="E795" s="8">
+        <v>3</v>
+      </c>
+      <c r="F795" s="8">
+        <v>1</v>
+      </c>
+      <c r="G795" s="10" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A796" s="8">
         <v>795</v>
       </c>
@@ -44609,16 +44613,16 @@
         <v>1155</v>
       </c>
       <c r="D796" s="8">
+        <v>6</v>
+      </c>
+      <c r="E796" s="8">
         <v>4</v>
       </c>
-      <c r="E796" s="8">
-        <v>3</v>
-      </c>
       <c r="F796" s="8">
         <v>1</v>
       </c>
       <c r="G796" s="10" t="s">
-        <v>1493</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.2">
@@ -44629,142 +44633,142 @@
         <v>313</v>
       </c>
       <c r="C797" s="10" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D797" s="8">
-        <v>6</v>
+        <v>1045</v>
+      </c>
+      <c r="D797" s="10" t="s">
+        <v>1686</v>
       </c>
       <c r="E797" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F797" s="8">
         <v>1</v>
       </c>
       <c r="G797" s="10" t="s">
-        <v>1612</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A798" s="8">
         <v>797</v>
       </c>
-      <c r="B798" s="8">
+      <c r="B798" s="14">
         <v>313</v>
       </c>
-      <c r="C798" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D798" s="10" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E798" s="8">
+      <c r="C798" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D798" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E798" s="14">
         <v>5</v>
       </c>
-      <c r="F798" s="8">
-        <v>1</v>
-      </c>
-      <c r="G798" s="10" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="799" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F798" s="14">
+        <v>1</v>
+      </c>
+      <c r="G798" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A799" s="8">
         <v>798</v>
       </c>
-      <c r="B799" s="14">
-        <v>313</v>
-      </c>
-      <c r="C799" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D799" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E799" s="14">
-        <v>5</v>
-      </c>
-      <c r="F799" s="14">
-        <v>1</v>
-      </c>
-      <c r="G799" s="15" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B799" s="8">
+        <v>314</v>
+      </c>
+      <c r="C799" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D799" s="8">
+        <v>7</v>
+      </c>
+      <c r="E799" s="8">
+        <v>3</v>
+      </c>
+      <c r="F799" s="8">
+        <v>1</v>
+      </c>
+      <c r="G799" s="10" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A800" s="8">
         <v>799</v>
       </c>
-      <c r="B800" s="8">
+      <c r="B800" s="9">
         <v>314</v>
       </c>
-      <c r="C800" s="10" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D800" s="8">
-        <v>7</v>
-      </c>
-      <c r="E800" s="8">
-        <v>3</v>
-      </c>
-      <c r="F800" s="8">
+      <c r="C800" s="53" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D800" s="9">
+        <v>10</v>
+      </c>
+      <c r="E800" s="9">
+        <v>4</v>
+      </c>
+      <c r="F800" s="9">
         <v>1</v>
       </c>
       <c r="G800" s="10" t="s">
-        <v>1613</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A801" s="8">
         <v>800</v>
       </c>
-      <c r="B801" s="9">
+      <c r="B801" s="14">
         <v>314</v>
       </c>
-      <c r="C801" s="53" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D801" s="9">
-        <v>10</v>
-      </c>
-      <c r="E801" s="9">
-        <v>4</v>
-      </c>
-      <c r="F801" s="9">
-        <v>1</v>
-      </c>
-      <c r="G801" s="10" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="802" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C801" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D801" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E801" s="14">
+        <v>5</v>
+      </c>
+      <c r="F801" s="14">
+        <v>1</v>
+      </c>
+      <c r="G801" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A802" s="8">
         <v>801</v>
       </c>
-      <c r="B802" s="14">
+      <c r="B802" s="8">
         <v>314</v>
       </c>
-      <c r="C802" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D802" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E802" s="14">
+      <c r="C802" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D802" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E802" s="8">
         <v>5</v>
       </c>
-      <c r="F802" s="14">
-        <v>1</v>
-      </c>
-      <c r="G802" s="15" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F802" s="8">
+        <v>1</v>
+      </c>
+      <c r="G802" s="10" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A803" s="8">
         <v>802</v>
       </c>
-      <c r="B803" s="8">
-        <v>314</v>
+      <c r="B803" s="9">
+        <v>315</v>
       </c>
       <c r="C803" s="10" t="s">
         <v>1045</v>
@@ -44779,7 +44783,7 @@
         <v>1</v>
       </c>
       <c r="G803" s="10" t="s">
-        <v>1687</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.2">
@@ -44787,7 +44791,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="9">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C804" s="10" t="s">
         <v>1045</v>
@@ -44795,14 +44799,14 @@
       <c r="D804" s="10" t="s">
         <v>1686</v>
       </c>
-      <c r="E804" s="8">
-        <v>5</v>
+      <c r="E804" s="9">
+        <v>2</v>
       </c>
       <c r="F804" s="8">
         <v>1</v>
       </c>
-      <c r="G804" s="10" t="s">
-        <v>1710</v>
+      <c r="G804" s="53" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.2">
@@ -44810,7 +44814,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="9">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C805" s="10" t="s">
         <v>1045</v>
@@ -44818,14 +44822,14 @@
       <c r="D805" s="10" t="s">
         <v>1686</v>
       </c>
-      <c r="E805" s="9">
-        <v>2</v>
+      <c r="E805" s="8">
+        <v>5</v>
       </c>
       <c r="F805" s="8">
         <v>1</v>
       </c>
-      <c r="G805" s="53" t="s">
-        <v>1711</v>
+      <c r="G805" s="10" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.2">
@@ -44833,7 +44837,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="9">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C806" s="10" t="s">
         <v>1045</v>
@@ -44841,14 +44845,14 @@
       <c r="D806" s="10" t="s">
         <v>1686</v>
       </c>
-      <c r="E806" s="8">
-        <v>5</v>
+      <c r="E806" s="9">
+        <v>2</v>
       </c>
       <c r="F806" s="8">
         <v>1</v>
       </c>
-      <c r="G806" s="10" t="s">
-        <v>1710</v>
+      <c r="G806" s="53" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.2">
@@ -44856,7 +44860,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="9">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C807" s="10" t="s">
         <v>1045</v>
@@ -44864,14 +44868,14 @@
       <c r="D807" s="10" t="s">
         <v>1686</v>
       </c>
-      <c r="E807" s="9">
-        <v>2</v>
+      <c r="E807" s="8">
+        <v>5</v>
       </c>
       <c r="F807" s="8">
         <v>1</v>
       </c>
-      <c r="G807" s="53" t="s">
-        <v>1711</v>
+      <c r="G807" s="10" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.2">
@@ -44884,17 +44888,17 @@
       <c r="C808" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D808" s="10" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E808" s="8">
+      <c r="D808" s="9" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E808" s="9">
         <v>5</v>
       </c>
       <c r="F808" s="8">
         <v>1</v>
       </c>
-      <c r="G808" s="10" t="s">
-        <v>1710</v>
+      <c r="G808" s="9" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
@@ -44902,22 +44906,22 @@
         <v>808</v>
       </c>
       <c r="B809" s="9">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C809" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D809" s="9" t="s">
-        <v>1951</v>
+      <c r="D809" s="10" t="s">
+        <v>1686</v>
       </c>
       <c r="E809" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F809" s="8">
         <v>1</v>
       </c>
-      <c r="G809" s="9" t="s">
-        <v>1747</v>
+      <c r="G809" s="53" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.2">
@@ -44925,7 +44929,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="9">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C810" s="10" t="s">
         <v>1045</v>
@@ -44934,13 +44938,13 @@
         <v>1686</v>
       </c>
       <c r="E810" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F810" s="8">
         <v>1</v>
       </c>
-      <c r="G810" s="53" t="s">
-        <v>1711</v>
+      <c r="G810" s="9" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.2">
@@ -44954,7 +44958,7 @@
         <v>1045</v>
       </c>
       <c r="D811" s="10" t="s">
-        <v>1686</v>
+        <v>1989</v>
       </c>
       <c r="E811" s="9">
         <v>5</v>
@@ -44962,8 +44966,8 @@
       <c r="F811" s="8">
         <v>1</v>
       </c>
-      <c r="G811" s="9" t="s">
-        <v>1655</v>
+      <c r="G811" s="53" t="s">
+        <v>1818</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.2">
@@ -44974,19 +44978,19 @@
         <v>321</v>
       </c>
       <c r="C812" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D812" s="10" t="s">
-        <v>1992</v>
-      </c>
-      <c r="E812" s="9">
-        <v>5</v>
+        <v>878</v>
+      </c>
+      <c r="D812" s="8">
+        <v>0</v>
+      </c>
+      <c r="E812" s="8">
+        <v>2</v>
       </c>
       <c r="F812" s="8">
         <v>1</v>
       </c>
-      <c r="G812" s="53" t="s">
-        <v>1818</v>
+      <c r="G812" s="10" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.2">
@@ -44994,22 +44998,22 @@
         <v>812</v>
       </c>
       <c r="B813" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C813" s="10" t="s">
-        <v>878</v>
-      </c>
-      <c r="D813" s="8">
-        <v>0</v>
-      </c>
-      <c r="E813" s="8">
-        <v>2</v>
+        <v>1045</v>
+      </c>
+      <c r="D813" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E813" s="9">
+        <v>5</v>
       </c>
       <c r="F813" s="8">
         <v>1</v>
       </c>
-      <c r="G813" s="10" t="s">
-        <v>883</v>
+      <c r="G813" s="9" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.2">
@@ -45020,19 +45024,19 @@
         <v>322</v>
       </c>
       <c r="C814" s="10" t="s">
-        <v>1045</v>
+        <v>1065</v>
       </c>
       <c r="D814" s="10" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E814" s="9">
+        <v>1240</v>
+      </c>
+      <c r="E814" s="8">
         <v>5</v>
       </c>
       <c r="F814" s="8">
         <v>1</v>
       </c>
-      <c r="G814" s="9" t="s">
-        <v>1655</v>
+      <c r="G814" s="10" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.2">
@@ -45043,19 +45047,19 @@
         <v>322</v>
       </c>
       <c r="C815" s="10" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D815" s="10" t="s">
-        <v>1240</v>
+        <v>1143</v>
+      </c>
+      <c r="D815" s="8">
+        <v>4</v>
       </c>
       <c r="E815" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F815" s="8">
         <v>1</v>
       </c>
       <c r="G815" s="10" t="s">
-        <v>1634</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.2">
@@ -45065,20 +45069,20 @@
       <c r="B816" s="9">
         <v>322</v>
       </c>
-      <c r="C816" s="10" t="s">
+      <c r="C816" s="53" t="s">
         <v>1143</v>
       </c>
-      <c r="D816" s="8">
+      <c r="D816" s="9">
+        <v>10</v>
+      </c>
+      <c r="E816" s="9">
         <v>4</v>
       </c>
-      <c r="E816" s="8">
-        <v>3</v>
-      </c>
-      <c r="F816" s="8">
+      <c r="F816" s="9">
         <v>1</v>
       </c>
       <c r="G816" s="10" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.2">
@@ -45086,48 +45090,48 @@
         <v>816</v>
       </c>
       <c r="B817" s="9">
-        <v>322</v>
-      </c>
-      <c r="C817" s="53" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D817" s="9">
-        <v>10</v>
+        <v>323</v>
+      </c>
+      <c r="C817" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D817" s="10" t="s">
+        <v>1686</v>
       </c>
       <c r="E817" s="9">
-        <v>4</v>
-      </c>
-      <c r="F817" s="9">
-        <v>1</v>
-      </c>
-      <c r="G817" s="10" t="s">
-        <v>1495</v>
+        <v>5</v>
+      </c>
+      <c r="F817" s="8">
+        <v>1</v>
+      </c>
+      <c r="G817" s="9" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A818" s="8">
         <v>817</v>
       </c>
-      <c r="B818" s="9">
-        <v>323</v>
+      <c r="B818" s="8">
+        <v>324</v>
       </c>
       <c r="C818" s="10" t="s">
-        <v>1045</v>
+        <v>1739</v>
       </c>
       <c r="D818" s="10" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E818" s="9">
-        <v>5</v>
+        <v>1740</v>
+      </c>
+      <c r="E818" s="8">
+        <v>2</v>
       </c>
       <c r="F818" s="8">
         <v>1</v>
       </c>
-      <c r="G818" s="9" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="819" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G818" s="10" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A819" s="8">
         <v>818</v>
       </c>
@@ -45135,22 +45139,22 @@
         <v>324</v>
       </c>
       <c r="C819" s="10" t="s">
-        <v>1739</v>
+        <v>1045</v>
       </c>
       <c r="D819" s="10" t="s">
-        <v>1740</v>
+        <v>1686</v>
       </c>
       <c r="E819" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F819" s="8">
         <v>1</v>
       </c>
       <c r="G819" s="10" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="8">
         <v>819</v>
       </c>
@@ -45158,19 +45162,19 @@
         <v>324</v>
       </c>
       <c r="C820" s="10" t="s">
-        <v>1045</v>
+        <v>865</v>
       </c>
       <c r="D820" s="10" t="s">
-        <v>1686</v>
+        <v>1804</v>
       </c>
       <c r="E820" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F820" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G820" s="10" t="s">
-        <v>1742</v>
+        <v>923</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.2">
@@ -45181,19 +45185,19 @@
         <v>324</v>
       </c>
       <c r="C821" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D821" s="10" t="s">
-        <v>1804</v>
+        <v>1686</v>
       </c>
       <c r="E821" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F821" s="8">
         <v>2</v>
       </c>
       <c r="G821" s="10" t="s">
-        <v>923</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.2">
@@ -45204,19 +45208,19 @@
         <v>324</v>
       </c>
       <c r="C822" s="10" t="s">
-        <v>1045</v>
+        <v>865</v>
       </c>
       <c r="D822" s="10" t="s">
-        <v>1686</v>
+        <v>874</v>
       </c>
       <c r="E822" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F822" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G822" s="10" t="s">
-        <v>1746</v>
+        <v>919</v>
       </c>
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.2">
@@ -45227,27 +45231,27 @@
         <v>324</v>
       </c>
       <c r="C823" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D823" s="10" t="s">
-        <v>874</v>
+        <v>1686</v>
       </c>
       <c r="E823" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F823" s="8">
         <v>3</v>
       </c>
       <c r="G823" s="10" t="s">
-        <v>919</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A824" s="8">
         <v>823</v>
       </c>
-      <c r="B824" s="8">
-        <v>324</v>
+      <c r="B824" s="9">
+        <v>325</v>
       </c>
       <c r="C824" s="10" t="s">
         <v>1045</v>
@@ -45255,14 +45259,14 @@
       <c r="D824" s="10" t="s">
         <v>1686</v>
       </c>
-      <c r="E824" s="8">
+      <c r="E824" s="9">
         <v>5</v>
       </c>
       <c r="F824" s="8">
-        <v>3</v>
-      </c>
-      <c r="G824" s="10" t="s">
-        <v>1746</v>
+        <v>1</v>
+      </c>
+      <c r="G824" s="9" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.2">
@@ -45270,71 +45274,71 @@
         <v>824</v>
       </c>
       <c r="B825" s="9">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C825" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D825" s="10" t="s">
-        <v>1686</v>
+      <c r="D825" s="9" t="s">
+        <v>1949</v>
       </c>
       <c r="E825" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F825" s="8">
         <v>1</v>
       </c>
       <c r="G825" s="9" t="s">
-        <v>1655</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A826" s="8">
         <v>825</v>
       </c>
-      <c r="B826" s="9">
-        <v>326</v>
-      </c>
-      <c r="C826" s="10" t="s">
+      <c r="B826" s="14">
+        <v>327</v>
+      </c>
+      <c r="C826" s="15" t="s">
         <v>1045</v>
       </c>
-      <c r="D826" s="9" t="s">
-        <v>1951</v>
-      </c>
-      <c r="E826" s="9">
-        <v>2</v>
-      </c>
-      <c r="F826" s="8">
-        <v>1</v>
-      </c>
-      <c r="G826" s="9" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="827" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D826" s="15" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E826" s="14">
+        <v>2</v>
+      </c>
+      <c r="F826" s="14">
+        <v>1</v>
+      </c>
+      <c r="G826" s="15" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A827" s="8">
         <v>826</v>
       </c>
-      <c r="B827" s="14">
+      <c r="B827" s="8">
         <v>327</v>
       </c>
-      <c r="C827" s="15" t="s">
+      <c r="C827" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D827" s="15" t="s">
-        <v>1857</v>
-      </c>
-      <c r="E827" s="14">
-        <v>2</v>
-      </c>
-      <c r="F827" s="14">
-        <v>1</v>
-      </c>
-      <c r="G827" s="15" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D827" s="10" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E827" s="8">
+        <v>2</v>
+      </c>
+      <c r="F827" s="8">
+        <v>2</v>
+      </c>
+      <c r="G827" s="10" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A828" s="8">
         <v>827</v>
       </c>
@@ -45345,39 +45349,39 @@
         <v>1045</v>
       </c>
       <c r="D828" s="10" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="E828" s="8">
         <v>2</v>
       </c>
       <c r="F828" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G828" s="10" t="s">
-        <v>1821</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A829" s="8">
         <v>828</v>
       </c>
-      <c r="B829" s="8">
-        <v>327</v>
-      </c>
-      <c r="C829" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D829" s="10" t="s">
-        <v>1822</v>
-      </c>
-      <c r="E829" s="8">
-        <v>2</v>
-      </c>
-      <c r="F829" s="8">
-        <v>3</v>
-      </c>
-      <c r="G829" s="10" t="s">
-        <v>1630</v>
+      <c r="B829" s="9">
+        <v>328</v>
+      </c>
+      <c r="C829" s="53" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D829" s="9" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E829" s="9">
+        <v>5</v>
+      </c>
+      <c r="F829" s="9">
+        <v>1</v>
+      </c>
+      <c r="G829" s="9" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.2">
@@ -45387,11 +45391,11 @@
       <c r="B830" s="9">
         <v>328</v>
       </c>
-      <c r="C830" s="53" t="s">
-        <v>1837</v>
+      <c r="C830" s="10" t="s">
+        <v>1045</v>
       </c>
       <c r="D830" s="9" t="s">
-        <v>1763</v>
+        <v>1949</v>
       </c>
       <c r="E830" s="9">
         <v>5</v>
@@ -45399,8 +45403,8 @@
       <c r="F830" s="9">
         <v>1</v>
       </c>
-      <c r="G830" s="9" t="s">
-        <v>1757</v>
+      <c r="G830" s="53" t="s">
+        <v>1835</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.2">
@@ -45408,13 +45412,13 @@
         <v>830</v>
       </c>
       <c r="B831" s="9">
-        <v>328</v>
-      </c>
-      <c r="C831" s="10" t="s">
-        <v>1045</v>
+        <v>329</v>
+      </c>
+      <c r="C831" s="9" t="s">
+        <v>897</v>
       </c>
       <c r="D831" s="9" t="s">
-        <v>1951</v>
+        <v>1763</v>
       </c>
       <c r="E831" s="9">
         <v>5</v>
@@ -45422,8 +45426,8 @@
       <c r="F831" s="9">
         <v>1</v>
       </c>
-      <c r="G831" s="53" t="s">
-        <v>1835</v>
+      <c r="G831" s="9" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
@@ -45433,11 +45437,11 @@
       <c r="B832" s="9">
         <v>329</v>
       </c>
-      <c r="C832" s="9" t="s">
-        <v>897</v>
+      <c r="C832" s="10" t="s">
+        <v>1045</v>
       </c>
       <c r="D832" s="9" t="s">
-        <v>1763</v>
+        <v>1949</v>
       </c>
       <c r="E832" s="9">
         <v>5</v>
@@ -45445,8 +45449,8 @@
       <c r="F832" s="9">
         <v>1</v>
       </c>
-      <c r="G832" s="9" t="s">
-        <v>1757</v>
+      <c r="G832" s="53" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.2">
@@ -45454,22 +45458,22 @@
         <v>832</v>
       </c>
       <c r="B833" s="9">
-        <v>329</v>
-      </c>
-      <c r="C833" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D833" s="9" t="s">
-        <v>1951</v>
+        <v>330</v>
+      </c>
+      <c r="C833" s="53" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D833" s="9">
+        <v>1</v>
       </c>
       <c r="E833" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F833" s="9">
         <v>1</v>
       </c>
       <c r="G833" s="53" t="s">
-        <v>1833</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.2">
@@ -45480,19 +45484,19 @@
         <v>330</v>
       </c>
       <c r="C834" s="53" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="D834" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E834" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F834" s="9">
         <v>1</v>
       </c>
       <c r="G834" s="53" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.2">
@@ -45503,19 +45507,19 @@
         <v>330</v>
       </c>
       <c r="C835" s="53" t="s">
-        <v>1871</v>
-      </c>
-      <c r="D835" s="9">
-        <v>3</v>
+        <v>1065</v>
+      </c>
+      <c r="D835" s="53" t="s">
+        <v>1884</v>
       </c>
       <c r="E835" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F835" s="9">
         <v>1</v>
       </c>
       <c r="G835" s="53" t="s">
-        <v>1796</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.2">
@@ -45525,20 +45529,20 @@
       <c r="B836" s="9">
         <v>330</v>
       </c>
-      <c r="C836" s="53" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D836" s="53" t="s">
-        <v>1885</v>
+      <c r="C836" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="D836" s="10" t="s">
+        <v>1804</v>
       </c>
       <c r="E836" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F836" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G836" s="53" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.2">
@@ -45548,20 +45552,20 @@
       <c r="B837" s="9">
         <v>330</v>
       </c>
-      <c r="C837" s="10" t="s">
+      <c r="C837" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="D837" s="10" t="s">
-        <v>1804</v>
+      <c r="D837" s="9" t="s">
+        <v>866</v>
       </c>
       <c r="E837" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F837" s="9">
         <v>2</v>
       </c>
-      <c r="G837" s="53" t="s">
-        <v>1806</v>
+      <c r="G837" s="9" t="s">
+        <v>1807</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.2">
@@ -45575,16 +45579,16 @@
         <v>865</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="E838" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F838" s="9">
-        <v>2</v>
-      </c>
-      <c r="G838" s="9" t="s">
-        <v>1807</v>
+        <v>3</v>
+      </c>
+      <c r="G838" s="53" t="s">
+        <v>1809</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.2">
@@ -45598,16 +45602,16 @@
         <v>865</v>
       </c>
       <c r="D839" s="9" t="s">
-        <v>874</v>
+        <v>1867</v>
       </c>
       <c r="E839" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F839" s="9">
         <v>3</v>
       </c>
-      <c r="G839" s="53" t="s">
-        <v>1809</v>
+      <c r="G839" s="9" t="s">
+        <v>1807</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.2">
@@ -45615,22 +45619,22 @@
         <v>839</v>
       </c>
       <c r="B840" s="9">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C840" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="D840" s="9" t="s">
-        <v>1867</v>
+        <v>878</v>
+      </c>
+      <c r="D840" s="9">
+        <v>4</v>
       </c>
       <c r="E840" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F840" s="9">
-        <v>3</v>
-      </c>
-      <c r="G840" s="9" t="s">
-        <v>1807</v>
+        <v>1</v>
+      </c>
+      <c r="G840" s="53" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.2">
@@ -45644,16 +45648,16 @@
         <v>878</v>
       </c>
       <c r="D841" s="9">
+        <v>10</v>
+      </c>
+      <c r="E841" s="9">
         <v>4</v>
       </c>
-      <c r="E841" s="9">
-        <v>3</v>
-      </c>
       <c r="F841" s="9">
         <v>1</v>
       </c>
       <c r="G841" s="53" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.2">
@@ -45664,19 +45668,19 @@
         <v>331</v>
       </c>
       <c r="C842" s="9" t="s">
-        <v>878</v>
-      </c>
-      <c r="D842" s="9">
-        <v>10</v>
+        <v>1065</v>
+      </c>
+      <c r="D842" s="9" t="s">
+        <v>866</v>
       </c>
       <c r="E842" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F842" s="9">
         <v>1</v>
       </c>
       <c r="G842" s="53" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.2">
@@ -45684,22 +45688,22 @@
         <v>842</v>
       </c>
       <c r="B843" s="9">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C843" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D843" s="9" t="s">
-        <v>866</v>
+        <v>878</v>
+      </c>
+      <c r="D843" s="9">
+        <v>0</v>
       </c>
       <c r="E843" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F843" s="9">
         <v>1</v>
       </c>
       <c r="G843" s="53" t="s">
-        <v>1799</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.2">
@@ -45707,22 +45711,22 @@
         <v>843</v>
       </c>
       <c r="B844" s="9">
-        <v>332</v>
-      </c>
-      <c r="C844" s="9" t="s">
-        <v>878</v>
-      </c>
-      <c r="D844" s="9">
-        <v>0</v>
+        <v>333</v>
+      </c>
+      <c r="C844" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D844" s="9" t="s">
+        <v>1949</v>
       </c>
       <c r="E844" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F844" s="9">
         <v>1</v>
       </c>
       <c r="G844" s="53" t="s">
-        <v>1817</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.2">
@@ -45730,22 +45734,22 @@
         <v>844</v>
       </c>
       <c r="B845" s="9">
-        <v>333</v>
-      </c>
-      <c r="C845" s="10" t="s">
-        <v>1045</v>
+        <v>334</v>
+      </c>
+      <c r="C845" s="9" t="s">
+        <v>865</v>
       </c>
       <c r="D845" s="9" t="s">
-        <v>1951</v>
+        <v>870</v>
       </c>
       <c r="E845" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F845" s="9">
         <v>1</v>
       </c>
-      <c r="G845" s="53" t="s">
-        <v>1833</v>
+      <c r="G845" s="9" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.2">
@@ -45755,11 +45759,11 @@
       <c r="B846" s="9">
         <v>334</v>
       </c>
-      <c r="C846" s="9" t="s">
-        <v>865</v>
+      <c r="C846" s="10" t="s">
+        <v>1045</v>
       </c>
       <c r="D846" s="9" t="s">
-        <v>870</v>
+        <v>1949</v>
       </c>
       <c r="E846" s="9">
         <v>2</v>
@@ -45768,13 +45772,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="9" t="s">
-        <v>871</v>
-      </c>
-      <c r="H846" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="I846" s="9" t="s">
-        <v>873</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.2">
@@ -45782,13 +45780,13 @@
         <v>846</v>
       </c>
       <c r="B847" s="9">
-        <v>334</v>
-      </c>
-      <c r="C847" s="10" t="s">
-        <v>1045</v>
+        <v>335</v>
+      </c>
+      <c r="C847" s="9" t="s">
+        <v>865</v>
       </c>
       <c r="D847" s="9" t="s">
-        <v>1951</v>
+        <v>874</v>
       </c>
       <c r="E847" s="9">
         <v>2</v>
@@ -45796,8 +45794,14 @@
       <c r="F847" s="9">
         <v>1</v>
       </c>
-      <c r="G847" s="9" t="s">
-        <v>1846</v>
+      <c r="G847" s="53" t="s">
+        <v>875</v>
+      </c>
+      <c r="H847" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="I847" s="9" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="848" spans="1:9" x14ac:dyDescent="0.2">
@@ -45807,11 +45811,11 @@
       <c r="B848" s="9">
         <v>335</v>
       </c>
-      <c r="C848" s="9" t="s">
-        <v>865</v>
+      <c r="C848" s="10" t="s">
+        <v>1045</v>
       </c>
       <c r="D848" s="9" t="s">
-        <v>874</v>
+        <v>1949</v>
       </c>
       <c r="E848" s="9">
         <v>2</v>
@@ -45819,109 +45823,109 @@
       <c r="F848" s="9">
         <v>1</v>
       </c>
-      <c r="G848" s="53" t="s">
-        <v>875</v>
-      </c>
-      <c r="H848" s="9" t="s">
-        <v>876</v>
-      </c>
-      <c r="I848" s="9" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G848" s="9" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A849" s="8">
         <v>848</v>
       </c>
-      <c r="B849" s="9">
-        <v>335</v>
-      </c>
-      <c r="C849" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D849" s="9" t="s">
-        <v>1951</v>
-      </c>
-      <c r="E849" s="9">
-        <v>2</v>
-      </c>
-      <c r="F849" s="9">
-        <v>1</v>
-      </c>
-      <c r="G849" s="9" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="850" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B849" s="98">
+        <v>336</v>
+      </c>
+      <c r="C849" s="98" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D849" s="99" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E849" s="98">
+        <v>5</v>
+      </c>
+      <c r="F849" s="98">
+        <v>1</v>
+      </c>
+      <c r="G849" s="99" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H849" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="I849" s="9" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A850" s="8">
         <v>849</v>
       </c>
-      <c r="B850" s="98">
+      <c r="B850" s="9">
         <v>336</v>
       </c>
-      <c r="C850" s="98" t="s">
-        <v>1852</v>
-      </c>
-      <c r="D850" s="99" t="s">
-        <v>1853</v>
-      </c>
-      <c r="E850" s="98">
+      <c r="C850" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D850" s="9" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E850" s="9">
         <v>5</v>
       </c>
-      <c r="F850" s="98">
-        <v>1</v>
-      </c>
-      <c r="G850" s="99" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F850" s="9">
+        <v>1</v>
+      </c>
+      <c r="G850" s="9" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A851" s="8">
         <v>850</v>
       </c>
-      <c r="B851" s="9">
-        <v>336</v>
-      </c>
-      <c r="C851" s="10" t="s">
+      <c r="B851" s="106">
+        <v>337</v>
+      </c>
+      <c r="C851" s="107" t="s">
         <v>1045</v>
       </c>
-      <c r="D851" s="9" t="s">
-        <v>1951</v>
-      </c>
-      <c r="E851" s="9">
-        <v>5</v>
-      </c>
-      <c r="F851" s="9">
-        <v>1</v>
-      </c>
-      <c r="G851" s="9" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="852" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D851" s="107" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E851" s="106">
+        <v>2</v>
+      </c>
+      <c r="F851" s="106">
+        <v>1</v>
+      </c>
+      <c r="G851" s="107" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A852" s="8">
         <v>851</v>
       </c>
       <c r="B852" s="106">
         <v>337</v>
       </c>
-      <c r="C852" s="107" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D852" s="107" t="s">
-        <v>1863</v>
+      <c r="C852" s="106" t="s">
+        <v>893</v>
+      </c>
+      <c r="D852" s="106">
+        <v>1604968200</v>
       </c>
       <c r="E852" s="106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F852" s="106">
         <v>1</v>
       </c>
       <c r="G852" s="107" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="853" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A853" s="8">
         <v>852</v>
       </c>
@@ -45929,243 +45933,243 @@
         <v>337</v>
       </c>
       <c r="C853" s="106" t="s">
-        <v>893</v>
-      </c>
-      <c r="D853" s="106">
-        <v>1604968200</v>
+        <v>865</v>
+      </c>
+      <c r="D853" s="106" t="s">
+        <v>866</v>
       </c>
       <c r="E853" s="106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F853" s="106">
         <v>1</v>
       </c>
-      <c r="G853" s="107" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="854" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G853" s="106" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="854" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A854" s="8">
         <v>853</v>
       </c>
-      <c r="B854" s="106">
-        <v>337</v>
-      </c>
-      <c r="C854" s="106" t="s">
-        <v>865</v>
-      </c>
-      <c r="D854" s="106" t="s">
-        <v>866</v>
-      </c>
-      <c r="E854" s="106">
-        <v>2</v>
-      </c>
-      <c r="F854" s="106">
-        <v>1</v>
-      </c>
-      <c r="G854" s="106" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="855" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B854" s="14">
+        <v>338</v>
+      </c>
+      <c r="C854" s="14" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D854" s="14" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E854" s="14">
+        <v>5</v>
+      </c>
+      <c r="F854" s="14">
+        <v>1</v>
+      </c>
+      <c r="G854" s="14" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A855" s="8">
         <v>854</v>
       </c>
-      <c r="B855" s="14">
-        <v>338</v>
-      </c>
-      <c r="C855" s="14" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D855" s="14" t="s">
-        <v>1951</v>
-      </c>
-      <c r="E855" s="14">
-        <v>5</v>
-      </c>
-      <c r="F855" s="14">
-        <v>1</v>
-      </c>
-      <c r="G855" s="14" t="s">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="856" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B855" s="8">
+        <v>339</v>
+      </c>
+      <c r="C855" s="10" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D855" s="10" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E855" s="8">
+        <v>2</v>
+      </c>
+      <c r="F855" s="8">
+        <v>1</v>
+      </c>
+      <c r="G855" s="10" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A856" s="8">
         <v>855</v>
       </c>
       <c r="B856" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C856" s="10" t="s">
-        <v>1887</v>
+        <v>1174</v>
       </c>
       <c r="D856" s="10" t="s">
-        <v>1886</v>
+        <v>1949</v>
       </c>
       <c r="E856" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F856" s="8">
         <v>1</v>
       </c>
       <c r="G856" s="10" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="857" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A857" s="8">
         <v>856</v>
       </c>
       <c r="B857" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C857" s="10" t="s">
         <v>1174</v>
       </c>
       <c r="D857" s="10" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="E857" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F857" s="8">
         <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="858" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A858" s="8">
         <v>857</v>
       </c>
-      <c r="B858" s="8">
-        <v>341</v>
-      </c>
-      <c r="C858" s="10" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D858" s="10" t="s">
-        <v>1951</v>
-      </c>
-      <c r="E858" s="8">
-        <v>2</v>
-      </c>
-      <c r="F858" s="8">
-        <v>1</v>
-      </c>
-      <c r="G858" s="10" t="s">
+      <c r="B858" s="110">
+        <v>342</v>
+      </c>
+      <c r="C858" s="111" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D858" s="111" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="859" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E858" s="110">
+        <v>2</v>
+      </c>
+      <c r="F858" s="110">
+        <v>1</v>
+      </c>
+      <c r="G858" s="111" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A859" s="8">
         <v>858</v>
       </c>
       <c r="B859" s="110">
         <v>342</v>
       </c>
-      <c r="C859" s="111" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D859" s="111" t="s">
-        <v>1940</v>
+      <c r="C859" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="D859" s="110">
+        <v>1</v>
       </c>
       <c r="E859" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F859" s="110">
         <v>1</v>
       </c>
       <c r="G859" s="111" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="860" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="860" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A860" s="8">
         <v>859</v>
       </c>
       <c r="B860" s="110">
         <v>342</v>
       </c>
-      <c r="C860" s="110" t="s">
-        <v>878</v>
-      </c>
-      <c r="D860" s="110">
-        <v>1</v>
+      <c r="C860" s="111" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D860" s="111" t="s">
+        <v>1936</v>
       </c>
       <c r="E860" s="110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F860" s="110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G860" s="111" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="861" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A861" s="8">
         <v>860</v>
       </c>
       <c r="B861" s="110">
         <v>342</v>
       </c>
-      <c r="C861" s="111" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D861" s="111" t="s">
-        <v>1937</v>
+      <c r="C861" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="D861" s="110">
+        <v>1</v>
       </c>
       <c r="E861" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F861" s="110">
         <v>2</v>
       </c>
       <c r="G861" s="111" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="862" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="862" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A862" s="8">
         <v>861</v>
       </c>
       <c r="B862" s="110">
         <v>342</v>
       </c>
-      <c r="C862" s="110" t="s">
-        <v>878</v>
-      </c>
-      <c r="D862" s="110">
-        <v>1</v>
+      <c r="C862" s="111" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D862" s="111" t="s">
+        <v>1937</v>
       </c>
       <c r="E862" s="110">
+        <v>2</v>
+      </c>
+      <c r="F862" s="110">
         <v>3</v>
       </c>
-      <c r="F862" s="110">
-        <v>2</v>
-      </c>
       <c r="G862" s="111" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="863" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A863" s="8">
         <v>862</v>
       </c>
       <c r="B863" s="110">
         <v>342</v>
       </c>
-      <c r="C863" s="111" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D863" s="111" t="s">
-        <v>1938</v>
+      <c r="C863" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="D863" s="110">
+        <v>1</v>
       </c>
       <c r="E863" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F863" s="110">
         <v>3</v>
@@ -46174,7 +46178,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="864" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A864" s="8">
         <v>863</v>
       </c>
@@ -46182,19 +46186,19 @@
         <v>342</v>
       </c>
       <c r="C864" s="110" t="s">
-        <v>878</v>
-      </c>
-      <c r="D864" s="110">
-        <v>1</v>
+        <v>1045</v>
+      </c>
+      <c r="D864" s="110" t="s">
+        <v>1949</v>
       </c>
       <c r="E864" s="110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F864" s="110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G864" s="111" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="865" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46205,65 +46209,65 @@
         <v>342</v>
       </c>
       <c r="C865" s="110" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D865" s="110" t="s">
-        <v>1951</v>
+        <v>878</v>
+      </c>
+      <c r="D865" s="110">
+        <v>1</v>
       </c>
       <c r="E865" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F865" s="110">
         <v>4</v>
       </c>
       <c r="G865" s="111" t="s">
-        <v>1931</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="866" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A866" s="8">
         <v>865</v>
       </c>
-      <c r="B866" s="110">
-        <v>342</v>
-      </c>
-      <c r="C866" s="110" t="s">
-        <v>878</v>
-      </c>
-      <c r="D866" s="110">
-        <v>1</v>
-      </c>
-      <c r="E866" s="110">
+      <c r="B866" s="9">
+        <v>343</v>
+      </c>
+      <c r="C866" s="53" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D866" s="9">
+        <v>1</v>
+      </c>
+      <c r="E866" s="9">
         <v>3</v>
       </c>
-      <c r="F866" s="110">
-        <v>4</v>
-      </c>
-      <c r="G866" s="111" t="s">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F866" s="9">
+        <v>1</v>
+      </c>
+      <c r="G866" s="10" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A867" s="8">
         <v>866</v>
       </c>
       <c r="B867" s="9">
         <v>343</v>
       </c>
-      <c r="C867" s="53" t="s">
-        <v>1943</v>
-      </c>
-      <c r="D867" s="9">
-        <v>1</v>
-      </c>
-      <c r="E867" s="9">
-        <v>3</v>
-      </c>
-      <c r="F867" s="9">
+      <c r="C867" s="10" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D867" s="15" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E867" s="8">
+        <v>5</v>
+      </c>
+      <c r="F867" s="8">
         <v>1</v>
       </c>
       <c r="G867" s="10" t="s">
-        <v>1944</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.2">
@@ -46273,20 +46277,20 @@
       <c r="B868" s="9">
         <v>343</v>
       </c>
-      <c r="C868" s="10" t="s">
-        <v>1927</v>
-      </c>
-      <c r="D868" s="15" t="s">
-        <v>1929</v>
-      </c>
-      <c r="E868" s="8">
-        <v>5</v>
-      </c>
-      <c r="F868" s="8">
-        <v>1</v>
+      <c r="C868" s="53" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D868" s="9">
+        <v>9</v>
+      </c>
+      <c r="E868" s="9">
+        <v>3</v>
+      </c>
+      <c r="F868" s="9">
+        <v>2</v>
       </c>
       <c r="G868" s="10" t="s">
-        <v>1933</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.2">
@@ -46296,46 +46300,46 @@
       <c r="B869" s="9">
         <v>343</v>
       </c>
-      <c r="C869" s="53" t="s">
+      <c r="C869" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D869" s="15" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E869" s="8">
+        <v>5</v>
+      </c>
+      <c r="F869" s="8">
+        <v>2</v>
+      </c>
+      <c r="G869" s="10" t="s">
         <v>1934</v>
-      </c>
-      <c r="D869" s="9">
-        <v>9</v>
-      </c>
-      <c r="E869" s="9">
-        <v>3</v>
-      </c>
-      <c r="F869" s="9">
-        <v>2</v>
-      </c>
-      <c r="G869" s="10" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A870" s="8">
         <v>869</v>
       </c>
-      <c r="B870" s="9">
+      <c r="B870" s="14">
         <v>343</v>
       </c>
-      <c r="C870" s="10" t="s">
+      <c r="C870" s="15" t="s">
         <v>1174</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>1956</v>
-      </c>
-      <c r="E870" s="8">
-        <v>5</v>
-      </c>
-      <c r="F870" s="8">
-        <v>2</v>
-      </c>
-      <c r="G870" s="10" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="871" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1931</v>
+      </c>
+      <c r="E870" s="14">
+        <v>2</v>
+      </c>
+      <c r="F870" s="14">
+        <v>3</v>
+      </c>
+      <c r="G870" s="15" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A871" s="8">
         <v>870</v>
       </c>
@@ -46346,42 +46350,42 @@
         <v>1174</v>
       </c>
       <c r="D871" s="15" t="s">
-        <v>1932</v>
+        <v>1949</v>
       </c>
       <c r="E871" s="14">
         <v>2</v>
       </c>
       <c r="F871" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G871" s="15" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="872" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A872" s="8">
         <v>871</v>
       </c>
-      <c r="B872" s="14">
-        <v>343</v>
-      </c>
-      <c r="C872" s="15" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D872" s="15" t="s">
-        <v>1951</v>
-      </c>
-      <c r="E872" s="14">
-        <v>2</v>
-      </c>
-      <c r="F872" s="14">
-        <v>4</v>
-      </c>
-      <c r="G872" s="15" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="873" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B872" s="8">
+        <v>344</v>
+      </c>
+      <c r="C872" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="D872" s="10" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E872" s="8">
+        <v>5</v>
+      </c>
+      <c r="F872" s="8">
+        <v>1</v>
+      </c>
+      <c r="G872" s="10" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A873" s="8">
         <v>872</v>
       </c>
@@ -46392,16 +46396,16 @@
         <v>865</v>
       </c>
       <c r="D873" s="10" t="s">
-        <v>1982</v>
+        <v>1013</v>
       </c>
       <c r="E873" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F873" s="8">
         <v>1</v>
       </c>
       <c r="G873" s="10" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="874" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46412,10 +46416,10 @@
         <v>344</v>
       </c>
       <c r="C874" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D874" s="10" t="s">
-        <v>1013</v>
+        <v>1980</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
@@ -46424,7 +46428,7 @@
         <v>1</v>
       </c>
       <c r="G874" s="10" t="s">
-        <v>1014</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="875" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46435,19 +46439,19 @@
         <v>344</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D875" s="10" t="s">
-        <v>1983</v>
+        <v>912</v>
+      </c>
+      <c r="D875" s="8">
+        <v>600</v>
       </c>
       <c r="E875" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F875" s="8">
         <v>1</v>
       </c>
       <c r="G875" s="10" t="s">
-        <v>1092</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="876" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46455,22 +46459,22 @@
         <v>875</v>
       </c>
       <c r="B876" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>912</v>
-      </c>
-      <c r="D876" s="8">
-        <v>600</v>
+        <v>865</v>
+      </c>
+      <c r="D876" s="10" t="s">
+        <v>1979</v>
       </c>
       <c r="E876" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F876" s="8">
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="877" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46484,16 +46488,16 @@
         <v>865</v>
       </c>
       <c r="D877" s="10" t="s">
-        <v>1982</v>
+        <v>1013</v>
       </c>
       <c r="E877" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F877" s="8">
         <v>1</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="878" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46504,19 +46508,19 @@
         <v>345</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>865</v>
+        <v>1045</v>
       </c>
       <c r="D878" s="10" t="s">
-        <v>1013</v>
+        <v>1962</v>
       </c>
       <c r="E878" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F878" s="8">
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1017</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="879" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46527,65 +46531,65 @@
         <v>345</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D879" s="10" t="s">
-        <v>1965</v>
+        <v>912</v>
+      </c>
+      <c r="D879" s="8">
+        <v>600</v>
       </c>
       <c r="E879" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F879" s="8">
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1081</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="880" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A880" s="8">
         <v>879</v>
       </c>
-      <c r="B880" s="8">
-        <v>345</v>
+      <c r="B880" s="9">
+        <v>346</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>912</v>
-      </c>
-      <c r="D880" s="8">
-        <v>600</v>
+        <v>1168</v>
+      </c>
+      <c r="D880" s="15" t="s">
+        <v>1951</v>
       </c>
       <c r="E880" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F880" s="8">
         <v>1</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A881" s="8">
         <v>880</v>
       </c>
       <c r="B881" s="9">
         <v>346</v>
       </c>
-      <c r="C881" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D881" s="15" t="s">
-        <v>1954</v>
-      </c>
-      <c r="E881" s="8">
-        <v>2</v>
-      </c>
-      <c r="F881" s="8">
-        <v>1</v>
-      </c>
-      <c r="G881" s="10" t="s">
-        <v>1960</v>
+      <c r="C881" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D881" s="9" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E881" s="9">
+        <v>2</v>
+      </c>
+      <c r="F881" s="9">
+        <v>2</v>
+      </c>
+      <c r="G881" s="53" t="s">
+        <v>1958</v>
       </c>
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.2">
@@ -46598,17 +46602,17 @@
       <c r="C882" s="9" t="s">
         <v>1045</v>
       </c>
-      <c r="D882" s="9" t="s">
-        <v>1955</v>
+      <c r="D882" s="53" t="s">
+        <v>1954</v>
       </c>
       <c r="E882" s="9">
         <v>2</v>
       </c>
       <c r="F882" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G882" s="53" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.2">
@@ -46622,16 +46626,16 @@
         <v>1045</v>
       </c>
       <c r="D883" s="53" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="E883" s="9">
         <v>2</v>
       </c>
       <c r="F883" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G883" s="53" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.2">
@@ -46639,22 +46643,22 @@
         <v>883</v>
       </c>
       <c r="B884" s="9">
-        <v>346</v>
-      </c>
-      <c r="C884" s="9" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D884" s="53" t="s">
-        <v>1958</v>
-      </c>
-      <c r="E884" s="9">
-        <v>2</v>
-      </c>
-      <c r="F884" s="9">
-        <v>4</v>
-      </c>
-      <c r="G884" s="53" t="s">
-        <v>1963</v>
+        <v>347</v>
+      </c>
+      <c r="C884" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D884" s="15" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E884" s="8">
+        <v>2</v>
+      </c>
+      <c r="F884" s="8">
+        <v>1</v>
+      </c>
+      <c r="G884" s="10" t="s">
+        <v>1934</v>
       </c>
     </row>
     <row r="885" spans="1:7" x14ac:dyDescent="0.2">
@@ -46662,22 +46666,22 @@
         <v>884</v>
       </c>
       <c r="B885" s="9">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="D885" s="15" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="E885" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F885" s="8">
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.2">
@@ -46685,22 +46689,22 @@
         <v>885</v>
       </c>
       <c r="B886" s="9">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="D886" s="15" t="s">
-        <v>1956</v>
+        <v>1628</v>
       </c>
       <c r="E886" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F886" s="8">
         <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>1935</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.2">
@@ -46708,13 +46712,13 @@
         <v>886</v>
       </c>
       <c r="B887" s="9">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C887" s="10" t="s">
         <v>1174</v>
       </c>
       <c r="D887" s="15" t="s">
-        <v>1628</v>
+        <v>1857</v>
       </c>
       <c r="E887" s="8">
         <v>2</v>
@@ -46723,7 +46727,7 @@
         <v>1</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1974</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.2">
@@ -46731,22 +46735,22 @@
         <v>887</v>
       </c>
       <c r="B888" s="9">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="D888" s="15" t="s">
-        <v>1857</v>
+        <v>1946</v>
       </c>
       <c r="E888" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F888" s="8">
         <v>1</v>
       </c>
       <c r="G888" s="10" t="s">
-        <v>1539</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.2">
@@ -46754,22 +46758,22 @@
         <v>888</v>
       </c>
       <c r="B889" s="9">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C889" s="10" t="s">
         <v>1168</v>
       </c>
       <c r="D889" s="15" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="E889" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F889" s="8">
         <v>1</v>
       </c>
       <c r="G889" s="10" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.2">
@@ -46780,19 +46784,19 @@
         <v>352</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>1168</v>
+        <v>1986</v>
       </c>
       <c r="D890" s="15" t="s">
-        <v>1947</v>
+        <v>1628</v>
       </c>
       <c r="E890" s="8">
         <v>2</v>
       </c>
       <c r="F890" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>1960</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.2">
@@ -46803,19 +46807,19 @@
         <v>352</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>1989</v>
+        <v>1168</v>
       </c>
       <c r="D891" s="15" t="s">
-        <v>1628</v>
+        <v>1857</v>
       </c>
       <c r="E891" s="8">
         <v>2</v>
       </c>
       <c r="F891" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G891" s="10" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.2">
@@ -46823,59 +46827,59 @@
         <v>891</v>
       </c>
       <c r="B892" s="9">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C892" s="10" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D892" s="15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E892" s="8">
+        <v>2</v>
+      </c>
+      <c r="F892" s="8">
+        <v>1</v>
+      </c>
+      <c r="G892" s="10" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A893" s="8">
+        <v>892</v>
+      </c>
+      <c r="B893" s="9">
+        <v>354</v>
+      </c>
+      <c r="C893" s="10" t="s">
         <v>1168</v>
       </c>
-      <c r="D892" s="15" t="s">
+      <c r="D893" s="15" t="s">
         <v>1857</v>
       </c>
-      <c r="E892" s="8">
-        <v>2</v>
-      </c>
-      <c r="F892" s="8">
-        <v>3</v>
-      </c>
-      <c r="G892" s="10" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A893" s="9">
-        <v>892</v>
-      </c>
-      <c r="B893" s="9">
-        <v>353</v>
-      </c>
-      <c r="C893" s="10" t="s">
-        <v>1998</v>
-      </c>
-      <c r="D893" s="15" t="s">
-        <v>1999</v>
-      </c>
       <c r="E893" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F893" s="8">
         <v>1</v>
       </c>
       <c r="G893" s="10" t="s">
-        <v>2000</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="894" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A894" s="9">
+      <c r="A894" s="8">
         <v>893</v>
       </c>
       <c r="B894" s="9">
         <v>354</v>
       </c>
       <c r="C894" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D894" s="15" t="s">
-        <v>1857</v>
+        <v>1045</v>
+      </c>
+      <c r="D894" s="10" t="s">
+        <v>1962</v>
       </c>
       <c r="E894" s="8">
         <v>5</v>
@@ -46884,29 +46888,6 @@
         <v>1</v>
       </c>
       <c r="G894" s="10" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A895" s="9">
-        <v>894</v>
-      </c>
-      <c r="B895" s="9">
-        <v>354</v>
-      </c>
-      <c r="C895" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D895" s="10" t="s">
-        <v>1965</v>
-      </c>
-      <c r="E895" s="8">
-        <v>5</v>
-      </c>
-      <c r="F895" s="8">
-        <v>1</v>
-      </c>
-      <c r="G895" s="10" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -46922,8 +46903,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47057,7 +47038,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>2003</v>
+        <v>1857</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>897</v>
@@ -47080,7 +47061,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1755</v>
@@ -47126,13 +47107,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1949</v>
+        <v>2003</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -47149,13 +47130,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1952</v>
+        <v>2004</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -47172,13 +47153,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E11">
         <v>2</v>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="2047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4736" uniqueCount="2050">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9480,6 +9480,18 @@
   </si>
   <si>
     <t>大版本升级权限（CPS渠道屏蔽，IOS渠道屏蔽）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS用户</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15191,7 +15203,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D328" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G349" sqref="G349"/>
+      <selection pane="bottomRight" activeCell="E353" sqref="E353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -26996,10 +27008,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I925"/>
+  <dimension ref="A1:I927"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C910" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C919" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D934" sqref="D934"/>
@@ -49171,6 +49183,52 @@
         <v>2045</v>
       </c>
     </row>
+    <row r="926" spans="1:7">
+      <c r="A926" s="8">
+        <v>925</v>
+      </c>
+      <c r="B926" s="103">
+        <v>373</v>
+      </c>
+      <c r="C926" s="103" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D926" s="103" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E926" s="103">
+        <v>2</v>
+      </c>
+      <c r="F926" s="103">
+        <v>2</v>
+      </c>
+      <c r="G926" s="104" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7">
+      <c r="A927" s="8">
+        <v>926</v>
+      </c>
+      <c r="B927" s="103">
+        <v>373</v>
+      </c>
+      <c r="C927" s="103" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D927" s="104" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E927" s="103">
+        <v>2</v>
+      </c>
+      <c r="F927" s="103">
+        <v>2</v>
+      </c>
+      <c r="G927" s="103" t="s">
+        <v>2049</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49183,8 +49241,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="2062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4825" uniqueCount="2086">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -7969,10 +7969,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>星星鱼刷新（非CPS渠道）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>不是CPS渠道</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9532,35 +9528,107 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>大版本升级权限（CPS渠道屏蔽，除官方IOS渠道以外的IOS渠道屏蔽）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>systype</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>systype</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_system_update</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>大版本升级权限（CPS渠道屏蔽，除官方IOS渠道以外的IOS渠道屏蔽）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>systype</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>android</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓用户</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>systype</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ios</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOS用户</t>
+    <t>treasure_bowl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆限制（v0）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--免费、小额、新人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年1月25日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V1V7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年1月25日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V8V12</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是免费用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是小额用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于V1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于V7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是新玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjj_week_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>救济金周卡跳转</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -9568,19 +9636,47 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>救济金周卡跳转</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>救济金月卡跳转</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>jjj_week_limit</t>
+    <t>VIP等级0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>VIP等级1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非CPS渠道权限(小游戏福利常用)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼刷新（非CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于冲金鸡渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>除vivo外全渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_no_vivo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非vivo的全渠道</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9680,7 +9776,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9761,12 +9857,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -9813,6 +9903,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9851,7 +9959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10047,13 +10155,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -10069,27 +10170,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10107,6 +10194,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10114,19 +10214,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10136,17 +10223,23 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10154,23 +10247,14 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10186,6 +10270,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10465,11 +10587,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q461"/>
+  <dimension ref="A1:Q463"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A461" sqref="A461"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A443" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C467" sqref="C467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11674,7 +11796,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11710,7 +11832,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C73" s="57">
         <v>22</v>
@@ -11849,7 +11971,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -12831,7 +12953,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="34" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>293</v>
@@ -13035,7 +13157,7 @@
     </row>
     <row r="200" spans="1:10" s="65" customFormat="1">
       <c r="A200" s="64" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B200" s="64" t="s">
         <v>330</v>
@@ -13046,7 +13168,7 @@
       <c r="D200" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="J200" s="103"/>
+      <c r="J200" s="94"/>
     </row>
     <row r="201" spans="1:10" s="18" customFormat="1">
       <c r="A201" s="34" t="s">
@@ -14373,7 +14495,7 @@
         <v>1374</v>
       </c>
       <c r="B349" s="27" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="C349" s="3">
         <v>226</v>
@@ -14436,10 +14558,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="27" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B355" s="27" t="s">
         <v>1828</v>
-      </c>
-      <c r="B355" s="27" t="s">
-        <v>1829</v>
       </c>
       <c r="C355" s="3">
         <v>8</v>
@@ -14447,10 +14569,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="27" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="C356" s="3">
         <v>343</v>
@@ -14469,10 +14591,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="27" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B360" s="34" t="s">
         <v>1790</v>
-      </c>
-      <c r="B360" s="34" t="s">
-        <v>1791</v>
       </c>
       <c r="C360" s="3">
         <v>332</v>
@@ -14483,7 +14605,7 @@
         <v>1456</v>
       </c>
       <c r="B361" s="34" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C361" s="3">
         <v>242</v>
@@ -14505,7 +14627,7 @@
         <v>1452</v>
       </c>
       <c r="B363" s="27" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C363" s="3">
         <v>244</v>
@@ -14516,7 +14638,7 @@
         <v>1490</v>
       </c>
       <c r="B366" s="27" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C366" s="3">
         <v>248</v>
@@ -14524,7 +14646,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="27" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B368" s="27" t="s">
         <v>1514</v>
@@ -14601,10 +14723,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="27" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B381" s="27" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C381" s="3">
         <v>326</v>
@@ -14612,10 +14734,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="27" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B383" s="27" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C383" s="3">
         <v>327</v>
@@ -14623,10 +14745,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="27" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C385" s="3">
         <v>328</v>
@@ -14634,10 +14756,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="27" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B387" s="27" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C387" s="3">
         <v>319</v>
@@ -14645,10 +14767,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="34" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B389" s="34" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C389" s="8">
         <v>127</v>
@@ -14656,10 +14778,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="34" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B390" s="34" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C390" s="8">
         <v>128</v>
@@ -14667,10 +14789,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="34" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B391" s="34" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C391" s="8">
         <v>129</v>
@@ -14678,10 +14800,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="34" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B392" s="34" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C392" s="8">
         <v>130</v>
@@ -14689,10 +14811,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="34" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C393" s="8">
         <v>131</v>
@@ -14700,10 +14822,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="34" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C394" s="8">
         <v>132</v>
@@ -14711,10 +14833,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="34" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C395" s="8">
         <v>133</v>
@@ -14722,10 +14844,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="34" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C396" s="8">
         <v>134</v>
@@ -14733,10 +14855,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="34" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C397" s="8">
         <v>135</v>
@@ -14744,10 +14866,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="27" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B399" s="27" t="s">
         <v>1798</v>
-      </c>
-      <c r="B399" s="27" t="s">
-        <v>1799</v>
       </c>
       <c r="C399" s="3">
         <v>333</v>
@@ -14755,10 +14877,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="27" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B400" s="27" t="s">
         <v>1800</v>
-      </c>
-      <c r="B400" s="27" t="s">
-        <v>1801</v>
       </c>
       <c r="C400" s="3">
         <v>333</v>
@@ -14766,10 +14888,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="27" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B401" s="27" t="s">
         <v>1802</v>
-      </c>
-      <c r="B401" s="27" t="s">
-        <v>1803</v>
       </c>
       <c r="C401" s="3">
         <v>333</v>
@@ -14777,10 +14899,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="27" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B402" s="27" t="s">
         <v>1804</v>
-      </c>
-      <c r="B402" s="27" t="s">
-        <v>1805</v>
       </c>
       <c r="C402" s="3">
         <v>333</v>
@@ -14788,10 +14910,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="27" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B403" s="27" t="s">
         <v>1806</v>
-      </c>
-      <c r="B403" s="27" t="s">
-        <v>1807</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -14799,10 +14921,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="27" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B405" s="27" t="s">
         <v>1813</v>
-      </c>
-      <c r="B405" s="27" t="s">
-        <v>1814</v>
       </c>
       <c r="C405" s="3">
         <v>91</v>
@@ -14810,10 +14932,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="27" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B407" s="27" t="s">
         <v>1853</v>
-      </c>
-      <c r="B407" s="27" t="s">
-        <v>1854</v>
       </c>
       <c r="C407" s="3">
         <v>339</v>
@@ -14821,10 +14943,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B409" s="3" t="s">
         <v>1858</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>1859</v>
       </c>
       <c r="C409" s="3">
         <v>326</v>
@@ -14832,37 +14954,37 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="34" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B411" s="10" t="s">
         <v>1860</v>
-      </c>
-      <c r="B411" s="10" t="s">
-        <v>1861</v>
       </c>
       <c r="C411" s="9"/>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B412" s="10" t="s">
         <v>1862</v>
-      </c>
-      <c r="B412" s="10" t="s">
-        <v>1863</v>
       </c>
       <c r="C412" s="9"/>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="18" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B413" s="10" t="s">
         <v>1864</v>
-      </c>
-      <c r="B413" s="10" t="s">
-        <v>1865</v>
       </c>
       <c r="C413" s="9"/>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="18" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B414" s="10" t="s">
         <v>1866</v>
-      </c>
-      <c r="B414" s="10" t="s">
-        <v>1867</v>
       </c>
       <c r="C414" s="57">
         <v>22</v>
@@ -14870,10 +14992,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="18" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B415" s="10" t="s">
         <v>1868</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>1869</v>
       </c>
       <c r="C415" s="57">
         <v>22</v>
@@ -14881,10 +15003,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="18" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B416" s="10" t="s">
         <v>1870</v>
-      </c>
-      <c r="B416" s="10" t="s">
-        <v>1871</v>
       </c>
       <c r="C416" s="57">
         <v>22</v>
@@ -14892,10 +15014,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="18" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B417" s="10" t="s">
         <v>1872</v>
-      </c>
-      <c r="B417" s="10" t="s">
-        <v>1873</v>
       </c>
       <c r="C417" s="57">
         <v>23</v>
@@ -14903,10 +15025,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="18" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B418" s="10" t="s">
         <v>1874</v>
-      </c>
-      <c r="B418" s="10" t="s">
-        <v>1875</v>
       </c>
       <c r="C418" s="57">
         <v>23</v>
@@ -14914,10 +15036,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="18" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B419" s="10" t="s">
         <v>1876</v>
-      </c>
-      <c r="B419" s="10" t="s">
-        <v>1877</v>
       </c>
       <c r="C419" s="9">
         <v>24</v>
@@ -14925,10 +15047,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="18" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B420" s="10" t="s">
         <v>1878</v>
-      </c>
-      <c r="B420" s="10" t="s">
-        <v>1879</v>
       </c>
       <c r="C420" s="9">
         <v>25</v>
@@ -14936,10 +15058,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="18" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B421" s="10" t="s">
         <v>1880</v>
-      </c>
-      <c r="B421" s="10" t="s">
-        <v>1881</v>
       </c>
       <c r="C421" s="9">
         <v>26</v>
@@ -14947,10 +15069,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="18" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B422" s="10" t="s">
         <v>1882</v>
-      </c>
-      <c r="B422" s="10" t="s">
-        <v>1883</v>
       </c>
       <c r="C422" s="9">
         <v>26</v>
@@ -14958,10 +15080,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="18" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B423" s="10" t="s">
         <v>1884</v>
-      </c>
-      <c r="B423" s="10" t="s">
-        <v>1885</v>
       </c>
       <c r="C423" s="9">
         <v>26</v>
@@ -14969,10 +15091,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="27" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B425" s="27" t="s">
         <v>1889</v>
-      </c>
-      <c r="B425" s="27" t="s">
-        <v>1890</v>
       </c>
       <c r="C425" s="3">
         <v>342</v>
@@ -14980,10 +15102,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="27" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B427" s="27" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="C427" s="3">
         <v>344</v>
@@ -14991,10 +15113,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="27" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B428" s="27" t="s">
         <v>1944</v>
-      </c>
-      <c r="B428" s="27" t="s">
-        <v>1945</v>
       </c>
       <c r="C428" s="3">
         <v>345</v>
@@ -15002,10 +15124,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="27" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B430" s="27" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C430" s="3">
         <v>346</v>
@@ -15013,10 +15135,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="27" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C432" s="3">
         <v>347</v>
@@ -15024,10 +15146,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="27" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B433" s="27" t="s">
         <v>1933</v>
-      </c>
-      <c r="B433" s="27" t="s">
-        <v>1934</v>
       </c>
       <c r="C433" s="3">
         <v>348</v>
@@ -15035,10 +15157,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="27" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B435" s="27" t="s">
         <v>1949</v>
-      </c>
-      <c r="B435" s="27" t="s">
-        <v>1950</v>
       </c>
       <c r="C435" s="3">
         <v>351</v>
@@ -15046,10 +15168,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="27" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B436" s="27" t="s">
         <v>1951</v>
-      </c>
-      <c r="B436" s="27" t="s">
-        <v>1952</v>
       </c>
       <c r="C436" s="3">
         <v>352</v>
@@ -15057,10 +15179,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="27" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B438" s="27" t="s">
         <v>1960</v>
-      </c>
-      <c r="B438" s="27" t="s">
-        <v>1961</v>
       </c>
       <c r="C438" s="3">
         <v>353</v>
@@ -15068,10 +15190,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="3" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C440" s="3">
         <v>354</v>
@@ -15079,10 +15201,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="27" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B442" s="27" t="s">
         <v>1970</v>
-      </c>
-      <c r="B442" s="27" t="s">
-        <v>1971</v>
       </c>
       <c r="C442" s="3">
         <v>355</v>
@@ -15094,32 +15216,32 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="27" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B444" s="27" t="s">
         <v>1999</v>
-      </c>
-      <c r="B444" s="27" t="s">
-        <v>2000</v>
       </c>
       <c r="C444" s="3">
         <v>368</v>
       </c>
     </row>
     <row r="446" spans="1:3">
-      <c r="A446" s="79" t="s">
+      <c r="A446" s="76" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B446" s="27" t="s">
         <v>2006</v>
-      </c>
-      <c r="B446" s="27" t="s">
-        <v>2007</v>
       </c>
       <c r="C446" s="3">
         <v>356</v>
       </c>
     </row>
     <row r="447" spans="1:3">
-      <c r="A447" s="79" t="s">
+      <c r="A447" s="76" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B447" s="27" t="s">
         <v>2008</v>
-      </c>
-      <c r="B447" s="27" t="s">
-        <v>2009</v>
       </c>
       <c r="C447" s="3">
         <v>360</v>
@@ -15127,10 +15249,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="3" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C449" s="3">
         <v>369</v>
@@ -15138,10 +15260,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="27" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B451" s="27" t="s">
         <v>2027</v>
-      </c>
-      <c r="B451" s="27" t="s">
-        <v>2028</v>
       </c>
       <c r="C451" s="3">
         <v>374</v>
@@ -15149,10 +15271,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="27" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B453" s="27" t="s">
         <v>2033</v>
-      </c>
-      <c r="B453" s="27" t="s">
-        <v>2034</v>
       </c>
       <c r="C453" s="3">
         <v>375</v>
@@ -15160,10 +15282,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="27" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B454" s="27" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C454" s="3">
         <v>376</v>
@@ -15171,10 +15293,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="27" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B455" s="27" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C455" s="3">
         <v>377</v>
@@ -15182,10 +15304,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="27" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B456" s="27" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C456" s="3">
         <v>378</v>
@@ -15193,35 +15315,46 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="27" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B458" s="27" t="s">
         <v>2043</v>
-      </c>
-      <c r="B458" s="27" t="s">
-        <v>2044</v>
       </c>
       <c r="C458" s="3">
         <v>379</v>
       </c>
     </row>
     <row r="460" spans="1:3">
-      <c r="A460" s="27" t="s">
-        <v>2060</v>
-      </c>
-      <c r="B460" s="27" t="s">
+      <c r="A460" s="3" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B460" s="3" t="s">
         <v>2058</v>
       </c>
       <c r="C460" s="3">
         <v>381</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
-      <c r="A461" s="27" t="s">
-        <v>2057</v>
-      </c>
-      <c r="B461" s="27" t="s">
-        <v>2059</v>
-      </c>
-      <c r="C461" s="3">
-        <v>382</v>
+    <row r="462" spans="1:3">
+      <c r="A462" s="27" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B462" s="27" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C462" s="3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="27" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B463" s="27" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C463" s="3">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -15234,13 +15367,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O353"/>
+  <dimension ref="A1:O357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F331" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D331" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G358" sqref="G358"/>
+      <selection pane="bottomRight" activeCell="C357" sqref="C357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15422,7 +15555,7 @@
         <v>1496</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -15578,7 +15711,7 @@
         <v>467</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>1163</v>
@@ -16102,7 +16235,7 @@
       <c r="C23" s="32" t="s">
         <v>1267</v>
       </c>
-      <c r="D23" s="91" t="s">
+      <c r="D23" s="82" t="s">
         <v>1272</v>
       </c>
       <c r="E23" s="31"/>
@@ -16138,7 +16271,7 @@
       <c r="C24" s="32" t="s">
         <v>1268</v>
       </c>
-      <c r="D24" s="91" t="s">
+      <c r="D24" s="82" t="s">
         <v>1270</v>
       </c>
       <c r="E24" s="31"/>
@@ -16174,7 +16307,7 @@
       <c r="C25" s="32" t="s">
         <v>1269</v>
       </c>
-      <c r="D25" s="91" t="s">
+      <c r="D25" s="82" t="s">
         <v>1271</v>
       </c>
       <c r="E25" s="31"/>
@@ -21290,7 +21423,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>772</v>
@@ -21837,7 +21970,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="44" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D192" s="44" t="s">
         <v>801</v>
@@ -22922,785 +23055,785 @@
         <v>853</v>
       </c>
     </row>
-    <row r="225" spans="1:12" s="24" customFormat="1">
+    <row r="225" spans="1:12" s="22" customFormat="1">
       <c r="A225" s="17">
         <v>224</v>
       </c>
-      <c r="B225" s="28">
+      <c r="B225" s="17">
         <v>0</v>
       </c>
-      <c r="C225" s="29" t="s">
+      <c r="C225" s="16" t="s">
         <v>1197</v>
       </c>
-      <c r="D225" s="29" t="s">
+      <c r="D225" s="16" t="s">
         <v>1126</v>
       </c>
-      <c r="E225" s="28"/>
-      <c r="F225" s="28"/>
-      <c r="G225" s="28">
+      <c r="E225" s="17"/>
+      <c r="F225" s="17"/>
+      <c r="G225" s="17">
         <v>178</v>
       </c>
-      <c r="H225" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I225" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" s="29" t="s">
+      <c r="H225" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I225" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" s="16" t="s">
         <v>1127</v>
       </c>
-      <c r="K225" s="28">
+      <c r="K225" s="17">
         <v>1591054200</v>
       </c>
-      <c r="L225" s="29" t="s">
+      <c r="L225" s="16" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="226" spans="1:12" s="80" customFormat="1">
+    <row r="226" spans="1:12" s="22" customFormat="1">
       <c r="A226" s="17">
         <v>225</v>
       </c>
-      <c r="B226" s="78">
-        <v>1</v>
-      </c>
-      <c r="C226" s="79" t="s">
+      <c r="B226" s="17">
+        <v>1</v>
+      </c>
+      <c r="C226" s="16" t="s">
         <v>1206</v>
       </c>
-      <c r="D226" s="78" t="s">
+      <c r="D226" s="17" t="s">
         <v>1169</v>
       </c>
-      <c r="E226" s="78"/>
-      <c r="F226" s="78"/>
-      <c r="G226" s="78">
+      <c r="E226" s="17"/>
+      <c r="F226" s="17"/>
+      <c r="G226" s="17">
         <v>179</v>
       </c>
-      <c r="H226" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I226" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" s="78" t="s">
+      <c r="H226" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I226" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" s="17" t="s">
         <v>1170</v>
       </c>
-      <c r="K226" s="78">
+      <c r="K226" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L226" s="79" t="s">
+      <c r="L226" s="16" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="227" spans="1:12" s="87" customFormat="1">
+    <row r="227" spans="1:12" s="22" customFormat="1">
       <c r="A227" s="17">
         <v>226</v>
       </c>
-      <c r="B227" s="85">
+      <c r="B227" s="17">
         <v>0</v>
       </c>
-      <c r="C227" s="86" t="s">
+      <c r="C227" s="16" t="s">
         <v>1199</v>
       </c>
-      <c r="D227" s="86" t="s">
+      <c r="D227" s="16" t="s">
         <v>1137</v>
       </c>
-      <c r="E227" s="85"/>
-      <c r="F227" s="85"/>
-      <c r="G227" s="85">
+      <c r="E227" s="17"/>
+      <c r="F227" s="17"/>
+      <c r="G227" s="17">
         <v>180</v>
       </c>
-      <c r="H227" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I227" s="87" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" s="85" t="s">
+      <c r="H227" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I227" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="K227" s="85">
+      <c r="K227" s="17">
         <v>1591632000</v>
       </c>
-      <c r="L227" s="86" t="s">
+      <c r="L227" s="16" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="228" spans="1:12" s="74" customFormat="1">
+    <row r="228" spans="1:12" s="22" customFormat="1">
       <c r="A228" s="17">
         <v>227</v>
       </c>
-      <c r="B228" s="72">
+      <c r="B228" s="17">
         <v>0</v>
       </c>
-      <c r="C228" s="73" t="s">
+      <c r="C228" s="16" t="s">
         <v>1171</v>
       </c>
-      <c r="D228" s="73" t="s">
+      <c r="D228" s="16" t="s">
         <v>1165</v>
       </c>
-      <c r="E228" s="72"/>
-      <c r="F228" s="72"/>
-      <c r="G228" s="72">
+      <c r="E228" s="17"/>
+      <c r="F228" s="17"/>
+      <c r="G228" s="17">
         <v>181</v>
       </c>
-      <c r="H228" s="72" t="b">
-        <v>1</v>
-      </c>
-      <c r="I228" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" s="73" t="s">
+      <c r="H228" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I228" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" s="16" t="s">
         <v>1145</v>
       </c>
-      <c r="K228" s="72">
+      <c r="K228" s="17">
         <v>1591632000</v>
       </c>
-      <c r="L228" s="73" t="s">
+      <c r="L228" s="16" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="229" spans="1:12" s="24" customFormat="1">
+    <row r="229" spans="1:12" s="22" customFormat="1">
       <c r="A229" s="17">
         <v>228</v>
       </c>
-      <c r="B229" s="28">
+      <c r="B229" s="17">
         <v>0</v>
       </c>
-      <c r="C229" s="29" t="s">
+      <c r="C229" s="16" t="s">
         <v>1196</v>
       </c>
-      <c r="D229" s="29" t="s">
+      <c r="D229" s="16" t="s">
         <v>1222</v>
       </c>
-      <c r="E229" s="28"/>
-      <c r="F229" s="28"/>
-      <c r="G229" s="28">
+      <c r="E229" s="17"/>
+      <c r="F229" s="17"/>
+      <c r="G229" s="17">
         <v>182</v>
       </c>
-      <c r="H229" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I229" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" s="28" t="s">
+      <c r="H229" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I229" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="K229" s="28">
+      <c r="K229" s="17">
         <v>1591632000</v>
       </c>
-      <c r="L229" s="28" t="s">
+      <c r="L229" s="17" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="230" spans="1:12" s="83" customFormat="1">
+    <row r="230" spans="1:12" s="22" customFormat="1">
       <c r="A230" s="17">
         <v>229</v>
       </c>
-      <c r="B230" s="81">
+      <c r="B230" s="17">
         <v>0</v>
       </c>
-      <c r="C230" s="82" t="s">
+      <c r="C230" s="16" t="s">
         <v>1181</v>
       </c>
-      <c r="D230" s="82" t="s">
+      <c r="D230" s="16" t="s">
         <v>1220</v>
       </c>
-      <c r="E230" s="81"/>
-      <c r="F230" s="81"/>
-      <c r="G230" s="81">
+      <c r="E230" s="17"/>
+      <c r="F230" s="17"/>
+      <c r="G230" s="17">
         <v>183</v>
       </c>
-      <c r="H230" s="81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I230" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" s="82" t="s">
+      <c r="H230" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I230" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" s="16" t="s">
         <v>1150</v>
       </c>
-      <c r="K230" s="81">
+      <c r="K230" s="17">
         <v>1591632000</v>
       </c>
-      <c r="L230" s="82" t="s">
+      <c r="L230" s="16" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="231" spans="1:12" s="80" customFormat="1">
+    <row r="231" spans="1:12" s="22" customFormat="1">
       <c r="A231" s="17">
         <v>230</v>
       </c>
-      <c r="B231" s="78">
+      <c r="B231" s="17">
         <v>0</v>
       </c>
-      <c r="C231" s="79" t="s">
+      <c r="C231" s="16" t="s">
         <v>1213</v>
       </c>
-      <c r="D231" s="79" t="s">
+      <c r="D231" s="16" t="s">
         <v>1221</v>
       </c>
-      <c r="E231" s="78"/>
-      <c r="F231" s="78"/>
-      <c r="G231" s="78">
+      <c r="E231" s="17"/>
+      <c r="F231" s="17"/>
+      <c r="G231" s="17">
         <v>184</v>
       </c>
-      <c r="H231" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I231" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" s="79" t="s">
+      <c r="H231" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I231" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" s="16" t="s">
         <v>1166</v>
       </c>
-      <c r="K231" s="78">
+      <c r="K231" s="17">
         <v>1591632000</v>
       </c>
-      <c r="L231" s="79" t="s">
+      <c r="L231" s="16" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="232" spans="1:12" s="24" customFormat="1">
+    <row r="232" spans="1:12" s="22" customFormat="1">
       <c r="A232" s="17">
         <v>231</v>
       </c>
-      <c r="B232" s="28">
+      <c r="B232" s="17">
         <v>0</v>
       </c>
-      <c r="C232" s="29" t="s">
+      <c r="C232" s="16" t="s">
         <v>1186</v>
       </c>
-      <c r="D232" s="29" t="s">
+      <c r="D232" s="16" t="s">
         <v>1167</v>
       </c>
-      <c r="E232" s="28"/>
-      <c r="F232" s="28"/>
-      <c r="G232" s="28">
+      <c r="E232" s="17"/>
+      <c r="F232" s="17"/>
+      <c r="G232" s="17">
         <v>185</v>
       </c>
-      <c r="H232" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I232" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" s="29" t="s">
+      <c r="H232" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I232" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" s="16" t="s">
         <v>1145</v>
       </c>
-      <c r="K232" s="28">
+      <c r="K232" s="17">
         <v>1591659000</v>
       </c>
-      <c r="L232" s="29" t="s">
+      <c r="L232" s="16" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="233" spans="1:12" s="74" customFormat="1">
+    <row r="233" spans="1:12" s="22" customFormat="1">
       <c r="A233" s="17">
         <v>232</v>
       </c>
-      <c r="B233" s="72">
-        <v>1</v>
-      </c>
-      <c r="C233" s="73" t="s">
+      <c r="B233" s="17">
+        <v>1</v>
+      </c>
+      <c r="C233" s="16" t="s">
         <v>1283</v>
       </c>
-      <c r="D233" s="72" t="s">
+      <c r="D233" s="17" t="s">
         <v>1172</v>
       </c>
-      <c r="E233" s="72"/>
-      <c r="F233" s="72"/>
-      <c r="G233" s="72">
+      <c r="E233" s="17"/>
+      <c r="F233" s="17"/>
+      <c r="G233" s="17">
         <v>186</v>
       </c>
-      <c r="H233" s="72" t="b">
-        <v>1</v>
-      </c>
-      <c r="I233" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" s="72" t="s">
+      <c r="H233" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I233" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" s="17" t="s">
         <v>1175</v>
       </c>
-      <c r="K233" s="72">
+      <c r="K233" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L233" s="72" t="s">
+      <c r="L233" s="17" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="234" spans="1:12" s="24" customFormat="1">
+    <row r="234" spans="1:12" s="22" customFormat="1">
       <c r="A234" s="17">
         <v>233</v>
       </c>
-      <c r="B234" s="28">
-        <v>1</v>
-      </c>
-      <c r="C234" s="29" t="s">
+      <c r="B234" s="17">
+        <v>0</v>
+      </c>
+      <c r="C234" s="16" t="s">
         <v>1200</v>
       </c>
-      <c r="D234" s="29" t="s">
+      <c r="D234" s="16" t="s">
         <v>1182</v>
       </c>
-      <c r="E234" s="28"/>
-      <c r="F234" s="28"/>
-      <c r="G234" s="28">
+      <c r="E234" s="17"/>
+      <c r="F234" s="17"/>
+      <c r="G234" s="17">
         <v>187</v>
       </c>
-      <c r="H234" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I234" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" s="29" t="s">
+      <c r="H234" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I234" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" s="16" t="s">
         <v>1178</v>
       </c>
-      <c r="K234" s="28">
+      <c r="K234" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L234" s="29" t="s">
+      <c r="L234" s="16" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="235" spans="1:12" s="24" customFormat="1">
+    <row r="235" spans="1:12" s="22" customFormat="1">
       <c r="A235" s="17">
         <v>234</v>
       </c>
-      <c r="B235" s="28">
-        <v>1</v>
-      </c>
-      <c r="C235" s="29" t="s">
+      <c r="B235" s="17">
+        <v>0</v>
+      </c>
+      <c r="C235" s="16" t="s">
         <v>1201</v>
       </c>
-      <c r="D235" s="29" t="s">
+      <c r="D235" s="16" t="s">
         <v>1185</v>
       </c>
-      <c r="E235" s="28"/>
-      <c r="F235" s="28"/>
-      <c r="G235" s="28">
+      <c r="E235" s="17"/>
+      <c r="F235" s="17"/>
+      <c r="G235" s="17">
         <v>188</v>
       </c>
-      <c r="H235" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I235" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" s="29" t="s">
+      <c r="H235" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I235" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" s="16" t="s">
         <v>1127</v>
       </c>
-      <c r="K235" s="28">
+      <c r="K235" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L235" s="29" t="s">
+      <c r="L235" s="16" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="236" spans="1:12" s="80" customFormat="1">
+    <row r="236" spans="1:12" s="22" customFormat="1">
       <c r="A236" s="17">
         <v>235</v>
       </c>
-      <c r="B236" s="78">
-        <v>1</v>
-      </c>
-      <c r="C236" s="79" t="s">
+      <c r="B236" s="17">
+        <v>0</v>
+      </c>
+      <c r="C236" s="16" t="s">
         <v>1245</v>
       </c>
-      <c r="D236" s="79" t="s">
+      <c r="D236" s="16" t="s">
         <v>1225</v>
       </c>
-      <c r="E236" s="78"/>
-      <c r="F236" s="78"/>
-      <c r="G236" s="78">
+      <c r="E236" s="17"/>
+      <c r="F236" s="17"/>
+      <c r="G236" s="17">
         <v>189</v>
       </c>
-      <c r="H236" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I236" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" s="79" t="s">
+      <c r="H236" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I236" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" s="16" t="s">
         <v>1190</v>
       </c>
-      <c r="K236" s="78">
+      <c r="K236" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L236" s="79" t="s">
+      <c r="L236" s="16" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="237" spans="1:12" s="80" customFormat="1">
+    <row r="237" spans="1:12" s="22" customFormat="1">
       <c r="A237" s="17">
         <v>236</v>
       </c>
-      <c r="B237" s="78">
-        <v>1</v>
-      </c>
-      <c r="C237" s="79" t="s">
+      <c r="B237" s="17">
+        <v>0</v>
+      </c>
+      <c r="C237" s="16" t="s">
         <v>1503</v>
       </c>
-      <c r="D237" s="79" t="s">
+      <c r="D237" s="16" t="s">
         <v>1188</v>
       </c>
-      <c r="E237" s="78"/>
-      <c r="F237" s="78"/>
-      <c r="G237" s="78">
+      <c r="E237" s="17"/>
+      <c r="F237" s="17"/>
+      <c r="G237" s="17">
         <v>190</v>
       </c>
-      <c r="H237" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I237" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" s="79" t="s">
+      <c r="H237" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I237" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" s="16" t="s">
         <v>1191</v>
       </c>
-      <c r="K237" s="78">
+      <c r="K237" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L237" s="79" t="s">
+      <c r="L237" s="16" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="238" spans="1:12" s="80" customFormat="1">
+    <row r="238" spans="1:12" s="22" customFormat="1">
       <c r="A238" s="17">
         <v>237</v>
       </c>
-      <c r="B238" s="78">
-        <v>1</v>
-      </c>
-      <c r="C238" s="79" t="s">
+      <c r="B238" s="17">
+        <v>0</v>
+      </c>
+      <c r="C238" s="16" t="s">
         <v>1198</v>
       </c>
-      <c r="D238" s="79" t="s">
+      <c r="D238" s="16" t="s">
         <v>1189</v>
       </c>
-      <c r="E238" s="78"/>
-      <c r="F238" s="78"/>
-      <c r="G238" s="78">
+      <c r="E238" s="17"/>
+      <c r="F238" s="17"/>
+      <c r="G238" s="17">
         <v>191</v>
       </c>
-      <c r="H238" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I238" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" s="79" t="s">
+      <c r="H238" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I238" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" s="16" t="s">
         <v>1191</v>
       </c>
-      <c r="K238" s="78">
+      <c r="K238" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L238" s="79" t="s">
+      <c r="L238" s="16" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="239" spans="1:12" s="83" customFormat="1">
+    <row r="239" spans="1:12" s="22" customFormat="1">
       <c r="A239" s="17">
         <v>238</v>
       </c>
-      <c r="B239" s="81">
-        <v>1</v>
-      </c>
-      <c r="C239" s="82" t="s">
+      <c r="B239" s="17">
+        <v>0</v>
+      </c>
+      <c r="C239" s="16" t="s">
         <v>1202</v>
       </c>
-      <c r="D239" s="82" t="s">
+      <c r="D239" s="16" t="s">
         <v>1203</v>
       </c>
-      <c r="E239" s="81"/>
-      <c r="F239" s="81"/>
-      <c r="G239" s="81">
+      <c r="E239" s="17"/>
+      <c r="F239" s="17"/>
+      <c r="G239" s="17">
         <v>192</v>
       </c>
-      <c r="H239" s="81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I239" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" s="82" t="s">
+      <c r="H239" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I239" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" s="16" t="s">
         <v>1212</v>
       </c>
-      <c r="K239" s="81">
+      <c r="K239" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L239" s="82" t="s">
+      <c r="L239" s="16" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="240" spans="1:12" s="87" customFormat="1">
+    <row r="240" spans="1:12" s="22" customFormat="1">
       <c r="A240" s="17">
         <v>239</v>
       </c>
-      <c r="B240" s="85">
-        <v>1</v>
-      </c>
-      <c r="C240" s="86" t="s">
+      <c r="B240" s="17">
+        <v>1</v>
+      </c>
+      <c r="C240" s="16" t="s">
         <v>1391</v>
       </c>
-      <c r="D240" s="86" t="s">
+      <c r="D240" s="16" t="s">
         <v>1207</v>
       </c>
-      <c r="E240" s="85"/>
-      <c r="F240" s="85"/>
-      <c r="G240" s="85">
+      <c r="E240" s="17"/>
+      <c r="F240" s="17"/>
+      <c r="G240" s="17">
         <v>193</v>
       </c>
-      <c r="H240" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I240" s="87" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" s="86" t="s">
+      <c r="H240" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I240" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" s="16" t="s">
         <v>1210</v>
       </c>
-      <c r="K240" s="85">
+      <c r="K240" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L240" s="86" t="s">
+      <c r="L240" s="16" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="241" spans="1:12" s="87" customFormat="1">
+    <row r="241" spans="1:12" s="22" customFormat="1">
       <c r="A241" s="17">
         <v>240</v>
       </c>
-      <c r="B241" s="85">
-        <v>1</v>
-      </c>
-      <c r="C241" s="86" t="s">
+      <c r="B241" s="17">
+        <v>1</v>
+      </c>
+      <c r="C241" s="16" t="s">
         <v>1209</v>
       </c>
-      <c r="D241" s="86" t="s">
+      <c r="D241" s="16" t="s">
         <v>1205</v>
       </c>
-      <c r="E241" s="85"/>
-      <c r="F241" s="85"/>
-      <c r="G241" s="85">
+      <c r="E241" s="17"/>
+      <c r="F241" s="17"/>
+      <c r="G241" s="17">
         <v>194</v>
       </c>
-      <c r="H241" s="85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I241" s="87" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" s="86" t="s">
+      <c r="H241" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I241" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" s="16" t="s">
         <v>1210</v>
       </c>
-      <c r="K241" s="85">
+      <c r="K241" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L241" s="86" t="s">
+      <c r="L241" s="16" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="242" spans="1:12" s="80" customFormat="1">
+    <row r="242" spans="1:12" s="22" customFormat="1">
       <c r="A242" s="17">
         <v>241</v>
       </c>
-      <c r="B242" s="78">
-        <v>1</v>
-      </c>
-      <c r="C242" s="79" t="s">
+      <c r="B242" s="17">
+        <v>1</v>
+      </c>
+      <c r="C242" s="16" t="s">
         <v>1214</v>
       </c>
-      <c r="D242" s="79" t="s">
+      <c r="D242" s="16" t="s">
         <v>1229</v>
       </c>
-      <c r="E242" s="78"/>
-      <c r="F242" s="78"/>
-      <c r="G242" s="78">
+      <c r="E242" s="17"/>
+      <c r="F242" s="17"/>
+      <c r="G242" s="17">
         <v>195</v>
       </c>
-      <c r="H242" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I242" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J242" s="79" t="s">
+      <c r="H242" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I242" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J242" s="16" t="s">
         <v>1190</v>
       </c>
-      <c r="K242" s="78">
+      <c r="K242" s="17">
         <v>1592236800</v>
       </c>
-      <c r="L242" s="79" t="s">
+      <c r="L242" s="16" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="243" spans="1:12" s="80" customFormat="1">
+    <row r="243" spans="1:12" s="22" customFormat="1">
       <c r="A243" s="17">
         <v>242</v>
       </c>
-      <c r="B243" s="78">
-        <v>1</v>
-      </c>
-      <c r="C243" s="79" t="s">
+      <c r="B243" s="17">
+        <v>1</v>
+      </c>
+      <c r="C243" s="16" t="s">
         <v>1217</v>
       </c>
-      <c r="D243" s="79" t="s">
+      <c r="D243" s="16" t="s">
         <v>1228</v>
       </c>
-      <c r="E243" s="78"/>
-      <c r="F243" s="78"/>
-      <c r="G243" s="78">
+      <c r="E243" s="17"/>
+      <c r="F243" s="17"/>
+      <c r="G243" s="17">
         <v>196</v>
       </c>
-      <c r="H243" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I243" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J243" s="79" t="s">
+      <c r="H243" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I243" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J243" s="16" t="s">
         <v>1219</v>
       </c>
-      <c r="K243" s="78">
+      <c r="K243" s="17">
         <v>1592263800</v>
       </c>
-      <c r="L243" s="79" t="s">
+      <c r="L243" s="16" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="244" spans="1:12" s="24" customFormat="1">
+    <row r="244" spans="1:12" s="22" customFormat="1">
       <c r="A244" s="17">
         <v>243</v>
       </c>
-      <c r="B244" s="28">
-        <v>1</v>
-      </c>
-      <c r="C244" s="29" t="s">
+      <c r="B244" s="17">
+        <v>0</v>
+      </c>
+      <c r="C244" s="16" t="s">
         <v>1234</v>
       </c>
-      <c r="D244" s="28" t="s">
+      <c r="D244" s="17" t="s">
         <v>1231</v>
       </c>
-      <c r="E244" s="28"/>
-      <c r="F244" s="28"/>
-      <c r="G244" s="28">
+      <c r="E244" s="17"/>
+      <c r="F244" s="17"/>
+      <c r="G244" s="17">
         <v>198</v>
       </c>
-      <c r="H244" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I244" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J244" s="28" t="s">
+      <c r="H244" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I244" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J244" s="17" t="s">
         <v>1232</v>
       </c>
-      <c r="K244" s="28">
+      <c r="K244" s="17">
         <v>1592841600</v>
       </c>
-      <c r="L244" s="28" t="s">
+      <c r="L244" s="17" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="245" spans="1:12" s="80" customFormat="1">
+    <row r="245" spans="1:12" s="22" customFormat="1">
       <c r="A245" s="17">
         <v>244</v>
       </c>
-      <c r="B245" s="78">
-        <v>1</v>
-      </c>
-      <c r="C245" s="79" t="s">
+      <c r="B245" s="17">
+        <v>0</v>
+      </c>
+      <c r="C245" s="16" t="s">
         <v>1235</v>
       </c>
-      <c r="D245" s="79" t="s">
+      <c r="D245" s="16" t="s">
         <v>1237</v>
       </c>
-      <c r="E245" s="78"/>
-      <c r="F245" s="78"/>
-      <c r="G245" s="78">
+      <c r="E245" s="17"/>
+      <c r="F245" s="17"/>
+      <c r="G245" s="17">
         <v>199</v>
       </c>
-      <c r="H245" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I245" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J245" s="79" t="s">
+      <c r="H245" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I245" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J245" s="16" t="s">
         <v>1239</v>
       </c>
-      <c r="K245" s="78">
+      <c r="K245" s="17">
         <v>1592868600</v>
       </c>
-      <c r="L245" s="79" t="s">
+      <c r="L245" s="16" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="246" spans="1:12" s="80" customFormat="1">
+    <row r="246" spans="1:12" s="22" customFormat="1">
       <c r="A246" s="17">
         <v>245</v>
       </c>
-      <c r="B246" s="78">
-        <v>1</v>
-      </c>
-      <c r="C246" s="79" t="s">
+      <c r="B246" s="17">
+        <v>0</v>
+      </c>
+      <c r="C246" s="16" t="s">
         <v>1236</v>
       </c>
-      <c r="D246" s="79" t="s">
+      <c r="D246" s="16" t="s">
         <v>1238</v>
       </c>
-      <c r="E246" s="78"/>
-      <c r="F246" s="78"/>
-      <c r="G246" s="78">
+      <c r="E246" s="17"/>
+      <c r="F246" s="17"/>
+      <c r="G246" s="17">
         <v>200</v>
       </c>
-      <c r="H246" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I246" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J246" s="79" t="s">
+      <c r="H246" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I246" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246" s="16" t="s">
         <v>1241</v>
       </c>
-      <c r="K246" s="78">
+      <c r="K246" s="17">
         <v>1592868600</v>
       </c>
-      <c r="L246" s="79" t="s">
+      <c r="L246" s="16" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="247" spans="1:12" s="80" customFormat="1">
+    <row r="247" spans="1:12" s="22" customFormat="1">
       <c r="A247" s="17">
         <v>246</v>
       </c>
-      <c r="B247" s="78">
-        <v>1</v>
-      </c>
-      <c r="C247" s="79" t="s">
+      <c r="B247" s="17">
+        <v>0</v>
+      </c>
+      <c r="C247" s="16" t="s">
         <v>1246</v>
       </c>
-      <c r="D247" s="79" t="s">
+      <c r="D247" s="16" t="s">
         <v>1244</v>
       </c>
-      <c r="E247" s="78"/>
-      <c r="F247" s="78"/>
-      <c r="G247" s="78">
+      <c r="E247" s="17"/>
+      <c r="F247" s="17"/>
+      <c r="G247" s="17">
         <v>201</v>
       </c>
-      <c r="H247" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I247" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J247" s="79" t="s">
+      <c r="H247" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I247" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247" s="16" t="s">
         <v>1247</v>
       </c>
-      <c r="K247" s="78">
+      <c r="K247" s="17">
         <v>1592868600</v>
       </c>
-      <c r="L247" s="79" t="s">
+      <c r="L247" s="16" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -23709,7 +23842,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" s="28" t="s">
         <v>1252</v>
@@ -23743,7 +23876,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" s="29" t="s">
         <v>1262</v>
@@ -23782,7 +23915,7 @@
       <c r="C250" s="30" t="s">
         <v>1394</v>
       </c>
-      <c r="D250" s="92" t="s">
+      <c r="D250" s="83" t="s">
         <v>1404</v>
       </c>
       <c r="G250" s="26">
@@ -23814,7 +23947,7 @@
       <c r="C251" s="30" t="s">
         <v>1395</v>
       </c>
-      <c r="D251" s="92" t="s">
+      <c r="D251" s="83" t="s">
         <v>1405</v>
       </c>
       <c r="G251" s="26">
@@ -23846,7 +23979,7 @@
       <c r="C252" s="30" t="s">
         <v>1396</v>
       </c>
-      <c r="D252" s="92" t="s">
+      <c r="D252" s="83" t="s">
         <v>1406</v>
       </c>
       <c r="G252" s="26">
@@ -23878,7 +24011,7 @@
       <c r="C253" s="30" t="s">
         <v>1397</v>
       </c>
-      <c r="D253" s="92" t="s">
+      <c r="D253" s="83" t="s">
         <v>1407</v>
       </c>
       <c r="G253" s="26">
@@ -23910,7 +24043,7 @@
       <c r="C254" s="30" t="s">
         <v>1398</v>
       </c>
-      <c r="D254" s="92" t="s">
+      <c r="D254" s="83" t="s">
         <v>1408</v>
       </c>
       <c r="G254" s="26">
@@ -23942,7 +24075,7 @@
       <c r="C255" s="30" t="s">
         <v>1399</v>
       </c>
-      <c r="D255" s="92" t="s">
+      <c r="D255" s="83" t="s">
         <v>1409</v>
       </c>
       <c r="G255" s="26">
@@ -23974,7 +24107,7 @@
       <c r="C256" s="30" t="s">
         <v>1400</v>
       </c>
-      <c r="D256" s="92" t="s">
+      <c r="D256" s="83" t="s">
         <v>1410</v>
       </c>
       <c r="G256" s="26">
@@ -24006,7 +24139,7 @@
       <c r="C257" s="30" t="s">
         <v>1401</v>
       </c>
-      <c r="D257" s="92" t="s">
+      <c r="D257" s="83" t="s">
         <v>1411</v>
       </c>
       <c r="G257" s="26">
@@ -24038,7 +24171,7 @@
       <c r="C258" s="30" t="s">
         <v>1402</v>
       </c>
-      <c r="D258" s="92" t="s">
+      <c r="D258" s="83" t="s">
         <v>1412</v>
       </c>
       <c r="G258" s="26">
@@ -24070,7 +24203,7 @@
       <c r="C259" s="30" t="s">
         <v>1403</v>
       </c>
-      <c r="D259" s="92" t="s">
+      <c r="D259" s="83" t="s">
         <v>1413</v>
       </c>
       <c r="G259" s="26">
@@ -24097,7 +24230,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" s="16" t="s">
         <v>1480</v>
@@ -24129,7 +24262,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" s="16" t="s">
         <v>1479</v>
@@ -24161,7 +24294,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" s="30" t="s">
         <v>1481</v>
@@ -24193,7 +24326,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" s="53" t="s">
         <v>1483</v>
@@ -24225,7 +24358,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264" s="30" t="s">
         <v>1497</v>
@@ -24257,7 +24390,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265" s="26" t="s">
         <v>1498</v>
@@ -24289,7 +24422,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" s="30" t="s">
         <v>1513</v>
@@ -24321,7 +24454,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" s="30" t="s">
         <v>1504</v>
@@ -24353,7 +24486,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" s="30" t="s">
         <v>1505</v>
@@ -24385,7 +24518,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" s="30" t="s">
         <v>1506</v>
@@ -24416,8 +24549,8 @@
       <c r="A270" s="17">
         <v>269</v>
       </c>
-      <c r="B270" s="17">
-        <v>1</v>
+      <c r="B270" s="26">
+        <v>0</v>
       </c>
       <c r="C270" s="16" t="s">
         <v>1534</v>
@@ -24450,8 +24583,8 @@
       <c r="A271" s="17">
         <v>270</v>
       </c>
-      <c r="B271" s="17">
-        <v>1</v>
+      <c r="B271" s="26">
+        <v>0</v>
       </c>
       <c r="C271" s="16" t="s">
         <v>1526</v>
@@ -24484,8 +24617,8 @@
       <c r="A272" s="17">
         <v>271</v>
       </c>
-      <c r="B272" s="17">
-        <v>1</v>
+      <c r="B272" s="26">
+        <v>0</v>
       </c>
       <c r="C272" s="16" t="s">
         <v>1533</v>
@@ -24518,8 +24651,8 @@
       <c r="A273" s="17">
         <v>272</v>
       </c>
-      <c r="B273" s="17">
-        <v>1</v>
+      <c r="B273" s="26">
+        <v>0</v>
       </c>
       <c r="C273" s="17" t="s">
         <v>1531</v>
@@ -24552,8 +24685,8 @@
       <c r="A274" s="17">
         <v>273</v>
       </c>
-      <c r="B274" s="17">
-        <v>1</v>
+      <c r="B274" s="26">
+        <v>0</v>
       </c>
       <c r="C274" s="16" t="s">
         <v>1543</v>
@@ -24586,8 +24719,8 @@
       <c r="A275" s="17">
         <v>274</v>
       </c>
-      <c r="B275" s="17">
-        <v>1</v>
+      <c r="B275" s="26">
+        <v>0</v>
       </c>
       <c r="C275" s="16" t="s">
         <v>1581</v>
@@ -24620,8 +24753,8 @@
       <c r="A276" s="17">
         <v>275</v>
       </c>
-      <c r="B276" s="17">
-        <v>1</v>
+      <c r="B276" s="26">
+        <v>0</v>
       </c>
       <c r="C276" s="16" t="s">
         <v>1536</v>
@@ -24654,8 +24787,8 @@
       <c r="A277" s="17">
         <v>276</v>
       </c>
-      <c r="B277" s="17">
-        <v>1</v>
+      <c r="B277" s="26">
+        <v>0</v>
       </c>
       <c r="C277" s="16" t="s">
         <v>1577</v>
@@ -24688,8 +24821,8 @@
       <c r="A278" s="17">
         <v>277</v>
       </c>
-      <c r="B278" s="17">
-        <v>1</v>
+      <c r="B278" s="26">
+        <v>0</v>
       </c>
       <c r="C278" s="16" t="s">
         <v>1653</v>
@@ -24718,173 +24851,173 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="279" spans="1:12" s="97" customFormat="1">
-      <c r="A279" s="95">
+    <row r="279" spans="1:12" s="88" customFormat="1">
+      <c r="A279" s="86">
         <v>278</v>
       </c>
-      <c r="B279" s="95">
+      <c r="B279" s="86">
         <v>0</v>
       </c>
-      <c r="C279" s="96" t="s">
+      <c r="C279" s="87" t="s">
         <v>1597</v>
       </c>
-      <c r="D279" s="96" t="s">
+      <c r="D279" s="87" t="s">
         <v>1663</v>
       </c>
-      <c r="E279" s="95"/>
-      <c r="F279" s="95"/>
-      <c r="G279" s="95">
+      <c r="E279" s="86"/>
+      <c r="F279" s="86"/>
+      <c r="G279" s="86">
         <v>282</v>
       </c>
-      <c r="H279" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I279" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J279" s="96" t="s">
+      <c r="H279" s="86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I279" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J279" s="87" t="s">
         <v>1127</v>
       </c>
-      <c r="K279" s="95">
+      <c r="K279" s="86">
         <v>1598916600</v>
       </c>
-      <c r="L279" s="96" t="s">
+      <c r="L279" s="87" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="280" spans="1:12" s="97" customFormat="1">
-      <c r="A280" s="95">
+    <row r="280" spans="1:12" s="88" customFormat="1">
+      <c r="A280" s="86">
         <v>279</v>
       </c>
-      <c r="B280" s="95">
+      <c r="B280" s="86">
         <v>0</v>
       </c>
-      <c r="C280" s="96" t="s">
+      <c r="C280" s="87" t="s">
         <v>1598</v>
       </c>
-      <c r="D280" s="96" t="s">
+      <c r="D280" s="87" t="s">
         <v>1584</v>
       </c>
-      <c r="E280" s="95"/>
-      <c r="F280" s="95"/>
-      <c r="G280" s="95">
+      <c r="E280" s="86"/>
+      <c r="F280" s="86"/>
+      <c r="G280" s="86">
         <v>283</v>
       </c>
-      <c r="H280" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I280" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J280" s="96" t="s">
+      <c r="H280" s="86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I280" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J280" s="87" t="s">
         <v>1127</v>
       </c>
-      <c r="K280" s="95">
+      <c r="K280" s="86">
         <v>1598916600</v>
       </c>
-      <c r="L280" s="96" t="s">
+      <c r="L280" s="87" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="281" spans="1:12" s="97" customFormat="1">
-      <c r="A281" s="95">
+    <row r="281" spans="1:12" s="88" customFormat="1">
+      <c r="A281" s="86">
         <v>280</v>
       </c>
-      <c r="B281" s="95">
+      <c r="B281" s="86">
         <v>0</v>
       </c>
-      <c r="C281" s="96" t="s">
+      <c r="C281" s="87" t="s">
         <v>1599</v>
       </c>
-      <c r="D281" s="96" t="s">
+      <c r="D281" s="87" t="s">
         <v>1585</v>
       </c>
-      <c r="E281" s="95"/>
-      <c r="F281" s="95"/>
-      <c r="G281" s="95">
+      <c r="E281" s="86"/>
+      <c r="F281" s="86"/>
+      <c r="G281" s="86">
         <v>284</v>
       </c>
-      <c r="H281" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I281" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J281" s="96" t="s">
+      <c r="H281" s="86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I281" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J281" s="87" t="s">
         <v>1127</v>
       </c>
-      <c r="K281" s="95">
+      <c r="K281" s="86">
         <v>1598916600</v>
       </c>
-      <c r="L281" s="96" t="s">
+      <c r="L281" s="87" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="282" spans="1:12" s="97" customFormat="1">
-      <c r="A282" s="95">
+    <row r="282" spans="1:12" s="88" customFormat="1">
+      <c r="A282" s="86">
         <v>281</v>
       </c>
-      <c r="B282" s="95">
+      <c r="B282" s="86">
         <v>0</v>
       </c>
-      <c r="C282" s="96" t="s">
+      <c r="C282" s="87" t="s">
         <v>1600</v>
       </c>
-      <c r="D282" s="96" t="s">
+      <c r="D282" s="87" t="s">
         <v>1586</v>
       </c>
-      <c r="E282" s="95"/>
-      <c r="F282" s="95"/>
-      <c r="G282" s="95">
+      <c r="E282" s="86"/>
+      <c r="F282" s="86"/>
+      <c r="G282" s="86">
         <v>285</v>
       </c>
-      <c r="H282" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I282" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J282" s="96" t="s">
+      <c r="H282" s="86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I282" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J282" s="87" t="s">
         <v>1127</v>
       </c>
-      <c r="K282" s="95">
+      <c r="K282" s="86">
         <v>1598916600</v>
       </c>
-      <c r="L282" s="96" t="s">
+      <c r="L282" s="87" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="283" spans="1:12" s="97" customFormat="1">
-      <c r="A283" s="95">
+    <row r="283" spans="1:12" s="88" customFormat="1">
+      <c r="A283" s="86">
         <v>282</v>
       </c>
-      <c r="B283" s="95">
+      <c r="B283" s="86">
         <v>0</v>
       </c>
-      <c r="C283" s="96" t="s">
+      <c r="C283" s="87" t="s">
         <v>1601</v>
       </c>
-      <c r="D283" s="96" t="s">
+      <c r="D283" s="87" t="s">
         <v>1587</v>
       </c>
-      <c r="E283" s="95"/>
-      <c r="F283" s="95"/>
-      <c r="G283" s="95">
+      <c r="E283" s="86"/>
+      <c r="F283" s="86"/>
+      <c r="G283" s="86">
         <v>286</v>
       </c>
-      <c r="H283" s="95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I283" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J283" s="96" t="s">
+      <c r="H283" s="86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I283" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J283" s="87" t="s">
         <v>1127</v>
       </c>
-      <c r="K283" s="95">
+      <c r="K283" s="86">
         <v>1598916600</v>
       </c>
-      <c r="L283" s="96" t="s">
+      <c r="L283" s="87" t="s">
         <v>1176</v>
       </c>
     </row>
@@ -24893,10 +25026,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D284" s="17" t="s">
         <v>1614</v>
@@ -24927,7 +25060,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C285" s="16" t="s">
         <v>1652</v>
@@ -24961,7 +25094,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" s="17" t="s">
         <v>1640</v>
@@ -24995,7 +25128,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" s="17" t="s">
         <v>1623</v>
@@ -25029,7 +25162,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" s="16" t="s">
         <v>1631</v>
@@ -25058,140 +25191,140 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="289" spans="1:12" s="80" customFormat="1">
-      <c r="A289" s="78">
+    <row r="289" spans="1:12" s="77" customFormat="1">
+      <c r="A289" s="75">
         <v>288</v>
       </c>
-      <c r="B289" s="78">
-        <v>1</v>
-      </c>
-      <c r="C289" s="78" t="s">
+      <c r="B289" s="75">
+        <v>0</v>
+      </c>
+      <c r="C289" s="121" t="s">
         <v>1641</v>
       </c>
-      <c r="D289" s="78" t="s">
+      <c r="D289" s="121" t="s">
         <v>1642</v>
       </c>
-      <c r="E289" s="78"/>
-      <c r="F289" s="78"/>
-      <c r="G289" s="78">
+      <c r="E289" s="75"/>
+      <c r="F289" s="75"/>
+      <c r="G289" s="75">
         <v>294</v>
       </c>
-      <c r="H289" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I289" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J289" s="78" t="s">
+      <c r="H289" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I289" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J289" s="75" t="s">
         <v>1647</v>
       </c>
-      <c r="K289" s="78">
+      <c r="K289" s="75">
         <v>1605542400</v>
       </c>
-      <c r="L289" s="78" t="s">
+      <c r="L289" s="75" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" s="77" customFormat="1">
+      <c r="A290" s="75">
+        <v>289</v>
+      </c>
+      <c r="B290" s="75">
+        <v>0</v>
+      </c>
+      <c r="C290" s="121" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D290" s="121" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E290" s="75"/>
+      <c r="F290" s="75"/>
+      <c r="G290" s="75">
+        <v>295</v>
+      </c>
+      <c r="H290" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I290" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J290" s="75" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K290" s="75">
+        <v>1605542400</v>
+      </c>
+      <c r="L290" s="75" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" s="77" customFormat="1">
+      <c r="A291" s="75">
+        <v>290</v>
+      </c>
+      <c r="B291" s="75">
+        <v>0</v>
+      </c>
+      <c r="C291" s="120" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D291" s="121" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E291" s="75"/>
+      <c r="F291" s="75"/>
+      <c r="G291" s="75">
+        <v>296</v>
+      </c>
+      <c r="H291" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I291" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J291" s="75" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K291" s="75">
+        <v>1605542400</v>
+      </c>
+      <c r="L291" s="75" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" s="77" customFormat="1">
+      <c r="A292" s="75">
+        <v>291</v>
+      </c>
+      <c r="B292" s="75">
+        <v>0</v>
+      </c>
+      <c r="C292" s="120" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D292" s="120" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E292" s="75"/>
+      <c r="F292" s="75"/>
+      <c r="G292" s="75">
+        <v>297</v>
+      </c>
+      <c r="H292" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I292" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J292" s="75" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K292" s="99">
+        <v>1605542400</v>
+      </c>
+      <c r="L292" s="100" t="s">
         <v>1844</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" s="80" customFormat="1">
-      <c r="A290" s="78">
-        <v>289</v>
-      </c>
-      <c r="B290" s="78">
-        <v>1</v>
-      </c>
-      <c r="C290" s="78" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D290" s="78" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E290" s="78"/>
-      <c r="F290" s="78"/>
-      <c r="G290" s="78">
-        <v>295</v>
-      </c>
-      <c r="H290" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I290" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J290" s="78" t="s">
-        <v>1647</v>
-      </c>
-      <c r="K290" s="78">
-        <v>1605542400</v>
-      </c>
-      <c r="L290" s="78" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" s="80" customFormat="1">
-      <c r="A291" s="78">
-        <v>290</v>
-      </c>
-      <c r="B291" s="78">
-        <v>1</v>
-      </c>
-      <c r="C291" s="79" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D291" s="78" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E291" s="78"/>
-      <c r="F291" s="78"/>
-      <c r="G291" s="78">
-        <v>296</v>
-      </c>
-      <c r="H291" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I291" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J291" s="78" t="s">
-        <v>1647</v>
-      </c>
-      <c r="K291" s="78">
-        <v>1605542400</v>
-      </c>
-      <c r="L291" s="78" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" s="80" customFormat="1">
-      <c r="A292" s="78">
-        <v>291</v>
-      </c>
-      <c r="B292" s="78">
-        <v>1</v>
-      </c>
-      <c r="C292" s="79" t="s">
-        <v>1843</v>
-      </c>
-      <c r="D292" s="79" t="s">
-        <v>1965</v>
-      </c>
-      <c r="E292" s="78"/>
-      <c r="F292" s="78"/>
-      <c r="G292" s="78">
-        <v>297</v>
-      </c>
-      <c r="H292" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I292" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J292" s="78" t="s">
-        <v>1647</v>
-      </c>
-      <c r="K292" s="108">
-        <v>1605542400</v>
-      </c>
-      <c r="L292" s="109" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -25426,7 +25559,7 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D300" s="16" t="s">
         <v>1666</v>
@@ -25554,7 +25687,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1673</v>
@@ -25935,7 +26068,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" s="16" t="s">
         <v>1713</v>
@@ -25969,7 +26102,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C317" s="30" t="s">
         <v>1718</v>
@@ -26001,10 +26134,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D318" s="30" t="s">
         <v>1717</v>
@@ -26033,7 +26166,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" s="26" t="s">
         <v>1719</v>
@@ -26068,7 +26201,7 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D320" s="16" t="s">
         <v>1721</v>
@@ -26092,35 +26225,37 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="321" spans="1:12">
-      <c r="A321" s="26">
+    <row r="321" spans="1:12" s="122" customFormat="1">
+      <c r="A321" s="121">
         <v>320</v>
       </c>
-      <c r="B321" s="26">
-        <v>1</v>
-      </c>
-      <c r="C321" s="30" t="s">
+      <c r="B321" s="121">
+        <v>1</v>
+      </c>
+      <c r="C321" s="120" t="s">
         <v>1727</v>
       </c>
-      <c r="D321" s="26" t="s">
-        <v>1728</v>
-      </c>
-      <c r="G321" s="26">
+      <c r="D321" s="120" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E321" s="121"/>
+      <c r="F321" s="121"/>
+      <c r="G321" s="121">
         <v>325</v>
       </c>
-      <c r="H321" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I321" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J321" s="16" t="s">
+      <c r="H321" s="121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I321" s="122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J321" s="120" t="s">
         <v>1127</v>
       </c>
-      <c r="K321" s="26">
+      <c r="K321" s="121">
         <v>1601335800</v>
       </c>
-      <c r="L321" s="30" t="s">
+      <c r="L321" s="120" t="s">
         <v>1716</v>
       </c>
     </row>
@@ -26129,13 +26264,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -26153,7 +26288,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -26161,13 +26296,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -26185,7 +26320,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -26196,10 +26331,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -26211,7 +26346,7 @@
         <v>1</v>
       </c>
       <c r="J324" s="16" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="K324" s="26">
         <v>1598916600</v>
@@ -26228,10 +26363,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -26257,13 +26392,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="26">
-        <v>1</v>
-      </c>
-      <c r="C326" s="117" t="s">
-        <v>1786</v>
-      </c>
-      <c r="D326" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C326" s="120" t="s">
         <v>1785</v>
+      </c>
+      <c r="D326" s="120" t="s">
+        <v>1784</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -26281,7 +26416,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -26289,13 +26424,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="26">
-        <v>1</v>
-      </c>
-      <c r="C327" s="117" t="s">
-        <v>1787</v>
-      </c>
-      <c r="D327" s="30" t="s">
-        <v>1780</v>
+        <v>0</v>
+      </c>
+      <c r="C327" s="120" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D327" s="120" t="s">
+        <v>1779</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -26313,7 +26448,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -26324,10 +26459,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -26356,10 +26491,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D329" s="26" t="s">
         <v>1816</v>
-      </c>
-      <c r="D329" s="26" t="s">
-        <v>1817</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -26388,10 +26523,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -26403,7 +26538,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -26420,10 +26555,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D331" s="26" t="s">
         <v>1819</v>
-      </c>
-      <c r="D331" s="26" t="s">
-        <v>1820</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -26444,38 +26579,38 @@
         <v>467</v>
       </c>
     </row>
-    <row r="332" spans="1:12" s="102" customFormat="1">
-      <c r="A332" s="100">
+    <row r="332" spans="1:12" s="93" customFormat="1">
+      <c r="A332" s="91">
         <v>331</v>
       </c>
-      <c r="B332" s="100">
-        <v>1</v>
-      </c>
-      <c r="C332" s="101" t="s">
-        <v>1996</v>
-      </c>
-      <c r="D332" s="101" t="s">
-        <v>1823</v>
-      </c>
-      <c r="E332" s="100"/>
-      <c r="F332" s="100"/>
-      <c r="G332" s="100">
+      <c r="B332" s="91">
+        <v>0</v>
+      </c>
+      <c r="C332" s="92" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D332" s="92" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E332" s="91"/>
+      <c r="F332" s="91"/>
+      <c r="G332" s="91">
         <v>336</v>
       </c>
-      <c r="H332" s="100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I332" s="102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" s="100" t="s">
+      <c r="H332" s="91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I332" s="93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" s="91" t="s">
         <v>466</v>
       </c>
-      <c r="K332" s="100">
+      <c r="K332" s="91">
         <v>1604332800</v>
       </c>
-      <c r="L332" s="101" t="s">
-        <v>1825</v>
+      <c r="L332" s="92" t="s">
+        <v>1824</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -26486,10 +26621,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G333" s="26">
         <v>337</v>
@@ -26501,7 +26636,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -26518,10 +26653,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -26552,10 +26687,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="16" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D335" s="16" t="s">
         <v>1891</v>
-      </c>
-      <c r="D335" s="16" t="s">
-        <v>1892</v>
       </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
@@ -26574,8 +26709,8 @@
       <c r="K335" s="17">
         <v>1606176000</v>
       </c>
-      <c r="L335" s="119" t="s">
-        <v>2022</v>
+      <c r="L335" s="109" t="s">
+        <v>2021</v>
       </c>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1">
@@ -26586,10 +26721,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="16" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D336" s="16" t="s">
         <v>1893</v>
-      </c>
-      <c r="D336" s="16" t="s">
-        <v>1894</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -26603,13 +26738,13 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
       </c>
-      <c r="L336" s="119" t="s">
-        <v>2022</v>
+      <c r="L336" s="109" t="s">
+        <v>2021</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -26620,10 +26755,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -26652,10 +26787,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -26685,11 +26820,11 @@
       <c r="B339" s="26">
         <v>1</v>
       </c>
-      <c r="C339" s="79" t="s">
-        <v>1977</v>
+      <c r="C339" s="76" t="s">
+        <v>1976</v>
       </c>
       <c r="D339" s="30" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G339" s="26">
         <v>357</v>
@@ -26717,11 +26852,11 @@
       <c r="B340" s="26">
         <v>1</v>
       </c>
-      <c r="C340" s="79" t="s">
-        <v>1978</v>
+      <c r="C340" s="76" t="s">
+        <v>1977</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G340" s="26">
         <v>358</v>
@@ -26749,11 +26884,11 @@
       <c r="B341" s="26">
         <v>1</v>
       </c>
-      <c r="C341" s="79" t="s">
-        <v>1979</v>
+      <c r="C341" s="76" t="s">
+        <v>1978</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G341" s="26">
         <v>359</v>
@@ -26781,11 +26916,11 @@
       <c r="B342" s="26">
         <v>1</v>
       </c>
-      <c r="C342" s="79" t="s">
-        <v>1980</v>
+      <c r="C342" s="76" t="s">
+        <v>1979</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G342" s="26">
         <v>361</v>
@@ -26813,11 +26948,11 @@
       <c r="B343" s="26">
         <v>1</v>
       </c>
-      <c r="C343" s="79" t="s">
-        <v>1981</v>
+      <c r="C343" s="76" t="s">
+        <v>1980</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G343" s="26">
         <v>362</v>
@@ -26845,11 +26980,11 @@
       <c r="B344" s="26">
         <v>1</v>
       </c>
-      <c r="C344" s="79" t="s">
-        <v>1982</v>
+      <c r="C344" s="76" t="s">
+        <v>1981</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G344" s="26">
         <v>363</v>
@@ -26877,11 +27012,11 @@
       <c r="B345" s="26">
         <v>1</v>
       </c>
-      <c r="C345" s="79" t="s">
-        <v>1985</v>
+      <c r="C345" s="76" t="s">
+        <v>1984</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="G345" s="26">
         <v>364</v>
@@ -26910,10 +27045,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="30" t="s">
-        <v>1988</v>
-      </c>
-      <c r="D346" s="92" t="s">
-        <v>1990</v>
+        <v>1987</v>
+      </c>
+      <c r="D346" s="83" t="s">
+        <v>1989</v>
       </c>
       <c r="G346" s="26">
         <v>365</v>
@@ -26942,10 +27077,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="30" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D347" s="92" t="s">
-        <v>1991</v>
+        <v>1988</v>
+      </c>
+      <c r="D347" s="83" t="s">
+        <v>1990</v>
       </c>
       <c r="G347" s="26">
         <v>366</v>
@@ -26973,11 +27108,11 @@
       <c r="B348" s="17">
         <v>1</v>
       </c>
-      <c r="C348" s="16" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D348" s="16" t="s">
-        <v>1823</v>
+      <c r="C348" s="120" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D348" s="120" t="s">
+        <v>2079</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="17"/>
@@ -26996,178 +27131,314 @@
       <c r="K348" s="17">
         <v>1604332800</v>
       </c>
-      <c r="L348" s="16" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="349" spans="1:12" s="120" customFormat="1">
-      <c r="A349" s="118">
+      <c r="L348" s="30" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" s="110" customFormat="1">
+      <c r="A349" s="108">
         <v>348</v>
       </c>
-      <c r="B349" s="118">
-        <v>1</v>
-      </c>
-      <c r="C349" s="118" t="s">
+      <c r="B349" s="108">
+        <v>1</v>
+      </c>
+      <c r="C349" s="108" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D349" s="108" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E349" s="108"/>
+      <c r="F349" s="108"/>
+      <c r="G349" s="108">
+        <v>370</v>
+      </c>
+      <c r="H349" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I349" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J349" s="109" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K349" s="108">
+        <v>1610409600</v>
+      </c>
+      <c r="L349" s="109" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" s="110" customFormat="1">
+      <c r="A350" s="108">
+        <v>349</v>
+      </c>
+      <c r="B350" s="108">
+        <v>1</v>
+      </c>
+      <c r="C350" s="108" t="s">
         <v>2015</v>
       </c>
-      <c r="D349" s="118" t="s">
+      <c r="D350" s="108" t="s">
         <v>2017</v>
       </c>
-      <c r="E349" s="118"/>
-      <c r="F349" s="118"/>
-      <c r="G349" s="118">
-        <v>370</v>
-      </c>
-      <c r="H349" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="I349" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J349" s="119" t="s">
+      <c r="E350" s="108"/>
+      <c r="F350" s="108"/>
+      <c r="G350" s="108">
+        <v>371</v>
+      </c>
+      <c r="H350" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I350" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J350" s="109" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K350" s="108">
+        <v>1610409600</v>
+      </c>
+      <c r="L350" s="109" t="s">
         <v>2021</v>
       </c>
-      <c r="K349" s="118">
-        <v>1610409600</v>
-      </c>
-      <c r="L349" s="119" t="s">
+    </row>
+    <row r="351" spans="1:12" s="110" customFormat="1">
+      <c r="A351" s="108">
+        <v>350</v>
+      </c>
+      <c r="B351" s="108">
+        <v>1</v>
+      </c>
+      <c r="C351" s="109" t="s">
         <v>2022</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" s="120" customFormat="1">
-      <c r="A350" s="118">
-        <v>349</v>
-      </c>
-      <c r="B350" s="118">
-        <v>1</v>
-      </c>
-      <c r="C350" s="118" t="s">
-        <v>2016</v>
-      </c>
-      <c r="D350" s="118" t="s">
-        <v>2018</v>
-      </c>
-      <c r="E350" s="118"/>
-      <c r="F350" s="118"/>
-      <c r="G350" s="118">
-        <v>371</v>
-      </c>
-      <c r="H350" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="I350" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J350" s="119" t="s">
+      <c r="D351" s="109" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E351" s="108"/>
+      <c r="F351" s="108"/>
+      <c r="G351" s="108">
+        <v>372</v>
+      </c>
+      <c r="H351" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I351" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J351" s="109" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K351" s="108">
+        <v>1610380800</v>
+      </c>
+      <c r="L351" s="109" t="s">
         <v>2021</v>
       </c>
-      <c r="K350" s="118">
-        <v>1610409600</v>
-      </c>
-      <c r="L350" s="119" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="351" spans="1:12" s="120" customFormat="1">
-      <c r="A351" s="118">
-        <v>350</v>
-      </c>
-      <c r="B351" s="118">
-        <v>1</v>
-      </c>
-      <c r="C351" s="119" t="s">
+    </row>
+    <row r="352" spans="1:12" s="110" customFormat="1">
+      <c r="A352" s="108">
+        <v>351</v>
+      </c>
+      <c r="B352" s="108">
+        <v>1</v>
+      </c>
+      <c r="C352" s="109" t="s">
         <v>2023</v>
       </c>
-      <c r="D351" s="119" t="s">
+      <c r="D352" s="109" t="s">
         <v>2025</v>
       </c>
-      <c r="E351" s="118"/>
-      <c r="F351" s="118"/>
-      <c r="G351" s="118">
-        <v>372</v>
-      </c>
-      <c r="H351" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="I351" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J351" s="119" t="s">
+      <c r="E352" s="108"/>
+      <c r="F352" s="108"/>
+      <c r="G352" s="108">
+        <v>373</v>
+      </c>
+      <c r="H352" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I352" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J352" s="109" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K352" s="108">
+        <v>1610380800</v>
+      </c>
+      <c r="L352" s="109" t="s">
         <v>2021</v>
       </c>
-      <c r="K351" s="118">
-        <v>1610380800</v>
-      </c>
-      <c r="L351" s="119" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="352" spans="1:12" s="120" customFormat="1">
-      <c r="A352" s="118">
-        <v>351</v>
-      </c>
-      <c r="B352" s="118">
-        <v>1</v>
-      </c>
-      <c r="C352" s="119" t="s">
-        <v>2024</v>
-      </c>
-      <c r="D352" s="119" t="s">
-        <v>2026</v>
-      </c>
-      <c r="E352" s="118"/>
-      <c r="F352" s="118"/>
-      <c r="G352" s="118">
-        <v>373</v>
-      </c>
-      <c r="H352" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="I352" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J352" s="119" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K352" s="118">
-        <v>1610380800</v>
-      </c>
-      <c r="L352" s="119" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="353" spans="1:12" s="120" customFormat="1">
-      <c r="A353" s="118">
+    </row>
+    <row r="353" spans="1:12" s="110" customFormat="1">
+      <c r="A353" s="108">
         <v>352</v>
       </c>
-      <c r="B353" s="118">
-        <v>1</v>
-      </c>
-      <c r="C353" s="121" t="s">
-        <v>2049</v>
-      </c>
-      <c r="D353" s="118" t="s">
-        <v>2050</v>
-      </c>
-      <c r="E353" s="118"/>
-      <c r="F353" s="118"/>
-      <c r="G353" s="118">
+      <c r="B353" s="108">
+        <v>1</v>
+      </c>
+      <c r="C353" s="111" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D353" s="108" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E353" s="108"/>
+      <c r="F353" s="108"/>
+      <c r="G353" s="108">
         <v>380</v>
       </c>
-      <c r="H353" s="118" t="b">
+      <c r="H353" s="108" t="b">
         <v>0</v>
       </c>
-      <c r="I353" s="120" t="b">
+      <c r="I353" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="J353" s="118" t="s">
+      <c r="J353" s="108" t="s">
         <v>466</v>
       </c>
-      <c r="K353" s="118">
+      <c r="K353" s="108">
         <v>0</v>
       </c>
-      <c r="L353" s="122">
+      <c r="L353" s="112">
         <v>44201</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12">
+      <c r="A354" s="17">
+        <v>353</v>
+      </c>
+      <c r="B354" s="17">
+        <v>1</v>
+      </c>
+      <c r="C354" s="114" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D354" s="114" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E354" s="115"/>
+      <c r="F354" s="115"/>
+      <c r="G354" s="115">
+        <v>382</v>
+      </c>
+      <c r="H354" s="115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I354" s="116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J354" s="115" t="s">
+        <v>466</v>
+      </c>
+      <c r="K354" s="115">
+        <v>1611014400</v>
+      </c>
+      <c r="L354" s="114" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12">
+      <c r="A355" s="17">
+        <v>354</v>
+      </c>
+      <c r="B355" s="17">
+        <v>1</v>
+      </c>
+      <c r="C355" s="114" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D355" s="114" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E355" s="115"/>
+      <c r="F355" s="115"/>
+      <c r="G355" s="115">
+        <v>383</v>
+      </c>
+      <c r="H355" s="115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I355" s="116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J355" s="115" t="s">
+        <v>466</v>
+      </c>
+      <c r="K355" s="115">
+        <v>1611014400</v>
+      </c>
+      <c r="L355" s="114" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12">
+      <c r="A356" s="17">
+        <v>355</v>
+      </c>
+      <c r="B356" s="17">
+        <v>1</v>
+      </c>
+      <c r="C356" s="114" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D356" s="114" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E356" s="115"/>
+      <c r="F356" s="115"/>
+      <c r="G356" s="115">
+        <v>384</v>
+      </c>
+      <c r="H356" s="115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I356" s="116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J356" s="115" t="s">
+        <v>466</v>
+      </c>
+      <c r="K356" s="115">
+        <v>1611014400</v>
+      </c>
+      <c r="L356" s="114" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12">
+      <c r="A357" s="17">
+        <v>356</v>
+      </c>
+      <c r="B357" s="26">
+        <v>1</v>
+      </c>
+      <c r="C357" s="127" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D357" s="125" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E357" s="125"/>
+      <c r="F357" s="125"/>
+      <c r="G357" s="125">
+        <v>387</v>
+      </c>
+      <c r="H357" s="125" t="b">
+        <v>1</v>
+      </c>
+      <c r="I357" s="125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J357" s="125" t="s">
+        <v>466</v>
+      </c>
+      <c r="K357" s="125">
+        <v>1611014400</v>
+      </c>
+      <c r="L357" s="126" t="s">
+        <v>2061</v>
       </c>
     </row>
   </sheetData>
@@ -27181,13 +27452,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I937"/>
+  <dimension ref="A1:I949"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C905" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C920" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G936" sqref="G936"/>
+      <selection pane="bottomRight" activeCell="B937" sqref="B937"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27330,7 +27601,7 @@
       <c r="C5" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="81">
         <v>1</v>
       </c>
       <c r="E5" s="14">
@@ -27356,7 +27627,7 @@
       <c r="C6" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="81">
         <v>3</v>
       </c>
       <c r="E6" s="14">
@@ -27379,7 +27650,7 @@
       <c r="C7" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="81">
         <v>4</v>
       </c>
       <c r="E7" s="14">
@@ -27405,7 +27676,7 @@
       <c r="C8" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="81">
         <v>7</v>
       </c>
       <c r="E8" s="14">
@@ -27428,7 +27699,7 @@
       <c r="C9" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="81">
         <v>8</v>
       </c>
       <c r="E9" s="14">
@@ -29384,7 +29655,7 @@
         <v>863</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -30546,152 +30817,152 @@
         <v>919</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="112" customFormat="1">
-      <c r="A145" s="112">
+    <row r="145" spans="1:9" s="103" customFormat="1">
+      <c r="A145" s="103">
         <v>144</v>
       </c>
-      <c r="B145" s="112">
+      <c r="B145" s="103">
         <v>72</v>
       </c>
-      <c r="C145" s="113" t="s">
+      <c r="C145" s="104" t="s">
         <v>863</v>
       </c>
-      <c r="D145" s="113" t="s">
+      <c r="D145" s="104" t="s">
         <v>928</v>
       </c>
-      <c r="E145" s="112">
-        <v>2</v>
-      </c>
-      <c r="F145" s="112">
-        <v>1</v>
-      </c>
-      <c r="G145" s="113" t="s">
+      <c r="E145" s="103">
+        <v>2</v>
+      </c>
+      <c r="F145" s="103">
+        <v>1</v>
+      </c>
+      <c r="G145" s="104" t="s">
         <v>929</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
     </row>
-    <row r="146" spans="1:9" s="112" customFormat="1">
-      <c r="A146" s="112">
+    <row r="146" spans="1:9" s="103" customFormat="1">
+      <c r="A146" s="103">
         <v>145</v>
       </c>
-      <c r="B146" s="112">
+      <c r="B146" s="103">
         <v>72</v>
       </c>
-      <c r="C146" s="113" t="s">
+      <c r="C146" s="104" t="s">
         <v>1043</v>
       </c>
-      <c r="D146" s="113" t="s">
+      <c r="D146" s="104" t="s">
         <v>1055</v>
       </c>
-      <c r="E146" s="112">
-        <v>2</v>
-      </c>
-      <c r="F146" s="112">
-        <v>1</v>
-      </c>
-      <c r="G146" s="113" t="s">
+      <c r="E146" s="103">
+        <v>2</v>
+      </c>
+      <c r="F146" s="103">
+        <v>1</v>
+      </c>
+      <c r="G146" s="104" t="s">
         <v>1089</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
     </row>
-    <row r="147" spans="1:9" s="112" customFormat="1">
-      <c r="A147" s="112">
+    <row r="147" spans="1:9" s="103" customFormat="1">
+      <c r="A147" s="103">
         <v>146</v>
       </c>
-      <c r="B147" s="112">
+      <c r="B147" s="103">
         <v>72</v>
       </c>
-      <c r="C147" s="113" t="s">
+      <c r="C147" s="104" t="s">
         <v>1043</v>
       </c>
-      <c r="D147" s="113" t="s">
-        <v>1831</v>
-      </c>
-      <c r="E147" s="112">
-        <v>2</v>
-      </c>
-      <c r="F147" s="112">
-        <v>2</v>
-      </c>
-      <c r="G147" s="113" t="s">
+      <c r="D147" s="104" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E147" s="103">
+        <v>2</v>
+      </c>
+      <c r="F147" s="103">
+        <v>2</v>
+      </c>
+      <c r="G147" s="104" t="s">
         <v>950</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
     </row>
-    <row r="148" spans="1:9" s="112" customFormat="1">
-      <c r="A148" s="112">
+    <row r="148" spans="1:9" s="103" customFormat="1">
+      <c r="A148" s="103">
         <v>147</v>
       </c>
-      <c r="B148" s="112">
+      <c r="B148" s="103">
         <v>72</v>
       </c>
-      <c r="C148" s="113" t="s">
+      <c r="C148" s="104" t="s">
         <v>863</v>
       </c>
-      <c r="D148" s="113" t="s">
+      <c r="D148" s="104" t="s">
         <v>935</v>
       </c>
-      <c r="E148" s="112">
-        <v>2</v>
-      </c>
-      <c r="F148" s="112">
+      <c r="E148" s="103">
+        <v>2</v>
+      </c>
+      <c r="F148" s="103">
         <v>3</v>
       </c>
-      <c r="G148" s="113" t="s">
+      <c r="G148" s="104" t="s">
         <v>955</v>
       </c>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
     </row>
-    <row r="149" spans="1:9" s="112" customFormat="1">
-      <c r="A149" s="112">
+    <row r="149" spans="1:9" s="103" customFormat="1">
+      <c r="A149" s="103">
         <v>148</v>
       </c>
-      <c r="B149" s="112">
+      <c r="B149" s="103">
         <v>72</v>
       </c>
-      <c r="C149" s="113" t="s">
+      <c r="C149" s="104" t="s">
         <v>1043</v>
       </c>
-      <c r="D149" s="113" t="s">
+      <c r="D149" s="104" t="s">
         <v>1069</v>
       </c>
-      <c r="E149" s="112">
-        <v>2</v>
-      </c>
-      <c r="F149" s="112">
+      <c r="E149" s="103">
+        <v>2</v>
+      </c>
+      <c r="F149" s="103">
         <v>3</v>
       </c>
-      <c r="G149" s="113" t="s">
+      <c r="G149" s="104" t="s">
         <v>1083</v>
       </c>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
     </row>
-    <row r="150" spans="1:9" s="112" customFormat="1">
-      <c r="A150" s="112">
+    <row r="150" spans="1:9" s="103" customFormat="1">
+      <c r="A150" s="103">
         <v>149</v>
       </c>
-      <c r="B150" s="112">
+      <c r="B150" s="103">
         <v>72</v>
       </c>
-      <c r="C150" s="113" t="s">
+      <c r="C150" s="104" t="s">
         <v>1043</v>
       </c>
-      <c r="D150" s="113" t="s">
+      <c r="D150" s="104" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E150" s="103">
+        <v>2</v>
+      </c>
+      <c r="F150" s="103">
+        <v>4</v>
+      </c>
+      <c r="G150" s="104" t="s">
         <v>1939</v>
-      </c>
-      <c r="E150" s="112">
-        <v>2</v>
-      </c>
-      <c r="F150" s="112">
-        <v>4</v>
-      </c>
-      <c r="G150" s="113" t="s">
-        <v>1940</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -31350,8 +31621,8 @@
       <c r="C179" s="15" t="s">
         <v>1043</v>
       </c>
-      <c r="D179" s="94" t="s">
-        <v>1831</v>
+      <c r="D179" s="85" t="s">
+        <v>1830</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -31373,8 +31644,8 @@
       <c r="C180" s="15" t="s">
         <v>1043</v>
       </c>
-      <c r="D180" s="94" t="s">
-        <v>1918</v>
+      <c r="D180" s="85" t="s">
+        <v>1917</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -31383,7 +31654,7 @@
         <v>5</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="8" customFormat="1">
@@ -31570,252 +31841,252 @@
         <v>930</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="103" customFormat="1">
+    <row r="189" spans="1:9" s="94" customFormat="1">
       <c r="A189" s="8">
         <v>188</v>
       </c>
-      <c r="B189" s="103">
+      <c r="B189" s="94">
         <v>79</v>
       </c>
-      <c r="C189" s="104" t="s">
+      <c r="C189" s="95" t="s">
         <v>863</v>
       </c>
-      <c r="D189" s="104" t="s">
+      <c r="D189" s="95" t="s">
         <v>928</v>
       </c>
-      <c r="E189" s="103">
-        <v>2</v>
-      </c>
-      <c r="F189" s="103">
-        <v>1</v>
-      </c>
-      <c r="G189" s="104" t="s">
+      <c r="E189" s="94">
+        <v>2</v>
+      </c>
+      <c r="F189" s="94">
+        <v>1</v>
+      </c>
+      <c r="G189" s="95" t="s">
         <v>929</v>
       </c>
       <c r="H189" s="8"/>
       <c r="I189" s="8"/>
     </row>
-    <row r="190" spans="1:9" s="103" customFormat="1">
+    <row r="190" spans="1:9" s="94" customFormat="1">
       <c r="A190" s="8">
         <v>189</v>
       </c>
-      <c r="B190" s="103">
+      <c r="B190" s="94">
         <v>79</v>
       </c>
-      <c r="C190" s="104" t="s">
+      <c r="C190" s="95" t="s">
         <v>1043</v>
       </c>
-      <c r="D190" s="104" t="s">
+      <c r="D190" s="95" t="s">
         <v>1076</v>
       </c>
-      <c r="E190" s="103">
-        <v>2</v>
-      </c>
-      <c r="F190" s="103">
-        <v>1</v>
-      </c>
-      <c r="G190" s="104" t="s">
+      <c r="E190" s="94">
+        <v>2</v>
+      </c>
+      <c r="F190" s="94">
+        <v>1</v>
+      </c>
+      <c r="G190" s="95" t="s">
         <v>1092</v>
       </c>
       <c r="H190" s="8"/>
       <c r="I190" s="8"/>
     </row>
-    <row r="191" spans="1:9" s="103" customFormat="1">
+    <row r="191" spans="1:9" s="94" customFormat="1">
       <c r="A191" s="8">
         <v>190</v>
       </c>
-      <c r="B191" s="103">
+      <c r="B191" s="94">
         <v>79</v>
       </c>
-      <c r="C191" s="104" t="s">
+      <c r="C191" s="95" t="s">
         <v>863</v>
       </c>
-      <c r="D191" s="104" t="s">
+      <c r="D191" s="95" t="s">
         <v>918</v>
       </c>
-      <c r="E191" s="103">
-        <v>2</v>
-      </c>
-      <c r="F191" s="103">
-        <v>1</v>
-      </c>
-      <c r="G191" s="104" t="s">
+      <c r="E191" s="94">
+        <v>2</v>
+      </c>
+      <c r="F191" s="94">
+        <v>1</v>
+      </c>
+      <c r="G191" s="95" t="s">
         <v>930</v>
       </c>
       <c r="H191" s="8"/>
       <c r="I191" s="8"/>
     </row>
-    <row r="192" spans="1:9" s="103" customFormat="1">
+    <row r="192" spans="1:9" s="94" customFormat="1">
       <c r="A192" s="8">
         <v>191</v>
       </c>
-      <c r="B192" s="103">
+      <c r="B192" s="94">
         <v>79</v>
       </c>
-      <c r="C192" s="104" t="s">
+      <c r="C192" s="95" t="s">
         <v>863</v>
       </c>
-      <c r="D192" s="104" t="s">
+      <c r="D192" s="95" t="s">
         <v>945</v>
       </c>
-      <c r="E192" s="103">
-        <v>2</v>
-      </c>
-      <c r="F192" s="103">
-        <v>2</v>
-      </c>
-      <c r="G192" s="104" t="s">
+      <c r="E192" s="94">
+        <v>2</v>
+      </c>
+      <c r="F192" s="94">
+        <v>2</v>
+      </c>
+      <c r="G192" s="95" t="s">
         <v>950</v>
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8"/>
     </row>
-    <row r="193" spans="1:9" s="103" customFormat="1">
+    <row r="193" spans="1:9" s="94" customFormat="1">
       <c r="A193" s="8">
         <v>192</v>
       </c>
-      <c r="B193" s="103">
+      <c r="B193" s="94">
         <v>79</v>
       </c>
-      <c r="C193" s="104" t="s">
+      <c r="C193" s="95" t="s">
         <v>863</v>
       </c>
-      <c r="D193" s="104" t="s">
+      <c r="D193" s="95" t="s">
         <v>918</v>
       </c>
-      <c r="E193" s="103">
-        <v>2</v>
-      </c>
-      <c r="F193" s="103">
-        <v>2</v>
-      </c>
-      <c r="G193" s="104" t="s">
+      <c r="E193" s="94">
+        <v>2</v>
+      </c>
+      <c r="F193" s="94">
+        <v>2</v>
+      </c>
+      <c r="G193" s="95" t="s">
         <v>930</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
     </row>
-    <row r="194" spans="1:9" s="103" customFormat="1">
+    <row r="194" spans="1:9" s="94" customFormat="1">
       <c r="A194" s="8">
         <v>193</v>
       </c>
-      <c r="B194" s="103">
+      <c r="B194" s="94">
         <v>79</v>
       </c>
-      <c r="C194" s="104" t="s">
+      <c r="C194" s="95" t="s">
         <v>863</v>
       </c>
-      <c r="D194" s="104" t="s">
+      <c r="D194" s="95" t="s">
         <v>935</v>
       </c>
-      <c r="E194" s="103">
-        <v>2</v>
-      </c>
-      <c r="F194" s="103">
+      <c r="E194" s="94">
+        <v>2</v>
+      </c>
+      <c r="F194" s="94">
         <v>3</v>
       </c>
-      <c r="G194" s="104" t="s">
+      <c r="G194" s="95" t="s">
         <v>955</v>
       </c>
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
     </row>
-    <row r="195" spans="1:9" s="103" customFormat="1">
+    <row r="195" spans="1:9" s="94" customFormat="1">
       <c r="A195" s="8">
         <v>194</v>
       </c>
-      <c r="B195" s="103">
+      <c r="B195" s="94">
         <v>79</v>
       </c>
-      <c r="C195" s="104" t="s">
+      <c r="C195" s="95" t="s">
         <v>1043</v>
       </c>
-      <c r="D195" s="104" t="s">
+      <c r="D195" s="95" t="s">
         <v>1072</v>
       </c>
-      <c r="E195" s="103">
-        <v>2</v>
-      </c>
-      <c r="F195" s="103">
+      <c r="E195" s="94">
+        <v>2</v>
+      </c>
+      <c r="F195" s="94">
         <v>3</v>
       </c>
-      <c r="G195" s="104" t="s">
+      <c r="G195" s="95" t="s">
         <v>1079</v>
       </c>
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
     </row>
-    <row r="196" spans="1:9" s="103" customFormat="1">
+    <row r="196" spans="1:9" s="94" customFormat="1">
       <c r="A196" s="8">
         <v>195</v>
       </c>
-      <c r="B196" s="103">
+      <c r="B196" s="94">
         <v>79</v>
       </c>
-      <c r="C196" s="103" t="s">
+      <c r="C196" s="94" t="s">
         <v>863</v>
       </c>
-      <c r="D196" s="104" t="s">
+      <c r="D196" s="95" t="s">
         <v>918</v>
       </c>
-      <c r="E196" s="103">
-        <v>2</v>
-      </c>
-      <c r="F196" s="103">
+      <c r="E196" s="94">
+        <v>2</v>
+      </c>
+      <c r="F196" s="94">
         <v>3</v>
       </c>
-      <c r="G196" s="104" t="s">
+      <c r="G196" s="95" t="s">
         <v>930</v>
       </c>
       <c r="H196" s="8"/>
       <c r="I196" s="8"/>
     </row>
-    <row r="197" spans="1:9" s="103" customFormat="1">
+    <row r="197" spans="1:9" s="94" customFormat="1">
       <c r="A197" s="8">
         <v>196</v>
       </c>
-      <c r="B197" s="103">
+      <c r="B197" s="94">
         <v>79</v>
       </c>
-      <c r="C197" s="104" t="s">
+      <c r="C197" s="95" t="s">
         <v>1043</v>
       </c>
-      <c r="D197" s="105" t="s">
-        <v>1831</v>
-      </c>
-      <c r="E197" s="103">
-        <v>2</v>
-      </c>
-      <c r="F197" s="103">
+      <c r="D197" s="96" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E197" s="94">
+        <v>2</v>
+      </c>
+      <c r="F197" s="94">
         <v>4</v>
       </c>
-      <c r="G197" s="104" t="s">
+      <c r="G197" s="95" t="s">
         <v>1575</v>
       </c>
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
     </row>
-    <row r="198" spans="1:9" s="103" customFormat="1">
+    <row r="198" spans="1:9" s="94" customFormat="1">
       <c r="A198" s="8">
         <v>197</v>
       </c>
-      <c r="B198" s="103">
+      <c r="B198" s="94">
         <v>79</v>
       </c>
-      <c r="C198" s="104" t="s">
+      <c r="C198" s="95" t="s">
         <v>1043</v>
       </c>
-      <c r="D198" s="105" t="s">
-        <v>1918</v>
-      </c>
-      <c r="E198" s="103">
-        <v>2</v>
-      </c>
-      <c r="F198" s="103">
+      <c r="D198" s="96" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E198" s="94">
+        <v>2</v>
+      </c>
+      <c r="F198" s="94">
         <v>5</v>
       </c>
-      <c r="G198" s="104" t="s">
-        <v>1835</v>
+      <c r="G198" s="95" t="s">
+        <v>1834</v>
       </c>
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
@@ -38883,7 +39154,7 @@
       <c r="A503" s="8">
         <v>502</v>
       </c>
-      <c r="B503" s="77">
+      <c r="B503" s="74">
         <v>179</v>
       </c>
       <c r="C503" s="19" t="s">
@@ -38892,10 +39163,10 @@
       <c r="D503" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="E503" s="77">
-        <v>2</v>
-      </c>
-      <c r="F503" s="77">
+      <c r="E503" s="74">
+        <v>2</v>
+      </c>
+      <c r="F503" s="74">
         <v>1</v>
       </c>
       <c r="G503" s="19" t="s">
@@ -38908,7 +39179,7 @@
       <c r="A504" s="8">
         <v>503</v>
       </c>
-      <c r="B504" s="77">
+      <c r="B504" s="74">
         <v>179</v>
       </c>
       <c r="C504" s="19" t="s">
@@ -38917,10 +39188,10 @@
       <c r="D504" s="19" t="s">
         <v>872</v>
       </c>
-      <c r="E504" s="77">
-        <v>2</v>
-      </c>
-      <c r="F504" s="77">
+      <c r="E504" s="74">
+        <v>2</v>
+      </c>
+      <c r="F504" s="74">
         <v>2</v>
       </c>
       <c r="G504" s="19" t="s">
@@ -38933,7 +39204,7 @@
       <c r="A505" s="8">
         <v>504</v>
       </c>
-      <c r="B505" s="84">
+      <c r="B505" s="78">
         <v>180</v>
       </c>
       <c r="C505" s="43" t="s">
@@ -38942,10 +39213,10 @@
       <c r="D505" s="43" t="s">
         <v>864</v>
       </c>
-      <c r="E505" s="84">
+      <c r="E505" s="78">
         <v>5</v>
       </c>
-      <c r="F505" s="84">
+      <c r="F505" s="78">
         <v>1</v>
       </c>
       <c r="G505" s="43" t="s">
@@ -38958,19 +39229,19 @@
       <c r="A506" s="8">
         <v>505</v>
       </c>
-      <c r="B506" s="84">
+      <c r="B506" s="78">
         <v>180</v>
       </c>
       <c r="C506" s="43" t="s">
         <v>1128</v>
       </c>
-      <c r="D506" s="84">
-        <v>1</v>
-      </c>
-      <c r="E506" s="84">
+      <c r="D506" s="78">
+        <v>1</v>
+      </c>
+      <c r="E506" s="78">
         <v>3</v>
       </c>
-      <c r="F506" s="84">
+      <c r="F506" s="78">
         <v>1</v>
       </c>
       <c r="G506" s="43" t="s">
@@ -38983,19 +39254,19 @@
       <c r="A507" s="8">
         <v>506</v>
       </c>
-      <c r="B507" s="84">
+      <c r="B507" s="78">
         <v>180</v>
       </c>
       <c r="C507" s="43" t="s">
         <v>1140</v>
       </c>
-      <c r="D507" s="84">
+      <c r="D507" s="78">
         <v>3</v>
       </c>
-      <c r="E507" s="84">
+      <c r="E507" s="78">
         <v>4</v>
       </c>
-      <c r="F507" s="84">
+      <c r="F507" s="78">
         <v>1</v>
       </c>
       <c r="G507" s="43" t="s">
@@ -39008,22 +39279,22 @@
       <c r="A508" s="8">
         <v>507</v>
       </c>
-      <c r="B508" s="75">
+      <c r="B508" s="72">
         <v>181</v>
       </c>
-      <c r="C508" s="76" t="s">
+      <c r="C508" s="73" t="s">
         <v>1063</v>
       </c>
-      <c r="D508" s="76" t="s">
+      <c r="D508" s="73" t="s">
         <v>864</v>
       </c>
-      <c r="E508" s="75">
+      <c r="E508" s="72">
         <v>5</v>
       </c>
-      <c r="F508" s="75">
-        <v>1</v>
-      </c>
-      <c r="G508" s="76" t="s">
+      <c r="F508" s="72">
+        <v>1</v>
+      </c>
+      <c r="G508" s="73" t="s">
         <v>922</v>
       </c>
       <c r="H508" s="8"/>
@@ -39033,22 +39304,22 @@
       <c r="A509" s="8">
         <v>508</v>
       </c>
-      <c r="B509" s="75">
+      <c r="B509" s="72">
         <v>181</v>
       </c>
-      <c r="C509" s="76" t="s">
+      <c r="C509" s="73" t="s">
         <v>1128</v>
       </c>
-      <c r="D509" s="75">
+      <c r="D509" s="72">
         <v>4</v>
       </c>
-      <c r="E509" s="75">
+      <c r="E509" s="72">
         <v>3</v>
       </c>
-      <c r="F509" s="75">
-        <v>1</v>
-      </c>
-      <c r="G509" s="76" t="s">
+      <c r="F509" s="72">
+        <v>1</v>
+      </c>
+      <c r="G509" s="73" t="s">
         <v>1147</v>
       </c>
       <c r="H509" s="8"/>
@@ -39183,22 +39454,22 @@
       <c r="A515" s="8">
         <v>514</v>
       </c>
-      <c r="B515" s="75">
+      <c r="B515" s="72">
         <v>186</v>
       </c>
-      <c r="C515" s="76" t="s">
+      <c r="C515" s="73" t="s">
         <v>1063</v>
       </c>
-      <c r="D515" s="76" t="s">
+      <c r="D515" s="73" t="s">
         <v>864</v>
       </c>
-      <c r="E515" s="75">
-        <v>2</v>
-      </c>
-      <c r="F515" s="75">
-        <v>1</v>
-      </c>
-      <c r="G515" s="76" t="s">
+      <c r="E515" s="72">
+        <v>2</v>
+      </c>
+      <c r="F515" s="72">
+        <v>1</v>
+      </c>
+      <c r="G515" s="73" t="s">
         <v>1187</v>
       </c>
       <c r="H515" s="8"/>
@@ -39308,7 +39579,7 @@
       <c r="A520" s="8">
         <v>519</v>
       </c>
-      <c r="B520" s="77">
+      <c r="B520" s="74">
         <v>189</v>
       </c>
       <c r="C520" s="19" t="s">
@@ -39317,10 +39588,10 @@
       <c r="D520" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="E520" s="77">
+      <c r="E520" s="74">
         <v>5</v>
       </c>
-      <c r="F520" s="77">
+      <c r="F520" s="74">
         <v>1</v>
       </c>
       <c r="G520" s="19" t="s">
@@ -39333,19 +39604,19 @@
       <c r="A521" s="8">
         <v>520</v>
       </c>
-      <c r="B521" s="77">
+      <c r="B521" s="74">
         <v>189</v>
       </c>
       <c r="C521" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D521" s="77">
-        <v>1</v>
-      </c>
-      <c r="E521" s="77">
+      <c r="D521" s="74">
+        <v>1</v>
+      </c>
+      <c r="E521" s="74">
         <v>3</v>
       </c>
-      <c r="F521" s="77">
+      <c r="F521" s="74">
         <v>1</v>
       </c>
       <c r="G521" s="19" t="s">
@@ -39358,19 +39629,19 @@
       <c r="A522" s="8">
         <v>521</v>
       </c>
-      <c r="B522" s="77">
+      <c r="B522" s="74">
         <v>189</v>
       </c>
       <c r="C522" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D522" s="77">
-        <v>2</v>
-      </c>
-      <c r="E522" s="77">
+      <c r="D522" s="74">
+        <v>2</v>
+      </c>
+      <c r="E522" s="74">
         <v>4</v>
       </c>
-      <c r="F522" s="77">
+      <c r="F522" s="74">
         <v>1</v>
       </c>
       <c r="G522" s="19" t="s">
@@ -39383,7 +39654,7 @@
       <c r="A523" s="8">
         <v>522</v>
       </c>
-      <c r="B523" s="77">
+      <c r="B523" s="74">
         <v>190</v>
       </c>
       <c r="C523" s="19" t="s">
@@ -39392,10 +39663,10 @@
       <c r="D523" s="19" t="s">
         <v>1223</v>
       </c>
-      <c r="E523" s="77">
+      <c r="E523" s="74">
         <v>5</v>
       </c>
-      <c r="F523" s="77">
+      <c r="F523" s="74">
         <v>1</v>
       </c>
       <c r="G523" s="19" t="s">
@@ -39408,19 +39679,19 @@
       <c r="A524" s="8">
         <v>523</v>
       </c>
-      <c r="B524" s="77">
+      <c r="B524" s="74">
         <v>190</v>
       </c>
       <c r="C524" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D524" s="77">
+      <c r="D524" s="74">
         <v>3</v>
       </c>
-      <c r="E524" s="77">
+      <c r="E524" s="74">
         <v>3</v>
       </c>
-      <c r="F524" s="77">
+      <c r="F524" s="74">
         <v>1</v>
       </c>
       <c r="G524" s="19" t="s">
@@ -39433,19 +39704,19 @@
       <c r="A525" s="8">
         <v>524</v>
       </c>
-      <c r="B525" s="77">
+      <c r="B525" s="74">
         <v>190</v>
       </c>
       <c r="C525" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D525" s="77">
+      <c r="D525" s="74">
         <v>6</v>
       </c>
-      <c r="E525" s="77">
+      <c r="E525" s="74">
         <v>4</v>
       </c>
-      <c r="F525" s="77">
+      <c r="F525" s="74">
         <v>1</v>
       </c>
       <c r="G525" s="19" t="s">
@@ -39458,7 +39729,7 @@
       <c r="A526" s="8">
         <v>525</v>
       </c>
-      <c r="B526" s="77">
+      <c r="B526" s="74">
         <v>191</v>
       </c>
       <c r="C526" s="19" t="s">
@@ -39467,10 +39738,10 @@
       <c r="D526" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="E526" s="77">
+      <c r="E526" s="74">
         <v>5</v>
       </c>
-      <c r="F526" s="77">
+      <c r="F526" s="74">
         <v>1</v>
       </c>
       <c r="G526" s="19" t="s">
@@ -39483,19 +39754,19 @@
       <c r="A527" s="8">
         <v>526</v>
       </c>
-      <c r="B527" s="77">
+      <c r="B527" s="74">
         <v>191</v>
       </c>
       <c r="C527" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D527" s="77">
+      <c r="D527" s="74">
         <v>7</v>
       </c>
-      <c r="E527" s="77">
+      <c r="E527" s="74">
         <v>3</v>
       </c>
-      <c r="F527" s="77">
+      <c r="F527" s="74">
         <v>1</v>
       </c>
       <c r="G527" s="19" t="s">
@@ -39508,22 +39779,22 @@
       <c r="A528" s="8">
         <v>527</v>
       </c>
-      <c r="B528" s="88">
+      <c r="B528" s="79">
         <v>192</v>
       </c>
-      <c r="C528" s="89" t="s">
+      <c r="C528" s="80" t="s">
         <v>1063</v>
       </c>
-      <c r="D528" s="89" t="s">
+      <c r="D528" s="80" t="s">
         <v>864</v>
       </c>
-      <c r="E528" s="88">
+      <c r="E528" s="79">
         <v>5</v>
       </c>
-      <c r="F528" s="88">
-        <v>1</v>
-      </c>
-      <c r="G528" s="89" t="s">
+      <c r="F528" s="79">
+        <v>1</v>
+      </c>
+      <c r="G528" s="80" t="s">
         <v>922</v>
       </c>
       <c r="H528" s="8"/>
@@ -39533,22 +39804,22 @@
       <c r="A529" s="8">
         <v>528</v>
       </c>
-      <c r="B529" s="88">
+      <c r="B529" s="79">
         <v>192</v>
       </c>
-      <c r="C529" s="89" t="s">
+      <c r="C529" s="80" t="s">
         <v>1128</v>
       </c>
-      <c r="D529" s="88">
-        <v>1</v>
-      </c>
-      <c r="E529" s="88">
+      <c r="D529" s="79">
+        <v>1</v>
+      </c>
+      <c r="E529" s="79">
         <v>3</v>
       </c>
-      <c r="F529" s="88">
-        <v>1</v>
-      </c>
-      <c r="G529" s="89" t="s">
+      <c r="F529" s="79">
+        <v>1</v>
+      </c>
+      <c r="G529" s="80" t="s">
         <v>1148</v>
       </c>
       <c r="H529" s="8"/>
@@ -39558,22 +39829,22 @@
       <c r="A530" s="8">
         <v>529</v>
       </c>
-      <c r="B530" s="84">
+      <c r="B530" s="78">
         <v>193</v>
       </c>
-      <c r="C530" s="84" t="s">
+      <c r="C530" s="78" t="s">
         <v>876</v>
       </c>
-      <c r="D530" s="84">
+      <c r="D530" s="78">
         <v>0</v>
       </c>
-      <c r="E530" s="84">
-        <v>2</v>
-      </c>
-      <c r="F530" s="84">
-        <v>1</v>
-      </c>
-      <c r="G530" s="84" t="s">
+      <c r="E530" s="78">
+        <v>2</v>
+      </c>
+      <c r="F530" s="78">
+        <v>1</v>
+      </c>
+      <c r="G530" s="78" t="s">
         <v>1020</v>
       </c>
       <c r="H530" s="8"/>
@@ -39583,19 +39854,19 @@
       <c r="A531" s="8">
         <v>530</v>
       </c>
-      <c r="B531" s="84">
+      <c r="B531" s="78">
         <v>194</v>
       </c>
-      <c r="C531" s="84" t="s">
+      <c r="C531" s="78" t="s">
         <v>876</v>
       </c>
-      <c r="D531" s="84">
+      <c r="D531" s="78">
         <v>3</v>
       </c>
-      <c r="E531" s="84">
-        <v>2</v>
-      </c>
-      <c r="F531" s="84">
+      <c r="E531" s="78">
+        <v>2</v>
+      </c>
+      <c r="F531" s="78">
         <v>1</v>
       </c>
       <c r="G531" s="43" t="s">
@@ -39608,19 +39879,19 @@
       <c r="A532" s="8">
         <v>531</v>
       </c>
-      <c r="B532" s="77">
+      <c r="B532" s="74">
         <v>195</v>
       </c>
-      <c r="C532" s="77" t="s">
+      <c r="C532" s="74" t="s">
         <v>893</v>
       </c>
       <c r="D532" s="19">
         <v>1209600</v>
       </c>
-      <c r="E532" s="77">
+      <c r="E532" s="74">
         <v>4</v>
       </c>
-      <c r="F532" s="77">
+      <c r="F532" s="74">
         <v>1</v>
       </c>
       <c r="G532" s="19" t="s">
@@ -39633,7 +39904,7 @@
       <c r="A533" s="8">
         <v>532</v>
       </c>
-      <c r="B533" s="77">
+      <c r="B533" s="74">
         <v>195</v>
       </c>
       <c r="C533" s="19" t="s">
@@ -39642,10 +39913,10 @@
       <c r="D533" s="19" t="s">
         <v>1050</v>
       </c>
-      <c r="E533" s="77">
-        <v>2</v>
-      </c>
-      <c r="F533" s="77">
+      <c r="E533" s="74">
+        <v>2</v>
+      </c>
+      <c r="F533" s="74">
         <v>1</v>
       </c>
       <c r="G533" s="19" t="s">
@@ -39658,19 +39929,19 @@
       <c r="A534" s="8">
         <v>533</v>
       </c>
-      <c r="B534" s="77">
+      <c r="B534" s="74">
         <v>195</v>
       </c>
-      <c r="C534" s="77" t="s">
+      <c r="C534" s="74" t="s">
         <v>893</v>
       </c>
       <c r="D534" s="19">
         <v>1209600</v>
       </c>
-      <c r="E534" s="77">
+      <c r="E534" s="74">
         <v>4</v>
       </c>
-      <c r="F534" s="77">
+      <c r="F534" s="74">
         <v>2</v>
       </c>
       <c r="G534" s="19" t="s">
@@ -39683,7 +39954,7 @@
       <c r="A535" s="8">
         <v>534</v>
       </c>
-      <c r="B535" s="77">
+      <c r="B535" s="74">
         <v>195</v>
       </c>
       <c r="C535" s="19" t="s">
@@ -39692,10 +39963,10 @@
       <c r="D535" s="19" t="s">
         <v>1073</v>
       </c>
-      <c r="E535" s="77">
-        <v>2</v>
-      </c>
-      <c r="F535" s="77">
+      <c r="E535" s="74">
+        <v>2</v>
+      </c>
+      <c r="F535" s="74">
         <v>2</v>
       </c>
       <c r="G535" s="19" t="s">
@@ -39708,19 +39979,19 @@
       <c r="A536" s="8">
         <v>535</v>
       </c>
-      <c r="B536" s="77">
+      <c r="B536" s="74">
         <v>196</v>
       </c>
-      <c r="C536" s="77" t="s">
+      <c r="C536" s="74" t="s">
         <v>893</v>
       </c>
       <c r="D536" s="19">
         <v>1209600</v>
       </c>
-      <c r="E536" s="77">
+      <c r="E536" s="74">
         <v>4</v>
       </c>
-      <c r="F536" s="77">
+      <c r="F536" s="74">
         <v>1</v>
       </c>
       <c r="G536" s="19" t="s">
@@ -39733,7 +40004,7 @@
       <c r="A537" s="8">
         <v>536</v>
       </c>
-      <c r="B537" s="77">
+      <c r="B537" s="74">
         <v>196</v>
       </c>
       <c r="C537" s="19" t="s">
@@ -39742,10 +40013,10 @@
       <c r="D537" s="19" t="s">
         <v>1050</v>
       </c>
-      <c r="E537" s="77">
-        <v>2</v>
-      </c>
-      <c r="F537" s="77">
+      <c r="E537" s="74">
+        <v>2</v>
+      </c>
+      <c r="F537" s="74">
         <v>1</v>
       </c>
       <c r="G537" s="19" t="s">
@@ -39758,19 +40029,19 @@
       <c r="A538" s="8">
         <v>537</v>
       </c>
-      <c r="B538" s="77">
+      <c r="B538" s="74">
         <v>196</v>
       </c>
-      <c r="C538" s="77" t="s">
+      <c r="C538" s="74" t="s">
         <v>893</v>
       </c>
       <c r="D538" s="19">
         <v>1209600</v>
       </c>
-      <c r="E538" s="77">
+      <c r="E538" s="74">
         <v>4</v>
       </c>
-      <c r="F538" s="77">
+      <c r="F538" s="74">
         <v>2</v>
       </c>
       <c r="G538" s="19" t="s">
@@ -39783,7 +40054,7 @@
       <c r="A539" s="8">
         <v>538</v>
       </c>
-      <c r="B539" s="77">
+      <c r="B539" s="74">
         <v>196</v>
       </c>
       <c r="C539" s="19" t="s">
@@ -39792,10 +40063,10 @@
       <c r="D539" s="19" t="s">
         <v>1073</v>
       </c>
-      <c r="E539" s="77">
-        <v>2</v>
-      </c>
-      <c r="F539" s="77">
+      <c r="E539" s="74">
+        <v>2</v>
+      </c>
+      <c r="F539" s="74">
         <v>2</v>
       </c>
       <c r="G539" s="19" t="s">
@@ -39808,7 +40079,7 @@
       <c r="A540" s="8">
         <v>539</v>
       </c>
-      <c r="B540" s="77">
+      <c r="B540" s="74">
         <v>197</v>
       </c>
       <c r="C540" s="19" t="s">
@@ -39817,10 +40088,10 @@
       <c r="D540" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="E540" s="77">
-        <v>2</v>
-      </c>
-      <c r="F540" s="77">
+      <c r="E540" s="74">
+        <v>2</v>
+      </c>
+      <c r="F540" s="74">
         <v>1</v>
       </c>
       <c r="G540" s="19" t="s">
@@ -39833,7 +40104,7 @@
       <c r="A541" s="8">
         <v>540</v>
       </c>
-      <c r="B541" s="77">
+      <c r="B541" s="74">
         <v>197</v>
       </c>
       <c r="C541" s="19" t="s">
@@ -39842,10 +40113,10 @@
       <c r="D541" s="19" t="s">
         <v>872</v>
       </c>
-      <c r="E541" s="77">
-        <v>2</v>
-      </c>
-      <c r="F541" s="77">
+      <c r="E541" s="74">
+        <v>2</v>
+      </c>
+      <c r="F541" s="74">
         <v>2</v>
       </c>
       <c r="G541" s="19" t="s">
@@ -39858,7 +40129,7 @@
       <c r="A542" s="8">
         <v>541</v>
       </c>
-      <c r="B542" s="77">
+      <c r="B542" s="74">
         <v>197</v>
       </c>
       <c r="C542" s="19" t="s">
@@ -39867,10 +40138,10 @@
       <c r="D542" s="19" t="s">
         <v>1260</v>
       </c>
-      <c r="E542" s="77">
-        <v>2</v>
-      </c>
-      <c r="F542" s="77">
+      <c r="E542" s="74">
+        <v>2</v>
+      </c>
+      <c r="F542" s="74">
         <v>3</v>
       </c>
       <c r="G542" s="19" t="s">
@@ -39908,7 +40179,7 @@
       <c r="A544" s="8">
         <v>543</v>
       </c>
-      <c r="B544" s="77">
+      <c r="B544" s="74">
         <v>199</v>
       </c>
       <c r="C544" s="19" t="s">
@@ -39917,10 +40188,10 @@
       <c r="D544" s="19" t="s">
         <v>1048</v>
       </c>
-      <c r="E544" s="77">
-        <v>2</v>
-      </c>
-      <c r="F544" s="77">
+      <c r="E544" s="74">
+        <v>2</v>
+      </c>
+      <c r="F544" s="74">
         <v>1</v>
       </c>
       <c r="G544" s="19" t="s">
@@ -39933,7 +40204,7 @@
       <c r="A545" s="8">
         <v>544</v>
       </c>
-      <c r="B545" s="77">
+      <c r="B545" s="74">
         <v>199</v>
       </c>
       <c r="C545" s="19" t="s">
@@ -39942,10 +40213,10 @@
       <c r="D545" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="E545" s="77">
+      <c r="E545" s="74">
         <v>5</v>
       </c>
-      <c r="F545" s="77">
+      <c r="F545" s="74">
         <v>1</v>
       </c>
       <c r="G545" s="19" t="s">
@@ -39958,7 +40229,7 @@
       <c r="A546" s="8">
         <v>545</v>
       </c>
-      <c r="B546" s="77">
+      <c r="B546" s="74">
         <v>199</v>
       </c>
       <c r="C546" s="19" t="s">
@@ -39967,10 +40238,10 @@
       <c r="D546" s="19" t="s">
         <v>1049</v>
       </c>
-      <c r="E546" s="77">
-        <v>2</v>
-      </c>
-      <c r="F546" s="77">
+      <c r="E546" s="74">
+        <v>2</v>
+      </c>
+      <c r="F546" s="74">
         <v>2</v>
       </c>
       <c r="G546" s="19" t="s">
@@ -39983,7 +40254,7 @@
       <c r="A547" s="8">
         <v>546</v>
       </c>
-      <c r="B547" s="77">
+      <c r="B547" s="74">
         <v>199</v>
       </c>
       <c r="C547" s="19" t="s">
@@ -39992,10 +40263,10 @@
       <c r="D547" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="E547" s="77">
+      <c r="E547" s="74">
         <v>5</v>
       </c>
-      <c r="F547" s="77">
+      <c r="F547" s="74">
         <v>2</v>
       </c>
       <c r="G547" s="19" t="s">
@@ -40008,7 +40279,7 @@
       <c r="A548" s="8">
         <v>547</v>
       </c>
-      <c r="B548" s="77">
+      <c r="B548" s="74">
         <v>200</v>
       </c>
       <c r="C548" s="19" t="s">
@@ -40017,10 +40288,10 @@
       <c r="D548" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="E548" s="77">
+      <c r="E548" s="74">
         <v>5</v>
       </c>
-      <c r="F548" s="77">
+      <c r="F548" s="74">
         <v>1</v>
       </c>
       <c r="G548" s="19" t="s">
@@ -40033,7 +40304,7 @@
       <c r="A549" s="8">
         <v>548</v>
       </c>
-      <c r="B549" s="77">
+      <c r="B549" s="74">
         <v>200</v>
       </c>
       <c r="C549" s="19" t="s">
@@ -40042,10 +40313,10 @@
       <c r="D549" s="19" t="s">
         <v>1050</v>
       </c>
-      <c r="E549" s="77">
-        <v>2</v>
-      </c>
-      <c r="F549" s="77">
+      <c r="E549" s="74">
+        <v>2</v>
+      </c>
+      <c r="F549" s="74">
         <v>1</v>
       </c>
       <c r="G549" s="19" t="s">
@@ -40058,7 +40329,7 @@
       <c r="A550" s="8">
         <v>549</v>
       </c>
-      <c r="B550" s="77">
+      <c r="B550" s="74">
         <v>200</v>
       </c>
       <c r="C550" s="19" t="s">
@@ -40067,10 +40338,10 @@
       <c r="D550" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="E550" s="77">
+      <c r="E550" s="74">
         <v>5</v>
       </c>
-      <c r="F550" s="77">
+      <c r="F550" s="74">
         <v>2</v>
       </c>
       <c r="G550" s="19" t="s">
@@ -40083,7 +40354,7 @@
       <c r="A551" s="8">
         <v>550</v>
       </c>
-      <c r="B551" s="77">
+      <c r="B551" s="74">
         <v>200</v>
       </c>
       <c r="C551" s="19" t="s">
@@ -40092,10 +40363,10 @@
       <c r="D551" s="19" t="s">
         <v>1068</v>
       </c>
-      <c r="E551" s="77">
-        <v>2</v>
-      </c>
-      <c r="F551" s="77">
+      <c r="E551" s="74">
+        <v>2</v>
+      </c>
+      <c r="F551" s="74">
         <v>2</v>
       </c>
       <c r="G551" s="19" t="s">
@@ -40108,7 +40379,7 @@
       <c r="A552" s="8">
         <v>551</v>
       </c>
-      <c r="B552" s="77">
+      <c r="B552" s="74">
         <v>201</v>
       </c>
       <c r="C552" s="19" t="s">
@@ -40117,10 +40388,10 @@
       <c r="D552" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="E552" s="77">
+      <c r="E552" s="74">
         <v>5</v>
       </c>
-      <c r="F552" s="77">
+      <c r="F552" s="74">
         <v>2</v>
       </c>
       <c r="G552" s="19" t="s">
@@ -40158,7 +40429,7 @@
       <c r="A554" s="8">
         <v>553</v>
       </c>
-      <c r="B554" s="77">
+      <c r="B554" s="74">
         <v>203</v>
       </c>
       <c r="C554" s="19" t="s">
@@ -40167,10 +40438,10 @@
       <c r="D554" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="E554" s="77">
-        <v>2</v>
-      </c>
-      <c r="F554" s="77">
+      <c r="E554" s="74">
+        <v>2</v>
+      </c>
+      <c r="F554" s="74">
         <v>1</v>
       </c>
       <c r="G554" s="19" t="s">
@@ -40183,7 +40454,7 @@
       <c r="A555" s="8">
         <v>554</v>
       </c>
-      <c r="B555" s="77">
+      <c r="B555" s="74">
         <v>203</v>
       </c>
       <c r="C555" s="19" t="s">
@@ -40192,10 +40463,10 @@
       <c r="D555" s="19" t="s">
         <v>872</v>
       </c>
-      <c r="E555" s="77">
-        <v>2</v>
-      </c>
-      <c r="F555" s="77">
+      <c r="E555" s="74">
+        <v>2</v>
+      </c>
+      <c r="F555" s="74">
         <v>2</v>
       </c>
       <c r="G555" s="19" t="s">
@@ -40208,19 +40479,19 @@
       <c r="A556" s="8">
         <v>555</v>
       </c>
-      <c r="B556" s="77">
+      <c r="B556" s="74">
         <v>203</v>
       </c>
       <c r="C556" s="19" t="s">
         <v>1386</v>
       </c>
-      <c r="D556" s="77">
-        <v>1</v>
-      </c>
-      <c r="E556" s="77">
+      <c r="D556" s="74">
+        <v>1</v>
+      </c>
+      <c r="E556" s="74">
         <v>3</v>
       </c>
-      <c r="F556" s="77">
+      <c r="F556" s="74">
         <v>3</v>
       </c>
       <c r="G556" s="19" t="s">
@@ -41211,7 +41482,7 @@
         <v>1153</v>
       </c>
       <c r="D596" s="10" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E596" s="8">
         <v>5</v>
@@ -41261,7 +41532,7 @@
         <v>1153</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -41286,7 +41557,7 @@
         <v>1153</v>
       </c>
       <c r="D599" s="10" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E599" s="14">
         <v>2</v>
@@ -41311,7 +41582,7 @@
         <v>1153</v>
       </c>
       <c r="D600" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E600" s="14">
         <v>2</v>
@@ -41361,7 +41632,7 @@
         <v>1153</v>
       </c>
       <c r="D602" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E602" s="14">
         <v>5</v>
@@ -41411,7 +41682,7 @@
         <v>1153</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E604" s="14">
         <v>5</v>
@@ -41436,7 +41707,7 @@
         <v>1153</v>
       </c>
       <c r="D605" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E605" s="14">
         <v>2</v>
@@ -41461,7 +41732,7 @@
         <v>1153</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E606" s="14">
         <v>2</v>
@@ -41511,7 +41782,7 @@
         <v>1153</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E608" s="8">
         <v>5</v>
@@ -41561,7 +41832,7 @@
         <v>1153</v>
       </c>
       <c r="D610" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E610" s="8">
         <v>5</v>
@@ -41586,7 +41857,7 @@
         <v>1153</v>
       </c>
       <c r="D611" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E611" s="14">
         <v>2</v>
@@ -41611,7 +41882,7 @@
         <v>1153</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E612" s="14">
         <v>2</v>
@@ -41661,7 +41932,7 @@
         <v>1153</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E614" s="8">
         <v>5</v>
@@ -41711,7 +41982,7 @@
         <v>1153</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -41736,7 +42007,7 @@
         <v>1153</v>
       </c>
       <c r="D617" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E617" s="14">
         <v>2</v>
@@ -41761,7 +42032,7 @@
         <v>1153</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E618" s="14">
         <v>2</v>
@@ -41811,7 +42082,7 @@
         <v>1153</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E620" s="8">
         <v>5</v>
@@ -41861,7 +42132,7 @@
         <v>1153</v>
       </c>
       <c r="D622" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E622" s="8">
         <v>5</v>
@@ -41886,7 +42157,7 @@
         <v>1153</v>
       </c>
       <c r="D623" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E623" s="14">
         <v>2</v>
@@ -41911,7 +42182,7 @@
         <v>1153</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E624" s="14">
         <v>2</v>
@@ -41961,7 +42232,7 @@
         <v>1153</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E626" s="8">
         <v>5</v>
@@ -42011,7 +42282,7 @@
         <v>1153</v>
       </c>
       <c r="D628" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E628" s="8">
         <v>5</v>
@@ -42036,7 +42307,7 @@
         <v>1153</v>
       </c>
       <c r="D629" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E629" s="14">
         <v>2</v>
@@ -42061,7 +42332,7 @@
         <v>1153</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E630" s="14">
         <v>2</v>
@@ -42627,7 +42898,7 @@
         <v>1</v>
       </c>
       <c r="G653" s="53" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H653" s="8"/>
       <c r="I653" s="8"/>
@@ -43118,7 +43389,7 @@
         <v>1153</v>
       </c>
       <c r="D673" s="10" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E673" s="8">
         <v>2</v>
@@ -44626,22 +44897,22 @@
       <c r="A734" s="8">
         <v>733</v>
       </c>
-      <c r="B734" s="77">
+      <c r="B734" s="74">
         <v>294</v>
       </c>
       <c r="C734" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D734" s="77">
+      <c r="D734" s="74">
         <v>3</v>
       </c>
-      <c r="E734" s="77">
+      <c r="E734" s="74">
         <v>4</v>
       </c>
-      <c r="F734" s="77">
-        <v>1</v>
-      </c>
-      <c r="G734" s="77" t="s">
+      <c r="F734" s="74">
+        <v>1</v>
+      </c>
+      <c r="G734" s="74" t="s">
         <v>1475</v>
       </c>
       <c r="H734" s="8"/>
@@ -44651,23 +44922,23 @@
       <c r="A735" s="8">
         <v>734</v>
       </c>
-      <c r="B735" s="77">
+      <c r="B735" s="74">
         <v>294</v>
       </c>
-      <c r="C735" s="77" t="s">
+      <c r="C735" s="74" t="s">
         <v>1063</v>
       </c>
       <c r="D735" s="19" t="s">
         <v>1588</v>
       </c>
-      <c r="E735" s="77">
-        <v>2</v>
-      </c>
-      <c r="F735" s="77">
+      <c r="E735" s="74">
+        <v>2</v>
+      </c>
+      <c r="F735" s="74">
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="H735" s="8"/>
       <c r="I735" s="8"/>
@@ -44676,19 +44947,19 @@
       <c r="A736" s="8">
         <v>735</v>
       </c>
-      <c r="B736" s="77">
+      <c r="B736" s="74">
         <v>295</v>
       </c>
-      <c r="C736" s="77" t="s">
+      <c r="C736" s="74" t="s">
         <v>1063</v>
       </c>
       <c r="D736" s="19" t="s">
         <v>1588</v>
       </c>
-      <c r="E736" s="77">
+      <c r="E736" s="74">
         <v>5</v>
       </c>
-      <c r="F736" s="77">
+      <c r="F736" s="74">
         <v>1</v>
       </c>
       <c r="G736" s="19" t="s">
@@ -44701,19 +44972,19 @@
       <c r="A737" s="8">
         <v>736</v>
       </c>
-      <c r="B737" s="77">
+      <c r="B737" s="74">
         <v>295</v>
       </c>
       <c r="C737" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D737" s="77">
+      <c r="D737" s="74">
         <v>4</v>
       </c>
-      <c r="E737" s="77">
+      <c r="E737" s="74">
         <v>3</v>
       </c>
-      <c r="F737" s="77">
+      <c r="F737" s="74">
         <v>1</v>
       </c>
       <c r="G737" s="19" t="s">
@@ -44726,19 +44997,19 @@
       <c r="A738" s="8">
         <v>737</v>
       </c>
-      <c r="B738" s="77">
+      <c r="B738" s="74">
         <v>295</v>
       </c>
       <c r="C738" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D738" s="77">
+      <c r="D738" s="74">
         <v>7</v>
       </c>
-      <c r="E738" s="77">
+      <c r="E738" s="74">
         <v>4</v>
       </c>
-      <c r="F738" s="77">
+      <c r="F738" s="74">
         <v>1</v>
       </c>
       <c r="G738" s="19" t="s">
@@ -44751,19 +45022,19 @@
       <c r="A739" s="8">
         <v>738</v>
       </c>
-      <c r="B739" s="77">
+      <c r="B739" s="74">
         <v>296</v>
       </c>
-      <c r="C739" s="77" t="s">
+      <c r="C739" s="74" t="s">
         <v>1063</v>
       </c>
       <c r="D739" s="19" t="s">
         <v>1588</v>
       </c>
-      <c r="E739" s="77">
+      <c r="E739" s="74">
         <v>5</v>
       </c>
-      <c r="F739" s="77">
+      <c r="F739" s="74">
         <v>1</v>
       </c>
       <c r="G739" s="19" t="s">
@@ -44776,19 +45047,19 @@
       <c r="A740" s="8">
         <v>739</v>
       </c>
-      <c r="B740" s="77">
+      <c r="B740" s="74">
         <v>296</v>
       </c>
       <c r="C740" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D740" s="77">
+      <c r="D740" s="74">
         <v>8</v>
       </c>
-      <c r="E740" s="77">
+      <c r="E740" s="74">
         <v>3</v>
       </c>
-      <c r="F740" s="77">
+      <c r="F740" s="74">
         <v>1</v>
       </c>
       <c r="G740" s="19" t="s">
@@ -44801,19 +45072,19 @@
       <c r="A741" s="8">
         <v>740</v>
       </c>
-      <c r="B741" s="77">
+      <c r="B741" s="74">
         <v>296</v>
       </c>
       <c r="C741" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D741" s="77">
+      <c r="D741" s="74">
         <v>10</v>
       </c>
-      <c r="E741" s="77">
+      <c r="E741" s="74">
         <v>4</v>
       </c>
-      <c r="F741" s="77">
+      <c r="F741" s="74">
         <v>1</v>
       </c>
       <c r="G741" s="19" t="s">
@@ -44826,19 +45097,19 @@
       <c r="A742" s="8">
         <v>741</v>
       </c>
-      <c r="B742" s="77">
+      <c r="B742" s="74">
         <v>297</v>
       </c>
-      <c r="C742" s="77" t="s">
+      <c r="C742" s="74" t="s">
         <v>1063</v>
       </c>
       <c r="D742" s="19" t="s">
         <v>1588</v>
       </c>
-      <c r="E742" s="77">
+      <c r="E742" s="74">
         <v>5</v>
       </c>
-      <c r="F742" s="77">
+      <c r="F742" s="74">
         <v>1</v>
       </c>
       <c r="G742" s="19" t="s">
@@ -44851,23 +45122,23 @@
       <c r="A743" s="8">
         <v>742</v>
       </c>
-      <c r="B743" s="77">
+      <c r="B743" s="74">
         <v>297</v>
       </c>
-      <c r="C743" s="77" t="s">
+      <c r="C743" s="74" t="s">
         <v>1063</v>
       </c>
       <c r="D743" s="19" t="s">
         <v>1588</v>
       </c>
-      <c r="E743" s="77">
-        <v>2</v>
-      </c>
-      <c r="F743" s="77">
+      <c r="E743" s="74">
+        <v>2</v>
+      </c>
+      <c r="F743" s="74">
         <v>2</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="H743" s="8"/>
       <c r="I743" s="8"/>
@@ -46408,7 +46679,7 @@
         <v>1043</v>
       </c>
       <c r="D805" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E805" s="9">
         <v>5</v>
@@ -46417,7 +46688,7 @@
         <v>1</v>
       </c>
       <c r="G805" s="9" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H805" s="8"/>
       <c r="I805" s="8"/>
@@ -46483,7 +46754,7 @@
         <v>1043</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -46492,7 +46763,7 @@
         <v>1</v>
       </c>
       <c r="G808" s="53" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H808" s="8"/>
       <c r="I808" s="8"/>
@@ -46708,7 +46979,7 @@
         <v>863</v>
       </c>
       <c r="D817" s="10" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E817" s="8">
         <v>2</v>
@@ -46742,7 +47013,7 @@
         <v>2</v>
       </c>
       <c r="G818" s="10" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H818" s="8"/>
       <c r="I818" s="8"/>
@@ -46792,7 +47063,7 @@
         <v>3</v>
       </c>
       <c r="G820" s="10" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H820" s="8"/>
       <c r="I820" s="8"/>
@@ -46833,7 +47104,7 @@
         <v>1043</v>
       </c>
       <c r="D822" s="9" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E822" s="9">
         <v>2</v>
@@ -46842,7 +47113,7 @@
         <v>1</v>
       </c>
       <c r="G822" s="9" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H822" s="8"/>
       <c r="I822" s="8"/>
@@ -46858,7 +47129,7 @@
         <v>1043</v>
       </c>
       <c r="D823" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E823" s="14">
         <v>2</v>
@@ -46867,7 +47138,7 @@
         <v>1</v>
       </c>
       <c r="G823" s="15" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="H823" s="8"/>
       <c r="I823" s="8"/>
@@ -46883,16 +47154,16 @@
         <v>1043</v>
       </c>
       <c r="D824" s="10" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E824" s="8">
+        <v>2</v>
+      </c>
+      <c r="F824" s="8">
+        <v>2</v>
+      </c>
+      <c r="G824" s="10" t="s">
         <v>1795</v>
-      </c>
-      <c r="E824" s="8">
-        <v>2</v>
-      </c>
-      <c r="F824" s="8">
-        <v>2</v>
-      </c>
-      <c r="G824" s="10" t="s">
-        <v>1796</v>
       </c>
       <c r="H824" s="8"/>
       <c r="I824" s="8"/>
@@ -46908,7 +47179,7 @@
         <v>1043</v>
       </c>
       <c r="D825" s="10" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E825" s="8">
         <v>2</v>
@@ -46930,10 +47201,10 @@
         <v>328</v>
       </c>
       <c r="C826" s="53" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D826" s="9" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E826" s="9">
         <v>5</v>
@@ -46942,7 +47213,7 @@
         <v>1</v>
       </c>
       <c r="G826" s="9" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="H826" s="8"/>
       <c r="I826" s="8"/>
@@ -46958,7 +47229,7 @@
         <v>1043</v>
       </c>
       <c r="D827" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E827" s="9">
         <v>5</v>
@@ -46967,7 +47238,7 @@
         <v>1</v>
       </c>
       <c r="G827" s="53" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="H827" s="8"/>
       <c r="I827" s="8"/>
@@ -46983,7 +47254,7 @@
         <v>895</v>
       </c>
       <c r="D828" s="9" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E828" s="9">
         <v>5</v>
@@ -46992,7 +47263,7 @@
         <v>1</v>
       </c>
       <c r="G828" s="9" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="H828" s="8"/>
       <c r="I828" s="8"/>
@@ -47008,7 +47279,7 @@
         <v>1043</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -47017,7 +47288,7 @@
         <v>1</v>
       </c>
       <c r="G829" s="53" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="H829" s="8"/>
       <c r="I829" s="8"/>
@@ -47026,22 +47297,22 @@
       <c r="A830" s="8">
         <v>829</v>
       </c>
-      <c r="B830" s="114">
+      <c r="B830" s="105">
         <v>330</v>
       </c>
       <c r="C830" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D830" s="77">
+      <c r="D830" s="74">
         <v>3</v>
       </c>
-      <c r="E830" s="77">
+      <c r="E830" s="74">
         <v>4</v>
       </c>
-      <c r="F830" s="77">
-        <v>1</v>
-      </c>
-      <c r="G830" s="77" t="s">
+      <c r="F830" s="74">
+        <v>1</v>
+      </c>
+      <c r="G830" s="74" t="s">
         <v>1475</v>
       </c>
       <c r="H830" s="8"/>
@@ -47051,23 +47322,23 @@
       <c r="A831" s="8">
         <v>830</v>
       </c>
-      <c r="B831" s="115">
+      <c r="B831" s="106">
         <v>331</v>
       </c>
-      <c r="C831" s="115" t="s">
+      <c r="C831" s="106" t="s">
         <v>876</v>
       </c>
-      <c r="D831" s="115">
+      <c r="D831" s="106">
         <v>4</v>
       </c>
-      <c r="E831" s="115">
+      <c r="E831" s="106">
         <v>3</v>
       </c>
-      <c r="F831" s="115">
-        <v>1</v>
-      </c>
-      <c r="G831" s="116" t="s">
-        <v>1778</v>
+      <c r="F831" s="106">
+        <v>1</v>
+      </c>
+      <c r="G831" s="107" t="s">
+        <v>1777</v>
       </c>
       <c r="H831" s="8"/>
       <c r="I831" s="8"/>
@@ -47076,23 +47347,23 @@
       <c r="A832" s="8">
         <v>831</v>
       </c>
-      <c r="B832" s="115">
+      <c r="B832" s="106">
         <v>331</v>
       </c>
-      <c r="C832" s="115" t="s">
+      <c r="C832" s="106" t="s">
         <v>876</v>
       </c>
-      <c r="D832" s="115">
+      <c r="D832" s="106">
         <v>10</v>
       </c>
-      <c r="E832" s="115">
+      <c r="E832" s="106">
         <v>4</v>
       </c>
-      <c r="F832" s="115">
-        <v>1</v>
-      </c>
-      <c r="G832" s="116" t="s">
-        <v>1777</v>
+      <c r="F832" s="106">
+        <v>1</v>
+      </c>
+      <c r="G832" s="107" t="s">
+        <v>1776</v>
       </c>
       <c r="H832" s="8"/>
       <c r="I832" s="8"/>
@@ -47117,7 +47388,7 @@
         <v>1</v>
       </c>
       <c r="G833" s="10" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H833" s="8"/>
       <c r="I833" s="8"/>
@@ -47133,7 +47404,7 @@
         <v>1043</v>
       </c>
       <c r="D834" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E834" s="9">
         <v>5</v>
@@ -47142,7 +47413,7 @@
         <v>1</v>
       </c>
       <c r="G834" s="53" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="H834" s="8"/>
       <c r="I834" s="8"/>
@@ -47183,7 +47454,7 @@
         <v>1043</v>
       </c>
       <c r="D836" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E836" s="9">
         <v>2</v>
@@ -47192,7 +47463,7 @@
         <v>1</v>
       </c>
       <c r="G836" s="9" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H836" s="8"/>
       <c r="I836" s="8"/>
@@ -47233,7 +47504,7 @@
         <v>1043</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E838" s="9">
         <v>2</v>
@@ -47242,7 +47513,7 @@
         <v>1</v>
       </c>
       <c r="G838" s="9" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H838" s="8"/>
       <c r="I838" s="8"/>
@@ -47251,23 +47522,23 @@
       <c r="A839" s="8">
         <v>838</v>
       </c>
-      <c r="B839" s="98">
+      <c r="B839" s="89">
         <v>336</v>
       </c>
-      <c r="C839" s="98" t="s">
+      <c r="C839" s="89" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D839" s="90" t="s">
         <v>1826</v>
       </c>
-      <c r="D839" s="99" t="s">
-        <v>1827</v>
-      </c>
-      <c r="E839" s="98">
+      <c r="E839" s="89">
         <v>5</v>
       </c>
-      <c r="F839" s="98">
-        <v>1</v>
-      </c>
-      <c r="G839" s="99" t="s">
-        <v>1822</v>
+      <c r="F839" s="89">
+        <v>1</v>
+      </c>
+      <c r="G839" s="90" t="s">
+        <v>1821</v>
       </c>
       <c r="H839" s="8"/>
       <c r="I839" s="8"/>
@@ -47283,7 +47554,7 @@
         <v>1043</v>
       </c>
       <c r="D840" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E840" s="9">
         <v>5</v>
@@ -47292,7 +47563,7 @@
         <v>1</v>
       </c>
       <c r="G840" s="9" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H840" s="8"/>
       <c r="I840" s="8"/>
@@ -47301,23 +47572,23 @@
       <c r="A841" s="8">
         <v>840</v>
       </c>
-      <c r="B841" s="106">
+      <c r="B841" s="97">
         <v>337</v>
       </c>
-      <c r="C841" s="107" t="s">
+      <c r="C841" s="98" t="s">
         <v>1043</v>
       </c>
-      <c r="D841" s="107" t="s">
+      <c r="D841" s="98" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E841" s="97">
+        <v>2</v>
+      </c>
+      <c r="F841" s="97">
+        <v>1</v>
+      </c>
+      <c r="G841" s="98" t="s">
         <v>1837</v>
-      </c>
-      <c r="E841" s="106">
-        <v>2</v>
-      </c>
-      <c r="F841" s="106">
-        <v>1</v>
-      </c>
-      <c r="G841" s="107" t="s">
-        <v>1838</v>
       </c>
       <c r="H841" s="8"/>
       <c r="I841" s="8"/>
@@ -47326,23 +47597,23 @@
       <c r="A842" s="8">
         <v>841</v>
       </c>
-      <c r="B842" s="106">
+      <c r="B842" s="97">
         <v>337</v>
       </c>
-      <c r="C842" s="106" t="s">
+      <c r="C842" s="97" t="s">
         <v>891</v>
       </c>
-      <c r="D842" s="106">
+      <c r="D842" s="97">
         <v>1604968200</v>
       </c>
-      <c r="E842" s="106">
+      <c r="E842" s="97">
         <v>3</v>
       </c>
-      <c r="F842" s="106">
-        <v>1</v>
-      </c>
-      <c r="G842" s="107" t="s">
-        <v>1839</v>
+      <c r="F842" s="97">
+        <v>1</v>
+      </c>
+      <c r="G842" s="98" t="s">
+        <v>1838</v>
       </c>
       <c r="H842" s="8"/>
       <c r="I842" s="8"/>
@@ -47351,23 +47622,23 @@
       <c r="A843" s="8">
         <v>842</v>
       </c>
-      <c r="B843" s="106">
+      <c r="B843" s="97">
         <v>337</v>
       </c>
-      <c r="C843" s="106" t="s">
+      <c r="C843" s="97" t="s">
         <v>863</v>
       </c>
-      <c r="D843" s="106" t="s">
+      <c r="D843" s="97" t="s">
         <v>864</v>
       </c>
-      <c r="E843" s="106">
-        <v>2</v>
-      </c>
-      <c r="F843" s="106">
-        <v>1</v>
-      </c>
-      <c r="G843" s="106" t="s">
-        <v>1841</v>
+      <c r="E843" s="97">
+        <v>2</v>
+      </c>
+      <c r="F843" s="97">
+        <v>1</v>
+      </c>
+      <c r="G843" s="97" t="s">
+        <v>1840</v>
       </c>
       <c r="H843" s="8"/>
       <c r="I843" s="8"/>
@@ -47383,7 +47654,7 @@
         <v>1043</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E844" s="14">
         <v>5</v>
@@ -47392,7 +47663,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="14" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="H844" s="8"/>
       <c r="I844" s="8"/>
@@ -47405,19 +47676,19 @@
         <v>339</v>
       </c>
       <c r="C845" s="10" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D845" s="10" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E845" s="8">
+        <v>2</v>
+      </c>
+      <c r="F845" s="8">
+        <v>1</v>
+      </c>
+      <c r="G845" s="10" t="s">
         <v>1856</v>
-      </c>
-      <c r="D845" s="10" t="s">
-        <v>1855</v>
-      </c>
-      <c r="E845" s="8">
-        <v>2</v>
-      </c>
-      <c r="F845" s="8">
-        <v>1</v>
-      </c>
-      <c r="G845" s="10" t="s">
-        <v>1857</v>
       </c>
       <c r="H845" s="8" t="s">
         <v>870</v>
@@ -47437,7 +47708,7 @@
         <v>1157</v>
       </c>
       <c r="D846" s="10" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E846" s="8">
         <v>5</v>
@@ -47446,7 +47717,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="10" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H846" s="8"/>
       <c r="I846" s="8"/>
@@ -47462,7 +47733,7 @@
         <v>1157</v>
       </c>
       <c r="D847" s="10" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E847" s="8">
         <v>2</v>
@@ -47471,7 +47742,7 @@
         <v>1</v>
       </c>
       <c r="G847" s="10" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="H847" s="8" t="s">
         <v>874</v>
@@ -47484,48 +47755,48 @@
       <c r="A848" s="8">
         <v>847</v>
       </c>
-      <c r="B848" s="110">
+      <c r="B848" s="101">
         <v>342</v>
       </c>
-      <c r="C848" s="111" t="s">
+      <c r="C848" s="102" t="s">
         <v>1043</v>
       </c>
-      <c r="D848" s="111" t="s">
+      <c r="D848" s="102" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E848" s="101">
+        <v>2</v>
+      </c>
+      <c r="F848" s="101">
+        <v>1</v>
+      </c>
+      <c r="G848" s="102" t="s">
         <v>1908</v>
-      </c>
-      <c r="E848" s="110">
-        <v>2</v>
-      </c>
-      <c r="F848" s="110">
-        <v>1</v>
-      </c>
-      <c r="G848" s="111" t="s">
-        <v>1909</v>
       </c>
       <c r="H848" s="8"/>
       <c r="I848" s="8"/>
     </row>
-    <row r="849" spans="1:9" s="98" customFormat="1">
+    <row r="849" spans="1:9" s="89" customFormat="1">
       <c r="A849" s="8">
         <v>848</v>
       </c>
-      <c r="B849" s="110">
+      <c r="B849" s="101">
         <v>342</v>
       </c>
-      <c r="C849" s="110" t="s">
+      <c r="C849" s="101" t="s">
         <v>876</v>
       </c>
-      <c r="D849" s="110">
-        <v>1</v>
-      </c>
-      <c r="E849" s="110">
+      <c r="D849" s="101">
+        <v>1</v>
+      </c>
+      <c r="E849" s="101">
         <v>3</v>
       </c>
-      <c r="F849" s="110">
-        <v>1</v>
-      </c>
-      <c r="G849" s="111" t="s">
-        <v>1899</v>
+      <c r="F849" s="101">
+        <v>1</v>
+      </c>
+      <c r="G849" s="102" t="s">
+        <v>1898</v>
       </c>
       <c r="H849" s="8"/>
       <c r="I849" s="8"/>
@@ -47534,98 +47805,98 @@
       <c r="A850" s="8">
         <v>849</v>
       </c>
-      <c r="B850" s="110">
+      <c r="B850" s="101">
         <v>342</v>
       </c>
-      <c r="C850" s="111" t="s">
+      <c r="C850" s="102" t="s">
         <v>1043</v>
       </c>
-      <c r="D850" s="111" t="s">
-        <v>1905</v>
-      </c>
-      <c r="E850" s="110">
-        <v>2</v>
-      </c>
-      <c r="F850" s="110">
-        <v>2</v>
-      </c>
-      <c r="G850" s="111" t="s">
+      <c r="D850" s="102" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E850" s="101">
+        <v>2</v>
+      </c>
+      <c r="F850" s="101">
+        <v>2</v>
+      </c>
+      <c r="G850" s="102" t="s">
         <v>1676</v>
       </c>
       <c r="H850" s="8"/>
       <c r="I850" s="8"/>
     </row>
-    <row r="851" spans="1:9" s="106" customFormat="1">
+    <row r="851" spans="1:9" s="97" customFormat="1">
       <c r="A851" s="8">
         <v>850</v>
       </c>
-      <c r="B851" s="110">
+      <c r="B851" s="101">
         <v>342</v>
       </c>
-      <c r="C851" s="110" t="s">
+      <c r="C851" s="101" t="s">
         <v>876</v>
       </c>
-      <c r="D851" s="110">
-        <v>1</v>
-      </c>
-      <c r="E851" s="110">
+      <c r="D851" s="101">
+        <v>1</v>
+      </c>
+      <c r="E851" s="101">
         <v>3</v>
       </c>
-      <c r="F851" s="110">
-        <v>2</v>
-      </c>
-      <c r="G851" s="111" t="s">
-        <v>1899</v>
+      <c r="F851" s="101">
+        <v>2</v>
+      </c>
+      <c r="G851" s="102" t="s">
+        <v>1898</v>
       </c>
       <c r="H851" s="8"/>
       <c r="I851" s="8"/>
     </row>
-    <row r="852" spans="1:9" s="106" customFormat="1">
+    <row r="852" spans="1:9" s="97" customFormat="1">
       <c r="A852" s="8">
         <v>851</v>
       </c>
-      <c r="B852" s="110">
+      <c r="B852" s="101">
         <v>342</v>
       </c>
-      <c r="C852" s="111" t="s">
+      <c r="C852" s="102" t="s">
         <v>1043</v>
       </c>
-      <c r="D852" s="111" t="s">
-        <v>1906</v>
-      </c>
-      <c r="E852" s="110">
-        <v>2</v>
-      </c>
-      <c r="F852" s="110">
+      <c r="D852" s="102" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E852" s="101">
+        <v>2</v>
+      </c>
+      <c r="F852" s="101">
         <v>3</v>
       </c>
-      <c r="G852" s="111" t="s">
-        <v>1898</v>
+      <c r="G852" s="102" t="s">
+        <v>1897</v>
       </c>
       <c r="H852" s="8"/>
       <c r="I852" s="8"/>
     </row>
-    <row r="853" spans="1:9" s="106" customFormat="1">
+    <row r="853" spans="1:9" s="97" customFormat="1">
       <c r="A853" s="8">
         <v>852</v>
       </c>
-      <c r="B853" s="110">
+      <c r="B853" s="101">
         <v>342</v>
       </c>
-      <c r="C853" s="110" t="s">
+      <c r="C853" s="101" t="s">
         <v>876</v>
       </c>
-      <c r="D853" s="110">
-        <v>1</v>
-      </c>
-      <c r="E853" s="110">
+      <c r="D853" s="101">
+        <v>1</v>
+      </c>
+      <c r="E853" s="101">
         <v>3</v>
       </c>
-      <c r="F853" s="110">
+      <c r="F853" s="101">
         <v>3</v>
       </c>
-      <c r="G853" s="111" t="s">
-        <v>1899</v>
+      <c r="G853" s="102" t="s">
+        <v>1898</v>
       </c>
       <c r="H853" s="8"/>
       <c r="I853" s="8"/>
@@ -47634,23 +47905,23 @@
       <c r="A854" s="8">
         <v>853</v>
       </c>
-      <c r="B854" s="110">
+      <c r="B854" s="101">
         <v>342</v>
       </c>
-      <c r="C854" s="110" t="s">
+      <c r="C854" s="101" t="s">
         <v>1043</v>
       </c>
-      <c r="D854" s="110" t="s">
-        <v>1918</v>
-      </c>
-      <c r="E854" s="110">
-        <v>2</v>
-      </c>
-      <c r="F854" s="110">
+      <c r="D854" s="101" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E854" s="101">
+        <v>2</v>
+      </c>
+      <c r="F854" s="101">
         <v>4</v>
       </c>
-      <c r="G854" s="111" t="s">
-        <v>1899</v>
+      <c r="G854" s="102" t="s">
+        <v>1898</v>
       </c>
       <c r="H854" s="8"/>
       <c r="I854" s="8"/>
@@ -47659,23 +47930,23 @@
       <c r="A855" s="8">
         <v>854</v>
       </c>
-      <c r="B855" s="110">
+      <c r="B855" s="101">
         <v>342</v>
       </c>
-      <c r="C855" s="110" t="s">
+      <c r="C855" s="101" t="s">
         <v>876</v>
       </c>
-      <c r="D855" s="110">
-        <v>1</v>
-      </c>
-      <c r="E855" s="110">
+      <c r="D855" s="101">
+        <v>1</v>
+      </c>
+      <c r="E855" s="101">
         <v>3</v>
       </c>
-      <c r="F855" s="110">
+      <c r="F855" s="101">
         <v>4</v>
       </c>
-      <c r="G855" s="111" t="s">
-        <v>1910</v>
+      <c r="G855" s="102" t="s">
+        <v>1909</v>
       </c>
     </row>
     <row r="856" spans="1:9" s="8" customFormat="1">
@@ -47686,7 +47957,7 @@
         <v>343</v>
       </c>
       <c r="C856" s="53" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D856" s="9">
         <v>1</v>
@@ -47698,7 +47969,7 @@
         <v>1</v>
       </c>
       <c r="G856" s="10" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="857" spans="1:9" s="8" customFormat="1">
@@ -47709,10 +47980,10 @@
         <v>343</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D857" s="15" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E857" s="8">
         <v>5</v>
@@ -47721,10 +47992,10 @@
         <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="858" spans="1:9" s="110" customFormat="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9" s="101" customFormat="1">
       <c r="A858" s="8">
         <v>857</v>
       </c>
@@ -47732,7 +48003,7 @@
         <v>343</v>
       </c>
       <c r="C858" s="53" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D858" s="9">
         <v>9</v>
@@ -47744,12 +48015,12 @@
         <v>2</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="H858" s="8"/>
       <c r="I858" s="8"/>
     </row>
-    <row r="859" spans="1:9" s="110" customFormat="1">
+    <row r="859" spans="1:9" s="101" customFormat="1">
       <c r="A859" s="8">
         <v>858</v>
       </c>
@@ -47760,7 +48031,7 @@
         <v>1157</v>
       </c>
       <c r="D859" s="15" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E859" s="8">
         <v>5</v>
@@ -47769,12 +48040,12 @@
         <v>2</v>
       </c>
       <c r="G859" s="10" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="H859" s="8"/>
       <c r="I859" s="8"/>
     </row>
-    <row r="860" spans="1:9" s="110" customFormat="1">
+    <row r="860" spans="1:9" s="101" customFormat="1">
       <c r="A860" s="8">
         <v>859</v>
       </c>
@@ -47785,7 +48056,7 @@
         <v>1157</v>
       </c>
       <c r="D860" s="15" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E860" s="14">
         <v>2</v>
@@ -47794,12 +48065,12 @@
         <v>3</v>
       </c>
       <c r="G860" s="15" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="H860" s="8"/>
       <c r="I860" s="8"/>
     </row>
-    <row r="861" spans="1:9" s="110" customFormat="1">
+    <row r="861" spans="1:9" s="101" customFormat="1">
       <c r="A861" s="8">
         <v>860</v>
       </c>
@@ -47810,7 +48081,7 @@
         <v>1157</v>
       </c>
       <c r="D861" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E861" s="14">
         <v>2</v>
@@ -47819,12 +48090,12 @@
         <v>4</v>
       </c>
       <c r="G861" s="15" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H861" s="8"/>
       <c r="I861" s="8"/>
     </row>
-    <row r="862" spans="1:9" s="110" customFormat="1">
+    <row r="862" spans="1:9" s="101" customFormat="1">
       <c r="A862" s="8">
         <v>861</v>
       </c>
@@ -47835,7 +48106,7 @@
         <v>863</v>
       </c>
       <c r="D862" s="10" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E862" s="8">
         <v>5</v>
@@ -47849,7 +48120,7 @@
       <c r="H862" s="8"/>
       <c r="I862" s="8"/>
     </row>
-    <row r="863" spans="1:9" s="110" customFormat="1">
+    <row r="863" spans="1:9" s="101" customFormat="1">
       <c r="A863" s="8">
         <v>862</v>
       </c>
@@ -47874,7 +48145,7 @@
       <c r="H863" s="8"/>
       <c r="I863" s="8"/>
     </row>
-    <row r="864" spans="1:9" s="110" customFormat="1">
+    <row r="864" spans="1:9" s="101" customFormat="1">
       <c r="A864" s="8">
         <v>863</v>
       </c>
@@ -47885,7 +48156,7 @@
         <v>1043</v>
       </c>
       <c r="D864" s="10" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="E864" s="8">
         <v>2</v>
@@ -47899,7 +48170,7 @@
       <c r="H864" s="8"/>
       <c r="I864" s="8"/>
     </row>
-    <row r="865" spans="1:9" s="110" customFormat="1">
+    <row r="865" spans="1:9" s="101" customFormat="1">
       <c r="A865" s="8">
         <v>864</v>
       </c>
@@ -47935,7 +48206,7 @@
         <v>863</v>
       </c>
       <c r="D866" s="10" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E866" s="8">
         <v>2</v>
@@ -47985,7 +48256,7 @@
         <v>1043</v>
       </c>
       <c r="D868" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E868" s="8">
         <v>2</v>
@@ -48035,7 +48306,7 @@
         <v>1153</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E870" s="8">
         <v>2</v>
@@ -48044,7 +48315,7 @@
         <v>1</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="H870" s="8"/>
       <c r="I870" s="8"/>
@@ -48060,7 +48331,7 @@
         <v>1043</v>
       </c>
       <c r="D871" s="9" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E871" s="9">
         <v>2</v>
@@ -48069,7 +48340,7 @@
         <v>2</v>
       </c>
       <c r="G871" s="53" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="H871" s="8"/>
       <c r="I871" s="8"/>
@@ -48085,7 +48356,7 @@
         <v>1043</v>
       </c>
       <c r="D872" s="53" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E872" s="9">
         <v>2</v>
@@ -48094,7 +48365,7 @@
         <v>3</v>
       </c>
       <c r="G872" s="53" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="873" spans="1:9" s="8" customFormat="1">
@@ -48108,7 +48379,7 @@
         <v>1043</v>
       </c>
       <c r="D873" s="53" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="E873" s="9">
         <v>2</v>
@@ -48117,7 +48388,7 @@
         <v>4</v>
       </c>
       <c r="G873" s="53" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="874" spans="1:9" s="8" customFormat="1">
@@ -48131,7 +48402,7 @@
         <v>1157</v>
       </c>
       <c r="D874" s="15" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
@@ -48140,7 +48411,7 @@
         <v>1</v>
       </c>
       <c r="G874" s="10" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="875" spans="1:9" s="8" customFormat="1">
@@ -48154,7 +48425,7 @@
         <v>1153</v>
       </c>
       <c r="D875" s="15" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E875" s="8">
         <v>5</v>
@@ -48163,7 +48434,7 @@
         <v>1</v>
       </c>
       <c r="G875" s="10" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="876" spans="1:9" s="8" customFormat="1">
@@ -48186,7 +48457,7 @@
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="877" spans="1:9" s="8" customFormat="1">
@@ -48200,7 +48471,7 @@
         <v>1157</v>
       </c>
       <c r="D877" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E877" s="8">
         <v>2</v>
@@ -48223,7 +48494,7 @@
         <v>1153</v>
       </c>
       <c r="D878" s="15" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E878" s="8">
         <v>5</v>
@@ -48232,7 +48503,7 @@
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="8" customFormat="1">
@@ -48246,7 +48517,7 @@
         <v>1153</v>
       </c>
       <c r="D879" s="15" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E879" s="8">
         <v>2</v>
@@ -48255,7 +48526,7 @@
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="880" spans="1:9">
@@ -48266,7 +48537,7 @@
         <v>352</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D880" s="15" t="s">
         <v>1611</v>
@@ -48278,7 +48549,7 @@
         <v>2</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="H880" s="8"/>
       <c r="I880" s="8"/>
@@ -48294,7 +48565,7 @@
         <v>1153</v>
       </c>
       <c r="D881" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -48303,7 +48574,7 @@
         <v>3</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H881" s="8"/>
       <c r="I881" s="8"/>
@@ -48316,19 +48587,19 @@
         <v>353</v>
       </c>
       <c r="C882" s="10" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D882" s="15" t="s">
         <v>1962</v>
       </c>
-      <c r="D882" s="15" t="s">
+      <c r="E882" s="8">
+        <v>2</v>
+      </c>
+      <c r="F882" s="8">
+        <v>1</v>
+      </c>
+      <c r="G882" s="10" t="s">
         <v>1963</v>
-      </c>
-      <c r="E882" s="8">
-        <v>2</v>
-      </c>
-      <c r="F882" s="8">
-        <v>1</v>
-      </c>
-      <c r="G882" s="10" t="s">
-        <v>1964</v>
       </c>
       <c r="H882" s="8"/>
       <c r="I882" s="8"/>
@@ -48344,7 +48615,7 @@
         <v>1153</v>
       </c>
       <c r="D883" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E883" s="8">
         <v>5</v>
@@ -48353,7 +48624,7 @@
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H883" s="8"/>
       <c r="I883" s="8"/>
@@ -48369,7 +48640,7 @@
         <v>1043</v>
       </c>
       <c r="D884" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E884" s="8">
         <v>5</v>
@@ -48403,7 +48674,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
@@ -48419,7 +48690,7 @@
         <v>1153</v>
       </c>
       <c r="D886" s="15" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E886" s="14">
         <v>2</v>
@@ -48453,7 +48724,7 @@
         <v>2</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
@@ -48469,7 +48740,7 @@
         <v>1153</v>
       </c>
       <c r="D888" s="15" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E888" s="14">
         <v>2</v>
@@ -48494,7 +48765,7 @@
         <v>1153</v>
       </c>
       <c r="D889" s="53" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E889" s="9">
         <v>5</v>
@@ -48503,7 +48774,7 @@
         <v>1</v>
       </c>
       <c r="G889" s="53" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -48528,7 +48799,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="53" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -48544,7 +48815,7 @@
         <v>1153</v>
       </c>
       <c r="D891" s="53" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E891" s="9">
         <v>5</v>
@@ -48553,7 +48824,7 @@
         <v>1</v>
       </c>
       <c r="G891" s="53" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -48578,7 +48849,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="53" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -48603,7 +48874,7 @@
         <v>1</v>
       </c>
       <c r="G893" s="53" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="894" spans="1:9">
@@ -48617,7 +48888,7 @@
         <v>1153</v>
       </c>
       <c r="D894" s="53" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E894" s="9">
         <v>5</v>
@@ -48626,7 +48897,7 @@
         <v>1</v>
       </c>
       <c r="G894" s="53" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="H894" s="8"/>
       <c r="I894" s="8"/>
@@ -48651,7 +48922,7 @@
         <v>1</v>
       </c>
       <c r="G895" s="53" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
@@ -48676,7 +48947,7 @@
         <v>1</v>
       </c>
       <c r="G896" s="53" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -48692,7 +48963,7 @@
         <v>1153</v>
       </c>
       <c r="D897" s="53" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E897" s="9">
         <v>5</v>
@@ -48701,7 +48972,7 @@
         <v>1</v>
       </c>
       <c r="G897" s="53" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -48726,7 +48997,7 @@
         <v>1</v>
       </c>
       <c r="G898" s="53" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -48742,16 +49013,16 @@
         <v>1153</v>
       </c>
       <c r="D899" s="15" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E899" s="14">
+        <v>2</v>
+      </c>
+      <c r="F899" s="14">
+        <v>1</v>
+      </c>
+      <c r="G899" s="15" t="s">
         <v>1974</v>
-      </c>
-      <c r="E899" s="14">
-        <v>2</v>
-      </c>
-      <c r="F899" s="14">
-        <v>1</v>
-      </c>
-      <c r="G899" s="15" t="s">
-        <v>1975</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -48776,7 +49047,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
@@ -48792,16 +49063,16 @@
         <v>1153</v>
       </c>
       <c r="D901" s="15" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E901" s="14">
+        <v>2</v>
+      </c>
+      <c r="F901" s="14">
+        <v>1</v>
+      </c>
+      <c r="G901" s="15" t="s">
         <v>1974</v>
-      </c>
-      <c r="E901" s="14">
-        <v>2</v>
-      </c>
-      <c r="F901" s="14">
-        <v>1</v>
-      </c>
-      <c r="G901" s="15" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="8" customFormat="1">
@@ -48824,7 +49095,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="8" customFormat="1">
@@ -48847,7 +49118,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="8" customFormat="1">
@@ -48861,16 +49132,16 @@
         <v>1153</v>
       </c>
       <c r="D904" s="15" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E904" s="14">
+        <v>2</v>
+      </c>
+      <c r="F904" s="14">
+        <v>1</v>
+      </c>
+      <c r="G904" s="15" t="s">
         <v>1974</v>
-      </c>
-      <c r="E904" s="14">
-        <v>2</v>
-      </c>
-      <c r="F904" s="14">
-        <v>1</v>
-      </c>
-      <c r="G904" s="15" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="8" customFormat="1">
@@ -48893,7 +49164,7 @@
         <v>1</v>
       </c>
       <c r="G905" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="8" customFormat="1">
@@ -48916,7 +49187,7 @@
         <v>1</v>
       </c>
       <c r="G906" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="8" customFormat="1">
@@ -48930,16 +49201,16 @@
         <v>1153</v>
       </c>
       <c r="D907" s="15" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E907" s="14">
+        <v>2</v>
+      </c>
+      <c r="F907" s="14">
+        <v>1</v>
+      </c>
+      <c r="G907" s="15" t="s">
         <v>1974</v>
-      </c>
-      <c r="E907" s="14">
-        <v>2</v>
-      </c>
-      <c r="F907" s="14">
-        <v>1</v>
-      </c>
-      <c r="G907" s="15" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="8" customFormat="1">
@@ -48962,7 +49233,7 @@
         <v>1</v>
       </c>
       <c r="G908" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="8" customFormat="1">
@@ -48976,7 +49247,7 @@
         <v>1153</v>
       </c>
       <c r="D909" s="15" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E909" s="14">
         <v>2</v>
@@ -48985,7 +49256,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="15" t="s">
-        <v>1975</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -49008,7 +49279,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -49022,7 +49293,7 @@
         <v>1153</v>
       </c>
       <c r="D911" s="15" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="E911" s="14">
         <v>2</v>
@@ -49031,7 +49302,7 @@
         <v>2</v>
       </c>
       <c r="G911" s="15" t="s">
-        <v>1975</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -49054,7 +49325,7 @@
         <v>2</v>
       </c>
       <c r="G912" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -49077,7 +49348,7 @@
         <v>1</v>
       </c>
       <c r="G913" s="15" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -49100,7 +49371,7 @@
         <v>1</v>
       </c>
       <c r="G914" s="15" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="8" customFormat="1">
@@ -49123,7 +49394,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="8" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="916" spans="1:7" s="8" customFormat="1">
@@ -49137,7 +49408,7 @@
         <v>1153</v>
       </c>
       <c r="D916" s="15" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E916" s="14">
         <v>2</v>
@@ -49146,7 +49417,7 @@
         <v>1</v>
       </c>
       <c r="G916" s="15" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="8" customFormat="1">
@@ -49157,19 +49428,19 @@
         <v>368</v>
       </c>
       <c r="C917" s="15" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D917" s="15" t="s">
         <v>2002</v>
       </c>
-      <c r="D917" s="15" t="s">
+      <c r="E917" s="14">
+        <v>2</v>
+      </c>
+      <c r="F917" s="14">
+        <v>2</v>
+      </c>
+      <c r="G917" s="15" t="s">
         <v>2003</v>
-      </c>
-      <c r="E917" s="14">
-        <v>2</v>
-      </c>
-      <c r="F917" s="14">
-        <v>2</v>
-      </c>
-      <c r="G917" s="15" t="s">
-        <v>2004</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="8" customFormat="1">
@@ -49183,7 +49454,7 @@
         <v>1153</v>
       </c>
       <c r="D918" s="15" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E918" s="14">
         <v>2</v>
@@ -49192,7 +49463,7 @@
         <v>1</v>
       </c>
       <c r="G918" s="15" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="919" spans="1:7" s="8" customFormat="1">
@@ -49206,7 +49477,7 @@
         <v>1153</v>
       </c>
       <c r="D919" s="15" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E919" s="14">
         <v>5</v>
@@ -49215,99 +49486,99 @@
         <v>2</v>
       </c>
       <c r="G919" s="15" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="920" spans="1:7" s="8" customFormat="1">
       <c r="A920" s="8">
         <v>919</v>
       </c>
-      <c r="B920" s="103">
+      <c r="B920" s="94">
         <v>370</v>
       </c>
-      <c r="C920" s="104" t="s">
+      <c r="C920" s="95" t="s">
         <v>1153</v>
       </c>
-      <c r="D920" s="104" t="s">
-        <v>1973</v>
-      </c>
-      <c r="E920" s="103">
+      <c r="D920" s="95" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E920" s="94">
         <v>5</v>
       </c>
-      <c r="F920" s="103">
-        <v>1</v>
-      </c>
-      <c r="G920" s="104" t="s">
-        <v>1793</v>
+      <c r="F920" s="94">
+        <v>1</v>
+      </c>
+      <c r="G920" s="95" t="s">
+        <v>1792</v>
       </c>
     </row>
     <row r="921" spans="1:7" s="8" customFormat="1">
       <c r="A921" s="8">
         <v>920</v>
       </c>
-      <c r="B921" s="103">
+      <c r="B921" s="94">
         <v>371</v>
       </c>
-      <c r="C921" s="104" t="s">
+      <c r="C921" s="95" t="s">
         <v>1153</v>
       </c>
-      <c r="D921" s="104" t="s">
-        <v>1973</v>
-      </c>
-      <c r="E921" s="103">
-        <v>2</v>
-      </c>
-      <c r="F921" s="103">
-        <v>1</v>
-      </c>
-      <c r="G921" s="104" t="s">
-        <v>1730</v>
+      <c r="D921" s="95" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E921" s="94">
+        <v>2</v>
+      </c>
+      <c r="F921" s="94">
+        <v>1</v>
+      </c>
+      <c r="G921" s="95" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="922" spans="1:7">
       <c r="A922" s="8">
         <v>921</v>
       </c>
-      <c r="B922" s="103">
+      <c r="B922" s="94">
         <v>372</v>
       </c>
-      <c r="C922" s="104" t="s">
+      <c r="C922" s="95" t="s">
         <v>1153</v>
       </c>
-      <c r="D922" s="104" t="s">
-        <v>1973</v>
-      </c>
-      <c r="E922" s="103">
+      <c r="D922" s="95" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E922" s="94">
         <v>5</v>
       </c>
-      <c r="F922" s="103">
-        <v>1</v>
-      </c>
-      <c r="G922" s="104" t="s">
-        <v>1793</v>
+      <c r="F922" s="94">
+        <v>1</v>
+      </c>
+      <c r="G922" s="95" t="s">
+        <v>1792</v>
       </c>
     </row>
     <row r="923" spans="1:7">
       <c r="A923" s="8">
         <v>922</v>
       </c>
-      <c r="B923" s="103">
+      <c r="B923" s="94">
         <v>373</v>
       </c>
-      <c r="C923" s="104" t="s">
+      <c r="C923" s="95" t="s">
         <v>1153</v>
       </c>
-      <c r="D923" s="104" t="s">
-        <v>1973</v>
-      </c>
-      <c r="E923" s="103">
-        <v>2</v>
-      </c>
-      <c r="F923" s="103">
-        <v>1</v>
-      </c>
-      <c r="G923" s="104" t="s">
-        <v>1730</v>
+      <c r="D923" s="95" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E923" s="94">
+        <v>2</v>
+      </c>
+      <c r="F923" s="94">
+        <v>1</v>
+      </c>
+      <c r="G923" s="95" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="924" spans="1:7" s="8" customFormat="1">
@@ -49318,10 +49589,10 @@
         <v>374</v>
       </c>
       <c r="C924" s="15" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D924" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E924" s="14">
         <v>5</v>
@@ -49330,7 +49601,7 @@
         <v>1</v>
       </c>
       <c r="G924" s="15" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="925" spans="1:7" s="8" customFormat="1">
@@ -49341,7 +49612,7 @@
         <v>375</v>
       </c>
       <c r="C925" s="15" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D925" s="15" t="s">
         <v>1611</v>
@@ -49353,7 +49624,7 @@
         <v>1</v>
       </c>
       <c r="G925" s="15" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="926" spans="1:7" s="8" customFormat="1">
@@ -49364,10 +49635,10 @@
         <v>375</v>
       </c>
       <c r="C926" s="15" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D926" s="15" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E926" s="14">
         <v>2</v>
@@ -49376,7 +49647,7 @@
         <v>2</v>
       </c>
       <c r="G926" s="15" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="927" spans="1:7" s="8" customFormat="1">
@@ -49387,10 +49658,10 @@
         <v>376</v>
       </c>
       <c r="C927" s="15" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D927" s="15" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E927" s="14">
         <v>2</v>
@@ -49399,7 +49670,7 @@
         <v>1</v>
       </c>
       <c r="G927" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="928" spans="1:7" s="8" customFormat="1">
@@ -49410,10 +49681,10 @@
         <v>377</v>
       </c>
       <c r="C928" s="15" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D928" s="15" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E928" s="14">
         <v>2</v>
@@ -49422,7 +49693,7 @@
         <v>1</v>
       </c>
       <c r="G928" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="929" spans="1:7" s="8" customFormat="1">
@@ -49433,10 +49704,10 @@
         <v>378</v>
       </c>
       <c r="C929" s="15" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D929" s="15" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E929" s="14">
         <v>2</v>
@@ -49445,7 +49716,7 @@
         <v>1</v>
       </c>
       <c r="G929" s="15" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="930" spans="1:7" s="8" customFormat="1">
@@ -49459,7 +49730,7 @@
         <v>1154</v>
       </c>
       <c r="D930" s="15" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E930" s="14">
         <v>2</v>
@@ -49468,7 +49739,7 @@
         <v>1</v>
       </c>
       <c r="G930" s="15" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="931" spans="1:7" s="8" customFormat="1">
@@ -49491,99 +49762,99 @@
         <v>1</v>
       </c>
       <c r="G931" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="932" spans="1:7">
       <c r="A932" s="8">
         <v>931</v>
       </c>
-      <c r="B932" s="103">
+      <c r="B932" s="94">
         <v>380</v>
       </c>
-      <c r="C932" s="103" t="s">
+      <c r="C932" s="94" t="s">
         <v>1043</v>
       </c>
-      <c r="D932" s="103" t="s">
+      <c r="D932" s="94" t="s">
         <v>1669</v>
       </c>
-      <c r="E932" s="103">
+      <c r="E932" s="94">
         <v>5</v>
       </c>
-      <c r="F932" s="103">
-        <v>1</v>
-      </c>
-      <c r="G932" s="103" t="s">
-        <v>1998</v>
+      <c r="F932" s="94">
+        <v>1</v>
+      </c>
+      <c r="G932" s="94" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="933" spans="1:7" ht="16.5">
       <c r="A933" s="8">
         <v>932</v>
       </c>
-      <c r="B933" s="103">
+      <c r="B933" s="94">
         <v>380</v>
       </c>
-      <c r="C933" s="103" t="s">
+      <c r="C933" s="94" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D933" s="113" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E933" s="94">
+        <v>2</v>
+      </c>
+      <c r="F933" s="94">
+        <v>1</v>
+      </c>
+      <c r="G933" s="94" t="s">
         <v>2051</v>
-      </c>
-      <c r="D933" s="123" t="s">
-        <v>2052</v>
-      </c>
-      <c r="E933" s="103">
-        <v>2</v>
-      </c>
-      <c r="F933" s="103">
-        <v>1</v>
-      </c>
-      <c r="G933" s="103" t="s">
-        <v>2053</v>
       </c>
     </row>
     <row r="934" spans="1:7">
       <c r="A934" s="8">
         <v>933</v>
       </c>
-      <c r="B934" s="103">
+      <c r="B934" s="94">
         <v>380</v>
       </c>
-      <c r="C934" s="103" t="s">
+      <c r="C934" s="94" t="s">
         <v>1043</v>
       </c>
-      <c r="D934" s="103" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E934" s="103">
-        <v>2</v>
-      </c>
-      <c r="F934" s="103">
-        <v>2</v>
-      </c>
-      <c r="G934" s="104" t="s">
-        <v>1926</v>
+      <c r="D934" s="94" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E934" s="94">
+        <v>2</v>
+      </c>
+      <c r="F934" s="94">
+        <v>2</v>
+      </c>
+      <c r="G934" s="95" t="s">
+        <v>2052</v>
       </c>
     </row>
     <row r="935" spans="1:7">
       <c r="A935" s="8">
         <v>934</v>
       </c>
-      <c r="B935" s="103">
+      <c r="B935" s="94">
         <v>380</v>
       </c>
-      <c r="C935" s="103" t="s">
+      <c r="C935" s="94" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D935" s="95" t="s">
         <v>2054</v>
       </c>
-      <c r="D935" s="104" t="s">
+      <c r="E935" s="94">
+        <v>2</v>
+      </c>
+      <c r="F935" s="94">
+        <v>2</v>
+      </c>
+      <c r="G935" s="94" t="s">
         <v>2055</v>
-      </c>
-      <c r="E935" s="103">
-        <v>2</v>
-      </c>
-      <c r="F935" s="103">
-        <v>2</v>
-      </c>
-      <c r="G935" s="103" t="s">
-        <v>2056</v>
       </c>
     </row>
     <row r="936" spans="1:7" s="8" customFormat="1">
@@ -49606,7 +49877,7 @@
         <v>1</v>
       </c>
       <c r="G936" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="937" spans="1:7" s="8" customFormat="1">
@@ -49614,22 +49885,298 @@
         <v>936</v>
       </c>
       <c r="B937" s="8">
+        <v>381</v>
+      </c>
+      <c r="C937" s="15" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D937" s="14" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E937" s="14">
+        <v>5</v>
+      </c>
+      <c r="F937" s="14">
+        <v>1</v>
+      </c>
+      <c r="G937" s="14" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7">
+      <c r="A938" s="8">
+        <v>937</v>
+      </c>
+      <c r="B938" s="117">
         <v>382</v>
       </c>
-      <c r="C937" s="15" t="s">
+      <c r="C938" s="118" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D938" s="118" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E938" s="117">
+        <v>2</v>
+      </c>
+      <c r="F938" s="117">
+        <v>1</v>
+      </c>
+      <c r="G938" s="118" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7">
+      <c r="A939" s="8">
+        <v>938</v>
+      </c>
+      <c r="B939" s="117">
+        <v>382</v>
+      </c>
+      <c r="C939" s="118" t="s">
+        <v>863</v>
+      </c>
+      <c r="D939" s="118" t="s">
+        <v>868</v>
+      </c>
+      <c r="E939" s="117">
+        <v>2</v>
+      </c>
+      <c r="F939" s="117">
+        <v>2</v>
+      </c>
+      <c r="G939" s="118" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7">
+      <c r="A940" s="8">
+        <v>939</v>
+      </c>
+      <c r="B940" s="117">
+        <v>382</v>
+      </c>
+      <c r="C940" s="118" t="s">
+        <v>863</v>
+      </c>
+      <c r="D940" s="118" t="s">
+        <v>872</v>
+      </c>
+      <c r="E940" s="117">
+        <v>2</v>
+      </c>
+      <c r="F940" s="117">
+        <v>3</v>
+      </c>
+      <c r="G940" s="118" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7">
+      <c r="A941" s="8">
+        <v>940</v>
+      </c>
+      <c r="B941" s="119">
+        <v>383</v>
+      </c>
+      <c r="C941" s="45" t="s">
         <v>1128</v>
       </c>
-      <c r="D937" s="15">
-        <v>1</v>
-      </c>
-      <c r="E937" s="14">
+      <c r="D941" s="119">
+        <v>1</v>
+      </c>
+      <c r="E941" s="119">
         <v>3</v>
       </c>
-      <c r="F937" s="14">
-        <v>1</v>
-      </c>
-      <c r="G937" s="15" t="s">
-        <v>2061</v>
+      <c r="F941" s="119">
+        <v>1</v>
+      </c>
+      <c r="G941" s="45" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7">
+      <c r="A942" s="8">
+        <v>941</v>
+      </c>
+      <c r="B942" s="119">
+        <v>383</v>
+      </c>
+      <c r="C942" s="45" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D942" s="119">
+        <v>7</v>
+      </c>
+      <c r="E942" s="119">
+        <v>4</v>
+      </c>
+      <c r="F942" s="119">
+        <v>1</v>
+      </c>
+      <c r="G942" s="45" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7">
+      <c r="A943" s="8">
+        <v>942</v>
+      </c>
+      <c r="B943" s="119">
+        <v>383</v>
+      </c>
+      <c r="C943" s="119" t="s">
+        <v>863</v>
+      </c>
+      <c r="D943" s="119" t="s">
+        <v>864</v>
+      </c>
+      <c r="E943" s="119">
+        <v>5</v>
+      </c>
+      <c r="F943" s="119">
+        <v>1</v>
+      </c>
+      <c r="G943" s="45" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7">
+      <c r="A944" s="8">
+        <v>943</v>
+      </c>
+      <c r="B944" s="117">
+        <v>384</v>
+      </c>
+      <c r="C944" s="118" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D944" s="117">
+        <v>8</v>
+      </c>
+      <c r="E944" s="117">
+        <v>3</v>
+      </c>
+      <c r="F944" s="117">
+        <v>1</v>
+      </c>
+      <c r="G944" s="118" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7">
+      <c r="A945" s="8">
+        <v>944</v>
+      </c>
+      <c r="B945" s="117">
+        <v>384</v>
+      </c>
+      <c r="C945" s="118" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D945" s="117">
+        <v>12</v>
+      </c>
+      <c r="E945" s="117">
+        <v>4</v>
+      </c>
+      <c r="F945" s="117">
+        <v>1</v>
+      </c>
+      <c r="G945" s="118" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7">
+      <c r="A946" s="8">
+        <v>945</v>
+      </c>
+      <c r="B946" s="117">
+        <v>384</v>
+      </c>
+      <c r="C946" s="117" t="s">
+        <v>863</v>
+      </c>
+      <c r="D946" s="117" t="s">
+        <v>864</v>
+      </c>
+      <c r="E946" s="117">
+        <v>5</v>
+      </c>
+      <c r="F946" s="117">
+        <v>1</v>
+      </c>
+      <c r="G946" s="118" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" s="8" customFormat="1">
+      <c r="A947" s="8">
+        <v>946</v>
+      </c>
+      <c r="B947" s="8">
+        <v>385</v>
+      </c>
+      <c r="C947" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D947" s="15">
+        <v>0</v>
+      </c>
+      <c r="E947" s="14">
+        <v>2</v>
+      </c>
+      <c r="F947" s="14">
+        <v>1</v>
+      </c>
+      <c r="G947" s="15" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7" s="8" customFormat="1">
+      <c r="A948" s="8">
+        <v>947</v>
+      </c>
+      <c r="B948" s="8">
+        <v>386</v>
+      </c>
+      <c r="C948" s="15" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D948" s="15">
+        <v>1</v>
+      </c>
+      <c r="E948" s="14">
+        <v>3</v>
+      </c>
+      <c r="F948" s="14">
+        <v>1</v>
+      </c>
+      <c r="G948" s="15" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7">
+      <c r="A949" s="8">
+        <v>948</v>
+      </c>
+      <c r="B949" s="123">
+        <v>387</v>
+      </c>
+      <c r="C949" s="124" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D949" s="123" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E949" s="123">
+        <v>5</v>
+      </c>
+      <c r="F949" s="123">
+        <v>1</v>
+      </c>
+      <c r="G949" s="123" t="s">
+        <v>2085</v>
       </c>
     </row>
   </sheetData>
@@ -49645,7 +50192,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49762,7 +50309,7 @@
         <v>895</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -49775,17 +50322,17 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="93">
+      <c r="A6" s="84">
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -49798,14 +50345,14 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="93">
+      <c r="A7" s="84">
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>1611</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1606</v>
@@ -49821,7 +50368,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="93">
+      <c r="A8" s="84">
         <v>7</v>
       </c>
       <c r="B8" s="68" t="s">
@@ -49831,7 +50378,7 @@
         <v>895</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -49844,17 +50391,17 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="93">
+      <c r="A9" s="84">
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -49863,21 +50410,21 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="93">
+      <c r="A10" s="84">
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -49886,21 +50433,21 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="93">
+      <c r="A11" s="84">
         <v>10</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -49909,7 +50456,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
   </sheetData>
@@ -50002,7 +50549,7 @@
         <v>863</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="8" spans="1:11">

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10880,8 +10880,8 @@
   <dimension ref="A1:Q473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B356" sqref="B356"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -28532,10 +28532,10 @@
   <dimension ref="A1:I990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C846" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F863" sqref="A858:F863"/>
+      <selection pane="bottomRight" activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -32538,7 +32538,7 @@
         <v>1032</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="E172" s="8">
         <v>2</v>
@@ -32653,7 +32653,7 @@
         <v>1032</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E177" s="8">
         <v>2</v>
@@ -52245,7 +52245,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="2188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5086" uniqueCount="2189">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8824,10 +8824,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Lv9开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_recharge_shovel_value</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10055,6 +10051,14 @@
   </si>
   <si>
     <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv4开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -10904,8 +10908,8 @@
   <dimension ref="A1:Q475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A198" sqref="A198:XFD198"/>
+      <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C436" sqref="A436:C436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11924,7 +11928,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C59" s="9">
         <v>22</v>
@@ -11939,7 +11943,7 @@
         <v>112</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C60" s="9">
         <v>22</v>
@@ -11954,7 +11958,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="C61" s="9">
         <v>22</v>
@@ -11969,7 +11973,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="C62" s="9">
         <v>24</v>
@@ -11983,7 +11987,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C63" s="9">
         <v>22</v>
@@ -11997,7 +12001,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C64" s="9">
         <v>22</v>
@@ -12012,7 +12016,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C65" s="53">
         <v>22</v>
@@ -12027,7 +12031,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C66" s="53">
         <v>23</v>
@@ -12041,7 +12045,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C67" s="9">
         <v>24</v>
@@ -12059,7 +12063,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C68" s="9">
         <v>25</v>
@@ -12110,7 +12114,7 @@
         <v>124</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -12146,7 +12150,7 @@
         <v>126</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="C73" s="53">
         <v>22</v>
@@ -12285,7 +12289,7 @@
         <v>135</v>
       </c>
       <c r="B82" s="49" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -13441,7 +13445,7 @@
     </row>
     <row r="198" spans="1:10" s="18" customFormat="1">
       <c r="A198" s="56" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B198" s="56" t="s">
         <v>315</v>
@@ -14886,7 +14890,7 @@
         <v>1867</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="C356" s="3">
         <v>343</v>
@@ -15048,7 +15052,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="27" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B383" s="27" t="s">
         <v>1719</v>
@@ -15416,10 +15420,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="27" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B427" s="27" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C427" s="3">
         <v>344</v>
@@ -15427,10 +15431,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="27" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B428" s="27" t="s">
         <v>1922</v>
-      </c>
-      <c r="B428" s="27" t="s">
-        <v>1923</v>
       </c>
       <c r="C428" s="3">
         <v>345</v>
@@ -15438,10 +15442,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="27" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B430" s="27" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C430" s="3">
         <v>346</v>
@@ -15449,10 +15453,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="27" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C432" s="3">
         <v>347</v>
@@ -15460,10 +15464,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="27" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B433" s="27" t="s">
         <v>1911</v>
-      </c>
-      <c r="B433" s="27" t="s">
-        <v>1912</v>
       </c>
       <c r="C433" s="3">
         <v>348</v>
@@ -15471,10 +15475,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="27" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B435" s="27" t="s">
         <v>1927</v>
-      </c>
-      <c r="B435" s="27" t="s">
-        <v>1928</v>
       </c>
       <c r="C435" s="3">
         <v>351</v>
@@ -15482,10 +15486,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="27" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B436" s="27" t="s">
         <v>1929</v>
-      </c>
-      <c r="B436" s="27" t="s">
-        <v>1930</v>
       </c>
       <c r="C436" s="3">
         <v>352</v>
@@ -15493,10 +15497,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="27" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B438" s="27" t="s">
         <v>1938</v>
-      </c>
-      <c r="B438" s="27" t="s">
-        <v>1939</v>
       </c>
       <c r="C438" s="3">
         <v>353</v>
@@ -15504,10 +15508,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="3" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C440" s="3">
         <v>354</v>
@@ -15515,10 +15519,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="27" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B442" s="27" t="s">
         <v>1948</v>
-      </c>
-      <c r="B442" s="27" t="s">
-        <v>1949</v>
       </c>
       <c r="C442" s="3">
         <v>355</v>
@@ -15530,10 +15534,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="27" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B444" s="27" t="s">
         <v>1977</v>
-      </c>
-      <c r="B444" s="27" t="s">
-        <v>1978</v>
       </c>
       <c r="C444" s="3">
         <v>368</v>
@@ -15541,10 +15545,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="72" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B446" s="27" t="s">
         <v>1983</v>
-      </c>
-      <c r="B446" s="27" t="s">
-        <v>1984</v>
       </c>
       <c r="C446" s="3">
         <v>356</v>
@@ -15552,10 +15556,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="72" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B447" s="27" t="s">
         <v>1985</v>
-      </c>
-      <c r="B447" s="27" t="s">
-        <v>1986</v>
       </c>
       <c r="C447" s="3">
         <v>360</v>
@@ -15563,10 +15567,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="3" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C449" s="3">
         <v>369</v>
@@ -15574,10 +15578,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="27" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B451" s="27" t="s">
         <v>2001</v>
-      </c>
-      <c r="B451" s="27" t="s">
-        <v>2002</v>
       </c>
       <c r="C451" s="3">
         <v>374</v>
@@ -15585,10 +15589,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="27" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B453" s="27" t="s">
         <v>2007</v>
-      </c>
-      <c r="B453" s="27" t="s">
-        <v>2008</v>
       </c>
       <c r="C453" s="3">
         <v>375</v>
@@ -15596,10 +15600,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="27" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B454" s="27" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C454" s="3">
         <v>376</v>
@@ -15607,10 +15611,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="27" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B455" s="27" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C455" s="3">
         <v>377</v>
@@ -15618,10 +15622,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="27" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B456" s="27" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C456" s="3">
         <v>378</v>
@@ -15629,10 +15633,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="27" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B458" s="27" t="s">
         <v>2017</v>
-      </c>
-      <c r="B458" s="27" t="s">
-        <v>2018</v>
       </c>
       <c r="C458" s="3">
         <v>379</v>
@@ -15640,10 +15644,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B460" s="3" t="s">
         <v>2032</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>2033</v>
       </c>
       <c r="C460" s="3">
         <v>381</v>
@@ -15651,10 +15655,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="27" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B462" s="27" t="s">
         <v>2044</v>
-      </c>
-      <c r="B462" s="27" t="s">
-        <v>2045</v>
       </c>
       <c r="C462" s="3">
         <v>385</v>
@@ -15662,10 +15666,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="27" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B463" s="27" t="s">
         <v>2046</v>
-      </c>
-      <c r="B463" s="27" t="s">
-        <v>2047</v>
       </c>
       <c r="C463" s="3">
         <v>386</v>
@@ -15673,18 +15677,18 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="3" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B466" s="27" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C466" s="3">
         <v>22</v>
@@ -15692,10 +15696,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="3" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B467" s="27" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C467" s="3">
         <v>23</v>
@@ -15703,10 +15707,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="3" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B468" s="27" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C468" s="3">
         <v>24</v>
@@ -15714,10 +15718,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="3" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B469" s="27" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C469" s="3">
         <v>26</v>
@@ -15725,10 +15729,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B471" s="3" t="s">
         <v>2135</v>
-      </c>
-      <c r="B471" s="3" t="s">
-        <v>2136</v>
       </c>
       <c r="C471" s="3">
         <v>22</v>
@@ -15736,10 +15740,10 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="3" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B473" s="3" t="s">
         <v>2169</v>
-      </c>
-      <c r="B473" s="3" t="s">
-        <v>2170</v>
       </c>
       <c r="C473" s="3">
         <v>410</v>
@@ -15747,10 +15751,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="3" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C475" s="3">
         <v>23</v>
@@ -15814,7 +15818,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>450</v>
@@ -22373,7 +22377,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="40" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D192" s="40" t="s">
         <v>790</v>
@@ -25625,7 +25629,7 @@
         <v>1615248000</v>
       </c>
       <c r="L289" s="72" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="73" customFormat="1">
@@ -25659,7 +25663,7 @@
         <v>1615248000</v>
       </c>
       <c r="L290" s="71" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="73" customFormat="1">
@@ -25673,7 +25677,7 @@
         <v>1632</v>
       </c>
       <c r="D291" s="102" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="E291" s="71"/>
       <c r="F291" s="71"/>
@@ -25693,7 +25697,7 @@
         <v>1615248000</v>
       </c>
       <c r="L291" s="71" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="73" customFormat="1">
@@ -25707,7 +25711,7 @@
         <v>1826</v>
       </c>
       <c r="D292" s="101" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="E292" s="71"/>
       <c r="F292" s="71"/>
@@ -25727,7 +25731,7 @@
         <v>1615248000</v>
       </c>
       <c r="L292" s="71" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -26090,7 +26094,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1659</v>
@@ -26639,7 +26643,7 @@
         <v>1713</v>
       </c>
       <c r="D321" s="101" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="E321" s="102"/>
       <c r="F321" s="102"/>
@@ -26749,7 +26753,7 @@
         <v>1</v>
       </c>
       <c r="J324" s="16" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="K324" s="26">
         <v>1598916600</v>
@@ -26990,7 +26994,7 @@
         <v>0</v>
       </c>
       <c r="C332" s="87" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D332" s="87" t="s">
         <v>1806</v>
@@ -27059,7 +27063,7 @@
         <v>1832</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -27141,7 +27145,7 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
@@ -27158,10 +27162,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -27190,10 +27194,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -27224,10 +27228,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="72" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D339" s="30" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G339" s="26">
         <v>357</v>
@@ -27256,10 +27260,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="72" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G340" s="26">
         <v>358</v>
@@ -27288,10 +27292,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="72" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G341" s="26">
         <v>359</v>
@@ -27320,10 +27324,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="72" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G342" s="26">
         <v>361</v>
@@ -27352,10 +27356,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="72" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G343" s="26">
         <v>362</v>
@@ -27384,10 +27388,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="72" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G344" s="26">
         <v>363</v>
@@ -27416,10 +27420,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="72" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="G345" s="26">
         <v>364</v>
@@ -27431,7 +27435,7 @@
         <v>1</v>
       </c>
       <c r="J345" s="16" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="K345" s="17">
         <v>1598889600</v>
@@ -27448,10 +27452,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="30" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D346" s="78" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="G346" s="26">
         <v>365</v>
@@ -27480,10 +27484,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="30" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D347" s="78" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="G347" s="26">
         <v>366</v>
@@ -27512,10 +27516,10 @@
         <v>1</v>
       </c>
       <c r="C348" s="101" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D348" s="101" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="17"/>
@@ -27546,10 +27550,10 @@
         <v>0</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D349" s="16" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E349" s="16"/>
       <c r="F349" s="16"/>
@@ -27563,13 +27567,13 @@
         <v>1</v>
       </c>
       <c r="J349" s="16" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="K349" s="16">
         <v>1610409600</v>
       </c>
       <c r="L349" s="16" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="45" customFormat="1">
@@ -27580,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D350" s="16" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E350" s="16"/>
       <c r="F350" s="16"/>
@@ -27597,13 +27601,13 @@
         <v>1</v>
       </c>
       <c r="J350" s="16" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="K350" s="16">
         <v>1610409600</v>
       </c>
       <c r="L350" s="16" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="45" customFormat="1">
@@ -27614,10 +27618,10 @@
         <v>1</v>
       </c>
       <c r="C351" s="66" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D351" s="66" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="E351" s="66"/>
       <c r="F351" s="66"/>
@@ -27631,13 +27635,13 @@
         <v>1</v>
       </c>
       <c r="J351" s="66" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="K351" s="66">
         <v>1610380800</v>
       </c>
       <c r="L351" s="66" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="45" customFormat="1">
@@ -27648,10 +27652,10 @@
         <v>1</v>
       </c>
       <c r="C352" s="66" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D352" s="66" t="s">
         <v>1999</v>
-      </c>
-      <c r="D352" s="66" t="s">
-        <v>2000</v>
       </c>
       <c r="E352" s="66"/>
       <c r="F352" s="66"/>
@@ -27665,13 +27669,13 @@
         <v>1</v>
       </c>
       <c r="J352" s="66" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="K352" s="66">
         <v>1610380800</v>
       </c>
       <c r="L352" s="66" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="45" customFormat="1">
@@ -27682,10 +27686,10 @@
         <v>1</v>
       </c>
       <c r="C353" s="106" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E353" s="16"/>
       <c r="F353" s="16"/>
@@ -27716,10 +27720,10 @@
         <v>0</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D354" s="16" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E354" s="16"/>
       <c r="F354" s="16"/>
@@ -27739,7 +27743,7 @@
         <v>1611014400</v>
       </c>
       <c r="L354" s="16" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="355" spans="1:12" s="45" customFormat="1">
@@ -27750,10 +27754,10 @@
         <v>0</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D355" s="16" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="E355" s="16"/>
       <c r="F355" s="16"/>
@@ -27773,7 +27777,7 @@
         <v>1611014400</v>
       </c>
       <c r="L355" s="16" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="356" spans="1:12" s="45" customFormat="1">
@@ -27784,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E356" s="16"/>
       <c r="F356" s="16"/>
@@ -27807,7 +27811,7 @@
         <v>1611014400</v>
       </c>
       <c r="L356" s="16" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="357" spans="1:12" s="45" customFormat="1">
@@ -27818,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="C357" s="106" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="E357" s="16"/>
       <c r="F357" s="16"/>
@@ -27852,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="C358" s="16" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D358" s="16" t="s">
         <v>2058</v>
-      </c>
-      <c r="D358" s="16" t="s">
-        <v>2059</v>
       </c>
       <c r="E358" s="16"/>
       <c r="F358" s="16"/>
@@ -27875,7 +27879,7 @@
         <v>1611590400</v>
       </c>
       <c r="L358" s="16" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="359" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27886,10 +27890,10 @@
         <v>0</v>
       </c>
       <c r="C359" s="108" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="E359" s="16"/>
       <c r="F359" s="16"/>
@@ -27909,7 +27913,7 @@
         <v>1611590400</v>
       </c>
       <c r="L359" s="16" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="360" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27920,10 +27924,10 @@
         <v>0</v>
       </c>
       <c r="C360" s="108" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="E360" s="16"/>
       <c r="F360" s="16"/>
@@ -27943,7 +27947,7 @@
         <v>1611590400</v>
       </c>
       <c r="L360" s="16" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="361" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27954,10 +27958,10 @@
         <v>0</v>
       </c>
       <c r="C361" s="108" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="E361" s="16"/>
       <c r="F361" s="16"/>
@@ -27977,7 +27981,7 @@
         <v>1611590400</v>
       </c>
       <c r="L361" s="16" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="362" spans="1:12" s="45" customFormat="1">
@@ -27988,10 +27992,10 @@
         <v>0</v>
       </c>
       <c r="C362" s="106" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="E362" s="16"/>
       <c r="F362" s="16"/>
@@ -28022,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="C363" s="31" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D363" s="16" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="E363" s="17"/>
       <c r="F363" s="17"/>
@@ -28045,7 +28049,7 @@
         <v>1612828800</v>
       </c>
       <c r="L363" s="16" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="364" spans="1:12" s="22" customFormat="1">
@@ -28056,10 +28060,10 @@
         <v>0</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D364" s="16" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E364" s="17"/>
       <c r="F364" s="17"/>
@@ -28079,7 +28083,7 @@
         <v>1612828800</v>
       </c>
       <c r="L364" s="16" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="365" spans="1:12" s="22" customFormat="1">
@@ -28090,10 +28094,10 @@
         <v>0</v>
       </c>
       <c r="C365" s="31" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D365" s="16" t="s">
         <v>2093</v>
-      </c>
-      <c r="D365" s="16" t="s">
-        <v>2094</v>
       </c>
       <c r="E365" s="17"/>
       <c r="F365" s="17"/>
@@ -28113,7 +28117,7 @@
         <v>1612828800</v>
       </c>
       <c r="L365" s="16" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="366" spans="1:12" s="22" customFormat="1">
@@ -28124,10 +28128,10 @@
         <v>1</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D366" s="16" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="E366" s="17"/>
       <c r="F366" s="17"/>
@@ -28147,7 +28151,7 @@
         <v>1615852800</v>
       </c>
       <c r="L366" s="16" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="22" customFormat="1">
@@ -28158,10 +28162,10 @@
         <v>1</v>
       </c>
       <c r="C367" s="16" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D367" s="16" t="s">
         <v>2114</v>
-      </c>
-      <c r="D367" s="16" t="s">
-        <v>2115</v>
       </c>
       <c r="E367" s="17"/>
       <c r="F367" s="17"/>
@@ -28181,7 +28185,7 @@
         <v>1615852800</v>
       </c>
       <c r="L367" s="16" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="368" spans="1:12" s="22" customFormat="1">
@@ -28192,10 +28196,10 @@
         <v>0</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D368" s="16" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E368" s="17"/>
       <c r="F368" s="17"/>
@@ -28215,7 +28219,7 @@
         <v>1615248000</v>
       </c>
       <c r="L368" s="16" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="369" spans="1:12" s="22" customFormat="1">
@@ -28226,10 +28230,10 @@
         <v>0</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D369" s="16" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E369" s="17"/>
       <c r="F369" s="17"/>
@@ -28249,7 +28253,7 @@
         <v>1615248000</v>
       </c>
       <c r="L369" s="16" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="370" spans="1:12" s="22" customFormat="1">
@@ -28260,10 +28264,10 @@
         <v>1</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D370" s="16" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="E370" s="17"/>
       <c r="F370" s="17"/>
@@ -28294,10 +28298,10 @@
         <v>1</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="D371" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E371" s="17"/>
       <c r="F371" s="17"/>
@@ -28328,10 +28332,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="58" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D372" s="66" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="E372" s="65"/>
       <c r="F372" s="65"/>
@@ -28351,7 +28355,7 @@
         <v>1615824000</v>
       </c>
       <c r="L372" s="66" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="373" spans="1:12" s="67" customFormat="1">
@@ -28362,10 +28366,10 @@
         <v>1</v>
       </c>
       <c r="C373" s="58" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D373" s="66" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E373" s="65"/>
       <c r="F373" s="65"/>
@@ -28385,7 +28389,7 @@
         <v>1615824000</v>
       </c>
       <c r="L373" s="66" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="374" spans="1:12" s="22" customFormat="1">
@@ -28396,10 +28400,10 @@
         <v>1</v>
       </c>
       <c r="C374" s="17" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D374" s="17" t="s">
         <v>2131</v>
-      </c>
-      <c r="D374" s="17" t="s">
-        <v>2132</v>
       </c>
       <c r="E374" s="17"/>
       <c r="F374" s="17"/>
@@ -28413,7 +28417,7 @@
         <v>1</v>
       </c>
       <c r="J374" s="17" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="K374" s="17">
         <v>1615248000</v>
@@ -28428,10 +28432,10 @@
         <v>0</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D375" s="16" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="E375" s="17"/>
       <c r="F375" s="17"/>
@@ -28451,7 +28455,7 @@
         <v>1615824000</v>
       </c>
       <c r="L375" s="16" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="376" spans="1:12" s="22" customFormat="1">
@@ -28462,10 +28466,10 @@
         <v>0</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D376" s="16" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E376" s="17"/>
       <c r="F376" s="17"/>
@@ -28485,7 +28489,7 @@
         <v>1615824000</v>
       </c>
       <c r="L376" s="16" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="377" spans="1:12" s="22" customFormat="1">
@@ -28496,10 +28500,10 @@
         <v>0</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D377" s="16" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E377" s="17"/>
       <c r="F377" s="17"/>
@@ -28519,7 +28523,7 @@
         <v>1615824000</v>
       </c>
       <c r="L377" s="16" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="378" spans="1:12" s="22" customFormat="1">
@@ -28530,10 +28534,10 @@
         <v>0</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D378" s="16" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E378" s="17"/>
       <c r="F378" s="17"/>
@@ -28553,7 +28557,7 @@
         <v>1615824000</v>
       </c>
       <c r="L378" s="16" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
   </sheetData>
@@ -28567,13 +28571,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I999"/>
+  <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C868" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A182" sqref="A171:XFD182"/>
+      <selection pane="bottomRight" activeCell="D892" sqref="D892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -30770,7 +30774,7 @@
         <v>852</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -32068,7 +32072,7 @@
         <v>1032</v>
       </c>
       <c r="D150" s="97" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E150" s="96">
         <v>2</v>
@@ -32077,7 +32081,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="97" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -32737,7 +32741,7 @@
         <v>1032</v>
       </c>
       <c r="D179" s="80" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -32760,7 +32764,7 @@
         <v>1032</v>
       </c>
       <c r="D180" s="80" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -32783,7 +32787,7 @@
         <v>1032</v>
       </c>
       <c r="D181" s="80" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="E181" s="14">
         <v>2</v>
@@ -32792,7 +32796,7 @@
         <v>6</v>
       </c>
       <c r="G181" s="15" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="8" customFormat="1">
@@ -32806,7 +32810,7 @@
         <v>1032</v>
       </c>
       <c r="D182" s="80" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="E182" s="14">
         <v>2</v>
@@ -32815,7 +32819,7 @@
         <v>7</v>
       </c>
       <c r="G182" s="15" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="8" customFormat="1">
@@ -33238,7 +33242,7 @@
         <v>1032</v>
       </c>
       <c r="D200" s="91" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E200" s="89">
         <v>2</v>
@@ -33263,7 +33267,7 @@
         <v>1032</v>
       </c>
       <c r="D201" s="91" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E201" s="89">
         <v>2</v>
@@ -42768,7 +42772,7 @@
         <v>1142</v>
       </c>
       <c r="D603" s="15" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E603" s="14">
         <v>2</v>
@@ -42918,7 +42922,7 @@
         <v>1142</v>
       </c>
       <c r="D609" s="15" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E609" s="14">
         <v>2</v>
@@ -43068,7 +43072,7 @@
         <v>1142</v>
       </c>
       <c r="D615" s="15" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E615" s="14">
         <v>2</v>
@@ -43218,7 +43222,7 @@
         <v>1142</v>
       </c>
       <c r="D621" s="15" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E621" s="14">
         <v>2</v>
@@ -43368,7 +43372,7 @@
         <v>1142</v>
       </c>
       <c r="D627" s="15" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E627" s="14">
         <v>2</v>
@@ -43518,7 +43522,7 @@
         <v>1142</v>
       </c>
       <c r="D633" s="15" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E633" s="14">
         <v>2</v>
@@ -46124,7 +46128,7 @@
         <v>2</v>
       </c>
       <c r="G738" s="19" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="H738" s="8"/>
       <c r="I738" s="8"/>
@@ -46324,7 +46328,7 @@
         <v>2</v>
       </c>
       <c r="G746" s="19" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="H746" s="8"/>
       <c r="I746" s="8"/>
@@ -47865,7 +47869,7 @@
         <v>1032</v>
       </c>
       <c r="D808" s="9" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -47940,7 +47944,7 @@
         <v>1032</v>
       </c>
       <c r="D811" s="10" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E811" s="9">
         <v>5</v>
@@ -48290,7 +48294,7 @@
         <v>1032</v>
       </c>
       <c r="D825" s="9" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E825" s="9">
         <v>2</v>
@@ -48390,7 +48394,7 @@
         <v>1032</v>
       </c>
       <c r="D829" s="10" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="E829" s="8">
         <v>2</v>
@@ -48399,7 +48403,7 @@
         <v>4</v>
       </c>
       <c r="G829" s="10" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="H829" s="8"/>
       <c r="I829" s="8"/>
@@ -48440,7 +48444,7 @@
         <v>1032</v>
       </c>
       <c r="D831" s="9" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E831" s="9">
         <v>5</v>
@@ -48490,7 +48494,7 @@
         <v>1032</v>
       </c>
       <c r="D833" s="9" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E833" s="9">
         <v>5</v>
@@ -48615,7 +48619,7 @@
         <v>1032</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E838" s="9">
         <v>5</v>
@@ -48665,7 +48669,7 @@
         <v>1032</v>
       </c>
       <c r="D840" s="9" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E840" s="9">
         <v>2</v>
@@ -48715,7 +48719,7 @@
         <v>1032</v>
       </c>
       <c r="D842" s="9" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E842" s="9">
         <v>2</v>
@@ -48765,7 +48769,7 @@
         <v>1032</v>
       </c>
       <c r="D844" s="9" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E844" s="9">
         <v>5</v>
@@ -48865,7 +48869,7 @@
         <v>1032</v>
       </c>
       <c r="D848" s="93" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="E848" s="92">
         <v>2</v>
@@ -48890,7 +48894,7 @@
         <v>1032</v>
       </c>
       <c r="D849" s="14" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E849" s="14">
         <v>5</v>
@@ -48915,7 +48919,7 @@
         <v>1032</v>
       </c>
       <c r="D850" s="15" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="E850" s="14">
         <v>5</v>
@@ -48969,7 +48973,7 @@
         <v>1146</v>
       </c>
       <c r="D852" s="10" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E852" s="8">
         <v>5</v>
@@ -48994,7 +48998,7 @@
         <v>1146</v>
       </c>
       <c r="D853" s="10" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E853" s="8">
         <v>2</v>
@@ -49173,7 +49177,7 @@
         <v>1032</v>
       </c>
       <c r="D860" s="94" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E860" s="94">
         <v>2</v>
@@ -49230,7 +49234,7 @@
         <v>1</v>
       </c>
       <c r="G862" s="10" t="s">
-        <v>1891</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="863" spans="1:9" s="8" customFormat="1">
@@ -49292,7 +49296,7 @@
         <v>1146</v>
       </c>
       <c r="D865" s="10" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="E865" s="8">
         <v>5</v>
@@ -49342,7 +49346,7 @@
         <v>1146</v>
       </c>
       <c r="D867" s="10" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E867" s="8">
         <v>2</v>
@@ -49367,7 +49371,7 @@
         <v>852</v>
       </c>
       <c r="D868" s="10" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E868" s="8">
         <v>5</v>
@@ -49417,7 +49421,7 @@
         <v>1032</v>
       </c>
       <c r="D870" s="10" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E870" s="8">
         <v>2</v>
@@ -49467,7 +49471,7 @@
         <v>852</v>
       </c>
       <c r="D872" s="10" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E872" s="8">
         <v>2</v>
@@ -49517,7 +49521,7 @@
         <v>1032</v>
       </c>
       <c r="D874" s="10" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
@@ -49567,7 +49571,7 @@
         <v>1142</v>
       </c>
       <c r="D876" s="10" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E876" s="8">
         <v>2</v>
@@ -49576,7 +49580,7 @@
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="H876" s="8"/>
       <c r="I876" s="8"/>
@@ -49592,7 +49596,7 @@
         <v>1032</v>
       </c>
       <c r="D877" s="8" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="E877" s="8">
         <v>2</v>
@@ -49601,7 +49605,7 @@
         <v>2</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H877" s="8"/>
       <c r="I877" s="8"/>
@@ -49617,7 +49621,7 @@
         <v>1032</v>
       </c>
       <c r="D878" s="10" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E878" s="8">
         <v>2</v>
@@ -49626,7 +49630,7 @@
         <v>3</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="8" customFormat="1">
@@ -49640,7 +49644,7 @@
         <v>1032</v>
       </c>
       <c r="D879" s="10" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="E879" s="8">
         <v>2</v>
@@ -49649,7 +49653,7 @@
         <v>4</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="880" spans="1:9" s="8" customFormat="1">
@@ -49663,7 +49667,7 @@
         <v>1146</v>
       </c>
       <c r="D880" s="10" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="E880" s="8">
         <v>2</v>
@@ -49686,7 +49690,7 @@
         <v>1146</v>
       </c>
       <c r="D881" s="10" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -49709,7 +49713,7 @@
         <v>1142</v>
       </c>
       <c r="D882" s="10" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="E882" s="8">
         <v>5</v>
@@ -49732,7 +49736,7 @@
         <v>1142</v>
       </c>
       <c r="D883" s="10" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="E883" s="8">
         <v>5</v>
@@ -49764,7 +49768,7 @@
         <v>1</v>
       </c>
       <c r="G884" s="10" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="885" spans="1:9" s="8" customFormat="1">
@@ -49801,7 +49805,7 @@
         <v>1142</v>
       </c>
       <c r="D886" s="10" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="E886" s="8">
         <v>5</v>
@@ -49810,7 +49814,7 @@
         <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="887" spans="1:9" s="8" customFormat="1">
@@ -49824,7 +49828,7 @@
         <v>1142</v>
       </c>
       <c r="D887" s="10" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="E887" s="8">
         <v>2</v>
@@ -49833,7 +49837,7 @@
         <v>1</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="888" spans="1:9">
@@ -49844,7 +49848,7 @@
         <v>352</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D888" s="10" t="s">
         <v>1598</v>
@@ -49856,7 +49860,7 @@
         <v>2</v>
       </c>
       <c r="G888" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="H888" s="8"/>
       <c r="I888" s="8"/>
@@ -49881,7 +49885,7 @@
         <v>3</v>
       </c>
       <c r="G889" s="10" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -49891,22 +49895,22 @@
         <v>889</v>
       </c>
       <c r="B890" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>1940</v>
+        <v>1142</v>
       </c>
       <c r="D890" s="10" t="s">
-        <v>1941</v>
+        <v>2188</v>
       </c>
       <c r="E890" s="8">
         <v>2</v>
       </c>
       <c r="F890" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>1942</v>
+        <v>1932</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -49916,22 +49920,22 @@
         <v>890</v>
       </c>
       <c r="B891" s="8">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C891" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D891" s="10" t="s">
-        <v>1814</v>
+        <v>2181</v>
       </c>
       <c r="E891" s="8">
+        <v>2</v>
+      </c>
+      <c r="F891" s="8">
         <v>5</v>
       </c>
-      <c r="F891" s="8">
-        <v>1</v>
-      </c>
       <c r="G891" s="10" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -49941,22 +49945,22 @@
         <v>891</v>
       </c>
       <c r="B892" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>1032</v>
+        <v>1939</v>
       </c>
       <c r="D892" s="10" t="s">
-        <v>1908</v>
+        <v>1940</v>
       </c>
       <c r="E892" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F892" s="8">
         <v>1</v>
       </c>
       <c r="G892" s="10" t="s">
-        <v>1068</v>
+        <v>1941</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -49966,22 +49970,22 @@
         <v>892</v>
       </c>
       <c r="B893" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D893" s="8">
-        <v>100</v>
+        <v>1142</v>
+      </c>
+      <c r="D893" s="10" t="s">
+        <v>1814</v>
       </c>
       <c r="E893" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F893" s="8">
         <v>1</v>
       </c>
       <c r="G893" s="10" t="s">
-        <v>1947</v>
+        <v>1932</v>
       </c>
       <c r="H893" s="8"/>
       <c r="I893" s="8"/>
@@ -49991,22 +49995,22 @@
         <v>893</v>
       </c>
       <c r="B894" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C894" s="10" t="s">
-        <v>1142</v>
+        <v>1032</v>
       </c>
       <c r="D894" s="10" t="s">
-        <v>1817</v>
+        <v>1907</v>
       </c>
       <c r="E894" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F894" s="8">
         <v>1</v>
       </c>
       <c r="G894" s="10" t="s">
-        <v>1511</v>
+        <v>1068</v>
       </c>
       <c r="H894" s="8"/>
       <c r="I894" s="8"/>
@@ -50028,10 +50032,10 @@
         <v>3</v>
       </c>
       <c r="F895" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G895" s="10" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
@@ -50047,13 +50051,13 @@
         <v>1142</v>
       </c>
       <c r="D896" s="10" t="s">
-        <v>1908</v>
+        <v>1817</v>
       </c>
       <c r="E896" s="8">
         <v>2</v>
       </c>
       <c r="F896" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G896" s="10" t="s">
         <v>1511</v>
@@ -50066,22 +50070,22 @@
         <v>896</v>
       </c>
       <c r="B897" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C897" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D897" s="10" t="s">
-        <v>1952</v>
+        <v>899</v>
+      </c>
+      <c r="D897" s="8">
+        <v>100</v>
       </c>
       <c r="E897" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F897" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G897" s="10" t="s">
-        <v>1953</v>
+        <v>1946</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -50091,22 +50095,22 @@
         <v>897</v>
       </c>
       <c r="B898" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D898" s="10">
-        <v>2</v>
+        <v>1142</v>
+      </c>
+      <c r="D898" s="10" t="s">
+        <v>1907</v>
       </c>
       <c r="E898" s="8">
         <v>2</v>
       </c>
       <c r="F898" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G898" s="10" t="s">
-        <v>1954</v>
+        <v>1511</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -50116,13 +50120,13 @@
         <v>898</v>
       </c>
       <c r="B899" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C899" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D899" s="10" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E899" s="8">
         <v>5</v>
@@ -50131,7 +50135,7 @@
         <v>1</v>
       </c>
       <c r="G899" s="10" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -50141,27 +50145,27 @@
         <v>899</v>
       </c>
       <c r="B900" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C900" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D900" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E900" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F900" s="8">
         <v>1</v>
       </c>
       <c r="G900" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
     </row>
-    <row r="901" spans="1:9" s="8" customFormat="1">
+    <row r="901" spans="1:9">
       <c r="A901" s="8">
         <v>900</v>
       </c>
@@ -50169,36 +50173,38 @@
         <v>357</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D901" s="10">
+        <v>1142</v>
+      </c>
+      <c r="D901" s="10" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E901" s="8">
         <v>5</v>
       </c>
-      <c r="E901" s="8">
-        <v>4</v>
-      </c>
       <c r="F901" s="8">
         <v>1</v>
       </c>
       <c r="G901" s="10" t="s">
-        <v>1954</v>
-      </c>
+        <v>1952</v>
+      </c>
+      <c r="H901" s="8"/>
+      <c r="I901" s="8"/>
     </row>
     <row r="902" spans="1:9">
       <c r="A902" s="8">
         <v>901</v>
       </c>
       <c r="B902" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C902" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D902" s="10" t="s">
-        <v>1952</v>
+        <v>1117</v>
+      </c>
+      <c r="D902" s="10">
+        <v>3</v>
       </c>
       <c r="E902" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F902" s="8">
         <v>1</v>
@@ -50209,30 +50215,28 @@
       <c r="H902" s="8"/>
       <c r="I902" s="8"/>
     </row>
-    <row r="903" spans="1:9">
+    <row r="903" spans="1:9" s="8" customFormat="1">
       <c r="A903" s="8">
         <v>902</v>
       </c>
       <c r="B903" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C903" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D903" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E903" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F903" s="8">
         <v>1</v>
       </c>
       <c r="G903" s="10" t="s">
-        <v>1954</v>
-      </c>
-      <c r="H903" s="8"/>
-      <c r="I903" s="8"/>
+        <v>1953</v>
+      </c>
     </row>
     <row r="904" spans="1:9">
       <c r="A904" s="8">
@@ -50242,19 +50246,19 @@
         <v>358</v>
       </c>
       <c r="C904" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D904" s="10">
-        <v>7</v>
+        <v>1142</v>
+      </c>
+      <c r="D904" s="10" t="s">
+        <v>1951</v>
       </c>
       <c r="E904" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F904" s="8">
         <v>1</v>
       </c>
       <c r="G904" s="10" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="H904" s="8"/>
       <c r="I904" s="8"/>
@@ -50264,16 +50268,16 @@
         <v>904</v>
       </c>
       <c r="B905" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C905" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D905" s="10" t="s">
-        <v>1952</v>
+        <v>1117</v>
+      </c>
+      <c r="D905" s="10">
+        <v>6</v>
       </c>
       <c r="E905" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F905" s="8">
         <v>1</v>
@@ -50289,22 +50293,22 @@
         <v>905</v>
       </c>
       <c r="B906" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C906" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D906" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E906" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F906" s="8">
         <v>1</v>
       </c>
       <c r="G906" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="H906" s="8"/>
       <c r="I906" s="8"/>
@@ -50314,22 +50318,22 @@
         <v>906</v>
       </c>
       <c r="B907" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C907" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D907" s="10" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E907" s="8">
+        <v>5</v>
+      </c>
+      <c r="F907" s="8">
+        <v>1</v>
+      </c>
+      <c r="G907" s="10" t="s">
         <v>1952</v>
-      </c>
-      <c r="E907" s="8">
-        <v>2</v>
-      </c>
-      <c r="F907" s="8">
-        <v>1</v>
-      </c>
-      <c r="G907" s="10" t="s">
-        <v>1953</v>
       </c>
       <c r="H907" s="8"/>
       <c r="I907" s="8"/>
@@ -50339,71 +50343,75 @@
         <v>907</v>
       </c>
       <c r="B908" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C908" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D908" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E908" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F908" s="8">
         <v>1</v>
       </c>
       <c r="G908" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="H908" s="8"/>
       <c r="I908" s="8"/>
     </row>
-    <row r="909" spans="1:9" s="8" customFormat="1">
+    <row r="909" spans="1:9">
       <c r="A909" s="8">
         <v>908</v>
       </c>
       <c r="B909" s="8">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C909" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D909" s="10" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E909" s="8">
+        <v>2</v>
+      </c>
+      <c r="F909" s="8">
+        <v>1</v>
+      </c>
+      <c r="G909" s="10" t="s">
         <v>1952</v>
       </c>
-      <c r="E909" s="8">
-        <v>2</v>
-      </c>
-      <c r="F909" s="8">
-        <v>1</v>
-      </c>
-      <c r="G909" s="10" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="910" spans="1:9" s="8" customFormat="1">
+      <c r="H909" s="8"/>
+      <c r="I909" s="8"/>
+    </row>
+    <row r="910" spans="1:9">
       <c r="A910" s="8">
         <v>909</v>
       </c>
       <c r="B910" s="8">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C910" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D910" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E910" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F910" s="8">
         <v>1</v>
       </c>
       <c r="G910" s="10" t="s">
-        <v>1954</v>
-      </c>
+        <v>1953</v>
+      </c>
+      <c r="H910" s="8"/>
+      <c r="I910" s="8"/>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
       <c r="A911" s="8">
@@ -50413,19 +50421,19 @@
         <v>361</v>
       </c>
       <c r="C911" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D911" s="10">
-        <v>5</v>
+        <v>1142</v>
+      </c>
+      <c r="D911" s="10" t="s">
+        <v>1951</v>
       </c>
       <c r="E911" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F911" s="8">
         <v>1</v>
       </c>
       <c r="G911" s="10" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -50433,16 +50441,16 @@
         <v>911</v>
       </c>
       <c r="B912" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C912" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D912" s="10" t="s">
-        <v>1952</v>
+        <v>1117</v>
+      </c>
+      <c r="D912" s="10">
+        <v>3</v>
       </c>
       <c r="E912" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F912" s="8">
         <v>1</v>
@@ -50456,22 +50464,22 @@
         <v>912</v>
       </c>
       <c r="B913" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C913" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D913" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E913" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F913" s="8">
         <v>1</v>
       </c>
       <c r="G913" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -50482,19 +50490,19 @@
         <v>362</v>
       </c>
       <c r="C914" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D914" s="10">
-        <v>7</v>
+        <v>1142</v>
+      </c>
+      <c r="D914" s="10" t="s">
+        <v>1951</v>
       </c>
       <c r="E914" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F914" s="8">
         <v>1</v>
       </c>
       <c r="G914" s="10" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="8" customFormat="1">
@@ -50502,16 +50510,16 @@
         <v>914</v>
       </c>
       <c r="B915" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C915" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D915" s="10" t="s">
-        <v>1952</v>
+        <v>1117</v>
+      </c>
+      <c r="D915" s="10">
+        <v>6</v>
       </c>
       <c r="E915" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F915" s="8">
         <v>1</v>
@@ -50525,22 +50533,22 @@
         <v>915</v>
       </c>
       <c r="B916" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C916" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D916" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E916" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F916" s="8">
         <v>1</v>
       </c>
       <c r="G916" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="8" customFormat="1">
@@ -50548,7 +50556,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C917" s="10" t="s">
         <v>1142</v>
@@ -50563,7 +50571,7 @@
         <v>1</v>
       </c>
       <c r="G917" s="10" t="s">
-        <v>2053</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="8" customFormat="1">
@@ -50571,13 +50579,13 @@
         <v>917</v>
       </c>
       <c r="B918" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C918" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D918" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E918" s="8">
         <v>3</v>
@@ -50586,7 +50594,7 @@
         <v>1</v>
       </c>
       <c r="G918" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="919" spans="1:7" s="8" customFormat="1">
@@ -50600,16 +50608,16 @@
         <v>1142</v>
       </c>
       <c r="D919" s="10" t="s">
-        <v>1965</v>
+        <v>1950</v>
       </c>
       <c r="E919" s="8">
         <v>2</v>
       </c>
       <c r="F919" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G919" s="10" t="s">
-        <v>1996</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="920" spans="1:7" s="8" customFormat="1">
@@ -50629,10 +50637,10 @@
         <v>3</v>
       </c>
       <c r="F920" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G920" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="921" spans="1:7" s="8" customFormat="1">
@@ -50640,22 +50648,22 @@
         <v>920</v>
       </c>
       <c r="B921" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C921" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D921" s="10">
-        <v>11</v>
+        <v>1142</v>
+      </c>
+      <c r="D921" s="10" t="s">
+        <v>1964</v>
       </c>
       <c r="E921" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F921" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G921" s="10" t="s">
-        <v>1970</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="922" spans="1:7" s="8" customFormat="1">
@@ -50663,22 +50671,22 @@
         <v>921</v>
       </c>
       <c r="B922" s="8">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C922" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D922" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E922" s="8">
         <v>3</v>
       </c>
       <c r="F922" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G922" s="10" t="s">
-        <v>1971</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="923" spans="1:7" s="8" customFormat="1">
@@ -50686,22 +50694,22 @@
         <v>922</v>
       </c>
       <c r="B923" s="8">
-        <v>367</v>
-      </c>
-      <c r="C923" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D923" s="8" t="s">
-        <v>1655</v>
+        <v>365</v>
+      </c>
+      <c r="C923" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D923" s="10">
+        <v>11</v>
       </c>
       <c r="E923" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F923" s="8">
         <v>1</v>
       </c>
-      <c r="G923" s="8" t="s">
-        <v>1976</v>
+      <c r="G923" s="10" t="s">
+        <v>1969</v>
       </c>
     </row>
     <row r="924" spans="1:7" s="8" customFormat="1">
@@ -50709,22 +50717,22 @@
         <v>923</v>
       </c>
       <c r="B924" s="8">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D924" s="10" t="s">
-        <v>1893</v>
+        <v>1117</v>
+      </c>
+      <c r="D924" s="10">
+        <v>12</v>
       </c>
       <c r="E924" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F924" s="8">
         <v>1</v>
       </c>
       <c r="G924" s="10" t="s">
-        <v>1997</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="925" spans="1:7" s="8" customFormat="1">
@@ -50732,22 +50740,22 @@
         <v>924</v>
       </c>
       <c r="B925" s="8">
-        <v>368</v>
-      </c>
-      <c r="C925" s="10" t="s">
-        <v>1980</v>
-      </c>
-      <c r="D925" s="10" t="s">
-        <v>1981</v>
+        <v>367</v>
+      </c>
+      <c r="C925" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D925" s="8" t="s">
+        <v>1655</v>
       </c>
       <c r="E925" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F925" s="8">
-        <v>2</v>
-      </c>
-      <c r="G925" s="10" t="s">
-        <v>1982</v>
+        <v>1</v>
+      </c>
+      <c r="G925" s="8" t="s">
+        <v>1975</v>
       </c>
     </row>
     <row r="926" spans="1:7" s="8" customFormat="1">
@@ -50755,13 +50763,13 @@
         <v>925</v>
       </c>
       <c r="B926" s="8">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C926" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D926" s="10" t="s">
-        <v>1964</v>
+        <v>1892</v>
       </c>
       <c r="E926" s="8">
         <v>2</v>
@@ -50778,22 +50786,22 @@
         <v>926</v>
       </c>
       <c r="B927" s="8">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>1142</v>
+        <v>1979</v>
       </c>
       <c r="D927" s="10" t="s">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="E927" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F927" s="8">
         <v>2</v>
       </c>
       <c r="G927" s="10" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="928" spans="1:7" s="8" customFormat="1">
@@ -50801,163 +50809,163 @@
         <v>927</v>
       </c>
       <c r="B928" s="8">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C928" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D928" s="10" t="s">
-        <v>1951</v>
+        <v>1963</v>
       </c>
       <c r="E928" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F928" s="8">
         <v>1</v>
       </c>
       <c r="G928" s="10" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="929" spans="1:8" s="8" customFormat="1">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" s="8" customFormat="1">
       <c r="A929" s="8">
         <v>928</v>
       </c>
       <c r="B929" s="8">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C929" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D929" s="10" t="s">
-        <v>1951</v>
+        <v>1988</v>
       </c>
       <c r="E929" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F929" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G929" s="10" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="930" spans="1:8" s="20" customFormat="1">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" s="8" customFormat="1">
       <c r="A930" s="8">
         <v>929</v>
       </c>
-      <c r="B930" s="20">
-        <v>372</v>
-      </c>
-      <c r="C930" s="21" t="s">
+      <c r="B930" s="8">
+        <v>370</v>
+      </c>
+      <c r="C930" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D930" s="21" t="s">
-        <v>1951</v>
-      </c>
-      <c r="E930" s="20">
+      <c r="D930" s="10" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E930" s="8">
         <v>5</v>
       </c>
-      <c r="F930" s="20">
-        <v>1</v>
-      </c>
-      <c r="G930" s="21" t="s">
+      <c r="F930" s="8">
+        <v>1</v>
+      </c>
+      <c r="G930" s="10" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="931" spans="1:8" s="20" customFormat="1">
+    <row r="931" spans="1:7" s="8" customFormat="1">
       <c r="A931" s="8">
         <v>930</v>
       </c>
-      <c r="B931" s="20">
-        <v>373</v>
-      </c>
-      <c r="C931" s="21" t="s">
+      <c r="B931" s="8">
+        <v>371</v>
+      </c>
+      <c r="C931" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D931" s="21" t="s">
-        <v>1951</v>
-      </c>
-      <c r="E931" s="20">
-        <v>2</v>
-      </c>
-      <c r="F931" s="20">
-        <v>1</v>
-      </c>
-      <c r="G931" s="21" t="s">
+      <c r="D931" s="10" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E931" s="8">
+        <v>2</v>
+      </c>
+      <c r="F931" s="8">
+        <v>1</v>
+      </c>
+      <c r="G931" s="10" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="932" spans="1:8" s="8" customFormat="1">
+    <row r="932" spans="1:7" s="20" customFormat="1">
       <c r="A932" s="8">
         <v>931</v>
       </c>
-      <c r="B932" s="8">
-        <v>374</v>
-      </c>
-      <c r="C932" s="10" t="s">
-        <v>2003</v>
-      </c>
-      <c r="D932" s="10" t="s">
-        <v>1896</v>
-      </c>
-      <c r="E932" s="8">
+      <c r="B932" s="20">
+        <v>372</v>
+      </c>
+      <c r="C932" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D932" s="21" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E932" s="20">
         <v>5</v>
       </c>
-      <c r="F932" s="8">
-        <v>1</v>
-      </c>
-      <c r="G932" s="10" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="933" spans="1:8" s="8" customFormat="1">
+      <c r="F932" s="20">
+        <v>1</v>
+      </c>
+      <c r="G932" s="21" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" s="20" customFormat="1">
       <c r="A933" s="8">
         <v>932</v>
       </c>
-      <c r="B933" s="8">
-        <v>375</v>
-      </c>
-      <c r="C933" s="10" t="s">
-        <v>1980</v>
-      </c>
-      <c r="D933" s="10" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E933" s="8">
-        <v>2</v>
-      </c>
-      <c r="F933" s="8">
-        <v>1</v>
-      </c>
-      <c r="G933" s="10" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="934" spans="1:8" s="8" customFormat="1">
+      <c r="B933" s="20">
+        <v>373</v>
+      </c>
+      <c r="C933" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D933" s="21" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E933" s="20">
+        <v>2</v>
+      </c>
+      <c r="F933" s="20">
+        <v>1</v>
+      </c>
+      <c r="G933" s="21" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" s="8" customFormat="1">
       <c r="A934" s="8">
         <v>933</v>
       </c>
       <c r="B934" s="8">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>1980</v>
+        <v>2002</v>
       </c>
       <c r="D934" s="10" t="s">
-        <v>2012</v>
+        <v>1895</v>
       </c>
       <c r="E934" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F934" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G934" s="10" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="935" spans="1:8" s="8" customFormat="1">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" s="8" customFormat="1">
       <c r="A935" s="8">
         <v>934</v>
       </c>
@@ -50965,22 +50973,22 @@
         <v>375</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>1142</v>
+        <v>1979</v>
       </c>
       <c r="D935" s="10" t="s">
-        <v>2183</v>
+        <v>1598</v>
       </c>
       <c r="E935" s="8">
         <v>2</v>
       </c>
       <c r="F935" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G935" s="10" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="936" spans="1:8" s="8" customFormat="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" s="8" customFormat="1">
       <c r="A936" s="8">
         <v>935</v>
       </c>
@@ -50988,79 +50996,79 @@
         <v>375</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>1142</v>
+        <v>1979</v>
       </c>
       <c r="D936" s="10" t="s">
-        <v>2151</v>
+        <v>2011</v>
       </c>
       <c r="E936" s="8">
         <v>2</v>
       </c>
       <c r="F936" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G936" s="10" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="937" spans="1:8" s="8" customFormat="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" s="8" customFormat="1">
       <c r="A937" s="8">
         <v>936</v>
       </c>
       <c r="B937" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>1980</v>
+        <v>1142</v>
       </c>
       <c r="D937" s="10" t="s">
-        <v>1816</v>
+        <v>2182</v>
       </c>
       <c r="E937" s="8">
         <v>2</v>
       </c>
       <c r="F937" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G937" s="10" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="938" spans="1:8" s="8" customFormat="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" s="8" customFormat="1">
       <c r="A938" s="8">
         <v>937</v>
       </c>
       <c r="B938" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C938" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D938" s="10" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="E938" s="8">
         <v>2</v>
       </c>
       <c r="F938" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G938" s="10" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="939" spans="1:8" s="8" customFormat="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" s="8" customFormat="1">
       <c r="A939" s="8">
         <v>938</v>
       </c>
       <c r="B939" s="8">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D939" s="10" t="s">
-        <v>1893</v>
+        <v>1816</v>
       </c>
       <c r="E939" s="8">
         <v>2</v>
@@ -51072,41 +51080,41 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="940" spans="1:8" s="8" customFormat="1">
+    <row r="940" spans="1:7" s="8" customFormat="1">
       <c r="A940" s="8">
         <v>939</v>
       </c>
       <c r="B940" s="8">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>1980</v>
+        <v>1142</v>
       </c>
       <c r="D940" s="10" t="s">
-        <v>1917</v>
+        <v>2153</v>
       </c>
       <c r="E940" s="8">
         <v>2</v>
       </c>
       <c r="F940" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G940" s="10" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="941" spans="1:8" s="8" customFormat="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" s="8" customFormat="1">
       <c r="A941" s="8">
         <v>940</v>
       </c>
       <c r="B941" s="8">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>1143</v>
+        <v>1979</v>
       </c>
       <c r="D941" s="10" t="s">
-        <v>1951</v>
+        <v>1892</v>
       </c>
       <c r="E941" s="8">
         <v>2</v>
@@ -51115,21 +51123,21 @@
         <v>1</v>
       </c>
       <c r="G941" s="10" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="942" spans="1:8" s="8" customFormat="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" s="8" customFormat="1">
       <c r="A942" s="8">
         <v>941</v>
       </c>
       <c r="B942" s="8">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C942" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D942" s="10">
-        <v>0</v>
+        <v>1979</v>
+      </c>
+      <c r="D942" s="10" t="s">
+        <v>1916</v>
       </c>
       <c r="E942" s="8">
         <v>2</v>
@@ -51138,45 +51146,44 @@
         <v>1</v>
       </c>
       <c r="G942" s="10" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="943" spans="1:8">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" s="8" customFormat="1">
       <c r="A943" s="8">
         <v>942</v>
       </c>
       <c r="B943" s="8">
-        <v>380</v>
-      </c>
-      <c r="C943" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D943" s="8" t="s">
-        <v>1655</v>
+        <v>379</v>
+      </c>
+      <c r="C943" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D943" s="10" t="s">
+        <v>1950</v>
       </c>
       <c r="E943" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F943" s="8">
         <v>1</v>
       </c>
-      <c r="G943" s="8" t="s">
-        <v>1976</v>
-      </c>
-      <c r="H943" s="8"/>
-    </row>
-    <row r="944" spans="1:8" ht="16.5">
+      <c r="G943" s="10" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" s="8" customFormat="1">
       <c r="A944" s="8">
         <v>943</v>
       </c>
       <c r="B944" s="8">
-        <v>380</v>
-      </c>
-      <c r="C944" s="8" t="s">
-        <v>2024</v>
-      </c>
-      <c r="D944" s="104" t="s">
-        <v>2025</v>
+        <v>379</v>
+      </c>
+      <c r="C944" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D944" s="10">
+        <v>0</v>
       </c>
       <c r="E944" s="8">
         <v>2</v>
@@ -51184,10 +51191,9 @@
       <c r="F944" s="8">
         <v>1</v>
       </c>
-      <c r="G944" s="8" t="s">
-        <v>2026</v>
-      </c>
-      <c r="H944" s="8"/>
+      <c r="G944" s="10" t="s">
+        <v>2021</v>
+      </c>
     </row>
     <row r="945" spans="1:8">
       <c r="A945" s="8">
@@ -51200,20 +51206,20 @@
         <v>1032</v>
       </c>
       <c r="D945" s="8" t="s">
-        <v>1898</v>
+        <v>1655</v>
       </c>
       <c r="E945" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F945" s="8">
-        <v>2</v>
-      </c>
-      <c r="G945" s="10" t="s">
-        <v>2027</v>
+        <v>1</v>
+      </c>
+      <c r="G945" s="8" t="s">
+        <v>1975</v>
       </c>
       <c r="H945" s="8"/>
     </row>
-    <row r="946" spans="1:8">
+    <row r="946" spans="1:8" ht="16.5">
       <c r="A946" s="8">
         <v>945</v>
       </c>
@@ -51221,92 +51227,92 @@
         <v>380</v>
       </c>
       <c r="C946" s="8" t="s">
-        <v>2028</v>
-      </c>
-      <c r="D946" s="10" t="s">
-        <v>2029</v>
+        <v>2023</v>
+      </c>
+      <c r="D946" s="104" t="s">
+        <v>2024</v>
       </c>
       <c r="E946" s="8">
         <v>2</v>
       </c>
       <c r="F946" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G946" s="8" t="s">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="H946" s="8"/>
     </row>
-    <row r="947" spans="1:8" s="8" customFormat="1">
+    <row r="947" spans="1:8">
       <c r="A947" s="8">
         <v>946</v>
       </c>
       <c r="B947" s="8">
-        <v>381</v>
-      </c>
-      <c r="C947" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D947" s="10">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="C947" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D947" s="8" t="s">
+        <v>1897</v>
       </c>
       <c r="E947" s="8">
         <v>2</v>
       </c>
       <c r="F947" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G947" s="10" t="s">
-        <v>2022</v>
-      </c>
+        <v>2026</v>
+      </c>
+      <c r="H947" s="8"/>
     </row>
     <row r="948" spans="1:8">
       <c r="A948" s="8">
         <v>947</v>
       </c>
       <c r="B948" s="8">
-        <v>382</v>
-      </c>
-      <c r="C948" s="10" t="s">
-        <v>1052</v>
+        <v>380</v>
+      </c>
+      <c r="C948" s="8" t="s">
+        <v>2027</v>
       </c>
       <c r="D948" s="10" t="s">
-        <v>1212</v>
+        <v>2028</v>
       </c>
       <c r="E948" s="8">
         <v>2</v>
       </c>
       <c r="F948" s="8">
-        <v>1</v>
-      </c>
-      <c r="G948" s="10" t="s">
-        <v>1176</v>
+        <v>2</v>
+      </c>
+      <c r="G948" s="8" t="s">
+        <v>2029</v>
       </c>
       <c r="H948" s="8"/>
     </row>
-    <row r="949" spans="1:8">
+    <row r="949" spans="1:8" s="8" customFormat="1">
       <c r="A949" s="8">
         <v>948</v>
       </c>
       <c r="B949" s="8">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C949" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="D949" s="10" t="s">
-        <v>857</v>
+        <v>1117</v>
+      </c>
+      <c r="D949" s="10">
+        <v>0</v>
       </c>
       <c r="E949" s="8">
         <v>2</v>
       </c>
       <c r="F949" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G949" s="10" t="s">
-        <v>2039</v>
-      </c>
-      <c r="H949" s="8"/>
+        <v>2021</v>
+      </c>
     </row>
     <row r="950" spans="1:8">
       <c r="A950" s="8">
@@ -51316,19 +51322,19 @@
         <v>382</v>
       </c>
       <c r="C950" s="10" t="s">
-        <v>852</v>
+        <v>1052</v>
       </c>
       <c r="D950" s="10" t="s">
-        <v>861</v>
+        <v>1212</v>
       </c>
       <c r="E950" s="8">
         <v>2</v>
       </c>
       <c r="F950" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G950" s="10" t="s">
-        <v>2040</v>
+        <v>1176</v>
       </c>
       <c r="H950" s="8"/>
     </row>
@@ -51337,22 +51343,22 @@
         <v>950</v>
       </c>
       <c r="B951" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C951" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D951" s="8">
-        <v>1</v>
+        <v>852</v>
+      </c>
+      <c r="D951" s="10" t="s">
+        <v>857</v>
       </c>
       <c r="E951" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F951" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G951" s="10" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="H951" s="8"/>
     </row>
@@ -51361,22 +51367,22 @@
         <v>951</v>
       </c>
       <c r="B952" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C952" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D952" s="8">
-        <v>7</v>
+        <v>852</v>
+      </c>
+      <c r="D952" s="10" t="s">
+        <v>861</v>
       </c>
       <c r="E952" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F952" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G952" s="10" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="H952" s="8"/>
     </row>
@@ -51387,20 +51393,20 @@
       <c r="B953" s="8">
         <v>383</v>
       </c>
-      <c r="C953" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D953" s="8" t="s">
-        <v>853</v>
+      <c r="C953" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D953" s="8">
+        <v>1</v>
       </c>
       <c r="E953" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F953" s="8">
         <v>1</v>
       </c>
       <c r="G953" s="10" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="H953" s="8"/>
     </row>
@@ -51409,16 +51415,16 @@
         <v>953</v>
       </c>
       <c r="B954" s="8">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C954" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D954" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E954" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F954" s="8">
         <v>1</v>
@@ -51433,16 +51439,16 @@
         <v>954</v>
       </c>
       <c r="B955" s="8">
-        <v>384</v>
-      </c>
-      <c r="C955" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D955" s="8">
-        <v>12</v>
+        <v>383</v>
+      </c>
+      <c r="C955" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D955" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E955" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F955" s="8">
         <v>1</v>
@@ -51459,90 +51465,92 @@
       <c r="B956" s="8">
         <v>384</v>
       </c>
-      <c r="C956" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D956" s="8" t="s">
-        <v>853</v>
+      <c r="C956" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D956" s="8">
+        <v>8</v>
       </c>
       <c r="E956" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F956" s="8">
         <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="H956" s="8"/>
     </row>
-    <row r="957" spans="1:8" s="8" customFormat="1">
+    <row r="957" spans="1:8">
       <c r="A957" s="8">
         <v>956</v>
       </c>
       <c r="B957" s="8">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C957" s="10" t="s">
         <v>1117</v>
       </c>
-      <c r="D957" s="10">
-        <v>0</v>
+      <c r="D957" s="8">
+        <v>12</v>
       </c>
       <c r="E957" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F957" s="8">
         <v>1</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="958" spans="1:8" s="8" customFormat="1">
+        <v>2041</v>
+      </c>
+      <c r="H957" s="8"/>
+    </row>
+    <row r="958" spans="1:8">
       <c r="A958" s="8">
         <v>957</v>
       </c>
       <c r="B958" s="8">
-        <v>386</v>
-      </c>
-      <c r="C958" s="10" t="s">
-        <v>2049</v>
-      </c>
-      <c r="D958" s="10">
-        <v>1</v>
+        <v>384</v>
+      </c>
+      <c r="C958" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D958" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E958" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F958" s="8">
         <v>1</v>
       </c>
       <c r="G958" s="10" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="959" spans="1:8">
+        <v>2042</v>
+      </c>
+      <c r="H958" s="8"/>
+    </row>
+    <row r="959" spans="1:8" s="8" customFormat="1">
       <c r="A959" s="8">
         <v>958</v>
       </c>
-      <c r="B959" s="9">
-        <v>387</v>
-      </c>
-      <c r="C959" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D959" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="E959" s="9">
-        <v>5</v>
-      </c>
-      <c r="F959" s="9">
-        <v>1</v>
-      </c>
-      <c r="G959" s="9" t="s">
-        <v>2056</v>
+      <c r="B959" s="8">
+        <v>385</v>
+      </c>
+      <c r="C959" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D959" s="10">
+        <v>0</v>
+      </c>
+      <c r="E959" s="8">
+        <v>2</v>
+      </c>
+      <c r="F959" s="8">
+        <v>1</v>
+      </c>
+      <c r="G959" s="10" t="s">
+        <v>2047</v>
       </c>
     </row>
     <row r="960" spans="1:8" s="8" customFormat="1">
@@ -51550,45 +51558,45 @@
         <v>959</v>
       </c>
       <c r="B960" s="8">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C960" s="10" t="s">
-        <v>2061</v>
-      </c>
-      <c r="D960" s="10" t="s">
-        <v>2070</v>
+        <v>2048</v>
+      </c>
+      <c r="D960" s="10">
+        <v>1</v>
       </c>
       <c r="E960" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F960" s="8">
         <v>1</v>
       </c>
       <c r="G960" s="10" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="961" spans="1:7" s="8" customFormat="1">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7">
       <c r="A961" s="8">
         <v>960</v>
       </c>
-      <c r="B961" s="8">
-        <v>388</v>
-      </c>
-      <c r="C961" s="10" t="s">
-        <v>2061</v>
-      </c>
-      <c r="D961" s="10" t="s">
-        <v>2070</v>
-      </c>
-      <c r="E961" s="8">
-        <v>2</v>
-      </c>
-      <c r="F961" s="8">
-        <v>2</v>
-      </c>
-      <c r="G961" s="10" t="s">
-        <v>1176</v>
+      <c r="B961" s="9">
+        <v>387</v>
+      </c>
+      <c r="C961" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D961" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E961" s="9">
+        <v>5</v>
+      </c>
+      <c r="F961" s="9">
+        <v>1</v>
+      </c>
+      <c r="G961" s="9" t="s">
+        <v>2055</v>
       </c>
     </row>
     <row r="962" spans="1:7" s="8" customFormat="1">
@@ -51596,22 +51604,22 @@
         <v>961</v>
       </c>
       <c r="B962" s="8">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C962" s="10" t="s">
-        <v>1052</v>
+        <v>2060</v>
       </c>
       <c r="D962" s="10" t="s">
-        <v>1212</v>
+        <v>2069</v>
       </c>
       <c r="E962" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F962" s="8">
         <v>1</v>
       </c>
       <c r="G962" s="10" t="s">
-        <v>1176</v>
+        <v>911</v>
       </c>
     </row>
     <row r="963" spans="1:7" s="8" customFormat="1">
@@ -51619,22 +51627,22 @@
         <v>962</v>
       </c>
       <c r="B963" s="8">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C963" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D963" s="8">
-        <v>3</v>
+        <v>2060</v>
+      </c>
+      <c r="D963" s="10" t="s">
+        <v>2069</v>
       </c>
       <c r="E963" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F963" s="8">
         <v>2</v>
       </c>
       <c r="G963" s="10" t="s">
-        <v>2068</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="964" spans="1:7" s="8" customFormat="1">
@@ -51642,22 +51650,22 @@
         <v>963</v>
       </c>
       <c r="B964" s="8">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C964" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D964" s="8">
-        <v>4</v>
+        <v>1052</v>
+      </c>
+      <c r="D964" s="10" t="s">
+        <v>1212</v>
       </c>
       <c r="E964" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F964" s="8">
         <v>1</v>
       </c>
       <c r="G964" s="10" t="s">
-        <v>2069</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="965" spans="1:7" s="8" customFormat="1">
@@ -51665,22 +51673,22 @@
         <v>964</v>
       </c>
       <c r="B965" s="8">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C965" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D965" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E965" s="8">
         <v>4</v>
       </c>
       <c r="F965" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G965" s="10" t="s">
-        <v>2042</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="966" spans="1:7" s="8" customFormat="1">
@@ -51690,20 +51698,20 @@
       <c r="B966" s="8">
         <v>390</v>
       </c>
-      <c r="C966" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D966" s="8" t="s">
-        <v>853</v>
+      <c r="C966" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D966" s="8">
+        <v>4</v>
       </c>
       <c r="E966" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F966" s="8">
         <v>1</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>2043</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="967" spans="1:7" s="8" customFormat="1">
@@ -51711,16 +51719,16 @@
         <v>966</v>
       </c>
       <c r="B967" s="8">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C967" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D967" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E967" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F967" s="8">
         <v>1</v>
@@ -51734,16 +51742,16 @@
         <v>967</v>
       </c>
       <c r="B968" s="8">
-        <v>391</v>
-      </c>
-      <c r="C968" s="10" t="s">
-        <v>2111</v>
-      </c>
-      <c r="D968" s="8">
-        <v>12</v>
+        <v>390</v>
+      </c>
+      <c r="C968" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D968" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E968" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F968" s="8">
         <v>1</v>
@@ -51759,20 +51767,20 @@
       <c r="B969" s="8">
         <v>391</v>
       </c>
-      <c r="C969" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D969" s="8" t="s">
-        <v>853</v>
+      <c r="C969" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D969" s="8">
+        <v>8</v>
       </c>
       <c r="E969" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F969" s="8">
         <v>1</v>
       </c>
       <c r="G969" s="10" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="970" spans="1:7" s="8" customFormat="1">
@@ -51780,22 +51788,22 @@
         <v>969</v>
       </c>
       <c r="B970" s="8">
-        <v>392</v>
-      </c>
-      <c r="C970" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D970" s="8" t="s">
-        <v>853</v>
+        <v>391</v>
+      </c>
+      <c r="C970" s="10" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D970" s="8">
+        <v>12</v>
       </c>
       <c r="E970" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F970" s="8">
         <v>1</v>
       </c>
-      <c r="G970" s="8" t="s">
-        <v>2043</v>
+      <c r="G970" s="10" t="s">
+        <v>2041</v>
       </c>
     </row>
     <row r="971" spans="1:7" s="8" customFormat="1">
@@ -51803,13 +51811,13 @@
         <v>970</v>
       </c>
       <c r="B971" s="8">
-        <v>393</v>
-      </c>
-      <c r="C971" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D971" s="10" t="s">
-        <v>1951</v>
+        <v>391</v>
+      </c>
+      <c r="C971" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D971" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E971" s="8">
         <v>5</v>
@@ -51818,7 +51826,7 @@
         <v>1</v>
       </c>
       <c r="G971" s="10" t="s">
-        <v>2081</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="972" spans="1:7" s="8" customFormat="1">
@@ -51826,22 +51834,22 @@
         <v>971</v>
       </c>
       <c r="B972" s="8">
-        <v>394</v>
-      </c>
-      <c r="C972" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D972" s="10" t="s">
-        <v>1951</v>
+        <v>392</v>
+      </c>
+      <c r="C972" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D972" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E972" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F972" s="8">
         <v>1</v>
       </c>
-      <c r="G972" s="10" t="s">
-        <v>2082</v>
+      <c r="G972" s="8" t="s">
+        <v>2042</v>
       </c>
     </row>
     <row r="973" spans="1:7" s="8" customFormat="1">
@@ -51849,22 +51857,22 @@
         <v>972</v>
       </c>
       <c r="B973" s="8">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C973" s="10" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D973" s="10" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E973" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F973" s="8">
         <v>1</v>
       </c>
       <c r="G973" s="10" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="974" spans="1:7" s="8" customFormat="1">
@@ -51872,13 +51880,13 @@
         <v>973</v>
       </c>
       <c r="B974" s="8">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C974" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D974" s="64" t="s">
-        <v>1814</v>
+        <v>1143</v>
+      </c>
+      <c r="D974" s="10" t="s">
+        <v>1950</v>
       </c>
       <c r="E974" s="8">
         <v>2</v>
@@ -51886,8 +51894,8 @@
       <c r="F974" s="8">
         <v>1</v>
       </c>
-      <c r="G974" s="8" t="s">
-        <v>2096</v>
+      <c r="G974" s="10" t="s">
+        <v>2081</v>
       </c>
     </row>
     <row r="975" spans="1:7" s="8" customFormat="1">
@@ -51895,22 +51903,22 @@
         <v>974</v>
       </c>
       <c r="B975" s="8">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C975" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D975" s="64" t="s">
-        <v>1908</v>
+      <c r="D975" s="10" t="s">
+        <v>1950</v>
       </c>
       <c r="E975" s="8">
         <v>2</v>
       </c>
       <c r="F975" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G975" s="10" t="s">
-        <v>2097</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="976" spans="1:7" s="8" customFormat="1">
@@ -51918,22 +51926,22 @@
         <v>975</v>
       </c>
       <c r="B976" s="8">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C976" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D976" s="64" t="s">
-        <v>1951</v>
+        <v>1814</v>
       </c>
       <c r="E976" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F976" s="8">
-        <v>2</v>
-      </c>
-      <c r="G976" s="10" t="s">
-        <v>2108</v>
+        <v>1</v>
+      </c>
+      <c r="G976" s="8" t="s">
+        <v>2095</v>
       </c>
     </row>
     <row r="977" spans="1:9" s="8" customFormat="1">
@@ -51941,22 +51949,22 @@
         <v>976</v>
       </c>
       <c r="B977" s="8">
-        <v>397</v>
-      </c>
-      <c r="C977" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D977" s="8" t="s">
-        <v>853</v>
+        <v>396</v>
+      </c>
+      <c r="C977" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D977" s="64" t="s">
+        <v>1907</v>
       </c>
       <c r="E977" s="8">
         <v>2</v>
       </c>
       <c r="F977" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G977" s="10" t="s">
-        <v>1837</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="978" spans="1:9" s="8" customFormat="1">
@@ -51964,22 +51972,22 @@
         <v>977</v>
       </c>
       <c r="B978" s="8">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C978" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D978" s="64" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E978" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F978" s="8">
         <v>2</v>
       </c>
       <c r="G978" s="10" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="979" spans="1:9" s="8" customFormat="1">
@@ -51987,7 +51995,7 @@
         <v>978</v>
       </c>
       <c r="B979" s="8">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C979" s="8" t="s">
         <v>852</v>
@@ -52005,91 +52013,83 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="980" spans="1:9">
+    <row r="980" spans="1:9" s="8" customFormat="1">
       <c r="A980" s="8">
         <v>979</v>
       </c>
-      <c r="B980" s="20">
-        <v>399</v>
-      </c>
-      <c r="C980" s="21" t="s">
+      <c r="B980" s="8">
+        <v>398</v>
+      </c>
+      <c r="C980" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D980" s="21" t="s">
-        <v>1896</v>
-      </c>
-      <c r="E980" s="20">
-        <v>5</v>
-      </c>
-      <c r="F980" s="20">
-        <v>1</v>
-      </c>
-      <c r="G980" s="21" t="s">
-        <v>1875</v>
-      </c>
-      <c r="H980" s="8"/>
-      <c r="I980" s="8"/>
-    </row>
-    <row r="981" spans="1:9">
+      <c r="D980" s="64" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E980" s="8">
+        <v>2</v>
+      </c>
+      <c r="F980" s="8">
+        <v>2</v>
+      </c>
+      <c r="G980" s="10" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="981" spans="1:9" s="8" customFormat="1">
       <c r="A981" s="8">
         <v>980</v>
       </c>
-      <c r="B981" s="20">
-        <v>399</v>
-      </c>
-      <c r="C981" s="21" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D981" s="21">
-        <v>5</v>
-      </c>
-      <c r="E981" s="20">
-        <v>3</v>
-      </c>
-      <c r="F981" s="20">
-        <v>1</v>
-      </c>
-      <c r="G981" s="21" t="s">
-        <v>2112</v>
-      </c>
-      <c r="H981" s="8"/>
-      <c r="I981" s="8"/>
+      <c r="B981" s="8">
+        <v>398</v>
+      </c>
+      <c r="C981" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D981" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E981" s="8">
+        <v>2</v>
+      </c>
+      <c r="F981" s="8">
+        <v>1</v>
+      </c>
+      <c r="G981" s="10" t="s">
+        <v>1837</v>
+      </c>
     </row>
     <row r="982" spans="1:9">
       <c r="A982" s="8">
         <v>981</v>
       </c>
       <c r="B982" s="20">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C982" s="21" t="s">
         <v>1142</v>
       </c>
       <c r="D982" s="21" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E982" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F982" s="20">
         <v>1</v>
       </c>
       <c r="G982" s="21" t="s">
-        <v>1886</v>
-      </c>
-      <c r="H982" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="I982" s="8" t="s">
-        <v>864</v>
-      </c>
+        <v>1875</v>
+      </c>
+      <c r="H982" s="8"/>
+      <c r="I982" s="8"/>
     </row>
     <row r="983" spans="1:9">
       <c r="A983" s="8">
         <v>982</v>
       </c>
       <c r="B983" s="20">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C983" s="21" t="s">
         <v>1129</v>
@@ -52104,50 +52104,52 @@
         <v>1</v>
       </c>
       <c r="G983" s="21" t="s">
-        <v>2112</v>
-      </c>
-      <c r="H983" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="I983" s="8" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="984" spans="1:9" s="8" customFormat="1">
+        <v>2111</v>
+      </c>
+      <c r="H983" s="8"/>
+      <c r="I983" s="8"/>
+    </row>
+    <row r="984" spans="1:9">
       <c r="A984" s="8">
         <v>983</v>
       </c>
       <c r="B984" s="20">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C984" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D984" s="20">
-        <v>3</v>
+        <v>1142</v>
+      </c>
+      <c r="D984" s="21" t="s">
+        <v>1895</v>
       </c>
       <c r="E984" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F984" s="20">
         <v>1</v>
       </c>
       <c r="G984" s="21" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="985" spans="1:9" s="8" customFormat="1">
+        <v>1886</v>
+      </c>
+      <c r="H984" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="I984" s="8" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="985" spans="1:9">
       <c r="A985" s="8">
         <v>984</v>
       </c>
       <c r="B985" s="20">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C985" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D985" s="20">
-        <v>4</v>
+        <v>1129</v>
+      </c>
+      <c r="D985" s="21">
+        <v>5</v>
       </c>
       <c r="E985" s="20">
         <v>3</v>
@@ -52156,53 +52158,59 @@
         <v>1</v>
       </c>
       <c r="G985" s="21" t="s">
-        <v>2119</v>
+        <v>2111</v>
+      </c>
+      <c r="H985" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="I985" s="8" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="986" spans="1:9" s="8" customFormat="1">
       <c r="A986" s="8">
         <v>985</v>
       </c>
-      <c r="B986" s="8">
-        <v>403</v>
-      </c>
-      <c r="C986" s="95" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D986" s="95" t="s">
-        <v>1814</v>
-      </c>
-      <c r="E986" s="8">
-        <v>2</v>
-      </c>
-      <c r="F986" s="8">
-        <v>1</v>
-      </c>
-      <c r="G986" s="8" t="s">
-        <v>2127</v>
+      <c r="B986" s="20">
+        <v>401</v>
+      </c>
+      <c r="C986" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D986" s="20">
+        <v>3</v>
+      </c>
+      <c r="E986" s="20">
+        <v>4</v>
+      </c>
+      <c r="F986" s="20">
+        <v>1</v>
+      </c>
+      <c r="G986" s="21" t="s">
+        <v>2067</v>
       </c>
     </row>
     <row r="987" spans="1:9" s="8" customFormat="1">
       <c r="A987" s="8">
         <v>986</v>
       </c>
-      <c r="B987" s="8">
-        <v>403</v>
-      </c>
-      <c r="C987" s="95" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D987" s="95" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E987" s="8">
-        <v>2</v>
-      </c>
-      <c r="F987" s="8">
-        <v>1</v>
-      </c>
-      <c r="G987" s="10" t="s">
-        <v>2128</v>
+      <c r="B987" s="20">
+        <v>402</v>
+      </c>
+      <c r="C987" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D987" s="20">
+        <v>4</v>
+      </c>
+      <c r="E987" s="20">
+        <v>3</v>
+      </c>
+      <c r="F987" s="20">
+        <v>1</v>
+      </c>
+      <c r="G987" s="21" t="s">
+        <v>2118</v>
       </c>
     </row>
     <row r="988" spans="1:9" s="8" customFormat="1">
@@ -52210,7 +52218,7 @@
         <v>987</v>
       </c>
       <c r="B988" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C988" s="95" t="s">
         <v>1032</v>
@@ -52225,7 +52233,7 @@
         <v>1</v>
       </c>
       <c r="G988" s="8" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="989" spans="1:9" s="8" customFormat="1">
@@ -52233,13 +52241,13 @@
         <v>988</v>
       </c>
       <c r="B989" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C989" s="95" t="s">
         <v>1142</v>
       </c>
       <c r="D989" s="95" t="s">
-        <v>2129</v>
+        <v>1598</v>
       </c>
       <c r="E989" s="8">
         <v>2</v>
@@ -52248,53 +52256,53 @@
         <v>1</v>
       </c>
       <c r="G989" s="10" t="s">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="990" spans="1:9">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="990" spans="1:9" s="8" customFormat="1">
       <c r="A990" s="8">
         <v>989</v>
       </c>
-      <c r="B990" s="9">
-        <v>405</v>
-      </c>
-      <c r="C990" s="10" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D990" s="8">
-        <v>1615248000</v>
-      </c>
-      <c r="E990" s="9">
-        <v>3</v>
-      </c>
-      <c r="F990" s="9">
-        <v>1</v>
-      </c>
-      <c r="G990" s="49" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="991" spans="1:9">
+      <c r="B990" s="8">
+        <v>404</v>
+      </c>
+      <c r="C990" s="95" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D990" s="95" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E990" s="8">
+        <v>2</v>
+      </c>
+      <c r="F990" s="8">
+        <v>1</v>
+      </c>
+      <c r="G990" s="8" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="991" spans="1:9" s="8" customFormat="1">
       <c r="A991" s="8">
         <v>990</v>
       </c>
-      <c r="B991" s="9">
-        <v>406</v>
-      </c>
-      <c r="C991" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D991" s="20">
-        <v>3</v>
-      </c>
-      <c r="E991" s="20">
-        <v>4</v>
-      </c>
-      <c r="F991" s="20">
-        <v>1</v>
-      </c>
-      <c r="G991" s="21" t="s">
-        <v>2068</v>
+      <c r="B991" s="8">
+        <v>404</v>
+      </c>
+      <c r="C991" s="95" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D991" s="95" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E991" s="8">
+        <v>2</v>
+      </c>
+      <c r="F991" s="8">
+        <v>1</v>
+      </c>
+      <c r="G991" s="10" t="s">
+        <v>2127</v>
       </c>
     </row>
     <row r="992" spans="1:9">
@@ -52302,22 +52310,22 @@
         <v>991</v>
       </c>
       <c r="B992" s="9">
-        <v>406</v>
-      </c>
-      <c r="C992" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D992" s="21" t="s">
-        <v>1896</v>
-      </c>
-      <c r="E992" s="20">
-        <v>5</v>
-      </c>
-      <c r="F992" s="20">
-        <v>1</v>
-      </c>
-      <c r="G992" s="21" t="s">
-        <v>2147</v>
+        <v>405</v>
+      </c>
+      <c r="C992" s="10" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D992" s="8">
+        <v>1615248000</v>
+      </c>
+      <c r="E992" s="9">
+        <v>3</v>
+      </c>
+      <c r="F992" s="9">
+        <v>1</v>
+      </c>
+      <c r="G992" s="49" t="s">
+        <v>2133</v>
       </c>
     </row>
     <row r="993" spans="1:7">
@@ -52325,22 +52333,22 @@
         <v>992</v>
       </c>
       <c r="B993" s="9">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C993" s="21" t="s">
         <v>1117</v>
       </c>
       <c r="D993" s="20">
+        <v>3</v>
+      </c>
+      <c r="E993" s="20">
         <v>4</v>
       </c>
-      <c r="E993" s="20">
-        <v>3</v>
-      </c>
       <c r="F993" s="20">
         <v>1</v>
       </c>
       <c r="G993" s="21" t="s">
-        <v>2146</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="994" spans="1:7">
@@ -52348,13 +52356,13 @@
         <v>993</v>
       </c>
       <c r="B994" s="9">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C994" s="21" t="s">
         <v>1142</v>
       </c>
       <c r="D994" s="21" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E994" s="20">
         <v>5</v>
@@ -52363,7 +52371,7 @@
         <v>1</v>
       </c>
       <c r="G994" s="21" t="s">
-        <v>1871</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="995" spans="1:7">
@@ -52371,22 +52379,22 @@
         <v>994</v>
       </c>
       <c r="B995" s="9">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C995" s="21" t="s">
         <v>1117</v>
       </c>
       <c r="D995" s="20">
+        <v>4</v>
+      </c>
+      <c r="E995" s="20">
         <v>3</v>
       </c>
-      <c r="E995" s="20">
-        <v>4</v>
-      </c>
       <c r="F995" s="20">
         <v>1</v>
       </c>
       <c r="G995" s="21" t="s">
-        <v>2068</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="996" spans="1:7">
@@ -52394,22 +52402,22 @@
         <v>995</v>
       </c>
       <c r="B996" s="9">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C996" s="21" t="s">
         <v>1142</v>
       </c>
       <c r="D996" s="21" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E996" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F996" s="20">
         <v>1</v>
       </c>
       <c r="G996" s="21" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="997" spans="1:7">
@@ -52417,22 +52425,22 @@
         <v>996</v>
       </c>
       <c r="B997" s="9">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C997" s="21" t="s">
         <v>1117</v>
       </c>
       <c r="D997" s="20">
+        <v>3</v>
+      </c>
+      <c r="E997" s="20">
         <v>4</v>
       </c>
-      <c r="E997" s="20">
-        <v>3</v>
-      </c>
       <c r="F997" s="20">
         <v>1</v>
       </c>
       <c r="G997" s="21" t="s">
-        <v>2146</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="998" spans="1:7">
@@ -52440,13 +52448,13 @@
         <v>997</v>
       </c>
       <c r="B998" s="9">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C998" s="21" t="s">
         <v>1142</v>
       </c>
       <c r="D998" s="21" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E998" s="20">
         <v>2</v>
@@ -52463,22 +52471,68 @@
         <v>998</v>
       </c>
       <c r="B999" s="9">
+        <v>409</v>
+      </c>
+      <c r="C999" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D999" s="20">
+        <v>4</v>
+      </c>
+      <c r="E999" s="20">
+        <v>3</v>
+      </c>
+      <c r="F999" s="20">
+        <v>1</v>
+      </c>
+      <c r="G999" s="21" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7">
+      <c r="A1000" s="8">
+        <v>999</v>
+      </c>
+      <c r="B1000" s="9">
+        <v>409</v>
+      </c>
+      <c r="C1000" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D1000" s="21" t="s">
+        <v>1895</v>
+      </c>
+      <c r="E1000" s="20">
+        <v>2</v>
+      </c>
+      <c r="F1000" s="20">
+        <v>1</v>
+      </c>
+      <c r="G1000" s="21" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7">
+      <c r="A1001" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B1001" s="9">
         <v>410</v>
       </c>
-      <c r="C999" s="9" t="s">
+      <c r="C1001" s="9" t="s">
         <v>1142</v>
       </c>
-      <c r="D999" s="9" t="s">
+      <c r="D1001" s="9" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E1001" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1001" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1001" s="9" t="s">
         <v>2171</v>
-      </c>
-      <c r="E999" s="9">
-        <v>5</v>
-      </c>
-      <c r="F999" s="9">
-        <v>1</v>
-      </c>
-      <c r="G999" s="9" t="s">
-        <v>2172</v>
       </c>
     </row>
   </sheetData>
@@ -52628,13 +52682,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -52651,13 +52705,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1722</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -52680,7 +52734,7 @@
         <v>884</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -52697,13 +52751,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -52720,13 +52774,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -52743,13 +52797,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -52766,22 +52820,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>2149</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>2150</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -52789,13 +52843,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -52804,7 +52858,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -52812,13 +52866,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -52827,7 +52881,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -52835,13 +52889,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -52850,7 +52904,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5086" uniqueCount="2189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5109" uniqueCount="2204">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -6821,10 +6821,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼特殊CPL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>是cpl玩家才可游戏</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -7212,10 +7208,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼官方渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>jjddz_official</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -7289,10 +7281,6 @@
   </si>
   <si>
     <t>3dby_cps</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼特殊CPS</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -8526,10 +8514,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼冲金鸡平台</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8768,10 +8752,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>是官方渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>VIP1及以上的用户可进行领取</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8805,14 +8785,6 @@
   </si>
   <si>
     <t>非cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是CPl渠道</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -8920,10 +8892,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>signin_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>signin_notcpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9946,11 +9914,131 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>"xiaomi_byam","yyb_byam",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭累计赢金榜（cjj和捕鱼奥秘）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星排行榜--非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_ymkh_010_wxphb_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_xxlzb_007_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjby_drop_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>街机捕鱼掉落权限</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不等于捕鱼奥秘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐爬塔宝箱限制</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgxxl_tower_box</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt_cpl_start_jing_bi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是3D捕鱼CPS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游消消乐  V1orLV4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv4开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>signin_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>"normal","byam",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"xiaomi_byam","yyb_byam",</t>
+    <t>tthlby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tthlby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tthlby_cps</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -9958,63 +10046,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>关闭累计赢金榜（cjj和捕鱼奥秘）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>五星排行榜--非cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_ymkh_010_wxphb_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_xxlzb_007_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjby_drop_limit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>街机捕鱼掉落权限</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不等于捕鱼奥秘</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果消消乐爬塔宝箱限制</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>sgxxl_tower_box</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>drt_cpl_start_jing_bi</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cps</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是3D捕鱼CPS</t>
+    <t>tthlby_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"normal",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -10022,47 +10058,71 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>西游消消乐  V1orLV4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv4开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
+    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq","normal","vivo","xiaomi","yyb_hlttby","byam_xianwan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vivo","xiaomi","yyb_hlttby","xiaomi_byam","yyb_byam",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq","byam_xianwan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼游戏CPL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼游戏官方渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼游戏特殊CPS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡平台</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡平台</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡平台</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天欢乐捕鱼官方渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天欢乐捕鱼CPS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天欢乐捕鱼ALL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天欢乐捕鱼CPL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner_ggxt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner和插图广告系统（免费玩家-非新玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是新玩家</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10905,11 +10965,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q475"/>
+  <dimension ref="A1:Q477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C436" sqref="A436:C436"/>
+      <pane ySplit="1" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A477" sqref="A477:XFD477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11928,7 +11988,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>2100</v>
+        <v>2092</v>
       </c>
       <c r="C59" s="9">
         <v>22</v>
@@ -11943,7 +12003,7 @@
         <v>112</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>2101</v>
+        <v>2093</v>
       </c>
       <c r="C60" s="9">
         <v>22</v>
@@ -11958,7 +12018,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>2102</v>
+        <v>2094</v>
       </c>
       <c r="C61" s="9">
         <v>22</v>
@@ -11973,7 +12033,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>2103</v>
+        <v>2095</v>
       </c>
       <c r="C62" s="9">
         <v>24</v>
@@ -11987,7 +12047,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>2104</v>
+        <v>2096</v>
       </c>
       <c r="C63" s="9">
         <v>22</v>
@@ -12001,7 +12061,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>2104</v>
+        <v>2096</v>
       </c>
       <c r="C64" s="9">
         <v>22</v>
@@ -12016,7 +12076,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>2104</v>
+        <v>2096</v>
       </c>
       <c r="C65" s="53">
         <v>22</v>
@@ -12031,7 +12091,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>2104</v>
+        <v>2096</v>
       </c>
       <c r="C66" s="53">
         <v>23</v>
@@ -12045,7 +12105,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>2104</v>
+        <v>2096</v>
       </c>
       <c r="C67" s="9">
         <v>24</v>
@@ -12063,7 +12123,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>2104</v>
+        <v>2096</v>
       </c>
       <c r="C68" s="9">
         <v>25</v>
@@ -12096,7 +12156,7 @@
         <v>123</v>
       </c>
       <c r="B70" s="49" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -12114,7 +12174,7 @@
         <v>124</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>1934</v>
+        <v>1926</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -12132,7 +12192,7 @@
         <v>125</v>
       </c>
       <c r="B72" s="49" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -12150,7 +12210,7 @@
         <v>126</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>1935</v>
+        <v>1927</v>
       </c>
       <c r="C73" s="53">
         <v>22</v>
@@ -12170,7 +12230,7 @@
         <v>127</v>
       </c>
       <c r="B74" s="49" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="C74" s="53">
         <v>22</v>
@@ -12184,7 +12244,7 @@
         <v>128</v>
       </c>
       <c r="B75" s="49" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="C75" s="53">
         <v>22</v>
@@ -12199,7 +12259,7 @@
         <v>129</v>
       </c>
       <c r="B76" s="49" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="C76" s="53">
         <v>23</v>
@@ -12214,7 +12274,7 @@
         <v>130</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="C77" s="53">
         <v>23</v>
@@ -12229,7 +12289,7 @@
         <v>131</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="C78" s="9">
         <v>24</v>
@@ -12244,7 +12304,7 @@
         <v>132</v>
       </c>
       <c r="B79" s="49" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="C79" s="9">
         <v>25</v>
@@ -12259,7 +12319,7 @@
         <v>133</v>
       </c>
       <c r="B80" s="49" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="C80" s="9">
         <v>26</v>
@@ -12274,7 +12334,7 @@
         <v>134</v>
       </c>
       <c r="B81" s="49" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="C81" s="9">
         <v>26</v>
@@ -12289,7 +12349,7 @@
         <v>135</v>
       </c>
       <c r="B82" s="49" t="s">
-        <v>1936</v>
+        <v>1928</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -12869,7 +12929,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="49" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B142" s="49" t="s">
         <v>239</v>
@@ -12990,10 +13050,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="57" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C154" s="14">
         <v>267</v>
@@ -13001,10 +13061,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="57" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C155" s="14">
         <v>268</v>
@@ -13012,10 +13072,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="57" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C156" s="14">
         <v>269</v>
@@ -13023,10 +13083,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="57" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C157" s="14">
         <v>270</v>
@@ -13034,10 +13094,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="57" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C158" s="14">
         <v>271</v>
@@ -13045,10 +13105,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="57" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C159" s="14">
         <v>272</v>
@@ -13056,10 +13116,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="57" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C160" s="14">
         <v>273</v>
@@ -13067,10 +13127,10 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="57" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C161" s="14">
         <v>274</v>
@@ -13078,10 +13138,10 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="57" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C162" s="14">
         <v>275</v>
@@ -13089,10 +13149,10 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="57" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C163" s="14">
         <v>276</v>
@@ -13100,10 +13160,10 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="57" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C164" s="14">
         <v>277</v>
@@ -13111,10 +13171,10 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="57" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C165" s="14">
         <v>278</v>
@@ -13122,10 +13182,10 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="57" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C166" s="14">
         <v>279</v>
@@ -13271,7 +13331,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="31" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>283</v>
@@ -13445,7 +13505,7 @@
     </row>
     <row r="198" spans="1:10" s="18" customFormat="1">
       <c r="A198" s="56" t="s">
-        <v>2174</v>
+        <v>2164</v>
       </c>
       <c r="B198" s="56" t="s">
         <v>315</v>
@@ -13475,7 +13535,7 @@
     </row>
     <row r="200" spans="1:10" s="61" customFormat="1">
       <c r="A200" s="60" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="B200" s="60" t="s">
         <v>320</v>
@@ -14813,7 +14873,7 @@
         <v>1363</v>
       </c>
       <c r="B349" s="27" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="C349" s="3">
         <v>226</v>
@@ -14876,10 +14936,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="27" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="B355" s="27" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="C355" s="3">
         <v>8</v>
@@ -14887,10 +14947,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="27" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>2179</v>
+        <v>2168</v>
       </c>
       <c r="C356" s="3">
         <v>343</v>
@@ -14909,10 +14969,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="27" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="B360" s="31" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="C360" s="3">
         <v>332</v>
@@ -14923,7 +14983,7 @@
         <v>1445</v>
       </c>
       <c r="B361" s="31" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="C361" s="3">
         <v>242</v>
@@ -14945,7 +15005,7 @@
         <v>1441</v>
       </c>
       <c r="B363" s="27" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="C363" s="3">
         <v>244</v>
@@ -14956,7 +15016,7 @@
         <v>1479</v>
       </c>
       <c r="B366" s="27" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="C366" s="3">
         <v>248</v>
@@ -14964,7 +15024,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="27" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="B368" s="27" t="s">
         <v>1503</v>
@@ -14989,7 +15049,7 @@
         <v>1507</v>
       </c>
       <c r="B371" s="27" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C371" s="3">
         <v>258</v>
@@ -14997,10 +15057,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B373" s="3" t="s">
         <v>1527</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>1528</v>
       </c>
       <c r="C373" s="3">
         <v>266</v>
@@ -15008,10 +15068,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="27" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B375" s="27" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C375" s="3">
         <v>287</v>
@@ -15019,10 +15079,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="27" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="B377" s="27" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="C377" s="3">
         <v>292</v>
@@ -15030,10 +15090,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="27" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="B379" s="27" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="C379" s="3">
         <v>319</v>
@@ -15041,10 +15101,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="27" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="B381" s="27" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="C381" s="3">
         <v>326</v>
@@ -15052,10 +15112,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="27" t="s">
-        <v>2155</v>
+        <v>2147</v>
       </c>
       <c r="B383" s="27" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="C383" s="3">
         <v>327</v>
@@ -15063,10 +15123,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="27" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="C385" s="3">
         <v>328</v>
@@ -15074,10 +15134,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="27" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="B387" s="27" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="C387" s="3">
         <v>319</v>
@@ -15085,10 +15145,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="31" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="B389" s="31" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="C389" s="8">
         <v>127</v>
@@ -15096,10 +15156,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="31" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="B390" s="31" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="C390" s="8">
         <v>128</v>
@@ -15107,10 +15167,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="31" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="B391" s="31" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="C391" s="8">
         <v>129</v>
@@ -15118,10 +15178,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="31" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="B392" s="31" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="C392" s="8">
         <v>130</v>
@@ -15129,10 +15189,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="31" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="B393" s="31" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="C393" s="8">
         <v>131</v>
@@ -15140,10 +15200,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="31" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="B394" s="31" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="C394" s="8">
         <v>132</v>
@@ -15151,10 +15211,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="31" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="B395" s="31" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="C395" s="8">
         <v>133</v>
@@ -15162,10 +15222,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="31" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="B396" s="31" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="C396" s="8">
         <v>134</v>
@@ -15173,10 +15233,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="31" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="B397" s="31" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="C397" s="8">
         <v>135</v>
@@ -15184,10 +15244,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="27" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="B399" s="27" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="C399" s="3">
         <v>333</v>
@@ -15195,10 +15255,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="27" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="B400" s="27" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="C400" s="3">
         <v>333</v>
@@ -15206,10 +15266,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="27" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="B401" s="27" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="C401" s="3">
         <v>333</v>
@@ -15217,10 +15277,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="27" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="B402" s="27" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="C402" s="3">
         <v>333</v>
@@ -15228,10 +15288,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="27" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="B403" s="27" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -15239,10 +15299,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="27" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="B405" s="27" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="C405" s="3">
         <v>91</v>
@@ -15250,10 +15310,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="27" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="B407" s="27" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="C407" s="3">
         <v>339</v>
@@ -15261,10 +15321,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="3" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="C409" s="3">
         <v>326</v>
@@ -15272,37 +15332,37 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="31" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="C411" s="9"/>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="18" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="C412" s="9"/>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="18" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="C413" s="9"/>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="18" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="C414" s="53">
         <v>22</v>
@@ -15310,10 +15370,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="18" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="C415" s="53">
         <v>22</v>
@@ -15321,10 +15381,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="18" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="C416" s="53">
         <v>22</v>
@@ -15332,10 +15392,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="18" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="C417" s="53">
         <v>23</v>
@@ -15343,10 +15403,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="18" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="C418" s="53">
         <v>23</v>
@@ -15354,10 +15414,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="18" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="C419" s="9">
         <v>24</v>
@@ -15365,10 +15425,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="18" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="C420" s="9">
         <v>25</v>
@@ -15376,10 +15436,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="18" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="C421" s="9">
         <v>26</v>
@@ -15387,10 +15447,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="18" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="C422" s="9">
         <v>26</v>
@@ -15398,10 +15458,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="18" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="C423" s="9">
         <v>26</v>
@@ -15409,10 +15469,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="27" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="B425" s="27" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="C425" s="3">
         <v>342</v>
@@ -15420,10 +15480,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="27" t="s">
-        <v>1925</v>
+        <v>1917</v>
       </c>
       <c r="B427" s="27" t="s">
-        <v>1920</v>
+        <v>1912</v>
       </c>
       <c r="C427" s="3">
         <v>344</v>
@@ -15431,10 +15491,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="27" t="s">
-        <v>1921</v>
+        <v>1913</v>
       </c>
       <c r="B428" s="27" t="s">
-        <v>1922</v>
+        <v>1914</v>
       </c>
       <c r="C428" s="3">
         <v>345</v>
@@ -15442,10 +15502,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="27" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
       <c r="B430" s="27" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
       <c r="C430" s="3">
         <v>346</v>
@@ -15453,10 +15513,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="27" t="s">
-        <v>1909</v>
+        <v>2178</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
       <c r="C432" s="3">
         <v>347</v>
@@ -15464,10 +15524,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="27" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
       <c r="B433" s="27" t="s">
-        <v>1911</v>
+        <v>1903</v>
       </c>
       <c r="C433" s="3">
         <v>348</v>
@@ -15475,10 +15535,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="27" t="s">
-        <v>1926</v>
+        <v>1918</v>
       </c>
       <c r="B435" s="27" t="s">
-        <v>1927</v>
+        <v>1919</v>
       </c>
       <c r="C435" s="3">
         <v>351</v>
@@ -15486,10 +15546,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="27" t="s">
-        <v>1928</v>
+        <v>1920</v>
       </c>
       <c r="B436" s="27" t="s">
-        <v>1929</v>
+        <v>1921</v>
       </c>
       <c r="C436" s="3">
         <v>352</v>
@@ -15497,10 +15557,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="27" t="s">
-        <v>1937</v>
+        <v>1929</v>
       </c>
       <c r="B438" s="27" t="s">
-        <v>1938</v>
+        <v>1930</v>
       </c>
       <c r="C438" s="3">
         <v>353</v>
@@ -15508,10 +15568,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="3" t="s">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="C440" s="3">
         <v>354</v>
@@ -15519,10 +15579,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="27" t="s">
-        <v>1947</v>
+        <v>1939</v>
       </c>
       <c r="B442" s="27" t="s">
-        <v>1948</v>
+        <v>1940</v>
       </c>
       <c r="C442" s="3">
         <v>355</v>
@@ -15534,10 +15594,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="27" t="s">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="B444" s="27" t="s">
-        <v>1977</v>
+        <v>1969</v>
       </c>
       <c r="C444" s="3">
         <v>368</v>
@@ -15545,10 +15605,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="72" t="s">
-        <v>1982</v>
+        <v>1974</v>
       </c>
       <c r="B446" s="27" t="s">
-        <v>1983</v>
+        <v>1975</v>
       </c>
       <c r="C446" s="3">
         <v>356</v>
@@ -15556,10 +15616,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="72" t="s">
-        <v>1984</v>
+        <v>1976</v>
       </c>
       <c r="B447" s="27" t="s">
-        <v>1985</v>
+        <v>1977</v>
       </c>
       <c r="C447" s="3">
         <v>360</v>
@@ -15567,10 +15627,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="3" t="s">
-        <v>1989</v>
+        <v>1981</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1986</v>
+        <v>1978</v>
       </c>
       <c r="C449" s="3">
         <v>369</v>
@@ -15578,10 +15638,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="27" t="s">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="B451" s="27" t="s">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="C451" s="3">
         <v>374</v>
@@ -15589,10 +15649,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="27" t="s">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="B453" s="27" t="s">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="C453" s="3">
         <v>375</v>
@@ -15600,10 +15660,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="27" t="s">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="B454" s="27" t="s">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="C454" s="3">
         <v>376</v>
@@ -15611,10 +15671,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="27" t="s">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="B455" s="27" t="s">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="C455" s="3">
         <v>377</v>
@@ -15622,10 +15682,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="27" t="s">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="B456" s="27" t="s">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="C456" s="3">
         <v>378</v>
@@ -15633,10 +15693,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="27" t="s">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="B458" s="27" t="s">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="C458" s="3">
         <v>379</v>
@@ -15644,10 +15704,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="3" t="s">
-        <v>2031</v>
+        <v>2023</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>2032</v>
+        <v>2024</v>
       </c>
       <c r="C460" s="3">
         <v>381</v>
@@ -15655,10 +15715,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="27" t="s">
-        <v>2043</v>
+        <v>2035</v>
       </c>
       <c r="B462" s="27" t="s">
-        <v>2044</v>
+        <v>2036</v>
       </c>
       <c r="C462" s="3">
         <v>385</v>
@@ -15666,10 +15726,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="27" t="s">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="B463" s="27" t="s">
-        <v>2046</v>
+        <v>2038</v>
       </c>
       <c r="C463" s="3">
         <v>386</v>
@@ -15677,18 +15737,18 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="3" t="s">
-        <v>2082</v>
+        <v>2074</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>2087</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B466" s="27" t="s">
         <v>2083</v>
-      </c>
-      <c r="B466" s="27" t="s">
-        <v>2091</v>
       </c>
       <c r="C466" s="3">
         <v>22</v>
@@ -15696,10 +15756,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="3" t="s">
-        <v>2084</v>
+        <v>2076</v>
       </c>
       <c r="B467" s="27" t="s">
-        <v>2088</v>
+        <v>2080</v>
       </c>
       <c r="C467" s="3">
         <v>23</v>
@@ -15707,10 +15767,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="3" t="s">
-        <v>2085</v>
+        <v>2077</v>
       </c>
       <c r="B468" s="27" t="s">
-        <v>2089</v>
+        <v>2081</v>
       </c>
       <c r="C468" s="3">
         <v>24</v>
@@ -15718,10 +15778,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="3" t="s">
-        <v>2086</v>
+        <v>2078</v>
       </c>
       <c r="B469" s="27" t="s">
-        <v>2090</v>
+        <v>2082</v>
       </c>
       <c r="C469" s="3">
         <v>26</v>
@@ -15729,10 +15789,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="3" t="s">
-        <v>2134</v>
+        <v>2126</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>2135</v>
+        <v>2127</v>
       </c>
       <c r="C471" s="3">
         <v>22</v>
@@ -15740,10 +15800,10 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="3" t="s">
-        <v>2168</v>
+        <v>2158</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>2169</v>
+        <v>2159</v>
       </c>
       <c r="C473" s="3">
         <v>410</v>
@@ -15751,13 +15811,24 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="3" t="s">
-        <v>2173</v>
+        <v>2163</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>2172</v>
+        <v>2162</v>
       </c>
       <c r="C475" s="3">
         <v>23</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="3" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C477" s="3">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -15773,10 +15844,10 @@
   <dimension ref="A1:O378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D316" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D352" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C325" sqref="C325"/>
+      <selection pane="bottomRight" activeCell="B378" sqref="B378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15818,7 +15889,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2106</v>
+        <v>2098</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>450</v>
@@ -15958,7 +16029,7 @@
         <v>1485</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -16118,7 +16189,7 @@
         <v>456</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="N8" s="31" t="s">
         <v>1152</v>
@@ -21830,7 +21901,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>761</v>
@@ -22377,7 +22448,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="40" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
       <c r="D192" s="40" t="s">
         <v>790</v>
@@ -24960,10 +25031,10 @@
         <v>0</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D270" s="16" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E270" s="17"/>
       <c r="F270" s="17"/>
@@ -24977,13 +25048,13 @@
         <v>1</v>
       </c>
       <c r="J270" s="16" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="K270" s="17">
         <v>1598311800</v>
       </c>
       <c r="L270" s="16" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="271" spans="1:12" s="22" customFormat="1">
@@ -24994,10 +25065,10 @@
         <v>0</v>
       </c>
       <c r="C271" s="16" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D271" s="16" t="s">
         <v>1515</v>
-      </c>
-      <c r="D271" s="16" t="s">
-        <v>1516</v>
       </c>
       <c r="E271" s="17"/>
       <c r="F271" s="17"/>
@@ -25011,13 +25082,13 @@
         <v>1</v>
       </c>
       <c r="J271" s="16" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="K271" s="17">
         <v>1598311800</v>
       </c>
       <c r="L271" s="16" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="272" spans="1:12" s="22" customFormat="1">
@@ -25028,10 +25099,10 @@
         <v>0</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D272" s="16" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E272" s="17"/>
       <c r="F272" s="17"/>
@@ -25051,7 +25122,7 @@
         <v>1598311800</v>
       </c>
       <c r="L272" s="16" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="273" spans="1:12" s="22" customFormat="1">
@@ -25062,10 +25133,10 @@
         <v>0</v>
       </c>
       <c r="C273" s="17" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D273" s="17" t="s">
         <v>1520</v>
-      </c>
-      <c r="D273" s="17" t="s">
-        <v>1521</v>
       </c>
       <c r="E273" s="17"/>
       <c r="F273" s="17"/>
@@ -25085,7 +25156,7 @@
         <v>1598311800</v>
       </c>
       <c r="L273" s="16" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="274" spans="1:12" s="22" customFormat="1">
@@ -25096,10 +25167,10 @@
         <v>0</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D274" s="16" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E274" s="17"/>
       <c r="F274" s="17"/>
@@ -25119,7 +25190,7 @@
         <v>1598311800</v>
       </c>
       <c r="L274" s="16" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="275" spans="1:12" s="22" customFormat="1">
@@ -25130,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D275" s="16" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E275" s="17"/>
       <c r="F275" s="17"/>
@@ -25153,7 +25224,7 @@
         <v>1598284800</v>
       </c>
       <c r="L275" s="16" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="276" spans="1:12" s="22" customFormat="1">
@@ -25164,10 +25235,10 @@
         <v>0</v>
       </c>
       <c r="C276" s="16" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D276" s="16" t="s">
         <v>1525</v>
-      </c>
-      <c r="D276" s="16" t="s">
-        <v>1526</v>
       </c>
       <c r="E276" s="17"/>
       <c r="F276" s="17"/>
@@ -25187,7 +25258,7 @@
         <v>1598284800</v>
       </c>
       <c r="L276" s="16" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="277" spans="1:12" s="22" customFormat="1">
@@ -25198,10 +25269,10 @@
         <v>0</v>
       </c>
       <c r="C277" s="16" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D277" s="16" t="s">
         <v>1565</v>
-      </c>
-      <c r="D277" s="16" t="s">
-        <v>1566</v>
       </c>
       <c r="E277" s="17"/>
       <c r="F277" s="17"/>
@@ -25215,13 +25286,13 @@
         <v>1</v>
       </c>
       <c r="J277" s="16" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K277" s="17">
         <v>1598916600</v>
       </c>
       <c r="L277" s="16" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="278" spans="1:12" s="22" customFormat="1">
@@ -25232,10 +25303,10 @@
         <v>0</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D278" s="16" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="E278" s="17"/>
       <c r="F278" s="17"/>
@@ -25255,7 +25326,7 @@
         <v>1598889600</v>
       </c>
       <c r="L278" s="16" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="279" spans="1:12" s="83" customFormat="1">
@@ -25266,10 +25337,10 @@
         <v>0</v>
       </c>
       <c r="C279" s="82" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D279" s="82" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="E279" s="81"/>
       <c r="F279" s="81"/>
@@ -25300,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="C280" s="82" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D280" s="82" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="E280" s="81"/>
       <c r="F280" s="81"/>
@@ -25334,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="C281" s="82" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D281" s="82" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="E281" s="81"/>
       <c r="F281" s="81"/>
@@ -25368,10 +25439,10 @@
         <v>0</v>
       </c>
       <c r="C282" s="82" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D282" s="82" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E282" s="81"/>
       <c r="F282" s="81"/>
@@ -25402,10 +25473,10 @@
         <v>0</v>
       </c>
       <c r="C283" s="82" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D283" s="82" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E283" s="81"/>
       <c r="F283" s="81"/>
@@ -25436,10 +25507,10 @@
         <v>0</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="E284" s="17"/>
       <c r="F284" s="17"/>
@@ -25453,13 +25524,13 @@
         <v>1</v>
       </c>
       <c r="J284" s="16" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="K284" s="17">
         <v>1599521400</v>
       </c>
       <c r="L284" s="17" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="285" spans="1:12" s="22" customFormat="1">
@@ -25470,10 +25541,10 @@
         <v>0</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="E285" s="17"/>
       <c r="F285" s="17"/>
@@ -25493,7 +25564,7 @@
         <v>1599494400</v>
       </c>
       <c r="L285" s="17" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="286" spans="1:12" s="22" customFormat="1">
@@ -25504,10 +25575,10 @@
         <v>0</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="E286" s="17"/>
       <c r="F286" s="17"/>
@@ -25527,7 +25598,7 @@
         <v>1599523200</v>
       </c>
       <c r="L286" s="17" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="287" spans="1:12" s="22" customFormat="1">
@@ -25538,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E287" s="17"/>
       <c r="F287" s="17"/>
@@ -25561,7 +25632,7 @@
         <v>1599523200</v>
       </c>
       <c r="L287" s="17" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="288" spans="1:12" s="22" customFormat="1">
@@ -25572,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="D288" s="16" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="E288" s="17"/>
       <c r="F288" s="17"/>
@@ -25595,7 +25666,7 @@
         <v>1599494400</v>
       </c>
       <c r="L288" s="17" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="289" spans="1:12" s="73" customFormat="1">
@@ -25606,10 +25677,10 @@
         <v>1</v>
       </c>
       <c r="C289" s="102" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D289" s="102" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="E289" s="71"/>
       <c r="F289" s="71"/>
@@ -25623,13 +25694,13 @@
         <v>1</v>
       </c>
       <c r="J289" s="71" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="K289" s="71">
         <v>1615248000</v>
       </c>
       <c r="L289" s="72" t="s">
-        <v>2115</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="73" customFormat="1">
@@ -25640,10 +25711,10 @@
         <v>1</v>
       </c>
       <c r="C290" s="102" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="D290" s="102" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="E290" s="71"/>
       <c r="F290" s="71"/>
@@ -25657,13 +25728,13 @@
         <v>1</v>
       </c>
       <c r="J290" s="71" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="K290" s="71">
         <v>1615248000</v>
       </c>
       <c r="L290" s="71" t="s">
-        <v>2115</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="73" customFormat="1">
@@ -25674,10 +25745,10 @@
         <v>1</v>
       </c>
       <c r="C291" s="101" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="D291" s="102" t="s">
-        <v>2053</v>
+        <v>2045</v>
       </c>
       <c r="E291" s="71"/>
       <c r="F291" s="71"/>
@@ -25691,13 +25762,13 @@
         <v>1</v>
       </c>
       <c r="J291" s="71" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="K291" s="71">
         <v>1615248000</v>
       </c>
       <c r="L291" s="71" t="s">
-        <v>2115</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="73" customFormat="1">
@@ -25708,10 +25779,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="101" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="D292" s="101" t="s">
-        <v>1942</v>
+        <v>1934</v>
       </c>
       <c r="E292" s="71"/>
       <c r="F292" s="71"/>
@@ -25725,13 +25796,13 @@
         <v>1</v>
       </c>
       <c r="J292" s="71" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="K292" s="71">
         <v>1615248000</v>
       </c>
       <c r="L292" s="71" t="s">
-        <v>2115</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -25742,10 +25813,10 @@
         <v>1</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="G293" s="17">
         <v>298</v>
@@ -25774,10 +25845,10 @@
         <v>1</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="D294" s="16" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G294" s="17">
         <v>299</v>
@@ -25806,10 +25877,10 @@
         <v>1</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G295" s="17">
         <v>300</v>
@@ -25838,10 +25909,10 @@
         <v>1</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="D296" s="16" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G296" s="17">
         <v>301</v>
@@ -25870,10 +25941,10 @@
         <v>1</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="D297" s="16" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="G297" s="17">
         <v>302</v>
@@ -25902,10 +25973,10 @@
         <v>1</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="G298" s="17">
         <v>303</v>
@@ -25934,10 +26005,10 @@
         <v>1</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="G299" s="17">
         <v>304</v>
@@ -25966,10 +26037,10 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="G300" s="17">
         <v>305</v>
@@ -25998,10 +26069,10 @@
         <v>1</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="G301" s="17">
         <v>306</v>
@@ -26030,10 +26101,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="G302" s="17">
         <v>307</v>
@@ -26062,10 +26133,10 @@
         <v>1</v>
       </c>
       <c r="C303" s="30" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="D303" s="16" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="G303" s="17">
         <v>308</v>
@@ -26094,10 +26165,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1919</v>
+        <v>1911</v>
       </c>
       <c r="D304" s="30" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="G304" s="26">
         <v>309</v>
@@ -26126,10 +26197,10 @@
         <v>1</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="G305" s="26">
         <v>310</v>
@@ -26158,10 +26229,10 @@
         <v>1</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="G306" s="26">
         <v>311</v>
@@ -26190,10 +26261,10 @@
         <v>1</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G307" s="26">
         <v>312</v>
@@ -26222,10 +26293,10 @@
         <v>1</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="D308" s="16" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G308" s="26">
         <v>313</v>
@@ -26254,10 +26325,10 @@
         <v>1</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="D309" s="16" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="G309" s="26">
         <v>314</v>
@@ -26286,10 +26357,10 @@
         <v>1</v>
       </c>
       <c r="C310" s="30" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="D310" s="30" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="G310" s="26">
         <v>315</v>
@@ -26318,10 +26389,10 @@
         <v>1</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="G311" s="26">
         <v>316</v>
@@ -26350,10 +26421,10 @@
         <v>1</v>
       </c>
       <c r="C312" s="30" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="D312" s="30" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="G312" s="26">
         <v>317</v>
@@ -26382,10 +26453,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="G313" s="26">
         <v>318</v>
@@ -26414,10 +26485,10 @@
         <v>1</v>
       </c>
       <c r="C314" s="30" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="D314" s="30" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="G314" s="26">
         <v>319</v>
@@ -26446,10 +26517,10 @@
         <v>1</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="G315" s="26">
         <v>320</v>
@@ -26478,10 +26549,10 @@
         <v>0</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="D316" s="16" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="E316" s="17"/>
       <c r="F316" s="17"/>
@@ -26501,7 +26572,7 @@
         <v>1600731000</v>
       </c>
       <c r="L316" s="16" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -26512,10 +26583,10 @@
         <v>0</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="G317" s="26">
         <v>322</v>
@@ -26533,7 +26604,7 @@
         <v>1601335800</v>
       </c>
       <c r="L317" s="30" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -26544,10 +26615,10 @@
         <v>0</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="G318" s="26">
         <v>323</v>
@@ -26565,7 +26636,7 @@
         <v>1601335800</v>
       </c>
       <c r="L318" s="30" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -26576,10 +26647,10 @@
         <v>0</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="G319" s="26">
         <v>323</v>
@@ -26597,7 +26668,7 @@
         <v>1601335800</v>
       </c>
       <c r="L319" s="30" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -26608,10 +26679,10 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="G320" s="26">
         <v>324</v>
@@ -26640,10 +26711,10 @@
         <v>1</v>
       </c>
       <c r="C321" s="101" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="D321" s="101" t="s">
-        <v>2051</v>
+        <v>2043</v>
       </c>
       <c r="E321" s="102"/>
       <c r="F321" s="102"/>
@@ -26663,7 +26734,7 @@
         <v>1601335800</v>
       </c>
       <c r="L321" s="101" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -26674,10 +26745,10 @@
         <v>0</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -26695,7 +26766,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -26706,10 +26777,10 @@
         <v>0</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -26727,7 +26798,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -26738,10 +26809,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -26753,7 +26824,7 @@
         <v>1</v>
       </c>
       <c r="J324" s="16" t="s">
-        <v>1990</v>
+        <v>1982</v>
       </c>
       <c r="K324" s="26">
         <v>1598916600</v>
@@ -26770,10 +26841,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -26802,10 +26873,10 @@
         <v>0</v>
       </c>
       <c r="C326" s="101" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="D326" s="101" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -26823,7 +26894,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -26834,10 +26905,10 @@
         <v>0</v>
       </c>
       <c r="C327" s="101" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="D327" s="101" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -26855,7 +26926,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -26866,10 +26937,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -26898,10 +26969,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="D329" s="26" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -26930,10 +27001,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -26945,7 +27016,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -26962,10 +27033,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -26994,10 +27065,10 @@
         <v>0</v>
       </c>
       <c r="C332" s="87" t="s">
-        <v>1973</v>
+        <v>1965</v>
       </c>
       <c r="D332" s="87" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="E332" s="86"/>
       <c r="F332" s="86"/>
@@ -27017,7 +27088,7 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="87" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -27028,10 +27099,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="G333" s="26">
         <v>337</v>
@@ -27043,7 +27114,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -27060,10 +27131,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>2162</v>
+        <v>2152</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -27094,10 +27165,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="D335" s="16" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
@@ -27128,10 +27199,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -27145,7 +27216,7 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>1961</v>
+        <v>1953</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
@@ -27162,10 +27233,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1918</v>
+        <v>1910</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1913</v>
+        <v>1905</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -27194,10 +27265,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1912</v>
+        <v>1904</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1914</v>
+        <v>1906</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -27228,10 +27299,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="72" t="s">
-        <v>1954</v>
+        <v>1946</v>
       </c>
       <c r="D339" s="30" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
       <c r="G339" s="26">
         <v>357</v>
@@ -27260,10 +27331,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="72" t="s">
-        <v>1955</v>
+        <v>1947</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
       <c r="G340" s="26">
         <v>358</v>
@@ -27292,10 +27363,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="72" t="s">
-        <v>1956</v>
+        <v>1948</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
       <c r="G341" s="26">
         <v>359</v>
@@ -27324,10 +27395,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="72" t="s">
-        <v>1957</v>
+        <v>1949</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
       <c r="G342" s="26">
         <v>361</v>
@@ -27356,10 +27427,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="72" t="s">
-        <v>1958</v>
+        <v>1950</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
       <c r="G343" s="26">
         <v>362</v>
@@ -27388,10 +27459,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="72" t="s">
-        <v>1959</v>
+        <v>1951</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
       <c r="G344" s="26">
         <v>363</v>
@@ -27420,10 +27491,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="72" t="s">
-        <v>1962</v>
+        <v>1954</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>1960</v>
+        <v>1952</v>
       </c>
       <c r="G345" s="26">
         <v>364</v>
@@ -27435,7 +27506,7 @@
         <v>1</v>
       </c>
       <c r="J345" s="16" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="K345" s="17">
         <v>1598889600</v>
@@ -27452,10 +27523,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="30" t="s">
-        <v>1965</v>
+        <v>1957</v>
       </c>
       <c r="D346" s="78" t="s">
-        <v>1967</v>
+        <v>1959</v>
       </c>
       <c r="G346" s="26">
         <v>365</v>
@@ -27484,10 +27555,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="30" t="s">
-        <v>1966</v>
+        <v>1958</v>
       </c>
       <c r="D347" s="78" t="s">
-        <v>1968</v>
+        <v>1960</v>
       </c>
       <c r="G347" s="26">
         <v>366</v>
@@ -27516,10 +27587,10 @@
         <v>1</v>
       </c>
       <c r="C348" s="101" t="s">
-        <v>1974</v>
+        <v>1966</v>
       </c>
       <c r="D348" s="101" t="s">
-        <v>2050</v>
+        <v>2042</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="17"/>
@@ -27550,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>1991</v>
+        <v>1983</v>
       </c>
       <c r="D349" s="16" t="s">
-        <v>1993</v>
+        <v>1985</v>
       </c>
       <c r="E349" s="16"/>
       <c r="F349" s="16"/>
@@ -27567,13 +27638,13 @@
         <v>1</v>
       </c>
       <c r="J349" s="16" t="s">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="K349" s="16">
         <v>1610409600</v>
       </c>
       <c r="L349" s="16" t="s">
-        <v>2070</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="45" customFormat="1">
@@ -27584,10 +27655,10 @@
         <v>0</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="D350" s="16" t="s">
-        <v>1994</v>
+        <v>1986</v>
       </c>
       <c r="E350" s="16"/>
       <c r="F350" s="16"/>
@@ -27601,13 +27672,13 @@
         <v>1</v>
       </c>
       <c r="J350" s="16" t="s">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="K350" s="16">
         <v>1610409600</v>
       </c>
       <c r="L350" s="16" t="s">
-        <v>2071</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="45" customFormat="1">
@@ -27618,10 +27689,10 @@
         <v>1</v>
       </c>
       <c r="C351" s="66" t="s">
-        <v>2072</v>
+        <v>2064</v>
       </c>
       <c r="D351" s="66" t="s">
-        <v>2105</v>
+        <v>2097</v>
       </c>
       <c r="E351" s="66"/>
       <c r="F351" s="66"/>
@@ -27635,13 +27706,13 @@
         <v>1</v>
       </c>
       <c r="J351" s="66" t="s">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="K351" s="66">
         <v>1610380800</v>
       </c>
       <c r="L351" s="66" t="s">
-        <v>2073</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="45" customFormat="1">
@@ -27652,10 +27723,10 @@
         <v>1</v>
       </c>
       <c r="C352" s="66" t="s">
-        <v>1998</v>
+        <v>1990</v>
       </c>
       <c r="D352" s="66" t="s">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="E352" s="66"/>
       <c r="F352" s="66"/>
@@ -27669,13 +27740,13 @@
         <v>1</v>
       </c>
       <c r="J352" s="66" t="s">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="K352" s="66">
         <v>1610380800</v>
       </c>
       <c r="L352" s="66" t="s">
-        <v>2071</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="45" customFormat="1">
@@ -27686,10 +27757,10 @@
         <v>1</v>
       </c>
       <c r="C353" s="106" t="s">
-        <v>2030</v>
+        <v>2022</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="E353" s="16"/>
       <c r="F353" s="16"/>
@@ -27720,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>2097</v>
+        <v>2089</v>
       </c>
       <c r="D354" s="16" t="s">
-        <v>2033</v>
+        <v>2025</v>
       </c>
       <c r="E354" s="16"/>
       <c r="F354" s="16"/>
@@ -27743,7 +27814,7 @@
         <v>1611014400</v>
       </c>
       <c r="L354" s="16" t="s">
-        <v>2034</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="355" spans="1:12" s="45" customFormat="1">
@@ -27754,10 +27825,10 @@
         <v>0</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>2098</v>
+        <v>2090</v>
       </c>
       <c r="D355" s="16" t="s">
-        <v>2035</v>
+        <v>2027</v>
       </c>
       <c r="E355" s="16"/>
       <c r="F355" s="16"/>
@@ -27777,7 +27848,7 @@
         <v>1611014400</v>
       </c>
       <c r="L355" s="16" t="s">
-        <v>2036</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="356" spans="1:12" s="45" customFormat="1">
@@ -27788,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>2099</v>
+        <v>2091</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>2037</v>
+        <v>2029</v>
       </c>
       <c r="E356" s="16"/>
       <c r="F356" s="16"/>
@@ -27811,7 +27882,7 @@
         <v>1611014400</v>
       </c>
       <c r="L356" s="16" t="s">
-        <v>2034</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="357" spans="1:12" s="45" customFormat="1">
@@ -27822,10 +27893,10 @@
         <v>0</v>
       </c>
       <c r="C357" s="106" t="s">
-        <v>2056</v>
+        <v>2048</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>2054</v>
+        <v>2046</v>
       </c>
       <c r="E357" s="16"/>
       <c r="F357" s="16"/>
@@ -27856,10 +27927,10 @@
         <v>0</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>2057</v>
+        <v>2049</v>
       </c>
       <c r="D358" s="16" t="s">
-        <v>2058</v>
+        <v>2050</v>
       </c>
       <c r="E358" s="16"/>
       <c r="F358" s="16"/>
@@ -27879,7 +27950,7 @@
         <v>1611590400</v>
       </c>
       <c r="L358" s="16" t="s">
-        <v>2059</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="359" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27890,10 +27961,10 @@
         <v>0</v>
       </c>
       <c r="C359" s="108" t="s">
-        <v>2061</v>
+        <v>2053</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>2064</v>
+        <v>2056</v>
       </c>
       <c r="E359" s="16"/>
       <c r="F359" s="16"/>
@@ -27913,7 +27984,7 @@
         <v>1611590400</v>
       </c>
       <c r="L359" s="16" t="s">
-        <v>2059</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="360" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27924,10 +27995,10 @@
         <v>0</v>
       </c>
       <c r="C360" s="108" t="s">
-        <v>2062</v>
+        <v>2054</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>2065</v>
+        <v>2057</v>
       </c>
       <c r="E360" s="16"/>
       <c r="F360" s="16"/>
@@ -27947,7 +28018,7 @@
         <v>1611590400</v>
       </c>
       <c r="L360" s="16" t="s">
-        <v>2059</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="361" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27958,10 +28029,10 @@
         <v>0</v>
       </c>
       <c r="C361" s="108" t="s">
-        <v>2063</v>
+        <v>2055</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>2066</v>
+        <v>2058</v>
       </c>
       <c r="E361" s="16"/>
       <c r="F361" s="16"/>
@@ -27981,7 +28052,7 @@
         <v>1611590400</v>
       </c>
       <c r="L361" s="16" t="s">
-        <v>2059</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="362" spans="1:12" s="45" customFormat="1">
@@ -27992,10 +28063,10 @@
         <v>0</v>
       </c>
       <c r="C362" s="106" t="s">
-        <v>2129</v>
+        <v>2121</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>2054</v>
+        <v>2046</v>
       </c>
       <c r="E362" s="16"/>
       <c r="F362" s="16"/>
@@ -28026,10 +28097,10 @@
         <v>0</v>
       </c>
       <c r="C363" s="31" t="s">
-        <v>2074</v>
+        <v>2066</v>
       </c>
       <c r="D363" s="16" t="s">
-        <v>2076</v>
+        <v>2068</v>
       </c>
       <c r="E363" s="17"/>
       <c r="F363" s="17"/>
@@ -28049,7 +28120,7 @@
         <v>1612828800</v>
       </c>
       <c r="L363" s="16" t="s">
-        <v>2078</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="364" spans="1:12" s="22" customFormat="1">
@@ -28060,10 +28131,10 @@
         <v>0</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>2075</v>
+        <v>2067</v>
       </c>
       <c r="D364" s="16" t="s">
-        <v>2077</v>
+        <v>2069</v>
       </c>
       <c r="E364" s="17"/>
       <c r="F364" s="17"/>
@@ -28083,7 +28154,7 @@
         <v>1612828800</v>
       </c>
       <c r="L364" s="16" t="s">
-        <v>2079</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="365" spans="1:12" s="22" customFormat="1">
@@ -28094,10 +28165,10 @@
         <v>0</v>
       </c>
       <c r="C365" s="31" t="s">
-        <v>2092</v>
+        <v>2084</v>
       </c>
       <c r="D365" s="16" t="s">
-        <v>2093</v>
+        <v>2085</v>
       </c>
       <c r="E365" s="17"/>
       <c r="F365" s="17"/>
@@ -28117,7 +28188,7 @@
         <v>1612828800</v>
       </c>
       <c r="L365" s="16" t="s">
-        <v>2094</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="366" spans="1:12" s="22" customFormat="1">
@@ -28128,10 +28199,10 @@
         <v>1</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>2112</v>
+        <v>2104</v>
       </c>
       <c r="D366" s="16" t="s">
-        <v>2123</v>
+        <v>2115</v>
       </c>
       <c r="E366" s="17"/>
       <c r="F366" s="17"/>
@@ -28151,7 +28222,7 @@
         <v>1615852800</v>
       </c>
       <c r="L366" s="16" t="s">
-        <v>2136</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="22" customFormat="1">
@@ -28162,10 +28233,10 @@
         <v>1</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>2113</v>
+        <v>2105</v>
       </c>
       <c r="D367" s="16" t="s">
-        <v>2114</v>
+        <v>2106</v>
       </c>
       <c r="E367" s="17"/>
       <c r="F367" s="17"/>
@@ -28185,7 +28256,7 @@
         <v>1615852800</v>
       </c>
       <c r="L367" s="16" t="s">
-        <v>2136</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="368" spans="1:12" s="22" customFormat="1">
@@ -28196,10 +28267,10 @@
         <v>0</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>2125</v>
+        <v>2117</v>
       </c>
       <c r="D368" s="16" t="s">
-        <v>2116</v>
+        <v>2108</v>
       </c>
       <c r="E368" s="17"/>
       <c r="F368" s="17"/>
@@ -28219,7 +28290,7 @@
         <v>1615248000</v>
       </c>
       <c r="L368" s="16" t="s">
-        <v>2109</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="369" spans="1:12" s="22" customFormat="1">
@@ -28230,10 +28301,10 @@
         <v>0</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>2124</v>
+        <v>2116</v>
       </c>
       <c r="D369" s="16" t="s">
-        <v>2117</v>
+        <v>2109</v>
       </c>
       <c r="E369" s="17"/>
       <c r="F369" s="17"/>
@@ -28253,7 +28324,7 @@
         <v>1615248000</v>
       </c>
       <c r="L369" s="16" t="s">
-        <v>2109</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="370" spans="1:12" s="22" customFormat="1">
@@ -28264,10 +28335,10 @@
         <v>1</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>2119</v>
+        <v>2111</v>
       </c>
       <c r="D370" s="16" t="s">
-        <v>2121</v>
+        <v>2113</v>
       </c>
       <c r="E370" s="17"/>
       <c r="F370" s="17"/>
@@ -28298,10 +28369,10 @@
         <v>1</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>2120</v>
+        <v>2112</v>
       </c>
       <c r="D371" s="16" t="s">
-        <v>2122</v>
+        <v>2114</v>
       </c>
       <c r="E371" s="17"/>
       <c r="F371" s="17"/>
@@ -28332,10 +28403,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="58" t="s">
-        <v>2165</v>
+        <v>2155</v>
       </c>
       <c r="D372" s="66" t="s">
-        <v>2164</v>
+        <v>2154</v>
       </c>
       <c r="E372" s="65"/>
       <c r="F372" s="65"/>
@@ -28355,7 +28426,7 @@
         <v>1615824000</v>
       </c>
       <c r="L372" s="66" t="s">
-        <v>2136</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="373" spans="1:12" s="67" customFormat="1">
@@ -28366,10 +28437,10 @@
         <v>1</v>
       </c>
       <c r="C373" s="58" t="s">
-        <v>2166</v>
+        <v>2156</v>
       </c>
       <c r="D373" s="66" t="s">
-        <v>2077</v>
+        <v>2069</v>
       </c>
       <c r="E373" s="65"/>
       <c r="F373" s="65"/>
@@ -28389,7 +28460,7 @@
         <v>1615824000</v>
       </c>
       <c r="L373" s="66" t="s">
-        <v>2136</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="374" spans="1:12" s="22" customFormat="1">
@@ -28400,10 +28471,10 @@
         <v>1</v>
       </c>
       <c r="C374" s="17" t="s">
-        <v>2130</v>
+        <v>2122</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>2131</v>
+        <v>2123</v>
       </c>
       <c r="E374" s="17"/>
       <c r="F374" s="17"/>
@@ -28417,7 +28488,7 @@
         <v>1</v>
       </c>
       <c r="J374" s="17" t="s">
-        <v>2132</v>
+        <v>2124</v>
       </c>
       <c r="K374" s="17">
         <v>1615248000</v>
@@ -28429,13 +28500,13 @@
         <v>374</v>
       </c>
       <c r="B375" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>2137</v>
+        <v>2129</v>
       </c>
       <c r="D375" s="16" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
       <c r="E375" s="17"/>
       <c r="F375" s="17"/>
@@ -28455,7 +28526,7 @@
         <v>1615824000</v>
       </c>
       <c r="L375" s="16" t="s">
-        <v>2136</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="376" spans="1:12" s="22" customFormat="1">
@@ -28463,13 +28534,13 @@
         <v>375</v>
       </c>
       <c r="B376" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>2138</v>
+        <v>2130</v>
       </c>
       <c r="D376" s="16" t="s">
-        <v>2142</v>
+        <v>2134</v>
       </c>
       <c r="E376" s="17"/>
       <c r="F376" s="17"/>
@@ -28489,7 +28560,7 @@
         <v>1615824000</v>
       </c>
       <c r="L376" s="16" t="s">
-        <v>2136</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="377" spans="1:12" s="22" customFormat="1">
@@ -28497,13 +28568,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="D377" s="16" t="s">
-        <v>2143</v>
+        <v>2135</v>
       </c>
       <c r="E377" s="17"/>
       <c r="F377" s="17"/>
@@ -28523,7 +28594,7 @@
         <v>1615824000</v>
       </c>
       <c r="L377" s="16" t="s">
-        <v>2136</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="378" spans="1:12" s="22" customFormat="1">
@@ -28531,13 +28602,13 @@
         <v>377</v>
       </c>
       <c r="B378" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>2140</v>
+        <v>2132</v>
       </c>
       <c r="D378" s="16" t="s">
-        <v>2144</v>
+        <v>2136</v>
       </c>
       <c r="E378" s="17"/>
       <c r="F378" s="17"/>
@@ -28557,7 +28628,7 @@
         <v>1615824000</v>
       </c>
       <c r="L378" s="16" t="s">
-        <v>2136</v>
+        <v>2128</v>
       </c>
     </row>
   </sheetData>
@@ -28571,13 +28642,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I1001"/>
+  <dimension ref="A1:I1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C868" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C844" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D892" sqref="D892"/>
+      <selection pane="bottomRight" activeCell="C857" sqref="C857"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29092,7 +29163,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D21" s="8">
         <v>1583769600</v>
@@ -29161,7 +29232,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1039</v>
@@ -30288,7 +30359,7 @@
         <v>48</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>1037</v>
@@ -30636,7 +30707,7 @@
         <v>852</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E88" s="8">
         <v>2</v>
@@ -30728,7 +30799,7 @@
         <v>852</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E92" s="8">
         <v>2</v>
@@ -30774,7 +30845,7 @@
         <v>852</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -31997,7 +32068,7 @@
         <v>1032</v>
       </c>
       <c r="D147" s="97" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E147" s="96">
         <v>2</v>
@@ -32072,7 +32143,7 @@
         <v>1032</v>
       </c>
       <c r="D150" s="97" t="s">
-        <v>1916</v>
+        <v>1908</v>
       </c>
       <c r="E150" s="96">
         <v>2</v>
@@ -32081,7 +32152,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="97" t="s">
-        <v>1917</v>
+        <v>1909</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -32741,7 +32812,7 @@
         <v>1032</v>
       </c>
       <c r="D179" s="80" t="s">
-        <v>2180</v>
+        <v>2169</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -32750,7 +32821,7 @@
         <v>4</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="8" customFormat="1">
@@ -32764,7 +32835,7 @@
         <v>1032</v>
       </c>
       <c r="D180" s="80" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -32773,7 +32844,7 @@
         <v>5</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="8" customFormat="1">
@@ -32787,7 +32858,7 @@
         <v>1032</v>
       </c>
       <c r="D181" s="80" t="s">
-        <v>2175</v>
+        <v>2165</v>
       </c>
       <c r="E181" s="14">
         <v>2</v>
@@ -32796,7 +32867,7 @@
         <v>6</v>
       </c>
       <c r="G181" s="15" t="s">
-        <v>2176</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="8" customFormat="1">
@@ -32810,7 +32881,7 @@
         <v>1032</v>
       </c>
       <c r="D182" s="80" t="s">
-        <v>2181</v>
+        <v>2170</v>
       </c>
       <c r="E182" s="14">
         <v>2</v>
@@ -32819,7 +32890,7 @@
         <v>7</v>
       </c>
       <c r="G182" s="15" t="s">
-        <v>2176</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="8" customFormat="1">
@@ -33217,7 +33288,7 @@
         <v>1032</v>
       </c>
       <c r="D199" s="91" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E199" s="89">
         <v>2</v>
@@ -33226,7 +33297,7 @@
         <v>4</v>
       </c>
       <c r="G199" s="90" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H199" s="8"/>
       <c r="I199" s="8"/>
@@ -33242,7 +33313,7 @@
         <v>1032</v>
       </c>
       <c r="D200" s="91" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E200" s="89">
         <v>2</v>
@@ -33251,7 +33322,7 @@
         <v>5</v>
       </c>
       <c r="G200" s="90" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="H200" s="8"/>
       <c r="I200" s="8"/>
@@ -33267,7 +33338,7 @@
         <v>1032</v>
       </c>
       <c r="D201" s="91" t="s">
-        <v>2186</v>
+        <v>2175</v>
       </c>
       <c r="E201" s="89">
         <v>2</v>
@@ -33276,7 +33347,7 @@
         <v>6</v>
       </c>
       <c r="G201" s="90" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H201" s="8"/>
       <c r="I201" s="8"/>
@@ -33289,7 +33360,7 @@
         <v>80</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>917</v>
@@ -37448,7 +37519,7 @@
         <v>1142</v>
       </c>
       <c r="D381" s="10" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="E381" s="8">
         <v>5</v>
@@ -42672,7 +42743,7 @@
         <v>1142</v>
       </c>
       <c r="D599" s="10" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="E599" s="8">
         <v>5</v>
@@ -42681,7 +42752,7 @@
         <v>1</v>
       </c>
       <c r="G599" s="10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H599" s="8"/>
       <c r="I599" s="8"/>
@@ -42722,7 +42793,7 @@
         <v>1142</v>
       </c>
       <c r="D601" s="10" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="E601" s="8">
         <v>5</v>
@@ -42731,7 +42802,7 @@
         <v>2</v>
       </c>
       <c r="G601" s="10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H601" s="8"/>
       <c r="I601" s="8"/>
@@ -42747,7 +42818,7 @@
         <v>1142</v>
       </c>
       <c r="D602" s="10" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="E602" s="14">
         <v>2</v>
@@ -42756,7 +42827,7 @@
         <v>3</v>
       </c>
       <c r="G602" s="15" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H602" s="8"/>
       <c r="I602" s="8"/>
@@ -42772,7 +42843,7 @@
         <v>1142</v>
       </c>
       <c r="D603" s="15" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E603" s="14">
         <v>2</v>
@@ -42781,7 +42852,7 @@
         <v>4</v>
       </c>
       <c r="G603" s="15" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H603" s="8"/>
       <c r="I603" s="8"/>
@@ -42822,7 +42893,7 @@
         <v>1142</v>
       </c>
       <c r="D605" s="15" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E605" s="14">
         <v>5</v>
@@ -42831,7 +42902,7 @@
         <v>1</v>
       </c>
       <c r="G605" s="15" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H605" s="8"/>
       <c r="I605" s="8"/>
@@ -42872,7 +42943,7 @@
         <v>1142</v>
       </c>
       <c r="D607" s="15" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E607" s="14">
         <v>5</v>
@@ -42881,7 +42952,7 @@
         <v>2</v>
       </c>
       <c r="G607" s="15" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H607" s="8"/>
       <c r="I607" s="8"/>
@@ -42897,7 +42968,7 @@
         <v>1142</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E608" s="14">
         <v>2</v>
@@ -42906,7 +42977,7 @@
         <v>3</v>
       </c>
       <c r="G608" s="15" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H608" s="8"/>
       <c r="I608" s="8"/>
@@ -42922,7 +42993,7 @@
         <v>1142</v>
       </c>
       <c r="D609" s="15" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E609" s="14">
         <v>2</v>
@@ -42931,7 +43002,7 @@
         <v>4</v>
       </c>
       <c r="G609" s="15" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H609" s="8"/>
       <c r="I609" s="8"/>
@@ -42972,7 +43043,7 @@
         <v>1142</v>
       </c>
       <c r="D611" s="15" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E611" s="8">
         <v>5</v>
@@ -42981,7 +43052,7 @@
         <v>1</v>
       </c>
       <c r="G611" s="10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H611" s="8"/>
       <c r="I611" s="8"/>
@@ -43022,7 +43093,7 @@
         <v>1142</v>
       </c>
       <c r="D613" s="15" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E613" s="8">
         <v>5</v>
@@ -43031,7 +43102,7 @@
         <v>2</v>
       </c>
       <c r="G613" s="10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H613" s="8"/>
       <c r="I613" s="8"/>
@@ -43047,7 +43118,7 @@
         <v>1142</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E614" s="14">
         <v>2</v>
@@ -43056,7 +43127,7 @@
         <v>3</v>
       </c>
       <c r="G614" s="15" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H614" s="8"/>
       <c r="I614" s="8"/>
@@ -43072,7 +43143,7 @@
         <v>1142</v>
       </c>
       <c r="D615" s="15" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E615" s="14">
         <v>2</v>
@@ -43081,7 +43152,7 @@
         <v>4</v>
       </c>
       <c r="G615" s="15" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H615" s="8"/>
       <c r="I615" s="8"/>
@@ -43122,7 +43193,7 @@
         <v>1142</v>
       </c>
       <c r="D617" s="15" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E617" s="8">
         <v>5</v>
@@ -43131,7 +43202,7 @@
         <v>1</v>
       </c>
       <c r="G617" s="10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H617" s="8"/>
       <c r="I617" s="8"/>
@@ -43172,7 +43243,7 @@
         <v>1142</v>
       </c>
       <c r="D619" s="15" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E619" s="8">
         <v>5</v>
@@ -43181,7 +43252,7 @@
         <v>2</v>
       </c>
       <c r="G619" s="10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H619" s="8"/>
       <c r="I619" s="8"/>
@@ -43197,7 +43268,7 @@
         <v>1142</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E620" s="14">
         <v>2</v>
@@ -43206,7 +43277,7 @@
         <v>3</v>
       </c>
       <c r="G620" s="15" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H620" s="8"/>
       <c r="I620" s="8"/>
@@ -43222,7 +43293,7 @@
         <v>1142</v>
       </c>
       <c r="D621" s="15" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E621" s="14">
         <v>2</v>
@@ -43231,7 +43302,7 @@
         <v>4</v>
       </c>
       <c r="G621" s="15" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H621" s="8"/>
       <c r="I621" s="8"/>
@@ -43272,7 +43343,7 @@
         <v>1142</v>
       </c>
       <c r="D623" s="15" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E623" s="8">
         <v>5</v>
@@ -43281,7 +43352,7 @@
         <v>1</v>
       </c>
       <c r="G623" s="10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H623" s="8"/>
       <c r="I623" s="8"/>
@@ -43322,7 +43393,7 @@
         <v>1142</v>
       </c>
       <c r="D625" s="15" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E625" s="8">
         <v>5</v>
@@ -43331,7 +43402,7 @@
         <v>2</v>
       </c>
       <c r="G625" s="10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H625" s="8"/>
       <c r="I625" s="8"/>
@@ -43347,7 +43418,7 @@
         <v>1142</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E626" s="14">
         <v>2</v>
@@ -43356,7 +43427,7 @@
         <v>3</v>
       </c>
       <c r="G626" s="15" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H626" s="8"/>
       <c r="I626" s="8"/>
@@ -43372,7 +43443,7 @@
         <v>1142</v>
       </c>
       <c r="D627" s="15" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E627" s="14">
         <v>2</v>
@@ -43381,7 +43452,7 @@
         <v>4</v>
       </c>
       <c r="G627" s="15" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H627" s="8"/>
       <c r="I627" s="8"/>
@@ -43422,7 +43493,7 @@
         <v>1142</v>
       </c>
       <c r="D629" s="15" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E629" s="8">
         <v>5</v>
@@ -43431,7 +43502,7 @@
         <v>1</v>
       </c>
       <c r="G629" s="10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H629" s="8"/>
       <c r="I629" s="8"/>
@@ -43472,7 +43543,7 @@
         <v>1142</v>
       </c>
       <c r="D631" s="15" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E631" s="8">
         <v>5</v>
@@ -43481,7 +43552,7 @@
         <v>2</v>
       </c>
       <c r="G631" s="10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H631" s="8"/>
       <c r="I631" s="8"/>
@@ -43497,7 +43568,7 @@
         <v>1142</v>
       </c>
       <c r="D632" s="15" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E632" s="14">
         <v>2</v>
@@ -43506,7 +43577,7 @@
         <v>3</v>
       </c>
       <c r="G632" s="15" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H632" s="8"/>
       <c r="I632" s="8"/>
@@ -43522,7 +43593,7 @@
         <v>1142</v>
       </c>
       <c r="D633" s="15" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E633" s="14">
         <v>2</v>
@@ -43531,7 +43602,7 @@
         <v>4</v>
       </c>
       <c r="G633" s="15" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H633" s="8"/>
       <c r="I633" s="8"/>
@@ -44079,7 +44150,7 @@
         <v>1032</v>
       </c>
       <c r="D656" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E656" s="8">
         <v>2</v>
@@ -44088,7 +44159,7 @@
         <v>1</v>
       </c>
       <c r="G656" s="49" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="H656" s="8"/>
       <c r="I656" s="8"/>
@@ -44238,7 +44309,7 @@
         <v>1</v>
       </c>
       <c r="G662" s="10" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H662" s="8"/>
       <c r="I662" s="8"/>
@@ -44579,7 +44650,7 @@
         <v>1142</v>
       </c>
       <c r="D676" s="10" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="E676" s="8">
         <v>2</v>
@@ -44588,7 +44659,7 @@
         <v>1</v>
       </c>
       <c r="G676" s="10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H676" s="8"/>
       <c r="I676" s="8"/>
@@ -44601,7 +44672,7 @@
         <v>258</v>
       </c>
       <c r="C677" s="10" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D677" s="10">
         <v>1598317200</v>
@@ -44613,7 +44684,7 @@
         <v>1</v>
       </c>
       <c r="G677" s="10" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H677" s="8"/>
       <c r="I677" s="8"/>
@@ -44688,7 +44759,7 @@
         <v>1</v>
       </c>
       <c r="G680" s="10" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H680" s="8"/>
       <c r="I680" s="8"/>
@@ -44726,7 +44797,7 @@
         <v>263</v>
       </c>
       <c r="C682" s="10" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D682" s="10" t="s">
         <v>907</v>
@@ -44738,7 +44809,7 @@
         <v>1</v>
       </c>
       <c r="G682" s="10" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H682" s="8"/>
       <c r="I682" s="8"/>
@@ -44838,7 +44909,7 @@
         <v>2</v>
       </c>
       <c r="G686" s="10" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H686" s="8"/>
       <c r="I686" s="8"/>
@@ -44897,7 +44968,7 @@
         <v>267</v>
       </c>
       <c r="C689" s="10" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D689" s="8">
         <v>0</v>
@@ -44909,7 +44980,7 @@
         <v>1</v>
       </c>
       <c r="G689" s="10" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H689" s="8"/>
       <c r="I689" s="8"/>
@@ -44922,7 +44993,7 @@
         <v>268</v>
       </c>
       <c r="C690" s="10" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D690" s="8">
         <v>1</v>
@@ -44934,7 +45005,7 @@
         <v>1</v>
       </c>
       <c r="G690" s="10" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H690" s="8"/>
       <c r="I690" s="8"/>
@@ -44947,7 +45018,7 @@
         <v>269</v>
       </c>
       <c r="C691" s="10" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D691" s="8">
         <v>2</v>
@@ -44959,7 +45030,7 @@
         <v>1</v>
       </c>
       <c r="G691" s="10" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H691" s="8"/>
       <c r="I691" s="8"/>
@@ -44972,7 +45043,7 @@
         <v>270</v>
       </c>
       <c r="C692" s="10" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D692" s="8">
         <v>3</v>
@@ -44984,7 +45055,7 @@
         <v>1</v>
       </c>
       <c r="G692" s="10" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H692" s="8"/>
       <c r="I692" s="8"/>
@@ -44997,7 +45068,7 @@
         <v>271</v>
       </c>
       <c r="C693" s="10" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D693" s="8">
         <v>4</v>
@@ -45009,7 +45080,7 @@
         <v>1</v>
       </c>
       <c r="G693" s="10" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H693" s="8"/>
       <c r="I693" s="8"/>
@@ -45022,7 +45093,7 @@
         <v>272</v>
       </c>
       <c r="C694" s="10" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D694" s="8">
         <v>5</v>
@@ -45034,7 +45105,7 @@
         <v>1</v>
       </c>
       <c r="G694" s="10" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H694" s="8"/>
       <c r="I694" s="8"/>
@@ -45047,7 +45118,7 @@
         <v>273</v>
       </c>
       <c r="C695" s="10" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D695" s="8">
         <v>6</v>
@@ -45059,7 +45130,7 @@
         <v>1</v>
       </c>
       <c r="G695" s="10" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H695" s="8"/>
       <c r="I695" s="8"/>
@@ -45072,7 +45143,7 @@
         <v>274</v>
       </c>
       <c r="C696" s="10" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D696" s="8">
         <v>7</v>
@@ -45084,7 +45155,7 @@
         <v>1</v>
       </c>
       <c r="G696" s="10" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H696" s="8"/>
       <c r="I696" s="8"/>
@@ -45097,7 +45168,7 @@
         <v>275</v>
       </c>
       <c r="C697" s="10" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D697" s="8">
         <v>8</v>
@@ -45109,7 +45180,7 @@
         <v>1</v>
       </c>
       <c r="G697" s="10" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H697" s="8"/>
       <c r="I697" s="8"/>
@@ -45122,7 +45193,7 @@
         <v>276</v>
       </c>
       <c r="C698" s="10" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D698" s="8">
         <v>9</v>
@@ -45134,7 +45205,7 @@
         <v>1</v>
       </c>
       <c r="G698" s="10" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H698" s="8"/>
       <c r="I698" s="8"/>
@@ -45147,7 +45218,7 @@
         <v>277</v>
       </c>
       <c r="C699" s="10" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D699" s="8">
         <v>10</v>
@@ -45159,7 +45230,7 @@
         <v>1</v>
       </c>
       <c r="G699" s="10" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H699" s="8"/>
       <c r="I699" s="8"/>
@@ -45172,7 +45243,7 @@
         <v>278</v>
       </c>
       <c r="C700" s="10" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D700" s="8">
         <v>11</v>
@@ -45184,7 +45255,7 @@
         <v>1</v>
       </c>
       <c r="G700" s="10" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H700" s="8"/>
       <c r="I700" s="8"/>
@@ -45197,7 +45268,7 @@
         <v>279</v>
       </c>
       <c r="C701" s="10" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D701" s="8">
         <v>12</v>
@@ -45209,7 +45280,7 @@
         <v>1</v>
       </c>
       <c r="G701" s="10" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H701" s="8"/>
       <c r="I701" s="8"/>
@@ -45284,7 +45355,7 @@
         <v>1</v>
       </c>
       <c r="G704" s="10" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="H704" s="8"/>
       <c r="I704" s="8"/>
@@ -45297,19 +45368,19 @@
         <v>282</v>
       </c>
       <c r="C705" s="10" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D705" s="10" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E705" s="8">
+        <v>2</v>
+      </c>
+      <c r="F705" s="8">
+        <v>1</v>
+      </c>
+      <c r="G705" s="10" t="s">
         <v>1576</v>
-      </c>
-      <c r="E705" s="8">
-        <v>2</v>
-      </c>
-      <c r="F705" s="8">
-        <v>1</v>
-      </c>
-      <c r="G705" s="10" t="s">
-        <v>1577</v>
       </c>
       <c r="H705" s="8"/>
       <c r="I705" s="8"/>
@@ -45372,7 +45443,7 @@
         <v>284</v>
       </c>
       <c r="C708" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D708" s="8">
         <v>1</v>
@@ -45384,7 +45455,7 @@
         <v>1</v>
       </c>
       <c r="G708" s="10" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H708" s="8"/>
       <c r="I708" s="8"/>
@@ -45397,7 +45468,7 @@
         <v>284</v>
       </c>
       <c r="C709" s="10" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D709" s="8">
         <v>3</v>
@@ -45422,7 +45493,7 @@
         <v>285</v>
       </c>
       <c r="C710" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D710" s="8">
         <v>4</v>
@@ -45447,7 +45518,7 @@
         <v>285</v>
       </c>
       <c r="C711" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D711" s="8">
         <v>6</v>
@@ -45459,7 +45530,7 @@
         <v>1</v>
       </c>
       <c r="G711" s="10" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H711" s="8"/>
       <c r="I711" s="8"/>
@@ -45472,7 +45543,7 @@
         <v>286</v>
       </c>
       <c r="C712" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D712" s="8">
         <v>7</v>
@@ -45484,7 +45555,7 @@
         <v>1</v>
       </c>
       <c r="G712" s="10" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H712" s="8"/>
       <c r="I712" s="8"/>
@@ -45497,7 +45568,7 @@
         <v>286</v>
       </c>
       <c r="C713" s="49" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D713" s="9">
         <v>10</v>
@@ -45522,19 +45593,19 @@
         <v>287</v>
       </c>
       <c r="C714" s="10" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D714" s="10" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E714" s="8">
+        <v>2</v>
+      </c>
+      <c r="F714" s="8">
+        <v>1</v>
+      </c>
+      <c r="G714" s="10" t="s">
         <v>1598</v>
-      </c>
-      <c r="E714" s="8">
-        <v>2</v>
-      </c>
-      <c r="F714" s="8">
-        <v>1</v>
-      </c>
-      <c r="G714" s="10" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="715" spans="1:9" s="8" customFormat="1">
@@ -45548,7 +45619,7 @@
         <v>1143</v>
       </c>
       <c r="D715" s="10" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E715" s="8">
         <v>5</v>
@@ -45557,7 +45628,7 @@
         <v>2</v>
       </c>
       <c r="G715" s="10" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="716" spans="1:9">
@@ -45593,10 +45664,10 @@
         <v>288</v>
       </c>
       <c r="C717" s="10" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="D717" s="10" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="E717" s="8">
         <v>5</v>
@@ -45605,7 +45676,7 @@
         <v>1</v>
       </c>
       <c r="G717" s="10" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="H717" s="8"/>
       <c r="I717" s="8"/>
@@ -45643,10 +45714,10 @@
         <v>288</v>
       </c>
       <c r="C719" s="10" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="D719" s="10" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="E719" s="8">
         <v>5</v>
@@ -45655,7 +45726,7 @@
         <v>2</v>
       </c>
       <c r="G719" s="10" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="H719" s="8"/>
       <c r="I719" s="8"/>
@@ -45680,7 +45751,7 @@
         <v>1</v>
       </c>
       <c r="G720" s="10" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H720" s="8"/>
       <c r="I720" s="8"/>
@@ -45718,10 +45789,10 @@
         <v>289</v>
       </c>
       <c r="C722" s="8" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D722" s="10" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E722" s="8">
         <v>5</v>
@@ -45730,7 +45801,7 @@
         <v>1</v>
       </c>
       <c r="G722" s="10" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="H722" s="8"/>
       <c r="I722" s="8"/>
@@ -45743,10 +45814,10 @@
         <v>289</v>
       </c>
       <c r="C723" s="10" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="D723" s="10" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="E723" s="8">
         <v>5</v>
@@ -45755,7 +45826,7 @@
         <v>1</v>
       </c>
       <c r="G723" s="10" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="H723" s="8"/>
       <c r="I723" s="8"/>
@@ -45768,10 +45839,10 @@
         <v>290</v>
       </c>
       <c r="C724" s="8" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D724" s="10" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E724" s="8">
         <v>5</v>
@@ -45780,7 +45851,7 @@
         <v>1</v>
       </c>
       <c r="G724" s="10" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="H724" s="8"/>
       <c r="I724" s="8"/>
@@ -45805,7 +45876,7 @@
         <v>1</v>
       </c>
       <c r="G725" s="8" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="H725" s="8"/>
       <c r="I725" s="8"/>
@@ -45830,7 +45901,7 @@
         <v>1</v>
       </c>
       <c r="G726" s="8" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="H726" s="8"/>
       <c r="I726" s="8"/>
@@ -45843,10 +45914,10 @@
         <v>290</v>
       </c>
       <c r="C727" s="10" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="D727" s="10" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="E727" s="8">
         <v>5</v>
@@ -45855,7 +45926,7 @@
         <v>1</v>
       </c>
       <c r="G727" s="10" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="H727" s="8"/>
       <c r="I727" s="8"/>
@@ -45918,10 +45989,10 @@
         <v>291</v>
       </c>
       <c r="C730" s="8" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D730" s="10" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E730" s="8">
         <v>5</v>
@@ -45930,7 +46001,7 @@
         <v>1</v>
       </c>
       <c r="G730" s="10" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="H730" s="8"/>
       <c r="I730" s="8"/>
@@ -45943,10 +46014,10 @@
         <v>291</v>
       </c>
       <c r="C731" s="10" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="D731" s="10" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="E731" s="8">
         <v>5</v>
@@ -45955,7 +46026,7 @@
         <v>1</v>
       </c>
       <c r="G731" s="10" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="H731" s="8"/>
       <c r="I731" s="8"/>
@@ -45971,7 +46042,7 @@
         <v>1142</v>
       </c>
       <c r="D732" s="10" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E732" s="8">
         <v>2</v>
@@ -45980,7 +46051,7 @@
         <v>1</v>
       </c>
       <c r="G732" s="10" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="733" spans="1:9">
@@ -45994,7 +46065,7 @@
         <v>1052</v>
       </c>
       <c r="D733" s="10" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E733" s="8">
         <v>5</v>
@@ -46003,7 +46074,7 @@
         <v>1</v>
       </c>
       <c r="G733" s="10" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="H733" s="8"/>
       <c r="I733" s="8"/>
@@ -46053,7 +46124,7 @@
         <v>1</v>
       </c>
       <c r="G735" s="10" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="H735" s="8"/>
       <c r="I735" s="8"/>
@@ -46066,10 +46137,10 @@
         <v>293</v>
       </c>
       <c r="C736" s="10" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="D736" s="10" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="E736" s="8">
         <v>5</v>
@@ -46078,7 +46149,7 @@
         <v>1</v>
       </c>
       <c r="G736" s="10" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="H736" s="8"/>
       <c r="I736" s="8"/>
@@ -46119,7 +46190,7 @@
         <v>1052</v>
       </c>
       <c r="D738" s="19" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E738" s="70">
         <v>2</v>
@@ -46128,7 +46199,7 @@
         <v>2</v>
       </c>
       <c r="G738" s="19" t="s">
-        <v>1944</v>
+        <v>1936</v>
       </c>
       <c r="H738" s="8"/>
       <c r="I738" s="8"/>
@@ -46144,7 +46215,7 @@
         <v>1052</v>
       </c>
       <c r="D739" s="19" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E739" s="70">
         <v>5</v>
@@ -46153,7 +46224,7 @@
         <v>1</v>
       </c>
       <c r="G739" s="19" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="H739" s="8"/>
       <c r="I739" s="8"/>
@@ -46178,7 +46249,7 @@
         <v>1</v>
       </c>
       <c r="G740" s="19" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="H740" s="8"/>
       <c r="I740" s="8"/>
@@ -46203,7 +46274,7 @@
         <v>1</v>
       </c>
       <c r="G741" s="19" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="H741" s="8"/>
       <c r="I741" s="8"/>
@@ -46219,7 +46290,7 @@
         <v>1052</v>
       </c>
       <c r="D742" s="19" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E742" s="70">
         <v>5</v>
@@ -46228,7 +46299,7 @@
         <v>1</v>
       </c>
       <c r="G742" s="19" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="H742" s="8"/>
       <c r="I742" s="8"/>
@@ -46253,7 +46324,7 @@
         <v>1</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="H743" s="8"/>
       <c r="I743" s="8"/>
@@ -46278,7 +46349,7 @@
         <v>1</v>
       </c>
       <c r="G744" s="19" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="H744" s="8"/>
       <c r="I744" s="8"/>
@@ -46294,7 +46365,7 @@
         <v>1052</v>
       </c>
       <c r="D745" s="19" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E745" s="70">
         <v>5</v>
@@ -46303,7 +46374,7 @@
         <v>1</v>
       </c>
       <c r="G745" s="19" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="H745" s="8"/>
       <c r="I745" s="8"/>
@@ -46319,7 +46390,7 @@
         <v>1052</v>
       </c>
       <c r="D746" s="19" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E746" s="70">
         <v>2</v>
@@ -46328,7 +46399,7 @@
         <v>2</v>
       </c>
       <c r="G746" s="19" t="s">
-        <v>1943</v>
+        <v>1935</v>
       </c>
       <c r="H746" s="8"/>
       <c r="I746" s="8"/>
@@ -46428,7 +46499,7 @@
         <v>1</v>
       </c>
       <c r="G750" s="10" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H750" s="8"/>
       <c r="I750" s="8"/>
@@ -46478,7 +46549,7 @@
         <v>1</v>
       </c>
       <c r="G752" s="15" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="H752" s="8"/>
       <c r="I752" s="8"/>
@@ -46491,7 +46562,7 @@
         <v>301</v>
       </c>
       <c r="C753" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D753" s="8">
         <v>4</v>
@@ -46516,7 +46587,7 @@
         <v>301</v>
       </c>
       <c r="C754" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D754" s="8">
         <v>6</v>
@@ -46528,7 +46599,7 @@
         <v>1</v>
       </c>
       <c r="G754" s="10" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H754" s="8"/>
       <c r="I754" s="8"/>
@@ -46553,7 +46624,7 @@
         <v>1</v>
       </c>
       <c r="G755" s="15" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="H755" s="8"/>
       <c r="I755" s="8"/>
@@ -46578,7 +46649,7 @@
         <v>1</v>
       </c>
       <c r="G756" s="15" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H756" s="8"/>
       <c r="I756" s="8"/>
@@ -46628,7 +46699,7 @@
         <v>1</v>
       </c>
       <c r="G758" s="15" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="H758" s="8"/>
       <c r="I758" s="8"/>
@@ -46644,7 +46715,7 @@
         <v>1052</v>
       </c>
       <c r="D759" s="10" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="E759" s="8">
         <v>2</v>
@@ -46716,7 +46787,7 @@
         <v>304</v>
       </c>
       <c r="C762" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D762" s="8">
         <v>4</v>
@@ -46741,7 +46812,7 @@
         <v>304</v>
       </c>
       <c r="C763" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D763" s="8">
         <v>10</v>
@@ -46778,7 +46849,7 @@
         <v>1</v>
       </c>
       <c r="G764" s="15" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="H764" s="8"/>
       <c r="I764" s="8"/>
@@ -46819,7 +46890,7 @@
         <v>1032</v>
       </c>
       <c r="D766" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E766" s="8">
         <v>2</v>
@@ -46828,7 +46899,7 @@
         <v>1</v>
       </c>
       <c r="G766" s="10" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="H766" s="8"/>
       <c r="I766" s="8"/>
@@ -46869,7 +46940,7 @@
         <v>1032</v>
       </c>
       <c r="D768" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E768" s="8">
         <v>2</v>
@@ -46878,7 +46949,7 @@
         <v>2</v>
       </c>
       <c r="G768" s="10" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="H768" s="8"/>
       <c r="I768" s="8"/>
@@ -46919,7 +46990,7 @@
         <v>1032</v>
       </c>
       <c r="D770" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E770" s="8">
         <v>2</v>
@@ -46928,7 +46999,7 @@
         <v>3</v>
       </c>
       <c r="G770" s="10" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="H770" s="8"/>
       <c r="I770" s="8"/>
@@ -46953,7 +47024,7 @@
         <v>1</v>
       </c>
       <c r="G771" s="10" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H771" s="8"/>
       <c r="I771" s="8"/>
@@ -46994,7 +47065,7 @@
         <v>1032</v>
       </c>
       <c r="D773" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E773" s="8">
         <v>2</v>
@@ -47003,7 +47074,7 @@
         <v>1</v>
       </c>
       <c r="G773" s="10" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="H773" s="8"/>
       <c r="I773" s="8"/>
@@ -47028,7 +47099,7 @@
         <v>1</v>
       </c>
       <c r="G774" s="15" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="H774" s="8"/>
       <c r="I774" s="8"/>
@@ -47041,7 +47112,7 @@
         <v>307</v>
       </c>
       <c r="C775" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D775" s="8">
         <v>4</v>
@@ -47066,7 +47137,7 @@
         <v>307</v>
       </c>
       <c r="C776" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D776" s="8">
         <v>6</v>
@@ -47078,7 +47149,7 @@
         <v>1</v>
       </c>
       <c r="G776" s="10" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H776" s="8"/>
       <c r="I776" s="8"/>
@@ -47094,7 +47165,7 @@
         <v>1032</v>
       </c>
       <c r="D777" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E777" s="8">
         <v>2</v>
@@ -47103,7 +47174,7 @@
         <v>1</v>
       </c>
       <c r="G777" s="10" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="H777" s="8"/>
       <c r="I777" s="8"/>
@@ -47128,7 +47199,7 @@
         <v>1</v>
       </c>
       <c r="G778" s="15" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="H778" s="8"/>
       <c r="I778" s="8"/>
@@ -47153,7 +47224,7 @@
         <v>1</v>
       </c>
       <c r="G779" s="10" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H779" s="8"/>
       <c r="I779" s="8"/>
@@ -47203,7 +47274,7 @@
         <v>1</v>
       </c>
       <c r="G781" s="15" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="H781" s="8"/>
       <c r="I781" s="8"/>
@@ -47219,7 +47290,7 @@
         <v>1032</v>
       </c>
       <c r="D782" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E782" s="8">
         <v>2</v>
@@ -47228,7 +47299,7 @@
         <v>1</v>
       </c>
       <c r="G782" s="10" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="H782" s="8"/>
       <c r="I782" s="8"/>
@@ -47244,7 +47315,7 @@
         <v>1032</v>
       </c>
       <c r="D783" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E783" s="8">
         <v>2</v>
@@ -47253,7 +47324,7 @@
         <v>1</v>
       </c>
       <c r="G783" s="10" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="H783" s="8"/>
       <c r="I783" s="8"/>
@@ -47269,7 +47340,7 @@
         <v>1032</v>
       </c>
       <c r="D784" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E784" s="8">
         <v>5</v>
@@ -47278,7 +47349,7 @@
         <v>1</v>
       </c>
       <c r="G784" s="10" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="H784" s="8"/>
       <c r="I784" s="8"/>
@@ -47294,7 +47365,7 @@
         <v>1052</v>
       </c>
       <c r="D785" s="10" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="E785" s="8">
         <v>2</v>
@@ -47319,7 +47390,7 @@
         <v>1032</v>
       </c>
       <c r="D786" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E786" s="8">
         <v>5</v>
@@ -47328,7 +47399,7 @@
         <v>1</v>
       </c>
       <c r="G786" s="10" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="H786" s="8"/>
       <c r="I786" s="8"/>
@@ -47369,7 +47440,7 @@
         <v>1032</v>
       </c>
       <c r="D788" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E788" s="8">
         <v>5</v>
@@ -47378,7 +47449,7 @@
         <v>2</v>
       </c>
       <c r="G788" s="10" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="H788" s="8"/>
       <c r="I788" s="8"/>
@@ -47419,7 +47490,7 @@
         <v>1032</v>
       </c>
       <c r="D790" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E790" s="8">
         <v>5</v>
@@ -47428,7 +47499,7 @@
         <v>3</v>
       </c>
       <c r="G790" s="10" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="H790" s="8"/>
       <c r="I790" s="8"/>
@@ -47494,7 +47565,7 @@
         <v>1032</v>
       </c>
       <c r="D793" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E793" s="8">
         <v>5</v>
@@ -47503,7 +47574,7 @@
         <v>1</v>
       </c>
       <c r="G793" s="10" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="H793" s="8"/>
       <c r="I793" s="8"/>
@@ -47528,7 +47599,7 @@
         <v>1</v>
       </c>
       <c r="G794" s="15" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="H794" s="8"/>
       <c r="I794" s="8"/>
@@ -47578,7 +47649,7 @@
         <v>1</v>
       </c>
       <c r="G796" s="10" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H796" s="8"/>
       <c r="I796" s="8"/>
@@ -47594,7 +47665,7 @@
         <v>1032</v>
       </c>
       <c r="D797" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E797" s="8">
         <v>5</v>
@@ -47603,7 +47674,7 @@
         <v>1</v>
       </c>
       <c r="G797" s="10" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="H797" s="8"/>
       <c r="I797" s="8"/>
@@ -47628,7 +47699,7 @@
         <v>1</v>
       </c>
       <c r="G798" s="15" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="H798" s="8"/>
       <c r="I798" s="8"/>
@@ -47653,7 +47724,7 @@
         <v>1</v>
       </c>
       <c r="G799" s="10" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H799" s="8"/>
       <c r="I799" s="8"/>
@@ -47703,7 +47774,7 @@
         <v>1</v>
       </c>
       <c r="G801" s="15" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="H801" s="8"/>
       <c r="I801" s="8"/>
@@ -47719,7 +47790,7 @@
         <v>1032</v>
       </c>
       <c r="D802" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E802" s="8">
         <v>5</v>
@@ -47728,7 +47799,7 @@
         <v>1</v>
       </c>
       <c r="G802" s="10" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="H802" s="8"/>
       <c r="I802" s="8"/>
@@ -47744,7 +47815,7 @@
         <v>1032</v>
       </c>
       <c r="D803" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E803" s="8">
         <v>5</v>
@@ -47753,7 +47824,7 @@
         <v>1</v>
       </c>
       <c r="G803" s="10" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="H803" s="8"/>
       <c r="I803" s="8"/>
@@ -47769,7 +47840,7 @@
         <v>1032</v>
       </c>
       <c r="D804" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E804" s="9">
         <v>2</v>
@@ -47778,7 +47849,7 @@
         <v>1</v>
       </c>
       <c r="G804" s="49" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="H804" s="8"/>
       <c r="I804" s="8"/>
@@ -47794,7 +47865,7 @@
         <v>1032</v>
       </c>
       <c r="D805" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E805" s="8">
         <v>5</v>
@@ -47803,7 +47874,7 @@
         <v>1</v>
       </c>
       <c r="G805" s="10" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="H805" s="8"/>
       <c r="I805" s="8"/>
@@ -47819,7 +47890,7 @@
         <v>1032</v>
       </c>
       <c r="D806" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E806" s="9">
         <v>2</v>
@@ -47828,7 +47899,7 @@
         <v>1</v>
       </c>
       <c r="G806" s="49" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="H806" s="8"/>
       <c r="I806" s="8"/>
@@ -47844,7 +47915,7 @@
         <v>1032</v>
       </c>
       <c r="D807" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E807" s="8">
         <v>5</v>
@@ -47853,7 +47924,7 @@
         <v>1</v>
       </c>
       <c r="G807" s="10" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="H807" s="8"/>
       <c r="I807" s="8"/>
@@ -47869,7 +47940,7 @@
         <v>1032</v>
       </c>
       <c r="D808" s="9" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -47878,7 +47949,7 @@
         <v>1</v>
       </c>
       <c r="G808" s="9" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="H808" s="8"/>
       <c r="I808" s="8"/>
@@ -47894,7 +47965,7 @@
         <v>1032</v>
       </c>
       <c r="D809" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E809" s="9">
         <v>2</v>
@@ -47903,7 +47974,7 @@
         <v>1</v>
       </c>
       <c r="G809" s="49" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="H809" s="8"/>
       <c r="I809" s="8"/>
@@ -47919,7 +47990,7 @@
         <v>1032</v>
       </c>
       <c r="D810" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E810" s="9">
         <v>5</v>
@@ -47928,7 +47999,7 @@
         <v>1</v>
       </c>
       <c r="G810" s="9" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="H810" s="8"/>
       <c r="I810" s="8"/>
@@ -47944,7 +48015,7 @@
         <v>1032</v>
       </c>
       <c r="D811" s="10" t="s">
-        <v>1933</v>
+        <v>1925</v>
       </c>
       <c r="E811" s="9">
         <v>5</v>
@@ -47953,7 +48024,7 @@
         <v>1</v>
       </c>
       <c r="G811" s="49" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="H811" s="8"/>
       <c r="I811" s="8"/>
@@ -47994,7 +48065,7 @@
         <v>1032</v>
       </c>
       <c r="D813" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E813" s="9">
         <v>5</v>
@@ -48003,7 +48074,7 @@
         <v>1</v>
       </c>
       <c r="G813" s="9" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="H813" s="8"/>
       <c r="I813" s="8"/>
@@ -48028,7 +48099,7 @@
         <v>1</v>
       </c>
       <c r="G814" s="10" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="H814" s="8"/>
       <c r="I814" s="8"/>
@@ -48094,7 +48165,7 @@
         <v>1032</v>
       </c>
       <c r="D817" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E817" s="9">
         <v>5</v>
@@ -48103,7 +48174,7 @@
         <v>1</v>
       </c>
       <c r="G817" s="9" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="H817" s="8"/>
       <c r="I817" s="8"/>
@@ -48116,10 +48187,10 @@
         <v>324</v>
       </c>
       <c r="C818" s="10" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="D818" s="10" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="E818" s="8">
         <v>2</v>
@@ -48128,7 +48199,7 @@
         <v>1</v>
       </c>
       <c r="G818" s="10" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="H818" s="8"/>
       <c r="I818" s="8"/>
@@ -48144,7 +48215,7 @@
         <v>1032</v>
       </c>
       <c r="D819" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E819" s="8">
         <v>5</v>
@@ -48153,7 +48224,7 @@
         <v>1</v>
       </c>
       <c r="G819" s="10" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="H819" s="8"/>
       <c r="I819" s="8"/>
@@ -48169,7 +48240,7 @@
         <v>852</v>
       </c>
       <c r="D820" s="10" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="E820" s="8">
         <v>2</v>
@@ -48194,7 +48265,7 @@
         <v>1032</v>
       </c>
       <c r="D821" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E821" s="8">
         <v>5</v>
@@ -48203,7 +48274,7 @@
         <v>2</v>
       </c>
       <c r="G821" s="10" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="H821" s="8"/>
       <c r="I821" s="8"/>
@@ -48244,7 +48315,7 @@
         <v>1032</v>
       </c>
       <c r="D823" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E823" s="8">
         <v>5</v>
@@ -48253,7 +48324,7 @@
         <v>3</v>
       </c>
       <c r="G823" s="10" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="H823" s="8"/>
       <c r="I823" s="8"/>
@@ -48269,7 +48340,7 @@
         <v>1032</v>
       </c>
       <c r="D824" s="10" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E824" s="9">
         <v>5</v>
@@ -48278,7 +48349,7 @@
         <v>1</v>
       </c>
       <c r="G824" s="9" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="H824" s="8"/>
       <c r="I824" s="8"/>
@@ -48294,7 +48365,7 @@
         <v>1032</v>
       </c>
       <c r="D825" s="9" t="s">
-        <v>1987</v>
+        <v>1979</v>
       </c>
       <c r="E825" s="9">
         <v>2</v>
@@ -48303,7 +48374,7 @@
         <v>1</v>
       </c>
       <c r="G825" s="9" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="H825" s="8"/>
       <c r="I825" s="8"/>
@@ -48319,7 +48390,7 @@
         <v>1032</v>
       </c>
       <c r="D826" s="15" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E826" s="14">
         <v>2</v>
@@ -48328,7 +48399,7 @@
         <v>1</v>
       </c>
       <c r="G826" s="15" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="H826" s="8"/>
       <c r="I826" s="8"/>
@@ -48344,7 +48415,7 @@
         <v>1032</v>
       </c>
       <c r="D827" s="10" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="E827" s="8">
         <v>2</v>
@@ -48353,7 +48424,7 @@
         <v>2</v>
       </c>
       <c r="G827" s="10" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="H827" s="8"/>
       <c r="I827" s="8"/>
@@ -48369,7 +48440,7 @@
         <v>1032</v>
       </c>
       <c r="D828" s="10" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="E828" s="8">
         <v>2</v>
@@ -48378,7 +48449,7 @@
         <v>3</v>
       </c>
       <c r="G828" s="10" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="H828" s="8"/>
       <c r="I828" s="8"/>
@@ -48394,7 +48465,7 @@
         <v>1032</v>
       </c>
       <c r="D829" s="10" t="s">
-        <v>2157</v>
+        <v>2149</v>
       </c>
       <c r="E829" s="8">
         <v>2</v>
@@ -48403,7 +48474,7 @@
         <v>4</v>
       </c>
       <c r="G829" s="10" t="s">
-        <v>2158</v>
+        <v>2150</v>
       </c>
       <c r="H829" s="8"/>
       <c r="I829" s="8"/>
@@ -48416,10 +48487,10 @@
         <v>328</v>
       </c>
       <c r="C830" s="49" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="D830" s="9" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="E830" s="9">
         <v>5</v>
@@ -48428,7 +48499,7 @@
         <v>1</v>
       </c>
       <c r="G830" s="9" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="H830" s="8"/>
       <c r="I830" s="8"/>
@@ -48444,7 +48515,7 @@
         <v>1032</v>
       </c>
       <c r="D831" s="9" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E831" s="9">
         <v>5</v>
@@ -48453,7 +48524,7 @@
         <v>1</v>
       </c>
       <c r="G831" s="49" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="H831" s="8"/>
       <c r="I831" s="8"/>
@@ -48469,7 +48540,7 @@
         <v>884</v>
       </c>
       <c r="D832" s="9" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="E832" s="9">
         <v>5</v>
@@ -48478,7 +48549,7 @@
         <v>1</v>
       </c>
       <c r="G832" s="9" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="H832" s="8"/>
       <c r="I832" s="8"/>
@@ -48494,7 +48565,7 @@
         <v>1032</v>
       </c>
       <c r="D833" s="9" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E833" s="9">
         <v>5</v>
@@ -48503,7 +48574,7 @@
         <v>1</v>
       </c>
       <c r="G833" s="49" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="H833" s="8"/>
       <c r="I833" s="8"/>
@@ -48553,7 +48624,7 @@
         <v>1</v>
       </c>
       <c r="G835" s="100" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="H835" s="8"/>
       <c r="I835" s="8"/>
@@ -48578,7 +48649,7 @@
         <v>1</v>
       </c>
       <c r="G836" s="100" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="H836" s="8"/>
       <c r="I836" s="8"/>
@@ -48603,7 +48674,7 @@
         <v>1</v>
       </c>
       <c r="G837" s="10" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="H837" s="8"/>
       <c r="I837" s="8"/>
@@ -48619,7 +48690,7 @@
         <v>1032</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E838" s="9">
         <v>5</v>
@@ -48628,7 +48699,7 @@
         <v>1</v>
       </c>
       <c r="G838" s="49" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="H838" s="8"/>
       <c r="I838" s="8"/>
@@ -48669,7 +48740,7 @@
         <v>1032</v>
       </c>
       <c r="D840" s="9" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E840" s="9">
         <v>2</v>
@@ -48678,7 +48749,7 @@
         <v>1</v>
       </c>
       <c r="G840" s="9" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="H840" s="8"/>
       <c r="I840" s="8"/>
@@ -48719,7 +48790,7 @@
         <v>1032</v>
       </c>
       <c r="D842" s="9" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E842" s="9">
         <v>2</v>
@@ -48728,7 +48799,7 @@
         <v>1</v>
       </c>
       <c r="G842" s="9" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="H842" s="8"/>
       <c r="I842" s="8"/>
@@ -48741,10 +48812,10 @@
         <v>336</v>
       </c>
       <c r="C843" s="84" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="D843" s="85" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="E843" s="84">
         <v>5</v>
@@ -48753,7 +48824,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="85" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="H843" s="8"/>
       <c r="I843" s="8"/>
@@ -48769,7 +48840,7 @@
         <v>1032</v>
       </c>
       <c r="D844" s="9" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E844" s="9">
         <v>5</v>
@@ -48778,7 +48849,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="9" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="H844" s="8"/>
       <c r="I844" s="8"/>
@@ -48794,7 +48865,7 @@
         <v>1032</v>
       </c>
       <c r="D845" s="93" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="E845" s="92">
         <v>2</v>
@@ -48803,7 +48874,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="93" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="H845" s="8"/>
       <c r="I845" s="8"/>
@@ -48828,7 +48899,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="93" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="H846" s="8"/>
       <c r="I846" s="8"/>
@@ -48853,7 +48924,7 @@
         <v>1</v>
       </c>
       <c r="G847" s="92" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="H847" s="8"/>
       <c r="I847" s="8"/>
@@ -48869,7 +48940,7 @@
         <v>1032</v>
       </c>
       <c r="D848" s="93" t="s">
-        <v>2183</v>
+        <v>2172</v>
       </c>
       <c r="E848" s="92">
         <v>2</v>
@@ -48878,7 +48949,7 @@
         <v>2</v>
       </c>
       <c r="G848" s="93" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="H848" s="8"/>
       <c r="I848" s="8"/>
@@ -48894,7 +48965,7 @@
         <v>1032</v>
       </c>
       <c r="D849" s="14" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E849" s="14">
         <v>5</v>
@@ -48903,7 +48974,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="14" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="H849" s="8"/>
       <c r="I849" s="8"/>
@@ -48919,7 +48990,7 @@
         <v>1032</v>
       </c>
       <c r="D850" s="15" t="s">
-        <v>2163</v>
+        <v>2153</v>
       </c>
       <c r="E850" s="14">
         <v>5</v>
@@ -48928,7 +48999,7 @@
         <v>1</v>
       </c>
       <c r="G850" s="14" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="H850" s="8"/>
       <c r="I850" s="8"/>
@@ -48941,10 +49012,10 @@
         <v>339</v>
       </c>
       <c r="C851" s="10" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="D851" s="10" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="E851" s="8">
         <v>2</v>
@@ -48953,7 +49024,7 @@
         <v>1</v>
       </c>
       <c r="G851" s="10" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="H851" s="8" t="s">
         <v>859</v>
@@ -48973,7 +49044,7 @@
         <v>1146</v>
       </c>
       <c r="D852" s="10" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E852" s="8">
         <v>5</v>
@@ -48982,7 +49053,7 @@
         <v>1</v>
       </c>
       <c r="G852" s="10" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="H852" s="8"/>
       <c r="I852" s="8"/>
@@ -48998,7 +49069,7 @@
         <v>1146</v>
       </c>
       <c r="D853" s="10" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E853" s="8">
         <v>2</v>
@@ -49007,7 +49078,7 @@
         <v>1</v>
       </c>
       <c r="G853" s="10" t="s">
-        <v>1886</v>
+        <v>1881</v>
       </c>
       <c r="H853" s="8" t="s">
         <v>863</v>
@@ -49027,7 +49098,7 @@
         <v>1032</v>
       </c>
       <c r="D854" s="95" t="s">
-        <v>1887</v>
+        <v>2200</v>
       </c>
       <c r="E854" s="94">
         <v>2</v>
@@ -49036,7 +49107,7 @@
         <v>1</v>
       </c>
       <c r="G854" s="95" t="s">
-        <v>1888</v>
+        <v>1873</v>
       </c>
       <c r="H854" s="8"/>
       <c r="I854" s="8"/>
@@ -49061,7 +49132,7 @@
         <v>1</v>
       </c>
       <c r="G855" s="95" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="H855" s="8"/>
       <c r="I855" s="8"/>
@@ -49077,7 +49148,7 @@
         <v>1032</v>
       </c>
       <c r="D856" s="95" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="E856" s="94">
         <v>2</v>
@@ -49086,7 +49157,7 @@
         <v>2</v>
       </c>
       <c r="G856" s="95" t="s">
-        <v>1662</v>
+        <v>1873</v>
       </c>
       <c r="H856" s="8"/>
       <c r="I856" s="8"/>
@@ -49111,7 +49182,7 @@
         <v>2</v>
       </c>
       <c r="G857" s="95" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="H857" s="8"/>
       <c r="I857" s="8"/>
@@ -49127,7 +49198,7 @@
         <v>1032</v>
       </c>
       <c r="D858" s="95" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
       <c r="E858" s="94">
         <v>2</v>
@@ -49136,7 +49207,7 @@
         <v>3</v>
       </c>
       <c r="G858" s="95" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="H858" s="8"/>
       <c r="I858" s="8"/>
@@ -49161,7 +49232,7 @@
         <v>3</v>
       </c>
       <c r="G859" s="95" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="H859" s="8"/>
       <c r="I859" s="8"/>
@@ -49177,7 +49248,7 @@
         <v>1032</v>
       </c>
       <c r="D860" s="94" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E860" s="94">
         <v>2</v>
@@ -49186,7 +49257,7 @@
         <v>4</v>
       </c>
       <c r="G860" s="95" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="H860" s="8"/>
       <c r="I860" s="8"/>
@@ -49211,7 +49282,7 @@
         <v>4</v>
       </c>
       <c r="G861" s="95" t="s">
-        <v>1889</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="862" spans="1:9" s="8" customFormat="1">
@@ -49222,7 +49293,7 @@
         <v>343</v>
       </c>
       <c r="C862" s="49" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
       <c r="D862" s="9">
         <v>1</v>
@@ -49234,7 +49305,7 @@
         <v>1</v>
       </c>
       <c r="G862" s="10" t="s">
-        <v>2187</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="863" spans="1:9" s="8" customFormat="1">
@@ -49245,10 +49316,10 @@
         <v>343</v>
       </c>
       <c r="C863" s="10" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="D863" s="10" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
       <c r="E863" s="8">
         <v>5</v>
@@ -49257,7 +49328,7 @@
         <v>1</v>
       </c>
       <c r="G863" s="10" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="864" spans="1:9" s="94" customFormat="1">
@@ -49268,7 +49339,7 @@
         <v>343</v>
       </c>
       <c r="C864" s="10" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="D864" s="8">
         <v>4</v>
@@ -49296,7 +49367,7 @@
         <v>1146</v>
       </c>
       <c r="D865" s="10" t="s">
-        <v>1898</v>
+        <v>1891</v>
       </c>
       <c r="E865" s="8">
         <v>5</v>
@@ -49305,7 +49376,7 @@
         <v>2</v>
       </c>
       <c r="G865" s="10" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
       <c r="H865" s="8"/>
       <c r="I865" s="8"/>
@@ -49321,7 +49392,7 @@
         <v>1146</v>
       </c>
       <c r="D866" s="10" t="s">
-        <v>1879</v>
+        <v>1874</v>
       </c>
       <c r="E866" s="8">
         <v>2</v>
@@ -49330,7 +49401,7 @@
         <v>3</v>
       </c>
       <c r="G866" s="10" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="H866" s="8"/>
       <c r="I866" s="8"/>
@@ -49346,7 +49417,7 @@
         <v>1146</v>
       </c>
       <c r="D867" s="10" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E867" s="8">
         <v>2</v>
@@ -49355,7 +49426,7 @@
         <v>4</v>
       </c>
       <c r="G867" s="10" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="H867" s="8"/>
       <c r="I867" s="8"/>
@@ -49371,7 +49442,7 @@
         <v>852</v>
       </c>
       <c r="D868" s="10" t="s">
-        <v>1923</v>
+        <v>1915</v>
       </c>
       <c r="E868" s="8">
         <v>5</v>
@@ -49421,7 +49492,7 @@
         <v>1032</v>
       </c>
       <c r="D870" s="10" t="s">
-        <v>1924</v>
+        <v>1916</v>
       </c>
       <c r="E870" s="8">
         <v>2</v>
@@ -49471,7 +49542,7 @@
         <v>852</v>
       </c>
       <c r="D872" s="10" t="s">
-        <v>1923</v>
+        <v>1915</v>
       </c>
       <c r="E872" s="8">
         <v>2</v>
@@ -49521,7 +49592,7 @@
         <v>1032</v>
       </c>
       <c r="D874" s="10" t="s">
-        <v>1907</v>
+        <v>1900</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
@@ -49571,7 +49642,7 @@
         <v>1142</v>
       </c>
       <c r="D876" s="10" t="s">
-        <v>1896</v>
+        <v>1889</v>
       </c>
       <c r="E876" s="8">
         <v>2</v>
@@ -49580,7 +49651,7 @@
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1902</v>
+        <v>1895</v>
       </c>
       <c r="H876" s="8"/>
       <c r="I876" s="8"/>
@@ -49596,7 +49667,7 @@
         <v>1032</v>
       </c>
       <c r="D877" s="8" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
       <c r="E877" s="8">
         <v>2</v>
@@ -49605,7 +49676,7 @@
         <v>2</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
       <c r="H877" s="8"/>
       <c r="I877" s="8"/>
@@ -49621,7 +49692,7 @@
         <v>1032</v>
       </c>
       <c r="D878" s="10" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="E878" s="8">
         <v>2</v>
@@ -49630,7 +49701,7 @@
         <v>3</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1904</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="8" customFormat="1">
@@ -49644,7 +49715,7 @@
         <v>1032</v>
       </c>
       <c r="D879" s="10" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
       <c r="E879" s="8">
         <v>2</v>
@@ -49653,7 +49724,7 @@
         <v>4</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="880" spans="1:9" s="8" customFormat="1">
@@ -49667,7 +49738,7 @@
         <v>1146</v>
       </c>
       <c r="D880" s="10" t="s">
-        <v>1898</v>
+        <v>1891</v>
       </c>
       <c r="E880" s="8">
         <v>2</v>
@@ -49676,7 +49747,7 @@
         <v>1</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="881" spans="1:9" s="8" customFormat="1">
@@ -49690,7 +49761,7 @@
         <v>1146</v>
       </c>
       <c r="D881" s="10" t="s">
-        <v>2184</v>
+        <v>2173</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -49699,7 +49770,7 @@
         <v>2</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="882" spans="1:9" s="8" customFormat="1">
@@ -49713,7 +49784,7 @@
         <v>1142</v>
       </c>
       <c r="D882" s="10" t="s">
-        <v>1898</v>
+        <v>1891</v>
       </c>
       <c r="E882" s="8">
         <v>5</v>
@@ -49722,7 +49793,7 @@
         <v>1</v>
       </c>
       <c r="G882" s="10" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="883" spans="1:9" s="8" customFormat="1">
@@ -49736,7 +49807,7 @@
         <v>1142</v>
       </c>
       <c r="D883" s="10" t="s">
-        <v>2185</v>
+        <v>2174</v>
       </c>
       <c r="E883" s="8">
         <v>5</v>
@@ -49745,7 +49816,7 @@
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="884" spans="1:9" s="8" customFormat="1">
@@ -49759,7 +49830,7 @@
         <v>1146</v>
       </c>
       <c r="D884" s="10" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="E884" s="8">
         <v>2</v>
@@ -49768,7 +49839,7 @@
         <v>1</v>
       </c>
       <c r="G884" s="10" t="s">
-        <v>1915</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="885" spans="1:9" s="8" customFormat="1">
@@ -49782,7 +49853,7 @@
         <v>1146</v>
       </c>
       <c r="D885" s="10" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E885" s="8">
         <v>2</v>
@@ -49791,7 +49862,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="886" spans="1:9" s="8" customFormat="1">
@@ -49805,7 +49876,7 @@
         <v>1142</v>
       </c>
       <c r="D886" s="10" t="s">
-        <v>1892</v>
+        <v>1885</v>
       </c>
       <c r="E886" s="8">
         <v>5</v>
@@ -49814,7 +49885,7 @@
         <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>1902</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="887" spans="1:9" s="8" customFormat="1">
@@ -49828,7 +49899,7 @@
         <v>1142</v>
       </c>
       <c r="D887" s="10" t="s">
-        <v>1892</v>
+        <v>1885</v>
       </c>
       <c r="E887" s="8">
         <v>2</v>
@@ -49837,7 +49908,7 @@
         <v>1</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1902</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="888" spans="1:9">
@@ -49848,10 +49919,10 @@
         <v>352</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>1930</v>
+        <v>1922</v>
       </c>
       <c r="D888" s="10" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="E888" s="8">
         <v>2</v>
@@ -49860,7 +49931,7 @@
         <v>2</v>
       </c>
       <c r="G888" s="10" t="s">
-        <v>1931</v>
+        <v>1923</v>
       </c>
       <c r="H888" s="8"/>
       <c r="I888" s="8"/>
@@ -49876,7 +49947,7 @@
         <v>1142</v>
       </c>
       <c r="D889" s="10" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E889" s="8">
         <v>2</v>
@@ -49885,7 +49956,7 @@
         <v>3</v>
       </c>
       <c r="G889" s="10" t="s">
-        <v>1932</v>
+        <v>1924</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -49901,7 +49972,7 @@
         <v>1142</v>
       </c>
       <c r="D890" s="10" t="s">
-        <v>2188</v>
+        <v>2177</v>
       </c>
       <c r="E890" s="8">
         <v>2</v>
@@ -49910,7 +49981,7 @@
         <v>4</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>1932</v>
+        <v>1924</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -49926,7 +49997,7 @@
         <v>1142</v>
       </c>
       <c r="D891" s="10" t="s">
-        <v>2181</v>
+        <v>2170</v>
       </c>
       <c r="E891" s="8">
         <v>2</v>
@@ -49935,7 +50006,7 @@
         <v>5</v>
       </c>
       <c r="G891" s="10" t="s">
-        <v>1931</v>
+        <v>1923</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -49948,10 +50019,10 @@
         <v>353</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>1939</v>
+        <v>1931</v>
       </c>
       <c r="D892" s="10" t="s">
-        <v>1940</v>
+        <v>1932</v>
       </c>
       <c r="E892" s="8">
         <v>2</v>
@@ -49960,7 +50031,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="10" t="s">
-        <v>1941</v>
+        <v>1933</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -49976,7 +50047,7 @@
         <v>1142</v>
       </c>
       <c r="D893" s="10" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E893" s="8">
         <v>5</v>
@@ -49985,7 +50056,7 @@
         <v>1</v>
       </c>
       <c r="G893" s="10" t="s">
-        <v>1932</v>
+        <v>1924</v>
       </c>
       <c r="H893" s="8"/>
       <c r="I893" s="8"/>
@@ -50001,7 +50072,7 @@
         <v>1032</v>
       </c>
       <c r="D894" s="10" t="s">
-        <v>1907</v>
+        <v>1900</v>
       </c>
       <c r="E894" s="8">
         <v>5</v>
@@ -50035,7 +50106,7 @@
         <v>1</v>
       </c>
       <c r="G895" s="10" t="s">
-        <v>1946</v>
+        <v>1938</v>
       </c>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
@@ -50051,7 +50122,7 @@
         <v>1142</v>
       </c>
       <c r="D896" s="10" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="E896" s="8">
         <v>2</v>
@@ -50060,7 +50131,7 @@
         <v>1</v>
       </c>
       <c r="G896" s="10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -50085,7 +50156,7 @@
         <v>2</v>
       </c>
       <c r="G897" s="10" t="s">
-        <v>1946</v>
+        <v>1938</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -50101,7 +50172,7 @@
         <v>1142</v>
       </c>
       <c r="D898" s="10" t="s">
-        <v>1907</v>
+        <v>1900</v>
       </c>
       <c r="E898" s="8">
         <v>2</v>
@@ -50110,7 +50181,7 @@
         <v>2</v>
       </c>
       <c r="G898" s="10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -50126,7 +50197,7 @@
         <v>1142</v>
       </c>
       <c r="D899" s="10" t="s">
-        <v>1951</v>
+        <v>1943</v>
       </c>
       <c r="E899" s="8">
         <v>5</v>
@@ -50135,7 +50206,7 @@
         <v>1</v>
       </c>
       <c r="G899" s="10" t="s">
-        <v>1952</v>
+        <v>1944</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -50160,7 +50231,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="10" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
@@ -50176,7 +50247,7 @@
         <v>1142</v>
       </c>
       <c r="D901" s="10" t="s">
-        <v>1951</v>
+        <v>1943</v>
       </c>
       <c r="E901" s="8">
         <v>5</v>
@@ -50185,7 +50256,7 @@
         <v>1</v>
       </c>
       <c r="G901" s="10" t="s">
-        <v>1952</v>
+        <v>1944</v>
       </c>
       <c r="H901" s="8"/>
       <c r="I901" s="8"/>
@@ -50210,7 +50281,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="10" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
       <c r="H902" s="8"/>
       <c r="I902" s="8"/>
@@ -50235,7 +50306,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="10" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="904" spans="1:9">
@@ -50249,7 +50320,7 @@
         <v>1142</v>
       </c>
       <c r="D904" s="10" t="s">
-        <v>1951</v>
+        <v>1943</v>
       </c>
       <c r="E904" s="8">
         <v>5</v>
@@ -50258,7 +50329,7 @@
         <v>1</v>
       </c>
       <c r="G904" s="10" t="s">
-        <v>1952</v>
+        <v>1944</v>
       </c>
       <c r="H904" s="8"/>
       <c r="I904" s="8"/>
@@ -50283,7 +50354,7 @@
         <v>1</v>
       </c>
       <c r="G905" s="10" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
       <c r="H905" s="8"/>
       <c r="I905" s="8"/>
@@ -50308,7 +50379,7 @@
         <v>1</v>
       </c>
       <c r="G906" s="10" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
       <c r="H906" s="8"/>
       <c r="I906" s="8"/>
@@ -50324,7 +50395,7 @@
         <v>1142</v>
       </c>
       <c r="D907" s="10" t="s">
-        <v>1951</v>
+        <v>1943</v>
       </c>
       <c r="E907" s="8">
         <v>5</v>
@@ -50333,7 +50404,7 @@
         <v>1</v>
       </c>
       <c r="G907" s="10" t="s">
-        <v>1952</v>
+        <v>1944</v>
       </c>
       <c r="H907" s="8"/>
       <c r="I907" s="8"/>
@@ -50358,7 +50429,7 @@
         <v>1</v>
       </c>
       <c r="G908" s="10" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
       <c r="H908" s="8"/>
       <c r="I908" s="8"/>
@@ -50374,7 +50445,7 @@
         <v>1142</v>
       </c>
       <c r="D909" s="10" t="s">
-        <v>1951</v>
+        <v>1943</v>
       </c>
       <c r="E909" s="8">
         <v>2</v>
@@ -50383,7 +50454,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="10" t="s">
-        <v>1952</v>
+        <v>1944</v>
       </c>
       <c r="H909" s="8"/>
       <c r="I909" s="8"/>
@@ -50408,7 +50479,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="10" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
       <c r="H910" s="8"/>
       <c r="I910" s="8"/>
@@ -50424,7 +50495,7 @@
         <v>1142</v>
       </c>
       <c r="D911" s="10" t="s">
-        <v>1951</v>
+        <v>1943</v>
       </c>
       <c r="E911" s="8">
         <v>2</v>
@@ -50433,7 +50504,7 @@
         <v>1</v>
       </c>
       <c r="G911" s="10" t="s">
-        <v>1952</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -50456,7 +50527,7 @@
         <v>1</v>
       </c>
       <c r="G912" s="10" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -50479,7 +50550,7 @@
         <v>1</v>
       </c>
       <c r="G913" s="10" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -50493,7 +50564,7 @@
         <v>1142</v>
       </c>
       <c r="D914" s="10" t="s">
-        <v>1951</v>
+        <v>1943</v>
       </c>
       <c r="E914" s="8">
         <v>2</v>
@@ -50502,7 +50573,7 @@
         <v>1</v>
       </c>
       <c r="G914" s="10" t="s">
-        <v>1952</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="8" customFormat="1">
@@ -50525,7 +50596,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="10" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="916" spans="1:7" s="8" customFormat="1">
@@ -50548,7 +50619,7 @@
         <v>1</v>
       </c>
       <c r="G916" s="10" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="8" customFormat="1">
@@ -50562,7 +50633,7 @@
         <v>1142</v>
       </c>
       <c r="D917" s="10" t="s">
-        <v>1951</v>
+        <v>1943</v>
       </c>
       <c r="E917" s="8">
         <v>2</v>
@@ -50571,7 +50642,7 @@
         <v>1</v>
       </c>
       <c r="G917" s="10" t="s">
-        <v>1952</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="8" customFormat="1">
@@ -50594,7 +50665,7 @@
         <v>1</v>
       </c>
       <c r="G918" s="10" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="919" spans="1:7" s="8" customFormat="1">
@@ -50608,7 +50679,7 @@
         <v>1142</v>
       </c>
       <c r="D919" s="10" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="E919" s="8">
         <v>2</v>
@@ -50617,7 +50688,7 @@
         <v>1</v>
       </c>
       <c r="G919" s="10" t="s">
-        <v>2052</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="920" spans="1:7" s="8" customFormat="1">
@@ -50640,7 +50711,7 @@
         <v>1</v>
       </c>
       <c r="G920" s="10" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="921" spans="1:7" s="8" customFormat="1">
@@ -50654,7 +50725,7 @@
         <v>1142</v>
       </c>
       <c r="D921" s="10" t="s">
-        <v>1964</v>
+        <v>1956</v>
       </c>
       <c r="E921" s="8">
         <v>2</v>
@@ -50663,7 +50734,7 @@
         <v>2</v>
       </c>
       <c r="G921" s="10" t="s">
-        <v>1995</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="922" spans="1:7" s="8" customFormat="1">
@@ -50686,7 +50757,7 @@
         <v>2</v>
       </c>
       <c r="G922" s="10" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="923" spans="1:7" s="8" customFormat="1">
@@ -50709,7 +50780,7 @@
         <v>1</v>
       </c>
       <c r="G923" s="10" t="s">
-        <v>1969</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="924" spans="1:7" s="8" customFormat="1">
@@ -50732,7 +50803,7 @@
         <v>1</v>
       </c>
       <c r="G924" s="10" t="s">
-        <v>1970</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="925" spans="1:7" s="8" customFormat="1">
@@ -50746,7 +50817,7 @@
         <v>1032</v>
       </c>
       <c r="D925" s="8" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E925" s="8">
         <v>5</v>
@@ -50755,7 +50826,7 @@
         <v>1</v>
       </c>
       <c r="G925" s="8" t="s">
-        <v>1975</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="926" spans="1:7" s="8" customFormat="1">
@@ -50769,7 +50840,7 @@
         <v>1142</v>
       </c>
       <c r="D926" s="10" t="s">
-        <v>1892</v>
+        <v>1885</v>
       </c>
       <c r="E926" s="8">
         <v>2</v>
@@ -50778,7 +50849,7 @@
         <v>1</v>
       </c>
       <c r="G926" s="10" t="s">
-        <v>1996</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="927" spans="1:7" s="8" customFormat="1">
@@ -50789,10 +50860,10 @@
         <v>368</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="D927" s="10" t="s">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="E927" s="8">
         <v>2</v>
@@ -50801,7 +50872,7 @@
         <v>2</v>
       </c>
       <c r="G927" s="10" t="s">
-        <v>1981</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="928" spans="1:7" s="8" customFormat="1">
@@ -50815,7 +50886,7 @@
         <v>1142</v>
       </c>
       <c r="D928" s="10" t="s">
-        <v>1963</v>
+        <v>1955</v>
       </c>
       <c r="E928" s="8">
         <v>2</v>
@@ -50824,7 +50895,7 @@
         <v>1</v>
       </c>
       <c r="G928" s="10" t="s">
-        <v>1995</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="929" spans="1:7" s="8" customFormat="1">
@@ -50838,7 +50909,7 @@
         <v>1142</v>
       </c>
       <c r="D929" s="10" t="s">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="E929" s="8">
         <v>5</v>
@@ -50847,7 +50918,7 @@
         <v>2</v>
       </c>
       <c r="G929" s="10" t="s">
-        <v>1978</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="930" spans="1:7" s="8" customFormat="1">
@@ -50861,7 +50932,7 @@
         <v>1142</v>
       </c>
       <c r="D930" s="10" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="E930" s="8">
         <v>5</v>
@@ -50870,7 +50941,7 @@
         <v>1</v>
       </c>
       <c r="G930" s="10" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="931" spans="1:7" s="8" customFormat="1">
@@ -50884,7 +50955,7 @@
         <v>1142</v>
       </c>
       <c r="D931" s="10" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="E931" s="8">
         <v>2</v>
@@ -50893,7 +50964,7 @@
         <v>1</v>
       </c>
       <c r="G931" s="10" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="932" spans="1:7" s="20" customFormat="1">
@@ -50907,7 +50978,7 @@
         <v>1142</v>
       </c>
       <c r="D932" s="21" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="E932" s="20">
         <v>5</v>
@@ -50916,7 +50987,7 @@
         <v>1</v>
       </c>
       <c r="G932" s="21" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="933" spans="1:7" s="20" customFormat="1">
@@ -50930,7 +51001,7 @@
         <v>1142</v>
       </c>
       <c r="D933" s="21" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="E933" s="20">
         <v>2</v>
@@ -50939,7 +51010,7 @@
         <v>1</v>
       </c>
       <c r="G933" s="21" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="934" spans="1:7" s="8" customFormat="1">
@@ -50950,10 +51021,10 @@
         <v>374</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="D934" s="10" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E934" s="8">
         <v>5</v>
@@ -50962,7 +51033,7 @@
         <v>1</v>
       </c>
       <c r="G934" s="10" t="s">
-        <v>1952</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="935" spans="1:7" s="8" customFormat="1">
@@ -50973,10 +51044,10 @@
         <v>375</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="D935" s="10" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="E935" s="8">
         <v>2</v>
@@ -50985,7 +51056,7 @@
         <v>1</v>
       </c>
       <c r="G935" s="10" t="s">
-        <v>2012</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="936" spans="1:7" s="8" customFormat="1">
@@ -50996,10 +51067,10 @@
         <v>375</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="D936" s="10" t="s">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="E936" s="8">
         <v>2</v>
@@ -51008,7 +51079,7 @@
         <v>2</v>
       </c>
       <c r="G936" s="10" t="s">
-        <v>2013</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="937" spans="1:7" s="8" customFormat="1">
@@ -51022,7 +51093,7 @@
         <v>1142</v>
       </c>
       <c r="D937" s="10" t="s">
-        <v>2182</v>
+        <v>2171</v>
       </c>
       <c r="E937" s="8">
         <v>2</v>
@@ -51031,7 +51102,7 @@
         <v>3</v>
       </c>
       <c r="G937" s="10" t="s">
-        <v>2012</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="938" spans="1:7" s="8" customFormat="1">
@@ -51045,7 +51116,7 @@
         <v>1142</v>
       </c>
       <c r="D938" s="10" t="s">
-        <v>2150</v>
+        <v>2142</v>
       </c>
       <c r="E938" s="8">
         <v>2</v>
@@ -51054,7 +51125,7 @@
         <v>4</v>
       </c>
       <c r="G938" s="10" t="s">
-        <v>2013</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="939" spans="1:7" s="8" customFormat="1">
@@ -51065,10 +51136,10 @@
         <v>376</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="D939" s="10" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="E939" s="8">
         <v>2</v>
@@ -51077,7 +51148,7 @@
         <v>1</v>
       </c>
       <c r="G939" s="10" t="s">
-        <v>2020</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="940" spans="1:7" s="8" customFormat="1">
@@ -51091,7 +51162,7 @@
         <v>1142</v>
       </c>
       <c r="D940" s="10" t="s">
-        <v>2153</v>
+        <v>2145</v>
       </c>
       <c r="E940" s="8">
         <v>2</v>
@@ -51100,7 +51171,7 @@
         <v>2</v>
       </c>
       <c r="G940" s="10" t="s">
-        <v>2020</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="941" spans="1:7" s="8" customFormat="1">
@@ -51111,10 +51182,10 @@
         <v>377</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="D941" s="10" t="s">
-        <v>1892</v>
+        <v>1885</v>
       </c>
       <c r="E941" s="8">
         <v>2</v>
@@ -51123,7 +51194,7 @@
         <v>1</v>
       </c>
       <c r="G941" s="10" t="s">
-        <v>2019</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="942" spans="1:7" s="8" customFormat="1">
@@ -51134,10 +51205,10 @@
         <v>378</v>
       </c>
       <c r="C942" s="10" t="s">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="D942" s="10" t="s">
-        <v>1916</v>
+        <v>1908</v>
       </c>
       <c r="E942" s="8">
         <v>2</v>
@@ -51146,7 +51217,7 @@
         <v>1</v>
       </c>
       <c r="G942" s="10" t="s">
-        <v>2018</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="943" spans="1:7" s="8" customFormat="1">
@@ -51160,7 +51231,7 @@
         <v>1143</v>
       </c>
       <c r="D943" s="10" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="E943" s="8">
         <v>2</v>
@@ -51169,7 +51240,7 @@
         <v>1</v>
       </c>
       <c r="G943" s="10" t="s">
-        <v>1996</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="944" spans="1:7" s="8" customFormat="1">
@@ -51192,7 +51263,7 @@
         <v>1</v>
       </c>
       <c r="G944" s="10" t="s">
-        <v>2021</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -51206,7 +51277,7 @@
         <v>1032</v>
       </c>
       <c r="D945" s="8" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E945" s="8">
         <v>5</v>
@@ -51215,7 +51286,7 @@
         <v>1</v>
       </c>
       <c r="G945" s="8" t="s">
-        <v>1975</v>
+        <v>1967</v>
       </c>
       <c r="H945" s="8"/>
     </row>
@@ -51227,10 +51298,10 @@
         <v>380</v>
       </c>
       <c r="C946" s="8" t="s">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="D946" s="104" t="s">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="E946" s="8">
         <v>2</v>
@@ -51239,7 +51310,7 @@
         <v>1</v>
       </c>
       <c r="G946" s="8" t="s">
-        <v>2025</v>
+        <v>2017</v>
       </c>
       <c r="H946" s="8"/>
     </row>
@@ -51254,7 +51325,7 @@
         <v>1032</v>
       </c>
       <c r="D947" s="8" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
       <c r="E947" s="8">
         <v>2</v>
@@ -51263,7 +51334,7 @@
         <v>2</v>
       </c>
       <c r="G947" s="10" t="s">
-        <v>2026</v>
+        <v>2018</v>
       </c>
       <c r="H947" s="8"/>
     </row>
@@ -51275,10 +51346,10 @@
         <v>380</v>
       </c>
       <c r="C948" s="8" t="s">
-        <v>2027</v>
+        <v>2019</v>
       </c>
       <c r="D948" s="10" t="s">
-        <v>2028</v>
+        <v>2020</v>
       </c>
       <c r="E948" s="8">
         <v>2</v>
@@ -51287,7 +51358,7 @@
         <v>2</v>
       </c>
       <c r="G948" s="8" t="s">
-        <v>2029</v>
+        <v>2021</v>
       </c>
       <c r="H948" s="8"/>
     </row>
@@ -51311,7 +51382,7 @@
         <v>1</v>
       </c>
       <c r="G949" s="10" t="s">
-        <v>2021</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -51358,7 +51429,7 @@
         <v>2</v>
       </c>
       <c r="G951" s="10" t="s">
-        <v>2038</v>
+        <v>2030</v>
       </c>
       <c r="H951" s="8"/>
     </row>
@@ -51382,7 +51453,7 @@
         <v>3</v>
       </c>
       <c r="G952" s="10" t="s">
-        <v>2039</v>
+        <v>2031</v>
       </c>
       <c r="H952" s="8"/>
     </row>
@@ -51406,7 +51477,7 @@
         <v>1</v>
       </c>
       <c r="G953" s="10" t="s">
-        <v>2040</v>
+        <v>2032</v>
       </c>
       <c r="H953" s="8"/>
     </row>
@@ -51430,7 +51501,7 @@
         <v>1</v>
       </c>
       <c r="G954" s="10" t="s">
-        <v>2041</v>
+        <v>2033</v>
       </c>
       <c r="H954" s="8"/>
     </row>
@@ -51454,7 +51525,7 @@
         <v>1</v>
       </c>
       <c r="G955" s="10" t="s">
-        <v>2042</v>
+        <v>2034</v>
       </c>
       <c r="H955" s="8"/>
     </row>
@@ -51478,7 +51549,7 @@
         <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>2040</v>
+        <v>2032</v>
       </c>
       <c r="H956" s="8"/>
     </row>
@@ -51502,7 +51573,7 @@
         <v>1</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>2041</v>
+        <v>2033</v>
       </c>
       <c r="H957" s="8"/>
     </row>
@@ -51526,7 +51597,7 @@
         <v>1</v>
       </c>
       <c r="G958" s="10" t="s">
-        <v>2042</v>
+        <v>2034</v>
       </c>
       <c r="H958" s="8"/>
     </row>
@@ -51550,7 +51621,7 @@
         <v>1</v>
       </c>
       <c r="G959" s="10" t="s">
-        <v>2047</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="960" spans="1:8" s="8" customFormat="1">
@@ -51561,7 +51632,7 @@
         <v>386</v>
       </c>
       <c r="C960" s="10" t="s">
-        <v>2048</v>
+        <v>2040</v>
       </c>
       <c r="D960" s="10">
         <v>1</v>
@@ -51573,7 +51644,7 @@
         <v>1</v>
       </c>
       <c r="G960" s="10" t="s">
-        <v>2049</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="961" spans="1:7">
@@ -51596,7 +51667,7 @@
         <v>1</v>
       </c>
       <c r="G961" s="9" t="s">
-        <v>2055</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="962" spans="1:7" s="8" customFormat="1">
@@ -51607,10 +51678,10 @@
         <v>388</v>
       </c>
       <c r="C962" s="10" t="s">
-        <v>2060</v>
+        <v>2052</v>
       </c>
       <c r="D962" s="10" t="s">
-        <v>2069</v>
+        <v>2061</v>
       </c>
       <c r="E962" s="8">
         <v>5</v>
@@ -51630,10 +51701,10 @@
         <v>388</v>
       </c>
       <c r="C963" s="10" t="s">
-        <v>2060</v>
+        <v>2052</v>
       </c>
       <c r="D963" s="10" t="s">
-        <v>2069</v>
+        <v>2061</v>
       </c>
       <c r="E963" s="8">
         <v>2</v>
@@ -51688,7 +51759,7 @@
         <v>2</v>
       </c>
       <c r="G965" s="10" t="s">
-        <v>2067</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="966" spans="1:7" s="8" customFormat="1">
@@ -51711,7 +51782,7 @@
         <v>1</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>2068</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="967" spans="1:7" s="8" customFormat="1">
@@ -51734,7 +51805,7 @@
         <v>1</v>
       </c>
       <c r="G967" s="10" t="s">
-        <v>2041</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="968" spans="1:7" s="8" customFormat="1">
@@ -51757,7 +51828,7 @@
         <v>1</v>
       </c>
       <c r="G968" s="10" t="s">
-        <v>2042</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="969" spans="1:7" s="8" customFormat="1">
@@ -51780,7 +51851,7 @@
         <v>1</v>
       </c>
       <c r="G969" s="10" t="s">
-        <v>2040</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="970" spans="1:7" s="8" customFormat="1">
@@ -51791,7 +51862,7 @@
         <v>391</v>
       </c>
       <c r="C970" s="10" t="s">
-        <v>2110</v>
+        <v>2102</v>
       </c>
       <c r="D970" s="8">
         <v>12</v>
@@ -51803,7 +51874,7 @@
         <v>1</v>
       </c>
       <c r="G970" s="10" t="s">
-        <v>2041</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="971" spans="1:7" s="8" customFormat="1">
@@ -51826,7 +51897,7 @@
         <v>1</v>
       </c>
       <c r="G971" s="10" t="s">
-        <v>2042</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="972" spans="1:7" s="8" customFormat="1">
@@ -51849,7 +51920,7 @@
         <v>1</v>
       </c>
       <c r="G972" s="8" t="s">
-        <v>2042</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="973" spans="1:7" s="8" customFormat="1">
@@ -51863,7 +51934,7 @@
         <v>1143</v>
       </c>
       <c r="D973" s="10" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="E973" s="8">
         <v>5</v>
@@ -51872,7 +51943,7 @@
         <v>1</v>
       </c>
       <c r="G973" s="10" t="s">
-        <v>2080</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="974" spans="1:7" s="8" customFormat="1">
@@ -51886,7 +51957,7 @@
         <v>1143</v>
       </c>
       <c r="D974" s="10" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="E974" s="8">
         <v>2</v>
@@ -51895,7 +51966,7 @@
         <v>1</v>
       </c>
       <c r="G974" s="10" t="s">
-        <v>2081</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="975" spans="1:7" s="8" customFormat="1">
@@ -51909,7 +51980,7 @@
         <v>1142</v>
       </c>
       <c r="D975" s="10" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="E975" s="8">
         <v>2</v>
@@ -51918,7 +51989,7 @@
         <v>1</v>
       </c>
       <c r="G975" s="10" t="s">
-        <v>2081</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="976" spans="1:7" s="8" customFormat="1">
@@ -51932,7 +52003,7 @@
         <v>1142</v>
       </c>
       <c r="D976" s="64" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E976" s="8">
         <v>2</v>
@@ -51941,7 +52012,7 @@
         <v>1</v>
       </c>
       <c r="G976" s="8" t="s">
-        <v>2095</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="977" spans="1:9" s="8" customFormat="1">
@@ -51955,7 +52026,7 @@
         <v>1142</v>
       </c>
       <c r="D977" s="64" t="s">
-        <v>1907</v>
+        <v>1900</v>
       </c>
       <c r="E977" s="8">
         <v>2</v>
@@ -51964,7 +52035,7 @@
         <v>2</v>
       </c>
       <c r="G977" s="10" t="s">
-        <v>2096</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="978" spans="1:9" s="8" customFormat="1">
@@ -51978,7 +52049,7 @@
         <v>1142</v>
       </c>
       <c r="D978" s="64" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="E978" s="8">
         <v>5</v>
@@ -51987,7 +52058,7 @@
         <v>2</v>
       </c>
       <c r="G978" s="10" t="s">
-        <v>2107</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="979" spans="1:9" s="8" customFormat="1">
@@ -52010,7 +52081,7 @@
         <v>1</v>
       </c>
       <c r="G979" s="10" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="980" spans="1:9" s="8" customFormat="1">
@@ -52024,7 +52095,7 @@
         <v>1142</v>
       </c>
       <c r="D980" s="64" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="E980" s="8">
         <v>2</v>
@@ -52033,7 +52104,7 @@
         <v>2</v>
       </c>
       <c r="G980" s="10" t="s">
-        <v>2108</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="981" spans="1:9" s="8" customFormat="1">
@@ -52056,7 +52127,7 @@
         <v>1</v>
       </c>
       <c r="G981" s="10" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="982" spans="1:9">
@@ -52070,7 +52141,7 @@
         <v>1142</v>
       </c>
       <c r="D982" s="21" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E982" s="20">
         <v>5</v>
@@ -52079,7 +52150,7 @@
         <v>1</v>
       </c>
       <c r="G982" s="21" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="H982" s="8"/>
       <c r="I982" s="8"/>
@@ -52104,7 +52175,7 @@
         <v>1</v>
       </c>
       <c r="G983" s="21" t="s">
-        <v>2111</v>
+        <v>2103</v>
       </c>
       <c r="H983" s="8"/>
       <c r="I983" s="8"/>
@@ -52120,7 +52191,7 @@
         <v>1142</v>
       </c>
       <c r="D984" s="21" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E984" s="20">
         <v>2</v>
@@ -52129,7 +52200,7 @@
         <v>1</v>
       </c>
       <c r="G984" s="21" t="s">
-        <v>1886</v>
+        <v>1881</v>
       </c>
       <c r="H984" s="8" t="s">
         <v>863</v>
@@ -52158,7 +52229,7 @@
         <v>1</v>
       </c>
       <c r="G985" s="21" t="s">
-        <v>2111</v>
+        <v>2103</v>
       </c>
       <c r="H985" s="8" t="s">
         <v>863</v>
@@ -52187,7 +52258,7 @@
         <v>1</v>
       </c>
       <c r="G986" s="21" t="s">
-        <v>2067</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="987" spans="1:9" s="8" customFormat="1">
@@ -52210,7 +52281,7 @@
         <v>1</v>
       </c>
       <c r="G987" s="21" t="s">
-        <v>2118</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="988" spans="1:9" s="8" customFormat="1">
@@ -52224,7 +52295,7 @@
         <v>1032</v>
       </c>
       <c r="D988" s="95" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E988" s="8">
         <v>2</v>
@@ -52233,7 +52304,7 @@
         <v>1</v>
       </c>
       <c r="G988" s="8" t="s">
-        <v>2126</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="989" spans="1:9" s="8" customFormat="1">
@@ -52247,7 +52318,7 @@
         <v>1142</v>
       </c>
       <c r="D989" s="95" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="E989" s="8">
         <v>2</v>
@@ -52256,7 +52327,7 @@
         <v>1</v>
       </c>
       <c r="G989" s="10" t="s">
-        <v>2127</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="990" spans="1:9" s="8" customFormat="1">
@@ -52270,7 +52341,7 @@
         <v>1032</v>
       </c>
       <c r="D990" s="95" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="E990" s="8">
         <v>2</v>
@@ -52279,7 +52350,7 @@
         <v>1</v>
       </c>
       <c r="G990" s="8" t="s">
-        <v>2126</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="991" spans="1:9" s="8" customFormat="1">
@@ -52293,7 +52364,7 @@
         <v>1142</v>
       </c>
       <c r="D991" s="95" t="s">
-        <v>2128</v>
+        <v>2120</v>
       </c>
       <c r="E991" s="8">
         <v>2</v>
@@ -52302,7 +52373,7 @@
         <v>1</v>
       </c>
       <c r="G991" s="10" t="s">
-        <v>2127</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="992" spans="1:9">
@@ -52313,7 +52384,7 @@
         <v>405</v>
       </c>
       <c r="C992" s="10" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D992" s="8">
         <v>1615248000</v>
@@ -52325,7 +52396,7 @@
         <v>1</v>
       </c>
       <c r="G992" s="49" t="s">
-        <v>2133</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="993" spans="1:7">
@@ -52348,7 +52419,7 @@
         <v>1</v>
       </c>
       <c r="G993" s="21" t="s">
-        <v>2067</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="994" spans="1:7">
@@ -52362,7 +52433,7 @@
         <v>1142</v>
       </c>
       <c r="D994" s="21" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E994" s="20">
         <v>5</v>
@@ -52371,7 +52442,7 @@
         <v>1</v>
       </c>
       <c r="G994" s="21" t="s">
-        <v>2146</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="995" spans="1:7">
@@ -52394,7 +52465,7 @@
         <v>1</v>
       </c>
       <c r="G995" s="21" t="s">
-        <v>2145</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="996" spans="1:7">
@@ -52408,7 +52479,7 @@
         <v>1142</v>
       </c>
       <c r="D996" s="21" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E996" s="20">
         <v>5</v>
@@ -52417,7 +52488,7 @@
         <v>1</v>
       </c>
       <c r="G996" s="21" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="997" spans="1:7">
@@ -52440,7 +52511,7 @@
         <v>1</v>
       </c>
       <c r="G997" s="21" t="s">
-        <v>2067</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="998" spans="1:7">
@@ -52454,7 +52525,7 @@
         <v>1142</v>
       </c>
       <c r="D998" s="21" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E998" s="20">
         <v>2</v>
@@ -52463,7 +52534,7 @@
         <v>1</v>
       </c>
       <c r="G998" s="21" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="999" spans="1:7">
@@ -52486,7 +52557,7 @@
         <v>1</v>
       </c>
       <c r="G999" s="21" t="s">
-        <v>2145</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1000" spans="1:7">
@@ -52500,7 +52571,7 @@
         <v>1142</v>
       </c>
       <c r="D1000" s="21" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="E1000" s="20">
         <v>2</v>
@@ -52509,7 +52580,7 @@
         <v>1</v>
       </c>
       <c r="G1000" s="21" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1001" spans="1:7">
@@ -52523,7 +52594,7 @@
         <v>1142</v>
       </c>
       <c r="D1001" s="9" t="s">
-        <v>2170</v>
+        <v>2160</v>
       </c>
       <c r="E1001" s="9">
         <v>5</v>
@@ -52532,7 +52603,53 @@
         <v>1</v>
       </c>
       <c r="G1001" s="9" t="s">
-        <v>2171</v>
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7">
+      <c r="A1002" s="8">
+        <v>1001</v>
+      </c>
+      <c r="B1002" s="9">
+        <v>411</v>
+      </c>
+      <c r="C1002" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1002" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1002" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1002" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1002" s="9" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7">
+      <c r="A1003" s="8">
+        <v>1002</v>
+      </c>
+      <c r="B1003" s="9">
+        <v>411</v>
+      </c>
+      <c r="C1003" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="D1003" s="9">
+        <v>0</v>
+      </c>
+      <c r="E1003" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1003" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1003" s="9" t="s">
+        <v>2203</v>
       </c>
     </row>
   </sheetData>
@@ -52545,10 +52662,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -52590,7 +52707,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>884</v>
@@ -52665,7 +52782,7 @@
         <v>884</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -52682,13 +52799,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>1945</v>
+        <v>1937</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>2178</v>
+        <v>2189</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -52697,7 +52814,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1510</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -52705,13 +52822,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>2167</v>
+        <v>2157</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>2159</v>
+        <v>2179</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -52720,7 +52837,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1594</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -52728,13 +52845,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>2177</v>
+        <v>2188</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -52743,7 +52860,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1614</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -52751,13 +52868,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>1963</v>
+        <v>1955</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>1971</v>
+        <v>1963</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -52766,7 +52883,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1813</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -52774,13 +52891,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>1907</v>
+        <v>1900</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>1972</v>
+        <v>1964</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -52789,7 +52906,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1813</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -52797,13 +52914,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>1892</v>
+        <v>1885</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -52812,7 +52929,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1813</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -52820,13 +52937,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>2181</v>
+        <v>2170</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>2148</v>
+        <v>2140</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -52835,7 +52952,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2149</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -52843,13 +52960,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>2150</v>
+        <v>2142</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>2160</v>
+        <v>2151</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -52858,7 +52975,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2151</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -52866,13 +52983,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>2156</v>
+        <v>2148</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>2161</v>
+        <v>2183</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -52881,7 +52998,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2152</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -52889,13 +53006,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>2153</v>
+        <v>2145</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>2154</v>
+        <v>2146</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -52904,7 +53021,99 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2152</v>
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="79">
+        <v>15</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="79">
+        <v>16</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>2185</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="79">
+        <v>17</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="79">
+        <v>18</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>2198</v>
       </c>
     </row>
   </sheetData>
@@ -52997,7 +53206,7 @@
         <v>852</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="8" spans="1:11">

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5163" uniqueCount="2229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5307" uniqueCount="2274">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9811,34 +9811,456 @@
     <t>actp_own_task_p_xsfl_v3_normal</t>
   </si>
   <si>
+    <t>actp_own_task_p_xsfl_v3_cjj</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v4v12_cjj</t>
+  </si>
+  <si>
+    <t>限时福利v3及以下--捕鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时福利v4及以上--捕鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时福利v3及以下--冲金鸡</t>
+  </si>
+  <si>
+    <t>限时福利v4及以上--冲金鸡</t>
+  </si>
+  <si>
+    <t>大于等于V4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"byam",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥秘CPS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥秘ALL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是捕鱼奥秘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"normal","byam",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"xiaomi_byam","yyb_byam",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭累计赢金榜（cjj和捕鱼奥秘）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐爬塔宝箱限制</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgxxl_tower_box</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是3D捕鱼CPS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游消消乐  V1orLV4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是cpl渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv4开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv4开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_exchange_v0_up</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖VIP0玩家概率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖VIP0以上玩家概率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vip0的用户才可体验</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_exchange_v0_down</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_golden_egg_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_buy_gift_shop_nor</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_buy_gift_shop_v1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_buy_gift_shop_v4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买权限模板，永久</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是新玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP7及以下的用户才可体验</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP8及以上的用户才可体验</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP12及以下的用户才可体验</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_xxlzb_009_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>福气达人--非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner_ggxt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner和插图广告系统（免费玩家-非新玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是新玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>|渠道说明</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjddz_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"normal","xiaozhuo","xjwh","qwxq","juju","cy","juxiang"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>wqp_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"wqp_pceggs","wqp_xianwan","wqp_dandanzhuan"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼游戏CPL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼游戏官方渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vivo","xiaomi","yyb_hlttby","xiaomi_byam","yyb_byam",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼游戏特殊CPS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡平台</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡平台</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao","cjj_dandanzhuan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥秘官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tthlby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天欢乐捕鱼CPL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tthlby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>market_channel</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"normal",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天欢乐捕鱼官方渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tthlby_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vivo","xiaomi","yyb_hlttby",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天欢乐捕鱼CPS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq","normal","vivo","xiaomi","yyb_hlttby","byam_xianwan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天欢乐捕鱼ALL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买（全平台新玩家，免费，小额）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买（全平台v1-v3，非新玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买（全平台v4-v7，非新玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买（全平台v8-12，非新玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_buy_gift_shop_v8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买（新玩家，免费，小额，非冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买（全平台v1-v3，非新玩家，非冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买（全平台v4-v7，非新玩家，非冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买（全平台v8-12，非新玩家，非冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_integral_gift_buy_v1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_integral_gift_buy_v4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_integral_gift_buy_v8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是冲金鸡玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_integral_gift_buy_nor</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_xsfl_v4v12_normal</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_xsfl_v3_cjj</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_xsfl_v4v12_cjj</t>
-  </si>
-  <si>
-    <t>限时福利v3及以下--捕鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时福利v4及以上--捕鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时福利v3及以下--冲金鸡</t>
-  </si>
-  <si>
-    <t>限时福利v4及以上--冲金鸡</t>
-  </si>
-  <si>
-    <t>大于等于V4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_rank_integral_rate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买礼包增加排行榜积分倍数任务（非冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分礼包任务权限模板，永久</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_ltqf_012_fqdr_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_tiny_game_drop_act</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金掉落活动道具（非冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具掉落模板权限，永久</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ctp_prop_exchange_nor</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具兑换（非冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具兑换（VIP5，非冲金鸡）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -9846,35 +10268,168 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>byam_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"byam",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cps</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥秘CPS</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥秘ALL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"byam_xianwan",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
+    <t>道具兑换模板权限，永久</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>榜上有礼（非冲金鸡玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021年4月19日23:59:59结束</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_1000538</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除达人（冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是冲金鸡玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_hlsyt_013_bsyl_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>actp_own_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p_continuity_buy_gift_nor_v3down</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_continuity_buy_gift_nor_v4up</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>actp_own_task_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p_continuity_buy_gift_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cjj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_v3down</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_continuity_buy_gift_cjj_v4up</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连购返利（v3及以下用户，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3D捕鱼和捕鱼奥秘）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利（v4及以上用户，3D捕鱼和捕鱼奥秘）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利（v3及以下用户，冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利（v4及以上用户，冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利任务权限模板，永久</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -9882,311 +10437,53 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>是捕鱼奥秘</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"normal","byam",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"xiaomi_byam","yyb_byam",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭累计赢金榜（cjj和捕鱼奥秘）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjby_drop_limit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>街机捕鱼掉落权限</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不等于捕鱼奥秘</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果消消乐爬塔宝箱限制</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>sgxxl_tower_box</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是3D捕鱼CPS</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>西游消消乐  V1orLV4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是cpl渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv4开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv4开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>box_exchange_v0_up</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖VIP0玩家概率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖VIP0以上玩家概率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_level</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vip0的用户才可体验</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>box_exchange_v0_down</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_golden_egg_3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_buy_gift_shop_nor</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼包购买（新玩家，免费，小额）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_buy_gift_shop_v1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼包购买（v1-v3，非新玩家）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_buy_gift_shop_v4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼包购买（v4-v7，非新玩家）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼包购买（v8-12，非新玩家）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_buy_gift_shop_v8</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼包购买权限模板，永久</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是新玩家</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP7及以下的用户才可体验</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP8及以上的用户才可体验</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP12及以下的用户才可体验</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_xxlzb_009_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>福气达人--非cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner_ggxt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner和插图广告系统（免费玩家-非新玩家）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是新玩家</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>|渠道说明</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjddz_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"normal","xiaozhuo","xjwh","qwxq","juju","cy","juxiang"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>wqp_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"wqp_pceggs","wqp_xianwan","wqp_dandanzhuan"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq","byam_xianwan",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼游戏CPL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼游戏官方渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cps</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"vivo","xiaomi","yyb_hlttby","xiaomi_byam","yyb_byam",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼游戏特殊CPS</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡平台</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡平台</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao","cjj_dandanzhuan",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥秘官方</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cps</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>tthlby_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>天天欢乐捕鱼CPL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>tthlby_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>market_channel</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"normal",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>天天欢乐捕鱼官方渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>tthlby_cps</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"vivo","xiaomi","yyb_hlttby",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>天天欢乐捕鱼CPS</t>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP3及以下玩家</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP4及以上玩家</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_leijixiaohao_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>达人榜（cjj和捕鱼奥秘不开启）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王贡品广告图显示权限（天天欢乐捕鱼平台）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -10194,23 +10491,23 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq","normal","vivo","xiaomi","yyb_hlttby","byam_xianwan",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>天天欢乐捕鱼ALL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_ltqf_012_fqdr_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_leijixiaohao_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>达人榜（cjj和捕鱼奥秘不开启）</t>
+    <t>tthlby_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是天天欢乐捕鱼平台玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwgp_can_show_player</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼奥秘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼奥秘渔场限制</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -10218,11 +10515,19 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>捕鱼奥秘</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼奥秘渔场限制</t>
+    <t>"byam_xianwan","byam_pceggs","byam_aibianxian","byam_juxiang",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq","byam_xianwan","byam_pceggs","byam_aibianxian","byam_juxiang",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan","byam_pceggs","byam_aibianxian","byam_juxiang",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP5及以上玩家才可兑换</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10487,7 +10792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10785,6 +11090,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11062,11 +11383,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q484"/>
+  <dimension ref="A1:Q483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B484" sqref="B484"/>
+      <selection pane="bottomLeft" activeCell="C490" sqref="C490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15047,7 +15368,7 @@
         <v>1856</v>
       </c>
       <c r="B356" s="26" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="C356" s="2">
         <v>343</v>
@@ -15209,7 +15530,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="26" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="B383" s="26" t="s">
         <v>1711</v>
@@ -15896,11 +16217,11 @@
       </c>
     </row>
     <row r="473" spans="1:3">
-      <c r="A473" s="2" t="s">
-        <v>2150</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>2151</v>
+      <c r="A473" s="26" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B473" s="26" t="s">
+        <v>2268</v>
       </c>
       <c r="C473" s="2">
         <v>410</v>
@@ -15908,10 +16229,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="2" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>2154</v>
+        <v>2148</v>
       </c>
       <c r="C475" s="2">
         <v>23</v>
@@ -15919,10 +16240,10 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="26" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="B477" s="26" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="C477" s="2">
         <v>411</v>
@@ -15930,10 +16251,10 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="26" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="B478" s="26" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="C478" s="2">
         <v>412</v>
@@ -15941,24 +16262,24 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="2" t="s">
-        <v>2188</v>
+        <v>2177</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>2189</v>
+        <v>2178</v>
       </c>
       <c r="C480" s="2">
         <v>417</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
-      <c r="A484" s="2" t="s">
-        <v>2226</v>
-      </c>
-      <c r="B484" s="2" t="s">
-        <v>2228</v>
-      </c>
-      <c r="C484" s="2">
-        <v>418</v>
+    <row r="483" spans="1:3">
+      <c r="A483" s="2" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C483" s="2">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -15971,13 +16292,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O383"/>
+  <dimension ref="A1:O397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D365" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D225" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B372" sqref="B372"/>
+      <selection pane="bottomRight" activeCell="D376" sqref="D376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27264,7 +27585,7 @@
         <v>1821</v>
       </c>
       <c r="D334" s="15" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="E334" s="16"/>
       <c r="F334" s="16"/>
@@ -27636,7 +27957,7 @@
         <v>1</v>
       </c>
       <c r="J345" s="15" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="K345" s="16">
         <v>1598889600</v>
@@ -28159,7 +28480,7 @@
         <v>0</v>
       </c>
       <c r="C361" s="107" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="D361" s="15" t="s">
         <v>2052</v>
@@ -28530,13 +28851,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" s="57" t="s">
-        <v>2223</v>
+        <v>2227</v>
       </c>
       <c r="D372" s="65" t="s">
-        <v>2187</v>
+        <v>2176</v>
       </c>
       <c r="E372" s="64"/>
       <c r="F372" s="64"/>
@@ -28567,7 +28888,7 @@
         <v>1</v>
       </c>
       <c r="C373" s="57" t="s">
-        <v>2186</v>
+        <v>2175</v>
       </c>
       <c r="D373" s="65" t="s">
         <v>2063</v>
@@ -28636,7 +28957,7 @@
         <v>2123</v>
       </c>
       <c r="D375" s="15" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E375" s="16"/>
       <c r="F375" s="16"/>
@@ -28667,10 +28988,10 @@
         <v>1</v>
       </c>
       <c r="C376" s="15" t="s">
-        <v>2124</v>
+        <v>2223</v>
       </c>
       <c r="D376" s="15" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E376" s="16"/>
       <c r="F376" s="16"/>
@@ -28701,10 +29022,10 @@
         <v>1</v>
       </c>
       <c r="C377" s="15" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D377" s="15" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E377" s="16"/>
       <c r="F377" s="16"/>
@@ -28735,10 +29056,10 @@
         <v>1</v>
       </c>
       <c r="C378" s="15" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D378" s="15" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E378" s="16"/>
       <c r="F378" s="16"/>
@@ -28769,10 +29090,10 @@
         <v>1</v>
       </c>
       <c r="C379" s="29" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
       <c r="D379" s="29" t="s">
-        <v>2174</v>
+        <v>2209</v>
       </c>
       <c r="G379" s="25">
         <v>413</v>
@@ -28790,7 +29111,7 @@
         <v>1617638400</v>
       </c>
       <c r="L379" s="29" t="s">
-        <v>2181</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -28801,10 +29122,10 @@
         <v>1</v>
       </c>
       <c r="C380" s="29" t="s">
-        <v>2175</v>
+        <v>2168</v>
       </c>
       <c r="D380" s="29" t="s">
-        <v>2176</v>
+        <v>2210</v>
       </c>
       <c r="G380" s="25">
         <v>414</v>
@@ -28822,7 +29143,7 @@
         <v>1617638400</v>
       </c>
       <c r="L380" s="29" t="s">
-        <v>2181</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -28833,10 +29154,10 @@
         <v>1</v>
       </c>
       <c r="C381" s="29" t="s">
-        <v>2177</v>
+        <v>2169</v>
       </c>
       <c r="D381" s="29" t="s">
-        <v>2178</v>
+        <v>2211</v>
       </c>
       <c r="G381" s="25">
         <v>415</v>
@@ -28854,7 +29175,7 @@
         <v>1617638400</v>
       </c>
       <c r="L381" s="29" t="s">
-        <v>2181</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -28865,10 +29186,10 @@
         <v>1</v>
       </c>
       <c r="C382" s="29" t="s">
-        <v>2180</v>
+        <v>2213</v>
       </c>
       <c r="D382" s="29" t="s">
-        <v>2179</v>
+        <v>2212</v>
       </c>
       <c r="G382" s="25">
         <v>416</v>
@@ -28886,40 +29207,516 @@
         <v>1617638400</v>
       </c>
       <c r="L382" s="29" t="s">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="383" spans="1:12" s="21" customFormat="1">
-      <c r="A383" s="16">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" s="112" customFormat="1">
+      <c r="A383" s="109">
         <v>382</v>
       </c>
-      <c r="B383" s="16">
-        <v>1</v>
-      </c>
-      <c r="C383" s="15" t="s">
+      <c r="B383" s="110">
+        <v>1</v>
+      </c>
+      <c r="C383" s="109" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D383" s="109" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E383" s="110"/>
+      <c r="F383" s="110"/>
+      <c r="G383" s="110">
+        <v>418</v>
+      </c>
+      <c r="H383" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I383" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J383" s="109" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K383" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L383" s="109" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" s="112" customFormat="1">
+      <c r="A384" s="110">
+        <v>383</v>
+      </c>
+      <c r="B384" s="110">
+        <v>1</v>
+      </c>
+      <c r="C384" s="109" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D384" s="109" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E384" s="110"/>
+      <c r="F384" s="110"/>
+      <c r="G384" s="110">
+        <v>419</v>
+      </c>
+      <c r="H384" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I384" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J384" s="109" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K384" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L384" s="109" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" s="112" customFormat="1">
+      <c r="A385" s="109">
+        <v>384</v>
+      </c>
+      <c r="B385" s="110">
+        <v>1</v>
+      </c>
+      <c r="C385" s="109" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D385" s="109" t="s">
+        <v>2216</v>
+      </c>
+      <c r="E385" s="110"/>
+      <c r="F385" s="110"/>
+      <c r="G385" s="110">
+        <v>420</v>
+      </c>
+      <c r="H385" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I385" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J385" s="109" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K385" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L385" s="109" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" s="112" customFormat="1">
+      <c r="A386" s="109">
+        <v>385</v>
+      </c>
+      <c r="B386" s="110">
+        <v>1</v>
+      </c>
+      <c r="C386" s="109" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D386" s="109" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E386" s="110"/>
+      <c r="F386" s="110"/>
+      <c r="G386" s="110">
+        <v>421</v>
+      </c>
+      <c r="H386" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I386" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J386" s="109" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K386" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L386" s="109" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" s="112" customFormat="1">
+      <c r="A387" s="110">
+        <v>386</v>
+      </c>
+      <c r="B387" s="110">
+        <v>1</v>
+      </c>
+      <c r="C387" s="110" t="s">
         <v>2224</v>
       </c>
-      <c r="D383" s="15" t="s">
+      <c r="D387" s="110" t="s">
         <v>2225</v>
       </c>
-      <c r="E383" s="16"/>
-      <c r="F383" s="16"/>
-      <c r="G383" s="16">
+      <c r="E387" s="110"/>
+      <c r="F387" s="110"/>
+      <c r="G387" s="110">
+        <v>422</v>
+      </c>
+      <c r="H387" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I387" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" s="109" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K387" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L387" s="109" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" s="112" customFormat="1">
+      <c r="A388" s="110">
+        <v>387</v>
+      </c>
+      <c r="B388" s="110">
+        <v>1</v>
+      </c>
+      <c r="C388" s="110" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D388" s="110" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E388" s="110"/>
+      <c r="F388" s="110"/>
+      <c r="G388" s="110">
+        <v>423</v>
+      </c>
+      <c r="H388" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I388" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" s="109" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K388" s="110">
+        <v>1618272000</v>
+      </c>
+      <c r="L388" s="110" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" s="112" customFormat="1">
+      <c r="A389" s="110">
+        <v>388</v>
+      </c>
+      <c r="B389" s="110">
+        <v>1</v>
+      </c>
+      <c r="C389" s="109" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D389" s="109" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E389" s="110"/>
+      <c r="F389" s="110"/>
+      <c r="G389" s="110">
+        <v>424</v>
+      </c>
+      <c r="H389" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I389" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" s="109" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K389" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L389" s="109" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" s="112" customFormat="1">
+      <c r="A390" s="110">
+        <v>389</v>
+      </c>
+      <c r="B390" s="110">
+        <v>1</v>
+      </c>
+      <c r="C390" s="109" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D390" s="109" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E390" s="110"/>
+      <c r="F390" s="110"/>
+      <c r="G390" s="110">
+        <v>425</v>
+      </c>
+      <c r="H390" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I390" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" s="109" t="s">
+        <v>2235</v>
+      </c>
+      <c r="K390" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L390" s="109" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" s="116" customFormat="1">
+      <c r="A391" s="113">
+        <v>390</v>
+      </c>
+      <c r="B391" s="113">
+        <v>1</v>
+      </c>
+      <c r="C391" s="114" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D391" s="114" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E391" s="113"/>
+      <c r="F391" s="113"/>
+      <c r="G391" s="113">
+        <v>426</v>
+      </c>
+      <c r="H391" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I391" s="115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J391" s="114" t="s">
+        <v>2238</v>
+      </c>
+      <c r="K391" s="113">
+        <v>1618272000</v>
+      </c>
+      <c r="L391" s="114" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" s="116" customFormat="1">
+      <c r="A392" s="113">
+        <v>391</v>
+      </c>
+      <c r="B392" s="113">
+        <v>1</v>
+      </c>
+      <c r="C392" s="113" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D392" s="113" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E392" s="113"/>
+      <c r="F392" s="113"/>
+      <c r="G392" s="113">
+        <v>427</v>
+      </c>
+      <c r="H392" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I392" s="115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J392" s="114" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K392" s="113">
+        <v>1618272000</v>
+      </c>
+      <c r="L392" s="114" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" s="112" customFormat="1">
+      <c r="A393" s="110">
+        <v>392</v>
+      </c>
+      <c r="B393" s="110">
+        <v>1</v>
+      </c>
+      <c r="C393" s="109" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D393" s="109" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E393" s="110"/>
+      <c r="F393" s="110"/>
+      <c r="G393" s="110">
+        <v>428</v>
+      </c>
+      <c r="H393" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I393" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J393" s="109" t="s">
+        <v>2253</v>
+      </c>
+      <c r="K393" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L393" s="109" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" s="112" customFormat="1">
+      <c r="A394" s="110">
+        <v>393</v>
+      </c>
+      <c r="B394" s="110">
+        <v>1</v>
+      </c>
+      <c r="C394" s="109" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D394" s="109" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E394" s="110"/>
+      <c r="F394" s="110"/>
+      <c r="G394" s="110">
+        <v>429</v>
+      </c>
+      <c r="H394" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I394" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J394" s="109" t="s">
+        <v>2252</v>
+      </c>
+      <c r="K394" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L394" s="109" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" s="112" customFormat="1">
+      <c r="A395" s="110">
+        <v>394</v>
+      </c>
+      <c r="B395" s="110">
+        <v>1</v>
+      </c>
+      <c r="C395" s="109" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D395" s="109" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E395" s="110"/>
+      <c r="F395" s="110"/>
+      <c r="G395" s="110">
+        <v>430</v>
+      </c>
+      <c r="H395" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I395" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J395" s="109" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K395" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L395" s="109" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" s="112" customFormat="1">
+      <c r="A396" s="110">
+        <v>395</v>
+      </c>
+      <c r="B396" s="110">
+        <v>1</v>
+      </c>
+      <c r="C396" s="109" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D396" s="109" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E396" s="110"/>
+      <c r="F396" s="110"/>
+      <c r="G396" s="110">
+        <v>431</v>
+      </c>
+      <c r="H396" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I396" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J396" s="109" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K396" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L396" s="109" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" s="21" customFormat="1">
+      <c r="A397" s="16">
+        <v>396</v>
+      </c>
+      <c r="B397" s="16">
+        <v>1</v>
+      </c>
+      <c r="C397" s="15" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D397" s="15" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E397" s="16"/>
+      <c r="F397" s="16"/>
+      <c r="G397" s="16">
         <v>338</v>
       </c>
-      <c r="H383" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I383" t="b">
-        <v>1</v>
-      </c>
-      <c r="J383" s="16" t="s">
+      <c r="H397" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I397" t="b">
+        <v>1</v>
+      </c>
+      <c r="J397" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="K383" s="16">
+      <c r="K397" s="16">
         <v>0</v>
       </c>
-      <c r="L383" s="25" t="s">
+      <c r="L397" s="25" t="s">
         <v>456</v>
       </c>
     </row>
@@ -28934,13 +29731,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I1015"/>
+  <dimension ref="A1:I1048"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C833" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1021" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A839" sqref="A839:A1015"/>
+      <selection pane="bottomRight" activeCell="G1037" sqref="G1037"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -33104,7 +33901,7 @@
         <v>1032</v>
       </c>
       <c r="D179" s="79" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="E179" s="13">
         <v>2</v>
@@ -33159,7 +33956,7 @@
         <v>6</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>2156</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="7" customFormat="1">
@@ -33173,7 +33970,7 @@
         <v>1032</v>
       </c>
       <c r="D182" s="79" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="E182" s="13">
         <v>2</v>
@@ -33182,7 +33979,7 @@
         <v>7</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>2156</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="7" customFormat="1">
@@ -33630,7 +34427,7 @@
         <v>1032</v>
       </c>
       <c r="D201" s="90" t="s">
-        <v>2159</v>
+        <v>2153</v>
       </c>
       <c r="E201" s="88">
         <v>2</v>
@@ -48757,7 +49554,7 @@
         <v>1032</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E829" s="7">
         <v>2</v>
@@ -48766,7 +49563,7 @@
         <v>4</v>
       </c>
       <c r="G829" s="9" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="H829" s="7"/>
       <c r="I829" s="7"/>
@@ -49166,7 +49963,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="92" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="H845" s="7"/>
       <c r="I845" s="7"/>
@@ -49257,7 +50054,7 @@
         <v>1032</v>
       </c>
       <c r="D849" s="14" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="E849" s="13">
         <v>5</v>
@@ -49572,7 +50369,7 @@
         <v>1</v>
       </c>
       <c r="G861" s="9" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="862" spans="1:9" s="7" customFormat="1">
@@ -49618,7 +50415,7 @@
         <v>2</v>
       </c>
       <c r="G863" s="9" t="s">
-        <v>2163</v>
+        <v>2157</v>
       </c>
       <c r="H863" s="7"/>
       <c r="I863" s="7"/>
@@ -50028,7 +50825,7 @@
         <v>1140</v>
       </c>
       <c r="D880" s="9" t="s">
-        <v>2162</v>
+        <v>2156</v>
       </c>
       <c r="E880" s="7">
         <v>2</v>
@@ -50074,7 +50871,7 @@
         <v>1140</v>
       </c>
       <c r="D882" s="9" t="s">
-        <v>2164</v>
+        <v>2158</v>
       </c>
       <c r="E882" s="7">
         <v>5</v>
@@ -51310,7 +52107,7 @@
         <v>1140</v>
       </c>
       <c r="D934" s="9" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E934" s="7">
         <v>2</v>
@@ -51333,7 +52130,7 @@
         <v>1140</v>
       </c>
       <c r="D935" s="9" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E935" s="7">
         <v>2</v>
@@ -51379,7 +52176,7 @@
         <v>1140</v>
       </c>
       <c r="D937" s="9" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="E937" s="7">
         <v>2</v>
@@ -52659,7 +53456,7 @@
         <v>1</v>
       </c>
       <c r="G991" s="20" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="992" spans="1:9">
@@ -52682,7 +53479,7 @@
         <v>1</v>
       </c>
       <c r="G992" s="20" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="993" spans="1:7">
@@ -52774,7 +53571,7 @@
         <v>1</v>
       </c>
       <c r="G996" s="20" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="997" spans="1:7">
@@ -52811,16 +53608,16 @@
         <v>1140</v>
       </c>
       <c r="D998" s="8" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="E998" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F998" s="8">
         <v>1</v>
       </c>
-      <c r="G998" s="8" t="s">
-        <v>2153</v>
+      <c r="G998" s="48" t="s">
+        <v>2267</v>
       </c>
     </row>
     <row r="999" spans="1:7">
@@ -52831,7 +53628,7 @@
         <v>411</v>
       </c>
       <c r="C999" s="48" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="D999" s="8">
         <v>0</v>
@@ -52843,7 +53640,7 @@
         <v>1</v>
       </c>
       <c r="G999" s="48" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1000" spans="1:7">
@@ -52958,7 +53755,7 @@
         <v>1</v>
       </c>
       <c r="G1004" s="9" t="s">
-        <v>2182</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1005" spans="1:7">
@@ -53027,7 +53824,7 @@
         <v>1</v>
       </c>
       <c r="G1007" s="9" t="s">
-        <v>2182</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1008" spans="1:7">
@@ -53073,7 +53870,7 @@
         <v>1</v>
       </c>
       <c r="G1009" s="48" t="s">
-        <v>2183</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1010" spans="1:7">
@@ -53096,7 +53893,7 @@
         <v>1</v>
       </c>
       <c r="G1010" s="9" t="s">
-        <v>2182</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1011" spans="1:7">
@@ -53119,7 +53916,7 @@
         <v>1</v>
       </c>
       <c r="G1011" s="48" t="s">
-        <v>2184</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1012" spans="1:7">
@@ -53142,7 +53939,7 @@
         <v>1</v>
       </c>
       <c r="G1012" s="48" t="s">
-        <v>2185</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1013" spans="1:7">
@@ -53188,30 +53985,789 @@
         <v>1</v>
       </c>
       <c r="G1014" s="8" t="s">
-        <v>2190</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1015" spans="1:7">
       <c r="A1015" s="7">
         <v>1014</v>
       </c>
-      <c r="B1015" s="8">
+      <c r="B1015" s="91">
         <v>418</v>
       </c>
-      <c r="C1015" s="8" t="s">
+      <c r="C1015" s="91" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1015" s="91" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1015" s="91">
+        <v>2</v>
+      </c>
+      <c r="F1015" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1015" s="92" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7">
+      <c r="A1016" s="7">
+        <v>1015</v>
+      </c>
+      <c r="B1016" s="91">
+        <v>418</v>
+      </c>
+      <c r="C1016" s="92" t="s">
         <v>1140</v>
       </c>
-      <c r="D1015" s="8" t="s">
-        <v>2142</v>
-      </c>
-      <c r="E1015" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1015" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1015" s="8" t="s">
-        <v>2227</v>
+      <c r="D1016" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1016" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1016" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1016" s="92" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7">
+      <c r="A1017" s="7">
+        <v>1016</v>
+      </c>
+      <c r="B1017" s="91">
+        <v>418</v>
+      </c>
+      <c r="C1017" s="92" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1017" s="92" t="s">
+        <v>857</v>
+      </c>
+      <c r="E1017" s="91">
+        <v>2</v>
+      </c>
+      <c r="F1017" s="91">
+        <v>2</v>
+      </c>
+      <c r="G1017" s="92" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7">
+      <c r="A1018" s="7">
+        <v>1017</v>
+      </c>
+      <c r="B1018" s="91">
+        <v>418</v>
+      </c>
+      <c r="C1018" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1018" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1018" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1018" s="91">
+        <v>2</v>
+      </c>
+      <c r="G1018" s="92" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7">
+      <c r="A1019" s="7">
+        <v>1018</v>
+      </c>
+      <c r="B1019" s="91">
+        <v>418</v>
+      </c>
+      <c r="C1019" s="92" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1019" s="92" t="s">
+        <v>861</v>
+      </c>
+      <c r="E1019" s="91">
+        <v>2</v>
+      </c>
+      <c r="F1019" s="91">
+        <v>3</v>
+      </c>
+      <c r="G1019" s="92" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7">
+      <c r="A1020" s="7">
+        <v>1019</v>
+      </c>
+      <c r="B1020" s="91">
+        <v>418</v>
+      </c>
+      <c r="C1020" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1020" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1020" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1020" s="91">
+        <v>3</v>
+      </c>
+      <c r="G1020" s="92" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7">
+      <c r="A1021" s="7">
+        <v>1020</v>
+      </c>
+      <c r="B1021" s="91">
+        <v>419</v>
+      </c>
+      <c r="C1021" s="91" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1021" s="91" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1021" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1021" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1021" s="92" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7">
+      <c r="A1022" s="7">
+        <v>1021</v>
+      </c>
+      <c r="B1022" s="91">
+        <v>419</v>
+      </c>
+      <c r="C1022" s="92" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1022" s="91">
+        <v>1</v>
+      </c>
+      <c r="E1022" s="91">
+        <v>3</v>
+      </c>
+      <c r="F1022" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1022" s="92" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7">
+      <c r="A1023" s="7">
+        <v>1022</v>
+      </c>
+      <c r="B1023" s="91">
+        <v>419</v>
+      </c>
+      <c r="C1023" s="92" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1023" s="91">
+        <v>3</v>
+      </c>
+      <c r="E1023" s="91">
+        <v>4</v>
+      </c>
+      <c r="F1023" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1023" s="92" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7">
+      <c r="A1024" s="7">
+        <v>1023</v>
+      </c>
+      <c r="B1024" s="91">
+        <v>419</v>
+      </c>
+      <c r="C1024" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1024" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1024" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1024" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1024" s="92" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:7">
+      <c r="A1025" s="7">
+        <v>1024</v>
+      </c>
+      <c r="B1025" s="91">
+        <v>420</v>
+      </c>
+      <c r="C1025" s="91" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1025" s="91" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1025" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1025" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1025" s="92" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7">
+      <c r="A1026" s="7">
+        <v>1025</v>
+      </c>
+      <c r="B1026" s="91">
+        <v>420</v>
+      </c>
+      <c r="C1026" s="92" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1026" s="91">
+        <v>4</v>
+      </c>
+      <c r="E1026" s="91">
+        <v>3</v>
+      </c>
+      <c r="F1026" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1026" s="92" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7">
+      <c r="A1027" s="7">
+        <v>1026</v>
+      </c>
+      <c r="B1027" s="91">
+        <v>420</v>
+      </c>
+      <c r="C1027" s="92" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1027" s="91">
+        <v>7</v>
+      </c>
+      <c r="E1027" s="91">
+        <v>4</v>
+      </c>
+      <c r="F1027" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1027" s="92" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7">
+      <c r="A1028" s="7">
+        <v>1027</v>
+      </c>
+      <c r="B1028" s="91">
+        <v>420</v>
+      </c>
+      <c r="C1028" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1028" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1028" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1028" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1028" s="92" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7">
+      <c r="A1029" s="7">
+        <v>1028</v>
+      </c>
+      <c r="B1029" s="91">
+        <v>421</v>
+      </c>
+      <c r="C1029" s="91" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1029" s="91" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1029" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1029" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1029" s="92" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7">
+      <c r="A1030" s="7">
+        <v>1029</v>
+      </c>
+      <c r="B1030" s="91">
+        <v>421</v>
+      </c>
+      <c r="C1030" s="92" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1030" s="91">
+        <v>8</v>
+      </c>
+      <c r="E1030" s="91">
+        <v>3</v>
+      </c>
+      <c r="F1030" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1030" s="92" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7">
+      <c r="A1031" s="7">
+        <v>1030</v>
+      </c>
+      <c r="B1031" s="91">
+        <v>421</v>
+      </c>
+      <c r="C1031" s="92" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1031" s="91">
+        <v>12</v>
+      </c>
+      <c r="E1031" s="91">
+        <v>4</v>
+      </c>
+      <c r="F1031" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1031" s="92" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7">
+      <c r="A1032" s="7">
+        <v>1031</v>
+      </c>
+      <c r="B1032" s="91">
+        <v>421</v>
+      </c>
+      <c r="C1032" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1032" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1032" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1032" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1032" s="92" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7">
+      <c r="A1033" s="7">
+        <v>1032</v>
+      </c>
+      <c r="B1033" s="91">
+        <v>422</v>
+      </c>
+      <c r="C1033" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1033" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1033" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1033" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1033" s="92" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7">
+      <c r="A1034" s="7">
+        <v>1033</v>
+      </c>
+      <c r="B1034" s="91">
+        <v>423</v>
+      </c>
+      <c r="C1034" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1034" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1034" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1034" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1034" s="92" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7">
+      <c r="A1035" s="7">
+        <v>1034</v>
+      </c>
+      <c r="B1035" s="91">
+        <v>424</v>
+      </c>
+      <c r="C1035" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1035" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1035" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1035" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1035" s="92" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7">
+      <c r="A1036" s="7">
+        <v>1035</v>
+      </c>
+      <c r="B1036" s="91">
+        <v>425</v>
+      </c>
+      <c r="C1036" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1036" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1036" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1036" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1036" s="92" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7">
+      <c r="A1037" s="7">
+        <v>1036</v>
+      </c>
+      <c r="B1037" s="91">
+        <v>425</v>
+      </c>
+      <c r="C1037" s="92" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1037" s="91">
+        <v>5</v>
+      </c>
+      <c r="E1037" s="91">
+        <v>3</v>
+      </c>
+      <c r="F1037" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1037" s="92" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7">
+      <c r="A1038" s="7">
+        <v>1037</v>
+      </c>
+      <c r="B1038" s="95">
+        <v>426</v>
+      </c>
+      <c r="C1038" s="96" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1038" s="96" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1038" s="95">
+        <v>5</v>
+      </c>
+      <c r="F1038" s="95">
+        <v>1</v>
+      </c>
+      <c r="G1038" s="96" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7">
+      <c r="A1039" s="7">
+        <v>1038</v>
+      </c>
+      <c r="B1039" s="95">
+        <v>427</v>
+      </c>
+      <c r="C1039" s="96" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1039" s="96" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1039" s="95">
+        <v>2</v>
+      </c>
+      <c r="F1039" s="95">
+        <v>1</v>
+      </c>
+      <c r="G1039" s="96" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7">
+      <c r="A1040" s="7">
+        <v>1039</v>
+      </c>
+      <c r="B1040" s="91">
+        <v>428</v>
+      </c>
+      <c r="C1040" s="92" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D1040" s="91">
+        <v>3</v>
+      </c>
+      <c r="E1040" s="91">
+        <v>4</v>
+      </c>
+      <c r="F1040" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1040" s="92" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7">
+      <c r="A1041" s="7">
+        <v>1040</v>
+      </c>
+      <c r="B1041" s="91">
+        <v>428</v>
+      </c>
+      <c r="C1041" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1041" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1041" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1041" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1041" s="92" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7">
+      <c r="A1042" s="7">
+        <v>1041</v>
+      </c>
+      <c r="B1042" s="91">
+        <v>429</v>
+      </c>
+      <c r="C1042" s="92" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D1042" s="91">
+        <v>4</v>
+      </c>
+      <c r="E1042" s="91">
+        <v>3</v>
+      </c>
+      <c r="F1042" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1042" s="92" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7">
+      <c r="A1043" s="7">
+        <v>1042</v>
+      </c>
+      <c r="B1043" s="91">
+        <v>429</v>
+      </c>
+      <c r="C1043" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1043" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1043" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1043" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1043" s="92" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7">
+      <c r="A1044" s="7">
+        <v>1043</v>
+      </c>
+      <c r="B1044" s="91">
+        <v>430</v>
+      </c>
+      <c r="C1044" s="92" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D1044" s="91">
+        <v>3</v>
+      </c>
+      <c r="E1044" s="91">
+        <v>4</v>
+      </c>
+      <c r="F1044" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1044" s="92" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7">
+      <c r="A1045" s="7">
+        <v>1044</v>
+      </c>
+      <c r="B1045" s="91">
+        <v>430</v>
+      </c>
+      <c r="C1045" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1045" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1045" s="91">
+        <v>2</v>
+      </c>
+      <c r="F1045" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1045" s="92" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7">
+      <c r="A1046" s="7">
+        <v>1045</v>
+      </c>
+      <c r="B1046" s="91">
+        <v>431</v>
+      </c>
+      <c r="C1046" s="92" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D1046" s="91">
+        <v>4</v>
+      </c>
+      <c r="E1046" s="91">
+        <v>3</v>
+      </c>
+      <c r="F1046" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1046" s="92" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7">
+      <c r="A1047" s="7">
+        <v>1046</v>
+      </c>
+      <c r="B1047" s="91">
+        <v>431</v>
+      </c>
+      <c r="C1047" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1047" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1047" s="91">
+        <v>2</v>
+      </c>
+      <c r="F1047" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1047" s="92" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7">
+      <c r="A1048" s="7">
+        <v>1047</v>
+      </c>
+      <c r="B1048" s="8">
+        <v>432</v>
+      </c>
+      <c r="C1048" s="8" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D1048" s="8" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E1048" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1048" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1048" s="8" t="s">
+        <v>2265</v>
       </c>
     </row>
   </sheetData>
@@ -53261,7 +54817,7 @@
         <v>1033</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2191</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -53269,13 +54825,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>2192</v>
+        <v>2181</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>2193</v>
+        <v>2182</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -53315,7 +54871,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>2194</v>
+        <v>2183</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>884</v>
@@ -53344,7 +54900,7 @@
         <v>884</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>2195</v>
+        <v>2184</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -53361,13 +54917,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>2196</v>
+        <v>2185</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>2197</v>
+        <v>2271</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -53376,7 +54932,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>2198</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -53390,7 +54946,7 @@
         <v>1065</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -53399,7 +54955,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2199</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -53407,13 +54963,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>2200</v>
+        <v>2188</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>2201</v>
+        <v>2189</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -53422,7 +54978,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2202</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -53445,7 +55001,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2204</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -53453,13 +55009,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>2205</v>
+        <v>2193</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>2206</v>
+        <v>2194</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -53468,7 +55024,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2203</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -53476,7 +55032,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>2207</v>
+        <v>2195</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>884</v>
@@ -53491,7 +55047,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2204</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -53499,13 +55055,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -53514,7 +55070,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2208</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -53522,13 +55078,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>2209</v>
+        <v>2197</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -53537,7 +55093,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -53545,13 +55101,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>2210</v>
+        <v>2256</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>2146</v>
+        <v>2272</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -53560,7 +55116,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -53568,13 +55124,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>2140</v>
+        <v>2270</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -53583,7 +55139,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -53591,13 +55147,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>2211</v>
+        <v>2198</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -53606,7 +55162,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2212</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -53614,13 +55170,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>2213</v>
+        <v>2200</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>2214</v>
+        <v>2201</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>2215</v>
+        <v>2202</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -53629,7 +55185,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2216</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -53637,13 +55193,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>2217</v>
+        <v>2204</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>2218</v>
+        <v>2205</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -53652,7 +55208,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2219</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -53660,13 +55216,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>2220</v>
+        <v>2263</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>2221</v>
+        <v>2207</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -53675,7 +55231,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2222</v>
+        <v>2208</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -11072,7 +11072,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q484"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B484" sqref="B484"/>
     </sheetView>
@@ -15981,11 +15981,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O383"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D365" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C392" sqref="C392"/>
+      <selection pane="bottomRight" activeCell="B372" sqref="B372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28538,7 +28538,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C372" s="57" t="s">
         <v>2225</v>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5307" uniqueCount="2274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5340" uniqueCount="2290">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8598,10 +8598,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>冲金鸡小游戏打折</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>xy_xxl_bet_1</t>
   </si>
   <si>
@@ -9884,6 +9880,10 @@
   </si>
   <si>
     <t>"xiaomi_byam","yyb_byam",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -10515,6 +10515,34 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>显示权限限制（冲金鸡平台显示）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示权限限制（非冲金鸡平台显示）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_limit_cjj_show</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_limit_notcjj_show</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是冲金鸡玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是冲金鸡玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP5及以上玩家才可兑换</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>"byam_xianwan","byam_pceggs","byam_aibianxian","byam_juxiang",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10523,11 +10551,47 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan","byam_pceggs","byam_aibianxian","byam_juxiang",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP5及以上玩家才可兑换</t>
+    <t>byam_type_plat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_own_byam</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼奥秘游戏打折</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt_byam_little_game_discount</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐捕鱼游戏打折</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt_hlby_little_game_discount</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡游戏打折</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tthlby_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是欢乐捕鱼渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是捕鱼奥秘渠道</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11383,11 +11447,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q483"/>
+  <dimension ref="A1:Q490"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C490" sqref="C490"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C411" sqref="C411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -12406,7 +12470,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C59" s="8">
         <v>22</v>
@@ -12421,7 +12485,7 @@
         <v>112</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C60" s="8">
         <v>22</v>
@@ -12436,7 +12500,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C61" s="8">
         <v>22</v>
@@ -12451,7 +12515,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C62" s="8">
         <v>24</v>
@@ -12465,7 +12529,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C63" s="8">
         <v>22</v>
@@ -12479,7 +12543,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C64" s="8">
         <v>22</v>
@@ -12494,7 +12558,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="48" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C65" s="52">
         <v>22</v>
@@ -12509,7 +12573,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="48" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C66" s="52">
         <v>23</v>
@@ -12523,7 +12587,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="48" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C67" s="8">
         <v>24</v>
@@ -12541,7 +12605,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="48" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C68" s="8">
         <v>25</v>
@@ -12592,7 +12656,7 @@
         <v>124</v>
       </c>
       <c r="B71" s="48" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -12628,7 +12692,7 @@
         <v>126</v>
       </c>
       <c r="B73" s="48" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C73" s="52">
         <v>22</v>
@@ -12767,7 +12831,7 @@
         <v>135</v>
       </c>
       <c r="B82" s="48" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C82" s="8">
         <v>26</v>
@@ -15291,7 +15355,7 @@
         <v>1360</v>
       </c>
       <c r="B349" s="26" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C349" s="2">
         <v>226</v>
@@ -15365,7 +15429,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="26" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B356" s="26" t="s">
         <v>2151</v>
@@ -15530,7 +15594,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="26" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B383" s="26" t="s">
         <v>1711</v>
@@ -15742,67 +15806,67 @@
         <v>1827</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>1828</v>
+        <v>2285</v>
       </c>
       <c r="C409" s="2">
         <v>326</v>
       </c>
     </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="2" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C410" s="2">
+        <v>436</v>
+      </c>
+    </row>
     <row r="411" spans="1:3">
-      <c r="A411" s="30" t="s">
+      <c r="A411" s="2" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C411" s="2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="30" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B413" s="9" t="s">
         <v>1829</v>
-      </c>
-      <c r="B411" s="9" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C411" s="8"/>
-    </row>
-    <row r="412" spans="1:3">
-      <c r="A412" s="17" t="s">
-        <v>1831</v>
-      </c>
-      <c r="B412" s="9" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C412" s="8"/>
-    </row>
-    <row r="413" spans="1:3">
-      <c r="A413" s="17" t="s">
-        <v>1833</v>
-      </c>
-      <c r="B413" s="9" t="s">
-        <v>1834</v>
       </c>
       <c r="C413" s="8"/>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="17" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C414" s="52">
-        <v>22</v>
-      </c>
+        <v>1831</v>
+      </c>
+      <c r="C414" s="8"/>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="17" t="s">
-        <v>1837</v>
+        <v>1832</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C415" s="52">
-        <v>22</v>
-      </c>
+        <v>1833</v>
+      </c>
+      <c r="C415" s="8"/>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="17" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>1840</v>
+        <v>1835</v>
       </c>
       <c r="C416" s="52">
         <v>22</v>
@@ -15810,476 +15874,531 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="17" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>1842</v>
+        <v>1837</v>
       </c>
       <c r="C417" s="52">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="17" t="s">
-        <v>1843</v>
+        <v>1838</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>1844</v>
+        <v>1839</v>
       </c>
       <c r="C418" s="52">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="17" t="s">
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C419" s="8">
-        <v>24</v>
+        <v>1841</v>
+      </c>
+      <c r="C419" s="52">
+        <v>23</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="17" t="s">
-        <v>1847</v>
+        <v>1842</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C420" s="8">
-        <v>25</v>
+        <v>1843</v>
+      </c>
+      <c r="C420" s="52">
+        <v>23</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="17" t="s">
-        <v>1849</v>
+        <v>1844</v>
       </c>
       <c r="B421" s="9" t="s">
-        <v>1850</v>
+        <v>1845</v>
       </c>
       <c r="C421" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="17" t="s">
-        <v>1851</v>
+        <v>1846</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>1852</v>
+        <v>1847</v>
       </c>
       <c r="C422" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="17" t="s">
-        <v>1853</v>
+        <v>1848</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>1854</v>
+        <v>1849</v>
       </c>
       <c r="C423" s="8">
         <v>26</v>
       </c>
     </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="17" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B424" s="9" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C424" s="8">
+        <v>26</v>
+      </c>
+    </row>
     <row r="425" spans="1:3">
-      <c r="A425" s="26" t="s">
-        <v>1857</v>
-      </c>
-      <c r="B425" s="26" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C425" s="2">
-        <v>342</v>
+      <c r="A425" s="17" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B425" s="9" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C425" s="8">
+        <v>26</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="26" t="s">
-        <v>1914</v>
+        <v>1856</v>
       </c>
       <c r="B427" s="26" t="s">
-        <v>1909</v>
+        <v>1857</v>
       </c>
       <c r="C427" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="26" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B429" s="26" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C429" s="2">
         <v>344</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3">
-      <c r="A428" s="26" t="s">
-        <v>1910</v>
-      </c>
-      <c r="B428" s="26" t="s">
-        <v>1911</v>
-      </c>
-      <c r="C428" s="2">
-        <v>345</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="26" t="s">
-        <v>1895</v>
+        <v>2279</v>
       </c>
       <c r="B430" s="26" t="s">
-        <v>1883</v>
+        <v>1908</v>
       </c>
       <c r="C430" s="2">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3">
-      <c r="A432" s="26" t="s">
-        <v>1898</v>
-      </c>
-      <c r="B432" s="26" t="s">
-        <v>1897</v>
-      </c>
-      <c r="C432" s="2">
-        <v>347</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="26" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B431" s="26" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C431" s="2">
+        <v>345</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="26" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
       <c r="B433" s="26" t="s">
-        <v>1900</v>
+        <v>1882</v>
       </c>
       <c r="C433" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="26" t="s">
-        <v>1915</v>
+        <v>1897</v>
       </c>
       <c r="B435" s="26" t="s">
-        <v>1916</v>
+        <v>1896</v>
       </c>
       <c r="C435" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="26" t="s">
-        <v>1917</v>
+        <v>1898</v>
       </c>
       <c r="B436" s="26" t="s">
-        <v>1918</v>
+        <v>1899</v>
       </c>
       <c r="C436" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="26" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B438" s="26" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C438" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="26" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B439" s="26" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C439" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="26" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B441" s="26" t="s">
         <v>1926</v>
       </c>
-      <c r="B438" s="26" t="s">
-        <v>1927</v>
-      </c>
-      <c r="C438" s="2">
+      <c r="C441" s="2">
         <v>353</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
-      <c r="A440" s="2" t="s">
-        <v>1990</v>
-      </c>
-      <c r="B440" s="2" t="s">
-        <v>1992</v>
-      </c>
-      <c r="C440" s="2">
+    <row r="443" spans="1:3">
+      <c r="A443" s="2" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C443" s="2">
         <v>354</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
-      <c r="A442" s="26" t="s">
+    <row r="445" spans="1:3">
+      <c r="A445" s="26" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B445" s="26" t="s">
         <v>1935</v>
       </c>
-      <c r="B442" s="26" t="s">
-        <v>1936</v>
-      </c>
-      <c r="C442" s="2">
+      <c r="C445" s="2">
         <v>355</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
-      <c r="A443" s="26"/>
-      <c r="B443" s="26"/>
-    </row>
-    <row r="444" spans="1:3">
-      <c r="A444" s="26" t="s">
+    <row r="446" spans="1:3">
+      <c r="A446" s="26"/>
+      <c r="B446" s="26"/>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="26" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B447" s="26" t="s">
         <v>1963</v>
       </c>
-      <c r="B444" s="26" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C444" s="2">
+      <c r="C447" s="2">
         <v>368</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
-      <c r="A446" s="71" t="s">
+    <row r="449" spans="1:3">
+      <c r="A449" s="71" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B449" s="26" t="s">
         <v>1969</v>
       </c>
-      <c r="B446" s="26" t="s">
+      <c r="C449" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="71" t="s">
         <v>1970</v>
       </c>
-      <c r="C446" s="2">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3">
-      <c r="A447" s="71" t="s">
+      <c r="B450" s="26" t="s">
         <v>1971</v>
       </c>
-      <c r="B447" s="26" t="s">
+      <c r="C450" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B452" s="2" t="s">
         <v>1972</v>
       </c>
-      <c r="C447" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3">
-      <c r="A449" s="2" t="s">
-        <v>1976</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>1973</v>
-      </c>
-      <c r="C449" s="2">
+      <c r="C452" s="2">
         <v>369</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3">
-      <c r="A451" s="26" t="s">
-        <v>1987</v>
-      </c>
-      <c r="B451" s="26" t="s">
-        <v>1988</v>
-      </c>
-      <c r="C451" s="2">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3">
-      <c r="A453" s="26" t="s">
-        <v>1993</v>
-      </c>
-      <c r="B453" s="26" t="s">
-        <v>1994</v>
-      </c>
-      <c r="C453" s="2">
-        <v>375</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="26" t="s">
-        <v>2001</v>
+        <v>1986</v>
       </c>
       <c r="B454" s="26" t="s">
-        <v>1995</v>
+        <v>1987</v>
       </c>
       <c r="C454" s="2">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3">
-      <c r="A455" s="26" t="s">
-        <v>2002</v>
-      </c>
-      <c r="B455" s="26" t="s">
-        <v>1996</v>
-      </c>
-      <c r="C455" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="26" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B456" s="26" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="C456" s="2">
-        <v>378</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="26" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B457" s="26" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C457" s="2">
+        <v>376</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="26" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B458" s="26" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C458" s="2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="26" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B459" s="26" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C459" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="26" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B461" s="26" t="s">
         <v>2003</v>
       </c>
-      <c r="B458" s="26" t="s">
-        <v>2004</v>
-      </c>
-      <c r="C458" s="2">
+      <c r="C461" s="2">
         <v>379</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
-      <c r="A460" s="2" t="s">
+    <row r="463" spans="1:3">
+      <c r="A463" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B463" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="B460" s="2" t="s">
-        <v>2019</v>
-      </c>
-      <c r="C460" s="2">
+      <c r="C463" s="2">
         <v>381</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
-      <c r="A462" s="26" t="s">
+    <row r="465" spans="1:3">
+      <c r="A465" s="26" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B465" s="26" t="s">
         <v>2030</v>
       </c>
-      <c r="B462" s="26" t="s">
+      <c r="C465" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="26" t="s">
         <v>2031</v>
       </c>
-      <c r="C462" s="2">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3">
-      <c r="A463" s="26" t="s">
+      <c r="B466" s="26" t="s">
         <v>2032</v>
       </c>
-      <c r="B463" s="26" t="s">
-        <v>2033</v>
-      </c>
-      <c r="C463" s="2">
+      <c r="C466" s="2">
         <v>386</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
-      <c r="A465" s="2" t="s">
-        <v>2068</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
-      <c r="A466" s="2" t="s">
-        <v>2069</v>
-      </c>
-      <c r="B466" s="26" t="s">
-        <v>2077</v>
-      </c>
-      <c r="C466" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
-      <c r="A467" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="B467" s="26" t="s">
-        <v>2074</v>
-      </c>
-      <c r="C467" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="2" t="s">
-        <v>2071</v>
-      </c>
-      <c r="B468" s="26" t="s">
-        <v>2075</v>
-      </c>
-      <c r="C468" s="2">
-        <v>24</v>
+        <v>2067</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>2072</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="2" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="B469" s="26" t="s">
         <v>2076</v>
       </c>
       <c r="C469" s="2">
-        <v>26</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="2" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B470" s="26" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C470" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B471" s="26" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C471" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B472" s="26" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C472" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B474" s="2" t="s">
         <v>2120</v>
       </c>
-      <c r="B471" s="2" t="s">
-        <v>2121</v>
-      </c>
-      <c r="C471" s="2">
+      <c r="C474" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
-      <c r="A473" s="26" t="s">
+    <row r="476" spans="1:3">
+      <c r="A476" s="26" t="s">
         <v>2269</v>
       </c>
-      <c r="B473" s="26" t="s">
+      <c r="B476" s="26" t="s">
         <v>2268</v>
       </c>
-      <c r="C473" s="2">
+      <c r="C476" s="2">
         <v>410</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
-      <c r="A475" s="2" t="s">
+    <row r="478" spans="1:3">
+      <c r="A478" s="2" t="s">
         <v>2149</v>
       </c>
-      <c r="B475" s="2" t="s">
+      <c r="B478" s="2" t="s">
         <v>2148</v>
       </c>
-      <c r="C475" s="2">
+      <c r="C478" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
-      <c r="A477" s="26" t="s">
+    <row r="480" spans="1:3">
+      <c r="A480" s="26" t="s">
         <v>2165</v>
       </c>
-      <c r="B477" s="26" t="s">
+      <c r="B480" s="26" t="s">
         <v>2161</v>
       </c>
-      <c r="C477" s="2">
+      <c r="C480" s="2">
         <v>411</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
-      <c r="A478" s="26" t="s">
+    <row r="481" spans="1:3">
+      <c r="A481" s="26" t="s">
         <v>2160</v>
       </c>
-      <c r="B478" s="26" t="s">
+      <c r="B481" s="26" t="s">
         <v>2162</v>
       </c>
-      <c r="C478" s="2">
+      <c r="C481" s="2">
         <v>412</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
-      <c r="A480" s="2" t="s">
-        <v>2177</v>
-      </c>
-      <c r="B480" s="2" t="s">
-        <v>2178</v>
-      </c>
-      <c r="C480" s="2">
-        <v>417</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="2" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C483" s="2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="2" t="s">
         <v>2266</v>
       </c>
-      <c r="B483" s="2" t="s">
+      <c r="B486" s="2" t="s">
         <v>2261</v>
       </c>
-      <c r="C483" s="2">
+      <c r="C486" s="2">
         <v>432</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="2" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C489" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C490" s="2">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -16295,10 +16414,10 @@
   <dimension ref="A1:O397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D225" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D375" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D376" sqref="D376"/>
+      <selection pane="bottomRight" activeCell="E396" sqref="E396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16340,7 +16459,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>450</v>
@@ -22899,7 +23018,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D192" s="39" t="s">
         <v>790</v>
@@ -26151,7 +26270,7 @@
         <v>1615248000</v>
       </c>
       <c r="L289" s="71" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="72" customFormat="1">
@@ -26185,7 +26304,7 @@
         <v>1615248000</v>
       </c>
       <c r="L290" s="70" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="72" customFormat="1">
@@ -26199,7 +26318,7 @@
         <v>1625</v>
       </c>
       <c r="D291" s="101" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="E291" s="70"/>
       <c r="F291" s="70"/>
@@ -26219,7 +26338,7 @@
         <v>1615248000</v>
       </c>
       <c r="L291" s="70" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="72" customFormat="1">
@@ -26233,7 +26352,7 @@
         <v>1815</v>
       </c>
       <c r="D292" s="100" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E292" s="70"/>
       <c r="F292" s="70"/>
@@ -26253,7 +26372,7 @@
         <v>1615248000</v>
       </c>
       <c r="L292" s="70" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -26616,7 +26735,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="29" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D304" s="29" t="s">
         <v>1652</v>
@@ -27165,7 +27284,7 @@
         <v>1706</v>
       </c>
       <c r="D321" s="100" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E321" s="101"/>
       <c r="F321" s="101"/>
@@ -27275,7 +27394,7 @@
         <v>1</v>
       </c>
       <c r="J324" s="15" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="K324" s="25">
         <v>1598916600</v>
@@ -27516,7 +27635,7 @@
         <v>0</v>
       </c>
       <c r="C332" s="86" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D332" s="86" t="s">
         <v>1797</v>
@@ -27616,10 +27735,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="15" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D335" s="15" t="s">
         <v>1859</v>
-      </c>
-      <c r="D335" s="15" t="s">
-        <v>1860</v>
       </c>
       <c r="E335" s="16"/>
       <c r="F335" s="16"/>
@@ -27650,10 +27769,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="15" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D336" s="15" t="s">
         <v>1861</v>
-      </c>
-      <c r="D336" s="15" t="s">
-        <v>1862</v>
       </c>
       <c r="E336" s="16"/>
       <c r="F336" s="16"/>
@@ -27667,7 +27786,7 @@
         <v>1</v>
       </c>
       <c r="J336" s="15" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="K336" s="16">
         <v>1606176000</v>
@@ -27684,10 +27803,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="29" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D337" s="29" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G337" s="16">
         <v>349</v>
@@ -27716,10 +27835,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="29" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D338" s="29" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="E338" s="16"/>
       <c r="F338" s="16"/>
@@ -27750,10 +27869,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="71" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D339" s="29" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="G339" s="25">
         <v>357</v>
@@ -27782,10 +27901,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="71" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D340" s="29" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="G340" s="25">
         <v>358</v>
@@ -27814,10 +27933,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="71" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D341" s="29" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="G341" s="25">
         <v>359</v>
@@ -27846,10 +27965,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="71" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D342" s="29" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="G342" s="25">
         <v>361</v>
@@ -27878,10 +27997,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="71" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D343" s="29" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="G343" s="25">
         <v>362</v>
@@ -27910,10 +28029,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="71" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D344" s="29" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="G344" s="25">
         <v>363</v>
@@ -27942,10 +28061,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="71" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D345" s="29" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="G345" s="25">
         <v>364</v>
@@ -27957,7 +28076,7 @@
         <v>1</v>
       </c>
       <c r="J345" s="15" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="K345" s="16">
         <v>1598889600</v>
@@ -27974,10 +28093,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="29" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D346" s="77" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="G346" s="25">
         <v>365</v>
@@ -28006,10 +28125,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="29" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D347" s="77" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="G347" s="25">
         <v>366</v>
@@ -28038,10 +28157,10 @@
         <v>1</v>
       </c>
       <c r="C348" s="100" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D348" s="100" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="E348" s="16"/>
       <c r="F348" s="16"/>
@@ -28072,10 +28191,10 @@
         <v>0</v>
       </c>
       <c r="C349" s="15" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D349" s="15" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E349" s="15"/>
       <c r="F349" s="15"/>
@@ -28089,13 +28208,13 @@
         <v>1</v>
       </c>
       <c r="J349" s="15" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="K349" s="15">
         <v>1610409600</v>
       </c>
       <c r="L349" s="15" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="44" customFormat="1">
@@ -28106,10 +28225,10 @@
         <v>0</v>
       </c>
       <c r="C350" s="15" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D350" s="15" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="E350" s="15"/>
       <c r="F350" s="15"/>
@@ -28123,13 +28242,13 @@
         <v>1</v>
       </c>
       <c r="J350" s="15" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="K350" s="15">
         <v>1610409600</v>
       </c>
       <c r="L350" s="15" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="44" customFormat="1">
@@ -28140,10 +28259,10 @@
         <v>1</v>
       </c>
       <c r="C351" s="65" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="D351" s="65" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E351" s="65"/>
       <c r="F351" s="65"/>
@@ -28157,13 +28276,13 @@
         <v>1</v>
       </c>
       <c r="J351" s="65" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="K351" s="65">
         <v>1610380800</v>
       </c>
       <c r="L351" s="65" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="44" customFormat="1">
@@ -28174,10 +28293,10 @@
         <v>1</v>
       </c>
       <c r="C352" s="65" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D352" s="65" t="s">
         <v>1985</v>
-      </c>
-      <c r="D352" s="65" t="s">
-        <v>1986</v>
       </c>
       <c r="E352" s="65"/>
       <c r="F352" s="65"/>
@@ -28191,13 +28310,13 @@
         <v>1</v>
       </c>
       <c r="J352" s="65" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="K352" s="65">
         <v>1610380800</v>
       </c>
       <c r="L352" s="65" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="44" customFormat="1">
@@ -28208,10 +28327,10 @@
         <v>1</v>
       </c>
       <c r="C353" s="105" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D353" s="15" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E353" s="15"/>
       <c r="F353" s="15"/>
@@ -28242,10 +28361,10 @@
         <v>0</v>
       </c>
       <c r="C354" s="15" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D354" s="15" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E354" s="15"/>
       <c r="F354" s="15"/>
@@ -28265,7 +28384,7 @@
         <v>1611014400</v>
       </c>
       <c r="L354" s="15" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="355" spans="1:12" s="44" customFormat="1">
@@ -28276,10 +28395,10 @@
         <v>0</v>
       </c>
       <c r="C355" s="15" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D355" s="15" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E355" s="15"/>
       <c r="F355" s="15"/>
@@ -28299,7 +28418,7 @@
         <v>1611014400</v>
       </c>
       <c r="L355" s="15" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="356" spans="1:12" s="44" customFormat="1">
@@ -28310,10 +28429,10 @@
         <v>0</v>
       </c>
       <c r="C356" s="15" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D356" s="15" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E356" s="15"/>
       <c r="F356" s="15"/>
@@ -28333,7 +28452,7 @@
         <v>1611014400</v>
       </c>
       <c r="L356" s="15" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="357" spans="1:12" s="44" customFormat="1">
@@ -28344,10 +28463,10 @@
         <v>0</v>
       </c>
       <c r="C357" s="105" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D357" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="E357" s="15"/>
       <c r="F357" s="15"/>
@@ -28378,10 +28497,10 @@
         <v>0</v>
       </c>
       <c r="C358" s="15" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D358" s="15" t="s">
         <v>2044</v>
-      </c>
-      <c r="D358" s="15" t="s">
-        <v>2045</v>
       </c>
       <c r="E358" s="15"/>
       <c r="F358" s="15"/>
@@ -28401,7 +28520,7 @@
         <v>1611590400</v>
       </c>
       <c r="L358" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="359" spans="1:12" s="44" customFormat="1" ht="16.5">
@@ -28412,10 +28531,10 @@
         <v>0</v>
       </c>
       <c r="C359" s="107" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D359" s="15" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="E359" s="15"/>
       <c r="F359" s="15"/>
@@ -28435,7 +28554,7 @@
         <v>1611590400</v>
       </c>
       <c r="L359" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="360" spans="1:12" s="44" customFormat="1" ht="16.5">
@@ -28446,10 +28565,10 @@
         <v>0</v>
       </c>
       <c r="C360" s="107" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D360" s="15" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E360" s="15"/>
       <c r="F360" s="15"/>
@@ -28469,7 +28588,7 @@
         <v>1611590400</v>
       </c>
       <c r="L360" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="361" spans="1:12" s="44" customFormat="1" ht="16.5">
@@ -28483,7 +28602,7 @@
         <v>2166</v>
       </c>
       <c r="D361" s="15" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="E361" s="15"/>
       <c r="F361" s="15"/>
@@ -28503,7 +28622,7 @@
         <v>1611590400</v>
       </c>
       <c r="L361" s="15" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="362" spans="1:12" s="44" customFormat="1">
@@ -28514,10 +28633,10 @@
         <v>0</v>
       </c>
       <c r="C362" s="105" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="D362" s="15" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="E362" s="15"/>
       <c r="F362" s="15"/>
@@ -28548,10 +28667,10 @@
         <v>0</v>
       </c>
       <c r="C363" s="30" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D363" s="15" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="E363" s="16"/>
       <c r="F363" s="16"/>
@@ -28571,7 +28690,7 @@
         <v>1612828800</v>
       </c>
       <c r="L363" s="15" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="364" spans="1:12" s="21" customFormat="1">
@@ -28582,10 +28701,10 @@
         <v>0</v>
       </c>
       <c r="C364" s="30" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E364" s="16"/>
       <c r="F364" s="16"/>
@@ -28605,7 +28724,7 @@
         <v>1612828800</v>
       </c>
       <c r="L364" s="15" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="365" spans="1:12" s="21" customFormat="1">
@@ -28616,10 +28735,10 @@
         <v>0</v>
       </c>
       <c r="C365" s="30" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D365" s="15" t="s">
         <v>2078</v>
-      </c>
-      <c r="D365" s="15" t="s">
-        <v>2079</v>
       </c>
       <c r="E365" s="16"/>
       <c r="F365" s="16"/>
@@ -28639,7 +28758,7 @@
         <v>1612828800</v>
       </c>
       <c r="L365" s="15" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="366" spans="1:12" s="21" customFormat="1">
@@ -28650,10 +28769,10 @@
         <v>1</v>
       </c>
       <c r="C366" s="15" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D366" s="15" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="E366" s="16"/>
       <c r="F366" s="16"/>
@@ -28673,7 +28792,7 @@
         <v>1615852800</v>
       </c>
       <c r="L366" s="15" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="21" customFormat="1">
@@ -28684,10 +28803,10 @@
         <v>1</v>
       </c>
       <c r="C367" s="15" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D367" s="15" t="s">
         <v>2099</v>
-      </c>
-      <c r="D367" s="15" t="s">
-        <v>2100</v>
       </c>
       <c r="E367" s="16"/>
       <c r="F367" s="16"/>
@@ -28707,7 +28826,7 @@
         <v>1615852800</v>
       </c>
       <c r="L367" s="15" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="368" spans="1:12" s="21" customFormat="1">
@@ -28718,10 +28837,10 @@
         <v>0</v>
       </c>
       <c r="C368" s="15" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D368" s="15" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="E368" s="16"/>
       <c r="F368" s="16"/>
@@ -28741,7 +28860,7 @@
         <v>1615248000</v>
       </c>
       <c r="L368" s="15" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="369" spans="1:12" s="21" customFormat="1">
@@ -28752,10 +28871,10 @@
         <v>0</v>
       </c>
       <c r="C369" s="15" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="D369" s="15" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="E369" s="16"/>
       <c r="F369" s="16"/>
@@ -28775,7 +28894,7 @@
         <v>1615248000</v>
       </c>
       <c r="L369" s="15" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="370" spans="1:12" s="21" customFormat="1">
@@ -28786,10 +28905,10 @@
         <v>1</v>
       </c>
       <c r="C370" s="15" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D370" s="15" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="E370" s="16"/>
       <c r="F370" s="16"/>
@@ -28820,10 +28939,10 @@
         <v>1</v>
       </c>
       <c r="C371" s="15" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D371" s="15" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="E371" s="16"/>
       <c r="F371" s="16"/>
@@ -28877,7 +28996,7 @@
         <v>1615824000</v>
       </c>
       <c r="L372" s="65" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="373" spans="1:12" s="66" customFormat="1">
@@ -28891,7 +29010,7 @@
         <v>2175</v>
       </c>
       <c r="D373" s="65" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E373" s="64"/>
       <c r="F373" s="64"/>
@@ -28911,7 +29030,7 @@
         <v>1615824000</v>
       </c>
       <c r="L373" s="65" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="374" spans="1:12" s="21" customFormat="1">
@@ -28922,10 +29041,10 @@
         <v>1</v>
       </c>
       <c r="C374" s="16" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D374" s="16" t="s">
         <v>2116</v>
-      </c>
-      <c r="D374" s="16" t="s">
-        <v>2117</v>
       </c>
       <c r="E374" s="16"/>
       <c r="F374" s="16"/>
@@ -28939,7 +29058,7 @@
         <v>1</v>
       </c>
       <c r="J374" s="16" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="K374" s="16">
         <v>1615248000</v>
@@ -28954,10 +29073,10 @@
         <v>1</v>
       </c>
       <c r="C375" s="15" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="D375" s="15" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="E375" s="16"/>
       <c r="F375" s="16"/>
@@ -28977,7 +29096,7 @@
         <v>1615824000</v>
       </c>
       <c r="L375" s="15" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="376" spans="1:12" s="21" customFormat="1">
@@ -28991,7 +29110,7 @@
         <v>2223</v>
       </c>
       <c r="D376" s="15" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E376" s="16"/>
       <c r="F376" s="16"/>
@@ -29011,7 +29130,7 @@
         <v>1615824000</v>
       </c>
       <c r="L376" s="15" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="377" spans="1:12" s="21" customFormat="1">
@@ -29022,10 +29141,10 @@
         <v>1</v>
       </c>
       <c r="C377" s="15" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D377" s="15" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E377" s="16"/>
       <c r="F377" s="16"/>
@@ -29045,7 +29164,7 @@
         <v>1615824000</v>
       </c>
       <c r="L377" s="15" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="378" spans="1:12" s="21" customFormat="1">
@@ -29056,10 +29175,10 @@
         <v>1</v>
       </c>
       <c r="C378" s="15" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D378" s="15" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E378" s="16"/>
       <c r="F378" s="16"/>
@@ -29079,7 +29198,7 @@
         <v>1615824000</v>
       </c>
       <c r="L378" s="15" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -29731,13 +29850,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I1048"/>
+  <dimension ref="A1:I1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1021" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1024" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1037" sqref="G1037"/>
+      <selection pane="bottomRight" activeCell="B1055" sqref="B1055"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -31934,7 +32053,7 @@
         <v>852</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="E94" s="7">
         <v>2</v>
@@ -33232,7 +33351,7 @@
         <v>1032</v>
       </c>
       <c r="D150" s="96" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="E150" s="95">
         <v>2</v>
@@ -33241,7 +33360,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="96" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
@@ -33924,7 +34043,7 @@
         <v>1032</v>
       </c>
       <c r="D180" s="79" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E180" s="13">
         <v>2</v>
@@ -34402,7 +34521,7 @@
         <v>1032</v>
       </c>
       <c r="D200" s="90" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E200" s="88">
         <v>2</v>
@@ -43932,7 +44051,7 @@
         <v>1140</v>
       </c>
       <c r="D603" s="14" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E603" s="13">
         <v>2</v>
@@ -44082,7 +44201,7 @@
         <v>1140</v>
       </c>
       <c r="D609" s="14" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E609" s="13">
         <v>2</v>
@@ -44232,7 +44351,7 @@
         <v>1140</v>
       </c>
       <c r="D615" s="14" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E615" s="13">
         <v>2</v>
@@ -44382,7 +44501,7 @@
         <v>1140</v>
       </c>
       <c r="D621" s="14" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E621" s="13">
         <v>2</v>
@@ -44532,7 +44651,7 @@
         <v>1140</v>
       </c>
       <c r="D627" s="14" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E627" s="13">
         <v>2</v>
@@ -44682,7 +44801,7 @@
         <v>1140</v>
       </c>
       <c r="D633" s="14" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E633" s="13">
         <v>2</v>
@@ -47288,7 +47407,7 @@
         <v>2</v>
       </c>
       <c r="G738" s="18" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="H738" s="7"/>
       <c r="I738" s="7"/>
@@ -47488,7 +47607,7 @@
         <v>2</v>
       </c>
       <c r="G746" s="18" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="H746" s="7"/>
       <c r="I746" s="7"/>
@@ -49029,7 +49148,7 @@
         <v>1032</v>
       </c>
       <c r="D808" s="8" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E808" s="8">
         <v>5</v>
@@ -49104,7 +49223,7 @@
         <v>1032</v>
       </c>
       <c r="D811" s="9" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E811" s="8">
         <v>5</v>
@@ -49454,7 +49573,7 @@
         <v>1032</v>
       </c>
       <c r="D825" s="8" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E825" s="8">
         <v>2</v>
@@ -49554,7 +49673,7 @@
         <v>1032</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="E829" s="7">
         <v>2</v>
@@ -49563,7 +49682,7 @@
         <v>4</v>
       </c>
       <c r="G829" s="9" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="H829" s="7"/>
       <c r="I829" s="7"/>
@@ -49604,7 +49723,7 @@
         <v>1032</v>
       </c>
       <c r="D831" s="8" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E831" s="8">
         <v>5</v>
@@ -49654,7 +49773,7 @@
         <v>1032</v>
       </c>
       <c r="D833" s="8" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E833" s="8">
         <v>5</v>
@@ -49779,7 +49898,7 @@
         <v>1032</v>
       </c>
       <c r="D838" s="8" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E838" s="8">
         <v>5</v>
@@ -49829,7 +49948,7 @@
         <v>1032</v>
       </c>
       <c r="D840" s="8" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E840" s="8">
         <v>2</v>
@@ -49879,7 +49998,7 @@
         <v>1032</v>
       </c>
       <c r="D842" s="8" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E842" s="8">
         <v>2</v>
@@ -49929,7 +50048,7 @@
         <v>1032</v>
       </c>
       <c r="D844" s="8" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E844" s="8">
         <v>5</v>
@@ -50029,7 +50148,7 @@
         <v>1032</v>
       </c>
       <c r="D848" s="13" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E848" s="13">
         <v>5</v>
@@ -50108,7 +50227,7 @@
         <v>1144</v>
       </c>
       <c r="D851" s="9" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E851" s="7">
         <v>5</v>
@@ -50117,7 +50236,7 @@
         <v>1</v>
       </c>
       <c r="G851" s="9" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="H851" s="7"/>
       <c r="I851" s="7"/>
@@ -50133,7 +50252,7 @@
         <v>1144</v>
       </c>
       <c r="D852" s="9" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E852" s="7">
         <v>2</v>
@@ -50142,7 +50261,7 @@
         <v>1</v>
       </c>
       <c r="G852" s="9" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="H852" s="7" t="s">
         <v>863</v>
@@ -50162,16 +50281,16 @@
         <v>1032</v>
       </c>
       <c r="D853" s="94" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E853" s="93">
+        <v>2</v>
+      </c>
+      <c r="F853" s="93">
+        <v>1</v>
+      </c>
+      <c r="G853" s="94" t="s">
         <v>1876</v>
-      </c>
-      <c r="E853" s="93">
-        <v>2</v>
-      </c>
-      <c r="F853" s="93">
-        <v>1</v>
-      </c>
-      <c r="G853" s="94" t="s">
-        <v>1877</v>
       </c>
       <c r="H853" s="7"/>
       <c r="I853" s="7"/>
@@ -50196,7 +50315,7 @@
         <v>1</v>
       </c>
       <c r="G854" s="94" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="H854" s="7"/>
       <c r="I854" s="7"/>
@@ -50212,7 +50331,7 @@
         <v>1032</v>
       </c>
       <c r="D855" s="94" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E855" s="93">
         <v>2</v>
@@ -50246,7 +50365,7 @@
         <v>2</v>
       </c>
       <c r="G856" s="94" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="H856" s="7"/>
       <c r="I856" s="7"/>
@@ -50262,7 +50381,7 @@
         <v>1032</v>
       </c>
       <c r="D857" s="94" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E857" s="93">
         <v>2</v>
@@ -50271,7 +50390,7 @@
         <v>3</v>
       </c>
       <c r="G857" s="94" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="H857" s="7"/>
       <c r="I857" s="7"/>
@@ -50296,7 +50415,7 @@
         <v>3</v>
       </c>
       <c r="G858" s="94" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="H858" s="7"/>
       <c r="I858" s="7"/>
@@ -50312,7 +50431,7 @@
         <v>1032</v>
       </c>
       <c r="D859" s="93" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E859" s="93">
         <v>2</v>
@@ -50321,7 +50440,7 @@
         <v>4</v>
       </c>
       <c r="G859" s="94" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="H859" s="7"/>
       <c r="I859" s="7"/>
@@ -50346,7 +50465,7 @@
         <v>4</v>
       </c>
       <c r="G860" s="94" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="861" spans="1:9" s="7" customFormat="1">
@@ -50357,7 +50476,7 @@
         <v>343</v>
       </c>
       <c r="C861" s="48" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D861" s="8">
         <v>1</v>
@@ -50380,10 +50499,10 @@
         <v>343</v>
       </c>
       <c r="C862" s="9" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D862" s="9" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E862" s="7">
         <v>5</v>
@@ -50392,7 +50511,7 @@
         <v>1</v>
       </c>
       <c r="G862" s="9" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="863" spans="1:9" s="93" customFormat="1">
@@ -50403,7 +50522,7 @@
         <v>343</v>
       </c>
       <c r="C863" s="9" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D863" s="7">
         <v>4</v>
@@ -50431,7 +50550,7 @@
         <v>1144</v>
       </c>
       <c r="D864" s="9" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="E864" s="7">
         <v>5</v>
@@ -50440,7 +50559,7 @@
         <v>2</v>
       </c>
       <c r="G864" s="9" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="H864" s="7"/>
       <c r="I864" s="7"/>
@@ -50456,7 +50575,7 @@
         <v>1144</v>
       </c>
       <c r="D865" s="9" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E865" s="7">
         <v>2</v>
@@ -50465,7 +50584,7 @@
         <v>3</v>
       </c>
       <c r="G865" s="9" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="H865" s="7"/>
       <c r="I865" s="7"/>
@@ -50481,7 +50600,7 @@
         <v>1144</v>
       </c>
       <c r="D866" s="9" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E866" s="7">
         <v>2</v>
@@ -50490,7 +50609,7 @@
         <v>4</v>
       </c>
       <c r="G866" s="9" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="H866" s="7"/>
       <c r="I866" s="7"/>
@@ -50506,7 +50625,7 @@
         <v>852</v>
       </c>
       <c r="D867" s="9" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="E867" s="7">
         <v>5</v>
@@ -50556,7 +50675,7 @@
         <v>1032</v>
       </c>
       <c r="D869" s="9" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="E869" s="7">
         <v>2</v>
@@ -50606,7 +50725,7 @@
         <v>852</v>
       </c>
       <c r="D871" s="9" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="E871" s="7">
         <v>2</v>
@@ -50656,7 +50775,7 @@
         <v>1032</v>
       </c>
       <c r="D873" s="9" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E873" s="7">
         <v>2</v>
@@ -50706,7 +50825,7 @@
         <v>1140</v>
       </c>
       <c r="D875" s="9" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E875" s="7">
         <v>2</v>
@@ -50715,7 +50834,7 @@
         <v>1</v>
       </c>
       <c r="G875" s="9" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="H875" s="7"/>
       <c r="I875" s="7"/>
@@ -50731,7 +50850,7 @@
         <v>1032</v>
       </c>
       <c r="D876" s="7" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E876" s="7">
         <v>2</v>
@@ -50740,7 +50859,7 @@
         <v>2</v>
       </c>
       <c r="G876" s="9" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="H876" s="7"/>
       <c r="I876" s="7"/>
@@ -50756,7 +50875,7 @@
         <v>1032</v>
       </c>
       <c r="D877" s="9" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="E877" s="7">
         <v>2</v>
@@ -50765,7 +50884,7 @@
         <v>3</v>
       </c>
       <c r="G877" s="9" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="878" spans="1:9" s="7" customFormat="1">
@@ -50779,7 +50898,7 @@
         <v>1032</v>
       </c>
       <c r="D878" s="9" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E878" s="7">
         <v>2</v>
@@ -50788,7 +50907,7 @@
         <v>4</v>
       </c>
       <c r="G878" s="9" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="7" customFormat="1">
@@ -50802,7 +50921,7 @@
         <v>1144</v>
       </c>
       <c r="D879" s="9" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="E879" s="7">
         <v>2</v>
@@ -50811,7 +50930,7 @@
         <v>1</v>
       </c>
       <c r="G879" s="9" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="880" spans="1:9" s="7" customFormat="1">
@@ -50848,7 +50967,7 @@
         <v>1140</v>
       </c>
       <c r="D881" s="9" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="E881" s="7">
         <v>5</v>
@@ -50857,7 +50976,7 @@
         <v>1</v>
       </c>
       <c r="G881" s="9" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="882" spans="1:9" s="7" customFormat="1">
@@ -50903,7 +51022,7 @@
         <v>1</v>
       </c>
       <c r="G883" s="9" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="884" spans="1:9" s="7" customFormat="1">
@@ -50940,7 +51059,7 @@
         <v>1140</v>
       </c>
       <c r="D885" s="9" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E885" s="7">
         <v>5</v>
@@ -50949,7 +51068,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="9" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="886" spans="1:9" s="7" customFormat="1">
@@ -50963,7 +51082,7 @@
         <v>1140</v>
       </c>
       <c r="D886" s="9" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E886" s="7">
         <v>2</v>
@@ -50972,7 +51091,7 @@
         <v>1</v>
       </c>
       <c r="G886" s="9" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="887" spans="1:9">
@@ -50983,7 +51102,7 @@
         <v>352</v>
       </c>
       <c r="C887" s="9" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D887" s="9" t="s">
         <v>1592</v>
@@ -50995,7 +51114,7 @@
         <v>2</v>
       </c>
       <c r="G887" s="9" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="H887" s="7"/>
       <c r="I887" s="7"/>
@@ -51020,7 +51139,7 @@
         <v>3</v>
       </c>
       <c r="G888" s="9" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="H888" s="7"/>
       <c r="I888" s="7"/>
@@ -51033,19 +51152,19 @@
         <v>353</v>
       </c>
       <c r="C889" s="9" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D889" s="9" t="s">
         <v>1928</v>
       </c>
-      <c r="D889" s="9" t="s">
+      <c r="E889" s="7">
+        <v>2</v>
+      </c>
+      <c r="F889" s="7">
+        <v>1</v>
+      </c>
+      <c r="G889" s="9" t="s">
         <v>1929</v>
-      </c>
-      <c r="E889" s="7">
-        <v>2</v>
-      </c>
-      <c r="F889" s="7">
-        <v>1</v>
-      </c>
-      <c r="G889" s="9" t="s">
-        <v>1930</v>
       </c>
       <c r="H889" s="7"/>
       <c r="I889" s="7"/>
@@ -51070,7 +51189,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="9" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="H890" s="7"/>
       <c r="I890" s="7"/>
@@ -51086,7 +51205,7 @@
         <v>1032</v>
       </c>
       <c r="D891" s="9" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E891" s="7">
         <v>5</v>
@@ -51120,7 +51239,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="H892" s="7"/>
       <c r="I892" s="7"/>
@@ -51170,7 +51289,7 @@
         <v>2</v>
       </c>
       <c r="G894" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="H894" s="7"/>
       <c r="I894" s="7"/>
@@ -51186,7 +51305,7 @@
         <v>1140</v>
       </c>
       <c r="D895" s="9" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E895" s="7">
         <v>2</v>
@@ -51211,7 +51330,7 @@
         <v>1140</v>
       </c>
       <c r="D896" s="9" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E896" s="7">
         <v>5</v>
@@ -51220,7 +51339,7 @@
         <v>1</v>
       </c>
       <c r="G896" s="9" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="H896" s="7"/>
       <c r="I896" s="7"/>
@@ -51245,7 +51364,7 @@
         <v>1</v>
       </c>
       <c r="G897" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="H897" s="7"/>
       <c r="I897" s="7"/>
@@ -51261,7 +51380,7 @@
         <v>1140</v>
       </c>
       <c r="D898" s="9" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E898" s="7">
         <v>5</v>
@@ -51270,7 +51389,7 @@
         <v>1</v>
       </c>
       <c r="G898" s="9" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="H898" s="7"/>
       <c r="I898" s="7"/>
@@ -51295,7 +51414,7 @@
         <v>1</v>
       </c>
       <c r="G899" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="H899" s="7"/>
       <c r="I899" s="7"/>
@@ -51320,7 +51439,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="901" spans="1:9">
@@ -51334,7 +51453,7 @@
         <v>1140</v>
       </c>
       <c r="D901" s="9" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E901" s="7">
         <v>5</v>
@@ -51343,7 +51462,7 @@
         <v>1</v>
       </c>
       <c r="G901" s="9" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="H901" s="7"/>
       <c r="I901" s="7"/>
@@ -51368,7 +51487,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="H902" s="7"/>
       <c r="I902" s="7"/>
@@ -51393,7 +51512,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="H903" s="7"/>
       <c r="I903" s="7"/>
@@ -51409,7 +51528,7 @@
         <v>1140</v>
       </c>
       <c r="D904" s="9" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E904" s="7">
         <v>5</v>
@@ -51418,7 +51537,7 @@
         <v>1</v>
       </c>
       <c r="G904" s="9" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="H904" s="7"/>
       <c r="I904" s="7"/>
@@ -51443,7 +51562,7 @@
         <v>1</v>
       </c>
       <c r="G905" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="H905" s="7"/>
       <c r="I905" s="7"/>
@@ -51459,16 +51578,16 @@
         <v>1140</v>
       </c>
       <c r="D906" s="9" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E906" s="7">
+        <v>2</v>
+      </c>
+      <c r="F906" s="7">
+        <v>1</v>
+      </c>
+      <c r="G906" s="9" t="s">
         <v>1939</v>
-      </c>
-      <c r="E906" s="7">
-        <v>2</v>
-      </c>
-      <c r="F906" s="7">
-        <v>1</v>
-      </c>
-      <c r="G906" s="9" t="s">
-        <v>1940</v>
       </c>
       <c r="H906" s="7"/>
       <c r="I906" s="7"/>
@@ -51493,7 +51612,7 @@
         <v>1</v>
       </c>
       <c r="G907" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="H907" s="7"/>
       <c r="I907" s="7"/>
@@ -51509,16 +51628,16 @@
         <v>1140</v>
       </c>
       <c r="D908" s="9" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E908" s="7">
+        <v>2</v>
+      </c>
+      <c r="F908" s="7">
+        <v>1</v>
+      </c>
+      <c r="G908" s="9" t="s">
         <v>1939</v>
-      </c>
-      <c r="E908" s="7">
-        <v>2</v>
-      </c>
-      <c r="F908" s="7">
-        <v>1</v>
-      </c>
-      <c r="G908" s="9" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="7" customFormat="1">
@@ -51541,7 +51660,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="7" customFormat="1">
@@ -51564,7 +51683,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="7" customFormat="1">
@@ -51578,16 +51697,16 @@
         <v>1140</v>
       </c>
       <c r="D911" s="9" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E911" s="7">
+        <v>2</v>
+      </c>
+      <c r="F911" s="7">
+        <v>1</v>
+      </c>
+      <c r="G911" s="9" t="s">
         <v>1939</v>
-      </c>
-      <c r="E911" s="7">
-        <v>2</v>
-      </c>
-      <c r="F911" s="7">
-        <v>1</v>
-      </c>
-      <c r="G911" s="9" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="7" customFormat="1">
@@ -51610,7 +51729,7 @@
         <v>1</v>
       </c>
       <c r="G912" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="7" customFormat="1">
@@ -51633,7 +51752,7 @@
         <v>1</v>
       </c>
       <c r="G913" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="7" customFormat="1">
@@ -51647,16 +51766,16 @@
         <v>1140</v>
       </c>
       <c r="D914" s="9" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E914" s="7">
+        <v>2</v>
+      </c>
+      <c r="F914" s="7">
+        <v>1</v>
+      </c>
+      <c r="G914" s="9" t="s">
         <v>1939</v>
-      </c>
-      <c r="E914" s="7">
-        <v>2</v>
-      </c>
-      <c r="F914" s="7">
-        <v>1</v>
-      </c>
-      <c r="G914" s="9" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="7" customFormat="1">
@@ -51679,7 +51798,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="916" spans="1:7" s="7" customFormat="1">
@@ -51693,7 +51812,7 @@
         <v>1140</v>
       </c>
       <c r="D916" s="9" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E916" s="7">
         <v>2</v>
@@ -51702,7 +51821,7 @@
         <v>1</v>
       </c>
       <c r="G916" s="9" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="7" customFormat="1">
@@ -51725,7 +51844,7 @@
         <v>1</v>
       </c>
       <c r="G917" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="7" customFormat="1">
@@ -51739,7 +51858,7 @@
         <v>1140</v>
       </c>
       <c r="D918" s="9" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E918" s="7">
         <v>2</v>
@@ -51748,7 +51867,7 @@
         <v>2</v>
       </c>
       <c r="G918" s="9" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="919" spans="1:7" s="7" customFormat="1">
@@ -51771,7 +51890,7 @@
         <v>2</v>
       </c>
       <c r="G919" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="920" spans="1:7" s="7" customFormat="1">
@@ -51794,7 +51913,7 @@
         <v>1</v>
       </c>
       <c r="G920" s="9" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="921" spans="1:7" s="7" customFormat="1">
@@ -51817,7 +51936,7 @@
         <v>1</v>
       </c>
       <c r="G921" s="9" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="922" spans="1:7" s="7" customFormat="1">
@@ -51840,7 +51959,7 @@
         <v>1</v>
       </c>
       <c r="G922" s="7" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="923" spans="1:7" s="7" customFormat="1">
@@ -51854,7 +51973,7 @@
         <v>1140</v>
       </c>
       <c r="D923" s="9" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E923" s="7">
         <v>2</v>
@@ -51863,7 +51982,7 @@
         <v>1</v>
       </c>
       <c r="G923" s="9" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="924" spans="1:7" s="7" customFormat="1">
@@ -51874,19 +51993,19 @@
         <v>368</v>
       </c>
       <c r="C924" s="9" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D924" s="9" t="s">
         <v>1966</v>
       </c>
-      <c r="D924" s="9" t="s">
+      <c r="E924" s="7">
+        <v>2</v>
+      </c>
+      <c r="F924" s="7">
+        <v>2</v>
+      </c>
+      <c r="G924" s="9" t="s">
         <v>1967</v>
-      </c>
-      <c r="E924" s="7">
-        <v>2</v>
-      </c>
-      <c r="F924" s="7">
-        <v>2</v>
-      </c>
-      <c r="G924" s="9" t="s">
-        <v>1968</v>
       </c>
     </row>
     <row r="925" spans="1:7" s="7" customFormat="1">
@@ -51900,7 +52019,7 @@
         <v>1140</v>
       </c>
       <c r="D925" s="9" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E925" s="7">
         <v>2</v>
@@ -51909,7 +52028,7 @@
         <v>1</v>
       </c>
       <c r="G925" s="9" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="926" spans="1:7" s="7" customFormat="1">
@@ -51923,7 +52042,7 @@
         <v>1140</v>
       </c>
       <c r="D926" s="9" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E926" s="7">
         <v>5</v>
@@ -51932,7 +52051,7 @@
         <v>2</v>
       </c>
       <c r="G926" s="9" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="927" spans="1:7" s="7" customFormat="1">
@@ -51946,7 +52065,7 @@
         <v>1140</v>
       </c>
       <c r="D927" s="9" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E927" s="7">
         <v>5</v>
@@ -51969,7 +52088,7 @@
         <v>1140</v>
       </c>
       <c r="D928" s="9" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E928" s="7">
         <v>2</v>
@@ -51992,7 +52111,7 @@
         <v>1140</v>
       </c>
       <c r="D929" s="20" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E929" s="19">
         <v>5</v>
@@ -52015,7 +52134,7 @@
         <v>1140</v>
       </c>
       <c r="D930" s="20" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E930" s="19">
         <v>2</v>
@@ -52035,10 +52154,10 @@
         <v>374</v>
       </c>
       <c r="C931" s="9" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D931" s="9" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E931" s="7">
         <v>5</v>
@@ -52047,7 +52166,7 @@
         <v>1</v>
       </c>
       <c r="G931" s="9" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="932" spans="1:8" s="7" customFormat="1">
@@ -52058,7 +52177,7 @@
         <v>375</v>
       </c>
       <c r="C932" s="9" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D932" s="9" t="s">
         <v>1592</v>
@@ -52070,7 +52189,7 @@
         <v>1</v>
       </c>
       <c r="G932" s="9" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="933" spans="1:8" s="7" customFormat="1">
@@ -52081,10 +52200,10 @@
         <v>375</v>
       </c>
       <c r="C933" s="9" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D933" s="9" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E933" s="7">
         <v>2</v>
@@ -52093,7 +52212,7 @@
         <v>2</v>
       </c>
       <c r="G933" s="9" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="934" spans="1:8" s="7" customFormat="1">
@@ -52107,7 +52226,7 @@
         <v>1140</v>
       </c>
       <c r="D934" s="9" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="E934" s="7">
         <v>2</v>
@@ -52116,7 +52235,7 @@
         <v>3</v>
       </c>
       <c r="G934" s="9" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="935" spans="1:8" s="7" customFormat="1">
@@ -52130,7 +52249,7 @@
         <v>1140</v>
       </c>
       <c r="D935" s="9" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="E935" s="7">
         <v>2</v>
@@ -52139,7 +52258,7 @@
         <v>4</v>
       </c>
       <c r="G935" s="9" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="936" spans="1:8" s="7" customFormat="1">
@@ -52150,7 +52269,7 @@
         <v>376</v>
       </c>
       <c r="C936" s="9" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D936" s="9" t="s">
         <v>1806</v>
@@ -52162,7 +52281,7 @@
         <v>1</v>
       </c>
       <c r="G936" s="9" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="937" spans="1:8" s="7" customFormat="1">
@@ -52176,7 +52295,7 @@
         <v>1140</v>
       </c>
       <c r="D937" s="9" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="E937" s="7">
         <v>2</v>
@@ -52185,7 +52304,7 @@
         <v>2</v>
       </c>
       <c r="G937" s="9" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="938" spans="1:8" s="7" customFormat="1">
@@ -52196,10 +52315,10 @@
         <v>377</v>
       </c>
       <c r="C938" s="9" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D938" s="9" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E938" s="7">
         <v>2</v>
@@ -52208,7 +52327,7 @@
         <v>1</v>
       </c>
       <c r="G938" s="9" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="939" spans="1:8" s="7" customFormat="1">
@@ -52219,10 +52338,10 @@
         <v>378</v>
       </c>
       <c r="C939" s="9" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D939" s="9" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="E939" s="7">
         <v>2</v>
@@ -52231,7 +52350,7 @@
         <v>1</v>
       </c>
       <c r="G939" s="9" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="940" spans="1:8" s="7" customFormat="1">
@@ -52245,7 +52364,7 @@
         <v>1141</v>
       </c>
       <c r="D940" s="9" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E940" s="7">
         <v>2</v>
@@ -52254,7 +52373,7 @@
         <v>1</v>
       </c>
       <c r="G940" s="9" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="941" spans="1:8" s="7" customFormat="1">
@@ -52277,7 +52396,7 @@
         <v>1</v>
       </c>
       <c r="G941" s="9" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -52300,7 +52419,7 @@
         <v>1</v>
       </c>
       <c r="G942" s="7" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="H942" s="7"/>
     </row>
@@ -52312,19 +52431,19 @@
         <v>380</v>
       </c>
       <c r="C943" s="7" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D943" s="103" t="s">
         <v>2010</v>
       </c>
-      <c r="D943" s="103" t="s">
+      <c r="E943" s="7">
+        <v>2</v>
+      </c>
+      <c r="F943" s="7">
+        <v>1</v>
+      </c>
+      <c r="G943" s="7" t="s">
         <v>2011</v>
-      </c>
-      <c r="E943" s="7">
-        <v>2</v>
-      </c>
-      <c r="F943" s="7">
-        <v>1</v>
-      </c>
-      <c r="G943" s="7" t="s">
-        <v>2012</v>
       </c>
       <c r="H943" s="7"/>
     </row>
@@ -52339,7 +52458,7 @@
         <v>1032</v>
       </c>
       <c r="D944" s="7" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E944" s="7">
         <v>2</v>
@@ -52348,7 +52467,7 @@
         <v>2</v>
       </c>
       <c r="G944" s="9" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H944" s="7"/>
     </row>
@@ -52360,19 +52479,19 @@
         <v>380</v>
       </c>
       <c r="C945" s="7" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D945" s="9" t="s">
         <v>2014</v>
       </c>
-      <c r="D945" s="9" t="s">
+      <c r="E945" s="7">
+        <v>2</v>
+      </c>
+      <c r="F945" s="7">
+        <v>2</v>
+      </c>
+      <c r="G945" s="7" t="s">
         <v>2015</v>
-      </c>
-      <c r="E945" s="7">
-        <v>2</v>
-      </c>
-      <c r="F945" s="7">
-        <v>2</v>
-      </c>
-      <c r="G945" s="7" t="s">
-        <v>2016</v>
       </c>
       <c r="H945" s="7"/>
     </row>
@@ -52396,7 +52515,7 @@
         <v>1</v>
       </c>
       <c r="G946" s="9" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -52443,7 +52562,7 @@
         <v>2</v>
       </c>
       <c r="G948" s="9" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H948" s="7"/>
     </row>
@@ -52467,7 +52586,7 @@
         <v>3</v>
       </c>
       <c r="G949" s="9" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="H949" s="7"/>
     </row>
@@ -52491,7 +52610,7 @@
         <v>1</v>
       </c>
       <c r="G950" s="9" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="H950" s="7"/>
     </row>
@@ -52515,7 +52634,7 @@
         <v>1</v>
       </c>
       <c r="G951" s="9" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="H951" s="7"/>
     </row>
@@ -52539,7 +52658,7 @@
         <v>1</v>
       </c>
       <c r="G952" s="9" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="H952" s="7"/>
     </row>
@@ -52563,7 +52682,7 @@
         <v>1</v>
       </c>
       <c r="G953" s="9" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="H953" s="7"/>
     </row>
@@ -52587,7 +52706,7 @@
         <v>1</v>
       </c>
       <c r="G954" s="9" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="H954" s="7"/>
     </row>
@@ -52611,7 +52730,7 @@
         <v>1</v>
       </c>
       <c r="G955" s="9" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="H955" s="7"/>
     </row>
@@ -52635,7 +52754,7 @@
         <v>1</v>
       </c>
       <c r="G956" s="9" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="957" spans="1:8" s="7" customFormat="1">
@@ -52646,7 +52765,7 @@
         <v>386</v>
       </c>
       <c r="C957" s="9" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D957" s="9">
         <v>1</v>
@@ -52658,7 +52777,7 @@
         <v>1</v>
       </c>
       <c r="G957" s="9" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -52681,7 +52800,7 @@
         <v>1</v>
       </c>
       <c r="G958" s="8" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="959" spans="1:8" s="7" customFormat="1">
@@ -52692,10 +52811,10 @@
         <v>388</v>
       </c>
       <c r="C959" s="9" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D959" s="9" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="E959" s="7">
         <v>5</v>
@@ -52715,10 +52834,10 @@
         <v>388</v>
       </c>
       <c r="C960" s="9" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D960" s="9" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="E960" s="7">
         <v>2</v>
@@ -52773,7 +52892,7 @@
         <v>2</v>
       </c>
       <c r="G962" s="9" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="963" spans="1:7" s="7" customFormat="1">
@@ -52796,7 +52915,7 @@
         <v>1</v>
       </c>
       <c r="G963" s="9" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="964" spans="1:7" s="7" customFormat="1">
@@ -52819,7 +52938,7 @@
         <v>1</v>
       </c>
       <c r="G964" s="9" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="965" spans="1:7" s="7" customFormat="1">
@@ -52842,7 +52961,7 @@
         <v>1</v>
       </c>
       <c r="G965" s="9" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="966" spans="1:7" s="7" customFormat="1">
@@ -52865,7 +52984,7 @@
         <v>1</v>
       </c>
       <c r="G966" s="9" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="967" spans="1:7" s="7" customFormat="1">
@@ -52876,7 +52995,7 @@
         <v>391</v>
       </c>
       <c r="C967" s="9" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D967" s="7">
         <v>12</v>
@@ -52888,7 +53007,7 @@
         <v>1</v>
       </c>
       <c r="G967" s="9" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="968" spans="1:7" s="7" customFormat="1">
@@ -52911,7 +53030,7 @@
         <v>1</v>
       </c>
       <c r="G968" s="9" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="969" spans="1:7" s="7" customFormat="1">
@@ -52934,7 +53053,7 @@
         <v>1</v>
       </c>
       <c r="G969" s="7" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="970" spans="1:7" s="7" customFormat="1">
@@ -52948,7 +53067,7 @@
         <v>1141</v>
       </c>
       <c r="D970" s="9" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E970" s="7">
         <v>5</v>
@@ -52957,7 +53076,7 @@
         <v>1</v>
       </c>
       <c r="G970" s="9" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="971" spans="1:7" s="7" customFormat="1">
@@ -52971,7 +53090,7 @@
         <v>1141</v>
       </c>
       <c r="D971" s="9" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E971" s="7">
         <v>2</v>
@@ -52980,7 +53099,7 @@
         <v>1</v>
       </c>
       <c r="G971" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="972" spans="1:7" s="7" customFormat="1">
@@ -52994,7 +53113,7 @@
         <v>1140</v>
       </c>
       <c r="D972" s="9" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E972" s="7">
         <v>2</v>
@@ -53003,7 +53122,7 @@
         <v>1</v>
       </c>
       <c r="G972" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="973" spans="1:7" s="7" customFormat="1">
@@ -53026,7 +53145,7 @@
         <v>1</v>
       </c>
       <c r="G973" s="7" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="974" spans="1:7" s="7" customFormat="1">
@@ -53040,7 +53159,7 @@
         <v>1140</v>
       </c>
       <c r="D974" s="63" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E974" s="7">
         <v>2</v>
@@ -53049,7 +53168,7 @@
         <v>2</v>
       </c>
       <c r="G974" s="9" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="975" spans="1:7" s="7" customFormat="1">
@@ -53063,7 +53182,7 @@
         <v>1140</v>
       </c>
       <c r="D975" s="63" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E975" s="7">
         <v>5</v>
@@ -53072,7 +53191,7 @@
         <v>2</v>
       </c>
       <c r="G975" s="9" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="976" spans="1:7" s="7" customFormat="1">
@@ -53109,7 +53228,7 @@
         <v>1140</v>
       </c>
       <c r="D977" s="63" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E977" s="7">
         <v>2</v>
@@ -53118,7 +53237,7 @@
         <v>2</v>
       </c>
       <c r="G977" s="9" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="978" spans="1:9" s="7" customFormat="1">
@@ -53155,7 +53274,7 @@
         <v>1140</v>
       </c>
       <c r="D979" s="20" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E979" s="19">
         <v>5</v>
@@ -53164,7 +53283,7 @@
         <v>1</v>
       </c>
       <c r="G979" s="20" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="H979" s="7"/>
       <c r="I979" s="7"/>
@@ -53189,7 +53308,7 @@
         <v>1</v>
       </c>
       <c r="G980" s="20" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="H980" s="7"/>
       <c r="I980" s="7"/>
@@ -53205,7 +53324,7 @@
         <v>1140</v>
       </c>
       <c r="D981" s="20" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E981" s="19">
         <v>2</v>
@@ -53214,7 +53333,7 @@
         <v>1</v>
       </c>
       <c r="G981" s="20" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="H981" s="7" t="s">
         <v>863</v>
@@ -53243,7 +53362,7 @@
         <v>1</v>
       </c>
       <c r="G982" s="20" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="H982" s="7" t="s">
         <v>863</v>
@@ -53272,7 +53391,7 @@
         <v>1</v>
       </c>
       <c r="G983" s="20" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="984" spans="1:9" s="7" customFormat="1">
@@ -53295,7 +53414,7 @@
         <v>1</v>
       </c>
       <c r="G984" s="20" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="985" spans="1:9" s="7" customFormat="1">
@@ -53318,7 +53437,7 @@
         <v>1</v>
       </c>
       <c r="G985" s="7" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="986" spans="1:9" s="7" customFormat="1">
@@ -53341,7 +53460,7 @@
         <v>1</v>
       </c>
       <c r="G986" s="9" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="987" spans="1:9" s="7" customFormat="1">
@@ -53364,7 +53483,7 @@
         <v>1</v>
       </c>
       <c r="G987" s="7" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="988" spans="1:9" s="7" customFormat="1">
@@ -53378,7 +53497,7 @@
         <v>1140</v>
       </c>
       <c r="D988" s="94" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E988" s="7">
         <v>2</v>
@@ -53387,7 +53506,7 @@
         <v>1</v>
       </c>
       <c r="G988" s="9" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="989" spans="1:9">
@@ -53410,7 +53529,7 @@
         <v>1</v>
       </c>
       <c r="G989" s="48" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="990" spans="1:9">
@@ -53433,7 +53552,7 @@
         <v>1</v>
       </c>
       <c r="G990" s="20" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="991" spans="1:9">
@@ -53447,7 +53566,7 @@
         <v>1140</v>
       </c>
       <c r="D991" s="20" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E991" s="19">
         <v>5</v>
@@ -53456,7 +53575,7 @@
         <v>1</v>
       </c>
       <c r="G991" s="20" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="992" spans="1:9">
@@ -53479,7 +53598,7 @@
         <v>1</v>
       </c>
       <c r="G992" s="20" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="993" spans="1:7">
@@ -53493,7 +53612,7 @@
         <v>1140</v>
       </c>
       <c r="D993" s="20" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E993" s="19">
         <v>5</v>
@@ -53502,7 +53621,7 @@
         <v>1</v>
       </c>
       <c r="G993" s="20" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="994" spans="1:7">
@@ -53525,7 +53644,7 @@
         <v>1</v>
       </c>
       <c r="G994" s="20" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="995" spans="1:7">
@@ -53539,7 +53658,7 @@
         <v>1140</v>
       </c>
       <c r="D995" s="20" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E995" s="19">
         <v>2</v>
@@ -53548,7 +53667,7 @@
         <v>1</v>
       </c>
       <c r="G995" s="20" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="996" spans="1:7">
@@ -53571,7 +53690,7 @@
         <v>1</v>
       </c>
       <c r="G996" s="20" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="997" spans="1:7">
@@ -53585,7 +53704,7 @@
         <v>1140</v>
       </c>
       <c r="D997" s="20" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E997" s="19">
         <v>2</v>
@@ -53594,7 +53713,7 @@
         <v>1</v>
       </c>
       <c r="G997" s="20" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="998" spans="1:7">
@@ -53962,7 +54081,7 @@
         <v>1</v>
       </c>
       <c r="G1013" s="8" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1014" spans="1:7">
@@ -54022,7 +54141,7 @@
         <v>1140</v>
       </c>
       <c r="D1016" s="92" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E1016" s="91">
         <v>5</v>
@@ -54068,7 +54187,7 @@
         <v>1140</v>
       </c>
       <c r="D1018" s="92" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E1018" s="91">
         <v>5</v>
@@ -54114,7 +54233,7 @@
         <v>1140</v>
       </c>
       <c r="D1020" s="92" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E1020" s="91">
         <v>5</v>
@@ -54146,7 +54265,7 @@
         <v>1</v>
       </c>
       <c r="G1021" s="92" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1022" spans="1:7">
@@ -54206,7 +54325,7 @@
         <v>1140</v>
       </c>
       <c r="D1024" s="92" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E1024" s="91">
         <v>5</v>
@@ -54238,7 +54357,7 @@
         <v>1</v>
       </c>
       <c r="G1025" s="92" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1026" spans="1:7">
@@ -54298,7 +54417,7 @@
         <v>1140</v>
       </c>
       <c r="D1028" s="92" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E1028" s="91">
         <v>5</v>
@@ -54330,7 +54449,7 @@
         <v>1</v>
       </c>
       <c r="G1029" s="92" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1030" spans="1:7">
@@ -54390,7 +54509,7 @@
         <v>1140</v>
       </c>
       <c r="D1032" s="92" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E1032" s="91">
         <v>5</v>
@@ -54413,7 +54532,7 @@
         <v>1140</v>
       </c>
       <c r="D1033" s="92" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E1033" s="91">
         <v>5</v>
@@ -54436,7 +54555,7 @@
         <v>1140</v>
       </c>
       <c r="D1034" s="92" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E1034" s="91">
         <v>5</v>
@@ -54459,7 +54578,7 @@
         <v>1140</v>
       </c>
       <c r="D1035" s="92" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E1035" s="91">
         <v>5</v>
@@ -54482,7 +54601,7 @@
         <v>1140</v>
       </c>
       <c r="D1036" s="92" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E1036" s="91">
         <v>5</v>
@@ -54514,7 +54633,7 @@
         <v>1</v>
       </c>
       <c r="G1037" s="92" t="s">
-        <v>2273</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1038" spans="1:7">
@@ -54528,7 +54647,7 @@
         <v>1140</v>
       </c>
       <c r="D1038" s="96" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E1038" s="95">
         <v>5</v>
@@ -54551,7 +54670,7 @@
         <v>1140</v>
       </c>
       <c r="D1039" s="96" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E1039" s="95">
         <v>2</v>
@@ -54586,7 +54705,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="1041" spans="1:7">
+    <row r="1041" spans="1:9">
       <c r="A1041" s="7">
         <v>1040</v>
       </c>
@@ -54597,7 +54716,7 @@
         <v>1140</v>
       </c>
       <c r="D1041" s="92" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E1041" s="91">
         <v>5</v>
@@ -54609,7 +54728,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="1042" spans="1:7">
+    <row r="1042" spans="1:9">
       <c r="A1042" s="7">
         <v>1041</v>
       </c>
@@ -54632,7 +54751,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="1043" spans="1:7">
+    <row r="1043" spans="1:9">
       <c r="A1043" s="7">
         <v>1042</v>
       </c>
@@ -54643,7 +54762,7 @@
         <v>1140</v>
       </c>
       <c r="D1043" s="92" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E1043" s="91">
         <v>5</v>
@@ -54655,7 +54774,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="1044" spans="1:7">
+    <row r="1044" spans="1:9">
       <c r="A1044" s="7">
         <v>1043</v>
       </c>
@@ -54678,7 +54797,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="1045" spans="1:7">
+    <row r="1045" spans="1:9">
       <c r="A1045" s="7">
         <v>1044</v>
       </c>
@@ -54689,7 +54808,7 @@
         <v>1140</v>
       </c>
       <c r="D1045" s="92" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E1045" s="91">
         <v>2</v>
@@ -54698,10 +54817,10 @@
         <v>1</v>
       </c>
       <c r="G1045" s="92" t="s">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:7">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:9">
       <c r="A1046" s="7">
         <v>1045</v>
       </c>
@@ -54724,7 +54843,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="1047" spans="1:7">
+    <row r="1047" spans="1:9">
       <c r="A1047" s="7">
         <v>1046</v>
       </c>
@@ -54735,7 +54854,7 @@
         <v>1140</v>
       </c>
       <c r="D1047" s="92" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E1047" s="91">
         <v>2</v>
@@ -54744,10 +54863,10 @@
         <v>1</v>
       </c>
       <c r="G1047" s="92" t="s">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:7">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:9">
       <c r="A1048" s="7">
         <v>1047</v>
       </c>
@@ -54769,6 +54888,202 @@
       <c r="G1048" s="8" t="s">
         <v>2265</v>
       </c>
+    </row>
+    <row r="1049" spans="1:9">
+      <c r="A1049" s="7">
+        <v>1048</v>
+      </c>
+      <c r="B1049" s="8">
+        <v>433</v>
+      </c>
+      <c r="C1049" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1049" s="92" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E1049" s="91">
+        <v>2</v>
+      </c>
+      <c r="F1049" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1049" s="92" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:9">
+      <c r="A1050" s="7">
+        <v>1049</v>
+      </c>
+      <c r="B1050" s="8">
+        <v>434</v>
+      </c>
+      <c r="C1050" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1050" s="92" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E1050" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1050" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1050" s="92" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:9" s="93" customFormat="1">
+      <c r="A1051" s="7">
+        <v>1050</v>
+      </c>
+      <c r="B1051" s="7">
+        <v>435</v>
+      </c>
+      <c r="C1051" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1051" s="9" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E1051" s="7">
+        <v>5</v>
+      </c>
+      <c r="F1051" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1051" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="H1051" s="7"/>
+      <c r="I1051" s="7"/>
+    </row>
+    <row r="1052" spans="1:9" s="93" customFormat="1">
+      <c r="A1052" s="7">
+        <v>1051</v>
+      </c>
+      <c r="B1052" s="7">
+        <v>435</v>
+      </c>
+      <c r="C1052" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1052" s="9" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E1052" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1052" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1052" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H1052" s="7"/>
+      <c r="I1052" s="7"/>
+    </row>
+    <row r="1053" spans="1:9" s="93" customFormat="1">
+      <c r="A1053" s="7">
+        <v>1052</v>
+      </c>
+      <c r="B1053" s="7">
+        <v>435</v>
+      </c>
+      <c r="C1053" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D1053" s="9" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E1053" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1053" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1053" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H1053" s="7"/>
+      <c r="I1053" s="7"/>
+    </row>
+    <row r="1054" spans="1:9" s="93" customFormat="1">
+      <c r="A1054" s="7">
+        <v>1053</v>
+      </c>
+      <c r="B1054" s="7">
+        <v>435</v>
+      </c>
+      <c r="C1054" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="D1054" s="7">
+        <v>600</v>
+      </c>
+      <c r="E1054" s="7">
+        <v>3</v>
+      </c>
+      <c r="F1054" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1054" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H1054" s="7"/>
+      <c r="I1054" s="7"/>
+    </row>
+    <row r="1055" spans="1:9">
+      <c r="A1055" s="7">
+        <v>1054</v>
+      </c>
+      <c r="B1055" s="8">
+        <v>436</v>
+      </c>
+      <c r="C1055" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D1055" s="8" t="s">
+        <v>2286</v>
+      </c>
+      <c r="E1055" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1055" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1055" s="8" t="s">
+        <v>2287</v>
+      </c>
+      <c r="H1055" s="7"/>
+      <c r="I1055" s="7"/>
+    </row>
+    <row r="1056" spans="1:9">
+      <c r="A1056" s="7">
+        <v>1055</v>
+      </c>
+      <c r="B1056" s="8">
+        <v>437</v>
+      </c>
+      <c r="C1056" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D1056" s="8" t="s">
+        <v>2288</v>
+      </c>
+      <c r="E1056" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1056" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1056" s="8" t="s">
+        <v>2289</v>
+      </c>
+      <c r="H1056" s="7"/>
+      <c r="I1056" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -54783,7 +55098,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54923,7 +55238,7 @@
         <v>884</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>2271</v>
+        <v>2278</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -54946,7 +55261,7 @@
         <v>1065</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -54986,13 +55301,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -55038,7 +55353,7 @@
         <v>884</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -55055,13 +55370,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -55084,7 +55399,7 @@
         <v>884</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -55093,7 +55408,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -55107,7 +55422,7 @@
         <v>884</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>2272</v>
+        <v>2143</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -55116,7 +55431,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -55124,13 +55439,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>2270</v>
+        <v>2277</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -55139,7 +55454,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="16" spans="1:7">

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5166" uniqueCount="2231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5163" uniqueCount="2229">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8517,10 +8517,6 @@
     <t>3dby_cpl</t>
   </si>
   <si>
-    <t>是cpl渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>必须在2020年11月10日8:30后第一次登录</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9947,10 +9943,6 @@
   </si>
   <si>
     <t>byam_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -12093,7 +12085,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C59" s="8">
         <v>22</v>
@@ -12108,7 +12100,7 @@
         <v>112</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C60" s="8">
         <v>22</v>
@@ -12123,7 +12115,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C61" s="8">
         <v>22</v>
@@ -12138,7 +12130,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C62" s="8">
         <v>24</v>
@@ -12152,7 +12144,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C63" s="8">
         <v>22</v>
@@ -12166,7 +12158,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C64" s="8">
         <v>22</v>
@@ -12181,7 +12173,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="48" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C65" s="52">
         <v>22</v>
@@ -12196,7 +12188,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="48" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C66" s="52">
         <v>23</v>
@@ -12210,7 +12202,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="48" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C67" s="8">
         <v>24</v>
@@ -12228,7 +12220,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="48" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C68" s="8">
         <v>25</v>
@@ -12279,7 +12271,7 @@
         <v>124</v>
       </c>
       <c r="B71" s="48" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -12315,7 +12307,7 @@
         <v>126</v>
       </c>
       <c r="B73" s="48" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C73" s="52">
         <v>22</v>
@@ -12454,7 +12446,7 @@
         <v>135</v>
       </c>
       <c r="B82" s="48" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C82" s="8">
         <v>26</v>
@@ -13640,7 +13632,7 @@
     </row>
     <row r="200" spans="1:10" s="60" customFormat="1">
       <c r="A200" s="59" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B200" s="59" t="s">
         <v>320</v>
@@ -14978,7 +14970,7 @@
         <v>1360</v>
       </c>
       <c r="B349" s="26" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C349" s="2">
         <v>226</v>
@@ -15052,10 +15044,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="26" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B356" s="26" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C356" s="2">
         <v>343</v>
@@ -15217,7 +15209,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="26" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B383" s="26" t="s">
         <v>1711</v>
@@ -15415,10 +15407,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="26" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B407" s="26" t="s">
         <v>1823</v>
-      </c>
-      <c r="B407" s="26" t="s">
-        <v>1824</v>
       </c>
       <c r="C407" s="2">
         <v>339</v>
@@ -15426,10 +15418,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B409" s="2" t="s">
         <v>1828</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>1829</v>
       </c>
       <c r="C409" s="2">
         <v>326</v>
@@ -15437,37 +15429,37 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="30" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B411" s="9" t="s">
         <v>1830</v>
-      </c>
-      <c r="B411" s="9" t="s">
-        <v>1831</v>
       </c>
       <c r="C411" s="8"/>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="17" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B412" s="9" t="s">
         <v>1832</v>
-      </c>
-      <c r="B412" s="9" t="s">
-        <v>1833</v>
       </c>
       <c r="C412" s="8"/>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="17" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B413" s="9" t="s">
         <v>1834</v>
-      </c>
-      <c r="B413" s="9" t="s">
-        <v>1835</v>
       </c>
       <c r="C413" s="8"/>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="17" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B414" s="9" t="s">
         <v>1836</v>
-      </c>
-      <c r="B414" s="9" t="s">
-        <v>1837</v>
       </c>
       <c r="C414" s="52">
         <v>22</v>
@@ -15475,10 +15467,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="17" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B415" s="9" t="s">
         <v>1838</v>
-      </c>
-      <c r="B415" s="9" t="s">
-        <v>1839</v>
       </c>
       <c r="C415" s="52">
         <v>22</v>
@@ -15486,10 +15478,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="17" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B416" s="9" t="s">
         <v>1840</v>
-      </c>
-      <c r="B416" s="9" t="s">
-        <v>1841</v>
       </c>
       <c r="C416" s="52">
         <v>22</v>
@@ -15497,10 +15489,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="17" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B417" s="9" t="s">
         <v>1842</v>
-      </c>
-      <c r="B417" s="9" t="s">
-        <v>1843</v>
       </c>
       <c r="C417" s="52">
         <v>23</v>
@@ -15508,10 +15500,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="17" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B418" s="9" t="s">
         <v>1844</v>
-      </c>
-      <c r="B418" s="9" t="s">
-        <v>1845</v>
       </c>
       <c r="C418" s="52">
         <v>23</v>
@@ -15519,10 +15511,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="17" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B419" s="9" t="s">
         <v>1846</v>
-      </c>
-      <c r="B419" s="9" t="s">
-        <v>1847</v>
       </c>
       <c r="C419" s="8">
         <v>24</v>
@@ -15530,10 +15522,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="17" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B420" s="9" t="s">
         <v>1848</v>
-      </c>
-      <c r="B420" s="9" t="s">
-        <v>1849</v>
       </c>
       <c r="C420" s="8">
         <v>25</v>
@@ -15541,10 +15533,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="17" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B421" s="9" t="s">
         <v>1850</v>
-      </c>
-      <c r="B421" s="9" t="s">
-        <v>1851</v>
       </c>
       <c r="C421" s="8">
         <v>26</v>
@@ -15552,10 +15544,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="17" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B422" s="9" t="s">
         <v>1852</v>
-      </c>
-      <c r="B422" s="9" t="s">
-        <v>1853</v>
       </c>
       <c r="C422" s="8">
         <v>26</v>
@@ -15563,10 +15555,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="17" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B423" s="9" t="s">
         <v>1854</v>
-      </c>
-      <c r="B423" s="9" t="s">
-        <v>1855</v>
       </c>
       <c r="C423" s="8">
         <v>26</v>
@@ -15574,10 +15566,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="26" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B425" s="26" t="s">
         <v>1858</v>
-      </c>
-      <c r="B425" s="26" t="s">
-        <v>1859</v>
       </c>
       <c r="C425" s="2">
         <v>342</v>
@@ -15585,10 +15577,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="26" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B427" s="26" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C427" s="2">
         <v>344</v>
@@ -15596,10 +15588,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="26" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B428" s="26" t="s">
         <v>1911</v>
-      </c>
-      <c r="B428" s="26" t="s">
-        <v>1912</v>
       </c>
       <c r="C428" s="2">
         <v>345</v>
@@ -15607,10 +15599,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="26" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B430" s="26" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C430" s="2">
         <v>346</v>
@@ -15618,10 +15610,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="26" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B432" s="26" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="C432" s="2">
         <v>347</v>
@@ -15629,10 +15621,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="26" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B433" s="26" t="s">
         <v>1900</v>
-      </c>
-      <c r="B433" s="26" t="s">
-        <v>1901</v>
       </c>
       <c r="C433" s="2">
         <v>348</v>
@@ -15640,10 +15632,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="26" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B435" s="26" t="s">
         <v>1916</v>
-      </c>
-      <c r="B435" s="26" t="s">
-        <v>1917</v>
       </c>
       <c r="C435" s="2">
         <v>351</v>
@@ -15651,10 +15643,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="26" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B436" s="26" t="s">
         <v>1918</v>
-      </c>
-      <c r="B436" s="26" t="s">
-        <v>1919</v>
       </c>
       <c r="C436" s="2">
         <v>352</v>
@@ -15662,10 +15654,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="26" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B438" s="26" t="s">
         <v>1927</v>
-      </c>
-      <c r="B438" s="26" t="s">
-        <v>1928</v>
       </c>
       <c r="C438" s="2">
         <v>353</v>
@@ -15673,10 +15665,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="2" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C440" s="2">
         <v>354</v>
@@ -15684,10 +15676,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="26" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B442" s="26" t="s">
         <v>1936</v>
-      </c>
-      <c r="B442" s="26" t="s">
-        <v>1937</v>
       </c>
       <c r="C442" s="2">
         <v>355</v>
@@ -15699,10 +15691,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="26" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B444" s="26" t="s">
         <v>1964</v>
-      </c>
-      <c r="B444" s="26" t="s">
-        <v>1965</v>
       </c>
       <c r="C444" s="2">
         <v>368</v>
@@ -15710,10 +15702,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="71" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B446" s="26" t="s">
         <v>1970</v>
-      </c>
-      <c r="B446" s="26" t="s">
-        <v>1971</v>
       </c>
       <c r="C446" s="2">
         <v>356</v>
@@ -15721,10 +15713,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="71" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B447" s="26" t="s">
         <v>1972</v>
-      </c>
-      <c r="B447" s="26" t="s">
-        <v>1973</v>
       </c>
       <c r="C447" s="2">
         <v>360</v>
@@ -15732,10 +15724,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C449" s="2">
         <v>369</v>
@@ -15743,10 +15735,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="26" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B451" s="26" t="s">
         <v>1988</v>
-      </c>
-      <c r="B451" s="26" t="s">
-        <v>1989</v>
       </c>
       <c r="C451" s="2">
         <v>374</v>
@@ -15754,10 +15746,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="26" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B453" s="26" t="s">
         <v>1994</v>
-      </c>
-      <c r="B453" s="26" t="s">
-        <v>1995</v>
       </c>
       <c r="C453" s="2">
         <v>375</v>
@@ -15765,10 +15757,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="26" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B454" s="26" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C454" s="2">
         <v>376</v>
@@ -15776,10 +15768,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="26" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B455" s="26" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C455" s="2">
         <v>377</v>
@@ -15787,10 +15779,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="26" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B456" s="26" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C456" s="2">
         <v>378</v>
@@ -15798,10 +15790,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="26" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B458" s="26" t="s">
         <v>2004</v>
-      </c>
-      <c r="B458" s="26" t="s">
-        <v>2005</v>
       </c>
       <c r="C458" s="2">
         <v>379</v>
@@ -15809,10 +15801,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B460" s="2" t="s">
         <v>2019</v>
-      </c>
-      <c r="B460" s="2" t="s">
-        <v>2020</v>
       </c>
       <c r="C460" s="2">
         <v>381</v>
@@ -15820,10 +15812,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="26" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B462" s="26" t="s">
         <v>2031</v>
-      </c>
-      <c r="B462" s="26" t="s">
-        <v>2032</v>
       </c>
       <c r="C462" s="2">
         <v>385</v>
@@ -15831,10 +15823,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="26" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B463" s="26" t="s">
         <v>2033</v>
-      </c>
-      <c r="B463" s="26" t="s">
-        <v>2034</v>
       </c>
       <c r="C463" s="2">
         <v>386</v>
@@ -15842,18 +15834,18 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="2" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="2" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B466" s="26" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C466" s="2">
         <v>22</v>
@@ -15861,10 +15853,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="2" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B467" s="26" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C467" s="2">
         <v>23</v>
@@ -15872,10 +15864,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="2" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B468" s="26" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C468" s="2">
         <v>24</v>
@@ -15883,10 +15875,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="2" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B469" s="26" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C469" s="2">
         <v>26</v>
@@ -15894,10 +15886,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B471" s="2" t="s">
         <v>2121</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>2122</v>
       </c>
       <c r="C471" s="2">
         <v>22</v>
@@ -15905,10 +15897,10 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B473" s="2" t="s">
         <v>2151</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>2152</v>
       </c>
       <c r="C473" s="2">
         <v>410</v>
@@ -15916,10 +15908,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="2" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="C475" s="2">
         <v>23</v>
@@ -15927,10 +15919,10 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="26" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="B477" s="26" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="C477" s="2">
         <v>411</v>
@@ -15938,10 +15930,10 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="26" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B478" s="26" t="s">
         <v>2168</v>
-      </c>
-      <c r="B478" s="26" t="s">
-        <v>2170</v>
       </c>
       <c r="C478" s="2">
         <v>412</v>
@@ -15949,10 +15941,10 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="2" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="C480" s="2">
         <v>417</v>
@@ -15960,10 +15952,10 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B484" s="2" t="s">
         <v>2228</v>
-      </c>
-      <c r="B484" s="2" t="s">
-        <v>2230</v>
       </c>
       <c r="C484" s="2">
         <v>418</v>
@@ -15981,7 +15973,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O383"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D365" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -16027,7 +16019,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>450</v>
@@ -16167,7 +16159,7 @@
         <v>1482</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="O4" s="16"/>
     </row>
@@ -22586,7 +22578,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="39" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D192" s="39" t="s">
         <v>790</v>
@@ -25838,7 +25830,7 @@
         <v>1615248000</v>
       </c>
       <c r="L289" s="71" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="72" customFormat="1">
@@ -25872,7 +25864,7 @@
         <v>1615248000</v>
       </c>
       <c r="L290" s="70" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="72" customFormat="1">
@@ -25886,7 +25878,7 @@
         <v>1625</v>
       </c>
       <c r="D291" s="101" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="E291" s="70"/>
       <c r="F291" s="70"/>
@@ -25906,7 +25898,7 @@
         <v>1615248000</v>
       </c>
       <c r="L291" s="70" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="72" customFormat="1">
@@ -25917,10 +25909,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="100" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D292" s="100" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E292" s="70"/>
       <c r="F292" s="70"/>
@@ -25940,7 +25932,7 @@
         <v>1615248000</v>
       </c>
       <c r="L292" s="70" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -26303,7 +26295,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="29" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D304" s="29" t="s">
         <v>1652</v>
@@ -26852,7 +26844,7 @@
         <v>1706</v>
       </c>
       <c r="D321" s="100" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="E321" s="101"/>
       <c r="F321" s="101"/>
@@ -26962,7 +26954,7 @@
         <v>1</v>
       </c>
       <c r="J324" s="15" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K324" s="25">
         <v>1598916600</v>
@@ -27075,7 +27067,7 @@
         <v>1</v>
       </c>
       <c r="C328" s="25" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D328" s="25" t="s">
         <v>1789</v>
@@ -27154,7 +27146,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="29" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="K330" s="25">
         <v>0</v>
@@ -27203,7 +27195,7 @@
         <v>0</v>
       </c>
       <c r="C332" s="86" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D332" s="86" t="s">
         <v>1797</v>
@@ -27237,7 +27229,7 @@
         <v>1</v>
       </c>
       <c r="C333" s="29" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D333" s="25" t="s">
         <v>1809</v>
@@ -27252,7 +27244,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="25" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="K333" s="25">
         <v>0</v>
@@ -27269,10 +27261,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="15" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D334" s="15" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E334" s="16"/>
       <c r="F334" s="16"/>
@@ -27303,10 +27295,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="15" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D335" s="15" t="s">
         <v>1860</v>
-      </c>
-      <c r="D335" s="15" t="s">
-        <v>1861</v>
       </c>
       <c r="E335" s="16"/>
       <c r="F335" s="16"/>
@@ -27337,10 +27329,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="15" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D336" s="15" t="s">
         <v>1862</v>
-      </c>
-      <c r="D336" s="15" t="s">
-        <v>1863</v>
       </c>
       <c r="E336" s="16"/>
       <c r="F336" s="16"/>
@@ -27354,7 +27346,7 @@
         <v>1</v>
       </c>
       <c r="J336" s="15" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="K336" s="16">
         <v>1606176000</v>
@@ -27371,10 +27363,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="29" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D337" s="29" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G337" s="16">
         <v>349</v>
@@ -27403,10 +27395,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="29" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D338" s="29" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="E338" s="16"/>
       <c r="F338" s="16"/>
@@ -27437,10 +27429,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="71" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D339" s="29" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G339" s="25">
         <v>357</v>
@@ -27469,10 +27461,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="71" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D340" s="29" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G340" s="25">
         <v>358</v>
@@ -27501,10 +27493,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="71" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D341" s="29" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G341" s="25">
         <v>359</v>
@@ -27533,10 +27525,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="71" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D342" s="29" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G342" s="25">
         <v>361</v>
@@ -27565,10 +27557,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="71" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D343" s="29" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G343" s="25">
         <v>362</v>
@@ -27597,10 +27589,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="71" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D344" s="29" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G344" s="25">
         <v>363</v>
@@ -27629,10 +27621,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="71" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D345" s="29" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="G345" s="25">
         <v>364</v>
@@ -27644,7 +27636,7 @@
         <v>1</v>
       </c>
       <c r="J345" s="15" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="K345" s="16">
         <v>1598889600</v>
@@ -27661,10 +27653,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="29" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D346" s="77" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="G346" s="25">
         <v>365</v>
@@ -27693,10 +27685,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="29" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D347" s="77" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G347" s="25">
         <v>366</v>
@@ -27725,10 +27717,10 @@
         <v>1</v>
       </c>
       <c r="C348" s="100" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D348" s="100" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E348" s="16"/>
       <c r="F348" s="16"/>
@@ -27759,10 +27751,10 @@
         <v>0</v>
       </c>
       <c r="C349" s="15" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D349" s="15" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="E349" s="15"/>
       <c r="F349" s="15"/>
@@ -27776,13 +27768,13 @@
         <v>1</v>
       </c>
       <c r="J349" s="15" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="K349" s="15">
         <v>1610409600</v>
       </c>
       <c r="L349" s="15" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="44" customFormat="1">
@@ -27793,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="C350" s="15" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D350" s="15" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E350" s="15"/>
       <c r="F350" s="15"/>
@@ -27810,13 +27802,13 @@
         <v>1</v>
       </c>
       <c r="J350" s="15" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="K350" s="15">
         <v>1610409600</v>
       </c>
       <c r="L350" s="15" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="44" customFormat="1">
@@ -27827,10 +27819,10 @@
         <v>1</v>
       </c>
       <c r="C351" s="65" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="D351" s="65" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="E351" s="65"/>
       <c r="F351" s="65"/>
@@ -27844,13 +27836,13 @@
         <v>1</v>
       </c>
       <c r="J351" s="65" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="K351" s="65">
         <v>1610380800</v>
       </c>
       <c r="L351" s="65" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="44" customFormat="1">
@@ -27861,10 +27853,10 @@
         <v>1</v>
       </c>
       <c r="C352" s="65" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D352" s="65" t="s">
         <v>1986</v>
-      </c>
-      <c r="D352" s="65" t="s">
-        <v>1987</v>
       </c>
       <c r="E352" s="65"/>
       <c r="F352" s="65"/>
@@ -27878,13 +27870,13 @@
         <v>1</v>
       </c>
       <c r="J352" s="65" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="K352" s="65">
         <v>1610380800</v>
       </c>
       <c r="L352" s="65" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="44" customFormat="1">
@@ -27895,10 +27887,10 @@
         <v>1</v>
       </c>
       <c r="C353" s="105" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D353" s="15" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E353" s="15"/>
       <c r="F353" s="15"/>
@@ -27929,10 +27921,10 @@
         <v>0</v>
       </c>
       <c r="C354" s="15" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D354" s="15" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E354" s="15"/>
       <c r="F354" s="15"/>
@@ -27952,7 +27944,7 @@
         <v>1611014400</v>
       </c>
       <c r="L354" s="15" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="355" spans="1:12" s="44" customFormat="1">
@@ -27963,10 +27955,10 @@
         <v>0</v>
       </c>
       <c r="C355" s="15" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D355" s="15" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E355" s="15"/>
       <c r="F355" s="15"/>
@@ -27986,7 +27978,7 @@
         <v>1611014400</v>
       </c>
       <c r="L355" s="15" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="356" spans="1:12" s="44" customFormat="1">
@@ -27997,10 +27989,10 @@
         <v>0</v>
       </c>
       <c r="C356" s="15" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D356" s="15" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E356" s="15"/>
       <c r="F356" s="15"/>
@@ -28020,7 +28012,7 @@
         <v>1611014400</v>
       </c>
       <c r="L356" s="15" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="357" spans="1:12" s="44" customFormat="1">
@@ -28031,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="C357" s="105" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D357" s="15" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E357" s="15"/>
       <c r="F357" s="15"/>
@@ -28065,10 +28057,10 @@
         <v>0</v>
       </c>
       <c r="C358" s="15" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D358" s="15" t="s">
         <v>2045</v>
-      </c>
-      <c r="D358" s="15" t="s">
-        <v>2046</v>
       </c>
       <c r="E358" s="15"/>
       <c r="F358" s="15"/>
@@ -28088,7 +28080,7 @@
         <v>1611590400</v>
       </c>
       <c r="L358" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="359" spans="1:12" s="44" customFormat="1" ht="16.5">
@@ -28099,10 +28091,10 @@
         <v>0</v>
       </c>
       <c r="C359" s="107" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D359" s="15" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E359" s="15"/>
       <c r="F359" s="15"/>
@@ -28122,7 +28114,7 @@
         <v>1611590400</v>
       </c>
       <c r="L359" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="360" spans="1:12" s="44" customFormat="1" ht="16.5">
@@ -28133,10 +28125,10 @@
         <v>0</v>
       </c>
       <c r="C360" s="107" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D360" s="15" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="E360" s="15"/>
       <c r="F360" s="15"/>
@@ -28156,7 +28148,7 @@
         <v>1611590400</v>
       </c>
       <c r="L360" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="361" spans="1:12" s="44" customFormat="1" ht="16.5">
@@ -28167,10 +28159,10 @@
         <v>0</v>
       </c>
       <c r="C361" s="107" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="D361" s="15" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="E361" s="15"/>
       <c r="F361" s="15"/>
@@ -28190,7 +28182,7 @@
         <v>1611590400</v>
       </c>
       <c r="L361" s="15" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="362" spans="1:12" s="44" customFormat="1">
@@ -28201,10 +28193,10 @@
         <v>0</v>
       </c>
       <c r="C362" s="105" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D362" s="15" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E362" s="15"/>
       <c r="F362" s="15"/>
@@ -28235,10 +28227,10 @@
         <v>0</v>
       </c>
       <c r="C363" s="30" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D363" s="15" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E363" s="16"/>
       <c r="F363" s="16"/>
@@ -28258,7 +28250,7 @@
         <v>1612828800</v>
       </c>
       <c r="L363" s="15" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="364" spans="1:12" s="21" customFormat="1">
@@ -28269,10 +28261,10 @@
         <v>0</v>
       </c>
       <c r="C364" s="30" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E364" s="16"/>
       <c r="F364" s="16"/>
@@ -28292,7 +28284,7 @@
         <v>1612828800</v>
       </c>
       <c r="L364" s="15" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="365" spans="1:12" s="21" customFormat="1">
@@ -28303,10 +28295,10 @@
         <v>0</v>
       </c>
       <c r="C365" s="30" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D365" s="15" t="s">
         <v>2079</v>
-      </c>
-      <c r="D365" s="15" t="s">
-        <v>2080</v>
       </c>
       <c r="E365" s="16"/>
       <c r="F365" s="16"/>
@@ -28326,7 +28318,7 @@
         <v>1612828800</v>
       </c>
       <c r="L365" s="15" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="366" spans="1:12" s="21" customFormat="1">
@@ -28337,10 +28329,10 @@
         <v>1</v>
       </c>
       <c r="C366" s="15" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D366" s="15" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="E366" s="16"/>
       <c r="F366" s="16"/>
@@ -28360,7 +28352,7 @@
         <v>1615852800</v>
       </c>
       <c r="L366" s="15" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="21" customFormat="1">
@@ -28371,10 +28363,10 @@
         <v>1</v>
       </c>
       <c r="C367" s="15" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D367" s="15" t="s">
         <v>2100</v>
-      </c>
-      <c r="D367" s="15" t="s">
-        <v>2101</v>
       </c>
       <c r="E367" s="16"/>
       <c r="F367" s="16"/>
@@ -28394,7 +28386,7 @@
         <v>1615852800</v>
       </c>
       <c r="L367" s="15" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="368" spans="1:12" s="21" customFormat="1">
@@ -28405,10 +28397,10 @@
         <v>0</v>
       </c>
       <c r="C368" s="15" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D368" s="15" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="E368" s="16"/>
       <c r="F368" s="16"/>
@@ -28428,7 +28420,7 @@
         <v>1615248000</v>
       </c>
       <c r="L368" s="15" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="369" spans="1:12" s="21" customFormat="1">
@@ -28439,10 +28431,10 @@
         <v>0</v>
       </c>
       <c r="C369" s="15" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D369" s="15" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="E369" s="16"/>
       <c r="F369" s="16"/>
@@ -28462,7 +28454,7 @@
         <v>1615248000</v>
       </c>
       <c r="L369" s="15" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="370" spans="1:12" s="21" customFormat="1">
@@ -28473,10 +28465,10 @@
         <v>1</v>
       </c>
       <c r="C370" s="15" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D370" s="15" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="E370" s="16"/>
       <c r="F370" s="16"/>
@@ -28507,10 +28499,10 @@
         <v>1</v>
       </c>
       <c r="C371" s="15" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D371" s="15" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="E371" s="16"/>
       <c r="F371" s="16"/>
@@ -28541,10 +28533,10 @@
         <v>0</v>
       </c>
       <c r="C372" s="57" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="D372" s="65" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="E372" s="64"/>
       <c r="F372" s="64"/>
@@ -28564,7 +28556,7 @@
         <v>1615824000</v>
       </c>
       <c r="L372" s="65" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="373" spans="1:12" s="66" customFormat="1">
@@ -28575,10 +28567,10 @@
         <v>1</v>
       </c>
       <c r="C373" s="57" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="D373" s="65" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E373" s="64"/>
       <c r="F373" s="64"/>
@@ -28598,7 +28590,7 @@
         <v>1615824000</v>
       </c>
       <c r="L373" s="65" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="374" spans="1:12" s="21" customFormat="1">
@@ -28609,10 +28601,10 @@
         <v>1</v>
       </c>
       <c r="C374" s="16" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D374" s="16" t="s">
         <v>2117</v>
-      </c>
-      <c r="D374" s="16" t="s">
-        <v>2118</v>
       </c>
       <c r="E374" s="16"/>
       <c r="F374" s="16"/>
@@ -28626,7 +28618,7 @@
         <v>1</v>
       </c>
       <c r="J374" s="16" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="K374" s="16">
         <v>1615248000</v>
@@ -28641,10 +28633,10 @@
         <v>1</v>
       </c>
       <c r="C375" s="15" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D375" s="15" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E375" s="16"/>
       <c r="F375" s="16"/>
@@ -28664,7 +28656,7 @@
         <v>1615824000</v>
       </c>
       <c r="L375" s="15" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="376" spans="1:12" s="21" customFormat="1">
@@ -28675,10 +28667,10 @@
         <v>1</v>
       </c>
       <c r="C376" s="15" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D376" s="15" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E376" s="16"/>
       <c r="F376" s="16"/>
@@ -28698,7 +28690,7 @@
         <v>1615824000</v>
       </c>
       <c r="L376" s="15" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="377" spans="1:12" s="21" customFormat="1">
@@ -28709,10 +28701,10 @@
         <v>1</v>
       </c>
       <c r="C377" s="15" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D377" s="15" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E377" s="16"/>
       <c r="F377" s="16"/>
@@ -28732,7 +28724,7 @@
         <v>1615824000</v>
       </c>
       <c r="L377" s="15" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="378" spans="1:12" s="21" customFormat="1">
@@ -28743,10 +28735,10 @@
         <v>1</v>
       </c>
       <c r="C378" s="15" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="D378" s="15" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E378" s="16"/>
       <c r="F378" s="16"/>
@@ -28766,7 +28758,7 @@
         <v>1615824000</v>
       </c>
       <c r="L378" s="15" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -28777,10 +28769,10 @@
         <v>1</v>
       </c>
       <c r="C379" s="29" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="D379" s="29" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="G379" s="25">
         <v>413</v>
@@ -28798,7 +28790,7 @@
         <v>1617638400</v>
       </c>
       <c r="L379" s="29" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -28809,10 +28801,10 @@
         <v>1</v>
       </c>
       <c r="C380" s="29" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="D380" s="29" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="G380" s="25">
         <v>414</v>
@@ -28830,7 +28822,7 @@
         <v>1617638400</v>
       </c>
       <c r="L380" s="29" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -28841,10 +28833,10 @@
         <v>1</v>
       </c>
       <c r="C381" s="29" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="D381" s="29" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="G381" s="25">
         <v>415</v>
@@ -28862,7 +28854,7 @@
         <v>1617638400</v>
       </c>
       <c r="L381" s="29" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -28873,10 +28865,10 @@
         <v>1</v>
       </c>
       <c r="C382" s="29" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="D382" s="29" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="G382" s="25">
         <v>416</v>
@@ -28894,7 +28886,7 @@
         <v>1617638400</v>
       </c>
       <c r="L382" s="29" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="383" spans="1:12" s="21" customFormat="1">
@@ -28905,10 +28897,10 @@
         <v>1</v>
       </c>
       <c r="C383" s="15" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="D383" s="15" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="E383" s="16"/>
       <c r="F383" s="16"/>
@@ -28942,13 +28934,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I1016"/>
+  <dimension ref="A1:I1015"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1001" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C833" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1022" sqref="D1022"/>
+      <selection pane="bottomRight" activeCell="A839" sqref="A839:A1015"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -31145,7 +31137,7 @@
         <v>852</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E94" s="7">
         <v>2</v>
@@ -32443,7 +32435,7 @@
         <v>1032</v>
       </c>
       <c r="D150" s="96" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="E150" s="95">
         <v>2</v>
@@ -32452,7 +32444,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="96" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
@@ -33112,7 +33104,7 @@
         <v>1032</v>
       </c>
       <c r="D179" s="79" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E179" s="13">
         <v>2</v>
@@ -33135,7 +33127,7 @@
         <v>1032</v>
       </c>
       <c r="D180" s="79" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E180" s="13">
         <v>2</v>
@@ -33167,7 +33159,7 @@
         <v>6</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="7" customFormat="1">
@@ -33181,7 +33173,7 @@
         <v>1032</v>
       </c>
       <c r="D182" s="79" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="E182" s="13">
         <v>2</v>
@@ -33190,7 +33182,7 @@
         <v>7</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="7" customFormat="1">
@@ -33613,7 +33605,7 @@
         <v>1032</v>
       </c>
       <c r="D200" s="90" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E200" s="88">
         <v>2</v>
@@ -33638,7 +33630,7 @@
         <v>1032</v>
       </c>
       <c r="D201" s="90" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="E201" s="88">
         <v>2</v>
@@ -43143,7 +43135,7 @@
         <v>1140</v>
       </c>
       <c r="D603" s="14" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E603" s="13">
         <v>2</v>
@@ -43293,7 +43285,7 @@
         <v>1140</v>
       </c>
       <c r="D609" s="14" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E609" s="13">
         <v>2</v>
@@ -43443,7 +43435,7 @@
         <v>1140</v>
       </c>
       <c r="D615" s="14" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E615" s="13">
         <v>2</v>
@@ -43593,7 +43585,7 @@
         <v>1140</v>
       </c>
       <c r="D621" s="14" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E621" s="13">
         <v>2</v>
@@ -43743,7 +43735,7 @@
         <v>1140</v>
       </c>
       <c r="D627" s="14" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E627" s="13">
         <v>2</v>
@@ -43893,7 +43885,7 @@
         <v>1140</v>
       </c>
       <c r="D633" s="14" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E633" s="13">
         <v>2</v>
@@ -46499,7 +46491,7 @@
         <v>2</v>
       </c>
       <c r="G738" s="18" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="H738" s="7"/>
       <c r="I738" s="7"/>
@@ -46699,7 +46691,7 @@
         <v>2</v>
       </c>
       <c r="G746" s="18" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="H746" s="7"/>
       <c r="I746" s="7"/>
@@ -48240,7 +48232,7 @@
         <v>1032</v>
       </c>
       <c r="D808" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E808" s="8">
         <v>5</v>
@@ -48315,7 +48307,7 @@
         <v>1032</v>
       </c>
       <c r="D811" s="9" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="E811" s="8">
         <v>5</v>
@@ -48665,7 +48657,7 @@
         <v>1032</v>
       </c>
       <c r="D825" s="8" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E825" s="8">
         <v>2</v>
@@ -48765,7 +48757,7 @@
         <v>1032</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E829" s="7">
         <v>2</v>
@@ -48774,7 +48766,7 @@
         <v>4</v>
       </c>
       <c r="G829" s="9" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="H829" s="7"/>
       <c r="I829" s="7"/>
@@ -48815,7 +48807,7 @@
         <v>1032</v>
       </c>
       <c r="D831" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E831" s="8">
         <v>5</v>
@@ -48865,7 +48857,7 @@
         <v>1032</v>
       </c>
       <c r="D833" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E833" s="8">
         <v>5</v>
@@ -48990,7 +48982,7 @@
         <v>1032</v>
       </c>
       <c r="D838" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E838" s="8">
         <v>5</v>
@@ -49040,7 +49032,7 @@
         <v>1032</v>
       </c>
       <c r="D840" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E840" s="8">
         <v>2</v>
@@ -49090,7 +49082,7 @@
         <v>1032</v>
       </c>
       <c r="D842" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E842" s="8">
         <v>2</v>
@@ -49140,7 +49132,7 @@
         <v>1032</v>
       </c>
       <c r="D844" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E844" s="8">
         <v>5</v>
@@ -49174,7 +49166,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="92" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="H845" s="7"/>
       <c r="I845" s="7"/>
@@ -49199,7 +49191,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="92" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="H846" s="7"/>
       <c r="I846" s="7"/>
@@ -49224,7 +49216,7 @@
         <v>1</v>
       </c>
       <c r="G847" s="91" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H847" s="7"/>
       <c r="I847" s="7"/>
@@ -49233,23 +49225,23 @@
       <c r="A848" s="7">
         <v>847</v>
       </c>
-      <c r="B848" s="91">
-        <v>337</v>
-      </c>
-      <c r="C848" s="92" t="s">
+      <c r="B848" s="13">
+        <v>338</v>
+      </c>
+      <c r="C848" s="13" t="s">
         <v>1032</v>
       </c>
-      <c r="D848" s="92" t="s">
-        <v>2161</v>
-      </c>
-      <c r="E848" s="91">
-        <v>2</v>
-      </c>
-      <c r="F848" s="91">
-        <v>2</v>
-      </c>
-      <c r="G848" s="92" t="s">
-        <v>1811</v>
+      <c r="D848" s="13" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E848" s="13">
+        <v>5</v>
+      </c>
+      <c r="F848" s="13">
+        <v>1</v>
+      </c>
+      <c r="G848" s="13" t="s">
+        <v>1818</v>
       </c>
       <c r="H848" s="7"/>
       <c r="I848" s="7"/>
@@ -49264,8 +49256,8 @@
       <c r="C849" s="13" t="s">
         <v>1032</v>
       </c>
-      <c r="D849" s="13" t="s">
-        <v>1885</v>
+      <c r="D849" s="14" t="s">
+        <v>2148</v>
       </c>
       <c r="E849" s="13">
         <v>5</v>
@@ -49274,7 +49266,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="13" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="H849" s="7"/>
       <c r="I849" s="7"/>
@@ -49283,181 +49275,181 @@
       <c r="A850" s="7">
         <v>849</v>
       </c>
-      <c r="B850" s="13">
-        <v>338</v>
-      </c>
-      <c r="C850" s="13" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D850" s="14" t="s">
-        <v>2149</v>
-      </c>
-      <c r="E850" s="13">
-        <v>5</v>
-      </c>
-      <c r="F850" s="13">
-        <v>1</v>
-      </c>
-      <c r="G850" s="13" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H850" s="7"/>
-      <c r="I850" s="7"/>
+      <c r="B850" s="7">
+        <v>339</v>
+      </c>
+      <c r="C850" s="9" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D850" s="9" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E850" s="7">
+        <v>2</v>
+      </c>
+      <c r="F850" s="7">
+        <v>1</v>
+      </c>
+      <c r="G850" s="9" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H850" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="I850" s="7" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="851" spans="1:9">
       <c r="A851" s="7">
         <v>850</v>
       </c>
       <c r="B851" s="7">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C851" s="9" t="s">
-        <v>1826</v>
+        <v>1144</v>
       </c>
       <c r="D851" s="9" t="s">
-        <v>1825</v>
+        <v>1884</v>
       </c>
       <c r="E851" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F851" s="7">
         <v>1</v>
       </c>
       <c r="G851" s="9" t="s">
-        <v>1827</v>
-      </c>
-      <c r="H851" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="I851" s="7" t="s">
-        <v>860</v>
-      </c>
+        <v>1864</v>
+      </c>
+      <c r="H851" s="7"/>
+      <c r="I851" s="7"/>
     </row>
     <row r="852" spans="1:9">
       <c r="A852" s="7">
         <v>851</v>
       </c>
       <c r="B852" s="7">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C852" s="9" t="s">
         <v>1144</v>
       </c>
       <c r="D852" s="9" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E852" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F852" s="7">
         <v>1</v>
       </c>
       <c r="G852" s="9" t="s">
-        <v>1865</v>
-      </c>
-      <c r="H852" s="7"/>
-      <c r="I852" s="7"/>
+        <v>1875</v>
+      </c>
+      <c r="H852" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="I852" s="7" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="853" spans="1:9">
       <c r="A853" s="7">
         <v>852</v>
       </c>
-      <c r="B853" s="7">
-        <v>341</v>
-      </c>
-      <c r="C853" s="9" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D853" s="9" t="s">
-        <v>1885</v>
-      </c>
-      <c r="E853" s="7">
-        <v>2</v>
-      </c>
-      <c r="F853" s="7">
-        <v>1</v>
-      </c>
-      <c r="G853" s="9" t="s">
+      <c r="B853" s="93">
+        <v>342</v>
+      </c>
+      <c r="C853" s="94" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D853" s="94" t="s">
         <v>1876</v>
       </c>
-      <c r="H853" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="I853" s="7" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="854" spans="1:9">
+      <c r="E853" s="93">
+        <v>2</v>
+      </c>
+      <c r="F853" s="93">
+        <v>1</v>
+      </c>
+      <c r="G853" s="94" t="s">
+        <v>1877</v>
+      </c>
+      <c r="H853" s="7"/>
+      <c r="I853" s="7"/>
+    </row>
+    <row r="854" spans="1:9" s="83" customFormat="1">
       <c r="A854" s="7">
         <v>853</v>
       </c>
       <c r="B854" s="93">
         <v>342</v>
       </c>
-      <c r="C854" s="94" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D854" s="94" t="s">
-        <v>1877</v>
+      <c r="C854" s="93" t="s">
+        <v>865</v>
+      </c>
+      <c r="D854" s="93">
+        <v>1</v>
       </c>
       <c r="E854" s="93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F854" s="93">
         <v>1</v>
       </c>
       <c r="G854" s="94" t="s">
-        <v>1878</v>
+        <v>1867</v>
       </c>
       <c r="H854" s="7"/>
       <c r="I854" s="7"/>
     </row>
-    <row r="855" spans="1:9" s="83" customFormat="1">
+    <row r="855" spans="1:9">
       <c r="A855" s="7">
         <v>854</v>
       </c>
       <c r="B855" s="93">
         <v>342</v>
       </c>
-      <c r="C855" s="93" t="s">
-        <v>865</v>
-      </c>
-      <c r="D855" s="93">
-        <v>1</v>
+      <c r="C855" s="94" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D855" s="94" t="s">
+        <v>1873</v>
       </c>
       <c r="E855" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F855" s="93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G855" s="94" t="s">
-        <v>1868</v>
+        <v>1655</v>
       </c>
       <c r="H855" s="7"/>
       <c r="I855" s="7"/>
     </row>
-    <row r="856" spans="1:9">
+    <row r="856" spans="1:9" s="91" customFormat="1">
       <c r="A856" s="7">
         <v>855</v>
       </c>
       <c r="B856" s="93">
         <v>342</v>
       </c>
-      <c r="C856" s="94" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D856" s="94" t="s">
-        <v>1874</v>
+      <c r="C856" s="93" t="s">
+        <v>865</v>
+      </c>
+      <c r="D856" s="93">
+        <v>1</v>
       </c>
       <c r="E856" s="93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F856" s="93">
         <v>2</v>
       </c>
       <c r="G856" s="94" t="s">
-        <v>1655</v>
+        <v>1867</v>
       </c>
       <c r="H856" s="7"/>
       <c r="I856" s="7"/>
@@ -49469,20 +49461,20 @@
       <c r="B857" s="93">
         <v>342</v>
       </c>
-      <c r="C857" s="93" t="s">
-        <v>865</v>
-      </c>
-      <c r="D857" s="93">
-        <v>1</v>
+      <c r="C857" s="94" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D857" s="94" t="s">
+        <v>1874</v>
       </c>
       <c r="E857" s="93">
+        <v>2</v>
+      </c>
+      <c r="F857" s="93">
         <v>3</v>
       </c>
-      <c r="F857" s="93">
-        <v>2</v>
-      </c>
       <c r="G857" s="94" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="H857" s="7"/>
       <c r="I857" s="7"/>
@@ -49494,14 +49486,14 @@
       <c r="B858" s="93">
         <v>342</v>
       </c>
-      <c r="C858" s="94" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D858" s="94" t="s">
-        <v>1875</v>
+      <c r="C858" s="93" t="s">
+        <v>865</v>
+      </c>
+      <c r="D858" s="93">
+        <v>1</v>
       </c>
       <c r="E858" s="93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F858" s="93">
         <v>3</v>
@@ -49512,7 +49504,7 @@
       <c r="H858" s="7"/>
       <c r="I858" s="7"/>
     </row>
-    <row r="859" spans="1:9" s="91" customFormat="1">
+    <row r="859" spans="1:9" s="13" customFormat="1">
       <c r="A859" s="7">
         <v>858</v>
       </c>
@@ -49520,24 +49512,24 @@
         <v>342</v>
       </c>
       <c r="C859" s="93" t="s">
-        <v>865</v>
-      </c>
-      <c r="D859" s="93">
-        <v>1</v>
+        <v>1032</v>
+      </c>
+      <c r="D859" s="93" t="s">
+        <v>1884</v>
       </c>
       <c r="E859" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F859" s="93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G859" s="94" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="H859" s="7"/>
       <c r="I859" s="7"/>
     </row>
-    <row r="860" spans="1:9" s="13" customFormat="1">
+    <row r="860" spans="1:9" s="7" customFormat="1">
       <c r="A860" s="7">
         <v>859</v>
       </c>
@@ -49545,44 +49537,42 @@
         <v>342</v>
       </c>
       <c r="C860" s="93" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D860" s="93" t="s">
-        <v>1885</v>
+        <v>865</v>
+      </c>
+      <c r="D860" s="93">
+        <v>1</v>
       </c>
       <c r="E860" s="93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F860" s="93">
         <v>4</v>
       </c>
       <c r="G860" s="94" t="s">
-        <v>1868</v>
-      </c>
-      <c r="H860" s="7"/>
-      <c r="I860" s="7"/>
+        <v>1878</v>
+      </c>
     </row>
     <row r="861" spans="1:9" s="7" customFormat="1">
       <c r="A861" s="7">
         <v>860</v>
       </c>
-      <c r="B861" s="93">
-        <v>342</v>
-      </c>
-      <c r="C861" s="93" t="s">
-        <v>865</v>
-      </c>
-      <c r="D861" s="93">
-        <v>1</v>
-      </c>
-      <c r="E861" s="93">
+      <c r="B861" s="8">
+        <v>343</v>
+      </c>
+      <c r="C861" s="48" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D861" s="8">
+        <v>1</v>
+      </c>
+      <c r="E861" s="8">
         <v>3</v>
       </c>
-      <c r="F861" s="93">
-        <v>4</v>
-      </c>
-      <c r="G861" s="94" t="s">
-        <v>1879</v>
+      <c r="F861" s="8">
+        <v>1</v>
+      </c>
+      <c r="G861" s="9" t="s">
+        <v>2161</v>
       </c>
     </row>
     <row r="862" spans="1:9" s="7" customFormat="1">
@@ -49592,44 +49582,46 @@
       <c r="B862" s="8">
         <v>343</v>
       </c>
-      <c r="C862" s="48" t="s">
-        <v>1880</v>
-      </c>
-      <c r="D862" s="8">
-        <v>1</v>
-      </c>
-      <c r="E862" s="8">
-        <v>3</v>
-      </c>
-      <c r="F862" s="8">
+      <c r="C862" s="9" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D862" s="9" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E862" s="7">
+        <v>5</v>
+      </c>
+      <c r="F862" s="7">
         <v>1</v>
       </c>
       <c r="G862" s="9" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="863" spans="1:9" s="7" customFormat="1">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" s="93" customFormat="1">
       <c r="A863" s="7">
         <v>862</v>
       </c>
-      <c r="B863" s="8">
+      <c r="B863" s="7">
         <v>343</v>
       </c>
       <c r="C863" s="9" t="s">
-        <v>1864</v>
-      </c>
-      <c r="D863" s="9" t="s">
-        <v>1866</v>
+        <v>1870</v>
+      </c>
+      <c r="D863" s="7">
+        <v>4</v>
       </c>
       <c r="E863" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F863" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G863" s="9" t="s">
-        <v>1870</v>
-      </c>
+        <v>2163</v>
+      </c>
+      <c r="H863" s="7"/>
+      <c r="I863" s="7"/>
     </row>
     <row r="864" spans="1:9" s="93" customFormat="1">
       <c r="A864" s="7">
@@ -49639,19 +49631,19 @@
         <v>343</v>
       </c>
       <c r="C864" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D864" s="9" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E864" s="7">
+        <v>5</v>
+      </c>
+      <c r="F864" s="7">
+        <v>2</v>
+      </c>
+      <c r="G864" s="9" t="s">
         <v>1871</v>
-      </c>
-      <c r="D864" s="7">
-        <v>4</v>
-      </c>
-      <c r="E864" s="7">
-        <v>3</v>
-      </c>
-      <c r="F864" s="7">
-        <v>2</v>
-      </c>
-      <c r="G864" s="9" t="s">
-        <v>2165</v>
       </c>
       <c r="H864" s="7"/>
       <c r="I864" s="7"/>
@@ -49667,16 +49659,16 @@
         <v>1144</v>
       </c>
       <c r="D865" s="9" t="s">
-        <v>1888</v>
+        <v>1868</v>
       </c>
       <c r="E865" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F865" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G865" s="9" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="H865" s="7"/>
       <c r="I865" s="7"/>
@@ -49692,16 +49684,16 @@
         <v>1144</v>
       </c>
       <c r="D866" s="9" t="s">
-        <v>1869</v>
+        <v>1884</v>
       </c>
       <c r="E866" s="7">
         <v>2</v>
       </c>
       <c r="F866" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G866" s="9" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="H866" s="7"/>
       <c r="I866" s="7"/>
@@ -49711,22 +49703,22 @@
         <v>866</v>
       </c>
       <c r="B867" s="7">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C867" s="9" t="s">
-        <v>1144</v>
+        <v>852</v>
       </c>
       <c r="D867" s="9" t="s">
-        <v>1885</v>
+        <v>1912</v>
       </c>
       <c r="E867" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F867" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G867" s="9" t="s">
-        <v>1873</v>
+        <v>999</v>
       </c>
       <c r="H867" s="7"/>
       <c r="I867" s="7"/>
@@ -49742,16 +49734,16 @@
         <v>852</v>
       </c>
       <c r="D868" s="9" t="s">
-        <v>1913</v>
+        <v>1000</v>
       </c>
       <c r="E868" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F868" s="7">
         <v>1</v>
       </c>
       <c r="G868" s="9" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="H868" s="7"/>
       <c r="I868" s="7"/>
@@ -49764,10 +49756,10 @@
         <v>344</v>
       </c>
       <c r="C869" s="9" t="s">
-        <v>852</v>
+        <v>1032</v>
       </c>
       <c r="D869" s="9" t="s">
-        <v>1000</v>
+        <v>1913</v>
       </c>
       <c r="E869" s="7">
         <v>2</v>
@@ -49776,7 +49768,7 @@
         <v>1</v>
       </c>
       <c r="G869" s="9" t="s">
-        <v>1001</v>
+        <v>1077</v>
       </c>
       <c r="H869" s="7"/>
       <c r="I869" s="7"/>
@@ -49789,44 +49781,44 @@
         <v>344</v>
       </c>
       <c r="C870" s="9" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D870" s="9" t="s">
-        <v>1914</v>
+        <v>899</v>
+      </c>
+      <c r="D870" s="7">
+        <v>600</v>
       </c>
       <c r="E870" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F870" s="7">
         <v>1</v>
       </c>
       <c r="G870" s="9" t="s">
-        <v>1077</v>
+        <v>1002</v>
       </c>
       <c r="H870" s="7"/>
       <c r="I870" s="7"/>
     </row>
-    <row r="871" spans="1:9" s="93" customFormat="1">
+    <row r="871" spans="1:9">
       <c r="A871" s="7">
         <v>870</v>
       </c>
       <c r="B871" s="7">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C871" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="D871" s="7">
-        <v>600</v>
+        <v>852</v>
+      </c>
+      <c r="D871" s="9" t="s">
+        <v>1912</v>
       </c>
       <c r="E871" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F871" s="7">
         <v>1</v>
       </c>
       <c r="G871" s="9" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H871" s="7"/>
       <c r="I871" s="7"/>
@@ -49842,16 +49834,16 @@
         <v>852</v>
       </c>
       <c r="D872" s="9" t="s">
-        <v>1913</v>
+        <v>1000</v>
       </c>
       <c r="E872" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F872" s="7">
         <v>1</v>
       </c>
       <c r="G872" s="9" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H872" s="7"/>
       <c r="I872" s="7"/>
@@ -49864,19 +49856,19 @@
         <v>345</v>
       </c>
       <c r="C873" s="9" t="s">
-        <v>852</v>
+        <v>1032</v>
       </c>
       <c r="D873" s="9" t="s">
-        <v>1000</v>
+        <v>1896</v>
       </c>
       <c r="E873" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F873" s="7">
         <v>1</v>
       </c>
       <c r="G873" s="9" t="s">
-        <v>1004</v>
+        <v>1066</v>
       </c>
       <c r="H873" s="7"/>
       <c r="I873" s="7"/>
@@ -49889,44 +49881,44 @@
         <v>345</v>
       </c>
       <c r="C874" s="9" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D874" s="9" t="s">
-        <v>1897</v>
+        <v>899</v>
+      </c>
+      <c r="D874" s="7">
+        <v>600</v>
       </c>
       <c r="E874" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F874" s="7">
         <v>1</v>
       </c>
       <c r="G874" s="9" t="s">
-        <v>1066</v>
+        <v>1002</v>
       </c>
       <c r="H874" s="7"/>
       <c r="I874" s="7"/>
     </row>
-    <row r="875" spans="1:9">
+    <row r="875" spans="1:9" s="13" customFormat="1">
       <c r="A875" s="7">
         <v>874</v>
       </c>
       <c r="B875" s="7">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C875" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="D875" s="7">
-        <v>600</v>
+        <v>1140</v>
+      </c>
+      <c r="D875" s="9" t="s">
+        <v>1885</v>
       </c>
       <c r="E875" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F875" s="7">
         <v>1</v>
       </c>
       <c r="G875" s="9" t="s">
-        <v>1002</v>
+        <v>1891</v>
       </c>
       <c r="H875" s="7"/>
       <c r="I875" s="7"/>
@@ -49938,17 +49930,17 @@
       <c r="B876" s="7">
         <v>346</v>
       </c>
-      <c r="C876" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D876" s="9" t="s">
+      <c r="C876" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D876" s="7" t="s">
         <v>1886</v>
       </c>
       <c r="E876" s="7">
         <v>2</v>
       </c>
       <c r="F876" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G876" s="9" t="s">
         <v>1892</v>
@@ -49956,7 +49948,7 @@
       <c r="H876" s="7"/>
       <c r="I876" s="7"/>
     </row>
-    <row r="877" spans="1:9" s="13" customFormat="1">
+    <row r="877" spans="1:9" s="7" customFormat="1">
       <c r="A877" s="7">
         <v>876</v>
       </c>
@@ -49966,20 +49958,18 @@
       <c r="C877" s="7" t="s">
         <v>1032</v>
       </c>
-      <c r="D877" s="7" t="s">
-        <v>1887</v>
+      <c r="D877" s="9" t="s">
+        <v>1888</v>
       </c>
       <c r="E877" s="7">
         <v>2</v>
       </c>
       <c r="F877" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G877" s="9" t="s">
         <v>1893</v>
       </c>
-      <c r="H877" s="7"/>
-      <c r="I877" s="7"/>
     </row>
     <row r="878" spans="1:9" s="7" customFormat="1">
       <c r="A878" s="7">
@@ -49998,7 +49988,7 @@
         <v>2</v>
       </c>
       <c r="F878" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G878" s="9" t="s">
         <v>1894</v>
@@ -50009,22 +49999,22 @@
         <v>878</v>
       </c>
       <c r="B879" s="7">
-        <v>346</v>
-      </c>
-      <c r="C879" s="7" t="s">
-        <v>1032</v>
+        <v>347</v>
+      </c>
+      <c r="C879" s="9" t="s">
+        <v>1144</v>
       </c>
       <c r="D879" s="9" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="E879" s="7">
         <v>2</v>
       </c>
       <c r="F879" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G879" s="9" t="s">
-        <v>1895</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="880" spans="1:9" s="7" customFormat="1">
@@ -50035,19 +50025,19 @@
         <v>347</v>
       </c>
       <c r="C880" s="9" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="D880" s="9" t="s">
-        <v>1888</v>
+        <v>2162</v>
       </c>
       <c r="E880" s="7">
         <v>2</v>
       </c>
       <c r="F880" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G880" s="9" t="s">
-        <v>1872</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="881" spans="1:9" s="7" customFormat="1">
@@ -50055,22 +50045,22 @@
         <v>880</v>
       </c>
       <c r="B881" s="7">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C881" s="9" t="s">
         <v>1140</v>
       </c>
       <c r="D881" s="9" t="s">
-        <v>2164</v>
+        <v>1887</v>
       </c>
       <c r="E881" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F881" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G881" s="9" t="s">
-        <v>1506</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="882" spans="1:9" s="7" customFormat="1">
@@ -50084,7 +50074,7 @@
         <v>1140</v>
       </c>
       <c r="D882" s="9" t="s">
-        <v>1888</v>
+        <v>2164</v>
       </c>
       <c r="E882" s="7">
         <v>5</v>
@@ -50093,7 +50083,7 @@
         <v>1</v>
       </c>
       <c r="G882" s="9" t="s">
-        <v>1872</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="883" spans="1:9" s="7" customFormat="1">
@@ -50101,22 +50091,22 @@
         <v>882</v>
       </c>
       <c r="B883" s="7">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C883" s="9" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="D883" s="9" t="s">
-        <v>2166</v>
+        <v>1592</v>
       </c>
       <c r="E883" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F883" s="7">
         <v>1</v>
       </c>
       <c r="G883" s="9" t="s">
-        <v>1506</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="884" spans="1:9" s="7" customFormat="1">
@@ -50124,13 +50114,13 @@
         <v>883</v>
       </c>
       <c r="B884" s="7">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C884" s="9" t="s">
         <v>1144</v>
       </c>
       <c r="D884" s="9" t="s">
-        <v>1592</v>
+        <v>1804</v>
       </c>
       <c r="E884" s="7">
         <v>2</v>
@@ -50139,7 +50129,7 @@
         <v>1</v>
       </c>
       <c r="G884" s="9" t="s">
-        <v>1905</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="885" spans="1:9" s="7" customFormat="1">
@@ -50147,22 +50137,22 @@
         <v>884</v>
       </c>
       <c r="B885" s="7">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C885" s="9" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="D885" s="9" t="s">
-        <v>1804</v>
+        <v>1881</v>
       </c>
       <c r="E885" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F885" s="7">
         <v>1</v>
       </c>
       <c r="G885" s="9" t="s">
-        <v>1506</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="886" spans="1:9" s="7" customFormat="1">
@@ -50170,25 +50160,25 @@
         <v>885</v>
       </c>
       <c r="B886" s="7">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C886" s="9" t="s">
         <v>1140</v>
       </c>
       <c r="D886" s="9" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="E886" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F886" s="7">
         <v>1</v>
       </c>
       <c r="G886" s="9" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="887" spans="1:9" s="7" customFormat="1">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9">
       <c r="A887" s="7">
         <v>886</v>
       </c>
@@ -50196,20 +50186,22 @@
         <v>352</v>
       </c>
       <c r="C887" s="9" t="s">
-        <v>1140</v>
+        <v>1919</v>
       </c>
       <c r="D887" s="9" t="s">
-        <v>1882</v>
+        <v>1592</v>
       </c>
       <c r="E887" s="7">
         <v>2</v>
       </c>
       <c r="F887" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G887" s="9" t="s">
-        <v>1892</v>
-      </c>
+        <v>1920</v>
+      </c>
+      <c r="H887" s="7"/>
+      <c r="I887" s="7"/>
     </row>
     <row r="888" spans="1:9">
       <c r="A888" s="7">
@@ -50219,16 +50211,16 @@
         <v>352</v>
       </c>
       <c r="C888" s="9" t="s">
-        <v>1920</v>
+        <v>1140</v>
       </c>
       <c r="D888" s="9" t="s">
-        <v>1592</v>
+        <v>1804</v>
       </c>
       <c r="E888" s="7">
         <v>2</v>
       </c>
       <c r="F888" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G888" s="9" t="s">
         <v>1921</v>
@@ -50241,22 +50233,22 @@
         <v>888</v>
       </c>
       <c r="B889" s="7">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C889" s="9" t="s">
-        <v>1140</v>
+        <v>1928</v>
       </c>
       <c r="D889" s="9" t="s">
-        <v>1804</v>
+        <v>1929</v>
       </c>
       <c r="E889" s="7">
         <v>2</v>
       </c>
       <c r="F889" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G889" s="9" t="s">
-        <v>1922</v>
+        <v>1930</v>
       </c>
       <c r="H889" s="7"/>
       <c r="I889" s="7"/>
@@ -50266,22 +50258,22 @@
         <v>889</v>
       </c>
       <c r="B890" s="7">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C890" s="9" t="s">
-        <v>1929</v>
+        <v>1140</v>
       </c>
       <c r="D890" s="9" t="s">
-        <v>1930</v>
+        <v>1804</v>
       </c>
       <c r="E890" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F890" s="7">
         <v>1</v>
       </c>
       <c r="G890" s="9" t="s">
-        <v>1931</v>
+        <v>1921</v>
       </c>
       <c r="H890" s="7"/>
       <c r="I890" s="7"/>
@@ -50294,10 +50286,10 @@
         <v>354</v>
       </c>
       <c r="C891" s="9" t="s">
-        <v>1140</v>
+        <v>1032</v>
       </c>
       <c r="D891" s="9" t="s">
-        <v>1804</v>
+        <v>1896</v>
       </c>
       <c r="E891" s="7">
         <v>5</v>
@@ -50306,7 +50298,7 @@
         <v>1</v>
       </c>
       <c r="G891" s="9" t="s">
-        <v>1922</v>
+        <v>1066</v>
       </c>
       <c r="H891" s="7"/>
       <c r="I891" s="7"/>
@@ -50316,22 +50308,22 @@
         <v>891</v>
       </c>
       <c r="B892" s="7">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C892" s="9" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D892" s="9" t="s">
-        <v>1897</v>
+        <v>899</v>
+      </c>
+      <c r="D892" s="7">
+        <v>100</v>
       </c>
       <c r="E892" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F892" s="7">
         <v>1</v>
       </c>
       <c r="G892" s="9" t="s">
-        <v>1066</v>
+        <v>1934</v>
       </c>
       <c r="H892" s="7"/>
       <c r="I892" s="7"/>
@@ -50344,19 +50336,19 @@
         <v>355</v>
       </c>
       <c r="C893" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="D893" s="7">
-        <v>100</v>
+        <v>1140</v>
+      </c>
+      <c r="D893" s="9" t="s">
+        <v>1807</v>
       </c>
       <c r="E893" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F893" s="7">
         <v>1</v>
       </c>
       <c r="G893" s="9" t="s">
-        <v>1935</v>
+        <v>1506</v>
       </c>
       <c r="H893" s="7"/>
       <c r="I893" s="7"/>
@@ -50369,19 +50361,19 @@
         <v>355</v>
       </c>
       <c r="C894" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D894" s="9" t="s">
-        <v>1807</v>
+        <v>899</v>
+      </c>
+      <c r="D894" s="7">
+        <v>100</v>
       </c>
       <c r="E894" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F894" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G894" s="9" t="s">
-        <v>1506</v>
+        <v>1934</v>
       </c>
       <c r="H894" s="7"/>
       <c r="I894" s="7"/>
@@ -50394,19 +50386,19 @@
         <v>355</v>
       </c>
       <c r="C895" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="D895" s="7">
-        <v>100</v>
+        <v>1140</v>
+      </c>
+      <c r="D895" s="9" t="s">
+        <v>1896</v>
       </c>
       <c r="E895" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F895" s="7">
         <v>2</v>
       </c>
       <c r="G895" s="9" t="s">
-        <v>1935</v>
+        <v>1506</v>
       </c>
       <c r="H895" s="7"/>
       <c r="I895" s="7"/>
@@ -50416,22 +50408,22 @@
         <v>895</v>
       </c>
       <c r="B896" s="7">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C896" s="9" t="s">
         <v>1140</v>
       </c>
       <c r="D896" s="9" t="s">
-        <v>1897</v>
+        <v>1939</v>
       </c>
       <c r="E896" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F896" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G896" s="9" t="s">
-        <v>1506</v>
+        <v>1940</v>
       </c>
       <c r="H896" s="7"/>
       <c r="I896" s="7"/>
@@ -50444,13 +50436,13 @@
         <v>356</v>
       </c>
       <c r="C897" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D897" s="9" t="s">
-        <v>1940</v>
+        <v>1115</v>
+      </c>
+      <c r="D897" s="9">
+        <v>2</v>
       </c>
       <c r="E897" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F897" s="7">
         <v>1</v>
@@ -50466,22 +50458,22 @@
         <v>897</v>
       </c>
       <c r="B898" s="7">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C898" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D898" s="9">
-        <v>2</v>
+        <v>1140</v>
+      </c>
+      <c r="D898" s="9" t="s">
+        <v>1939</v>
       </c>
       <c r="E898" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F898" s="7">
         <v>1</v>
       </c>
       <c r="G898" s="9" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="H898" s="7"/>
       <c r="I898" s="7"/>
@@ -50494,13 +50486,13 @@
         <v>357</v>
       </c>
       <c r="C899" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D899" s="9" t="s">
-        <v>1940</v>
+        <v>1115</v>
+      </c>
+      <c r="D899" s="9">
+        <v>3</v>
       </c>
       <c r="E899" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F899" s="7">
         <v>1</v>
@@ -50511,7 +50503,7 @@
       <c r="H899" s="7"/>
       <c r="I899" s="7"/>
     </row>
-    <row r="900" spans="1:9">
+    <row r="900" spans="1:9" s="7" customFormat="1">
       <c r="A900" s="7">
         <v>899</v>
       </c>
@@ -50522,42 +50514,42 @@
         <v>1115</v>
       </c>
       <c r="D900" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E900" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F900" s="7">
         <v>1</v>
       </c>
       <c r="G900" s="9" t="s">
-        <v>1942</v>
-      </c>
-      <c r="H900" s="7"/>
-      <c r="I900" s="7"/>
-    </row>
-    <row r="901" spans="1:9" s="7" customFormat="1">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="901" spans="1:9">
       <c r="A901" s="7">
         <v>900</v>
       </c>
       <c r="B901" s="7">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C901" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D901" s="9">
+        <v>1140</v>
+      </c>
+      <c r="D901" s="9" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E901" s="7">
         <v>5</v>
       </c>
-      <c r="E901" s="7">
-        <v>4</v>
-      </c>
       <c r="F901" s="7">
         <v>1</v>
       </c>
       <c r="G901" s="9" t="s">
-        <v>1942</v>
-      </c>
+        <v>1940</v>
+      </c>
+      <c r="H901" s="7"/>
+      <c r="I901" s="7"/>
     </row>
     <row r="902" spans="1:9">
       <c r="A902" s="7">
@@ -50567,13 +50559,13 @@
         <v>358</v>
       </c>
       <c r="C902" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D902" s="9" t="s">
-        <v>1940</v>
+        <v>1115</v>
+      </c>
+      <c r="D902" s="9">
+        <v>6</v>
       </c>
       <c r="E902" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F902" s="7">
         <v>1</v>
@@ -50595,16 +50587,16 @@
         <v>1115</v>
       </c>
       <c r="D903" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E903" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F903" s="7">
         <v>1</v>
       </c>
       <c r="G903" s="9" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="H903" s="7"/>
       <c r="I903" s="7"/>
@@ -50614,22 +50606,22 @@
         <v>903</v>
       </c>
       <c r="B904" s="7">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C904" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D904" s="9">
-        <v>7</v>
+        <v>1140</v>
+      </c>
+      <c r="D904" s="9" t="s">
+        <v>1939</v>
       </c>
       <c r="E904" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F904" s="7">
         <v>1</v>
       </c>
       <c r="G904" s="9" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="H904" s="7"/>
       <c r="I904" s="7"/>
@@ -50642,13 +50634,13 @@
         <v>359</v>
       </c>
       <c r="C905" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D905" s="9" t="s">
-        <v>1940</v>
+        <v>1115</v>
+      </c>
+      <c r="D905" s="9">
+        <v>8</v>
       </c>
       <c r="E905" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F905" s="7">
         <v>1</v>
@@ -50664,22 +50656,22 @@
         <v>905</v>
       </c>
       <c r="B906" s="7">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C906" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D906" s="9">
-        <v>8</v>
+        <v>1140</v>
+      </c>
+      <c r="D906" s="9" t="s">
+        <v>1939</v>
       </c>
       <c r="E906" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F906" s="7">
         <v>1</v>
       </c>
       <c r="G906" s="9" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="H906" s="7"/>
       <c r="I906" s="7"/>
@@ -50692,10 +50684,10 @@
         <v>360</v>
       </c>
       <c r="C907" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D907" s="9" t="s">
-        <v>1940</v>
+        <v>1115</v>
+      </c>
+      <c r="D907" s="9">
+        <v>2</v>
       </c>
       <c r="E907" s="7">
         <v>2</v>
@@ -50709,18 +50701,18 @@
       <c r="H907" s="7"/>
       <c r="I907" s="7"/>
     </row>
-    <row r="908" spans="1:9">
+    <row r="908" spans="1:9" s="7" customFormat="1">
       <c r="A908" s="7">
         <v>907</v>
       </c>
       <c r="B908" s="7">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C908" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D908" s="9">
-        <v>2</v>
+        <v>1140</v>
+      </c>
+      <c r="D908" s="9" t="s">
+        <v>1939</v>
       </c>
       <c r="E908" s="7">
         <v>2</v>
@@ -50729,10 +50721,8 @@
         <v>1</v>
       </c>
       <c r="G908" s="9" t="s">
-        <v>1942</v>
-      </c>
-      <c r="H908" s="7"/>
-      <c r="I908" s="7"/>
+        <v>1940</v>
+      </c>
     </row>
     <row r="909" spans="1:9" s="7" customFormat="1">
       <c r="A909" s="7">
@@ -50742,13 +50732,13 @@
         <v>361</v>
       </c>
       <c r="C909" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D909" s="9" t="s">
-        <v>1940</v>
+        <v>1115</v>
+      </c>
+      <c r="D909" s="9">
+        <v>3</v>
       </c>
       <c r="E909" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F909" s="7">
         <v>1</v>
@@ -50768,16 +50758,16 @@
         <v>1115</v>
       </c>
       <c r="D910" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E910" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F910" s="7">
         <v>1</v>
       </c>
       <c r="G910" s="9" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="7" customFormat="1">
@@ -50785,22 +50775,22 @@
         <v>910</v>
       </c>
       <c r="B911" s="7">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C911" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D911" s="9">
-        <v>5</v>
+        <v>1140</v>
+      </c>
+      <c r="D911" s="9" t="s">
+        <v>1939</v>
       </c>
       <c r="E911" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F911" s="7">
         <v>1</v>
       </c>
       <c r="G911" s="9" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="7" customFormat="1">
@@ -50811,13 +50801,13 @@
         <v>362</v>
       </c>
       <c r="C912" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D912" s="9" t="s">
-        <v>1940</v>
+        <v>1115</v>
+      </c>
+      <c r="D912" s="9">
+        <v>6</v>
       </c>
       <c r="E912" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F912" s="7">
         <v>1</v>
@@ -50837,16 +50827,16 @@
         <v>1115</v>
       </c>
       <c r="D913" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E913" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F913" s="7">
         <v>1</v>
       </c>
       <c r="G913" s="9" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="7" customFormat="1">
@@ -50854,22 +50844,22 @@
         <v>913</v>
       </c>
       <c r="B914" s="7">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C914" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D914" s="9">
-        <v>7</v>
+        <v>1140</v>
+      </c>
+      <c r="D914" s="9" t="s">
+        <v>1939</v>
       </c>
       <c r="E914" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F914" s="7">
         <v>1</v>
       </c>
       <c r="G914" s="9" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="7" customFormat="1">
@@ -50880,13 +50870,13 @@
         <v>363</v>
       </c>
       <c r="C915" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D915" s="9" t="s">
-        <v>1940</v>
+        <v>1115</v>
+      </c>
+      <c r="D915" s="9">
+        <v>8</v>
       </c>
       <c r="E915" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F915" s="7">
         <v>1</v>
@@ -50900,22 +50890,22 @@
         <v>915</v>
       </c>
       <c r="B916" s="7">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C916" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D916" s="9">
-        <v>8</v>
+        <v>1140</v>
+      </c>
+      <c r="D916" s="9" t="s">
+        <v>1938</v>
       </c>
       <c r="E916" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F916" s="7">
         <v>1</v>
       </c>
       <c r="G916" s="9" t="s">
-        <v>1942</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="7" customFormat="1">
@@ -50926,19 +50916,19 @@
         <v>364</v>
       </c>
       <c r="C917" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D917" s="9" t="s">
-        <v>1939</v>
+        <v>1115</v>
+      </c>
+      <c r="D917" s="9">
+        <v>2</v>
       </c>
       <c r="E917" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F917" s="7">
         <v>1</v>
       </c>
       <c r="G917" s="9" t="s">
-        <v>2040</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="7" customFormat="1">
@@ -50949,19 +50939,19 @@
         <v>364</v>
       </c>
       <c r="C918" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D918" s="9">
-        <v>2</v>
+        <v>1140</v>
+      </c>
+      <c r="D918" s="9" t="s">
+        <v>1952</v>
       </c>
       <c r="E918" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F918" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G918" s="9" t="s">
-        <v>1942</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="919" spans="1:7" s="7" customFormat="1">
@@ -50972,19 +50962,19 @@
         <v>364</v>
       </c>
       <c r="C919" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D919" s="9" t="s">
-        <v>1953</v>
+        <v>1115</v>
+      </c>
+      <c r="D919" s="9">
+        <v>2</v>
       </c>
       <c r="E919" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F919" s="7">
         <v>2</v>
       </c>
       <c r="G919" s="9" t="s">
-        <v>1983</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="920" spans="1:7" s="7" customFormat="1">
@@ -50992,22 +50982,22 @@
         <v>919</v>
       </c>
       <c r="B920" s="7">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C920" s="9" t="s">
         <v>1115</v>
       </c>
       <c r="D920" s="9">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E920" s="7">
         <v>3</v>
       </c>
       <c r="F920" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G920" s="9" t="s">
-        <v>1942</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="921" spans="1:7" s="7" customFormat="1">
@@ -51015,13 +51005,13 @@
         <v>920</v>
       </c>
       <c r="B921" s="7">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C921" s="9" t="s">
         <v>1115</v>
       </c>
       <c r="D921" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E921" s="7">
         <v>3</v>
@@ -51038,22 +51028,22 @@
         <v>921</v>
       </c>
       <c r="B922" s="7">
-        <v>366</v>
-      </c>
-      <c r="C922" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D922" s="9">
-        <v>12</v>
+        <v>367</v>
+      </c>
+      <c r="C922" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D922" s="7" t="s">
+        <v>1648</v>
       </c>
       <c r="E922" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F922" s="7">
         <v>1</v>
       </c>
-      <c r="G922" s="9" t="s">
-        <v>1959</v>
+      <c r="G922" s="7" t="s">
+        <v>1962</v>
       </c>
     </row>
     <row r="923" spans="1:7" s="7" customFormat="1">
@@ -51061,22 +51051,22 @@
         <v>922</v>
       </c>
       <c r="B923" s="7">
-        <v>367</v>
-      </c>
-      <c r="C923" s="7" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D923" s="7" t="s">
-        <v>1648</v>
+        <v>368</v>
+      </c>
+      <c r="C923" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D923" s="9" t="s">
+        <v>1881</v>
       </c>
       <c r="E923" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F923" s="7">
         <v>1</v>
       </c>
-      <c r="G923" s="7" t="s">
-        <v>1963</v>
+      <c r="G923" s="9" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="924" spans="1:7" s="7" customFormat="1">
@@ -51087,19 +51077,19 @@
         <v>368</v>
       </c>
       <c r="C924" s="9" t="s">
-        <v>1140</v>
+        <v>1966</v>
       </c>
       <c r="D924" s="9" t="s">
-        <v>1882</v>
+        <v>1967</v>
       </c>
       <c r="E924" s="7">
         <v>2</v>
       </c>
       <c r="F924" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G924" s="9" t="s">
-        <v>1984</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="925" spans="1:7" s="7" customFormat="1">
@@ -51107,22 +51097,22 @@
         <v>924</v>
       </c>
       <c r="B925" s="7">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C925" s="9" t="s">
-        <v>1967</v>
+        <v>1140</v>
       </c>
       <c r="D925" s="9" t="s">
-        <v>1968</v>
+        <v>1951</v>
       </c>
       <c r="E925" s="7">
         <v>2</v>
       </c>
       <c r="F925" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G925" s="9" t="s">
-        <v>1969</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="926" spans="1:7" s="7" customFormat="1">
@@ -51136,16 +51126,16 @@
         <v>1140</v>
       </c>
       <c r="D926" s="9" t="s">
-        <v>1952</v>
+        <v>1975</v>
       </c>
       <c r="E926" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F926" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G926" s="9" t="s">
-        <v>1983</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="927" spans="1:7" s="7" customFormat="1">
@@ -51153,22 +51143,22 @@
         <v>926</v>
       </c>
       <c r="B927" s="7">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C927" s="9" t="s">
         <v>1140</v>
       </c>
       <c r="D927" s="9" t="s">
-        <v>1976</v>
+        <v>1938</v>
       </c>
       <c r="E927" s="7">
         <v>5</v>
       </c>
       <c r="F927" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G927" s="9" t="s">
-        <v>1966</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="928" spans="1:7" s="7" customFormat="1">
@@ -51176,45 +51166,45 @@
         <v>927</v>
       </c>
       <c r="B928" s="7">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C928" s="9" t="s">
         <v>1140</v>
       </c>
       <c r="D928" s="9" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E928" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F928" s="7">
         <v>1</v>
       </c>
       <c r="G928" s="9" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="929" spans="1:8" s="7" customFormat="1">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8" s="19" customFormat="1">
       <c r="A929" s="7">
         <v>928</v>
       </c>
-      <c r="B929" s="7">
-        <v>371</v>
-      </c>
-      <c r="C929" s="9" t="s">
+      <c r="B929" s="19">
+        <v>372</v>
+      </c>
+      <c r="C929" s="20" t="s">
         <v>1140</v>
       </c>
-      <c r="D929" s="9" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E929" s="7">
-        <v>2</v>
-      </c>
-      <c r="F929" s="7">
-        <v>1</v>
-      </c>
-      <c r="G929" s="9" t="s">
-        <v>1708</v>
+      <c r="D929" s="20" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E929" s="19">
+        <v>5</v>
+      </c>
+      <c r="F929" s="19">
+        <v>1</v>
+      </c>
+      <c r="G929" s="20" t="s">
+        <v>1768</v>
       </c>
     </row>
     <row r="930" spans="1:8" s="19" customFormat="1">
@@ -51222,45 +51212,45 @@
         <v>929</v>
       </c>
       <c r="B930" s="19">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C930" s="20" t="s">
         <v>1140</v>
       </c>
       <c r="D930" s="20" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E930" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F930" s="19">
         <v>1</v>
       </c>
       <c r="G930" s="20" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="931" spans="1:8" s="19" customFormat="1">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" s="7" customFormat="1">
       <c r="A931" s="7">
         <v>930</v>
       </c>
-      <c r="B931" s="19">
-        <v>373</v>
-      </c>
-      <c r="C931" s="20" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D931" s="20" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E931" s="19">
-        <v>2</v>
-      </c>
-      <c r="F931" s="19">
-        <v>1</v>
-      </c>
-      <c r="G931" s="20" t="s">
-        <v>1708</v>
+      <c r="B931" s="7">
+        <v>374</v>
+      </c>
+      <c r="C931" s="9" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D931" s="9" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E931" s="7">
+        <v>5</v>
+      </c>
+      <c r="F931" s="7">
+        <v>1</v>
+      </c>
+      <c r="G931" s="9" t="s">
+        <v>1940</v>
       </c>
     </row>
     <row r="932" spans="1:8" s="7" customFormat="1">
@@ -51268,22 +51258,22 @@
         <v>931</v>
       </c>
       <c r="B932" s="7">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C932" s="9" t="s">
-        <v>1990</v>
+        <v>1966</v>
       </c>
       <c r="D932" s="9" t="s">
-        <v>1885</v>
+        <v>1592</v>
       </c>
       <c r="E932" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F932" s="7">
         <v>1</v>
       </c>
       <c r="G932" s="9" t="s">
-        <v>1941</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="933" spans="1:8" s="7" customFormat="1">
@@ -51294,16 +51284,16 @@
         <v>375</v>
       </c>
       <c r="C933" s="9" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D933" s="9" t="s">
-        <v>1592</v>
+        <v>1998</v>
       </c>
       <c r="E933" s="7">
         <v>2</v>
       </c>
       <c r="F933" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G933" s="9" t="s">
         <v>2000</v>
@@ -51317,19 +51307,19 @@
         <v>375</v>
       </c>
       <c r="C934" s="9" t="s">
-        <v>1967</v>
+        <v>1140</v>
       </c>
       <c r="D934" s="9" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E934" s="7">
+        <v>2</v>
+      </c>
+      <c r="F934" s="7">
+        <v>3</v>
+      </c>
+      <c r="G934" s="9" t="s">
         <v>1999</v>
-      </c>
-      <c r="E934" s="7">
-        <v>2</v>
-      </c>
-      <c r="F934" s="7">
-        <v>2</v>
-      </c>
-      <c r="G934" s="9" t="s">
-        <v>2001</v>
       </c>
     </row>
     <row r="935" spans="1:8" s="7" customFormat="1">
@@ -51343,13 +51333,13 @@
         <v>1140</v>
       </c>
       <c r="D935" s="9" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="E935" s="7">
         <v>2</v>
       </c>
       <c r="F935" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G935" s="9" t="s">
         <v>2000</v>
@@ -51360,22 +51350,22 @@
         <v>935</v>
       </c>
       <c r="B936" s="7">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C936" s="9" t="s">
-        <v>1140</v>
+        <v>1966</v>
       </c>
       <c r="D936" s="9" t="s">
-        <v>2137</v>
+        <v>1806</v>
       </c>
       <c r="E936" s="7">
         <v>2</v>
       </c>
       <c r="F936" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G936" s="9" t="s">
-        <v>2001</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="937" spans="1:8" s="7" customFormat="1">
@@ -51386,19 +51376,19 @@
         <v>376</v>
       </c>
       <c r="C937" s="9" t="s">
-        <v>1967</v>
+        <v>1140</v>
       </c>
       <c r="D937" s="9" t="s">
-        <v>1806</v>
+        <v>2139</v>
       </c>
       <c r="E937" s="7">
         <v>2</v>
       </c>
       <c r="F937" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G937" s="9" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="938" spans="1:8" s="7" customFormat="1">
@@ -51406,22 +51396,22 @@
         <v>937</v>
       </c>
       <c r="B938" s="7">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C938" s="9" t="s">
-        <v>1140</v>
+        <v>1966</v>
       </c>
       <c r="D938" s="9" t="s">
-        <v>2140</v>
+        <v>1881</v>
       </c>
       <c r="E938" s="7">
         <v>2</v>
       </c>
       <c r="F938" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G938" s="9" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="939" spans="1:8" s="7" customFormat="1">
@@ -51429,13 +51419,13 @@
         <v>938</v>
       </c>
       <c r="B939" s="7">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C939" s="9" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D939" s="9" t="s">
-        <v>1882</v>
+        <v>1905</v>
       </c>
       <c r="E939" s="7">
         <v>2</v>
@@ -51444,7 +51434,7 @@
         <v>1</v>
       </c>
       <c r="G939" s="9" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="940" spans="1:8" s="7" customFormat="1">
@@ -51452,13 +51442,13 @@
         <v>939</v>
       </c>
       <c r="B940" s="7">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C940" s="9" t="s">
-        <v>1967</v>
+        <v>1141</v>
       </c>
       <c r="D940" s="9" t="s">
-        <v>1906</v>
+        <v>1938</v>
       </c>
       <c r="E940" s="7">
         <v>2</v>
@@ -51467,7 +51457,7 @@
         <v>1</v>
       </c>
       <c r="G940" s="9" t="s">
-        <v>2006</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="941" spans="1:8" s="7" customFormat="1">
@@ -51478,10 +51468,10 @@
         <v>379</v>
       </c>
       <c r="C941" s="9" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D941" s="9" t="s">
-        <v>1939</v>
+        <v>1115</v>
+      </c>
+      <c r="D941" s="9">
+        <v>0</v>
       </c>
       <c r="E941" s="7">
         <v>2</v>
@@ -51490,33 +51480,34 @@
         <v>1</v>
       </c>
       <c r="G941" s="9" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="942" spans="1:8" s="7" customFormat="1">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8">
       <c r="A942" s="7">
         <v>941</v>
       </c>
       <c r="B942" s="7">
-        <v>379</v>
-      </c>
-      <c r="C942" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D942" s="9">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="C942" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D942" s="7" t="s">
+        <v>1648</v>
       </c>
       <c r="E942" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F942" s="7">
         <v>1</v>
       </c>
-      <c r="G942" s="9" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="943" spans="1:8">
+      <c r="G942" s="7" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H942" s="7"/>
+    </row>
+    <row r="943" spans="1:8" ht="16.5">
       <c r="A943" s="7">
         <v>942</v>
       </c>
@@ -51524,23 +51515,23 @@
         <v>380</v>
       </c>
       <c r="C943" s="7" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D943" s="7" t="s">
-        <v>1648</v>
+        <v>2010</v>
+      </c>
+      <c r="D943" s="103" t="s">
+        <v>2011</v>
       </c>
       <c r="E943" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F943" s="7">
         <v>1</v>
       </c>
       <c r="G943" s="7" t="s">
-        <v>1963</v>
+        <v>2012</v>
       </c>
       <c r="H943" s="7"/>
     </row>
-    <row r="944" spans="1:8" ht="16.5">
+    <row r="944" spans="1:8">
       <c r="A944" s="7">
         <v>943</v>
       </c>
@@ -51548,18 +51539,18 @@
         <v>380</v>
       </c>
       <c r="C944" s="7" t="s">
-        <v>2011</v>
-      </c>
-      <c r="D944" s="103" t="s">
-        <v>2012</v>
+        <v>1032</v>
+      </c>
+      <c r="D944" s="7" t="s">
+        <v>1886</v>
       </c>
       <c r="E944" s="7">
         <v>2</v>
       </c>
       <c r="F944" s="7">
-        <v>1</v>
-      </c>
-      <c r="G944" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G944" s="9" t="s">
         <v>2013</v>
       </c>
       <c r="H944" s="7"/>
@@ -51572,10 +51563,10 @@
         <v>380</v>
       </c>
       <c r="C945" s="7" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D945" s="7" t="s">
-        <v>1887</v>
+        <v>2014</v>
+      </c>
+      <c r="D945" s="9" t="s">
+        <v>2015</v>
       </c>
       <c r="E945" s="7">
         <v>2</v>
@@ -51583,47 +51574,46 @@
       <c r="F945" s="7">
         <v>2</v>
       </c>
-      <c r="G945" s="9" t="s">
-        <v>2014</v>
+      <c r="G945" s="7" t="s">
+        <v>2016</v>
       </c>
       <c r="H945" s="7"/>
     </row>
-    <row r="946" spans="1:8">
+    <row r="946" spans="1:8" s="7" customFormat="1">
       <c r="A946" s="7">
         <v>945</v>
       </c>
       <c r="B946" s="7">
-        <v>380</v>
-      </c>
-      <c r="C946" s="7" t="s">
-        <v>2015</v>
-      </c>
-      <c r="D946" s="9" t="s">
-        <v>2016</v>
+        <v>381</v>
+      </c>
+      <c r="C946" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D946" s="9">
+        <v>0</v>
       </c>
       <c r="E946" s="7">
         <v>2</v>
       </c>
       <c r="F946" s="7">
-        <v>2</v>
-      </c>
-      <c r="G946" s="7" t="s">
-        <v>2017</v>
-      </c>
-      <c r="H946" s="7"/>
-    </row>
-    <row r="947" spans="1:8" s="7" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="G946" s="9" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8">
       <c r="A947" s="7">
         <v>946</v>
       </c>
       <c r="B947" s="7">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C947" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D947" s="9">
-        <v>0</v>
+        <v>1051</v>
+      </c>
+      <c r="D947" s="9" t="s">
+        <v>1209</v>
       </c>
       <c r="E947" s="7">
         <v>2</v>
@@ -51632,8 +51622,9 @@
         <v>1</v>
       </c>
       <c r="G947" s="9" t="s">
-        <v>2009</v>
-      </c>
+        <v>1173</v>
+      </c>
+      <c r="H947" s="7"/>
     </row>
     <row r="948" spans="1:8">
       <c r="A948" s="7">
@@ -51643,19 +51634,19 @@
         <v>382</v>
       </c>
       <c r="C948" s="9" t="s">
-        <v>1051</v>
+        <v>852</v>
       </c>
       <c r="D948" s="9" t="s">
-        <v>1209</v>
+        <v>857</v>
       </c>
       <c r="E948" s="7">
         <v>2</v>
       </c>
       <c r="F948" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G948" s="9" t="s">
-        <v>1173</v>
+        <v>2025</v>
       </c>
       <c r="H948" s="7"/>
     </row>
@@ -51670,13 +51661,13 @@
         <v>852</v>
       </c>
       <c r="D949" s="9" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="E949" s="7">
         <v>2</v>
       </c>
       <c r="F949" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G949" s="9" t="s">
         <v>2026</v>
@@ -51688,19 +51679,19 @@
         <v>949</v>
       </c>
       <c r="B950" s="7">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C950" s="9" t="s">
-        <v>852</v>
-      </c>
-      <c r="D950" s="9" t="s">
-        <v>861</v>
+        <v>1115</v>
+      </c>
+      <c r="D950" s="7">
+        <v>1</v>
       </c>
       <c r="E950" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F950" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G950" s="9" t="s">
         <v>2027</v>
@@ -51718,10 +51709,10 @@
         <v>1115</v>
       </c>
       <c r="D951" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E951" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F951" s="7">
         <v>1</v>
@@ -51738,14 +51729,14 @@
       <c r="B952" s="7">
         <v>383</v>
       </c>
-      <c r="C952" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D952" s="7">
-        <v>7</v>
+      <c r="C952" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D952" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="E952" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F952" s="7">
         <v>1</v>
@@ -51760,22 +51751,22 @@
         <v>952</v>
       </c>
       <c r="B953" s="7">
-        <v>383</v>
-      </c>
-      <c r="C953" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D953" s="7" t="s">
-        <v>853</v>
+        <v>384</v>
+      </c>
+      <c r="C953" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D953" s="7">
+        <v>8</v>
       </c>
       <c r="E953" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F953" s="7">
         <v>1</v>
       </c>
       <c r="G953" s="9" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="H953" s="7"/>
     </row>
@@ -51790,10 +51781,10 @@
         <v>1115</v>
       </c>
       <c r="D954" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E954" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F954" s="7">
         <v>1</v>
@@ -51810,14 +51801,14 @@
       <c r="B955" s="7">
         <v>384</v>
       </c>
-      <c r="C955" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D955" s="7">
-        <v>12</v>
+      <c r="C955" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D955" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="E955" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F955" s="7">
         <v>1</v>
@@ -51827,97 +51818,96 @@
       </c>
       <c r="H955" s="7"/>
     </row>
-    <row r="956" spans="1:8">
+    <row r="956" spans="1:8" s="7" customFormat="1">
       <c r="A956" s="7">
         <v>955</v>
       </c>
       <c r="B956" s="7">
-        <v>384</v>
-      </c>
-      <c r="C956" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D956" s="7" t="s">
-        <v>853</v>
+        <v>385</v>
+      </c>
+      <c r="C956" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D956" s="9">
+        <v>0</v>
       </c>
       <c r="E956" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F956" s="7">
         <v>1</v>
       </c>
       <c r="G956" s="9" t="s">
-        <v>2030</v>
-      </c>
-      <c r="H956" s="7"/>
+        <v>2034</v>
+      </c>
     </row>
     <row r="957" spans="1:8" s="7" customFormat="1">
       <c r="A957" s="7">
         <v>956</v>
       </c>
       <c r="B957" s="7">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C957" s="9" t="s">
-        <v>1115</v>
+        <v>2035</v>
       </c>
       <c r="D957" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E957" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F957" s="7">
         <v>1</v>
       </c>
       <c r="G957" s="9" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="958" spans="1:8" s="7" customFormat="1">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8">
       <c r="A958" s="7">
         <v>957</v>
       </c>
-      <c r="B958" s="7">
-        <v>386</v>
-      </c>
-      <c r="C958" s="9" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D958" s="9">
-        <v>1</v>
-      </c>
-      <c r="E958" s="7">
-        <v>3</v>
-      </c>
-      <c r="F958" s="7">
-        <v>1</v>
-      </c>
-      <c r="G958" s="9" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="959" spans="1:8">
+      <c r="B958" s="8">
+        <v>387</v>
+      </c>
+      <c r="C958" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D958" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="E958" s="8">
+        <v>5</v>
+      </c>
+      <c r="F958" s="8">
+        <v>1</v>
+      </c>
+      <c r="G958" s="8" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8" s="7" customFormat="1">
       <c r="A959" s="7">
         <v>958</v>
       </c>
-      <c r="B959" s="8">
-        <v>387</v>
-      </c>
-      <c r="C959" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D959" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="E959" s="8">
+      <c r="B959" s="7">
+        <v>388</v>
+      </c>
+      <c r="C959" s="9" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D959" s="9" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E959" s="7">
         <v>5</v>
       </c>
-      <c r="F959" s="8">
-        <v>1</v>
-      </c>
-      <c r="G959" s="8" t="s">
-        <v>2043</v>
+      <c r="F959" s="7">
+        <v>1</v>
+      </c>
+      <c r="G959" s="9" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="960" spans="1:8" s="7" customFormat="1">
@@ -51928,19 +51918,19 @@
         <v>388</v>
       </c>
       <c r="C960" s="9" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D960" s="9" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="E960" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F960" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G960" s="9" t="s">
-        <v>911</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="961" spans="1:7" s="7" customFormat="1">
@@ -51948,19 +51938,19 @@
         <v>960</v>
       </c>
       <c r="B961" s="7">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C961" s="9" t="s">
-        <v>2048</v>
+        <v>1051</v>
       </c>
       <c r="D961" s="9" t="s">
-        <v>2056</v>
+        <v>1209</v>
       </c>
       <c r="E961" s="7">
         <v>2</v>
       </c>
       <c r="F961" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G961" s="9" t="s">
         <v>1173</v>
@@ -51974,19 +51964,19 @@
         <v>389</v>
       </c>
       <c r="C962" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D962" s="9" t="s">
-        <v>1209</v>
+        <v>1115</v>
+      </c>
+      <c r="D962" s="7">
+        <v>3</v>
       </c>
       <c r="E962" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F962" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G962" s="9" t="s">
-        <v>1173</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="963" spans="1:7" s="7" customFormat="1">
@@ -51994,19 +51984,19 @@
         <v>962</v>
       </c>
       <c r="B963" s="7">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C963" s="9" t="s">
         <v>1115</v>
       </c>
       <c r="D963" s="7">
+        <v>4</v>
+      </c>
+      <c r="E963" s="7">
         <v>3</v>
       </c>
-      <c r="E963" s="7">
-        <v>4</v>
-      </c>
       <c r="F963" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G963" s="9" t="s">
         <v>2054</v>
@@ -52023,16 +52013,16 @@
         <v>1115</v>
       </c>
       <c r="D964" s="7">
+        <v>7</v>
+      </c>
+      <c r="E964" s="7">
         <v>4</v>
       </c>
-      <c r="E964" s="7">
-        <v>3</v>
-      </c>
       <c r="F964" s="7">
         <v>1</v>
       </c>
       <c r="G964" s="9" t="s">
-        <v>2055</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="965" spans="1:7" s="7" customFormat="1">
@@ -52042,14 +52032,14 @@
       <c r="B965" s="7">
         <v>390</v>
       </c>
-      <c r="C965" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D965" s="7">
-        <v>7</v>
+      <c r="C965" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D965" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="E965" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F965" s="7">
         <v>1</v>
@@ -52063,22 +52053,22 @@
         <v>965</v>
       </c>
       <c r="B966" s="7">
-        <v>390</v>
-      </c>
-      <c r="C966" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D966" s="7" t="s">
-        <v>853</v>
+        <v>391</v>
+      </c>
+      <c r="C966" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D966" s="7">
+        <v>8</v>
       </c>
       <c r="E966" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F966" s="7">
         <v>1</v>
       </c>
       <c r="G966" s="9" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="967" spans="1:7" s="7" customFormat="1">
@@ -52089,13 +52079,13 @@
         <v>391</v>
       </c>
       <c r="C967" s="9" t="s">
-        <v>1115</v>
+        <v>2096</v>
       </c>
       <c r="D967" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E967" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F967" s="7">
         <v>1</v>
@@ -52111,14 +52101,14 @@
       <c r="B968" s="7">
         <v>391</v>
       </c>
-      <c r="C968" s="9" t="s">
-        <v>2097</v>
-      </c>
-      <c r="D968" s="7">
-        <v>12</v>
+      <c r="C968" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D968" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="E968" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F968" s="7">
         <v>1</v>
@@ -52132,7 +52122,7 @@
         <v>968</v>
       </c>
       <c r="B969" s="7">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C969" s="7" t="s">
         <v>852</v>
@@ -52146,8 +52136,8 @@
       <c r="F969" s="7">
         <v>1</v>
       </c>
-      <c r="G969" s="9" t="s">
-        <v>2030</v>
+      <c r="G969" s="7" t="s">
+        <v>2029</v>
       </c>
     </row>
     <row r="970" spans="1:7" s="7" customFormat="1">
@@ -52155,13 +52145,13 @@
         <v>969</v>
       </c>
       <c r="B970" s="7">
-        <v>392</v>
-      </c>
-      <c r="C970" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D970" s="7" t="s">
-        <v>853</v>
+        <v>393</v>
+      </c>
+      <c r="C970" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D970" s="9" t="s">
+        <v>1938</v>
       </c>
       <c r="E970" s="7">
         <v>5</v>
@@ -52169,8 +52159,8 @@
       <c r="F970" s="7">
         <v>1</v>
       </c>
-      <c r="G970" s="7" t="s">
-        <v>2030</v>
+      <c r="G970" s="9" t="s">
+        <v>2066</v>
       </c>
     </row>
     <row r="971" spans="1:7" s="7" customFormat="1">
@@ -52178,16 +52168,16 @@
         <v>970</v>
       </c>
       <c r="B971" s="7">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C971" s="9" t="s">
         <v>1141</v>
       </c>
       <c r="D971" s="9" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E971" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F971" s="7">
         <v>1</v>
@@ -52201,13 +52191,13 @@
         <v>971</v>
       </c>
       <c r="B972" s="7">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C972" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D972" s="9" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E972" s="7">
         <v>2</v>
@@ -52216,7 +52206,7 @@
         <v>1</v>
       </c>
       <c r="G972" s="9" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="973" spans="1:7" s="7" customFormat="1">
@@ -52224,13 +52214,13 @@
         <v>972</v>
       </c>
       <c r="B973" s="7">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C973" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="D973" s="9" t="s">
-        <v>1939</v>
+      <c r="D973" s="63" t="s">
+        <v>1804</v>
       </c>
       <c r="E973" s="7">
         <v>2</v>
@@ -52238,8 +52228,8 @@
       <c r="F973" s="7">
         <v>1</v>
       </c>
-      <c r="G973" s="9" t="s">
-        <v>2068</v>
+      <c r="G973" s="7" t="s">
+        <v>2081</v>
       </c>
     </row>
     <row r="974" spans="1:7" s="7" customFormat="1">
@@ -52253,15 +52243,15 @@
         <v>1140</v>
       </c>
       <c r="D974" s="63" t="s">
-        <v>1804</v>
+        <v>1896</v>
       </c>
       <c r="E974" s="7">
         <v>2</v>
       </c>
       <c r="F974" s="7">
-        <v>1</v>
-      </c>
-      <c r="G974" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G974" s="9" t="s">
         <v>2082</v>
       </c>
     </row>
@@ -52270,22 +52260,22 @@
         <v>974</v>
       </c>
       <c r="B975" s="7">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C975" s="9" t="s">
         <v>1140</v>
       </c>
       <c r="D975" s="63" t="s">
-        <v>1897</v>
+        <v>1938</v>
       </c>
       <c r="E975" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F975" s="7">
         <v>2</v>
       </c>
       <c r="G975" s="9" t="s">
-        <v>2083</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="976" spans="1:7" s="7" customFormat="1">
@@ -52295,20 +52285,20 @@
       <c r="B976" s="7">
         <v>397</v>
       </c>
-      <c r="C976" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D976" s="63" t="s">
-        <v>1939</v>
+      <c r="C976" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D976" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="E976" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F976" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G976" s="9" t="s">
-        <v>2094</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="977" spans="1:9" s="7" customFormat="1">
@@ -52316,22 +52306,22 @@
         <v>976</v>
       </c>
       <c r="B977" s="7">
-        <v>397</v>
-      </c>
-      <c r="C977" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D977" s="7" t="s">
-        <v>853</v>
+        <v>398</v>
+      </c>
+      <c r="C977" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D977" s="63" t="s">
+        <v>1938</v>
       </c>
       <c r="E977" s="7">
         <v>2</v>
       </c>
       <c r="F977" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G977" s="9" t="s">
-        <v>1827</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="978" spans="1:9" s="7" customFormat="1">
@@ -52341,44 +52331,46 @@
       <c r="B978" s="7">
         <v>398</v>
       </c>
-      <c r="C978" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D978" s="63" t="s">
-        <v>1939</v>
+      <c r="C978" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D978" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="E978" s="7">
         <v>2</v>
       </c>
       <c r="F978" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G978" s="9" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="979" spans="1:9" s="7" customFormat="1">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="979" spans="1:9">
       <c r="A979" s="7">
         <v>978</v>
       </c>
-      <c r="B979" s="7">
-        <v>398</v>
-      </c>
-      <c r="C979" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D979" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="E979" s="7">
-        <v>2</v>
-      </c>
-      <c r="F979" s="7">
-        <v>1</v>
-      </c>
-      <c r="G979" s="9" t="s">
-        <v>1827</v>
-      </c>
+      <c r="B979" s="19">
+        <v>399</v>
+      </c>
+      <c r="C979" s="20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D979" s="20" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E979" s="19">
+        <v>5</v>
+      </c>
+      <c r="F979" s="19">
+        <v>1</v>
+      </c>
+      <c r="G979" s="20" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H979" s="7"/>
+      <c r="I979" s="7"/>
     </row>
     <row r="980" spans="1:9">
       <c r="A980" s="7">
@@ -52388,19 +52380,19 @@
         <v>399</v>
       </c>
       <c r="C980" s="20" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D980" s="20" t="s">
-        <v>1885</v>
+        <v>1127</v>
+      </c>
+      <c r="D980" s="20">
+        <v>5</v>
       </c>
       <c r="E980" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F980" s="19">
         <v>1</v>
       </c>
       <c r="G980" s="20" t="s">
-        <v>1865</v>
+        <v>2097</v>
       </c>
       <c r="H980" s="7"/>
       <c r="I980" s="7"/>
@@ -52410,25 +52402,29 @@
         <v>980</v>
       </c>
       <c r="B981" s="19">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C981" s="20" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D981" s="20">
-        <v>5</v>
+        <v>1140</v>
+      </c>
+      <c r="D981" s="20" t="s">
+        <v>1884</v>
       </c>
       <c r="E981" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F981" s="19">
         <v>1</v>
       </c>
       <c r="G981" s="20" t="s">
-        <v>2098</v>
-      </c>
-      <c r="H981" s="7"/>
-      <c r="I981" s="7"/>
+        <v>1875</v>
+      </c>
+      <c r="H981" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="I981" s="7" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="982" spans="1:9">
       <c r="A982" s="7">
@@ -52438,19 +52434,19 @@
         <v>400</v>
       </c>
       <c r="C982" s="20" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D982" s="20" t="s">
-        <v>1885</v>
+        <v>1127</v>
+      </c>
+      <c r="D982" s="20">
+        <v>5</v>
       </c>
       <c r="E982" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F982" s="19">
         <v>1</v>
       </c>
       <c r="G982" s="20" t="s">
-        <v>1876</v>
+        <v>2097</v>
       </c>
       <c r="H982" s="7" t="s">
         <v>863</v>
@@ -52459,33 +52455,27 @@
         <v>864</v>
       </c>
     </row>
-    <row r="983" spans="1:9">
+    <row r="983" spans="1:9" s="7" customFormat="1">
       <c r="A983" s="7">
         <v>982</v>
       </c>
       <c r="B983" s="19">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C983" s="20" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D983" s="20">
-        <v>5</v>
+        <v>1115</v>
+      </c>
+      <c r="D983" s="19">
+        <v>3</v>
       </c>
       <c r="E983" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F983" s="19">
         <v>1</v>
       </c>
       <c r="G983" s="20" t="s">
-        <v>2098</v>
-      </c>
-      <c r="H983" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="I983" s="7" t="s">
-        <v>864</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="984" spans="1:9" s="7" customFormat="1">
@@ -52493,45 +52483,45 @@
         <v>983</v>
       </c>
       <c r="B984" s="19">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C984" s="20" t="s">
         <v>1115</v>
       </c>
       <c r="D984" s="19">
+        <v>4</v>
+      </c>
+      <c r="E984" s="19">
         <v>3</v>
       </c>
-      <c r="E984" s="19">
-        <v>4</v>
-      </c>
       <c r="F984" s="19">
         <v>1</v>
       </c>
       <c r="G984" s="20" t="s">
-        <v>2054</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="985" spans="1:9" s="7" customFormat="1">
       <c r="A985" s="7">
         <v>984</v>
       </c>
-      <c r="B985" s="19">
-        <v>402</v>
-      </c>
-      <c r="C985" s="20" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D985" s="19">
-        <v>4</v>
-      </c>
-      <c r="E985" s="19">
-        <v>3</v>
-      </c>
-      <c r="F985" s="19">
-        <v>1</v>
-      </c>
-      <c r="G985" s="20" t="s">
-        <v>2105</v>
+      <c r="B985" s="7">
+        <v>403</v>
+      </c>
+      <c r="C985" s="94" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D985" s="94" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E985" s="7">
+        <v>2</v>
+      </c>
+      <c r="F985" s="7">
+        <v>1</v>
+      </c>
+      <c r="G985" s="7" t="s">
+        <v>2112</v>
       </c>
     </row>
     <row r="986" spans="1:9" s="7" customFormat="1">
@@ -52542,10 +52532,10 @@
         <v>403</v>
       </c>
       <c r="C986" s="94" t="s">
-        <v>1032</v>
+        <v>1140</v>
       </c>
       <c r="D986" s="94" t="s">
-        <v>1804</v>
+        <v>1592</v>
       </c>
       <c r="E986" s="7">
         <v>2</v>
@@ -52553,7 +52543,7 @@
       <c r="F986" s="7">
         <v>1</v>
       </c>
-      <c r="G986" s="7" t="s">
+      <c r="G986" s="9" t="s">
         <v>2113</v>
       </c>
     </row>
@@ -52562,13 +52552,13 @@
         <v>986</v>
       </c>
       <c r="B987" s="7">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C987" s="94" t="s">
-        <v>1140</v>
+        <v>1032</v>
       </c>
       <c r="D987" s="94" t="s">
-        <v>1592</v>
+        <v>1804</v>
       </c>
       <c r="E987" s="7">
         <v>2</v>
@@ -52576,8 +52566,8 @@
       <c r="F987" s="7">
         <v>1</v>
       </c>
-      <c r="G987" s="9" t="s">
-        <v>2114</v>
+      <c r="G987" s="7" t="s">
+        <v>2112</v>
       </c>
     </row>
     <row r="988" spans="1:9" s="7" customFormat="1">
@@ -52588,10 +52578,10 @@
         <v>404</v>
       </c>
       <c r="C988" s="94" t="s">
-        <v>1032</v>
+        <v>1140</v>
       </c>
       <c r="D988" s="94" t="s">
-        <v>1804</v>
+        <v>2114</v>
       </c>
       <c r="E988" s="7">
         <v>2</v>
@@ -52599,31 +52589,31 @@
       <c r="F988" s="7">
         <v>1</v>
       </c>
-      <c r="G988" s="7" t="s">
+      <c r="G988" s="9" t="s">
         <v>2113</v>
       </c>
     </row>
-    <row r="989" spans="1:9" s="7" customFormat="1">
+    <row r="989" spans="1:9">
       <c r="A989" s="7">
         <v>988</v>
       </c>
-      <c r="B989" s="7">
-        <v>404</v>
-      </c>
-      <c r="C989" s="94" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D989" s="94" t="s">
-        <v>2115</v>
-      </c>
-      <c r="E989" s="7">
-        <v>2</v>
-      </c>
-      <c r="F989" s="7">
-        <v>1</v>
-      </c>
-      <c r="G989" s="9" t="s">
-        <v>2114</v>
+      <c r="B989" s="8">
+        <v>405</v>
+      </c>
+      <c r="C989" s="9" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D989" s="7">
+        <v>1615248000</v>
+      </c>
+      <c r="E989" s="8">
+        <v>3</v>
+      </c>
+      <c r="F989" s="8">
+        <v>1</v>
+      </c>
+      <c r="G989" s="48" t="s">
+        <v>2119</v>
       </c>
     </row>
     <row r="990" spans="1:9">
@@ -52631,22 +52621,22 @@
         <v>989</v>
       </c>
       <c r="B990" s="8">
-        <v>405</v>
-      </c>
-      <c r="C990" s="9" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D990" s="7">
-        <v>1615248000</v>
-      </c>
-      <c r="E990" s="8">
+        <v>406</v>
+      </c>
+      <c r="C990" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D990" s="19">
         <v>3</v>
       </c>
-      <c r="F990" s="8">
-        <v>1</v>
-      </c>
-      <c r="G990" s="48" t="s">
-        <v>2120</v>
+      <c r="E990" s="19">
+        <v>4</v>
+      </c>
+      <c r="F990" s="19">
+        <v>1</v>
+      </c>
+      <c r="G990" s="20" t="s">
+        <v>2053</v>
       </c>
     </row>
     <row r="991" spans="1:9">
@@ -52657,19 +52647,19 @@
         <v>406</v>
       </c>
       <c r="C991" s="20" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D991" s="19">
-        <v>3</v>
+        <v>1140</v>
+      </c>
+      <c r="D991" s="20" t="s">
+        <v>1884</v>
       </c>
       <c r="E991" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F991" s="19">
         <v>1</v>
       </c>
       <c r="G991" s="20" t="s">
-        <v>2054</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="992" spans="1:9">
@@ -52677,22 +52667,22 @@
         <v>991</v>
       </c>
       <c r="B992" s="8">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C992" s="20" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D992" s="20" t="s">
-        <v>1885</v>
+        <v>1115</v>
+      </c>
+      <c r="D992" s="19">
+        <v>4</v>
       </c>
       <c r="E992" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F992" s="19">
         <v>1</v>
       </c>
       <c r="G992" s="20" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="993" spans="1:7">
@@ -52703,19 +52693,19 @@
         <v>407</v>
       </c>
       <c r="C993" s="20" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D993" s="19">
-        <v>4</v>
+        <v>1140</v>
+      </c>
+      <c r="D993" s="20" t="s">
+        <v>1884</v>
       </c>
       <c r="E993" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F993" s="19">
         <v>1</v>
       </c>
       <c r="G993" s="20" t="s">
-        <v>2132</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="994" spans="1:7">
@@ -52723,22 +52713,22 @@
         <v>993</v>
       </c>
       <c r="B994" s="8">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C994" s="20" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D994" s="20" t="s">
-        <v>1885</v>
+        <v>1115</v>
+      </c>
+      <c r="D994" s="19">
+        <v>3</v>
       </c>
       <c r="E994" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F994" s="19">
         <v>1</v>
       </c>
       <c r="G994" s="20" t="s">
-        <v>1861</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="995" spans="1:7">
@@ -52749,19 +52739,19 @@
         <v>408</v>
       </c>
       <c r="C995" s="20" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D995" s="19">
-        <v>3</v>
+        <v>1140</v>
+      </c>
+      <c r="D995" s="20" t="s">
+        <v>1884</v>
       </c>
       <c r="E995" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F995" s="19">
         <v>1</v>
       </c>
       <c r="G995" s="20" t="s">
-        <v>2054</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="996" spans="1:7">
@@ -52769,22 +52759,22 @@
         <v>995</v>
       </c>
       <c r="B996" s="8">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C996" s="20" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D996" s="20" t="s">
-        <v>1885</v>
+        <v>1115</v>
+      </c>
+      <c r="D996" s="19">
+        <v>4</v>
       </c>
       <c r="E996" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F996" s="19">
         <v>1</v>
       </c>
       <c r="G996" s="20" t="s">
-        <v>1863</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="997" spans="1:7">
@@ -52795,19 +52785,19 @@
         <v>409</v>
       </c>
       <c r="C997" s="20" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D997" s="19">
-        <v>4</v>
+        <v>1140</v>
+      </c>
+      <c r="D997" s="20" t="s">
+        <v>1884</v>
       </c>
       <c r="E997" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F997" s="19">
         <v>1</v>
       </c>
       <c r="G997" s="20" t="s">
-        <v>2132</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="998" spans="1:7">
@@ -52815,22 +52805,22 @@
         <v>997</v>
       </c>
       <c r="B998" s="8">
-        <v>409</v>
-      </c>
-      <c r="C998" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C998" s="8" t="s">
         <v>1140</v>
       </c>
-      <c r="D998" s="20" t="s">
-        <v>1885</v>
-      </c>
-      <c r="E998" s="19">
-        <v>2</v>
-      </c>
-      <c r="F998" s="19">
-        <v>1</v>
-      </c>
-      <c r="G998" s="20" t="s">
-        <v>1863</v>
+      <c r="D998" s="8" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E998" s="8">
+        <v>5</v>
+      </c>
+      <c r="F998" s="8">
+        <v>1</v>
+      </c>
+      <c r="G998" s="8" t="s">
+        <v>2153</v>
       </c>
     </row>
     <row r="999" spans="1:7">
@@ -52838,22 +52828,22 @@
         <v>998</v>
       </c>
       <c r="B999" s="8">
-        <v>410</v>
-      </c>
-      <c r="C999" s="8" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D999" s="8" t="s">
-        <v>2153</v>
+        <v>411</v>
+      </c>
+      <c r="C999" s="48" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D999" s="8">
+        <v>0</v>
       </c>
       <c r="E999" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F999" s="8">
         <v>1</v>
       </c>
-      <c r="G999" s="8" t="s">
-        <v>2154</v>
+      <c r="G999" s="48" t="s">
+        <v>2170</v>
       </c>
     </row>
     <row r="1000" spans="1:7">
@@ -52861,22 +52851,22 @@
         <v>999</v>
       </c>
       <c r="B1000" s="8">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C1000" s="48" t="s">
-        <v>2171</v>
+        <v>1115</v>
       </c>
       <c r="D1000" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1000" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1000" s="8">
         <v>1</v>
       </c>
       <c r="G1000" s="48" t="s">
-        <v>2172</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1001" spans="1:7">
@@ -52884,22 +52874,22 @@
         <v>1000</v>
       </c>
       <c r="B1001" s="8">
-        <v>412</v>
-      </c>
-      <c r="C1001" s="48" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1001" s="8">
-        <v>1</v>
-      </c>
-      <c r="E1001" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1001" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1001" s="48" t="s">
-        <v>1117</v>
+        <v>413</v>
+      </c>
+      <c r="C1001" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1001" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1001" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1001" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1001" s="9" t="s">
+        <v>1826</v>
       </c>
     </row>
     <row r="1002" spans="1:7">
@@ -52909,20 +52899,20 @@
       <c r="B1002" s="8">
         <v>413</v>
       </c>
-      <c r="C1002" s="7" t="s">
+      <c r="C1002" s="9" t="s">
         <v>852</v>
       </c>
-      <c r="D1002" s="7" t="s">
-        <v>853</v>
+      <c r="D1002" s="9" t="s">
+        <v>857</v>
       </c>
       <c r="E1002" s="7">
         <v>2</v>
       </c>
       <c r="F1002" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1002" s="9" t="s">
-        <v>1827</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1003" spans="1:7">
@@ -52936,16 +52926,16 @@
         <v>852</v>
       </c>
       <c r="D1003" s="9" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="E1003" s="7">
         <v>2</v>
       </c>
       <c r="F1003" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1003" s="9" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1004" spans="1:7">
@@ -52953,22 +52943,22 @@
         <v>1003</v>
       </c>
       <c r="B1004" s="8">
-        <v>413</v>
-      </c>
-      <c r="C1004" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1004" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="D1004" s="9" t="s">
-        <v>861</v>
+      <c r="D1004" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="E1004" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1004" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1004" s="9" t="s">
-        <v>906</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1005" spans="1:7">
@@ -52978,20 +52968,20 @@
       <c r="B1005" s="8">
         <v>414</v>
       </c>
-      <c r="C1005" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D1005" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="E1005" s="7">
-        <v>5</v>
-      </c>
-      <c r="F1005" s="7">
-        <v>1</v>
-      </c>
-      <c r="G1005" s="9" t="s">
-        <v>2184</v>
+      <c r="C1005" s="48" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1005" s="8">
+        <v>1</v>
+      </c>
+      <c r="E1005" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1005" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1005" s="48" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="1006" spans="1:7">
@@ -53005,16 +52995,16 @@
         <v>1115</v>
       </c>
       <c r="D1006" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1006" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1006" s="8">
         <v>1</v>
       </c>
       <c r="G1006" s="48" t="s">
-        <v>1117</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1007" spans="1:7">
@@ -53022,22 +53012,22 @@
         <v>1006</v>
       </c>
       <c r="B1007" s="8">
-        <v>414</v>
-      </c>
-      <c r="C1007" s="48" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1007" s="8">
-        <v>3</v>
-      </c>
-      <c r="E1007" s="8">
-        <v>4</v>
-      </c>
-      <c r="F1007" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1007" s="48" t="s">
-        <v>1128</v>
+        <v>415</v>
+      </c>
+      <c r="C1007" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1007" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1007" s="7">
+        <v>5</v>
+      </c>
+      <c r="F1007" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1007" s="9" t="s">
+        <v>2182</v>
       </c>
     </row>
     <row r="1008" spans="1:7">
@@ -53047,20 +53037,20 @@
       <c r="B1008" s="8">
         <v>415</v>
       </c>
-      <c r="C1008" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D1008" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="E1008" s="7">
-        <v>5</v>
-      </c>
-      <c r="F1008" s="7">
-        <v>1</v>
-      </c>
-      <c r="G1008" s="9" t="s">
-        <v>2184</v>
+      <c r="C1008" s="48" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1008" s="8">
+        <v>4</v>
+      </c>
+      <c r="E1008" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1008" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1008" s="48" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="1009" spans="1:7">
@@ -53074,16 +53064,16 @@
         <v>1115</v>
       </c>
       <c r="D1009" s="8">
+        <v>7</v>
+      </c>
+      <c r="E1009" s="8">
         <v>4</v>
       </c>
-      <c r="E1009" s="8">
-        <v>3</v>
-      </c>
       <c r="F1009" s="8">
         <v>1</v>
       </c>
       <c r="G1009" s="48" t="s">
-        <v>1134</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1010" spans="1:7">
@@ -53091,22 +53081,22 @@
         <v>1009</v>
       </c>
       <c r="B1010" s="8">
-        <v>415</v>
-      </c>
-      <c r="C1010" s="48" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1010" s="8">
-        <v>7</v>
-      </c>
-      <c r="E1010" s="8">
-        <v>4</v>
-      </c>
-      <c r="F1010" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1010" s="48" t="s">
-        <v>2185</v>
+        <v>416</v>
+      </c>
+      <c r="C1010" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1010" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1010" s="7">
+        <v>5</v>
+      </c>
+      <c r="F1010" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1010" s="9" t="s">
+        <v>2182</v>
       </c>
     </row>
     <row r="1011" spans="1:7">
@@ -53116,19 +53106,19 @@
       <c r="B1011" s="8">
         <v>416</v>
       </c>
-      <c r="C1011" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D1011" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="E1011" s="7">
-        <v>5</v>
-      </c>
-      <c r="F1011" s="7">
-        <v>1</v>
-      </c>
-      <c r="G1011" s="9" t="s">
+      <c r="C1011" s="48" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1011" s="8">
+        <v>8</v>
+      </c>
+      <c r="E1011" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1011" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1011" s="48" t="s">
         <v>2184</v>
       </c>
     </row>
@@ -53143,16 +53133,16 @@
         <v>1115</v>
       </c>
       <c r="D1012" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1012" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1012" s="8">
         <v>1</v>
       </c>
       <c r="G1012" s="48" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1013" spans="1:7">
@@ -53160,22 +53150,22 @@
         <v>1012</v>
       </c>
       <c r="B1013" s="8">
-        <v>416</v>
-      </c>
-      <c r="C1013" s="48" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1013" s="8">
-        <v>12</v>
+        <v>417</v>
+      </c>
+      <c r="C1013" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1013" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="E1013" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1013" s="8">
         <v>1</v>
       </c>
-      <c r="G1013" s="48" t="s">
-        <v>2187</v>
+      <c r="G1013" s="8" t="s">
+        <v>2029</v>
       </c>
     </row>
     <row r="1014" spans="1:7">
@@ -53185,20 +53175,20 @@
       <c r="B1014" s="8">
         <v>417</v>
       </c>
-      <c r="C1014" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D1014" s="7" t="s">
-        <v>853</v>
+      <c r="C1014" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="D1014" s="8">
+        <v>0</v>
       </c>
       <c r="E1014" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1014" s="8">
         <v>1</v>
       </c>
       <c r="G1014" s="8" t="s">
-        <v>2030</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1015" spans="1:7">
@@ -53206,13 +53196,13 @@
         <v>1014</v>
       </c>
       <c r="B1015" s="8">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C1015" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="D1015" s="8">
-        <v>0</v>
+        <v>1140</v>
+      </c>
+      <c r="D1015" s="8" t="s">
+        <v>2142</v>
       </c>
       <c r="E1015" s="8">
         <v>2</v>
@@ -53221,30 +53211,7 @@
         <v>1</v>
       </c>
       <c r="G1015" s="8" t="s">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:7">
-      <c r="A1016" s="8">
-        <v>1015</v>
-      </c>
-      <c r="B1016" s="8">
-        <v>418</v>
-      </c>
-      <c r="C1016" s="8" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D1016" s="8" t="s">
-        <v>2143</v>
-      </c>
-      <c r="E1016" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1016" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1016" s="8" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
     </row>
   </sheetData>
@@ -53294,7 +53261,7 @@
         <v>1033</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -53302,13 +53269,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -53348,7 +53315,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>884</v>
@@ -53377,7 +53344,7 @@
         <v>884</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -53394,13 +53361,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -53409,7 +53376,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -53423,7 +53390,7 @@
         <v>1065</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -53432,7 +53399,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -53440,13 +53407,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -53455,7 +53422,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -53463,13 +53430,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -53478,7 +53445,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -53486,13 +53453,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -53501,7 +53468,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -53509,13 +53476,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -53524,7 +53491,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -53532,13 +53499,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -53547,7 +53514,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -53555,13 +53522,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -53570,7 +53537,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -53578,13 +53545,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -53593,7 +53560,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -53601,13 +53568,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -53616,7 +53583,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -53624,13 +53591,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -53639,7 +53606,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -53647,22 +53614,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="63" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>2215</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>2216</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>2217</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>2218</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -53670,13 +53637,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -53685,7 +53652,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -53693,13 +53660,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -53708,7 +53675,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/permission_server_config.xlsx
+++ b/config_Release/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5340" uniqueCount="2290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5340" uniqueCount="2291">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10011,10 +10011,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_rank_xxlzb_009_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>福气达人--非cjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10592,6 +10588,14 @@
   </si>
   <si>
     <t>是捕鱼奥秘渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_cjj_xxlzb_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11449,9 +11453,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q490"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C411" sqref="C411"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A489" sqref="A489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15806,7 +15810,7 @@
         <v>1827</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="C409" s="2">
         <v>326</v>
@@ -15814,10 +15818,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="C410" s="2">
         <v>436</v>
@@ -15825,10 +15829,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="C411" s="2">
         <v>437</v>
@@ -15995,7 +15999,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="26" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="B430" s="26" t="s">
         <v>1908</v>
@@ -16315,10 +16319,10 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="26" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="B476" s="26" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="C476" s="2">
         <v>410</v>
@@ -16359,10 +16363,10 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B483" s="2" t="s">
         <v>2177</v>
-      </c>
-      <c r="B483" s="2" t="s">
-        <v>2178</v>
       </c>
       <c r="C483" s="2">
         <v>417</v>
@@ -16370,10 +16374,10 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="2" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="C486" s="2">
         <v>432</v>
@@ -16381,10 +16385,10 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="2" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C489" s="2">
         <v>433</v>
@@ -16392,10 +16396,10 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="2" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C490" s="2">
         <v>434</v>
@@ -16413,11 +16417,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O397"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D375" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I357" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E396" sqref="E396"/>
+      <selection pane="bottomRight" activeCell="L373" sqref="L373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28973,10 +28977,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="57" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D372" s="65" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="E372" s="64"/>
       <c r="F372" s="64"/>
@@ -29007,7 +29011,7 @@
         <v>1</v>
       </c>
       <c r="C373" s="57" t="s">
-        <v>2175</v>
+        <v>2289</v>
       </c>
       <c r="D373" s="65" t="s">
         <v>2062</v>
@@ -29030,7 +29034,7 @@
         <v>1615824000</v>
       </c>
       <c r="L373" s="65" t="s">
-        <v>2121</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="374" spans="1:12" s="21" customFormat="1">
@@ 